--- a/ncdc_mappings/ncdc_minimal_dataset.xlsx
+++ b/ncdc_mappings/ncdc_minimal_dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Projects/omop-converter/ncdc_mappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71C5D244-3452-2F49-BB12-A5C47AF1F5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D9DE809-70F5-4B42-8761-A52ABD163021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2420" yWindow="700" windowWidth="33600" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="2" r:id="rId1"/>
@@ -224,7 +224,7 @@
     Change made after analysing the data from the EMIF Twins</t>
       </text>
     </comment>
-    <comment ref="O138" authorId="17" shapeId="0" xr:uid="{DB1DB76F-2FA9-6841-AD9D-6DFD0DBFDB82}">
+    <comment ref="O139" authorId="17" shapeId="0" xr:uid="{DB1DB76F-2FA9-6841-AD9D-6DFD0DBFDB82}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -235,7 +235,7 @@
     *35817792</t>
       </text>
     </comment>
-    <comment ref="O139" authorId="18" shapeId="0" xr:uid="{A5858889-28D4-674B-93A9-428DA77BEAC1}">
+    <comment ref="O140" authorId="18" shapeId="0" xr:uid="{A5858889-28D4-674B-93A9-428DA77BEAC1}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -244,7 +244,7 @@
 UK Biobank depression (observation) - 440383;</t>
       </text>
     </comment>
-    <comment ref="D144" authorId="19" shapeId="0" xr:uid="{CBDE6BEA-B2A6-864A-9DB9-352843E23640}">
+    <comment ref="D145" authorId="19" shapeId="0" xr:uid="{CBDE6BEA-B2A6-864A-9DB9-352843E23640}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -252,7 +252,7 @@
     Already included in the depression scales</t>
       </text>
     </comment>
-    <comment ref="D154" authorId="20" shapeId="0" xr:uid="{D6FAB68C-EC72-6743-8A2B-D62C93D6954D}">
+    <comment ref="D155" authorId="20" shapeId="0" xr:uid="{D6FAB68C-EC72-6743-8A2B-D62C93D6954D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -260,7 +260,7 @@
     Already included in the depression scales</t>
       </text>
     </comment>
-    <comment ref="C163" authorId="21" shapeId="0" xr:uid="{CAC6BB5D-CA12-8443-B406-18164B929324}">
+    <comment ref="C164" authorId="21" shapeId="0" xr:uid="{CAC6BB5D-CA12-8443-B406-18164B929324}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -272,7 +272,7 @@
     SNOMED TMT - 4165596 (but not relative to A neither specific enough to separate time and errors)</t>
       </text>
     </comment>
-    <comment ref="C164" authorId="22" shapeId="0" xr:uid="{1382763E-E589-9F4B-85FE-23A7CFEE18DD}">
+    <comment ref="C165" authorId="22" shapeId="0" xr:uid="{1382763E-E589-9F4B-85FE-23A7CFEE18DD}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -284,7 +284,7 @@
     SNOMED TMT - 4165596 (but not relative to A neither specific enough to separate time and errors)</t>
       </text>
     </comment>
-    <comment ref="E166" authorId="23" shapeId="0" xr:uid="{B7328D09-6363-8249-B2CF-C73EFDCB0D08}">
+    <comment ref="E167" authorId="23" shapeId="0" xr:uid="{B7328D09-6363-8249-B2CF-C73EFDCB0D08}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -292,7 +292,7 @@
     Stroop test - 4136943</t>
       </text>
     </comment>
-    <comment ref="D179" authorId="24" shapeId="0" xr:uid="{914F52AC-FC72-B54D-B9E0-C97695244E94}">
+    <comment ref="D180" authorId="24" shapeId="0" xr:uid="{914F52AC-FC72-B54D-B9E0-C97695244E94}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -300,7 +300,7 @@
     Nebraska Voc.: 3168054</t>
       </text>
     </comment>
-    <comment ref="D184" authorId="25" shapeId="0" xr:uid="{6A389820-1552-134D-B136-21EA4EDF8457}">
+    <comment ref="D185" authorId="25" shapeId="0" xr:uid="{6A389820-1552-134D-B136-21EA4EDF8457}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -308,7 +308,7 @@
     The VAT contains six variants: Short Forms A, B, C, and D (6 items each), and two Long Forms (12 items each: combinations of Short Forms A amp; B and Forms C amp; D)</t>
       </text>
     </comment>
-    <comment ref="D187" authorId="26" shapeId="0" xr:uid="{C933C363-9553-E942-ACD3-527A51429678}">
+    <comment ref="D188" authorId="26" shapeId="0" xr:uid="{C933C363-9553-E942-ACD3-527A51429678}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -316,7 +316,7 @@
     From SNOMED: 4145250</t>
       </text>
     </comment>
-    <comment ref="D188" authorId="27" shapeId="0" xr:uid="{685BE208-102B-4745-B64F-E2C8E1A2AEC5}">
+    <comment ref="D189" authorId="27" shapeId="0" xr:uid="{685BE208-102B-4745-B64F-E2C8E1A2AEC5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -324,7 +324,7 @@
     From SNOMED: 4169175</t>
       </text>
     </comment>
-    <comment ref="D198" authorId="28" shapeId="0" xr:uid="{E6E8D11F-AB9E-5B48-AF0E-DDDA97FEC325}">
+    <comment ref="D199" authorId="28" shapeId="0" xr:uid="{E6E8D11F-AB9E-5B48-AF0E-DDDA97FEC325}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -332,7 +332,7 @@
     Nebraska Voc.: 3168054</t>
       </text>
     </comment>
-    <comment ref="D206" authorId="29" shapeId="0" xr:uid="{643216D6-EB4C-7A45-84AD-FA20AF72AF5A}">
+    <comment ref="D207" authorId="29" shapeId="0" xr:uid="{643216D6-EB4C-7A45-84AD-FA20AF72AF5A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -344,7 +344,7 @@
     However, storing the information for 2 different times may be confusing. Probably the one that falls in the interval 20-30 minutes will be more suitable</t>
       </text>
     </comment>
-    <comment ref="D207" authorId="30" shapeId="0" xr:uid="{7B408D37-7963-244B-BBC8-4A2BD19C9A8C}">
+    <comment ref="D208" authorId="30" shapeId="0" xr:uid="{7B408D37-7963-244B-BBC8-4A2BD19C9A8C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -356,7 +356,7 @@
     However, storing the information for 2 different times may be confusing. Probably the one that falls in the interval 20-30 minutes will be more suitable</t>
       </text>
     </comment>
-    <comment ref="D237" authorId="31" shapeId="0" xr:uid="{6A958D43-89AC-C443-90B2-E839939ED9BB}">
+    <comment ref="D238" authorId="31" shapeId="0" xr:uid="{6A958D43-89AC-C443-90B2-E839939ED9BB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -364,7 +364,7 @@
     Generic concept only from SNOMED for the Boston Naming Test: 4164808</t>
       </text>
     </comment>
-    <comment ref="O247" authorId="32" shapeId="0" xr:uid="{C21DF866-3B02-8D43-BDB4-19473A2B92EE}">
+    <comment ref="O248" authorId="32" shapeId="0" xr:uid="{C21DF866-3B02-8D43-BDB4-19473A2B92EE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -372,7 +372,7 @@
     Observation (SNOMED): 4136437</t>
       </text>
     </comment>
-    <comment ref="O248" authorId="33" shapeId="0" xr:uid="{6D0CD4A8-48D1-4246-9DC1-32FEBE702D51}">
+    <comment ref="O249" authorId="33" shapeId="0" xr:uid="{6D0CD4A8-48D1-4246-9DC1-32FEBE702D51}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -380,7 +380,7 @@
     Observation (SNOMED) 45768724</t>
       </text>
     </comment>
-    <comment ref="O249" authorId="34" shapeId="0" xr:uid="{B59C5FEF-8EFD-C648-A78A-AFBCA7EF7266}">
+    <comment ref="O250" authorId="34" shapeId="0" xr:uid="{B59C5FEF-8EFD-C648-A78A-AFBCA7EF7266}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -388,7 +388,7 @@
     Observation (SNOMED) 45768723</t>
       </text>
     </comment>
-    <comment ref="O250" authorId="35" shapeId="0" xr:uid="{BCD976E6-B6D9-D546-9016-DBD9D0F54E91}">
+    <comment ref="O252" authorId="35" shapeId="0" xr:uid="{BCD976E6-B6D9-D546-9016-DBD9D0F54E91}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -396,7 +396,7 @@
     Observation (SNOMED) 4079321</t>
       </text>
     </comment>
-    <comment ref="O251" authorId="36" shapeId="0" xr:uid="{DFA827BB-C401-AD42-9C05-074FE05BA8AF}">
+    <comment ref="O253" authorId="36" shapeId="0" xr:uid="{DFA827BB-C401-AD42-9C05-074FE05BA8AF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -406,7 +406,7 @@
     4299446</t>
       </text>
     </comment>
-    <comment ref="O252" authorId="37" shapeId="0" xr:uid="{8B270D9A-52A2-8745-B447-8EF3342DED56}">
+    <comment ref="O254" authorId="37" shapeId="0" xr:uid="{8B270D9A-52A2-8745-B447-8EF3342DED56}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -414,7 +414,7 @@
     Observation (SNOMED) 4012274</t>
       </text>
     </comment>
-    <comment ref="O253" authorId="38" shapeId="0" xr:uid="{48DC908A-650A-A142-B529-8C8185B7B723}">
+    <comment ref="O255" authorId="38" shapeId="0" xr:uid="{48DC908A-650A-A142-B529-8C8185B7B723}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -425,7 +425,7 @@
     Observation (SNOMED) - 4221816 (referes to the component itself)</t>
       </text>
     </comment>
-    <comment ref="D259" authorId="39" shapeId="0" xr:uid="{70609BE4-D9A6-3145-A3F3-5832E54D4EE2}">
+    <comment ref="D261" authorId="39" shapeId="0" xr:uid="{70609BE4-D9A6-3145-A3F3-5832E54D4EE2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -672,7 +672,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3938" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3969" uniqueCount="799">
   <si>
     <t>Main category</t>
   </si>
@@ -3075,6 +3075,36 @@
   </si>
   <si>
     <t>Priority test for executive function score from Stroop 3 -Errors</t>
+  </si>
+  <si>
+    <t>Date_Plasma</t>
+  </si>
+  <si>
+    <t>Amyloid_B_ratio_42_40</t>
+  </si>
+  <si>
+    <t>Ratio Amyloid B 42/40</t>
+  </si>
+  <si>
+    <t>Date_Attention</t>
+  </si>
+  <si>
+    <t>Date_Memory</t>
+  </si>
+  <si>
+    <t>Date_Language</t>
+  </si>
+  <si>
+    <t>PHQ-9</t>
+  </si>
+  <si>
+    <t>Depression_rating_phq_9</t>
+  </si>
+  <si>
+    <t>Depression Rating from PHQ 9</t>
+  </si>
+  <si>
+    <t>Date_Executive</t>
   </si>
 </sst>
 </file>
@@ -5155,109 +5185,109 @@
   <threadedComment ref="D122" dT="2021-07-19T08:53:27.73" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{7646EB75-8059-2A4A-AB80-0341A445BEC7}" parentId="{541B57E2-A855-7344-A9FF-E807189955B6}">
     <text>Change made after analysing the data from the EMIF Twins</text>
   </threadedComment>
-  <threadedComment ref="O138" dT="2021-02-11T18:02:21.62" personId="{98691CDF-5915-8B45-A1D3-22E1ADD8314B}" id="{DB1DB76F-2FA9-6841-AD9D-6DFD0DBFDB82}">
+  <threadedComment ref="O139" dT="2021-02-11T18:02:21.62" personId="{98691CDF-5915-8B45-A1D3-22E1ADD8314B}" id="{DB1DB76F-2FA9-6841-AD9D-6DFD0DBFDB82}">
     <text>SNOMED depressive disorder; 
 UK Biobank depression (observation) - 440383;</text>
   </threadedComment>
-  <threadedComment ref="O138" dT="2021-08-16T13:58:34.80" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{04D393B9-2ABF-EF46-BA40-2911247212F4}" parentId="{DB1DB76F-2FA9-6841-AD9D-6DFD0DBFDB82}">
+  <threadedComment ref="O139" dT="2021-08-16T13:58:34.80" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{04D393B9-2ABF-EF46-BA40-2911247212F4}" parentId="{DB1DB76F-2FA9-6841-AD9D-6DFD0DBFDB82}">
     <text>*35817792</text>
   </threadedComment>
-  <threadedComment ref="O139" dT="2021-02-11T18:02:21.62" personId="{98691CDF-5915-8B45-A1D3-22E1ADD8314B}" id="{A5858889-28D4-674B-93A9-428DA77BEAC1}">
+  <threadedComment ref="O140" dT="2021-02-11T18:02:21.62" personId="{98691CDF-5915-8B45-A1D3-22E1ADD8314B}" id="{A5858889-28D4-674B-93A9-428DA77BEAC1}">
     <text>SNOMED depressive disorder; 
 UK Biobank depression (observation) - 440383;</text>
   </threadedComment>
-  <threadedComment ref="D144" dT="2021-07-05T14:54:24.00" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{CBDE6BEA-B2A6-864A-9DB9-352843E23640}">
+  <threadedComment ref="D145" dT="2021-07-05T14:54:24.00" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{CBDE6BEA-B2A6-864A-9DB9-352843E23640}">
     <text>Already included in the depression scales</text>
   </threadedComment>
-  <threadedComment ref="D154" dT="2021-07-05T14:54:24.00" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{D6FAB68C-EC72-6743-8A2B-D62C93D6954D}">
+  <threadedComment ref="D155" dT="2021-07-05T14:54:24.00" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{D6FAB68C-EC72-6743-8A2B-D62C93D6954D}">
     <text>Already included in the depression scales</text>
   </threadedComment>
-  <threadedComment ref="C163" dT="2021-07-19T08:52:44.23" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{CAC6BB5D-CA12-8443-B406-18164B929324}">
+  <threadedComment ref="C164" dT="2021-07-19T08:52:44.23" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{CAC6BB5D-CA12-8443-B406-18164B929324}">
     <text>Both the time and errors can be quite important to really understand the score</text>
   </threadedComment>
-  <threadedComment ref="C163" dT="2021-07-19T08:53:17.30" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{625527A4-B0DF-7544-AD6F-AD6B594818DD}" parentId="{CAC6BB5D-CA12-8443-B406-18164B929324}">
+  <threadedComment ref="C164" dT="2021-07-19T08:53:17.30" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{625527A4-B0DF-7544-AD6F-AD6B594818DD}" parentId="{CAC6BB5D-CA12-8443-B406-18164B929324}">
     <text>Change made after analysing the data from the EMIF Twins</text>
   </threadedComment>
-  <threadedComment ref="C163" dT="2021-07-19T08:55:37.86" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{4CBA2223-988A-D948-A991-542B1156B86B}" parentId="{CAC6BB5D-CA12-8443-B406-18164B929324}">
+  <threadedComment ref="C164" dT="2021-07-19T08:55:37.86" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{4CBA2223-988A-D948-A991-542B1156B86B}" parentId="{CAC6BB5D-CA12-8443-B406-18164B929324}">
     <text>SNOMED TMT - 4165596 (but not relative to A neither specific enough to separate time and errors)</text>
   </threadedComment>
-  <threadedComment ref="C164" dT="2021-07-19T08:52:44.23" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{1382763E-E589-9F4B-85FE-23A7CFEE18DD}">
+  <threadedComment ref="C165" dT="2021-07-19T08:52:44.23" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{1382763E-E589-9F4B-85FE-23A7CFEE18DD}">
     <text>Both the time and errors can be quite important to really understand the score</text>
   </threadedComment>
-  <threadedComment ref="C164" dT="2021-07-19T08:53:17.30" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{CF008FD1-096B-8C41-9085-8ABEF3BC55FD}" parentId="{1382763E-E589-9F4B-85FE-23A7CFEE18DD}">
+  <threadedComment ref="C165" dT="2021-07-19T08:53:17.30" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{CF008FD1-096B-8C41-9085-8ABEF3BC55FD}" parentId="{1382763E-E589-9F4B-85FE-23A7CFEE18DD}">
     <text>Change made after analysing the data from the EMIF Twins</text>
   </threadedComment>
-  <threadedComment ref="C164" dT="2021-07-19T08:55:37.86" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{42785439-4C44-2342-A084-143B11C7854B}" parentId="{1382763E-E589-9F4B-85FE-23A7CFEE18DD}">
+  <threadedComment ref="C165" dT="2021-07-19T08:55:37.86" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{42785439-4C44-2342-A084-143B11C7854B}" parentId="{1382763E-E589-9F4B-85FE-23A7CFEE18DD}">
     <text>SNOMED TMT - 4165596 (but not relative to A neither specific enough to separate time and errors)</text>
   </threadedComment>
-  <threadedComment ref="E166" dT="2021-07-05T15:34:33.85" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{B7328D09-6363-8249-B2CF-C73EFDCB0D08}">
+  <threadedComment ref="E167" dT="2021-07-05T15:34:33.85" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{B7328D09-6363-8249-B2CF-C73EFDCB0D08}">
     <text>Stroop test - 4136943</text>
   </threadedComment>
-  <threadedComment ref="D179" dT="2021-07-05T16:01:17.53" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{914F52AC-FC72-B54D-B9E0-C97695244E94}">
+  <threadedComment ref="D180" dT="2021-07-05T16:01:17.53" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{914F52AC-FC72-B54D-B9E0-C97695244E94}">
     <text>Nebraska Voc.: 3168054</text>
   </threadedComment>
-  <threadedComment ref="D184" dT="2021-07-19T16:39:47.06" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{6A389820-1552-134D-B136-21EA4EDF8457}">
+  <threadedComment ref="D185" dT="2021-07-19T16:39:47.06" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{6A389820-1552-134D-B136-21EA4EDF8457}">
     <text>The VAT contains six variants: Short Forms A, B, C, and D (6 items each), and two Long Forms (12 items each: combinations of Short Forms A amp; B and Forms C amp; D)</text>
   </threadedComment>
-  <threadedComment ref="D187" dT="2021-07-05T16:23:05.54" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{C933C363-9553-E942-ACD3-527A51429678}">
+  <threadedComment ref="D188" dT="2021-07-05T16:23:05.54" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{C933C363-9553-E942-ACD3-527A51429678}">
     <text>From SNOMED: 4145250</text>
   </threadedComment>
-  <threadedComment ref="D188" dT="2021-07-05T16:23:19.00" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{685BE208-102B-4745-B64F-E2C8E1A2AEC5}">
+  <threadedComment ref="D189" dT="2021-07-05T16:23:19.00" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{685BE208-102B-4745-B64F-E2C8E1A2AEC5}">
     <text>From SNOMED: 4169175</text>
   </threadedComment>
-  <threadedComment ref="D198" dT="2021-07-05T16:01:17.53" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{E6E8D11F-AB9E-5B48-AF0E-DDDA97FEC325}">
+  <threadedComment ref="D199" dT="2021-07-05T16:01:17.53" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{E6E8D11F-AB9E-5B48-AF0E-DDDA97FEC325}">
     <text>Nebraska Voc.: 3168054</text>
   </threadedComment>
-  <threadedComment ref="D206" dT="2021-07-19T16:00:31.63" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{643216D6-EB4C-7A45-84AD-FA20AF72AF5A}">
+  <threadedComment ref="D207" dT="2021-07-19T16:00:31.63" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{643216D6-EB4C-7A45-84AD-FA20AF72AF5A}">
     <text>Where to include the time taken until evaluation? E.g. for the EMIF twins there are two times available</text>
   </threadedComment>
-  <threadedComment ref="D206" dT="2021-07-19T16:04:08.94" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{D25A48A7-9F2B-2A49-AEC8-146EED0955E5}" parentId="{643216D6-EB4C-7A45-84AD-FA20AF72AF5A}">
+  <threadedComment ref="D207" dT="2021-07-19T16:04:08.94" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{D25A48A7-9F2B-2A49-AEC8-146EED0955E5}" parentId="{643216D6-EB4C-7A45-84AD-FA20AF72AF5A}">
     <text>Can be included as additional information</text>
   </threadedComment>
-  <threadedComment ref="D206" dT="2021-07-19T16:04:57.29" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{34F2BCE9-CC7C-4D44-9715-454A2E9CFE24}" parentId="{643216D6-EB4C-7A45-84AD-FA20AF72AF5A}">
+  <threadedComment ref="D207" dT="2021-07-19T16:04:57.29" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{34F2BCE9-CC7C-4D44-9715-454A2E9CFE24}" parentId="{643216D6-EB4C-7A45-84AD-FA20AF72AF5A}">
     <text>However, storing the information for 2 different times may be confusing. Probably the one that falls in the interval 20-30 minutes will be more suitable</text>
   </threadedComment>
-  <threadedComment ref="D207" dT="2021-07-19T16:00:31.63" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{7B408D37-7963-244B-BBC8-4A2BD19C9A8C}">
+  <threadedComment ref="D208" dT="2021-07-19T16:00:31.63" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{7B408D37-7963-244B-BBC8-4A2BD19C9A8C}">
     <text>Where to include the time taken until evaluation? E.g. for the EMIF twins there are two times available</text>
   </threadedComment>
-  <threadedComment ref="D207" dT="2021-07-19T16:04:08.94" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{6C7AA819-3788-8E42-860E-28922E8F4385}" parentId="{7B408D37-7963-244B-BBC8-4A2BD19C9A8C}">
+  <threadedComment ref="D208" dT="2021-07-19T16:04:08.94" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{6C7AA819-3788-8E42-860E-28922E8F4385}" parentId="{7B408D37-7963-244B-BBC8-4A2BD19C9A8C}">
     <text>Can be included as additional information</text>
   </threadedComment>
-  <threadedComment ref="D207" dT="2021-07-19T16:04:57.29" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{75CAA762-6AD4-934F-A0AD-B9AFDD6D31E9}" parentId="{7B408D37-7963-244B-BBC8-4A2BD19C9A8C}">
+  <threadedComment ref="D208" dT="2021-07-19T16:04:57.29" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{75CAA762-6AD4-934F-A0AD-B9AFDD6D31E9}" parentId="{7B408D37-7963-244B-BBC8-4A2BD19C9A8C}">
     <text>However, storing the information for 2 different times may be confusing. Probably the one that falls in the interval 20-30 minutes will be more suitable</text>
   </threadedComment>
-  <threadedComment ref="D237" dT="2021-07-08T14:57:23.15" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{6A958D43-89AC-C443-90B2-E839939ED9BB}">
+  <threadedComment ref="D238" dT="2021-07-08T14:57:23.15" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{6A958D43-89AC-C443-90B2-E839939ED9BB}">
     <text>Generic concept only from SNOMED for the Boston Naming Test: 4164808</text>
   </threadedComment>
-  <threadedComment ref="O247" dT="2021-10-27T15:56:51.26" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{C21DF866-3B02-8D43-BDB4-19473A2B92EE}">
+  <threadedComment ref="O248" dT="2021-10-27T15:56:51.26" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{C21DF866-3B02-8D43-BDB4-19473A2B92EE}">
     <text>Observation (SNOMED): 4136437</text>
   </threadedComment>
-  <threadedComment ref="O248" dT="2021-10-27T15:57:10.76" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{6D0CD4A8-48D1-4246-9DC1-32FEBE702D51}">
+  <threadedComment ref="O249" dT="2021-10-27T15:57:10.76" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{6D0CD4A8-48D1-4246-9DC1-32FEBE702D51}">
     <text>Observation (SNOMED) 45768724</text>
   </threadedComment>
-  <threadedComment ref="O249" dT="2021-10-27T15:59:18.03" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{B59C5FEF-8EFD-C648-A78A-AFBCA7EF7266}">
+  <threadedComment ref="O250" dT="2021-10-27T15:59:18.03" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{B59C5FEF-8EFD-C648-A78A-AFBCA7EF7266}">
     <text>Observation (SNOMED) 45768723</text>
   </threadedComment>
-  <threadedComment ref="O250" dT="2021-10-27T16:01:02.13" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{BCD976E6-B6D9-D546-9016-DBD9D0F54E91}">
+  <threadedComment ref="O252" dT="2021-10-27T16:01:02.13" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{BCD976E6-B6D9-D546-9016-DBD9D0F54E91}">
     <text>Observation (SNOMED) 4079321</text>
   </threadedComment>
-  <threadedComment ref="O251" dT="2021-07-02T12:24:20.39" personId="{98691CDF-5915-8B45-A1D3-22E1ADD8314B}" id="{DFA827BB-C401-AD42-9C05-074FE05BA8AF}">
+  <threadedComment ref="O253" dT="2021-07-02T12:24:20.39" personId="{98691CDF-5915-8B45-A1D3-22E1ADD8314B}" id="{DFA827BB-C401-AD42-9C05-074FE05BA8AF}">
     <text>Matches to “Neurofilament protein” - no clear match to NFL, maybe a new concept or the link to the ontology can be enough?</text>
   </threadedComment>
-  <threadedComment ref="O251" dT="2021-10-27T16:04:29.90" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{236EE8B4-0B5A-B546-910E-201CC41AB22E}" parentId="{DFA827BB-C401-AD42-9C05-074FE05BA8AF}">
+  <threadedComment ref="O253" dT="2021-10-27T16:04:29.90" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{236EE8B4-0B5A-B546-910E-201CC41AB22E}" parentId="{DFA827BB-C401-AD42-9C05-074FE05BA8AF}">
     <text>4299446</text>
   </threadedComment>
-  <threadedComment ref="O252" dT="2021-10-27T16:05:33.61" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{8B270D9A-52A2-8745-B447-8EF3342DED56}">
+  <threadedComment ref="O254" dT="2021-10-27T16:05:33.61" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{8B270D9A-52A2-8745-B447-8EF3342DED56}">
     <text>Observation (SNOMED) 4012274</text>
   </threadedComment>
-  <threadedComment ref="O253" dT="2021-10-27T16:07:09.40" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{48DC908A-650A-A142-B529-8C8185B7B723}">
+  <threadedComment ref="O255" dT="2021-10-27T16:07:09.40" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{48DC908A-650A-A142-B529-8C8185B7B723}">
     <text>Measurement meaning - Measurement of concentration of amyloid A in serum specimen (procedure)
 Serum amyloid A concentratio</text>
   </threadedComment>
-  <threadedComment ref="O253" dT="2021-10-27T16:07:50.16" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{475E4E61-9156-CF48-A078-B50A8EE3149D}" parentId="{48DC908A-650A-A142-B529-8C8185B7B723}">
+  <threadedComment ref="O255" dT="2021-10-27T16:07:50.16" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{475E4E61-9156-CF48-A078-B50A8EE3149D}" parentId="{48DC908A-650A-A142-B529-8C8185B7B723}">
     <text>Observation (SNOMED) - 4221816 (referes to the component itself)</text>
   </threadedComment>
-  <threadedComment ref="D259" dT="2021-07-02T12:47:45.50" personId="{98691CDF-5915-8B45-A1D3-22E1ADD8314B}" id="{70609BE4-D9A6-3145-A3F3-5832E54D4EE2}">
+  <threadedComment ref="D261" dT="2021-07-02T12:47:45.50" personId="{98691CDF-5915-8B45-A1D3-22E1ADD8314B}" id="{70609BE4-D9A6-3145-A3F3-5832E54D4EE2}">
     <text>All these fields require more information. Probably they represent measurements but more complete information is required to clearly identify what’s being measured/how and the units.</text>
   </threadedComment>
 </ThreadedComments>
@@ -5357,11 +5387,11 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:X1233"/>
+  <dimension ref="A1:X1234"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X222" sqref="X222"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -11865,7 +11895,7 @@
       <c r="N130" s="27"/>
       <c r="O130" s="27"/>
       <c r="P130" s="28" t="str">
-        <f t="shared" ref="P130:P140" si="5">IF(N130&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O130), CONCATENATE("Athena-",O130)),"")</f>
+        <f t="shared" ref="P130:P141" si="5">IF(N130&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O130), CONCATENATE("Athena-",O130)),"")</f>
         <v/>
       </c>
       <c r="Q130" s="27"/>
@@ -12123,12 +12153,14 @@
     <row r="136" spans="1:24" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="59"/>
       <c r="B136" s="72"/>
-      <c r="C136" s="27"/>
-      <c r="D136" s="102" t="s">
-        <v>427</v>
-      </c>
-      <c r="E136" s="86" t="s">
-        <v>432</v>
+      <c r="C136" s="27" t="s">
+        <v>795</v>
+      </c>
+      <c r="D136" s="83" t="s">
+        <v>796</v>
+      </c>
+      <c r="E136" s="87" t="s">
+        <v>797</v>
       </c>
       <c r="F136" s="27" t="s">
         <v>309</v>
@@ -12137,18 +12169,26 @@
       <c r="H136" s="69" t="s">
         <v>776</v>
       </c>
-      <c r="I136" s="73"/>
+      <c r="I136" s="73" t="s">
+        <v>721</v>
+      </c>
       <c r="J136" s="65"/>
       <c r="K136" s="65" t="s">
         <v>337</v>
       </c>
       <c r="L136" s="16"/>
-      <c r="M136" s="47"/>
-      <c r="N136" s="65"/>
-      <c r="O136" s="89"/>
+      <c r="M136" s="47" t="s">
+        <v>374</v>
+      </c>
+      <c r="N136" s="65" t="s">
+        <v>368</v>
+      </c>
+      <c r="O136" s="89">
+        <v>36714983</v>
+      </c>
       <c r="P136" s="28" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" ref="P136" si="6">IF(N136&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O136), CONCATENATE("Athena-",O136)),"")</f>
+        <v>Athena-36714983</v>
       </c>
       <c r="Q136" s="65"/>
       <c r="R136" s="65"/>
@@ -12161,17 +12201,15 @@
         <v>260</v>
       </c>
     </row>
-    <row r="137" spans="1:24" s="54" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:24" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="59"/>
-      <c r="B137" s="72" t="s">
-        <v>311</v>
-      </c>
+      <c r="B137" s="72"/>
       <c r="C137" s="27"/>
-      <c r="D137" s="76" t="s">
-        <v>259</v>
-      </c>
-      <c r="E137" s="77" t="s">
-        <v>312</v>
+      <c r="D137" s="102" t="s">
+        <v>427</v>
+      </c>
+      <c r="E137" s="86" t="s">
+        <v>432</v>
       </c>
       <c r="F137" s="27" t="s">
         <v>309</v>
@@ -12181,25 +12219,25 @@
         <v>776</v>
       </c>
       <c r="I137" s="73"/>
-      <c r="J137" s="27"/>
-      <c r="K137" s="27" t="s">
+      <c r="J137" s="65"/>
+      <c r="K137" s="65" t="s">
         <v>337</v>
       </c>
-      <c r="L137" s="46"/>
-      <c r="M137" s="27"/>
-      <c r="N137" s="27"/>
-      <c r="O137" s="27"/>
+      <c r="L137" s="16"/>
+      <c r="M137" s="47"/>
+      <c r="N137" s="65"/>
+      <c r="O137" s="89"/>
       <c r="P137" s="28" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Q137" s="27"/>
-      <c r="R137" s="27"/>
-      <c r="S137" s="27"/>
-      <c r="T137" s="27"/>
-      <c r="U137" s="27"/>
-      <c r="V137" s="27"/>
-      <c r="W137" s="27"/>
+      <c r="Q137" s="65"/>
+      <c r="R137" s="65"/>
+      <c r="S137" s="65"/>
+      <c r="T137" s="65"/>
+      <c r="U137" s="65"/>
+      <c r="V137" s="65"/>
+      <c r="W137" s="65"/>
       <c r="X137" s="27" t="s">
         <v>260</v>
       </c>
@@ -12207,60 +12245,42 @@
     <row r="138" spans="1:24" s="54" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="59"/>
       <c r="B138" s="72" t="s">
-        <v>126</v>
-      </c>
-      <c r="C138" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="D138" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="E138" s="45" t="s">
-        <v>697</v>
+        <v>311</v>
+      </c>
+      <c r="C138" s="27"/>
+      <c r="D138" s="76" t="s">
+        <v>259</v>
+      </c>
+      <c r="E138" s="77" t="s">
+        <v>312</v>
       </c>
       <c r="F138" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="G138" s="27" t="s">
-        <v>58</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G138" s="65"/>
       <c r="H138" s="69" t="s">
-        <v>672</v>
-      </c>
-      <c r="I138" s="69" t="s">
-        <v>722</v>
-      </c>
+        <v>776</v>
+      </c>
+      <c r="I138" s="73"/>
       <c r="J138" s="27"/>
       <c r="K138" s="27" t="s">
         <v>337</v>
       </c>
       <c r="L138" s="46"/>
-      <c r="M138" s="97" t="s">
-        <v>371</v>
-      </c>
-      <c r="N138" s="97" t="s">
-        <v>368</v>
-      </c>
-      <c r="O138" s="98">
-        <v>440383</v>
-      </c>
+      <c r="M138" s="27"/>
+      <c r="N138" s="27"/>
+      <c r="O138" s="27"/>
       <c r="P138" s="28" t="str">
         <f t="shared" si="5"/>
-        <v>Athena-440383</v>
+        <v/>
       </c>
       <c r="Q138" s="27"/>
       <c r="R138" s="27"/>
       <c r="S138" s="27"/>
-      <c r="T138" s="27" t="s">
-        <v>673</v>
-      </c>
-      <c r="U138" s="27" t="s">
-        <v>674</v>
-      </c>
+      <c r="T138" s="27"/>
+      <c r="U138" s="27"/>
       <c r="V138" s="27"/>
-      <c r="W138" s="27" t="s">
-        <v>342</v>
-      </c>
+      <c r="W138" s="27"/>
       <c r="X138" s="27" t="s">
         <v>260</v>
       </c>
@@ -12274,7 +12294,7 @@
         <v>123</v>
       </c>
       <c r="D139" s="27" t="s">
-        <v>608</v>
+        <v>123</v>
       </c>
       <c r="E139" s="45" t="s">
         <v>697</v>
@@ -12297,7 +12317,7 @@
       </c>
       <c r="L139" s="46"/>
       <c r="M139" s="97" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="N139" s="97" t="s">
         <v>368</v>
@@ -12316,7 +12336,7 @@
         <v>673</v>
       </c>
       <c r="U139" s="27" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="V139" s="27"/>
       <c r="W139" s="27" t="s">
@@ -12326,152 +12346,168 @@
         <v>260</v>
       </c>
     </row>
-    <row r="140" spans="1:24" s="54" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:24" s="54" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="59"/>
-      <c r="B140" s="72"/>
-      <c r="C140" s="27"/>
+      <c r="B140" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="C140" s="27" t="s">
+        <v>123</v>
+      </c>
       <c r="D140" s="27" t="s">
-        <v>342</v>
+        <v>608</v>
       </c>
       <c r="E140" s="45" t="s">
-        <v>356</v>
+        <v>697</v>
       </c>
       <c r="F140" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G140" s="27"/>
-      <c r="H140" s="69"/>
+        <v>55</v>
+      </c>
+      <c r="G140" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="H140" s="69" t="s">
+        <v>672</v>
+      </c>
       <c r="I140" s="69" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="J140" s="27"/>
       <c r="K140" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L140" s="70"/>
-      <c r="M140" s="27" t="s">
-        <v>587</v>
-      </c>
-      <c r="N140" s="27"/>
-      <c r="O140" s="27"/>
+      <c r="L140" s="46"/>
+      <c r="M140" s="97" t="s">
+        <v>367</v>
+      </c>
+      <c r="N140" s="97" t="s">
+        <v>368</v>
+      </c>
+      <c r="O140" s="98">
+        <v>440383</v>
+      </c>
       <c r="P140" s="28" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>Athena-440383</v>
       </c>
       <c r="Q140" s="27"/>
       <c r="R140" s="27"/>
       <c r="S140" s="27"/>
-      <c r="T140" s="27"/>
-      <c r="U140" s="27"/>
+      <c r="T140" s="27" t="s">
+        <v>673</v>
+      </c>
+      <c r="U140" s="27" t="s">
+        <v>675</v>
+      </c>
       <c r="V140" s="27"/>
-      <c r="W140" s="27"/>
+      <c r="W140" s="27" t="s">
+        <v>342</v>
+      </c>
       <c r="X140" s="27" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="141" spans="1:24" s="54" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:24" s="54" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="59"/>
-      <c r="B141" s="74"/>
-      <c r="C141" s="60"/>
-      <c r="D141" s="60"/>
-      <c r="E141" s="61"/>
-      <c r="F141" s="60"/>
-      <c r="G141" s="60"/>
-      <c r="H141" s="62"/>
-      <c r="I141" s="62"/>
-      <c r="J141" s="60"/>
-      <c r="K141" s="60"/>
-      <c r="L141" s="64"/>
-      <c r="M141" s="60"/>
-      <c r="N141" s="60"/>
-      <c r="O141" s="60"/>
-      <c r="P141" s="60"/>
-      <c r="Q141" s="60"/>
-      <c r="R141" s="60"/>
-      <c r="S141" s="60"/>
-      <c r="T141" s="60"/>
-      <c r="U141" s="60"/>
-      <c r="V141" s="60"/>
-      <c r="W141" s="60"/>
-      <c r="X141" s="60"/>
-    </row>
-    <row r="142" spans="1:24" s="54" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B141" s="72"/>
+      <c r="C141" s="27"/>
+      <c r="D141" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="E141" s="45" t="s">
+        <v>356</v>
+      </c>
+      <c r="F141" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="G141" s="27"/>
+      <c r="H141" s="69"/>
+      <c r="I141" s="69" t="s">
+        <v>723</v>
+      </c>
+      <c r="J141" s="27"/>
+      <c r="K141" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="L141" s="70"/>
+      <c r="M141" s="27" t="s">
+        <v>587</v>
+      </c>
+      <c r="N141" s="27"/>
+      <c r="O141" s="27"/>
+      <c r="P141" s="28" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q141" s="27"/>
+      <c r="R141" s="27"/>
+      <c r="S141" s="27"/>
+      <c r="T141" s="27"/>
+      <c r="U141" s="27"/>
+      <c r="V141" s="27"/>
+      <c r="W141" s="27"/>
+      <c r="X141" s="27" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24" s="54" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="59"/>
-      <c r="B142" s="51" t="s">
-        <v>230</v>
-      </c>
-      <c r="C142" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="D142" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="E142" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="F142" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="G142" s="27"/>
-      <c r="H142" s="28"/>
-      <c r="I142" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="J142" s="15"/>
-      <c r="K142" s="27" t="s">
-        <v>337</v>
-      </c>
-      <c r="L142" s="46"/>
-      <c r="M142" s="27"/>
-      <c r="N142" s="27"/>
-      <c r="O142" s="27"/>
-      <c r="P142" s="28" t="str">
-        <f t="shared" ref="P142:P152" si="6">IF(N142&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O142), CONCATENATE("Athena-",O142)),"")</f>
-        <v/>
-      </c>
-      <c r="Q142" s="27"/>
-      <c r="R142" s="27"/>
-      <c r="S142" s="27"/>
-      <c r="T142" s="27"/>
-      <c r="U142" s="27"/>
-      <c r="V142" s="27"/>
-      <c r="W142" s="27"/>
-      <c r="X142" s="27"/>
-    </row>
-    <row r="143" spans="1:24" s="54" customFormat="1" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B142" s="74"/>
+      <c r="C142" s="60"/>
+      <c r="D142" s="60"/>
+      <c r="E142" s="61"/>
+      <c r="F142" s="60"/>
+      <c r="G142" s="60"/>
+      <c r="H142" s="62"/>
+      <c r="I142" s="62"/>
+      <c r="J142" s="60"/>
+      <c r="K142" s="60"/>
+      <c r="L142" s="64"/>
+      <c r="M142" s="60"/>
+      <c r="N142" s="60"/>
+      <c r="O142" s="60"/>
+      <c r="P142" s="60"/>
+      <c r="Q142" s="60"/>
+      <c r="R142" s="60"/>
+      <c r="S142" s="60"/>
+      <c r="T142" s="60"/>
+      <c r="U142" s="60"/>
+      <c r="V142" s="60"/>
+      <c r="W142" s="60"/>
+      <c r="X142" s="60"/>
+    </row>
+    <row r="143" spans="1:24" s="54" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="59"/>
       <c r="B143" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="C143" s="15"/>
-      <c r="D143" s="76" t="s">
-        <v>308</v>
-      </c>
-      <c r="E143" s="77" t="s">
-        <v>314</v>
+        <v>230</v>
+      </c>
+      <c r="C143" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="D143" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="E143" s="16" t="s">
+        <v>263</v>
       </c>
       <c r="F143" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G143" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="H143" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="I143" s="28"/>
+        <v>120</v>
+      </c>
+      <c r="G143" s="27"/>
+      <c r="H143" s="28"/>
+      <c r="I143" s="28" t="s">
+        <v>120</v>
+      </c>
       <c r="J143" s="15"/>
       <c r="K143" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L143" s="16" t="s">
-        <v>358</v>
-      </c>
+      <c r="L143" s="46"/>
       <c r="M143" s="27"/>
       <c r="N143" s="27"/>
       <c r="O143" s="27"/>
       <c r="P143" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="P143:P153" si="7">IF(N143&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O143), CONCATENATE("Athena-",O143)),"")</f>
         <v/>
       </c>
       <c r="Q143" s="27"/>
@@ -12481,46 +12517,42 @@
       <c r="U143" s="27"/>
       <c r="V143" s="27"/>
       <c r="W143" s="27"/>
-      <c r="X143" s="15" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="144" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X143" s="27"/>
+    </row>
+    <row r="144" spans="1:24" s="54" customFormat="1" ht="94" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="59"/>
-      <c r="B144" s="51"/>
-      <c r="C144" s="15" t="s">
-        <v>550</v>
-      </c>
-      <c r="D144" s="83" t="s">
-        <v>434</v>
-      </c>
-      <c r="E144" s="84" t="s">
-        <v>435</v>
-      </c>
-      <c r="F144" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="G144" s="15"/>
-      <c r="H144" s="69" t="s">
-        <v>776</v>
-      </c>
-      <c r="I144" s="28" t="s">
-        <v>721</v>
-      </c>
+      <c r="B144" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="C144" s="15"/>
+      <c r="D144" s="76" t="s">
+        <v>308</v>
+      </c>
+      <c r="E144" s="77" t="s">
+        <v>314</v>
+      </c>
+      <c r="F144" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G144" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="H144" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="I144" s="28"/>
       <c r="J144" s="15"/>
       <c r="K144" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L144" s="16"/>
-      <c r="M144" s="47" t="s">
-        <v>374</v>
-      </c>
-      <c r="N144" s="65"/>
-      <c r="O144" s="89">
-        <v>2000000027</v>
-      </c>
+      <c r="L144" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="M144" s="27"/>
+      <c r="N144" s="27"/>
+      <c r="O144" s="27"/>
       <c r="P144" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Q144" s="27"/>
@@ -12538,13 +12570,13 @@
       <c r="A145" s="59"/>
       <c r="B145" s="51"/>
       <c r="C145" s="15" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D145" s="83" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E145" s="84" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F145" s="27" t="s">
         <v>309</v>
@@ -12564,15 +12596,13 @@
       <c r="M145" s="47" t="s">
         <v>374</v>
       </c>
-      <c r="N145" s="65" t="s">
-        <v>368</v>
-      </c>
+      <c r="N145" s="65"/>
       <c r="O145" s="89">
-        <v>4128244</v>
+        <v>2000000027</v>
       </c>
       <c r="P145" s="28" t="str">
-        <f t="shared" si="6"/>
-        <v>Athena-4128244</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="Q145" s="27"/>
       <c r="R145" s="27"/>
@@ -12589,13 +12619,13 @@
       <c r="A146" s="59"/>
       <c r="B146" s="51"/>
       <c r="C146" s="15" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D146" s="83" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E146" s="84" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F146" s="27" t="s">
         <v>309</v>
@@ -12619,11 +12649,11 @@
         <v>368</v>
       </c>
       <c r="O146" s="89">
-        <v>4169477</v>
+        <v>4128244</v>
       </c>
       <c r="P146" s="28" t="str">
-        <f t="shared" si="6"/>
-        <v>Athena-4169477</v>
+        <f t="shared" si="7"/>
+        <v>Athena-4128244</v>
       </c>
       <c r="Q146" s="27"/>
       <c r="R146" s="27"/>
@@ -12639,12 +12669,14 @@
     <row r="147" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="59"/>
       <c r="B147" s="51"/>
-      <c r="C147" s="15"/>
+      <c r="C147" s="15" t="s">
+        <v>552</v>
+      </c>
       <c r="D147" s="83" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E147" s="84" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F147" s="27" t="s">
         <v>309</v>
@@ -12668,11 +12700,11 @@
         <v>368</v>
       </c>
       <c r="O147" s="89">
-        <v>4165145</v>
+        <v>4169477</v>
       </c>
       <c r="P147" s="28" t="str">
-        <f t="shared" si="6"/>
-        <v>Athena-4165145</v>
+        <f t="shared" si="7"/>
+        <v>Athena-4169477</v>
       </c>
       <c r="Q147" s="27"/>
       <c r="R147" s="27"/>
@@ -12689,11 +12721,11 @@
       <c r="A148" s="59"/>
       <c r="B148" s="51"/>
       <c r="C148" s="15"/>
-      <c r="D148" s="76" t="s">
-        <v>439</v>
-      </c>
-      <c r="E148" s="77" t="s">
-        <v>444</v>
+      <c r="D148" s="83" t="s">
+        <v>438</v>
+      </c>
+      <c r="E148" s="84" t="s">
+        <v>443</v>
       </c>
       <c r="F148" s="27" t="s">
         <v>309</v>
@@ -12702,18 +12734,26 @@
       <c r="H148" s="69" t="s">
         <v>776</v>
       </c>
-      <c r="I148" s="28"/>
+      <c r="I148" s="28" t="s">
+        <v>721</v>
+      </c>
       <c r="J148" s="15"/>
       <c r="K148" s="27" t="s">
         <v>337</v>
       </c>
       <c r="L148" s="16"/>
-      <c r="M148" s="47"/>
-      <c r="N148" s="27"/>
-      <c r="O148"/>
+      <c r="M148" s="47" t="s">
+        <v>374</v>
+      </c>
+      <c r="N148" s="65" t="s">
+        <v>368</v>
+      </c>
+      <c r="O148" s="89">
+        <v>4165145</v>
+      </c>
       <c r="P148" s="28" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>Athena-4165145</v>
       </c>
       <c r="Q148" s="27"/>
       <c r="R148" s="27"/>
@@ -12728,33 +12768,32 @@
     </row>
     <row r="149" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="59"/>
-      <c r="B149" s="72" t="s">
-        <v>126</v>
-      </c>
-      <c r="C149" s="27"/>
+      <c r="B149" s="51"/>
+      <c r="C149" s="15"/>
       <c r="D149" s="76" t="s">
-        <v>264</v>
+        <v>439</v>
       </c>
       <c r="E149" s="77" t="s">
-        <v>316</v>
+        <v>444</v>
       </c>
       <c r="F149" s="27" t="s">
         <v>309</v>
       </c>
-      <c r="G149" s="27"/>
+      <c r="G149" s="15"/>
       <c r="H149" s="69" t="s">
         <v>776</v>
       </c>
-      <c r="I149" s="69"/>
-      <c r="J149" s="27"/>
+      <c r="I149" s="28"/>
+      <c r="J149" s="15"/>
       <c r="K149" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L149" s="46"/>
-      <c r="M149" s="27"/>
-      <c r="O149" s="27"/>
+      <c r="L149" s="16"/>
+      <c r="M149" s="47"/>
+      <c r="N149" s="27"/>
+      <c r="O149"/>
       <c r="P149" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Q149" s="27"/>
@@ -12768,63 +12807,44 @@
         <v>262</v>
       </c>
     </row>
-    <row r="150" spans="1:24" s="54" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="59"/>
-      <c r="B150" s="51" t="s">
+      <c r="B150" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="C150" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D150" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E150" s="16" t="s">
-        <v>698</v>
-      </c>
-      <c r="F150" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G150" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H150" s="28" t="s">
-        <v>672</v>
-      </c>
-      <c r="I150" s="28" t="s">
-        <v>722</v>
-      </c>
-      <c r="J150" s="15"/>
+      <c r="C150" s="27"/>
+      <c r="D150" s="76" t="s">
+        <v>264</v>
+      </c>
+      <c r="E150" s="77" t="s">
+        <v>316</v>
+      </c>
+      <c r="F150" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="G150" s="27"/>
+      <c r="H150" s="69" t="s">
+        <v>776</v>
+      </c>
+      <c r="I150" s="69"/>
+      <c r="J150" s="27"/>
       <c r="K150" s="27" t="s">
         <v>337</v>
       </c>
       <c r="L150" s="46"/>
-      <c r="M150" s="27" t="s">
-        <v>371</v>
-      </c>
-      <c r="N150" s="27" t="s">
-        <v>368</v>
-      </c>
-      <c r="O150" s="27">
-        <v>441542</v>
-      </c>
+      <c r="M150" s="27"/>
+      <c r="O150" s="27"/>
       <c r="P150" s="28" t="str">
-        <f t="shared" si="6"/>
-        <v>Athena-441542</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="Q150" s="27"/>
       <c r="R150" s="27"/>
       <c r="S150" s="27"/>
-      <c r="T150" s="27" t="s">
-        <v>673</v>
-      </c>
-      <c r="U150" s="27" t="s">
-        <v>674</v>
-      </c>
+      <c r="T150" s="27"/>
+      <c r="U150" s="27"/>
       <c r="V150" s="27"/>
-      <c r="W150" s="27" t="s">
-        <v>343</v>
-      </c>
+      <c r="W150" s="27"/>
       <c r="X150" s="15" t="s">
         <v>262</v>
       </c>
@@ -12838,7 +12858,7 @@
         <v>49</v>
       </c>
       <c r="D151" s="15" t="s">
-        <v>609</v>
+        <v>49</v>
       </c>
       <c r="E151" s="16" t="s">
         <v>698</v>
@@ -12861,7 +12881,7 @@
       </c>
       <c r="L151" s="46"/>
       <c r="M151" s="27" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="N151" s="27" t="s">
         <v>368</v>
@@ -12870,7 +12890,7 @@
         <v>441542</v>
       </c>
       <c r="P151" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Athena-441542</v>
       </c>
       <c r="Q151" s="27"/>
@@ -12880,7 +12900,7 @@
         <v>673</v>
       </c>
       <c r="U151" s="27" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="V151" s="27"/>
       <c r="W151" s="27" t="s">
@@ -12890,131 +12910,145 @@
         <v>262</v>
       </c>
     </row>
-    <row r="152" spans="1:24" s="54" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:24" s="54" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="59"/>
-      <c r="B152" s="72"/>
-      <c r="C152" s="27"/>
-      <c r="D152" s="27" t="s">
-        <v>343</v>
-      </c>
-      <c r="E152" s="45" t="s">
-        <v>356</v>
-      </c>
-      <c r="F152" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G152" s="27"/>
-      <c r="H152" s="69"/>
-      <c r="I152" s="69" t="s">
-        <v>723</v>
-      </c>
-      <c r="J152" s="27"/>
+      <c r="B152" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="C152" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D152" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="E152" s="16" t="s">
+        <v>698</v>
+      </c>
+      <c r="F152" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G152" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H152" s="28" t="s">
+        <v>672</v>
+      </c>
+      <c r="I152" s="28" t="s">
+        <v>722</v>
+      </c>
+      <c r="J152" s="15"/>
       <c r="K152" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L152" s="70"/>
+      <c r="L152" s="46"/>
       <c r="M152" s="27" t="s">
-        <v>587</v>
-      </c>
-      <c r="N152" s="27"/>
-      <c r="O152" s="27"/>
+        <v>367</v>
+      </c>
+      <c r="N152" s="27" t="s">
+        <v>368</v>
+      </c>
+      <c r="O152" s="27">
+        <v>441542</v>
+      </c>
       <c r="P152" s="28" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>Athena-441542</v>
       </c>
       <c r="Q152" s="27"/>
       <c r="R152" s="27"/>
       <c r="S152" s="27"/>
-      <c r="T152" s="27"/>
-      <c r="U152" s="27"/>
+      <c r="T152" s="27" t="s">
+        <v>673</v>
+      </c>
+      <c r="U152" s="27" t="s">
+        <v>675</v>
+      </c>
       <c r="V152" s="27"/>
-      <c r="W152" s="27"/>
+      <c r="W152" s="27" t="s">
+        <v>343</v>
+      </c>
       <c r="X152" s="15" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="153" spans="1:24" s="54" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:24" s="54" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="59"/>
-      <c r="B153" s="74"/>
-      <c r="C153" s="60"/>
-      <c r="D153" s="60"/>
-      <c r="E153" s="61"/>
-      <c r="F153" s="60"/>
-      <c r="G153" s="60"/>
-      <c r="H153" s="62"/>
-      <c r="I153" s="62"/>
-      <c r="J153" s="60"/>
-      <c r="K153" s="60"/>
-      <c r="L153" s="64"/>
-      <c r="M153" s="60"/>
-      <c r="N153" s="60"/>
-      <c r="O153" s="60"/>
-      <c r="P153" s="60"/>
-      <c r="Q153" s="60"/>
-      <c r="R153" s="60"/>
-      <c r="S153" s="60"/>
-      <c r="T153" s="60"/>
-      <c r="U153" s="60"/>
-      <c r="V153" s="60"/>
-      <c r="W153" s="60"/>
-      <c r="X153" s="60"/>
-    </row>
-    <row r="154" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B153" s="72"/>
+      <c r="C153" s="27"/>
+      <c r="D153" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="E153" s="45" t="s">
+        <v>356</v>
+      </c>
+      <c r="F153" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="G153" s="27"/>
+      <c r="H153" s="69"/>
+      <c r="I153" s="69" t="s">
+        <v>723</v>
+      </c>
+      <c r="J153" s="27"/>
+      <c r="K153" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="L153" s="70"/>
+      <c r="M153" s="27" t="s">
+        <v>587</v>
+      </c>
+      <c r="N153" s="27"/>
+      <c r="O153" s="27"/>
+      <c r="P153" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Q153" s="27"/>
+      <c r="R153" s="27"/>
+      <c r="S153" s="27"/>
+      <c r="T153" s="27"/>
+      <c r="U153" s="27"/>
+      <c r="V153" s="27"/>
+      <c r="W153" s="27"/>
+      <c r="X153" s="15" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="154" spans="1:24" s="54" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="59"/>
-      <c r="B154" s="51"/>
-      <c r="C154" s="15"/>
-      <c r="D154" s="83" t="s">
-        <v>733</v>
-      </c>
-      <c r="E154" s="84" t="s">
-        <v>734</v>
-      </c>
-      <c r="F154" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="G154" s="15"/>
-      <c r="H154" s="69" t="s">
-        <v>776</v>
-      </c>
-      <c r="I154" s="28" t="s">
-        <v>721</v>
-      </c>
-      <c r="J154" s="15"/>
-      <c r="K154" s="27" t="s">
-        <v>337</v>
-      </c>
-      <c r="L154" s="16"/>
-      <c r="M154" s="47" t="s">
-        <v>374</v>
-      </c>
-      <c r="N154" s="65"/>
-      <c r="O154" s="89">
-        <v>2000000079</v>
-      </c>
-      <c r="P154" s="28" t="str">
-        <f t="shared" ref="P154" si="7">IF(N154&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O154), CONCATENATE("Athena-",O154)),"")</f>
-        <v/>
-      </c>
-      <c r="Q154" s="27"/>
-      <c r="R154" s="27"/>
-      <c r="S154" s="27"/>
-      <c r="T154" s="27"/>
-      <c r="U154" s="27"/>
-      <c r="V154" s="27"/>
-      <c r="W154" s="27"/>
-      <c r="X154" s="27" t="s">
-        <v>260</v>
-      </c>
+      <c r="B154" s="74"/>
+      <c r="C154" s="60"/>
+      <c r="D154" s="60"/>
+      <c r="E154" s="61"/>
+      <c r="F154" s="60"/>
+      <c r="G154" s="60"/>
+      <c r="H154" s="62"/>
+      <c r="I154" s="62"/>
+      <c r="J154" s="60"/>
+      <c r="K154" s="60"/>
+      <c r="L154" s="64"/>
+      <c r="M154" s="60"/>
+      <c r="N154" s="60"/>
+      <c r="O154" s="60"/>
+      <c r="P154" s="60"/>
+      <c r="Q154" s="60"/>
+      <c r="R154" s="60"/>
+      <c r="S154" s="60"/>
+      <c r="T154" s="60"/>
+      <c r="U154" s="60"/>
+      <c r="V154" s="60"/>
+      <c r="W154" s="60"/>
+      <c r="X154" s="60"/>
     </row>
     <row r="155" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="59"/>
       <c r="B155" s="51"/>
       <c r="C155" s="15"/>
       <c r="D155" s="83" t="s">
-        <v>756</v>
+        <v>733</v>
       </c>
       <c r="E155" s="84" t="s">
-        <v>757</v>
+        <v>734</v>
       </c>
       <c r="F155" s="27" t="s">
         <v>309</v>
@@ -13036,9 +13070,12 @@
       </c>
       <c r="N155" s="65"/>
       <c r="O155" s="89">
-        <v>2000000091</v>
-      </c>
-      <c r="P155" s="28"/>
+        <v>2000000079</v>
+      </c>
+      <c r="P155" s="28" t="str">
+        <f t="shared" ref="P155" si="8">IF(N155&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O155), CONCATENATE("Athena-",O155)),"")</f>
+        <v/>
+      </c>
       <c r="Q155" s="27"/>
       <c r="R155" s="27"/>
       <c r="S155" s="27"/>
@@ -13055,10 +13092,10 @@
       <c r="B156" s="51"/>
       <c r="C156" s="15"/>
       <c r="D156" s="83" t="s">
-        <v>769</v>
+        <v>756</v>
       </c>
       <c r="E156" s="84" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="F156" s="27" t="s">
         <v>309</v>
@@ -13080,7 +13117,7 @@
       </c>
       <c r="N156" s="65"/>
       <c r="O156" s="89">
-        <v>2000000092</v>
+        <v>2000000091</v>
       </c>
       <c r="P156" s="28"/>
       <c r="Q156" s="27"/>
@@ -13099,10 +13136,10 @@
       <c r="B157" s="51"/>
       <c r="C157" s="15"/>
       <c r="D157" s="83" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="E157" s="84" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F157" s="27" t="s">
         <v>309</v>
@@ -13124,7 +13161,7 @@
       </c>
       <c r="N157" s="65"/>
       <c r="O157" s="89">
-        <v>2000000100</v>
+        <v>2000000092</v>
       </c>
       <c r="P157" s="28"/>
       <c r="Q157" s="27"/>
@@ -13138,78 +13175,79 @@
         <v>260</v>
       </c>
     </row>
-    <row r="158" spans="1:24" s="54" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A158" s="75" t="s">
+    <row r="158" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="59"/>
+      <c r="B158" s="51"/>
+      <c r="C158" s="15"/>
+      <c r="D158" s="83" t="s">
+        <v>777</v>
+      </c>
+      <c r="E158" s="84" t="s">
+        <v>768</v>
+      </c>
+      <c r="F158" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="G158" s="15"/>
+      <c r="H158" s="69" t="s">
+        <v>776</v>
+      </c>
+      <c r="I158" s="28" t="s">
+        <v>721</v>
+      </c>
+      <c r="J158" s="15"/>
+      <c r="K158" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="L158" s="16"/>
+      <c r="M158" s="47" t="s">
+        <v>374</v>
+      </c>
+      <c r="N158" s="65"/>
+      <c r="O158" s="89">
+        <v>2000000100</v>
+      </c>
+      <c r="P158" s="28"/>
+      <c r="Q158" s="27"/>
+      <c r="R158" s="27"/>
+      <c r="S158" s="27"/>
+      <c r="T158" s="27"/>
+      <c r="U158" s="27"/>
+      <c r="V158" s="27"/>
+      <c r="W158" s="27"/>
+      <c r="X158" s="27" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="159" spans="1:24" s="54" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A159" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="B158" s="48" t="s">
+      <c r="B159" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="C158" s="6"/>
-      <c r="D158" s="6"/>
-      <c r="E158" s="7"/>
-      <c r="F158" s="6"/>
-      <c r="G158" s="6"/>
-      <c r="H158" s="30"/>
-      <c r="I158" s="30"/>
-      <c r="J158" s="6"/>
-      <c r="K158" s="53"/>
-      <c r="L158" s="7"/>
-      <c r="M158" s="53"/>
-      <c r="N158" s="53"/>
-      <c r="O158" s="53"/>
-      <c r="P158" s="53"/>
-      <c r="Q158" s="53"/>
-      <c r="R158" s="53"/>
-      <c r="S158" s="53"/>
-      <c r="T158" s="53"/>
-      <c r="U158" s="53"/>
-      <c r="V158" s="53"/>
-      <c r="W158" s="53"/>
-      <c r="X158" s="53"/>
-    </row>
-    <row r="159" spans="1:24" s="54" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A159" s="59"/>
-      <c r="B159" s="72" t="s">
-        <v>155</v>
-      </c>
-      <c r="C159" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="D159" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="E159" s="68" t="s">
-        <v>353</v>
-      </c>
-      <c r="F159" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="G159" s="27"/>
-      <c r="H159" s="69"/>
-      <c r="I159" s="69" t="s">
-        <v>120</v>
-      </c>
-      <c r="J159" s="27"/>
-      <c r="K159" s="27" t="s">
-        <v>337</v>
-      </c>
-      <c r="L159" s="45"/>
-      <c r="M159" s="27"/>
-      <c r="N159" s="27"/>
-      <c r="O159" s="27"/>
-      <c r="P159" s="28" t="str">
-        <f>IF(N159&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O159), CONCATENATE("Athena-",O159)),"")</f>
-        <v/>
-      </c>
-      <c r="Q159" s="27"/>
-      <c r="R159" s="27"/>
-      <c r="S159" s="27"/>
-      <c r="T159" s="27"/>
-      <c r="U159" s="27"/>
-      <c r="V159" s="27"/>
-      <c r="W159" s="27"/>
-      <c r="X159" s="27"/>
+      <c r="C159" s="6"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="7"/>
+      <c r="F159" s="6"/>
+      <c r="G159" s="6"/>
+      <c r="H159" s="30"/>
+      <c r="I159" s="30"/>
+      <c r="J159" s="6"/>
+      <c r="K159" s="53"/>
+      <c r="L159" s="7"/>
+      <c r="M159" s="53"/>
+      <c r="N159" s="53"/>
+      <c r="O159" s="53"/>
+      <c r="P159" s="53"/>
+      <c r="Q159" s="53"/>
+      <c r="R159" s="53"/>
+      <c r="S159" s="53"/>
+      <c r="T159" s="53"/>
+      <c r="U159" s="53"/>
+      <c r="V159" s="53"/>
+      <c r="W159" s="53"/>
+      <c r="X159" s="53"/>
     </row>
     <row r="160" spans="1:24" s="54" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="59"/>
@@ -13217,41 +13255,33 @@
         <v>155</v>
       </c>
       <c r="C160" s="27" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="D160" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="E160" s="45" t="s">
-        <v>18</v>
+        <v>270</v>
+      </c>
+      <c r="E160" s="68" t="s">
+        <v>353</v>
       </c>
       <c r="F160" s="27" t="s">
-        <v>197</v>
+        <v>120</v>
       </c>
       <c r="G160" s="27"/>
-      <c r="H160" s="69" t="s">
-        <v>195</v>
-      </c>
+      <c r="H160" s="69"/>
       <c r="I160" s="69" t="s">
-        <v>721</v>
+        <v>120</v>
       </c>
       <c r="J160" s="27"/>
       <c r="K160" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L160" s="70"/>
-      <c r="M160" s="47" t="s">
-        <v>374</v>
-      </c>
-      <c r="N160" s="27" t="s">
-        <v>368</v>
-      </c>
-      <c r="O160" s="27">
-        <v>4169175</v>
-      </c>
+      <c r="L160" s="45"/>
+      <c r="M160" s="27"/>
+      <c r="N160" s="27"/>
+      <c r="O160" s="27"/>
       <c r="P160" s="28" t="str">
         <f>IF(N160&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O160), CONCATENATE("Athena-",O160)),"")</f>
-        <v>Athena-4169175</v>
+        <v/>
       </c>
       <c r="Q160" s="27"/>
       <c r="R160" s="27"/>
@@ -13260,43 +13290,49 @@
       <c r="U160" s="27"/>
       <c r="V160" s="27"/>
       <c r="W160" s="27"/>
-      <c r="X160" s="27" t="s">
-        <v>270</v>
-      </c>
+      <c r="X160" s="27"/>
     </row>
     <row r="161" spans="1:24" s="54" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="59"/>
-      <c r="B161" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="C161" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="D161" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="E161" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="F161" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G161" s="15"/>
-      <c r="H161" s="28"/>
-      <c r="I161" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="J161" s="15"/>
+      <c r="B161" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="C161" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D161" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E161" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F161" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="G161" s="27"/>
+      <c r="H161" s="69" t="s">
+        <v>195</v>
+      </c>
+      <c r="I161" s="69" t="s">
+        <v>721</v>
+      </c>
+      <c r="J161" s="27"/>
       <c r="K161" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L161" s="28"/>
-      <c r="M161" s="27"/>
-      <c r="N161" s="27"/>
-      <c r="O161" s="27"/>
+      <c r="L161" s="70"/>
+      <c r="M161" s="47" t="s">
+        <v>374</v>
+      </c>
+      <c r="N161" s="27" t="s">
+        <v>368</v>
+      </c>
+      <c r="O161" s="27">
+        <v>4169175</v>
+      </c>
       <c r="P161" s="28" t="str">
         <f>IF(N161&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O161), CONCATENATE("Athena-",O161)),"")</f>
-        <v/>
+        <v>Athena-4169175</v>
       </c>
       <c r="Q161" s="27"/>
       <c r="R161" s="27"/>
@@ -13305,39 +13341,37 @@
       <c r="U161" s="27"/>
       <c r="V161" s="27"/>
       <c r="W161" s="27"/>
-      <c r="X161" s="27"/>
-    </row>
-    <row r="162" spans="1:24" s="54" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X161" s="27" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24" s="54" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="59"/>
-      <c r="B162" s="67" t="s">
-        <v>148</v>
-      </c>
-      <c r="C162" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="D162" s="77" t="s">
-        <v>202</v>
-      </c>
-      <c r="E162" s="77" t="s">
-        <v>127</v>
-      </c>
-      <c r="F162" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="G162" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="H162" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="I162" s="38"/>
+      <c r="B162" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="C162" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D162" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E162" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="F162" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G162" s="15"/>
+      <c r="H162" s="28"/>
+      <c r="I162" s="28" t="s">
+        <v>120</v>
+      </c>
       <c r="J162" s="15"/>
       <c r="K162" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L162" s="100" t="s">
-        <v>647</v>
-      </c>
+      <c r="L162" s="28"/>
       <c r="M162" s="27"/>
       <c r="N162" s="27"/>
       <c r="O162" s="27"/>
@@ -13352,40 +13386,42 @@
       <c r="U162" s="27"/>
       <c r="V162" s="27"/>
       <c r="W162" s="27"/>
-      <c r="X162" s="15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="163" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X162" s="27"/>
+    </row>
+    <row r="163" spans="1:24" s="54" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="59"/>
-      <c r="B163" s="67"/>
+      <c r="B163" s="67" t="s">
+        <v>148</v>
+      </c>
       <c r="C163" s="45" t="s">
-        <v>557</v>
-      </c>
-      <c r="D163" s="84" t="s">
-        <v>455</v>
-      </c>
-      <c r="E163" s="84" t="s">
-        <v>632</v>
+        <v>190</v>
+      </c>
+      <c r="D163" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="E163" s="77" t="s">
+        <v>127</v>
       </c>
       <c r="F163" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="G163" s="16"/>
-      <c r="H163" s="69" t="s">
-        <v>776</v>
-      </c>
-      <c r="I163" s="28" t="s">
-        <v>721</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G163" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="H163" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="I163" s="38"/>
       <c r="J163" s="15"/>
       <c r="K163" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L163" s="27"/>
-      <c r="M163" s="47"/>
-      <c r="N163" s="65"/>
-      <c r="O163" s="92"/>
+      <c r="L163" s="100" t="s">
+        <v>647</v>
+      </c>
+      <c r="M163" s="27"/>
+      <c r="N163" s="27"/>
+      <c r="O163" s="27"/>
       <c r="P163" s="28" t="str">
         <f>IF(N163&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O163), CONCATENATE("Athena-",O163)),"")</f>
         <v/>
@@ -13398,18 +13434,20 @@
       <c r="V163" s="27"/>
       <c r="W163" s="27"/>
       <c r="X163" s="15" t="s">
-        <v>200</v>
+        <v>792</v>
       </c>
     </row>
     <row r="164" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="59"/>
       <c r="B164" s="67"/>
-      <c r="C164" s="45"/>
+      <c r="C164" s="45" t="s">
+        <v>557</v>
+      </c>
       <c r="D164" s="84" t="s">
-        <v>624</v>
+        <v>455</v>
       </c>
       <c r="E164" s="84" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="F164" s="27" t="s">
         <v>197</v>
@@ -13426,14 +13464,13 @@
         <v>337</v>
       </c>
       <c r="L164" s="27"/>
-      <c r="M164" s="97" t="s">
-        <v>374</v>
-      </c>
+      <c r="M164" s="47"/>
       <c r="N164" s="65"/>
-      <c r="O164" s="92">
-        <v>2000000028</v>
-      </c>
-      <c r="P164" s="28"/>
+      <c r="O164" s="92"/>
+      <c r="P164" s="28" t="str">
+        <f>IF(N164&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O164), CONCATENATE("Athena-",O164)),"")</f>
+        <v/>
+      </c>
       <c r="Q164" s="27"/>
       <c r="R164" s="27"/>
       <c r="S164" s="27"/>
@@ -13442,7 +13479,7 @@
       <c r="V164" s="27"/>
       <c r="W164" s="27"/>
       <c r="X164" s="15" t="s">
-        <v>200</v>
+        <v>792</v>
       </c>
     </row>
     <row r="165" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -13450,10 +13487,10 @@
       <c r="B165" s="67"/>
       <c r="C165" s="45"/>
       <c r="D165" s="84" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E165" s="84" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F165" s="27" t="s">
         <v>197</v>
@@ -13475,7 +13512,7 @@
       </c>
       <c r="N165" s="65"/>
       <c r="O165" s="92">
-        <v>2000000029</v>
+        <v>2000000028</v>
       </c>
       <c r="P165" s="28"/>
       <c r="Q165" s="27"/>
@@ -13486,20 +13523,18 @@
       <c r="V165" s="27"/>
       <c r="W165" s="27"/>
       <c r="X165" s="15" t="s">
-        <v>200</v>
+        <v>792</v>
       </c>
     </row>
     <row r="166" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="59"/>
       <c r="B166" s="67"/>
-      <c r="C166" s="45" t="s">
-        <v>553</v>
-      </c>
+      <c r="C166" s="45"/>
       <c r="D166" s="84" t="s">
-        <v>445</v>
+        <v>625</v>
       </c>
       <c r="E166" s="84" t="s">
-        <v>783</v>
+        <v>627</v>
       </c>
       <c r="F166" s="27" t="s">
         <v>197</v>
@@ -13519,40 +13554,33 @@
       <c r="M166" s="97" t="s">
         <v>374</v>
       </c>
-      <c r="N166" s="27"/>
+      <c r="N166" s="65"/>
       <c r="O166" s="92">
-        <v>2000000030</v>
-      </c>
-      <c r="P166" s="28" t="str">
-        <f t="shared" ref="P166:P184" si="8">IF(N166&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O166), CONCATENATE("Athena-",O166)),"")</f>
-        <v/>
-      </c>
-      <c r="Q166" s="27" t="s">
-        <v>763</v>
-      </c>
-      <c r="R166" s="27">
-        <v>8555</v>
-      </c>
-      <c r="S166" s="27" t="s">
-        <v>376</v>
-      </c>
+        <v>2000000029</v>
+      </c>
+      <c r="P166" s="28"/>
+      <c r="Q166" s="27"/>
+      <c r="R166" s="27"/>
+      <c r="S166" s="27"/>
       <c r="T166" s="27"/>
       <c r="U166" s="27"/>
       <c r="V166" s="27"/>
       <c r="W166" s="27"/>
       <c r="X166" s="15" t="s">
-        <v>200</v>
+        <v>792</v>
       </c>
     </row>
     <row r="167" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="59"/>
       <c r="B167" s="67"/>
-      <c r="C167" s="45"/>
+      <c r="C167" s="45" t="s">
+        <v>553</v>
+      </c>
       <c r="D167" s="84" t="s">
-        <v>781</v>
+        <v>445</v>
       </c>
       <c r="E167" s="84" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F167" s="27" t="s">
         <v>197</v>
@@ -13574,31 +13602,38 @@
       </c>
       <c r="N167" s="27"/>
       <c r="O167" s="92">
-        <v>2000000102</v>
-      </c>
-      <c r="P167" s="28"/>
-      <c r="Q167" s="27"/>
-      <c r="R167" s="27"/>
-      <c r="S167" s="27"/>
+        <v>2000000030</v>
+      </c>
+      <c r="P167" s="28" t="str">
+        <f t="shared" ref="P167:P185" si="9">IF(N167&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O167), CONCATENATE("Athena-",O167)),"")</f>
+        <v/>
+      </c>
+      <c r="Q167" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="R167" s="27">
+        <v>8555</v>
+      </c>
+      <c r="S167" s="27" t="s">
+        <v>376</v>
+      </c>
       <c r="T167" s="27"/>
       <c r="U167" s="27"/>
       <c r="V167" s="27"/>
       <c r="W167" s="27"/>
       <c r="X167" s="15" t="s">
-        <v>200</v>
+        <v>792</v>
       </c>
     </row>
     <row r="168" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="59"/>
       <c r="B168" s="67"/>
-      <c r="C168" s="45" t="s">
-        <v>554</v>
-      </c>
+      <c r="C168" s="45"/>
       <c r="D168" s="84" t="s">
-        <v>446</v>
+        <v>781</v>
       </c>
       <c r="E168" s="84" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F168" s="27" t="s">
         <v>197</v>
@@ -13620,38 +13655,31 @@
       </c>
       <c r="N168" s="27"/>
       <c r="O168" s="92">
-        <v>2000000031</v>
-      </c>
-      <c r="P168" s="28" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="Q168" s="27" t="s">
-        <v>763</v>
-      </c>
-      <c r="R168" s="27">
-        <v>8555</v>
-      </c>
-      <c r="S168" s="27" t="s">
-        <v>376</v>
-      </c>
+        <v>2000000102</v>
+      </c>
+      <c r="P168" s="28"/>
+      <c r="Q168" s="27"/>
+      <c r="R168" s="27"/>
+      <c r="S168" s="27"/>
       <c r="T168" s="27"/>
       <c r="U168" s="27"/>
       <c r="V168" s="27"/>
       <c r="W168" s="27"/>
       <c r="X168" s="15" t="s">
-        <v>200</v>
+        <v>792</v>
       </c>
     </row>
     <row r="169" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="59"/>
       <c r="B169" s="67"/>
-      <c r="C169" s="45"/>
+      <c r="C169" s="45" t="s">
+        <v>554</v>
+      </c>
       <c r="D169" s="84" t="s">
-        <v>782</v>
+        <v>446</v>
       </c>
       <c r="E169" s="84" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F169" s="27" t="s">
         <v>197</v>
@@ -13673,18 +13701,27 @@
       </c>
       <c r="N169" s="27"/>
       <c r="O169" s="92">
-        <v>2000000103</v>
-      </c>
-      <c r="P169" s="28"/>
-      <c r="Q169" s="27"/>
-      <c r="R169" s="27"/>
-      <c r="S169" s="27"/>
+        <v>2000000031</v>
+      </c>
+      <c r="P169" s="28" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Q169" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="R169" s="27">
+        <v>8555</v>
+      </c>
+      <c r="S169" s="27" t="s">
+        <v>376</v>
+      </c>
       <c r="T169" s="27"/>
       <c r="U169" s="27"/>
       <c r="V169" s="27"/>
       <c r="W169" s="27"/>
       <c r="X169" s="15" t="s">
-        <v>200</v>
+        <v>792</v>
       </c>
     </row>
     <row r="170" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -13692,10 +13729,10 @@
       <c r="B170" s="67"/>
       <c r="C170" s="45"/>
       <c r="D170" s="84" t="s">
-        <v>751</v>
-      </c>
-      <c r="E170" s="83" t="s">
-        <v>753</v>
+        <v>782</v>
+      </c>
+      <c r="E170" s="84" t="s">
+        <v>786</v>
       </c>
       <c r="F170" s="27" t="s">
         <v>197</v>
@@ -13717,12 +13754,9 @@
       </c>
       <c r="N170" s="27"/>
       <c r="O170" s="92">
-        <v>2000000088</v>
-      </c>
-      <c r="P170" s="28" t="str">
-        <f t="shared" ref="P170:P171" si="9">IF(N170&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O170), CONCATENATE("Athena-",O170)),"")</f>
-        <v/>
-      </c>
+        <v>2000000103</v>
+      </c>
+      <c r="P170" s="28"/>
       <c r="Q170" s="27"/>
       <c r="R170" s="27"/>
       <c r="S170" s="27"/>
@@ -13731,7 +13765,7 @@
       <c r="V170" s="27"/>
       <c r="W170" s="27"/>
       <c r="X170" s="15" t="s">
-        <v>200</v>
+        <v>792</v>
       </c>
     </row>
     <row r="171" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -13739,10 +13773,10 @@
       <c r="B171" s="67"/>
       <c r="C171" s="45"/>
       <c r="D171" s="84" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E171" s="83" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F171" s="27" t="s">
         <v>197</v>
@@ -13764,10 +13798,10 @@
       </c>
       <c r="N171" s="27"/>
       <c r="O171" s="92">
-        <v>2000000089</v>
+        <v>2000000088</v>
       </c>
       <c r="P171" s="28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="P171:P172" si="10">IF(N171&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O171), CONCATENATE("Athena-",O171)),"")</f>
         <v/>
       </c>
       <c r="Q171" s="27"/>
@@ -13778,20 +13812,18 @@
       <c r="V171" s="27"/>
       <c r="W171" s="27"/>
       <c r="X171" s="15" t="s">
-        <v>200</v>
+        <v>792</v>
       </c>
     </row>
     <row r="172" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="59"/>
       <c r="B172" s="67"/>
-      <c r="C172" s="45" t="s">
-        <v>555</v>
-      </c>
+      <c r="C172" s="45"/>
       <c r="D172" s="84" t="s">
-        <v>447</v>
+        <v>752</v>
       </c>
       <c r="E172" s="83" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="F172" s="27" t="s">
         <v>197</v>
@@ -13813,10 +13845,10 @@
       </c>
       <c r="N172" s="27"/>
       <c r="O172" s="92">
-        <v>2000000032</v>
+        <v>2000000089</v>
       </c>
       <c r="P172" s="28" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="Q172" s="27"/>
@@ -13827,18 +13859,20 @@
       <c r="V172" s="27"/>
       <c r="W172" s="27"/>
       <c r="X172" s="15" t="s">
-        <v>200</v>
+        <v>792</v>
       </c>
     </row>
     <row r="173" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="59"/>
       <c r="B173" s="67"/>
-      <c r="C173" s="45"/>
+      <c r="C173" s="45" t="s">
+        <v>555</v>
+      </c>
       <c r="D173" s="84" t="s">
-        <v>755</v>
-      </c>
-      <c r="E173" s="103" t="s">
-        <v>764</v>
+        <v>447</v>
+      </c>
+      <c r="E173" s="83" t="s">
+        <v>765</v>
       </c>
       <c r="F173" s="27" t="s">
         <v>197</v>
@@ -13860,10 +13894,10 @@
       </c>
       <c r="N173" s="27"/>
       <c r="O173" s="92">
-        <v>2000000090</v>
+        <v>2000000032</v>
       </c>
       <c r="P173" s="28" t="str">
-        <f t="shared" ref="P173" si="10">IF(N173&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O173), CONCATENATE("Athena-",O173)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q173" s="27"/>
@@ -13874,18 +13908,18 @@
       <c r="V173" s="27"/>
       <c r="W173" s="27"/>
       <c r="X173" s="15" t="s">
-        <v>200</v>
+        <v>792</v>
       </c>
     </row>
     <row r="174" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="59"/>
       <c r="B174" s="67"/>
       <c r="C174" s="45"/>
-      <c r="D174" s="77" t="s">
-        <v>448</v>
-      </c>
-      <c r="E174" s="77" t="s">
-        <v>453</v>
+      <c r="D174" s="84" t="s">
+        <v>755</v>
+      </c>
+      <c r="E174" s="103" t="s">
+        <v>764</v>
       </c>
       <c r="F174" s="27" t="s">
         <v>197</v>
@@ -13894,17 +13928,23 @@
       <c r="H174" s="69" t="s">
         <v>776</v>
       </c>
-      <c r="I174" s="28"/>
+      <c r="I174" s="28" t="s">
+        <v>721</v>
+      </c>
       <c r="J174" s="15"/>
       <c r="K174" s="27" t="s">
         <v>337</v>
       </c>
       <c r="L174" s="27"/>
-      <c r="M174" s="97"/>
+      <c r="M174" s="97" t="s">
+        <v>374</v>
+      </c>
       <c r="N174" s="27"/>
-      <c r="O174" s="92"/>
+      <c r="O174" s="92">
+        <v>2000000090</v>
+      </c>
       <c r="P174" s="28" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="P174" si="11">IF(N174&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O174), CONCATENATE("Athena-",O174)),"")</f>
         <v/>
       </c>
       <c r="Q174" s="27"/>
@@ -13915,27 +13955,23 @@
       <c r="V174" s="27"/>
       <c r="W174" s="27"/>
       <c r="X174" s="15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="175" spans="1:24" s="54" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="175" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="59"/>
-      <c r="B175" s="67" t="s">
-        <v>148</v>
-      </c>
-      <c r="C175" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="D175" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="E175" s="45" t="s">
-        <v>130</v>
+      <c r="B175" s="67"/>
+      <c r="C175" s="45"/>
+      <c r="D175" s="77" t="s">
+        <v>448</v>
+      </c>
+      <c r="E175" s="77" t="s">
+        <v>453</v>
       </c>
       <c r="F175" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G175" s="15"/>
+      <c r="G175" s="16"/>
       <c r="H175" s="69" t="s">
         <v>776</v>
       </c>
@@ -13945,11 +13981,11 @@
         <v>337</v>
       </c>
       <c r="L175" s="27"/>
-      <c r="M175" s="27"/>
+      <c r="M175" s="97"/>
       <c r="N175" s="27"/>
-      <c r="O175" s="27"/>
+      <c r="O175" s="92"/>
       <c r="P175" s="28" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q175" s="27"/>
@@ -13960,22 +13996,22 @@
       <c r="V175" s="27"/>
       <c r="W175" s="27"/>
       <c r="X175" s="15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="176" spans="1:24" s="54" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="176" spans="1:24" s="54" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="59"/>
       <c r="B176" s="67" t="s">
         <v>148</v>
       </c>
       <c r="C176" s="45" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D176" s="45" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E176" s="45" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F176" s="27" t="s">
         <v>197</v>
@@ -13994,7 +14030,7 @@
       <c r="N176" s="27"/>
       <c r="O176" s="27"/>
       <c r="P176" s="28" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q176" s="27"/>
@@ -14005,45 +14041,41 @@
       <c r="V176" s="27"/>
       <c r="W176" s="27"/>
       <c r="X176" s="15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="177" spans="1:24" s="54" customFormat="1" ht="218" customHeight="1" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="177" spans="1:24" s="54" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="59"/>
       <c r="B177" s="67" t="s">
-        <v>149</v>
-      </c>
-      <c r="C177" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="D177" s="76" t="s">
-        <v>208</v>
-      </c>
-      <c r="E177" s="77" t="s">
-        <v>250</v>
+        <v>148</v>
+      </c>
+      <c r="C177" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="D177" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="E177" s="45" t="s">
+        <v>133</v>
       </c>
       <c r="F177" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="G177" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="H177" s="39" t="s">
-        <v>322</v>
-      </c>
-      <c r="I177" s="39"/>
+        <v>197</v>
+      </c>
+      <c r="G177" s="15"/>
+      <c r="H177" s="69" t="s">
+        <v>776</v>
+      </c>
+      <c r="I177" s="28"/>
       <c r="J177" s="15"/>
       <c r="K177" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L177" s="16" t="s">
-        <v>351</v>
-      </c>
+      <c r="L177" s="27"/>
       <c r="M177" s="27"/>
       <c r="N177" s="27"/>
       <c r="O177" s="27"/>
       <c r="P177" s="28" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q177" s="27"/>
@@ -14054,45 +14086,45 @@
       <c r="V177" s="27"/>
       <c r="W177" s="27"/>
       <c r="X177" s="15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="178" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="178" spans="1:24" s="54" customFormat="1" ht="218" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="59"/>
-      <c r="B178" s="67"/>
-      <c r="C178" s="45" t="s">
-        <v>561</v>
-      </c>
-      <c r="D178" s="84" t="s">
-        <v>460</v>
-      </c>
-      <c r="E178" s="84" t="s">
-        <v>488</v>
+      <c r="B178" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="C178" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D178" s="76" t="s">
+        <v>208</v>
+      </c>
+      <c r="E178" s="77" t="s">
+        <v>250</v>
       </c>
       <c r="F178" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="G178" s="16"/>
-      <c r="H178" s="69" t="s">
-        <v>776</v>
-      </c>
-      <c r="I178" s="28" t="s">
-        <v>721</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G178" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="H178" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="I178" s="39"/>
       <c r="J178" s="15"/>
       <c r="K178" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L178" s="27"/>
-      <c r="M178" s="47" t="s">
-        <v>374</v>
-      </c>
+      <c r="L178" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="M178" s="27"/>
       <c r="N178" s="27"/>
-      <c r="O178" s="92">
-        <v>2000000033</v>
-      </c>
+      <c r="O178" s="27"/>
       <c r="P178" s="28" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q178" s="27"/>
@@ -14103,20 +14135,20 @@
       <c r="V178" s="27"/>
       <c r="W178" s="27"/>
       <c r="X178" s="15" t="s">
-        <v>200</v>
+        <v>793</v>
       </c>
     </row>
     <row r="179" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="59"/>
       <c r="B179" s="67"/>
       <c r="C179" s="45" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D179" s="84" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E179" s="84" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F179" s="27" t="s">
         <v>197</v>
@@ -14137,11 +14169,11 @@
         <v>374</v>
       </c>
       <c r="N179" s="27"/>
-      <c r="O179" s="89">
-        <v>2000000034</v>
+      <c r="O179" s="92">
+        <v>2000000033</v>
       </c>
       <c r="P179" s="28" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q179" s="27"/>
@@ -14152,18 +14184,20 @@
       <c r="V179" s="27"/>
       <c r="W179" s="27"/>
       <c r="X179" s="15" t="s">
-        <v>200</v>
+        <v>793</v>
       </c>
     </row>
     <row r="180" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="59"/>
       <c r="B180" s="67"/>
-      <c r="C180" s="45"/>
+      <c r="C180" s="45" t="s">
+        <v>563</v>
+      </c>
       <c r="D180" s="84" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E180" s="84" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F180" s="27" t="s">
         <v>197</v>
@@ -14184,11 +14218,11 @@
         <v>374</v>
       </c>
       <c r="N180" s="27"/>
-      <c r="O180" s="92">
-        <v>2000000035</v>
+      <c r="O180" s="89">
+        <v>2000000034</v>
       </c>
       <c r="P180" s="28" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q180" s="27"/>
@@ -14199,20 +14233,18 @@
       <c r="V180" s="27"/>
       <c r="W180" s="27"/>
       <c r="X180" s="15" t="s">
-        <v>200</v>
+        <v>793</v>
       </c>
     </row>
     <row r="181" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="59"/>
       <c r="B181" s="67"/>
-      <c r="C181" s="45" t="s">
-        <v>565</v>
-      </c>
+      <c r="C181" s="45"/>
       <c r="D181" s="84" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E181" s="84" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F181" s="27" t="s">
         <v>197</v>
@@ -14233,11 +14265,11 @@
         <v>374</v>
       </c>
       <c r="N181" s="27"/>
-      <c r="O181" s="89">
-        <v>2000000036</v>
+      <c r="O181" s="92">
+        <v>2000000035</v>
       </c>
       <c r="P181" s="28" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q181" s="27"/>
@@ -14248,20 +14280,20 @@
       <c r="V181" s="27"/>
       <c r="W181" s="27"/>
       <c r="X181" s="15" t="s">
-        <v>200</v>
+        <v>793</v>
       </c>
     </row>
     <row r="182" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="59"/>
       <c r="B182" s="67"/>
       <c r="C182" s="45" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D182" s="84" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E182" s="84" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F182" s="27" t="s">
         <v>197</v>
@@ -14282,11 +14314,11 @@
         <v>374</v>
       </c>
       <c r="N182" s="27"/>
-      <c r="O182" s="92">
-        <v>2000000037</v>
+      <c r="O182" s="89">
+        <v>2000000036</v>
       </c>
       <c r="P182" s="28" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q182" s="27"/>
@@ -14297,20 +14329,20 @@
       <c r="V182" s="27"/>
       <c r="W182" s="27"/>
       <c r="X182" s="15" t="s">
-        <v>200</v>
+        <v>793</v>
       </c>
     </row>
     <row r="183" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="59"/>
       <c r="B183" s="67"/>
       <c r="C183" s="45" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D183" s="84" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E183" s="84" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F183" s="27" t="s">
         <v>197</v>
@@ -14331,11 +14363,11 @@
         <v>374</v>
       </c>
       <c r="N183" s="27"/>
-      <c r="O183" s="89">
-        <v>2000000038</v>
+      <c r="O183" s="92">
+        <v>2000000037</v>
       </c>
       <c r="P183" s="28" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q183" s="27"/>
@@ -14346,18 +14378,20 @@
       <c r="V183" s="27"/>
       <c r="W183" s="27"/>
       <c r="X183" s="15" t="s">
-        <v>200</v>
+        <v>793</v>
       </c>
     </row>
     <row r="184" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="59"/>
       <c r="B184" s="67"/>
-      <c r="C184" s="45"/>
+      <c r="C184" s="45" t="s">
+        <v>569</v>
+      </c>
       <c r="D184" s="84" t="s">
-        <v>633</v>
+        <v>465</v>
       </c>
       <c r="E184" s="84" t="s">
-        <v>634</v>
+        <v>493</v>
       </c>
       <c r="F184" s="27" t="s">
         <v>197</v>
@@ -14378,11 +14412,11 @@
         <v>374</v>
       </c>
       <c r="N184" s="27"/>
-      <c r="O184" s="92">
-        <v>2000000039</v>
+      <c r="O184" s="89">
+        <v>2000000038</v>
       </c>
       <c r="P184" s="28" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q184" s="27"/>
@@ -14393,7 +14427,7 @@
       <c r="V184" s="27"/>
       <c r="W184" s="27"/>
       <c r="X184" s="15" t="s">
-        <v>200</v>
+        <v>793</v>
       </c>
     </row>
     <row r="185" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -14401,10 +14435,10 @@
       <c r="B185" s="67"/>
       <c r="C185" s="45"/>
       <c r="D185" s="84" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E185" s="84" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F185" s="27" t="s">
         <v>197</v>
@@ -14425,10 +14459,13 @@
         <v>374</v>
       </c>
       <c r="N185" s="27"/>
-      <c r="O185" s="89">
-        <v>2000000040</v>
-      </c>
-      <c r="P185" s="28"/>
+      <c r="O185" s="92">
+        <v>2000000039</v>
+      </c>
+      <c r="P185" s="28" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="Q185" s="27"/>
       <c r="R185" s="27"/>
       <c r="S185" s="27"/>
@@ -14437,7 +14474,7 @@
       <c r="V185" s="27"/>
       <c r="W185" s="27"/>
       <c r="X185" s="15" t="s">
-        <v>200</v>
+        <v>793</v>
       </c>
     </row>
     <row r="186" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -14445,10 +14482,10 @@
       <c r="B186" s="67"/>
       <c r="C186" s="45"/>
       <c r="D186" s="84" t="s">
-        <v>467</v>
+        <v>635</v>
       </c>
       <c r="E186" s="84" t="s">
-        <v>495</v>
+        <v>636</v>
       </c>
       <c r="F186" s="27" t="s">
         <v>197</v>
@@ -14469,13 +14506,10 @@
         <v>374</v>
       </c>
       <c r="N186" s="27"/>
-      <c r="O186" s="92">
-        <v>2000000041</v>
-      </c>
-      <c r="P186" s="28" t="str">
-        <f t="shared" ref="P186:P202" si="11">IF(N186&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O186), CONCATENATE("Athena-",O186)),"")</f>
-        <v/>
-      </c>
+      <c r="O186" s="89">
+        <v>2000000040</v>
+      </c>
+      <c r="P186" s="28"/>
       <c r="Q186" s="27"/>
       <c r="R186" s="27"/>
       <c r="S186" s="27"/>
@@ -14484,7 +14518,7 @@
       <c r="V186" s="27"/>
       <c r="W186" s="27"/>
       <c r="X186" s="15" t="s">
-        <v>200</v>
+        <v>793</v>
       </c>
     </row>
     <row r="187" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -14492,10 +14526,10 @@
       <c r="B187" s="67"/>
       <c r="C187" s="45"/>
       <c r="D187" s="84" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E187" s="84" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F187" s="27" t="s">
         <v>197</v>
@@ -14516,11 +14550,11 @@
         <v>374</v>
       </c>
       <c r="N187" s="27"/>
-      <c r="O187" s="89">
-        <v>2000000042</v>
+      <c r="O187" s="92">
+        <v>2000000041</v>
       </c>
       <c r="P187" s="28" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="P187:P203" si="12">IF(N187&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O187), CONCATENATE("Athena-",O187)),"")</f>
         <v/>
       </c>
       <c r="Q187" s="27"/>
@@ -14531,7 +14565,7 @@
       <c r="V187" s="27"/>
       <c r="W187" s="27"/>
       <c r="X187" s="15" t="s">
-        <v>200</v>
+        <v>793</v>
       </c>
     </row>
     <row r="188" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -14539,10 +14573,10 @@
       <c r="B188" s="67"/>
       <c r="C188" s="45"/>
       <c r="D188" s="84" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E188" s="84" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F188" s="27" t="s">
         <v>197</v>
@@ -14563,11 +14597,11 @@
         <v>374</v>
       </c>
       <c r="N188" s="27"/>
-      <c r="O188" s="92">
-        <v>2000000043</v>
+      <c r="O188" s="89">
+        <v>2000000042</v>
       </c>
       <c r="P188" s="28" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Q188" s="27"/>
@@ -14578,7 +14612,7 @@
       <c r="V188" s="27"/>
       <c r="W188" s="27"/>
       <c r="X188" s="15" t="s">
-        <v>200</v>
+        <v>793</v>
       </c>
     </row>
     <row r="189" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -14586,10 +14620,10 @@
       <c r="B189" s="67"/>
       <c r="C189" s="45"/>
       <c r="D189" s="84" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E189" s="84" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F189" s="27" t="s">
         <v>197</v>
@@ -14610,11 +14644,11 @@
         <v>374</v>
       </c>
       <c r="N189" s="27"/>
-      <c r="O189" s="89">
-        <v>2000000044</v>
+      <c r="O189" s="92">
+        <v>2000000043</v>
       </c>
       <c r="P189" s="28" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Q189" s="27"/>
@@ -14625,7 +14659,7 @@
       <c r="V189" s="27"/>
       <c r="W189" s="27"/>
       <c r="X189" s="15" t="s">
-        <v>200</v>
+        <v>793</v>
       </c>
     </row>
     <row r="190" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -14633,10 +14667,10 @@
       <c r="B190" s="67"/>
       <c r="C190" s="45"/>
       <c r="D190" s="84" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E190" s="84" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F190" s="27" t="s">
         <v>197</v>
@@ -14657,11 +14691,11 @@
         <v>374</v>
       </c>
       <c r="N190" s="27"/>
-      <c r="O190" s="92">
-        <v>2000000045</v>
+      <c r="O190" s="89">
+        <v>2000000044</v>
       </c>
       <c r="P190" s="28" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Q190" s="27"/>
@@ -14672,18 +14706,18 @@
       <c r="V190" s="27"/>
       <c r="W190" s="27"/>
       <c r="X190" s="15" t="s">
-        <v>200</v>
+        <v>793</v>
       </c>
     </row>
     <row r="191" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="59"/>
       <c r="B191" s="67"/>
       <c r="C191" s="45"/>
-      <c r="D191" s="83" t="s">
-        <v>472</v>
-      </c>
-      <c r="E191" s="83" t="s">
-        <v>500</v>
+      <c r="D191" s="84" t="s">
+        <v>471</v>
+      </c>
+      <c r="E191" s="84" t="s">
+        <v>499</v>
       </c>
       <c r="F191" s="27" t="s">
         <v>197</v>
@@ -14705,10 +14739,10 @@
       </c>
       <c r="N191" s="27"/>
       <c r="O191" s="92">
-        <v>2000000046</v>
+        <v>2000000045</v>
       </c>
       <c r="P191" s="28" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Q191" s="27"/>
@@ -14719,7 +14753,7 @@
       <c r="V191" s="27"/>
       <c r="W191" s="27"/>
       <c r="X191" s="15" t="s">
-        <v>200</v>
+        <v>793</v>
       </c>
     </row>
     <row r="192" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -14727,10 +14761,10 @@
       <c r="B192" s="67"/>
       <c r="C192" s="45"/>
       <c r="D192" s="83" t="s">
-        <v>735</v>
+        <v>472</v>
       </c>
       <c r="E192" s="83" t="s">
-        <v>737</v>
+        <v>500</v>
       </c>
       <c r="F192" s="27" t="s">
         <v>197</v>
@@ -14752,10 +14786,10 @@
       </c>
       <c r="N192" s="27"/>
       <c r="O192" s="92">
-        <v>2000000080</v>
+        <v>2000000046</v>
       </c>
       <c r="P192" s="28" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Q192" s="27"/>
@@ -14766,18 +14800,18 @@
       <c r="V192" s="27"/>
       <c r="W192" s="27"/>
       <c r="X192" s="15" t="s">
-        <v>200</v>
+        <v>793</v>
       </c>
     </row>
     <row r="193" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="59"/>
       <c r="B193" s="67"/>
       <c r="C193" s="45"/>
-      <c r="D193" s="103" t="s">
-        <v>736</v>
+      <c r="D193" s="83" t="s">
+        <v>735</v>
       </c>
       <c r="E193" s="83" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F193" s="27" t="s">
         <v>197</v>
@@ -14799,10 +14833,10 @@
       </c>
       <c r="N193" s="27"/>
       <c r="O193" s="92">
-        <v>2000000081</v>
+        <v>2000000080</v>
       </c>
       <c r="P193" s="28" t="str">
-        <f t="shared" ref="P193" si="12">IF(N193&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O193), CONCATENATE("Athena-",O193)),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Q193" s="27"/>
@@ -14813,18 +14847,18 @@
       <c r="V193" s="27"/>
       <c r="W193" s="27"/>
       <c r="X193" s="15" t="s">
-        <v>200</v>
+        <v>793</v>
       </c>
     </row>
     <row r="194" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="59"/>
       <c r="B194" s="67"/>
       <c r="C194" s="45"/>
-      <c r="D194" s="77" t="s">
-        <v>473</v>
-      </c>
-      <c r="E194" s="77" t="s">
-        <v>501</v>
+      <c r="D194" s="103" t="s">
+        <v>736</v>
+      </c>
+      <c r="E194" s="83" t="s">
+        <v>738</v>
       </c>
       <c r="F194" s="27" t="s">
         <v>197</v>
@@ -14833,17 +14867,23 @@
       <c r="H194" s="69" t="s">
         <v>776</v>
       </c>
-      <c r="I194" s="28"/>
+      <c r="I194" s="28" t="s">
+        <v>721</v>
+      </c>
       <c r="J194" s="15"/>
       <c r="K194" s="27" t="s">
         <v>337</v>
       </c>
       <c r="L194" s="27"/>
-      <c r="M194" s="47"/>
+      <c r="M194" s="47" t="s">
+        <v>374</v>
+      </c>
       <c r="N194" s="27"/>
-      <c r="O194" s="89"/>
+      <c r="O194" s="92">
+        <v>2000000081</v>
+      </c>
       <c r="P194" s="28" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="P194" si="13">IF(N194&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O194), CONCATENATE("Athena-",O194)),"")</f>
         <v/>
       </c>
       <c r="Q194" s="27"/>
@@ -14854,27 +14894,23 @@
       <c r="V194" s="27"/>
       <c r="W194" s="27"/>
       <c r="X194" s="15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="195" spans="1:24" s="54" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="195" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="59"/>
-      <c r="B195" s="67" t="s">
-        <v>149</v>
-      </c>
-      <c r="C195" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D195" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="E195" s="45" t="s">
-        <v>130</v>
+      <c r="B195" s="67"/>
+      <c r="C195" s="45"/>
+      <c r="D195" s="77" t="s">
+        <v>473</v>
+      </c>
+      <c r="E195" s="77" t="s">
+        <v>501</v>
       </c>
       <c r="F195" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G195" s="15"/>
+      <c r="G195" s="16"/>
       <c r="H195" s="69" t="s">
         <v>776</v>
       </c>
@@ -14883,11 +14919,12 @@
       <c r="K195" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="M195" s="27"/>
+      <c r="L195" s="27"/>
+      <c r="M195" s="47"/>
       <c r="N195" s="27"/>
-      <c r="O195" s="27"/>
+      <c r="O195" s="89"/>
       <c r="P195" s="28" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Q195" s="27"/>
@@ -14898,41 +14935,40 @@
       <c r="V195" s="27"/>
       <c r="W195" s="27"/>
       <c r="X195" s="15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="196" spans="1:24" s="54" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="196" spans="1:24" s="54" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="59"/>
       <c r="B196" s="67" t="s">
         <v>149</v>
       </c>
       <c r="C196" s="27" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="D196" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E196" s="45" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F196" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G196" s="15"/>
-      <c r="H196" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="I196" s="36"/>
+      <c r="H196" s="69" t="s">
+        <v>776</v>
+      </c>
+      <c r="I196" s="28"/>
       <c r="J196" s="15"/>
       <c r="K196" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L196" s="16"/>
       <c r="M196" s="27"/>
       <c r="N196" s="27"/>
       <c r="O196" s="27"/>
       <c r="P196" s="28" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Q196" s="27"/>
@@ -14943,45 +14979,41 @@
       <c r="V196" s="27"/>
       <c r="W196" s="27"/>
       <c r="X196" s="15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="197" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="197" spans="1:24" s="54" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="59"/>
-      <c r="B197" s="67"/>
-      <c r="C197" s="45" t="s">
-        <v>562</v>
-      </c>
-      <c r="D197" s="84" t="s">
-        <v>474</v>
-      </c>
-      <c r="E197" s="84" t="s">
-        <v>502</v>
+      <c r="B197" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="C197" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D197" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="E197" s="45" t="s">
+        <v>133</v>
       </c>
       <c r="F197" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G197" s="16"/>
-      <c r="H197" s="69" t="s">
-        <v>776</v>
-      </c>
-      <c r="I197" s="28" t="s">
-        <v>721</v>
-      </c>
+      <c r="G197" s="15"/>
+      <c r="H197" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="I197" s="36"/>
       <c r="J197" s="15"/>
       <c r="K197" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L197" s="27"/>
-      <c r="M197" s="47" t="s">
-        <v>374</v>
-      </c>
+      <c r="L197" s="16"/>
+      <c r="M197" s="27"/>
       <c r="N197" s="27"/>
-      <c r="O197" s="92">
-        <v>2000000047</v>
-      </c>
+      <c r="O197" s="27"/>
       <c r="P197" s="28" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Q197" s="27"/>
@@ -14992,20 +15024,20 @@
       <c r="V197" s="27"/>
       <c r="W197" s="27"/>
       <c r="X197" s="15" t="s">
-        <v>200</v>
+        <v>793</v>
       </c>
     </row>
     <row r="198" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="59"/>
       <c r="B198" s="67"/>
       <c r="C198" s="45" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D198" s="84" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E198" s="84" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F198" s="27" t="s">
         <v>197</v>
@@ -15026,11 +15058,11 @@
         <v>374</v>
       </c>
       <c r="N198" s="27"/>
-      <c r="O198" s="89">
-        <v>2000000048</v>
+      <c r="O198" s="92">
+        <v>2000000047</v>
       </c>
       <c r="P198" s="28" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Q198" s="27"/>
@@ -15041,24 +15073,26 @@
       <c r="V198" s="27"/>
       <c r="W198" s="27"/>
       <c r="X198" s="15" t="s">
-        <v>200</v>
+        <v>793</v>
       </c>
     </row>
     <row r="199" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="59"/>
       <c r="B199" s="67"/>
-      <c r="C199" s="45"/>
+      <c r="C199" s="45" t="s">
+        <v>564</v>
+      </c>
       <c r="D199" s="84" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E199" s="84" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F199" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G199" s="16"/>
-      <c r="H199" s="28" t="s">
+      <c r="H199" s="69" t="s">
         <v>776</v>
       </c>
       <c r="I199" s="28" t="s">
@@ -15073,11 +15107,11 @@
         <v>374</v>
       </c>
       <c r="N199" s="27"/>
-      <c r="O199" s="92">
-        <v>2000000049</v>
+      <c r="O199" s="89">
+        <v>2000000048</v>
       </c>
       <c r="P199" s="28" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Q199" s="27"/>
@@ -15088,26 +15122,24 @@
       <c r="V199" s="27"/>
       <c r="W199" s="27"/>
       <c r="X199" s="15" t="s">
-        <v>200</v>
+        <v>793</v>
       </c>
     </row>
     <row r="200" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="59"/>
       <c r="B200" s="67"/>
-      <c r="C200" s="45" t="s">
-        <v>566</v>
-      </c>
+      <c r="C200" s="45"/>
       <c r="D200" s="84" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E200" s="84" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F200" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G200" s="16"/>
-      <c r="H200" s="104" t="s">
+      <c r="H200" s="28" t="s">
         <v>776</v>
       </c>
       <c r="I200" s="28" t="s">
@@ -15122,11 +15154,11 @@
         <v>374</v>
       </c>
       <c r="N200" s="27"/>
-      <c r="O200" s="89">
-        <v>2000000050</v>
+      <c r="O200" s="92">
+        <v>2000000049</v>
       </c>
       <c r="P200" s="28" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Q200" s="27"/>
@@ -15137,20 +15169,20 @@
       <c r="V200" s="27"/>
       <c r="W200" s="27"/>
       <c r="X200" s="15" t="s">
-        <v>200</v>
+        <v>793</v>
       </c>
     </row>
     <row r="201" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="59"/>
       <c r="B201" s="67"/>
       <c r="C201" s="45" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D201" s="84" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E201" s="84" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F201" s="27" t="s">
         <v>197</v>
@@ -15171,11 +15203,11 @@
         <v>374</v>
       </c>
       <c r="N201" s="27"/>
-      <c r="O201" s="92">
-        <v>2000000051</v>
+      <c r="O201" s="89">
+        <v>2000000050</v>
       </c>
       <c r="P201" s="28" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Q201" s="27"/>
@@ -15186,20 +15218,20 @@
       <c r="V201" s="27"/>
       <c r="W201" s="27"/>
       <c r="X201" s="15" t="s">
-        <v>200</v>
+        <v>793</v>
       </c>
     </row>
     <row r="202" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="59"/>
       <c r="B202" s="67"/>
       <c r="C202" s="45" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D202" s="84" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E202" s="84" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F202" s="27" t="s">
         <v>197</v>
@@ -15220,11 +15252,11 @@
         <v>374</v>
       </c>
       <c r="N202" s="27"/>
-      <c r="O202" s="89">
-        <v>2000000052</v>
+      <c r="O202" s="92">
+        <v>2000000051</v>
       </c>
       <c r="P202" s="28" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Q202" s="27"/>
@@ -15235,18 +15267,20 @@
       <c r="V202" s="27"/>
       <c r="W202" s="27"/>
       <c r="X202" s="15" t="s">
-        <v>200</v>
+        <v>793</v>
       </c>
     </row>
     <row r="203" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="59"/>
       <c r="B203" s="67"/>
-      <c r="C203" s="45"/>
+      <c r="C203" s="45" t="s">
+        <v>570</v>
+      </c>
       <c r="D203" s="84" t="s">
-        <v>637</v>
+        <v>479</v>
       </c>
       <c r="E203" s="84" t="s">
-        <v>638</v>
+        <v>507</v>
       </c>
       <c r="F203" s="27" t="s">
         <v>197</v>
@@ -15267,11 +15301,11 @@
         <v>374</v>
       </c>
       <c r="N203" s="27"/>
-      <c r="O203" s="92">
-        <v>2000000053</v>
+      <c r="O203" s="89">
+        <v>2000000052</v>
       </c>
       <c r="P203" s="28" t="str">
-        <f>IF(N204&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O204), CONCATENATE("Athena-",O204)),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Q203" s="27"/>
@@ -15282,7 +15316,7 @@
       <c r="V203" s="27"/>
       <c r="W203" s="27"/>
       <c r="X203" s="15" t="s">
-        <v>200</v>
+        <v>793</v>
       </c>
     </row>
     <row r="204" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -15290,10 +15324,10 @@
       <c r="B204" s="67"/>
       <c r="C204" s="45"/>
       <c r="D204" s="84" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E204" s="84" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F204" s="27" t="s">
         <v>197</v>
@@ -15314,10 +15348,13 @@
         <v>374</v>
       </c>
       <c r="N204" s="27"/>
-      <c r="O204" s="89">
-        <v>2000000054</v>
-      </c>
-      <c r="P204" s="28"/>
+      <c r="O204" s="92">
+        <v>2000000053</v>
+      </c>
+      <c r="P204" s="28" t="str">
+        <f>IF(N205&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O205), CONCATENATE("Athena-",O205)),"")</f>
+        <v/>
+      </c>
       <c r="Q204" s="27"/>
       <c r="R204" s="27"/>
       <c r="S204" s="27"/>
@@ -15326,7 +15363,7 @@
       <c r="V204" s="27"/>
       <c r="W204" s="27"/>
       <c r="X204" s="15" t="s">
-        <v>200</v>
+        <v>793</v>
       </c>
     </row>
     <row r="205" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -15334,10 +15371,10 @@
       <c r="B205" s="67"/>
       <c r="C205" s="45"/>
       <c r="D205" s="84" t="s">
-        <v>481</v>
+        <v>639</v>
       </c>
       <c r="E205" s="84" t="s">
-        <v>509</v>
+        <v>640</v>
       </c>
       <c r="F205" s="27" t="s">
         <v>197</v>
@@ -15358,13 +15395,10 @@
         <v>374</v>
       </c>
       <c r="N205" s="27"/>
-      <c r="O205" s="92">
-        <v>2000000055</v>
-      </c>
-      <c r="P205" s="28" t="str">
-        <f t="shared" ref="P205:P222" si="13">IF(N205&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O205), CONCATENATE("Athena-",O205)),"")</f>
-        <v/>
-      </c>
+      <c r="O205" s="89">
+        <v>2000000054</v>
+      </c>
+      <c r="P205" s="28"/>
       <c r="Q205" s="27"/>
       <c r="R205" s="27"/>
       <c r="S205" s="27"/>
@@ -15373,7 +15407,7 @@
       <c r="V205" s="27"/>
       <c r="W205" s="27"/>
       <c r="X205" s="15" t="s">
-        <v>200</v>
+        <v>793</v>
       </c>
     </row>
     <row r="206" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -15381,10 +15415,10 @@
       <c r="B206" s="67"/>
       <c r="C206" s="45"/>
       <c r="D206" s="84" t="s">
-        <v>716</v>
+        <v>481</v>
       </c>
       <c r="E206" s="84" t="s">
-        <v>719</v>
+        <v>509</v>
       </c>
       <c r="F206" s="27" t="s">
         <v>197</v>
@@ -15405,11 +15439,11 @@
         <v>374</v>
       </c>
       <c r="N206" s="27"/>
-      <c r="O206" s="89">
-        <v>2000000056</v>
+      <c r="O206" s="92">
+        <v>2000000055</v>
       </c>
       <c r="P206" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="P206:P223" si="14">IF(N206&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O206), CONCATENATE("Athena-",O206)),"")</f>
         <v/>
       </c>
       <c r="Q206" s="27"/>
@@ -15420,7 +15454,7 @@
       <c r="V206" s="27"/>
       <c r="W206" s="27"/>
       <c r="X206" s="15" t="s">
-        <v>200</v>
+        <v>793</v>
       </c>
     </row>
     <row r="207" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -15428,10 +15462,10 @@
       <c r="B207" s="67"/>
       <c r="C207" s="45"/>
       <c r="D207" s="84" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E207" s="84" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="F207" s="27" t="s">
         <v>197</v>
@@ -15452,11 +15486,11 @@
         <v>374</v>
       </c>
       <c r="N207" s="27"/>
-      <c r="O207" s="92">
-        <v>2000000057</v>
+      <c r="O207" s="89">
+        <v>2000000056</v>
       </c>
       <c r="P207" s="28" t="str">
-        <f>IF(N207&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",#REF!), CONCATENATE("Athena-",#REF!)),"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="Q207" s="27"/>
@@ -15467,7 +15501,7 @@
       <c r="V207" s="27"/>
       <c r="W207" s="27"/>
       <c r="X207" s="15" t="s">
-        <v>200</v>
+        <v>793</v>
       </c>
     </row>
     <row r="208" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -15475,10 +15509,10 @@
       <c r="B208" s="67"/>
       <c r="C208" s="45"/>
       <c r="D208" s="84" t="s">
-        <v>483</v>
+        <v>717</v>
       </c>
       <c r="E208" s="84" t="s">
-        <v>511</v>
+        <v>718</v>
       </c>
       <c r="F208" s="27" t="s">
         <v>197</v>
@@ -15499,11 +15533,11 @@
         <v>374</v>
       </c>
       <c r="N208" s="27"/>
-      <c r="O208" s="89">
-        <v>2000000058</v>
+      <c r="O208" s="92">
+        <v>2000000057</v>
       </c>
       <c r="P208" s="28" t="str">
-        <f>IF(N208&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O207), CONCATENATE("Athena-",O207)),"")</f>
+        <f>IF(N208&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",#REF!), CONCATENATE("Athena-",#REF!)),"")</f>
         <v/>
       </c>
       <c r="Q208" s="27"/>
@@ -15514,7 +15548,7 @@
       <c r="V208" s="27"/>
       <c r="W208" s="27"/>
       <c r="X208" s="15" t="s">
-        <v>200</v>
+        <v>793</v>
       </c>
     </row>
     <row r="209" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -15522,10 +15556,10 @@
       <c r="B209" s="67"/>
       <c r="C209" s="45"/>
       <c r="D209" s="84" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E209" s="84" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F209" s="27" t="s">
         <v>197</v>
@@ -15546,8 +15580,8 @@
         <v>374</v>
       </c>
       <c r="N209" s="27"/>
-      <c r="O209" s="92">
-        <v>2000000059</v>
+      <c r="O209" s="89">
+        <v>2000000058</v>
       </c>
       <c r="P209" s="28" t="str">
         <f>IF(N209&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O208), CONCATENATE("Athena-",O208)),"")</f>
@@ -15561,7 +15595,7 @@
       <c r="V209" s="27"/>
       <c r="W209" s="27"/>
       <c r="X209" s="15" t="s">
-        <v>200</v>
+        <v>793</v>
       </c>
     </row>
     <row r="210" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -15569,10 +15603,10 @@
       <c r="B210" s="67"/>
       <c r="C210" s="45"/>
       <c r="D210" s="84" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E210" s="84" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F210" s="27" t="s">
         <v>197</v>
@@ -15593,8 +15627,8 @@
         <v>374</v>
       </c>
       <c r="N210" s="27"/>
-      <c r="O210" s="89">
-        <v>2000000060</v>
+      <c r="O210" s="92">
+        <v>2000000059</v>
       </c>
       <c r="P210" s="28" t="str">
         <f>IF(N210&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O209), CONCATENATE("Athena-",O209)),"")</f>
@@ -15608,18 +15642,18 @@
       <c r="V210" s="27"/>
       <c r="W210" s="27"/>
       <c r="X210" s="15" t="s">
-        <v>200</v>
+        <v>793</v>
       </c>
     </row>
     <row r="211" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="59"/>
       <c r="B211" s="67"/>
       <c r="C211" s="45"/>
-      <c r="D211" s="83" t="s">
-        <v>486</v>
-      </c>
-      <c r="E211" s="83" t="s">
-        <v>513</v>
+      <c r="D211" s="84" t="s">
+        <v>485</v>
+      </c>
+      <c r="E211" s="84" t="s">
+        <v>514</v>
       </c>
       <c r="F211" s="27" t="s">
         <v>197</v>
@@ -15640,8 +15674,8 @@
         <v>374</v>
       </c>
       <c r="N211" s="27"/>
-      <c r="O211" s="99">
-        <v>2000000061</v>
+      <c r="O211" s="89">
+        <v>2000000060</v>
       </c>
       <c r="P211" s="28" t="str">
         <f>IF(N211&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O210), CONCATENATE("Athena-",O210)),"")</f>
@@ -15655,7 +15689,7 @@
       <c r="V211" s="27"/>
       <c r="W211" s="27"/>
       <c r="X211" s="15" t="s">
-        <v>200</v>
+        <v>793</v>
       </c>
     </row>
     <row r="212" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -15663,10 +15697,10 @@
       <c r="B212" s="67"/>
       <c r="C212" s="45"/>
       <c r="D212" s="83" t="s">
-        <v>739</v>
+        <v>486</v>
       </c>
       <c r="E212" s="83" t="s">
-        <v>741</v>
+        <v>513</v>
       </c>
       <c r="F212" s="27" t="s">
         <v>197</v>
@@ -15687,11 +15721,11 @@
         <v>374</v>
       </c>
       <c r="N212" s="27"/>
-      <c r="O212" s="92">
-        <v>2000000082</v>
+      <c r="O212" s="99">
+        <v>2000000061</v>
       </c>
       <c r="P212" s="28" t="str">
-        <f t="shared" ref="P212:P213" si="14">IF(N212&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O212), CONCATENATE("Athena-",O212)),"")</f>
+        <f>IF(N212&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O211), CONCATENATE("Athena-",O211)),"")</f>
         <v/>
       </c>
       <c r="Q212" s="27"/>
@@ -15702,18 +15736,18 @@
       <c r="V212" s="27"/>
       <c r="W212" s="27"/>
       <c r="X212" s="15" t="s">
-        <v>200</v>
+        <v>793</v>
       </c>
     </row>
     <row r="213" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="59"/>
       <c r="B213" s="67"/>
       <c r="C213" s="45"/>
-      <c r="D213" s="103" t="s">
-        <v>740</v>
+      <c r="D213" s="83" t="s">
+        <v>739</v>
       </c>
       <c r="E213" s="83" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F213" s="27" t="s">
         <v>197</v>
@@ -15735,10 +15769,10 @@
       </c>
       <c r="N213" s="27"/>
       <c r="O213" s="92">
-        <v>2000000083</v>
+        <v>2000000082</v>
       </c>
       <c r="P213" s="28" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="P213:P214" si="15">IF(N213&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O213), CONCATENATE("Athena-",O213)),"")</f>
         <v/>
       </c>
       <c r="Q213" s="27"/>
@@ -15749,18 +15783,18 @@
       <c r="V213" s="27"/>
       <c r="W213" s="27"/>
       <c r="X213" s="15" t="s">
-        <v>200</v>
+        <v>793</v>
       </c>
     </row>
     <row r="214" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="59"/>
       <c r="B214" s="67"/>
       <c r="C214" s="45"/>
-      <c r="D214" s="77" t="s">
-        <v>487</v>
-      </c>
-      <c r="E214" s="77" t="s">
-        <v>515</v>
+      <c r="D214" s="103" t="s">
+        <v>740</v>
+      </c>
+      <c r="E214" s="83" t="s">
+        <v>742</v>
       </c>
       <c r="F214" s="27" t="s">
         <v>197</v>
@@ -15769,17 +15803,23 @@
       <c r="H214" s="104" t="s">
         <v>776</v>
       </c>
-      <c r="I214" s="28"/>
+      <c r="I214" s="28" t="s">
+        <v>721</v>
+      </c>
       <c r="J214" s="15"/>
       <c r="K214" s="27" t="s">
         <v>337</v>
       </c>
       <c r="L214" s="27"/>
-      <c r="M214" s="47"/>
+      <c r="M214" s="47" t="s">
+        <v>374</v>
+      </c>
       <c r="N214" s="27"/>
-      <c r="O214" s="89"/>
+      <c r="O214" s="92">
+        <v>2000000083</v>
+      </c>
       <c r="P214" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q214" s="27"/>
@@ -15790,27 +15830,23 @@
       <c r="V214" s="27"/>
       <c r="W214" s="27"/>
       <c r="X214" s="15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="215" spans="1:24" s="54" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="215" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="59"/>
-      <c r="B215" s="67" t="s">
-        <v>149</v>
-      </c>
-      <c r="C215" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="D215" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="E215" s="45" t="s">
-        <v>131</v>
+      <c r="B215" s="67"/>
+      <c r="C215" s="45"/>
+      <c r="D215" s="77" t="s">
+        <v>487</v>
+      </c>
+      <c r="E215" s="77" t="s">
+        <v>515</v>
       </c>
       <c r="F215" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G215" s="15"/>
+      <c r="G215" s="16"/>
       <c r="H215" s="104" t="s">
         <v>776</v>
       </c>
@@ -15819,12 +15855,12 @@
       <c r="K215" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L215" s="16"/>
-      <c r="M215" s="27"/>
+      <c r="L215" s="27"/>
+      <c r="M215" s="47"/>
       <c r="N215" s="27"/>
-      <c r="O215" s="27"/>
+      <c r="O215" s="89"/>
       <c r="P215" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="Q215" s="27"/>
@@ -15835,7 +15871,7 @@
       <c r="V215" s="27"/>
       <c r="W215" s="27"/>
       <c r="X215" s="15" t="s">
-        <v>200</v>
+        <v>793</v>
       </c>
     </row>
     <row r="216" spans="1:24" s="54" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -15844,22 +15880,22 @@
         <v>149</v>
       </c>
       <c r="C216" s="27" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="D216" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E216" s="45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F216" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G216" s="15"/>
-      <c r="H216" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="I216" s="36"/>
+      <c r="H216" s="104" t="s">
+        <v>776</v>
+      </c>
+      <c r="I216" s="28"/>
       <c r="J216" s="15"/>
       <c r="K216" s="27" t="s">
         <v>337</v>
@@ -15869,7 +15905,7 @@
       <c r="N216" s="27"/>
       <c r="O216" s="27"/>
       <c r="P216" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="Q216" s="27"/>
@@ -15880,45 +15916,41 @@
       <c r="V216" s="27"/>
       <c r="W216" s="27"/>
       <c r="X216" s="15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="217" spans="1:24" s="54" customFormat="1" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="217" spans="1:24" s="54" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="59"/>
       <c r="B217" s="67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C217" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D217" s="76" t="s">
-        <v>211</v>
-      </c>
-      <c r="E217" s="77" t="s">
-        <v>134</v>
+        <v>129</v>
+      </c>
+      <c r="D217" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="E217" s="45" t="s">
+        <v>133</v>
       </c>
       <c r="F217" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="G217" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="H217" s="39" t="s">
-        <v>325</v>
-      </c>
-      <c r="I217" s="39"/>
+        <v>197</v>
+      </c>
+      <c r="G217" s="15"/>
+      <c r="H217" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="I217" s="36"/>
       <c r="J217" s="15"/>
       <c r="K217" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L217" s="16" t="s">
-        <v>648</v>
-      </c>
+      <c r="L217" s="16"/>
       <c r="M217" s="27"/>
       <c r="N217" s="27"/>
       <c r="O217" s="27"/>
       <c r="P217" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="Q217" s="27"/>
@@ -15929,41 +15961,45 @@
       <c r="V217" s="27"/>
       <c r="W217" s="27"/>
       <c r="X217" s="15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="218" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="218" spans="1:24" s="54" customFormat="1" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="59"/>
-      <c r="B218" s="67"/>
-      <c r="C218" s="45" t="s">
-        <v>571</v>
-      </c>
-      <c r="D218" s="45" t="s">
-        <v>516</v>
-      </c>
-      <c r="E218" s="45" t="s">
-        <v>517</v>
+      <c r="B218" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="C218" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D218" s="76" t="s">
+        <v>211</v>
+      </c>
+      <c r="E218" s="77" t="s">
+        <v>134</v>
       </c>
       <c r="F218" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="G218" s="16"/>
-      <c r="H218" s="104" t="s">
-        <v>776</v>
-      </c>
-      <c r="I218" s="38" t="s">
-        <v>721</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G218" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="H218" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="I218" s="39"/>
       <c r="J218" s="15"/>
       <c r="K218" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L218" s="27"/>
+      <c r="L218" s="16" t="s">
+        <v>648</v>
+      </c>
       <c r="M218" s="27"/>
       <c r="N218" s="27"/>
       <c r="O218" s="27"/>
       <c r="P218" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="Q218" s="27"/>
@@ -15974,18 +16010,20 @@
       <c r="V218" s="27"/>
       <c r="W218" s="27"/>
       <c r="X218" s="15" t="s">
-        <v>200</v>
+        <v>798</v>
       </c>
     </row>
     <row r="219" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="59"/>
       <c r="B219" s="67"/>
-      <c r="C219" s="45"/>
-      <c r="D219" s="84" t="s">
-        <v>628</v>
-      </c>
-      <c r="E219" s="83" t="s">
-        <v>630</v>
+      <c r="C219" s="45" t="s">
+        <v>571</v>
+      </c>
+      <c r="D219" s="45" t="s">
+        <v>516</v>
+      </c>
+      <c r="E219" s="45" t="s">
+        <v>517</v>
       </c>
       <c r="F219" s="27" t="s">
         <v>197</v>
@@ -16002,15 +16040,11 @@
         <v>337</v>
       </c>
       <c r="L219" s="27"/>
-      <c r="M219" s="27" t="s">
-        <v>374</v>
-      </c>
+      <c r="M219" s="27"/>
       <c r="N219" s="27"/>
-      <c r="O219" s="99">
-        <v>2000000062</v>
-      </c>
+      <c r="O219" s="27"/>
       <c r="P219" s="28" t="str">
-        <f>IF(N219&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O211), CONCATENATE("Athena-",O211)),"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="Q219" s="27"/>
@@ -16021,7 +16055,7 @@
       <c r="V219" s="27"/>
       <c r="W219" s="27"/>
       <c r="X219" s="15" t="s">
-        <v>200</v>
+        <v>798</v>
       </c>
     </row>
     <row r="220" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -16029,10 +16063,10 @@
       <c r="B220" s="67"/>
       <c r="C220" s="45"/>
       <c r="D220" s="84" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E220" s="83" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F220" s="27" t="s">
         <v>197</v>
@@ -16054,10 +16088,10 @@
       </c>
       <c r="N220" s="27"/>
       <c r="O220" s="99">
-        <v>2000000063</v>
+        <v>2000000062</v>
       </c>
       <c r="P220" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(N220&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O212), CONCATENATE("Athena-",O212)),"")</f>
         <v/>
       </c>
       <c r="Q220" s="27"/>
@@ -16068,20 +16102,18 @@
       <c r="V220" s="27"/>
       <c r="W220" s="27"/>
       <c r="X220" s="15" t="s">
-        <v>200</v>
+        <v>798</v>
       </c>
     </row>
     <row r="221" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="59"/>
       <c r="B221" s="67"/>
-      <c r="C221" s="45" t="s">
-        <v>572</v>
-      </c>
+      <c r="C221" s="45"/>
       <c r="D221" s="84" t="s">
-        <v>520</v>
-      </c>
-      <c r="E221" s="84" t="s">
-        <v>778</v>
+        <v>629</v>
+      </c>
+      <c r="E221" s="83" t="s">
+        <v>631</v>
       </c>
       <c r="F221" s="27" t="s">
         <v>197</v>
@@ -16103,38 +16135,34 @@
       </c>
       <c r="N221" s="27"/>
       <c r="O221" s="99">
-        <v>2000000064</v>
+        <v>2000000063</v>
       </c>
       <c r="P221" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q221" s="27" t="s">
-        <v>763</v>
-      </c>
-      <c r="R221" s="27">
-        <v>8555</v>
-      </c>
-      <c r="S221" s="27" t="s">
-        <v>376</v>
-      </c>
+      <c r="Q221" s="27"/>
+      <c r="R221" s="27"/>
+      <c r="S221" s="27"/>
       <c r="T221" s="27"/>
       <c r="U221" s="27"/>
       <c r="V221" s="27"/>
       <c r="W221" s="27"/>
       <c r="X221" s="15" t="s">
-        <v>200</v>
+        <v>798</v>
       </c>
     </row>
     <row r="222" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="59"/>
       <c r="B222" s="67"/>
-      <c r="C222" s="45"/>
+      <c r="C222" s="45" t="s">
+        <v>572</v>
+      </c>
       <c r="D222" s="84" t="s">
-        <v>787</v>
+        <v>520</v>
       </c>
       <c r="E222" s="84" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="F222" s="27" t="s">
         <v>197</v>
@@ -16156,21 +16184,27 @@
       </c>
       <c r="N222" s="27"/>
       <c r="O222" s="99">
-        <v>2000000104</v>
+        <v>2000000064</v>
       </c>
       <c r="P222" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q222" s="27"/>
-      <c r="R222" s="27"/>
-      <c r="S222" s="27"/>
+      <c r="Q222" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="R222" s="27">
+        <v>8555</v>
+      </c>
+      <c r="S222" s="27" t="s">
+        <v>376</v>
+      </c>
       <c r="T222" s="27"/>
       <c r="U222" s="27"/>
       <c r="V222" s="27"/>
       <c r="W222" s="27"/>
       <c r="X222" s="15" t="s">
-        <v>200</v>
+        <v>798</v>
       </c>
     </row>
     <row r="223" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -16178,10 +16212,10 @@
       <c r="B223" s="67"/>
       <c r="C223" s="45"/>
       <c r="D223" s="84" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="E223" s="84" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="F223" s="27" t="s">
         <v>197</v>
@@ -16203,9 +16237,12 @@
       </c>
       <c r="N223" s="27"/>
       <c r="O223" s="99">
-        <v>2000000101</v>
-      </c>
-      <c r="P223" s="28"/>
+        <v>2000000104</v>
+      </c>
+      <c r="P223" s="28" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
       <c r="Q223" s="27"/>
       <c r="R223" s="27"/>
       <c r="S223" s="27"/>
@@ -16214,20 +16251,18 @@
       <c r="V223" s="27"/>
       <c r="W223" s="27"/>
       <c r="X223" s="15" t="s">
-        <v>200</v>
+        <v>798</v>
       </c>
     </row>
     <row r="224" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="59"/>
       <c r="B224" s="67"/>
-      <c r="C224" s="45" t="s">
-        <v>642</v>
-      </c>
+      <c r="C224" s="45"/>
       <c r="D224" s="84" t="s">
-        <v>649</v>
+        <v>779</v>
       </c>
       <c r="E224" s="84" t="s">
-        <v>641</v>
+        <v>780</v>
       </c>
       <c r="F224" s="27" t="s">
         <v>197</v>
@@ -16249,7 +16284,7 @@
       </c>
       <c r="N224" s="27"/>
       <c r="O224" s="99">
-        <v>2000000065</v>
+        <v>2000000101</v>
       </c>
       <c r="P224" s="28"/>
       <c r="Q224" s="27"/>
@@ -16260,20 +16295,20 @@
       <c r="V224" s="27"/>
       <c r="W224" s="27"/>
       <c r="X224" s="15" t="s">
-        <v>200</v>
+        <v>798</v>
       </c>
     </row>
     <row r="225" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="59"/>
       <c r="B225" s="67"/>
       <c r="C225" s="45" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D225" s="84" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E225" s="84" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="F225" s="27" t="s">
         <v>197</v>
@@ -16295,7 +16330,7 @@
       </c>
       <c r="N225" s="27"/>
       <c r="O225" s="99">
-        <v>2000000066</v>
+        <v>2000000065</v>
       </c>
       <c r="P225" s="28"/>
       <c r="Q225" s="27"/>
@@ -16306,20 +16341,20 @@
       <c r="V225" s="27"/>
       <c r="W225" s="27"/>
       <c r="X225" s="15" t="s">
-        <v>200</v>
+        <v>798</v>
       </c>
     </row>
     <row r="226" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="59"/>
       <c r="B226" s="67"/>
       <c r="C226" s="45" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D226" s="84" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E226" s="84" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F226" s="27" t="s">
         <v>197</v>
@@ -16340,8 +16375,8 @@
         <v>374</v>
       </c>
       <c r="N226" s="27"/>
-      <c r="O226" s="89">
-        <v>2000000067</v>
+      <c r="O226" s="99">
+        <v>2000000066</v>
       </c>
       <c r="P226" s="28"/>
       <c r="Q226" s="27"/>
@@ -16352,18 +16387,20 @@
       <c r="V226" s="27"/>
       <c r="W226" s="27"/>
       <c r="X226" s="15" t="s">
-        <v>200</v>
+        <v>798</v>
       </c>
     </row>
     <row r="227" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="59"/>
       <c r="B227" s="67"/>
-      <c r="C227" s="45"/>
+      <c r="C227" s="45" t="s">
+        <v>644</v>
+      </c>
       <c r="D227" s="84" t="s">
-        <v>743</v>
+        <v>651</v>
       </c>
       <c r="E227" s="84" t="s">
-        <v>744</v>
+        <v>646</v>
       </c>
       <c r="F227" s="27" t="s">
         <v>197</v>
@@ -16385,7 +16422,7 @@
       </c>
       <c r="N227" s="27"/>
       <c r="O227" s="89">
-        <v>2000000084</v>
+        <v>2000000067</v>
       </c>
       <c r="P227" s="28"/>
       <c r="Q227" s="27"/>
@@ -16396,7 +16433,7 @@
       <c r="V227" s="27"/>
       <c r="W227" s="27"/>
       <c r="X227" s="15" t="s">
-        <v>200</v>
+        <v>798</v>
       </c>
     </row>
     <row r="228" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -16404,10 +16441,10 @@
       <c r="B228" s="67"/>
       <c r="C228" s="45"/>
       <c r="D228" s="84" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E228" s="84" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F228" s="27" t="s">
         <v>197</v>
@@ -16429,7 +16466,7 @@
       </c>
       <c r="N228" s="27"/>
       <c r="O228" s="89">
-        <v>2000000085</v>
+        <v>2000000084</v>
       </c>
       <c r="P228" s="28"/>
       <c r="Q228" s="27"/>
@@ -16440,37 +16477,42 @@
       <c r="V228" s="27"/>
       <c r="W228" s="27"/>
       <c r="X228" s="15" t="s">
-        <v>200</v>
+        <v>798</v>
       </c>
     </row>
     <row r="229" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="59"/>
       <c r="B229" s="67"/>
       <c r="C229" s="45"/>
-      <c r="D229" s="77" t="s">
-        <v>521</v>
-      </c>
-      <c r="E229" s="76" t="s">
-        <v>519</v>
+      <c r="D229" s="84" t="s">
+        <v>746</v>
+      </c>
+      <c r="E229" s="84" t="s">
+        <v>745</v>
       </c>
       <c r="F229" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G229" s="16"/>
-      <c r="H229" s="38"/>
-      <c r="I229" s="38"/>
+      <c r="H229" s="104" t="s">
+        <v>776</v>
+      </c>
+      <c r="I229" s="38" t="s">
+        <v>721</v>
+      </c>
       <c r="J229" s="15"/>
       <c r="K229" s="27" t="s">
         <v>337</v>
       </c>
       <c r="L229" s="27"/>
-      <c r="M229" s="27"/>
+      <c r="M229" s="27" t="s">
+        <v>374</v>
+      </c>
       <c r="N229" s="27"/>
-      <c r="O229" s="89"/>
-      <c r="P229" s="28" t="str">
-        <f t="shared" ref="P229:P245" si="15">IF(N229&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O229), CONCATENATE("Athena-",O229)),"")</f>
-        <v/>
-      </c>
+      <c r="O229" s="89">
+        <v>2000000085</v>
+      </c>
+      <c r="P229" s="28"/>
       <c r="Q229" s="27"/>
       <c r="R229" s="27"/>
       <c r="S229" s="27"/>
@@ -16479,41 +16521,35 @@
       <c r="V229" s="27"/>
       <c r="W229" s="27"/>
       <c r="X229" s="15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="230" spans="1:24" s="54" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="230" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="59"/>
-      <c r="B230" s="67" t="s">
-        <v>150</v>
-      </c>
-      <c r="C230" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="D230" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="E230" s="45" t="s">
-        <v>251</v>
+      <c r="B230" s="67"/>
+      <c r="C230" s="45"/>
+      <c r="D230" s="77" t="s">
+        <v>521</v>
+      </c>
+      <c r="E230" s="76" t="s">
+        <v>519</v>
       </c>
       <c r="F230" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G230" s="15"/>
-      <c r="H230" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="I230" s="28"/>
+      <c r="G230" s="16"/>
+      <c r="H230" s="38"/>
+      <c r="I230" s="38"/>
       <c r="J230" s="15"/>
       <c r="K230" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L230" s="16"/>
+      <c r="L230" s="27"/>
       <c r="M230" s="27"/>
       <c r="N230" s="27"/>
-      <c r="O230" s="27"/>
+      <c r="O230" s="89"/>
       <c r="P230" s="28" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="P230:P246" si="16">IF(N230&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O230), CONCATENATE("Athena-",O230)),"")</f>
         <v/>
       </c>
       <c r="Q230" s="27"/>
@@ -16524,31 +16560,31 @@
       <c r="V230" s="27"/>
       <c r="W230" s="27"/>
       <c r="X230" s="15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="231" spans="1:24" s="54" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="231" spans="1:24" s="54" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="59"/>
       <c r="B231" s="67" t="s">
         <v>150</v>
       </c>
       <c r="C231" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D231" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E231" s="45" t="s">
-        <v>133</v>
+        <v>251</v>
       </c>
       <c r="F231" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G231" s="15"/>
-      <c r="H231" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="I231" s="36"/>
+      <c r="H231" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="I231" s="28"/>
       <c r="J231" s="15"/>
       <c r="K231" s="27" t="s">
         <v>337</v>
@@ -16558,7 +16594,7 @@
       <c r="N231" s="27"/>
       <c r="O231" s="27"/>
       <c r="P231" s="28" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q231" s="27"/>
@@ -16569,45 +16605,41 @@
       <c r="V231" s="27"/>
       <c r="W231" s="27"/>
       <c r="X231" s="15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="232" spans="1:24" s="54" customFormat="1" ht="110" customHeight="1" x14ac:dyDescent="0.2">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="232" spans="1:24" s="54" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="59"/>
       <c r="B232" s="67" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C232" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="D232" s="76" t="s">
-        <v>214</v>
-      </c>
-      <c r="E232" s="76" t="s">
-        <v>528</v>
+        <v>135</v>
+      </c>
+      <c r="D232" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="E232" s="45" t="s">
+        <v>133</v>
       </c>
       <c r="F232" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="G232" s="15" t="s">
-        <v>699</v>
-      </c>
-      <c r="H232" s="43" t="s">
-        <v>327</v>
-      </c>
-      <c r="I232" s="43"/>
+        <v>197</v>
+      </c>
+      <c r="G232" s="15"/>
+      <c r="H232" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="I232" s="36"/>
       <c r="J232" s="15"/>
       <c r="K232" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L232" s="16" t="s">
-        <v>700</v>
-      </c>
+      <c r="L232" s="16"/>
       <c r="M232" s="27"/>
       <c r="N232" s="27"/>
       <c r="O232" s="27"/>
       <c r="P232" s="28" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q232" s="27"/>
@@ -16618,45 +16650,45 @@
       <c r="V232" s="27"/>
       <c r="W232" s="27"/>
       <c r="X232" s="15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="233" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="233" spans="1:24" s="54" customFormat="1" ht="110" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="59"/>
-      <c r="B233" s="67"/>
-      <c r="C233" s="45" t="s">
-        <v>573</v>
-      </c>
-      <c r="D233" s="84" t="s">
-        <v>522</v>
-      </c>
-      <c r="E233" s="84" t="s">
-        <v>534</v>
+      <c r="B233" s="67" t="s">
+        <v>151</v>
+      </c>
+      <c r="C233" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D233" s="76" t="s">
+        <v>214</v>
+      </c>
+      <c r="E233" s="76" t="s">
+        <v>528</v>
       </c>
       <c r="F233" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="G233" s="16"/>
-      <c r="H233" s="104" t="s">
-        <v>776</v>
-      </c>
-      <c r="I233" s="28" t="s">
-        <v>721</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G233" s="15" t="s">
+        <v>699</v>
+      </c>
+      <c r="H233" s="43" t="s">
+        <v>327</v>
+      </c>
+      <c r="I233" s="43"/>
       <c r="J233" s="15"/>
       <c r="K233" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L233" s="27"/>
-      <c r="M233" s="47" t="s">
-        <v>374</v>
-      </c>
+      <c r="L233" s="16" t="s">
+        <v>700</v>
+      </c>
+      <c r="M233" s="27"/>
       <c r="N233" s="27"/>
-      <c r="O233" s="89">
-        <v>2000000068</v>
-      </c>
+      <c r="O233" s="27"/>
       <c r="P233" s="28" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q233" s="27"/>
@@ -16667,17 +16699,20 @@
       <c r="V233" s="27"/>
       <c r="W233" s="27"/>
       <c r="X233" s="15" t="s">
-        <v>200</v>
+        <v>794</v>
       </c>
     </row>
     <row r="234" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="59"/>
       <c r="B234" s="67"/>
+      <c r="C234" s="45" t="s">
+        <v>573</v>
+      </c>
       <c r="D234" s="84" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E234" s="84" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="F234" s="27" t="s">
         <v>197</v>
@@ -16699,10 +16734,10 @@
       </c>
       <c r="N234" s="27"/>
       <c r="O234" s="89">
-        <v>2000000069</v>
+        <v>2000000068</v>
       </c>
       <c r="P234" s="28" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q234" s="27"/>
@@ -16713,20 +16748,17 @@
       <c r="V234" s="27"/>
       <c r="W234" s="27"/>
       <c r="X234" s="15" t="s">
-        <v>200</v>
+        <v>794</v>
       </c>
     </row>
     <row r="235" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="59"/>
       <c r="B235" s="67"/>
-      <c r="C235" s="45" t="s">
-        <v>574</v>
-      </c>
       <c r="D235" s="84" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E235" s="84" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F235" s="27" t="s">
         <v>197</v>
@@ -16748,10 +16780,10 @@
       </c>
       <c r="N235" s="27"/>
       <c r="O235" s="89">
-        <v>2000000070</v>
+        <v>2000000069</v>
       </c>
       <c r="P235" s="28" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q235" s="27"/>
@@ -16762,18 +16794,20 @@
       <c r="V235" s="27"/>
       <c r="W235" s="27"/>
       <c r="X235" s="15" t="s">
-        <v>200</v>
+        <v>794</v>
       </c>
     </row>
     <row r="236" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="59"/>
       <c r="B236" s="67"/>
-      <c r="C236" s="45"/>
+      <c r="C236" s="45" t="s">
+        <v>574</v>
+      </c>
       <c r="D236" s="84" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E236" s="84" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F236" s="27" t="s">
         <v>197</v>
@@ -16795,10 +16829,10 @@
       </c>
       <c r="N236" s="27"/>
       <c r="O236" s="89">
-        <v>2000000071</v>
+        <v>2000000070</v>
       </c>
       <c r="P236" s="28" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q236" s="27"/>
@@ -16809,20 +16843,18 @@
       <c r="V236" s="27"/>
       <c r="W236" s="27"/>
       <c r="X236" s="15" t="s">
-        <v>200</v>
+        <v>794</v>
       </c>
     </row>
     <row r="237" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="59"/>
       <c r="B237" s="67"/>
-      <c r="C237" s="45" t="s">
-        <v>581</v>
-      </c>
-      <c r="D237" s="83" t="s">
-        <v>575</v>
-      </c>
-      <c r="E237" s="83" t="s">
-        <v>578</v>
+      <c r="C237" s="45"/>
+      <c r="D237" s="84" t="s">
+        <v>525</v>
+      </c>
+      <c r="E237" s="84" t="s">
+        <v>532</v>
       </c>
       <c r="F237" s="27" t="s">
         <v>197</v>
@@ -16844,10 +16876,10 @@
       </c>
       <c r="N237" s="27"/>
       <c r="O237" s="89">
-        <v>2000000072</v>
+        <v>2000000071</v>
       </c>
       <c r="P237" s="28" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q237" s="27"/>
@@ -16858,20 +16890,20 @@
       <c r="V237" s="27"/>
       <c r="W237" s="27"/>
       <c r="X237" s="15" t="s">
-        <v>200</v>
+        <v>794</v>
       </c>
     </row>
     <row r="238" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="59"/>
       <c r="B238" s="67"/>
       <c r="C238" s="45" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D238" s="83" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E238" s="83" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F238" s="27" t="s">
         <v>197</v>
@@ -16893,10 +16925,10 @@
       </c>
       <c r="N238" s="27"/>
       <c r="O238" s="89">
-        <v>2000000073</v>
+        <v>2000000072</v>
       </c>
       <c r="P238" s="28" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q238" s="27"/>
@@ -16907,20 +16939,20 @@
       <c r="V238" s="27"/>
       <c r="W238" s="27"/>
       <c r="X238" s="15" t="s">
-        <v>200</v>
+        <v>794</v>
       </c>
     </row>
     <row r="239" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="59"/>
       <c r="B239" s="67"/>
       <c r="C239" s="45" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D239" s="83" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E239" s="83" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F239" s="27" t="s">
         <v>197</v>
@@ -16942,10 +16974,10 @@
       </c>
       <c r="N239" s="27"/>
       <c r="O239" s="89">
-        <v>2000000074</v>
+        <v>2000000073</v>
       </c>
       <c r="P239" s="28" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q239" s="27"/>
@@ -16956,18 +16988,20 @@
       <c r="V239" s="27"/>
       <c r="W239" s="27"/>
       <c r="X239" s="15" t="s">
-        <v>200</v>
+        <v>794</v>
       </c>
     </row>
     <row r="240" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="59"/>
       <c r="B240" s="67"/>
-      <c r="C240" s="45"/>
+      <c r="C240" s="45" t="s">
+        <v>583</v>
+      </c>
       <c r="D240" s="83" t="s">
-        <v>526</v>
-      </c>
-      <c r="E240" s="84" t="s">
-        <v>747</v>
+        <v>577</v>
+      </c>
+      <c r="E240" s="83" t="s">
+        <v>580</v>
       </c>
       <c r="F240" s="27" t="s">
         <v>197</v>
@@ -16989,10 +17023,10 @@
       </c>
       <c r="N240" s="27"/>
       <c r="O240" s="89">
-        <v>2000000075</v>
+        <v>2000000074</v>
       </c>
       <c r="P240" s="28" t="str">
-        <f t="shared" ref="P240" si="16">IF(N240&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O240), CONCATENATE("Athena-",O240)),"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q240" s="27"/>
@@ -17003,7 +17037,7 @@
       <c r="V240" s="27"/>
       <c r="W240" s="27"/>
       <c r="X240" s="15" t="s">
-        <v>200</v>
+        <v>794</v>
       </c>
     </row>
     <row r="241" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -17011,10 +17045,10 @@
       <c r="B241" s="67"/>
       <c r="C241" s="45"/>
       <c r="D241" s="83" t="s">
-        <v>750</v>
-      </c>
-      <c r="E241" s="83" t="s">
-        <v>766</v>
+        <v>526</v>
+      </c>
+      <c r="E241" s="84" t="s">
+        <v>747</v>
       </c>
       <c r="F241" s="27" t="s">
         <v>197</v>
@@ -17036,7 +17070,7 @@
       </c>
       <c r="N241" s="27"/>
       <c r="O241" s="89">
-        <v>2000000087</v>
+        <v>2000000075</v>
       </c>
       <c r="P241" s="28" t="str">
         <f t="shared" ref="P241" si="17">IF(N241&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O241), CONCATENATE("Athena-",O241)),"")</f>
@@ -17050,7 +17084,7 @@
       <c r="V241" s="27"/>
       <c r="W241" s="27"/>
       <c r="X241" s="15" t="s">
-        <v>200</v>
+        <v>794</v>
       </c>
     </row>
     <row r="242" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -17058,10 +17092,10 @@
       <c r="B242" s="67"/>
       <c r="C242" s="45"/>
       <c r="D242" s="83" t="s">
-        <v>748</v>
-      </c>
-      <c r="E242" s="84" t="s">
-        <v>749</v>
+        <v>750</v>
+      </c>
+      <c r="E242" s="83" t="s">
+        <v>766</v>
       </c>
       <c r="F242" s="27" t="s">
         <v>197</v>
@@ -17083,7 +17117,7 @@
       </c>
       <c r="N242" s="27"/>
       <c r="O242" s="89">
-        <v>2000000086</v>
+        <v>2000000087</v>
       </c>
       <c r="P242" s="28" t="str">
         <f t="shared" ref="P242" si="18">IF(N242&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O242), CONCATENATE("Athena-",O242)),"")</f>
@@ -17097,18 +17131,18 @@
       <c r="V242" s="27"/>
       <c r="W242" s="27"/>
       <c r="X242" s="15" t="s">
-        <v>200</v>
+        <v>794</v>
       </c>
     </row>
     <row r="243" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="59"/>
       <c r="B243" s="67"/>
       <c r="C243" s="45"/>
-      <c r="D243" s="76" t="s">
-        <v>527</v>
-      </c>
-      <c r="E243" s="77" t="s">
-        <v>529</v>
+      <c r="D243" s="83" t="s">
+        <v>748</v>
+      </c>
+      <c r="E243" s="84" t="s">
+        <v>749</v>
       </c>
       <c r="F243" s="27" t="s">
         <v>197</v>
@@ -17117,17 +17151,23 @@
       <c r="H243" s="104" t="s">
         <v>776</v>
       </c>
-      <c r="I243" s="28"/>
+      <c r="I243" s="28" t="s">
+        <v>721</v>
+      </c>
       <c r="J243" s="15"/>
       <c r="K243" s="27" t="s">
         <v>337</v>
       </c>
       <c r="L243" s="27"/>
-      <c r="M243" s="47"/>
+      <c r="M243" s="47" t="s">
+        <v>374</v>
+      </c>
       <c r="N243" s="27"/>
-      <c r="O243" s="89"/>
+      <c r="O243" s="89">
+        <v>2000000086</v>
+      </c>
       <c r="P243" s="28" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="P243" si="19">IF(N243&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O243), CONCATENATE("Athena-",O243)),"")</f>
         <v/>
       </c>
       <c r="Q243" s="27"/>
@@ -17138,27 +17178,23 @@
       <c r="V243" s="27"/>
       <c r="W243" s="27"/>
       <c r="X243" s="15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="244" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="244" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="59"/>
-      <c r="B244" s="67" t="s">
-        <v>151</v>
-      </c>
-      <c r="C244" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="D244" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="E244" s="45" t="s">
-        <v>130</v>
+      <c r="B244" s="67"/>
+      <c r="C244" s="45"/>
+      <c r="D244" s="76" t="s">
+        <v>527</v>
+      </c>
+      <c r="E244" s="77" t="s">
+        <v>529</v>
       </c>
       <c r="F244" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G244" s="15"/>
+      <c r="G244" s="16"/>
       <c r="H244" s="104" t="s">
         <v>776</v>
       </c>
@@ -17167,12 +17203,12 @@
       <c r="K244" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L244" s="16"/>
-      <c r="M244" s="27"/>
+      <c r="L244" s="27"/>
+      <c r="M244" s="47"/>
       <c r="N244" s="27"/>
-      <c r="O244" s="27"/>
+      <c r="O244" s="89"/>
       <c r="P244" s="28" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q244" s="27"/>
@@ -17183,41 +17219,41 @@
       <c r="V244" s="27"/>
       <c r="W244" s="27"/>
       <c r="X244" s="15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="245" spans="1:24" s="54" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="245" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="59"/>
-      <c r="B245" s="49" t="s">
+      <c r="B245" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="C245" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="D245" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="E245" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="F245" s="15" t="s">
+      <c r="C245" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="D245" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="E245" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="F245" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G245" s="15"/>
-      <c r="H245" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="I245" s="15"/>
+      <c r="H245" s="104" t="s">
+        <v>776</v>
+      </c>
+      <c r="I245" s="28"/>
       <c r="J245" s="15"/>
       <c r="K245" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L245" s="15"/>
+      <c r="L245" s="16"/>
       <c r="M245" s="27"/>
       <c r="N245" s="27"/>
       <c r="O245" s="27"/>
       <c r="P245" s="28" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q245" s="27"/>
@@ -17228,93 +17264,91 @@
       <c r="V245" s="27"/>
       <c r="W245" s="27"/>
       <c r="X245" s="15" t="s">
-        <v>200</v>
+        <v>794</v>
       </c>
     </row>
     <row r="246" spans="1:24" s="54" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A246" s="75" t="s">
+      <c r="A246" s="59"/>
+      <c r="B246" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="C246" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="D246" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="E246" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F246" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G246" s="15"/>
+      <c r="H246" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="I246" s="15"/>
+      <c r="J246" s="15"/>
+      <c r="K246" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="L246" s="15"/>
+      <c r="M246" s="27"/>
+      <c r="N246" s="27"/>
+      <c r="O246" s="27"/>
+      <c r="P246" s="28" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="Q246" s="27"/>
+      <c r="R246" s="27"/>
+      <c r="S246" s="27"/>
+      <c r="T246" s="27"/>
+      <c r="U246" s="27"/>
+      <c r="V246" s="27"/>
+      <c r="W246" s="27"/>
+      <c r="X246" s="15" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="247" spans="1:24" s="54" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A247" s="75" t="s">
         <v>271</v>
       </c>
-      <c r="B246" s="48"/>
-      <c r="C246" s="6"/>
-      <c r="D246" s="6"/>
-      <c r="E246" s="7"/>
-      <c r="F246" s="6"/>
-      <c r="G246" s="6"/>
-      <c r="H246" s="30"/>
-      <c r="I246" s="30"/>
-      <c r="J246" s="6"/>
-      <c r="K246" s="53"/>
-      <c r="L246" s="7"/>
-      <c r="M246" s="53"/>
-      <c r="N246" s="53"/>
-      <c r="O246" s="53"/>
-      <c r="P246" s="53"/>
-      <c r="Q246" s="53"/>
-      <c r="R246" s="53"/>
-      <c r="S246" s="53"/>
-      <c r="T246" s="53"/>
-      <c r="U246" s="53"/>
-      <c r="V246" s="53"/>
-      <c r="W246" s="53"/>
-      <c r="X246" s="53"/>
-    </row>
-    <row r="247" spans="1:24" s="54" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A247" s="59"/>
-      <c r="B247" s="49"/>
-      <c r="C247" s="15"/>
-      <c r="D247" s="79" t="s">
-        <v>704</v>
-      </c>
-      <c r="E247" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="F247" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="G247" s="15"/>
-      <c r="H247" s="104" t="s">
-        <v>776</v>
-      </c>
-      <c r="I247" s="28" t="s">
-        <v>721</v>
-      </c>
-      <c r="J247" s="15"/>
-      <c r="K247" s="27" t="s">
-        <v>337</v>
-      </c>
-      <c r="L247" s="24"/>
-      <c r="M247" s="27" t="s">
-        <v>374</v>
-      </c>
-      <c r="N247" s="27" t="s">
-        <v>368</v>
-      </c>
-      <c r="O247" s="27">
-        <v>44807681</v>
-      </c>
-      <c r="P247" s="28" t="str">
-        <f t="shared" ref="P247:P259" si="19">IF(N247&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O247), CONCATENATE("Athena-",O247)),"")</f>
-        <v>Athena-44807681</v>
-      </c>
-      <c r="Q247" s="27"/>
-      <c r="R247" s="27"/>
-      <c r="S247" s="27"/>
-      <c r="T247" s="27"/>
-      <c r="U247" s="27"/>
-      <c r="V247" s="27"/>
-      <c r="W247" s="27"/>
-      <c r="X247" s="27"/>
-    </row>
-    <row r="248" spans="1:24" s="54" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B247" s="48"/>
+      <c r="C247" s="6"/>
+      <c r="D247" s="6"/>
+      <c r="E247" s="7"/>
+      <c r="F247" s="6"/>
+      <c r="G247" s="6"/>
+      <c r="H247" s="30"/>
+      <c r="I247" s="30"/>
+      <c r="J247" s="6"/>
+      <c r="K247" s="53"/>
+      <c r="L247" s="7"/>
+      <c r="M247" s="53"/>
+      <c r="N247" s="53"/>
+      <c r="O247" s="53"/>
+      <c r="P247" s="53"/>
+      <c r="Q247" s="53"/>
+      <c r="R247" s="53"/>
+      <c r="S247" s="53"/>
+      <c r="T247" s="53"/>
+      <c r="U247" s="53"/>
+      <c r="V247" s="53"/>
+      <c r="W247" s="53"/>
+      <c r="X247" s="53"/>
+    </row>
+    <row r="248" spans="1:24" s="54" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A248" s="59"/>
       <c r="B248" s="49"/>
-      <c r="C248" s="16"/>
-      <c r="D248" s="80" t="s">
-        <v>705</v>
-      </c>
-      <c r="E248" s="16" t="s">
-        <v>284</v>
+      <c r="C248" s="15"/>
+      <c r="D248" s="79" t="s">
+        <v>704</v>
+      </c>
+      <c r="E248" s="15" t="s">
+        <v>283</v>
       </c>
       <c r="F248" s="15" t="s">
         <v>197</v>
@@ -17330,47 +17364,45 @@
       <c r="K248" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L248" s="16"/>
+      <c r="L248" s="24"/>
       <c r="M248" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="N248" s="27"/>
+      <c r="N248" s="27" t="s">
+        <v>368</v>
+      </c>
       <c r="O248" s="27">
-        <v>2000000093</v>
+        <v>44807681</v>
       </c>
       <c r="P248" s="28" t="str">
-        <f>IF(N248&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O248), CONCATENATE("Athena-",O248)),"")</f>
-        <v/>
-      </c>
-      <c r="Q248" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="R248" s="27">
-        <v>8845</v>
-      </c>
-      <c r="S248" s="27" t="s">
-        <v>376</v>
-      </c>
+        <f t="shared" ref="P248:P261" si="20">IF(N248&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O248), CONCATENATE("Athena-",O248)),"")</f>
+        <v>Athena-44807681</v>
+      </c>
+      <c r="Q248" s="27"/>
+      <c r="R248" s="27"/>
+      <c r="S248" s="27"/>
       <c r="T248" s="27"/>
       <c r="U248" s="27"/>
       <c r="V248" s="27"/>
       <c r="W248" s="27"/>
-      <c r="X248" s="27"/>
+      <c r="X248" s="27" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="249" spans="1:24" s="54" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="59"/>
       <c r="B249" s="49"/>
       <c r="C249" s="16"/>
       <c r="D249" s="80" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>585</v>
+        <v>284</v>
       </c>
       <c r="F249" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="G249" s="16"/>
+      <c r="G249" s="15"/>
       <c r="H249" s="104" t="s">
         <v>776</v>
       </c>
@@ -17387,7 +17419,7 @@
       </c>
       <c r="N249" s="27"/>
       <c r="O249" s="27">
-        <v>2000000094</v>
+        <v>2000000093</v>
       </c>
       <c r="P249" s="28" t="str">
         <f>IF(N249&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O249), CONCATENATE("Athena-",O249)),"")</f>
@@ -17406,22 +17438,24 @@
       <c r="U249" s="27"/>
       <c r="V249" s="27"/>
       <c r="W249" s="27"/>
-      <c r="X249" s="27"/>
+      <c r="X249" s="27" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="250" spans="1:24" s="54" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="59"/>
       <c r="B250" s="49"/>
       <c r="C250" s="16"/>
       <c r="D250" s="80" t="s">
-        <v>274</v>
+        <v>706</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>285</v>
+        <v>585</v>
       </c>
       <c r="F250" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="G250" s="15"/>
+      <c r="G250" s="16"/>
       <c r="H250" s="104" t="s">
         <v>776</v>
       </c>
@@ -17438,35 +17472,43 @@
       </c>
       <c r="N250" s="27"/>
       <c r="O250" s="27">
-        <v>2000000095</v>
+        <v>2000000094</v>
       </c>
       <c r="P250" s="28" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(N250&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O250), CONCATENATE("Athena-",O250)),"")</f>
         <v/>
       </c>
-      <c r="Q250" s="27"/>
-      <c r="R250" s="27"/>
-      <c r="S250" s="27"/>
+      <c r="Q250" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="R250" s="27">
+        <v>8845</v>
+      </c>
+      <c r="S250" s="27" t="s">
+        <v>376</v>
+      </c>
       <c r="T250" s="27"/>
       <c r="U250" s="27"/>
       <c r="V250" s="27"/>
       <c r="W250" s="27"/>
-      <c r="X250" s="27"/>
+      <c r="X250" s="27" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="251" spans="1:24" s="54" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="59"/>
       <c r="B251" s="49"/>
-      <c r="C251" s="15"/>
-      <c r="D251" s="79" t="s">
-        <v>275</v>
-      </c>
-      <c r="E251" s="45" t="s">
-        <v>286</v>
+      <c r="C251" s="16"/>
+      <c r="D251" s="80" t="s">
+        <v>790</v>
+      </c>
+      <c r="E251" s="16" t="s">
+        <v>791</v>
       </c>
       <c r="F251" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="G251" s="15"/>
+      <c r="G251" s="16"/>
       <c r="H251" s="104" t="s">
         <v>776</v>
       </c>
@@ -17482,11 +17524,11 @@
         <v>374</v>
       </c>
       <c r="N251" s="27"/>
-      <c r="O251" s="79">
-        <v>2000000096</v>
+      <c r="O251" s="27">
+        <v>2000000105</v>
       </c>
       <c r="P251" s="28" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(N251&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O251), CONCATENATE("Athena-",O251)),"")</f>
         <v/>
       </c>
       <c r="Q251" s="27"/>
@@ -17496,17 +17538,19 @@
       <c r="U251" s="27"/>
       <c r="V251" s="27"/>
       <c r="W251" s="27"/>
-      <c r="X251" s="27"/>
+      <c r="X251" s="27" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="252" spans="1:24" s="54" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="59"/>
       <c r="B252" s="49"/>
-      <c r="C252" s="15"/>
-      <c r="D252" s="79" t="s">
-        <v>707</v>
-      </c>
-      <c r="E252" s="11" t="s">
-        <v>288</v>
+      <c r="C252" s="16"/>
+      <c r="D252" s="80" t="s">
+        <v>274</v>
+      </c>
+      <c r="E252" s="16" t="s">
+        <v>285</v>
       </c>
       <c r="F252" s="15" t="s">
         <v>197</v>
@@ -17528,10 +17572,10 @@
       </c>
       <c r="N252" s="27"/>
       <c r="O252" s="27">
-        <v>2000000097</v>
+        <v>2000000095</v>
       </c>
       <c r="P252" s="28" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Q252" s="27"/>
@@ -17541,22 +17585,24 @@
       <c r="U252" s="27"/>
       <c r="V252" s="27"/>
       <c r="W252" s="27"/>
-      <c r="X252" s="27"/>
+      <c r="X252" s="27" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="253" spans="1:24" s="54" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="59"/>
       <c r="B253" s="49"/>
-      <c r="C253" s="16"/>
-      <c r="D253" s="80" t="s">
-        <v>276</v>
-      </c>
-      <c r="E253" s="16" t="s">
-        <v>289</v>
+      <c r="C253" s="15"/>
+      <c r="D253" s="79" t="s">
+        <v>275</v>
+      </c>
+      <c r="E253" s="45" t="s">
+        <v>286</v>
       </c>
       <c r="F253" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="G253" s="16"/>
+      <c r="G253" s="15"/>
       <c r="H253" s="104" t="s">
         <v>776</v>
       </c>
@@ -17571,15 +17617,13 @@
       <c r="M253" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="N253" s="27" t="s">
-        <v>368</v>
-      </c>
-      <c r="O253" s="27">
-        <v>46284972</v>
+      <c r="N253" s="27"/>
+      <c r="O253" s="79">
+        <v>2000000096</v>
       </c>
       <c r="P253" s="28" t="str">
-        <f t="shared" si="19"/>
-        <v>Athena-46284972</v>
+        <f t="shared" si="20"/>
+        <v/>
       </c>
       <c r="Q253" s="27"/>
       <c r="R253" s="27"/>
@@ -17588,17 +17632,19 @@
       <c r="U253" s="27"/>
       <c r="V253" s="27"/>
       <c r="W253" s="27"/>
-      <c r="X253" s="27"/>
+      <c r="X253" s="27" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="254" spans="1:24" s="54" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="59"/>
       <c r="B254" s="49"/>
-      <c r="C254" s="16"/>
-      <c r="D254" s="80" t="s">
-        <v>277</v>
-      </c>
-      <c r="E254" s="16" t="s">
-        <v>378</v>
+      <c r="C254" s="15"/>
+      <c r="D254" s="79" t="s">
+        <v>707</v>
+      </c>
+      <c r="E254" s="11" t="s">
+        <v>288</v>
       </c>
       <c r="F254" s="15" t="s">
         <v>197</v>
@@ -17620,10 +17666,10 @@
       </c>
       <c r="N254" s="27"/>
       <c r="O254" s="27">
-        <v>2000000098</v>
+        <v>2000000097</v>
       </c>
       <c r="P254" s="28" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Q254" s="27"/>
@@ -17633,22 +17679,24 @@
       <c r="U254" s="27"/>
       <c r="V254" s="27"/>
       <c r="W254" s="27"/>
-      <c r="X254" s="27"/>
+      <c r="X254" s="27" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="255" spans="1:24" s="54" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="59"/>
       <c r="B255" s="49"/>
-      <c r="C255" s="15"/>
-      <c r="D255" s="79" t="s">
-        <v>278</v>
-      </c>
-      <c r="E255" s="45" t="s">
-        <v>377</v>
+      <c r="C255" s="16"/>
+      <c r="D255" s="80" t="s">
+        <v>276</v>
+      </c>
+      <c r="E255" s="16" t="s">
+        <v>289</v>
       </c>
       <c r="F255" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="G255" s="15"/>
+      <c r="G255" s="16"/>
       <c r="H255" s="104" t="s">
         <v>776</v>
       </c>
@@ -17663,13 +17711,15 @@
       <c r="M255" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="N255" s="27"/>
+      <c r="N255" s="27" t="s">
+        <v>368</v>
+      </c>
       <c r="O255" s="27">
-        <v>2000000099</v>
+        <v>46284972</v>
       </c>
       <c r="P255" s="28" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+        <f t="shared" si="20"/>
+        <v>Athena-46284972</v>
       </c>
       <c r="Q255" s="27"/>
       <c r="R255" s="27"/>
@@ -17678,29 +17728,31 @@
       <c r="U255" s="27"/>
       <c r="V255" s="27"/>
       <c r="W255" s="27"/>
-      <c r="X255" s="27"/>
+      <c r="X255" s="27" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="256" spans="1:24" s="54" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="59"/>
-      <c r="B256" s="16"/>
+      <c r="B256" s="49"/>
       <c r="C256" s="16"/>
       <c r="D256" s="80" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>290</v>
+        <v>378</v>
       </c>
       <c r="F256" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="G256" s="16"/>
+      <c r="G256" s="15"/>
       <c r="H256" s="104" t="s">
         <v>776</v>
       </c>
       <c r="I256" s="28" t="s">
         <v>721</v>
       </c>
-      <c r="J256" s="16"/>
+      <c r="J256" s="15"/>
       <c r="K256" s="27" t="s">
         <v>337</v>
       </c>
@@ -17708,15 +17760,13 @@
       <c r="M256" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="N256" s="27" t="s">
-        <v>368</v>
-      </c>
+      <c r="N256" s="27"/>
       <c r="O256" s="27">
-        <v>4332015</v>
+        <v>2000000098</v>
       </c>
       <c r="P256" s="28" t="str">
-        <f t="shared" si="19"/>
-        <v>Athena-4332015</v>
+        <f t="shared" si="20"/>
+        <v/>
       </c>
       <c r="Q256" s="27"/>
       <c r="R256" s="27"/>
@@ -17725,29 +17775,31 @@
       <c r="U256" s="27"/>
       <c r="V256" s="27"/>
       <c r="W256" s="27"/>
-      <c r="X256" s="27"/>
+      <c r="X256" s="27" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="257" spans="1:24" s="54" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="59"/>
-      <c r="B257" s="16"/>
-      <c r="C257" s="16"/>
-      <c r="D257" s="80" t="s">
-        <v>280</v>
-      </c>
-      <c r="E257" s="16" t="s">
-        <v>291</v>
+      <c r="B257" s="49"/>
+      <c r="C257" s="15"/>
+      <c r="D257" s="79" t="s">
+        <v>278</v>
+      </c>
+      <c r="E257" s="45" t="s">
+        <v>377</v>
       </c>
       <c r="F257" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="G257" s="16"/>
+      <c r="G257" s="15"/>
       <c r="H257" s="104" t="s">
         <v>776</v>
       </c>
       <c r="I257" s="28" t="s">
         <v>721</v>
       </c>
-      <c r="J257" s="16"/>
+      <c r="J257" s="15"/>
       <c r="K257" s="27" t="s">
         <v>337</v>
       </c>
@@ -17755,15 +17807,13 @@
       <c r="M257" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="N257" s="27" t="s">
-        <v>368</v>
-      </c>
+      <c r="N257" s="27"/>
       <c r="O257" s="27">
-        <v>4166200</v>
+        <v>2000000099</v>
       </c>
       <c r="P257" s="28" t="str">
-        <f t="shared" si="19"/>
-        <v>Athena-4166200</v>
+        <f t="shared" si="20"/>
+        <v/>
       </c>
       <c r="Q257" s="27"/>
       <c r="R257" s="27"/>
@@ -17772,17 +17822,19 @@
       <c r="U257" s="27"/>
       <c r="V257" s="27"/>
       <c r="W257" s="27"/>
-      <c r="X257" s="27"/>
+      <c r="X257" s="27" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="258" spans="1:24" s="54" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="59"/>
       <c r="B258" s="16"/>
       <c r="C258" s="16"/>
       <c r="D258" s="80" t="s">
-        <v>708</v>
+        <v>279</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F258" s="15" t="s">
         <v>197</v>
@@ -17806,11 +17858,11 @@
         <v>368</v>
       </c>
       <c r="O258" s="27">
-        <v>4282774</v>
+        <v>4332015</v>
       </c>
       <c r="P258" s="28" t="str">
-        <f t="shared" si="19"/>
-        <v>Athena-4282774</v>
+        <f t="shared" si="20"/>
+        <v>Athena-4332015</v>
       </c>
       <c r="Q258" s="27"/>
       <c r="R258" s="27"/>
@@ -17819,17 +17871,19 @@
       <c r="U258" s="27"/>
       <c r="V258" s="27"/>
       <c r="W258" s="27"/>
-      <c r="X258" s="27"/>
+      <c r="X258" s="27" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="259" spans="1:24" s="54" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="59"/>
       <c r="B259" s="16"/>
       <c r="C259" s="16"/>
       <c r="D259" s="80" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F259" s="15" t="s">
         <v>197</v>
@@ -17849,13 +17903,15 @@
       <c r="M259" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="N259" s="27"/>
+      <c r="N259" s="27" t="s">
+        <v>368</v>
+      </c>
       <c r="O259" s="27">
-        <v>2000000076</v>
+        <v>4166200</v>
       </c>
       <c r="P259" s="28" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+        <f t="shared" si="20"/>
+        <v>Athena-4166200</v>
       </c>
       <c r="Q259" s="27"/>
       <c r="R259" s="27"/>
@@ -17864,49 +17920,105 @@
       <c r="U259" s="27"/>
       <c r="V259" s="27"/>
       <c r="W259" s="27"/>
-      <c r="X259" s="27"/>
-    </row>
-    <row r="260" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B260" s="23"/>
-      <c r="E260" s="23"/>
-      <c r="G260" s="23"/>
-      <c r="H260" s="34"/>
-      <c r="I260" s="34"/>
-      <c r="J260" s="23"/>
-      <c r="K260" s="66"/>
-      <c r="L260" s="23"/>
-      <c r="M260" s="66"/>
-      <c r="N260" s="66"/>
-      <c r="O260" s="66"/>
-      <c r="P260" s="66"/>
-      <c r="Q260" s="66"/>
-      <c r="R260" s="66"/>
-      <c r="S260" s="66"/>
-      <c r="T260" s="66"/>
-      <c r="U260" s="66"/>
-      <c r="V260" s="66"/>
-      <c r="W260" s="66"/>
-      <c r="X260" s="66"/>
-    </row>
-    <row r="261" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="G261" s="23"/>
-      <c r="H261" s="34"/>
-      <c r="I261" s="34"/>
-      <c r="J261" s="23"/>
-      <c r="K261" s="40"/>
-      <c r="L261" s="23"/>
-      <c r="M261" s="40"/>
-      <c r="N261" s="40"/>
-      <c r="O261" s="40"/>
-      <c r="P261" s="40"/>
-      <c r="Q261" s="40"/>
-      <c r="R261" s="40"/>
-      <c r="S261" s="40"/>
-      <c r="T261" s="40"/>
-      <c r="U261" s="40"/>
-      <c r="V261" s="40"/>
-      <c r="W261" s="40"/>
-      <c r="X261" s="40"/>
+      <c r="X259" s="27" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="260" spans="1:24" s="54" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A260" s="59"/>
+      <c r="B260" s="16"/>
+      <c r="C260" s="16"/>
+      <c r="D260" s="80" t="s">
+        <v>708</v>
+      </c>
+      <c r="E260" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="F260" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G260" s="16"/>
+      <c r="H260" s="104" t="s">
+        <v>776</v>
+      </c>
+      <c r="I260" s="28" t="s">
+        <v>721</v>
+      </c>
+      <c r="J260" s="16"/>
+      <c r="K260" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="L260" s="16"/>
+      <c r="M260" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="N260" s="27" t="s">
+        <v>368</v>
+      </c>
+      <c r="O260" s="27">
+        <v>4282774</v>
+      </c>
+      <c r="P260" s="28" t="str">
+        <f t="shared" si="20"/>
+        <v>Athena-4282774</v>
+      </c>
+      <c r="Q260" s="27"/>
+      <c r="R260" s="27"/>
+      <c r="S260" s="27"/>
+      <c r="T260" s="27"/>
+      <c r="U260" s="27"/>
+      <c r="V260" s="27"/>
+      <c r="W260" s="27"/>
+      <c r="X260" s="27" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="261" spans="1:24" s="54" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A261" s="59"/>
+      <c r="B261" s="16"/>
+      <c r="C261" s="16"/>
+      <c r="D261" s="80" t="s">
+        <v>282</v>
+      </c>
+      <c r="E261" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="F261" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G261" s="16"/>
+      <c r="H261" s="104" t="s">
+        <v>776</v>
+      </c>
+      <c r="I261" s="28" t="s">
+        <v>721</v>
+      </c>
+      <c r="J261" s="16"/>
+      <c r="K261" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="L261" s="16"/>
+      <c r="M261" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="N261" s="27"/>
+      <c r="O261" s="27">
+        <v>2000000076</v>
+      </c>
+      <c r="P261" s="28" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="Q261" s="27"/>
+      <c r="R261" s="27"/>
+      <c r="S261" s="27"/>
+      <c r="T261" s="27"/>
+      <c r="U261" s="27"/>
+      <c r="V261" s="27"/>
+      <c r="W261" s="27"/>
+      <c r="X261" s="27" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="262" spans="1:24" x14ac:dyDescent="0.2">
       <c r="G262" s="23"/>
@@ -18290,23 +18402,23 @@
     </row>
     <row r="281" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G281" s="23"/>
-      <c r="H281" s="23"/>
-      <c r="I281" s="23"/>
+      <c r="H281" s="34"/>
+      <c r="I281" s="34"/>
       <c r="J281" s="23"/>
-      <c r="K281" s="23"/>
+      <c r="K281" s="40"/>
       <c r="L281" s="23"/>
-      <c r="M281" s="23"/>
-      <c r="N281" s="23"/>
-      <c r="O281" s="23"/>
-      <c r="P281" s="23"/>
-      <c r="Q281" s="23"/>
-      <c r="R281" s="23"/>
-      <c r="S281" s="23"/>
-      <c r="T281" s="23"/>
-      <c r="U281" s="23"/>
-      <c r="V281" s="23"/>
-      <c r="W281" s="23"/>
-      <c r="X281" s="23"/>
+      <c r="M281" s="40"/>
+      <c r="N281" s="40"/>
+      <c r="O281" s="40"/>
+      <c r="P281" s="40"/>
+      <c r="Q281" s="40"/>
+      <c r="R281" s="40"/>
+      <c r="S281" s="40"/>
+      <c r="T281" s="40"/>
+      <c r="U281" s="40"/>
+      <c r="V281" s="40"/>
+      <c r="W281" s="40"/>
+      <c r="X281" s="40"/>
     </row>
     <row r="282" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G282" s="23"/>
@@ -37347,6 +37459,26 @@
       <c r="V1233" s="23"/>
       <c r="W1233" s="23"/>
       <c r="X1233" s="23"/>
+    </row>
+    <row r="1234" spans="7:24" x14ac:dyDescent="0.2">
+      <c r="G1234" s="23"/>
+      <c r="H1234" s="23"/>
+      <c r="I1234" s="23"/>
+      <c r="J1234" s="23"/>
+      <c r="K1234" s="23"/>
+      <c r="L1234" s="23"/>
+      <c r="M1234" s="23"/>
+      <c r="N1234" s="23"/>
+      <c r="O1234" s="23"/>
+      <c r="P1234" s="23"/>
+      <c r="Q1234" s="23"/>
+      <c r="R1234" s="23"/>
+      <c r="S1234" s="23"/>
+      <c r="T1234" s="23"/>
+      <c r="U1234" s="23"/>
+      <c r="V1234" s="23"/>
+      <c r="W1234" s="23"/>
+      <c r="X1234" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>

--- a/ncdc_mappings/ncdc_minimal_dataset.xlsx
+++ b/ncdc_mappings/ncdc_minimal_dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/OneDrive - Maastro - Clinic/Pedro Files/Data Harmonization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://maastro-my.sharepoint.com/personal/pedro_mateus_maastro_nl/Documents/Pedro Files/Data Harmonization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B9D812-1676-8949-AC2D-08B3C8C8799F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{CFD7E28C-48FE-9D4B-9FBD-FF4601B5D85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B515141-2EEF-564C-BDB5-8BB5993C00B8}"/>
   <bookViews>
     <workbookView xWindow="2960" yWindow="500" windowWidth="33600" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -366,7 +366,7 @@
     However, storing the information for 2 different times may be confusing. Probably the one that falls in the interval 20-30 minutes will be more suitable</t>
       </text>
     </comment>
-    <comment ref="D256" authorId="32" shapeId="0" xr:uid="{6A958D43-89AC-C443-90B2-E839939ED9BB}">
+    <comment ref="D257" authorId="32" shapeId="0" xr:uid="{6A958D43-89AC-C443-90B2-E839939ED9BB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -374,7 +374,7 @@
     Generic concept only from SNOMED for the Boston Naming Test: 4164808</t>
       </text>
     </comment>
-    <comment ref="O280" authorId="33" shapeId="0" xr:uid="{C21DF866-3B02-8D43-BDB4-19473A2B92EE}">
+    <comment ref="O281" authorId="33" shapeId="0" xr:uid="{C21DF866-3B02-8D43-BDB4-19473A2B92EE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -382,7 +382,7 @@
     Observation (SNOMED): 4136437</t>
       </text>
     </comment>
-    <comment ref="O281" authorId="34" shapeId="0" xr:uid="{6D0CD4A8-48D1-4246-9DC1-32FEBE702D51}">
+    <comment ref="O282" authorId="34" shapeId="0" xr:uid="{6D0CD4A8-48D1-4246-9DC1-32FEBE702D51}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -390,7 +390,7 @@
     Observation (SNOMED) 45768724</t>
       </text>
     </comment>
-    <comment ref="O282" authorId="35" shapeId="0" xr:uid="{B59C5FEF-8EFD-C648-A78A-AFBCA7EF7266}">
+    <comment ref="O283" authorId="35" shapeId="0" xr:uid="{B59C5FEF-8EFD-C648-A78A-AFBCA7EF7266}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -398,7 +398,7 @@
     Observation (SNOMED) 45768723</t>
       </text>
     </comment>
-    <comment ref="O284" authorId="36" shapeId="0" xr:uid="{BCD976E6-B6D9-D546-9016-DBD9D0F54E91}">
+    <comment ref="O285" authorId="36" shapeId="0" xr:uid="{BCD976E6-B6D9-D546-9016-DBD9D0F54E91}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -406,7 +406,7 @@
     Observation (SNOMED) 4079321</t>
       </text>
     </comment>
-    <comment ref="O285" authorId="37" shapeId="0" xr:uid="{DFA827BB-C401-AD42-9C05-074FE05BA8AF}">
+    <comment ref="O286" authorId="37" shapeId="0" xr:uid="{DFA827BB-C401-AD42-9C05-074FE05BA8AF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -416,7 +416,7 @@
     4299446</t>
       </text>
     </comment>
-    <comment ref="O286" authorId="38" shapeId="0" xr:uid="{8B270D9A-52A2-8745-B447-8EF3342DED56}">
+    <comment ref="O287" authorId="38" shapeId="0" xr:uid="{8B270D9A-52A2-8745-B447-8EF3342DED56}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -424,7 +424,7 @@
     Observation (SNOMED) 4012274</t>
       </text>
     </comment>
-    <comment ref="O287" authorId="39" shapeId="0" xr:uid="{48DC908A-650A-A142-B529-8C8185B7B723}">
+    <comment ref="O288" authorId="39" shapeId="0" xr:uid="{48DC908A-650A-A142-B529-8C8185B7B723}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -435,7 +435,7 @@
     Observation (SNOMED) - 4221816 (referes to the component itself)</t>
       </text>
     </comment>
-    <comment ref="D293" authorId="40" shapeId="0" xr:uid="{70609BE4-D9A6-3145-A3F3-5832E54D4EE2}">
+    <comment ref="D294" authorId="40" shapeId="0" xr:uid="{70609BE4-D9A6-3145-A3F3-5832E54D4EE2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -700,7 +700,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4573" uniqueCount="957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4580" uniqueCount="958">
   <si>
     <t>Main category</t>
   </si>
@@ -3531,12 +3531,6 @@
     <t>VOSP number location</t>
   </si>
   <si>
-    <t>Priority_executive_wais_3</t>
-  </si>
-  <si>
-    <t>WAIS-III digit span forward and backward</t>
-  </si>
-  <si>
     <t>Priority_language_cantab</t>
   </si>
   <si>
@@ -3595,9 +3589,6 @@
   </si>
   <si>
     <t>HADS</t>
-  </si>
-  <si>
-    <t>Meaasurement</t>
   </si>
   <si>
     <t>Cardiovascular_disease</t>
@@ -3617,6 +3608,18 @@
   </si>
   <si>
     <t>hdl_ratio</t>
+  </si>
+  <si>
+    <t>Priority_executive_wais_3_b</t>
+  </si>
+  <si>
+    <t>Priority_executive_wais_3_f</t>
+  </si>
+  <si>
+    <t>WAIS-III digit span backward</t>
+  </si>
+  <si>
+    <t>WAIS-III digit span forward</t>
   </si>
 </sst>
 </file>
@@ -5788,38 +5791,38 @@
   <threadedComment ref="D218" dT="2021-07-19T16:04:57.29" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{75CAA762-6AD4-934F-A0AD-B9AFDD6D31E9}" parentId="{7B408D37-7963-244B-BBC8-4A2BD19C9A8C}">
     <text>However, storing the information for 2 different times may be confusing. Probably the one that falls in the interval 20-30 minutes will be more suitable</text>
   </threadedComment>
-  <threadedComment ref="D256" dT="2021-07-08T14:57:23.15" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{6A958D43-89AC-C443-90B2-E839939ED9BB}">
+  <threadedComment ref="D257" dT="2021-07-08T14:57:23.15" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{6A958D43-89AC-C443-90B2-E839939ED9BB}">
     <text>Generic concept only from SNOMED for the Boston Naming Test: 4164808</text>
   </threadedComment>
-  <threadedComment ref="O280" dT="2021-10-27T15:56:51.26" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{C21DF866-3B02-8D43-BDB4-19473A2B92EE}">
+  <threadedComment ref="O281" dT="2021-10-27T15:56:51.26" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{C21DF866-3B02-8D43-BDB4-19473A2B92EE}">
     <text>Observation (SNOMED): 4136437</text>
   </threadedComment>
-  <threadedComment ref="O281" dT="2021-10-27T15:57:10.76" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{6D0CD4A8-48D1-4246-9DC1-32FEBE702D51}">
+  <threadedComment ref="O282" dT="2021-10-27T15:57:10.76" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{6D0CD4A8-48D1-4246-9DC1-32FEBE702D51}">
     <text>Observation (SNOMED) 45768724</text>
   </threadedComment>
-  <threadedComment ref="O282" dT="2021-10-27T15:59:18.03" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{B59C5FEF-8EFD-C648-A78A-AFBCA7EF7266}">
+  <threadedComment ref="O283" dT="2021-10-27T15:59:18.03" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{B59C5FEF-8EFD-C648-A78A-AFBCA7EF7266}">
     <text>Observation (SNOMED) 45768723</text>
   </threadedComment>
-  <threadedComment ref="O284" dT="2021-10-27T16:01:02.13" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{BCD976E6-B6D9-D546-9016-DBD9D0F54E91}">
+  <threadedComment ref="O285" dT="2021-10-27T16:01:02.13" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{BCD976E6-B6D9-D546-9016-DBD9D0F54E91}">
     <text>Observation (SNOMED) 4079321</text>
   </threadedComment>
-  <threadedComment ref="O285" dT="2021-07-02T12:24:20.39" personId="{98691CDF-5915-8B45-A1D3-22E1ADD8314B}" id="{DFA827BB-C401-AD42-9C05-074FE05BA8AF}">
+  <threadedComment ref="O286" dT="2021-07-02T12:24:20.39" personId="{98691CDF-5915-8B45-A1D3-22E1ADD8314B}" id="{DFA827BB-C401-AD42-9C05-074FE05BA8AF}">
     <text>Matches to “Neurofilament protein” - no clear match to NFL, maybe a new concept or the link to the ontology can be enough?</text>
   </threadedComment>
-  <threadedComment ref="O285" dT="2021-10-27T16:04:29.90" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{236EE8B4-0B5A-B546-910E-201CC41AB22E}" parentId="{DFA827BB-C401-AD42-9C05-074FE05BA8AF}">
+  <threadedComment ref="O286" dT="2021-10-27T16:04:29.90" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{236EE8B4-0B5A-B546-910E-201CC41AB22E}" parentId="{DFA827BB-C401-AD42-9C05-074FE05BA8AF}">
     <text>4299446</text>
   </threadedComment>
-  <threadedComment ref="O286" dT="2021-10-27T16:05:33.61" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{8B270D9A-52A2-8745-B447-8EF3342DED56}">
+  <threadedComment ref="O287" dT="2021-10-27T16:05:33.61" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{8B270D9A-52A2-8745-B447-8EF3342DED56}">
     <text>Observation (SNOMED) 4012274</text>
   </threadedComment>
-  <threadedComment ref="O287" dT="2021-10-27T16:07:09.40" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{48DC908A-650A-A142-B529-8C8185B7B723}">
+  <threadedComment ref="O288" dT="2021-10-27T16:07:09.40" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{48DC908A-650A-A142-B529-8C8185B7B723}">
     <text>Measurement meaning - Measurement of concentration of amyloid A in serum specimen (procedure)
 Serum amyloid A concentratio</text>
   </threadedComment>
-  <threadedComment ref="O287" dT="2021-10-27T16:07:50.16" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{475E4E61-9156-CF48-A078-B50A8EE3149D}" parentId="{48DC908A-650A-A142-B529-8C8185B7B723}">
+  <threadedComment ref="O288" dT="2021-10-27T16:07:50.16" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{475E4E61-9156-CF48-A078-B50A8EE3149D}" parentId="{48DC908A-650A-A142-B529-8C8185B7B723}">
     <text>Observation (SNOMED) - 4221816 (referes to the component itself)</text>
   </threadedComment>
-  <threadedComment ref="D293" dT="2021-07-02T12:47:45.50" personId="{98691CDF-5915-8B45-A1D3-22E1ADD8314B}" id="{70609BE4-D9A6-3145-A3F3-5832E54D4EE2}">
+  <threadedComment ref="D294" dT="2021-07-02T12:47:45.50" personId="{98691CDF-5915-8B45-A1D3-22E1ADD8314B}" id="{70609BE4-D9A6-3145-A3F3-5832E54D4EE2}">
     <text>All these fields require more information. Probably they represent measurements but more complete information is required to clearly identify what’s being measured/how and the units.</text>
   </threadedComment>
 </ThreadedComments>
@@ -5927,11 +5930,11 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:Y1266"/>
+  <dimension ref="A1:Y1267"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="89" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E95" sqref="E95"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="89" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O248" sqref="O248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17"/>
@@ -9421,10 +9424,10 @@
       </c>
       <c r="C72" s="15"/>
       <c r="D72" s="15" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="F72" s="15" t="s">
         <v>55</v>
@@ -9443,7 +9446,7 @@
         <v>337</v>
       </c>
       <c r="L72" s="16" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="M72" s="27" t="s">
         <v>367</v>
@@ -10583,10 +10586,10 @@
       </c>
       <c r="C93" s="15"/>
       <c r="D93" s="15" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="F93" s="15" t="s">
         <v>197</v>
@@ -12978,13 +12981,13 @@
       <c r="A141" s="59"/>
       <c r="B141" s="72"/>
       <c r="C141" s="27" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="D141" s="83" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E141" s="87" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F141" s="27" t="s">
         <v>309</v>
@@ -13002,7 +13005,7 @@
       </c>
       <c r="L141" s="16"/>
       <c r="M141" s="47" t="s">
-        <v>951</v>
+        <v>374</v>
       </c>
       <c r="N141" s="65" t="s">
         <v>368</v>
@@ -13029,13 +13032,13 @@
       <c r="A142" s="59"/>
       <c r="B142" s="72"/>
       <c r="C142" s="27" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D142" s="83" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E142" s="87" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="F142" s="27" t="s">
         <v>309</v>
@@ -13053,7 +13056,7 @@
       </c>
       <c r="L142" s="16"/>
       <c r="M142" s="47" t="s">
-        <v>951</v>
+        <v>374</v>
       </c>
       <c r="N142" s="65" t="s">
         <v>368</v>
@@ -17870,10 +17873,10 @@
       <c r="B246" s="67"/>
       <c r="C246" s="45"/>
       <c r="D246" s="84" t="s">
-        <v>929</v>
+        <v>954</v>
       </c>
       <c r="E246" s="84" t="s">
-        <v>930</v>
+        <v>956</v>
       </c>
       <c r="F246" s="27" t="s">
         <v>197</v>
@@ -17913,30 +17916,35 @@
       <c r="A247" s="59"/>
       <c r="B247" s="67"/>
       <c r="C247" s="45"/>
-      <c r="D247" s="77" t="s">
-        <v>521</v>
-      </c>
-      <c r="E247" s="76" t="s">
-        <v>519</v>
+      <c r="D247" s="84" t="s">
+        <v>955</v>
+      </c>
+      <c r="E247" s="84" t="s">
+        <v>957</v>
       </c>
       <c r="F247" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G247" s="16"/>
-      <c r="H247" s="38"/>
-      <c r="I247" s="38"/>
+      <c r="H247" s="104" t="s">
+        <v>762</v>
+      </c>
+      <c r="I247" s="38" t="s">
+        <v>715</v>
+      </c>
       <c r="J247" s="15"/>
       <c r="K247" s="27" t="s">
         <v>337</v>
       </c>
       <c r="L247" s="27"/>
-      <c r="M247" s="27"/>
+      <c r="M247" s="27" t="s">
+        <v>374</v>
+      </c>
       <c r="N247" s="27"/>
-      <c r="O247" s="89"/>
-      <c r="P247" s="28" t="str">
-        <f t="shared" ref="P247:P264" si="18">IF(N247&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O247), CONCATENATE("Athena-",O247)),"")</f>
-        <v/>
-      </c>
+      <c r="O247" s="89">
+        <v>2000000134</v>
+      </c>
+      <c r="P247" s="28"/>
       <c r="Q247" s="27"/>
       <c r="R247" s="27"/>
       <c r="S247" s="27"/>
@@ -17948,38 +17956,30 @@
         <v>780</v>
       </c>
     </row>
-    <row r="248" spans="1:24" s="54" customFormat="1" ht="47" customHeight="1">
+    <row r="248" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A248" s="59"/>
-      <c r="B248" s="67" t="s">
-        <v>150</v>
-      </c>
-      <c r="C248" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="D248" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="E248" s="45" t="s">
-        <v>251</v>
+      <c r="B248" s="67"/>
+      <c r="C248" s="45"/>
+      <c r="D248" s="77"/>
+      <c r="E248" s="76" t="s">
+        <v>519</v>
       </c>
       <c r="F248" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G248" s="15"/>
-      <c r="H248" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="I248" s="28"/>
+      <c r="G248" s="16"/>
+      <c r="H248" s="38"/>
+      <c r="I248" s="38"/>
       <c r="J248" s="15"/>
       <c r="K248" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L248" s="16"/>
+      <c r="L248" s="27"/>
       <c r="M248" s="27"/>
       <c r="N248" s="27"/>
-      <c r="O248" s="27"/>
+      <c r="O248" s="89"/>
       <c r="P248" s="28" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="P248:P265" si="18">IF(N248&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O248), CONCATENATE("Athena-",O248)),"")</f>
         <v/>
       </c>
       <c r="Q248" s="27"/>
@@ -17993,28 +17993,28 @@
         <v>780</v>
       </c>
     </row>
-    <row r="249" spans="1:24" s="54" customFormat="1" ht="16">
+    <row r="249" spans="1:24" s="54" customFormat="1" ht="47" customHeight="1">
       <c r="A249" s="59"/>
       <c r="B249" s="67" t="s">
         <v>150</v>
       </c>
       <c r="C249" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D249" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E249" s="45" t="s">
-        <v>133</v>
+        <v>251</v>
       </c>
       <c r="F249" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G249" s="15"/>
-      <c r="H249" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="I249" s="36"/>
+      <c r="H249" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="I249" s="28"/>
       <c r="J249" s="15"/>
       <c r="K249" s="27" t="s">
         <v>337</v>
@@ -18038,37 +18038,33 @@
         <v>780</v>
       </c>
     </row>
-    <row r="250" spans="1:24" s="54" customFormat="1" ht="110" customHeight="1">
+    <row r="250" spans="1:24" s="54" customFormat="1" ht="16">
       <c r="A250" s="59"/>
       <c r="B250" s="67" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C250" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="D250" s="76" t="s">
-        <v>214</v>
-      </c>
-      <c r="E250" s="76" t="s">
-        <v>528</v>
+        <v>135</v>
+      </c>
+      <c r="D250" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="E250" s="45" t="s">
+        <v>133</v>
       </c>
       <c r="F250" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="G250" s="15" t="s">
-        <v>693</v>
-      </c>
-      <c r="H250" s="43" t="s">
-        <v>327</v>
-      </c>
-      <c r="I250" s="43"/>
+        <v>197</v>
+      </c>
+      <c r="G250" s="15"/>
+      <c r="H250" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="I250" s="36"/>
       <c r="J250" s="15"/>
       <c r="K250" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L250" s="16" t="s">
-        <v>694</v>
-      </c>
+      <c r="L250" s="16"/>
       <c r="M250" s="27"/>
       <c r="N250" s="27"/>
       <c r="O250" s="27"/>
@@ -18084,43 +18080,43 @@
       <c r="V250" s="27"/>
       <c r="W250" s="27"/>
       <c r="X250" s="15" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="251" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="251" spans="1:24" s="54" customFormat="1" ht="110" customHeight="1">
       <c r="A251" s="59"/>
-      <c r="B251" s="67"/>
-      <c r="C251" s="45" t="s">
-        <v>573</v>
-      </c>
-      <c r="D251" s="84" t="s">
-        <v>914</v>
-      </c>
-      <c r="E251" s="83" t="s">
-        <v>883</v>
+      <c r="B251" s="67" t="s">
+        <v>151</v>
+      </c>
+      <c r="C251" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D251" s="76" t="s">
+        <v>214</v>
+      </c>
+      <c r="E251" s="76" t="s">
+        <v>528</v>
       </c>
       <c r="F251" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="G251" s="16"/>
-      <c r="H251" s="104" t="s">
-        <v>762</v>
-      </c>
-      <c r="I251" s="28" t="s">
-        <v>715</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G251" s="15" t="s">
+        <v>693</v>
+      </c>
+      <c r="H251" s="43" t="s">
+        <v>327</v>
+      </c>
+      <c r="I251" s="43"/>
       <c r="J251" s="15"/>
       <c r="K251" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L251" s="27"/>
-      <c r="M251" s="47" t="s">
-        <v>374</v>
-      </c>
+      <c r="L251" s="16" t="s">
+        <v>694</v>
+      </c>
+      <c r="M251" s="27"/>
       <c r="N251" s="27"/>
-      <c r="O251" s="89">
-        <v>2000000068</v>
-      </c>
+      <c r="O251" s="27"/>
       <c r="P251" s="28" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -18139,12 +18135,14 @@
     <row r="252" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A252" s="59"/>
       <c r="B252" s="67"/>
-      <c r="C252" s="106"/>
+      <c r="C252" s="45" t="s">
+        <v>573</v>
+      </c>
       <c r="D252" s="84" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E252" s="83" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="F252" s="27" t="s">
         <v>197</v>
@@ -18166,10 +18164,10 @@
       </c>
       <c r="N252" s="27"/>
       <c r="O252" s="89">
-        <v>2000000123</v>
+        <v>2000000068</v>
       </c>
       <c r="P252" s="28" t="str">
-        <f t="shared" ref="P252" si="19">IF(N252&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O252), CONCATENATE("Athena-",O252)),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Q252" s="27"/>
@@ -18186,11 +18184,12 @@
     <row r="253" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A253" s="59"/>
       <c r="B253" s="67"/>
+      <c r="C253" s="106"/>
       <c r="D253" s="84" t="s">
-        <v>919</v>
-      </c>
-      <c r="E253" s="84" t="s">
-        <v>530</v>
+        <v>915</v>
+      </c>
+      <c r="E253" s="83" t="s">
+        <v>882</v>
       </c>
       <c r="F253" s="27" t="s">
         <v>197</v>
@@ -18212,10 +18211,10 @@
       </c>
       <c r="N253" s="27"/>
       <c r="O253" s="89">
-        <v>2000000069</v>
+        <v>2000000123</v>
       </c>
       <c r="P253" s="28" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="P253" si="19">IF(N253&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O253), CONCATENATE("Athena-",O253)),"")</f>
         <v/>
       </c>
       <c r="Q253" s="27"/>
@@ -18232,14 +18231,11 @@
     <row r="254" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A254" s="59"/>
       <c r="B254" s="67"/>
-      <c r="C254" s="45" t="s">
-        <v>574</v>
-      </c>
       <c r="D254" s="84" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="E254" s="84" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F254" s="27" t="s">
         <v>197</v>
@@ -18261,7 +18257,7 @@
       </c>
       <c r="N254" s="27"/>
       <c r="O254" s="89">
-        <v>2000000070</v>
+        <v>2000000069</v>
       </c>
       <c r="P254" s="28" t="str">
         <f t="shared" si="18"/>
@@ -18281,12 +18277,14 @@
     <row r="255" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A255" s="59"/>
       <c r="B255" s="67"/>
-      <c r="C255" s="45"/>
+      <c r="C255" s="45" t="s">
+        <v>574</v>
+      </c>
       <c r="D255" s="84" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E255" s="84" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F255" s="27" t="s">
         <v>197</v>
@@ -18308,7 +18306,7 @@
       </c>
       <c r="N255" s="27"/>
       <c r="O255" s="89">
-        <v>2000000071</v>
+        <v>2000000070</v>
       </c>
       <c r="P255" s="28" t="str">
         <f t="shared" si="18"/>
@@ -18328,14 +18326,12 @@
     <row r="256" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A256" s="59"/>
       <c r="B256" s="67"/>
-      <c r="C256" s="45" t="s">
-        <v>581</v>
-      </c>
-      <c r="D256" s="83" t="s">
-        <v>575</v>
-      </c>
-      <c r="E256" s="83" t="s">
-        <v>578</v>
+      <c r="C256" s="45"/>
+      <c r="D256" s="84" t="s">
+        <v>918</v>
+      </c>
+      <c r="E256" s="84" t="s">
+        <v>532</v>
       </c>
       <c r="F256" s="27" t="s">
         <v>197</v>
@@ -18357,7 +18353,7 @@
       </c>
       <c r="N256" s="27"/>
       <c r="O256" s="89">
-        <v>2000000072</v>
+        <v>2000000071</v>
       </c>
       <c r="P256" s="28" t="str">
         <f t="shared" si="18"/>
@@ -18378,13 +18374,13 @@
       <c r="A257" s="59"/>
       <c r="B257" s="67"/>
       <c r="C257" s="45" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D257" s="83" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E257" s="83" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F257" s="27" t="s">
         <v>197</v>
@@ -18406,7 +18402,7 @@
       </c>
       <c r="N257" s="27"/>
       <c r="O257" s="89">
-        <v>2000000073</v>
+        <v>2000000072</v>
       </c>
       <c r="P257" s="28" t="str">
         <f t="shared" si="18"/>
@@ -18427,13 +18423,13 @@
       <c r="A258" s="59"/>
       <c r="B258" s="67"/>
       <c r="C258" s="45" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D258" s="83" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E258" s="83" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F258" s="27" t="s">
         <v>197</v>
@@ -18455,7 +18451,7 @@
       </c>
       <c r="N258" s="27"/>
       <c r="O258" s="89">
-        <v>2000000074</v>
+        <v>2000000073</v>
       </c>
       <c r="P258" s="28" t="str">
         <f t="shared" si="18"/>
@@ -18475,12 +18471,14 @@
     <row r="259" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A259" s="59"/>
       <c r="B259" s="67"/>
-      <c r="C259" s="45"/>
+      <c r="C259" s="45" t="s">
+        <v>583</v>
+      </c>
       <c r="D259" s="83" t="s">
-        <v>526</v>
-      </c>
-      <c r="E259" s="84" t="s">
-        <v>739</v>
+        <v>577</v>
+      </c>
+      <c r="E259" s="83" t="s">
+        <v>580</v>
       </c>
       <c r="F259" s="27" t="s">
         <v>197</v>
@@ -18502,10 +18500,10 @@
       </c>
       <c r="N259" s="27"/>
       <c r="O259" s="89">
-        <v>2000000075</v>
+        <v>2000000074</v>
       </c>
       <c r="P259" s="28" t="str">
-        <f t="shared" ref="P259" si="20">IF(N259&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O259), CONCATENATE("Athena-",O259)),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Q259" s="27"/>
@@ -18524,10 +18522,10 @@
       <c r="B260" s="67"/>
       <c r="C260" s="45"/>
       <c r="D260" s="83" t="s">
-        <v>916</v>
+        <v>526</v>
       </c>
       <c r="E260" s="84" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F260" s="27" t="s">
         <v>197</v>
@@ -18549,10 +18547,10 @@
       </c>
       <c r="N260" s="27"/>
       <c r="O260" s="89">
-        <v>2000000086</v>
+        <v>2000000075</v>
       </c>
       <c r="P260" s="28" t="str">
-        <f t="shared" ref="P260" si="21">IF(N260&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O260), CONCATENATE("Athena-",O260)),"")</f>
+        <f t="shared" ref="P260" si="20">IF(N260&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O260), CONCATENATE("Athena-",O260)),"")</f>
         <v/>
       </c>
       <c r="Q260" s="27"/>
@@ -18571,10 +18569,10 @@
       <c r="B261" s="67"/>
       <c r="C261" s="45"/>
       <c r="D261" s="83" t="s">
-        <v>931</v>
+        <v>916</v>
       </c>
       <c r="E261" s="84" t="s">
-        <v>932</v>
+        <v>740</v>
       </c>
       <c r="F261" s="27" t="s">
         <v>197</v>
@@ -18596,9 +18594,12 @@
       </c>
       <c r="N261" s="27"/>
       <c r="O261" s="89">
-        <v>2000000129</v>
-      </c>
-      <c r="P261" s="28"/>
+        <v>2000000086</v>
+      </c>
+      <c r="P261" s="28" t="str">
+        <f t="shared" ref="P261" si="21">IF(N261&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O261), CONCATENATE("Athena-",O261)),"")</f>
+        <v/>
+      </c>
       <c r="Q261" s="27"/>
       <c r="R261" s="27"/>
       <c r="S261" s="27"/>
@@ -18614,11 +18615,11 @@
       <c r="A262" s="59"/>
       <c r="B262" s="67"/>
       <c r="C262" s="45"/>
-      <c r="D262" s="76" t="s">
-        <v>527</v>
-      </c>
-      <c r="E262" s="77" t="s">
-        <v>529</v>
+      <c r="D262" s="83" t="s">
+        <v>929</v>
+      </c>
+      <c r="E262" s="84" t="s">
+        <v>930</v>
       </c>
       <c r="F262" s="27" t="s">
         <v>197</v>
@@ -18627,19 +18628,22 @@
       <c r="H262" s="104" t="s">
         <v>762</v>
       </c>
-      <c r="I262" s="28"/>
+      <c r="I262" s="28" t="s">
+        <v>715</v>
+      </c>
       <c r="J262" s="15"/>
       <c r="K262" s="27" t="s">
         <v>337</v>
       </c>
       <c r="L262" s="27"/>
-      <c r="M262" s="47"/>
+      <c r="M262" s="47" t="s">
+        <v>374</v>
+      </c>
       <c r="N262" s="27"/>
-      <c r="O262" s="89"/>
-      <c r="P262" s="28" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
+      <c r="O262" s="89">
+        <v>2000000129</v>
+      </c>
+      <c r="P262" s="28"/>
       <c r="Q262" s="27"/>
       <c r="R262" s="27"/>
       <c r="S262" s="27"/>
@@ -18651,24 +18655,20 @@
         <v>776</v>
       </c>
     </row>
-    <row r="263" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
+    <row r="263" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A263" s="59"/>
-      <c r="B263" s="67" t="s">
-        <v>151</v>
-      </c>
-      <c r="C263" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="D263" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="E263" s="45" t="s">
-        <v>130</v>
+      <c r="B263" s="67"/>
+      <c r="C263" s="45"/>
+      <c r="D263" s="76" t="s">
+        <v>527</v>
+      </c>
+      <c r="E263" s="77" t="s">
+        <v>529</v>
       </c>
       <c r="F263" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G263" s="15"/>
+      <c r="G263" s="16"/>
       <c r="H263" s="104" t="s">
         <v>762</v>
       </c>
@@ -18677,10 +18677,10 @@
       <c r="K263" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L263" s="16"/>
-      <c r="M263" s="27"/>
+      <c r="L263" s="27"/>
+      <c r="M263" s="47"/>
       <c r="N263" s="27"/>
-      <c r="O263" s="27"/>
+      <c r="O263" s="89"/>
       <c r="P263" s="28" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -18696,33 +18696,33 @@
         <v>776</v>
       </c>
     </row>
-    <row r="264" spans="1:24" s="54" customFormat="1" ht="15">
+    <row r="264" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
       <c r="A264" s="59"/>
-      <c r="B264" s="49" t="s">
+      <c r="B264" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="C264" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="D264" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="E264" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="F264" s="15" t="s">
+      <c r="C264" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="D264" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="E264" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="F264" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G264" s="15"/>
-      <c r="H264" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="I264" s="15"/>
+      <c r="H264" s="104" t="s">
+        <v>762</v>
+      </c>
+      <c r="I264" s="28"/>
       <c r="J264" s="15"/>
       <c r="K264" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L264" s="15"/>
+      <c r="L264" s="16"/>
       <c r="M264" s="27"/>
       <c r="N264" s="27"/>
       <c r="O264" s="27"/>
@@ -18741,41 +18741,40 @@
         <v>776</v>
       </c>
     </row>
-    <row r="265" spans="1:24" s="54" customFormat="1" ht="16">
+    <row r="265" spans="1:24" s="54" customFormat="1" ht="15">
       <c r="A265" s="59"/>
-      <c r="B265" s="110" t="s">
-        <v>937</v>
-      </c>
-      <c r="C265" s="15"/>
-      <c r="D265" s="83" t="s">
-        <v>939</v>
-      </c>
-      <c r="E265" s="83" t="s">
-        <v>933</v>
+      <c r="B265" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="C265" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="D265" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="E265" s="15" t="s">
+        <v>133</v>
       </c>
       <c r="F265" s="15" t="s">
         <v>197</v>
       </c>
       <c r="G265" s="15"/>
-      <c r="H265" s="104" t="s">
-        <v>762</v>
-      </c>
-      <c r="I265" s="28" t="s">
-        <v>715</v>
-      </c>
+      <c r="H265" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="I265" s="15"/>
       <c r="J265" s="15"/>
       <c r="K265" s="27" t="s">
         <v>337</v>
       </c>
       <c r="L265" s="15"/>
-      <c r="M265" s="47" t="s">
-        <v>374</v>
-      </c>
+      <c r="M265" s="27"/>
       <c r="N265" s="27"/>
-      <c r="O265" s="89">
-        <v>2000000130</v>
-      </c>
-      <c r="P265" s="28"/>
+      <c r="O265" s="27"/>
+      <c r="P265" s="28" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
       <c r="Q265" s="27"/>
       <c r="R265" s="27"/>
       <c r="S265" s="27"/>
@@ -18784,20 +18783,20 @@
       <c r="V265" s="27"/>
       <c r="W265" s="27"/>
       <c r="X265" s="15" t="s">
-        <v>943</v>
+        <v>776</v>
       </c>
     </row>
     <row r="266" spans="1:24" s="54" customFormat="1" ht="16">
       <c r="A266" s="59"/>
       <c r="B266" s="110" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C266" s="15"/>
       <c r="D266" s="83" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="E266" s="83" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="F266" s="15" t="s">
         <v>197</v>
@@ -18819,7 +18818,7 @@
       </c>
       <c r="N266" s="27"/>
       <c r="O266" s="89">
-        <v>2000000131</v>
+        <v>2000000130</v>
       </c>
       <c r="P266" s="28"/>
       <c r="Q266" s="27"/>
@@ -18830,18 +18829,20 @@
       <c r="V266" s="27"/>
       <c r="W266" s="27"/>
       <c r="X266" s="15" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="267" spans="1:24" s="54" customFormat="1" ht="16">
       <c r="A267" s="59"/>
-      <c r="B267" s="49"/>
+      <c r="B267" s="110" t="s">
+        <v>936</v>
+      </c>
       <c r="C267" s="15"/>
       <c r="D267" s="83" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="E267" s="83" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="F267" s="15" t="s">
         <v>197</v>
@@ -18863,7 +18864,7 @@
       </c>
       <c r="N267" s="27"/>
       <c r="O267" s="89">
-        <v>2000000132</v>
+        <v>2000000131</v>
       </c>
       <c r="P267" s="28"/>
       <c r="Q267" s="27"/>
@@ -18874,7 +18875,7 @@
       <c r="V267" s="27"/>
       <c r="W267" s="27"/>
       <c r="X267" s="15" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="268" spans="1:24" s="54" customFormat="1" ht="16">
@@ -18882,10 +18883,10 @@
       <c r="B268" s="49"/>
       <c r="C268" s="15"/>
       <c r="D268" s="83" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="E268" s="83" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="F268" s="15" t="s">
         <v>197</v>
@@ -18907,7 +18908,7 @@
       </c>
       <c r="N268" s="27"/>
       <c r="O268" s="89">
-        <v>2000000133</v>
+        <v>2000000132</v>
       </c>
       <c r="P268" s="28"/>
       <c r="Q268" s="27"/>
@@ -18918,70 +18919,64 @@
       <c r="V268" s="27"/>
       <c r="W268" s="27"/>
       <c r="X268" s="15" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="269" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="269" spans="1:24" s="54" customFormat="1" ht="16">
       <c r="A269" s="59"/>
-      <c r="B269" s="110" t="s">
-        <v>790</v>
-      </c>
-      <c r="C269" s="27"/>
-      <c r="D269" s="27" t="s">
-        <v>810</v>
-      </c>
-      <c r="E269" s="45" t="s">
-        <v>791</v>
-      </c>
-      <c r="F269" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="G269" s="15" t="s">
-        <v>792</v>
-      </c>
+      <c r="B269" s="49"/>
+      <c r="C269" s="15"/>
+      <c r="D269" s="83" t="s">
+        <v>940</v>
+      </c>
+      <c r="E269" s="83" t="s">
+        <v>934</v>
+      </c>
+      <c r="F269" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G269" s="15"/>
       <c r="H269" s="104" t="s">
-        <v>666</v>
+        <v>762</v>
       </c>
       <c r="I269" s="28" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J269" s="15"/>
       <c r="K269" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L269" s="16"/>
-      <c r="M269" s="27" t="s">
-        <v>367</v>
+      <c r="L269" s="15"/>
+      <c r="M269" s="47" t="s">
+        <v>374</v>
       </c>
       <c r="N269" s="27"/>
-      <c r="O269" s="27">
-        <v>2000000107</v>
+      <c r="O269" s="89">
+        <v>2000000133</v>
       </c>
       <c r="P269" s="28"/>
       <c r="Q269" s="27"/>
       <c r="R269" s="27"/>
       <c r="S269" s="27"/>
-      <c r="T269" s="15" t="s">
-        <v>667</v>
-      </c>
-      <c r="U269" s="15" t="s">
-        <v>673</v>
-      </c>
+      <c r="T269" s="27"/>
+      <c r="U269" s="27"/>
       <c r="V269" s="27"/>
       <c r="W269" s="27"/>
       <c r="X269" s="15" t="s">
-        <v>774</v>
+        <v>942</v>
       </c>
     </row>
     <row r="270" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
       <c r="A270" s="59"/>
-      <c r="B270" s="49"/>
+      <c r="B270" s="110" t="s">
+        <v>790</v>
+      </c>
       <c r="C270" s="27"/>
       <c r="D270" s="27" t="s">
-        <v>795</v>
+        <v>810</v>
       </c>
       <c r="E270" s="45" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="F270" s="27" t="s">
         <v>55</v>
@@ -19005,7 +19000,7 @@
       </c>
       <c r="N270" s="27"/>
       <c r="O270" s="27">
-        <v>2000000108</v>
+        <v>2000000107</v>
       </c>
       <c r="P270" s="28"/>
       <c r="Q270" s="27"/>
@@ -19028,10 +19023,10 @@
       <c r="B271" s="49"/>
       <c r="C271" s="27"/>
       <c r="D271" s="27" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="E271" s="45" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F271" s="27" t="s">
         <v>55</v>
@@ -19055,7 +19050,7 @@
       </c>
       <c r="N271" s="27"/>
       <c r="O271" s="27">
-        <v>2000000109</v>
+        <v>2000000108</v>
       </c>
       <c r="P271" s="28"/>
       <c r="Q271" s="27"/>
@@ -19070,7 +19065,7 @@
       <c r="V271" s="27"/>
       <c r="W271" s="27"/>
       <c r="X271" s="15" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
     </row>
     <row r="272" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
@@ -19078,10 +19073,10 @@
       <c r="B272" s="49"/>
       <c r="C272" s="27"/>
       <c r="D272" s="27" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="E272" s="45" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="F272" s="27" t="s">
         <v>55</v>
@@ -19105,7 +19100,7 @@
       </c>
       <c r="N272" s="27"/>
       <c r="O272" s="27">
-        <v>2000000110</v>
+        <v>2000000109</v>
       </c>
       <c r="P272" s="28"/>
       <c r="Q272" s="27"/>
@@ -19120,7 +19115,7 @@
       <c r="V272" s="27"/>
       <c r="W272" s="27"/>
       <c r="X272" s="15" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
     </row>
     <row r="273" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
@@ -19128,10 +19123,10 @@
       <c r="B273" s="49"/>
       <c r="C273" s="27"/>
       <c r="D273" s="27" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="E273" s="45" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F273" s="27" t="s">
         <v>55</v>
@@ -19155,7 +19150,7 @@
       </c>
       <c r="N273" s="27"/>
       <c r="O273" s="27">
-        <v>2000000111</v>
+        <v>2000000110</v>
       </c>
       <c r="P273" s="28"/>
       <c r="Q273" s="27"/>
@@ -19170,30 +19165,30 @@
       <c r="V273" s="27"/>
       <c r="W273" s="27"/>
       <c r="X273" s="15" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="274" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
       <c r="A274" s="59"/>
-      <c r="B274" s="110" t="s">
-        <v>803</v>
-      </c>
+      <c r="B274" s="49"/>
       <c r="C274" s="27"/>
-      <c r="D274" s="54" t="s">
-        <v>809</v>
+      <c r="D274" s="27" t="s">
+        <v>796</v>
       </c>
       <c r="E274" s="45" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
       <c r="F274" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="G274" s="15"/>
+        <v>55</v>
+      </c>
+      <c r="G274" s="15" t="s">
+        <v>792</v>
+      </c>
       <c r="H274" s="104" t="s">
-        <v>760</v>
+        <v>666</v>
       </c>
       <c r="I274" s="28" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="J274" s="15"/>
       <c r="K274" s="27" t="s">
@@ -19201,33 +19196,39 @@
       </c>
       <c r="L274" s="16"/>
       <c r="M274" s="27" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="N274" s="27"/>
       <c r="O274" s="27">
-        <v>2000000112</v>
+        <v>2000000111</v>
       </c>
       <c r="P274" s="28"/>
       <c r="Q274" s="27"/>
       <c r="R274" s="27"/>
       <c r="S274" s="27"/>
-      <c r="T274" s="15"/>
-      <c r="U274" s="15"/>
+      <c r="T274" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="U274" s="15" t="s">
+        <v>673</v>
+      </c>
       <c r="V274" s="27"/>
       <c r="W274" s="27"/>
       <c r="X274" s="15" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="275" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
       <c r="A275" s="59"/>
-      <c r="B275" s="49"/>
+      <c r="B275" s="110" t="s">
+        <v>803</v>
+      </c>
       <c r="C275" s="27"/>
-      <c r="D275" s="27" t="s">
-        <v>804</v>
+      <c r="D275" s="54" t="s">
+        <v>809</v>
       </c>
       <c r="E275" s="45" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="F275" s="27" t="s">
         <v>197</v>
@@ -19249,7 +19250,7 @@
       </c>
       <c r="N275" s="27"/>
       <c r="O275" s="27">
-        <v>2000000113</v>
+        <v>2000000112</v>
       </c>
       <c r="P275" s="28"/>
       <c r="Q275" s="27"/>
@@ -19260,7 +19261,7 @@
       <c r="V275" s="27"/>
       <c r="W275" s="27"/>
       <c r="X275" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="276" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
@@ -19268,10 +19269,10 @@
       <c r="B276" s="49"/>
       <c r="C276" s="27"/>
       <c r="D276" s="27" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E276" s="45" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F276" s="27" t="s">
         <v>197</v>
@@ -19293,7 +19294,7 @@
       </c>
       <c r="N276" s="27"/>
       <c r="O276" s="27">
-        <v>2000000114</v>
+        <v>2000000113</v>
       </c>
       <c r="P276" s="28"/>
       <c r="Q276" s="27"/>
@@ -19304,7 +19305,7 @@
       <c r="V276" s="27"/>
       <c r="W276" s="27"/>
       <c r="X276" s="15" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="277" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
@@ -19312,10 +19313,10 @@
       <c r="B277" s="49"/>
       <c r="C277" s="27"/>
       <c r="D277" s="27" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E277" s="45" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F277" s="27" t="s">
         <v>197</v>
@@ -19337,7 +19338,7 @@
       </c>
       <c r="N277" s="27"/>
       <c r="O277" s="27">
-        <v>2000000115</v>
+        <v>2000000114</v>
       </c>
       <c r="P277" s="28"/>
       <c r="Q277" s="27"/>
@@ -19348,7 +19349,7 @@
       <c r="V277" s="27"/>
       <c r="W277" s="27"/>
       <c r="X277" s="15" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="278" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
@@ -19356,10 +19357,10 @@
       <c r="B278" s="49"/>
       <c r="C278" s="27"/>
       <c r="D278" s="27" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E278" s="45" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F278" s="27" t="s">
         <v>197</v>
@@ -19381,7 +19382,7 @@
       </c>
       <c r="N278" s="27"/>
       <c r="O278" s="27">
-        <v>2000000116</v>
+        <v>2000000115</v>
       </c>
       <c r="P278" s="28"/>
       <c r="Q278" s="27"/>
@@ -19392,95 +19393,90 @@
       <c r="V278" s="27"/>
       <c r="W278" s="27"/>
       <c r="X278" s="15" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="279" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
+      <c r="A279" s="59"/>
+      <c r="B279" s="49"/>
+      <c r="C279" s="27"/>
+      <c r="D279" s="27" t="s">
+        <v>807</v>
+      </c>
+      <c r="E279" s="45" t="s">
+        <v>814</v>
+      </c>
+      <c r="F279" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="G279" s="15"/>
+      <c r="H279" s="104" t="s">
+        <v>760</v>
+      </c>
+      <c r="I279" s="28" t="s">
+        <v>715</v>
+      </c>
+      <c r="J279" s="15"/>
+      <c r="K279" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="L279" s="16"/>
+      <c r="M279" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="N279" s="27"/>
+      <c r="O279" s="27">
+        <v>2000000116</v>
+      </c>
+      <c r="P279" s="28"/>
+      <c r="Q279" s="27"/>
+      <c r="R279" s="27"/>
+      <c r="S279" s="27"/>
+      <c r="T279" s="15"/>
+      <c r="U279" s="15"/>
+      <c r="V279" s="27"/>
+      <c r="W279" s="27"/>
+      <c r="X279" s="15" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="279" spans="1:24" s="54" customFormat="1" ht="15">
-      <c r="A279" s="75" t="s">
+    <row r="280" spans="1:24" s="54" customFormat="1" ht="15">
+      <c r="A280" s="75" t="s">
         <v>271</v>
       </c>
-      <c r="B279" s="48"/>
-      <c r="C279" s="6"/>
-      <c r="D279" s="6"/>
-      <c r="E279" s="7"/>
-      <c r="F279" s="6"/>
-      <c r="G279" s="6"/>
-      <c r="H279" s="30"/>
-      <c r="I279" s="30"/>
-      <c r="J279" s="6"/>
-      <c r="K279" s="53"/>
-      <c r="L279" s="7"/>
-      <c r="M279" s="53"/>
-      <c r="N279" s="53"/>
-      <c r="O279" s="53"/>
-      <c r="P279" s="53"/>
-      <c r="Q279" s="53"/>
-      <c r="R279" s="53"/>
-      <c r="S279" s="53"/>
-      <c r="T279" s="53"/>
-      <c r="U279" s="53"/>
-      <c r="V279" s="53"/>
-      <c r="W279" s="53"/>
-      <c r="X279" s="53"/>
-    </row>
-    <row r="280" spans="1:24" s="54" customFormat="1" ht="15">
-      <c r="A280" s="59"/>
-      <c r="B280" s="49"/>
-      <c r="C280" s="15"/>
-      <c r="D280" s="79" t="s">
-        <v>698</v>
-      </c>
-      <c r="E280" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="F280" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="G280" s="15"/>
-      <c r="H280" s="104" t="s">
-        <v>762</v>
-      </c>
-      <c r="I280" s="28" t="s">
-        <v>715</v>
-      </c>
-      <c r="J280" s="15"/>
-      <c r="K280" s="27" t="s">
-        <v>337</v>
-      </c>
-      <c r="L280" s="24"/>
-      <c r="M280" s="27" t="s">
-        <v>374</v>
-      </c>
-      <c r="N280" s="27" t="s">
-        <v>368</v>
-      </c>
-      <c r="O280" s="27">
-        <v>44807681</v>
-      </c>
-      <c r="P280" s="28" t="str">
-        <f t="shared" ref="P280:P293" si="22">IF(N280&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O280), CONCATENATE("Athena-",O280)),"")</f>
-        <v>Athena-44807681</v>
-      </c>
-      <c r="Q280" s="27"/>
-      <c r="R280" s="27"/>
-      <c r="S280" s="27"/>
-      <c r="T280" s="27"/>
-      <c r="U280" s="27"/>
-      <c r="V280" s="27"/>
-      <c r="W280" s="27"/>
-      <c r="X280" s="27" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="281" spans="1:24" s="54" customFormat="1" ht="16">
+      <c r="B280" s="48"/>
+      <c r="C280" s="6"/>
+      <c r="D280" s="6"/>
+      <c r="E280" s="7"/>
+      <c r="F280" s="6"/>
+      <c r="G280" s="6"/>
+      <c r="H280" s="30"/>
+      <c r="I280" s="30"/>
+      <c r="J280" s="6"/>
+      <c r="K280" s="53"/>
+      <c r="L280" s="7"/>
+      <c r="M280" s="53"/>
+      <c r="N280" s="53"/>
+      <c r="O280" s="53"/>
+      <c r="P280" s="53"/>
+      <c r="Q280" s="53"/>
+      <c r="R280" s="53"/>
+      <c r="S280" s="53"/>
+      <c r="T280" s="53"/>
+      <c r="U280" s="53"/>
+      <c r="V280" s="53"/>
+      <c r="W280" s="53"/>
+      <c r="X280" s="53"/>
+    </row>
+    <row r="281" spans="1:24" s="54" customFormat="1" ht="15">
       <c r="A281" s="59"/>
       <c r="B281" s="49"/>
-      <c r="C281" s="16"/>
-      <c r="D281" s="80" t="s">
-        <v>699</v>
-      </c>
-      <c r="E281" s="16" t="s">
-        <v>284</v>
+      <c r="C281" s="15"/>
+      <c r="D281" s="79" t="s">
+        <v>698</v>
+      </c>
+      <c r="E281" s="15" t="s">
+        <v>283</v>
       </c>
       <c r="F281" s="15" t="s">
         <v>197</v>
@@ -19496,27 +19492,23 @@
       <c r="K281" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L281" s="16"/>
+      <c r="L281" s="24"/>
       <c r="M281" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="N281" s="27"/>
+      <c r="N281" s="27" t="s">
+        <v>368</v>
+      </c>
       <c r="O281" s="27">
-        <v>2000000093</v>
+        <v>44807681</v>
       </c>
       <c r="P281" s="28" t="str">
-        <f>IF(N281&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O281), CONCATENATE("Athena-",O281)),"")</f>
-        <v/>
-      </c>
-      <c r="Q281" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="R281" s="27">
-        <v>8845</v>
-      </c>
-      <c r="S281" s="27" t="s">
-        <v>376</v>
-      </c>
+        <f t="shared" ref="P281:P294" si="22">IF(N281&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O281), CONCATENATE("Athena-",O281)),"")</f>
+        <v>Athena-44807681</v>
+      </c>
+      <c r="Q281" s="27"/>
+      <c r="R281" s="27"/>
+      <c r="S281" s="27"/>
       <c r="T281" s="27"/>
       <c r="U281" s="27"/>
       <c r="V281" s="27"/>
@@ -19530,15 +19522,15 @@
       <c r="B282" s="49"/>
       <c r="C282" s="16"/>
       <c r="D282" s="80" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>585</v>
+        <v>284</v>
       </c>
       <c r="F282" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="G282" s="16"/>
+      <c r="G282" s="15"/>
       <c r="H282" s="104" t="s">
         <v>762</v>
       </c>
@@ -19555,7 +19547,7 @@
       </c>
       <c r="N282" s="27"/>
       <c r="O282" s="27">
-        <v>2000000094</v>
+        <v>2000000093</v>
       </c>
       <c r="P282" s="28" t="str">
         <f>IF(N282&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O282), CONCATENATE("Athena-",O282)),"")</f>
@@ -19583,10 +19575,10 @@
       <c r="B283" s="49"/>
       <c r="C283" s="16"/>
       <c r="D283" s="80" t="s">
-        <v>772</v>
+        <v>700</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>773</v>
+        <v>585</v>
       </c>
       <c r="F283" s="15" t="s">
         <v>197</v>
@@ -19608,15 +19600,21 @@
       </c>
       <c r="N283" s="27"/>
       <c r="O283" s="27">
-        <v>2000000105</v>
+        <v>2000000094</v>
       </c>
       <c r="P283" s="28" t="str">
         <f>IF(N283&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O283), CONCATENATE("Athena-",O283)),"")</f>
         <v/>
       </c>
-      <c r="Q283" s="27"/>
-      <c r="R283" s="27"/>
-      <c r="S283" s="27"/>
+      <c r="Q283" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="R283" s="27">
+        <v>8845</v>
+      </c>
+      <c r="S283" s="27" t="s">
+        <v>376</v>
+      </c>
       <c r="T283" s="27"/>
       <c r="U283" s="27"/>
       <c r="V283" s="27"/>
@@ -19630,15 +19628,15 @@
       <c r="B284" s="49"/>
       <c r="C284" s="16"/>
       <c r="D284" s="80" t="s">
-        <v>274</v>
+        <v>772</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>285</v>
+        <v>773</v>
       </c>
       <c r="F284" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="G284" s="15"/>
+      <c r="G284" s="16"/>
       <c r="H284" s="104" t="s">
         <v>762</v>
       </c>
@@ -19655,10 +19653,10 @@
       </c>
       <c r="N284" s="27"/>
       <c r="O284" s="27">
-        <v>2000000095</v>
+        <v>2000000105</v>
       </c>
       <c r="P284" s="28" t="str">
-        <f t="shared" si="22"/>
+        <f>IF(N284&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O284), CONCATENATE("Athena-",O284)),"")</f>
         <v/>
       </c>
       <c r="Q284" s="27"/>
@@ -19675,12 +19673,12 @@
     <row r="285" spans="1:24" s="54" customFormat="1" ht="16">
       <c r="A285" s="59"/>
       <c r="B285" s="49"/>
-      <c r="C285" s="15"/>
-      <c r="D285" s="79" t="s">
-        <v>275</v>
-      </c>
-      <c r="E285" s="45" t="s">
-        <v>286</v>
+      <c r="C285" s="16"/>
+      <c r="D285" s="80" t="s">
+        <v>274</v>
+      </c>
+      <c r="E285" s="16" t="s">
+        <v>285</v>
       </c>
       <c r="F285" s="15" t="s">
         <v>197</v>
@@ -19701,8 +19699,8 @@
         <v>374</v>
       </c>
       <c r="N285" s="27"/>
-      <c r="O285" s="79">
-        <v>2000000096</v>
+      <c r="O285" s="27">
+        <v>2000000095</v>
       </c>
       <c r="P285" s="28" t="str">
         <f t="shared" si="22"/>
@@ -19724,10 +19722,10 @@
       <c r="B286" s="49"/>
       <c r="C286" s="15"/>
       <c r="D286" s="79" t="s">
-        <v>701</v>
-      </c>
-      <c r="E286" s="11" t="s">
-        <v>288</v>
+        <v>275</v>
+      </c>
+      <c r="E286" s="45" t="s">
+        <v>286</v>
       </c>
       <c r="F286" s="15" t="s">
         <v>197</v>
@@ -19748,8 +19746,8 @@
         <v>374</v>
       </c>
       <c r="N286" s="27"/>
-      <c r="O286" s="27">
-        <v>2000000097</v>
+      <c r="O286" s="79">
+        <v>2000000096</v>
       </c>
       <c r="P286" s="28" t="str">
         <f t="shared" si="22"/>
@@ -19769,17 +19767,17 @@
     <row r="287" spans="1:24" s="54" customFormat="1" ht="16">
       <c r="A287" s="59"/>
       <c r="B287" s="49"/>
-      <c r="C287" s="16"/>
-      <c r="D287" s="80" t="s">
-        <v>276</v>
-      </c>
-      <c r="E287" s="16" t="s">
-        <v>289</v>
+      <c r="C287" s="15"/>
+      <c r="D287" s="79" t="s">
+        <v>701</v>
+      </c>
+      <c r="E287" s="11" t="s">
+        <v>288</v>
       </c>
       <c r="F287" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="G287" s="16"/>
+      <c r="G287" s="15"/>
       <c r="H287" s="104" t="s">
         <v>762</v>
       </c>
@@ -19794,15 +19792,13 @@
       <c r="M287" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="N287" s="27" t="s">
-        <v>368</v>
-      </c>
+      <c r="N287" s="27"/>
       <c r="O287" s="27">
-        <v>46284972</v>
+        <v>2000000097</v>
       </c>
       <c r="P287" s="28" t="str">
         <f t="shared" si="22"/>
-        <v>Athena-46284972</v>
+        <v/>
       </c>
       <c r="Q287" s="27"/>
       <c r="R287" s="27"/>
@@ -19820,15 +19816,15 @@
       <c r="B288" s="49"/>
       <c r="C288" s="16"/>
       <c r="D288" s="80" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E288" s="16" t="s">
-        <v>378</v>
+        <v>289</v>
       </c>
       <c r="F288" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="G288" s="15"/>
+      <c r="G288" s="16"/>
       <c r="H288" s="104" t="s">
         <v>762</v>
       </c>
@@ -19843,13 +19839,15 @@
       <c r="M288" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="N288" s="27"/>
+      <c r="N288" s="27" t="s">
+        <v>368</v>
+      </c>
       <c r="O288" s="27">
-        <v>2000000098</v>
+        <v>46284972</v>
       </c>
       <c r="P288" s="28" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>Athena-46284972</v>
       </c>
       <c r="Q288" s="27"/>
       <c r="R288" s="27"/>
@@ -19865,12 +19863,12 @@
     <row r="289" spans="1:25" s="54" customFormat="1" ht="16">
       <c r="A289" s="59"/>
       <c r="B289" s="49"/>
-      <c r="C289" s="15"/>
-      <c r="D289" s="79" t="s">
-        <v>278</v>
-      </c>
-      <c r="E289" s="45" t="s">
-        <v>377</v>
+      <c r="C289" s="16"/>
+      <c r="D289" s="80" t="s">
+        <v>277</v>
+      </c>
+      <c r="E289" s="16" t="s">
+        <v>378</v>
       </c>
       <c r="F289" s="15" t="s">
         <v>197</v>
@@ -19892,7 +19890,7 @@
       </c>
       <c r="N289" s="27"/>
       <c r="O289" s="27">
-        <v>2000000099</v>
+        <v>2000000098</v>
       </c>
       <c r="P289" s="28" t="str">
         <f t="shared" si="22"/>
@@ -19911,25 +19909,25 @@
     </row>
     <row r="290" spans="1:25" s="54" customFormat="1" ht="16">
       <c r="A290" s="59"/>
-      <c r="B290" s="16"/>
-      <c r="C290" s="16"/>
-      <c r="D290" s="80" t="s">
-        <v>279</v>
-      </c>
-      <c r="E290" s="16" t="s">
-        <v>290</v>
+      <c r="B290" s="49"/>
+      <c r="C290" s="15"/>
+      <c r="D290" s="79" t="s">
+        <v>278</v>
+      </c>
+      <c r="E290" s="45" t="s">
+        <v>377</v>
       </c>
       <c r="F290" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="G290" s="16"/>
+      <c r="G290" s="15"/>
       <c r="H290" s="104" t="s">
         <v>762</v>
       </c>
       <c r="I290" s="28" t="s">
         <v>715</v>
       </c>
-      <c r="J290" s="16"/>
+      <c r="J290" s="15"/>
       <c r="K290" s="27" t="s">
         <v>337</v>
       </c>
@@ -19937,15 +19935,13 @@
       <c r="M290" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="N290" s="27" t="s">
-        <v>368</v>
-      </c>
+      <c r="N290" s="27"/>
       <c r="O290" s="27">
-        <v>4332015</v>
+        <v>2000000099</v>
       </c>
       <c r="P290" s="28" t="str">
         <f t="shared" si="22"/>
-        <v>Athena-4332015</v>
+        <v/>
       </c>
       <c r="Q290" s="27"/>
       <c r="R290" s="27"/>
@@ -19963,10 +19959,10 @@
       <c r="B291" s="16"/>
       <c r="C291" s="16"/>
       <c r="D291" s="80" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F291" s="15" t="s">
         <v>197</v>
@@ -19990,11 +19986,11 @@
         <v>368</v>
       </c>
       <c r="O291" s="27">
-        <v>4166200</v>
+        <v>4332015</v>
       </c>
       <c r="P291" s="28" t="str">
         <f t="shared" si="22"/>
-        <v>Athena-4166200</v>
+        <v>Athena-4332015</v>
       </c>
       <c r="Q291" s="27"/>
       <c r="R291" s="27"/>
@@ -20012,10 +20008,10 @@
       <c r="B292" s="16"/>
       <c r="C292" s="16"/>
       <c r="D292" s="80" t="s">
-        <v>702</v>
+        <v>280</v>
       </c>
       <c r="E292" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F292" s="15" t="s">
         <v>197</v>
@@ -20039,11 +20035,11 @@
         <v>368</v>
       </c>
       <c r="O292" s="27">
-        <v>4282774</v>
+        <v>4166200</v>
       </c>
       <c r="P292" s="28" t="str">
         <f t="shared" si="22"/>
-        <v>Athena-4282774</v>
+        <v>Athena-4166200</v>
       </c>
       <c r="Q292" s="27"/>
       <c r="R292" s="27"/>
@@ -20061,10 +20057,10 @@
       <c r="B293" s="16"/>
       <c r="C293" s="16"/>
       <c r="D293" s="80" t="s">
-        <v>282</v>
+        <v>702</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F293" s="15" t="s">
         <v>197</v>
@@ -20084,13 +20080,15 @@
       <c r="M293" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="N293" s="27"/>
+      <c r="N293" s="27" t="s">
+        <v>368</v>
+      </c>
       <c r="O293" s="27">
-        <v>2000000076</v>
+        <v>4282774</v>
       </c>
       <c r="P293" s="28" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>Athena-4282774</v>
       </c>
       <c r="Q293" s="27"/>
       <c r="R293" s="27"/>
@@ -20108,10 +20106,10 @@
       <c r="B294" s="16"/>
       <c r="C294" s="16"/>
       <c r="D294" s="80" t="s">
-        <v>781</v>
+        <v>282</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>782</v>
+        <v>293</v>
       </c>
       <c r="F294" s="15" t="s">
         <v>197</v>
@@ -20131,19 +20129,15 @@
       <c r="M294" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="N294" s="27" t="s">
-        <v>368</v>
-      </c>
+      <c r="N294" s="27"/>
       <c r="O294" s="27">
-        <v>4056962</v>
+        <v>2000000076</v>
       </c>
       <c r="P294" s="28" t="str">
-        <f t="shared" ref="P294" si="23">IF(N294&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O294), CONCATENATE("Athena-",O294)),"")</f>
-        <v>Athena-4056962</v>
-      </c>
-      <c r="Q294" s="27" t="s">
-        <v>783</v>
-      </c>
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="Q294" s="27"/>
       <c r="R294" s="27"/>
       <c r="S294" s="27"/>
       <c r="T294" s="27"/>
@@ -20153,29 +20147,60 @@
       <c r="X294" s="27" t="s">
         <v>771</v>
       </c>
-      <c r="Y294" s="54" t="s">
+    </row>
+    <row r="295" spans="1:25" s="54" customFormat="1" ht="16">
+      <c r="A295" s="59"/>
+      <c r="B295" s="16"/>
+      <c r="C295" s="16"/>
+      <c r="D295" s="80" t="s">
+        <v>781</v>
+      </c>
+      <c r="E295" s="16" t="s">
+        <v>782</v>
+      </c>
+      <c r="F295" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G295" s="16"/>
+      <c r="H295" s="104" t="s">
+        <v>762</v>
+      </c>
+      <c r="I295" s="28" t="s">
+        <v>715</v>
+      </c>
+      <c r="J295" s="16"/>
+      <c r="K295" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="L295" s="16"/>
+      <c r="M295" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="N295" s="27" t="s">
+        <v>368</v>
+      </c>
+      <c r="O295" s="27">
+        <v>4056962</v>
+      </c>
+      <c r="P295" s="28" t="str">
+        <f t="shared" ref="P295" si="23">IF(N295&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O295), CONCATENATE("Athena-",O295)),"")</f>
+        <v>Athena-4056962</v>
+      </c>
+      <c r="Q295" s="27" t="s">
+        <v>783</v>
+      </c>
+      <c r="R295" s="27"/>
+      <c r="S295" s="27"/>
+      <c r="T295" s="27"/>
+      <c r="U295" s="27"/>
+      <c r="V295" s="27"/>
+      <c r="W295" s="27"/>
+      <c r="X295" s="27" t="s">
+        <v>771</v>
+      </c>
+      <c r="Y295" s="54" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="295" spans="1:25">
-      <c r="G295" s="23"/>
-      <c r="H295" s="34"/>
-      <c r="I295" s="34"/>
-      <c r="J295" s="23"/>
-      <c r="K295" s="40"/>
-      <c r="L295" s="23"/>
-      <c r="M295" s="40"/>
-      <c r="N295" s="40"/>
-      <c r="O295" s="40"/>
-      <c r="P295" s="40"/>
-      <c r="Q295" s="40"/>
-      <c r="R295" s="40"/>
-      <c r="S295" s="40"/>
-      <c r="T295" s="40"/>
-      <c r="U295" s="40"/>
-      <c r="V295" s="40"/>
-      <c r="W295" s="40"/>
-      <c r="X295" s="40"/>
     </row>
     <row r="296" spans="1:25">
       <c r="G296" s="23"/>
@@ -20539,23 +20564,23 @@
     </row>
     <row r="314" spans="7:24">
       <c r="G314" s="23"/>
-      <c r="H314" s="23"/>
-      <c r="I314" s="23"/>
+      <c r="H314" s="34"/>
+      <c r="I314" s="34"/>
       <c r="J314" s="23"/>
-      <c r="K314" s="23"/>
+      <c r="K314" s="40"/>
       <c r="L314" s="23"/>
-      <c r="M314" s="23"/>
-      <c r="N314" s="23"/>
-      <c r="O314" s="23"/>
-      <c r="P314" s="23"/>
-      <c r="Q314" s="23"/>
-      <c r="R314" s="23"/>
-      <c r="S314" s="23"/>
-      <c r="T314" s="23"/>
-      <c r="U314" s="23"/>
-      <c r="V314" s="23"/>
-      <c r="W314" s="23"/>
-      <c r="X314" s="23"/>
+      <c r="M314" s="40"/>
+      <c r="N314" s="40"/>
+      <c r="O314" s="40"/>
+      <c r="P314" s="40"/>
+      <c r="Q314" s="40"/>
+      <c r="R314" s="40"/>
+      <c r="S314" s="40"/>
+      <c r="T314" s="40"/>
+      <c r="U314" s="40"/>
+      <c r="V314" s="40"/>
+      <c r="W314" s="40"/>
+      <c r="X314" s="40"/>
     </row>
     <row r="315" spans="7:24">
       <c r="G315" s="23"/>
@@ -39597,6 +39622,26 @@
       <c r="W1266" s="23"/>
       <c r="X1266" s="23"/>
     </row>
+    <row r="1267" spans="7:24">
+      <c r="G1267" s="23"/>
+      <c r="H1267" s="23"/>
+      <c r="I1267" s="23"/>
+      <c r="J1267" s="23"/>
+      <c r="K1267" s="23"/>
+      <c r="L1267" s="23"/>
+      <c r="M1267" s="23"/>
+      <c r="N1267" s="23"/>
+      <c r="O1267" s="23"/>
+      <c r="P1267" s="23"/>
+      <c r="Q1267" s="23"/>
+      <c r="R1267" s="23"/>
+      <c r="S1267" s="23"/>
+      <c r="T1267" s="23"/>
+      <c r="U1267" s="23"/>
+      <c r="V1267" s="23"/>
+      <c r="W1267" s="23"/>
+      <c r="X1267" s="23"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39613,7 +39658,7 @@
   <dimension ref="A1:Y30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/ncdc_mappings/ncdc_minimal_dataset.xlsx
+++ b/ncdc_mappings/ncdc_minimal_dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10708"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://maastro-my.sharepoint.com/personal/pedro_mateus_maastro_nl/Documents/Pedro Files/Data Harmonization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{CFD7E28C-48FE-9D4B-9FBD-FF4601B5D85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B515141-2EEF-564C-BDB5-8BB5993C00B8}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{CFD7E28C-48FE-9D4B-9FBD-FF4601B5D85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19DF61AA-A392-A042-929C-AD5531E42E2C}"/>
   <bookViews>
     <workbookView xWindow="2960" yWindow="500" windowWidth="33600" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -366,7 +366,7 @@
     However, storing the information for 2 different times may be confusing. Probably the one that falls in the interval 20-30 minutes will be more suitable</t>
       </text>
     </comment>
-    <comment ref="D257" authorId="32" shapeId="0" xr:uid="{6A958D43-89AC-C443-90B2-E839939ED9BB}">
+    <comment ref="D258" authorId="32" shapeId="0" xr:uid="{6A958D43-89AC-C443-90B2-E839939ED9BB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -374,7 +374,7 @@
     Generic concept only from SNOMED for the Boston Naming Test: 4164808</t>
       </text>
     </comment>
-    <comment ref="O281" authorId="33" shapeId="0" xr:uid="{C21DF866-3B02-8D43-BDB4-19473A2B92EE}">
+    <comment ref="O280" authorId="33" shapeId="0" xr:uid="{C21DF866-3B02-8D43-BDB4-19473A2B92EE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -382,7 +382,7 @@
     Observation (SNOMED): 4136437</t>
       </text>
     </comment>
-    <comment ref="O282" authorId="34" shapeId="0" xr:uid="{6D0CD4A8-48D1-4246-9DC1-32FEBE702D51}">
+    <comment ref="O281" authorId="34" shapeId="0" xr:uid="{6D0CD4A8-48D1-4246-9DC1-32FEBE702D51}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -390,7 +390,7 @@
     Observation (SNOMED) 45768724</t>
       </text>
     </comment>
-    <comment ref="O283" authorId="35" shapeId="0" xr:uid="{B59C5FEF-8EFD-C648-A78A-AFBCA7EF7266}">
+    <comment ref="O282" authorId="35" shapeId="0" xr:uid="{B59C5FEF-8EFD-C648-A78A-AFBCA7EF7266}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -398,7 +398,7 @@
     Observation (SNOMED) 45768723</t>
       </text>
     </comment>
-    <comment ref="O285" authorId="36" shapeId="0" xr:uid="{BCD976E6-B6D9-D546-9016-DBD9D0F54E91}">
+    <comment ref="O284" authorId="36" shapeId="0" xr:uid="{BCD976E6-B6D9-D546-9016-DBD9D0F54E91}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -406,7 +406,7 @@
     Observation (SNOMED) 4079321</t>
       </text>
     </comment>
-    <comment ref="O286" authorId="37" shapeId="0" xr:uid="{DFA827BB-C401-AD42-9C05-074FE05BA8AF}">
+    <comment ref="O285" authorId="37" shapeId="0" xr:uid="{DFA827BB-C401-AD42-9C05-074FE05BA8AF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -416,7 +416,7 @@
     4299446</t>
       </text>
     </comment>
-    <comment ref="O287" authorId="38" shapeId="0" xr:uid="{8B270D9A-52A2-8745-B447-8EF3342DED56}">
+    <comment ref="O286" authorId="38" shapeId="0" xr:uid="{8B270D9A-52A2-8745-B447-8EF3342DED56}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -424,7 +424,7 @@
     Observation (SNOMED) 4012274</t>
       </text>
     </comment>
-    <comment ref="O288" authorId="39" shapeId="0" xr:uid="{48DC908A-650A-A142-B529-8C8185B7B723}">
+    <comment ref="O287" authorId="39" shapeId="0" xr:uid="{48DC908A-650A-A142-B529-8C8185B7B723}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -435,7 +435,7 @@
     Observation (SNOMED) - 4221816 (referes to the component itself)</t>
       </text>
     </comment>
-    <comment ref="D294" authorId="40" shapeId="0" xr:uid="{70609BE4-D9A6-3145-A3F3-5832E54D4EE2}">
+    <comment ref="D293" authorId="40" shapeId="0" xr:uid="{70609BE4-D9A6-3145-A3F3-5832E54D4EE2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -700,7 +700,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4580" uniqueCount="958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4573" uniqueCount="957">
   <si>
     <t>Main category</t>
   </si>
@@ -2955,9 +2955,6 @@
     <t>Priority_executive_bat</t>
   </si>
   <si>
-    <t xml:space="preserve">Priority test for language from Any picture naming  </t>
-  </si>
-  <si>
     <t>Priority test for verbal fluency 1 min</t>
   </si>
   <si>
@@ -3486,24 +3483,6 @@
     <t>Priority_executive_cst_c_errors</t>
   </si>
   <si>
-    <t>Priority_language_animal_fluency_correct</t>
-  </si>
-  <si>
-    <t>Priority_language_animal_fluency_errors</t>
-  </si>
-  <si>
-    <t>Priority_language_verbal_fluency</t>
-  </si>
-  <si>
-    <t>Priority_language_letter_fluency</t>
-  </si>
-  <si>
-    <t>Priority_language_any_fluency</t>
-  </si>
-  <si>
-    <t>Priority_language_category_fluency</t>
-  </si>
-  <si>
     <t>Alphabet_coding_task</t>
   </si>
   <si>
@@ -3529,12 +3508,6 @@
   </si>
   <si>
     <t>VOSP number location</t>
-  </si>
-  <si>
-    <t>Priority_language_cantab</t>
-  </si>
-  <si>
-    <t>CANTAB</t>
   </si>
   <si>
     <t>Raven's colored progressive matrices</t>
@@ -3620,6 +3593,30 @@
   </si>
   <si>
     <t>WAIS-III digit span forward</t>
+  </si>
+  <si>
+    <t>Priority_language_animal_fluency_1_correct</t>
+  </si>
+  <si>
+    <t>Priority_language_animal_fluency_1_errors</t>
+  </si>
+  <si>
+    <t>Priority_language_verbal_fluency_1</t>
+  </si>
+  <si>
+    <t>Priority_language_animal_fluency_2_correct</t>
+  </si>
+  <si>
+    <t>Priority_language_animal_fluency_2_errors</t>
+  </si>
+  <si>
+    <t>Animals Fluency 2 min</t>
+  </si>
+  <si>
+    <t>Priority test for language from Animal Fluency 2 min - correct</t>
+  </si>
+  <si>
+    <t>Priority test for language from Animal Fluency 2 min - incorrect</t>
   </si>
 </sst>
 </file>
@@ -5791,38 +5788,38 @@
   <threadedComment ref="D218" dT="2021-07-19T16:04:57.29" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{75CAA762-6AD4-934F-A0AD-B9AFDD6D31E9}" parentId="{7B408D37-7963-244B-BBC8-4A2BD19C9A8C}">
     <text>However, storing the information for 2 different times may be confusing. Probably the one that falls in the interval 20-30 minutes will be more suitable</text>
   </threadedComment>
-  <threadedComment ref="D257" dT="2021-07-08T14:57:23.15" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{6A958D43-89AC-C443-90B2-E839939ED9BB}">
+  <threadedComment ref="D258" dT="2021-07-08T14:57:23.15" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{6A958D43-89AC-C443-90B2-E839939ED9BB}">
     <text>Generic concept only from SNOMED for the Boston Naming Test: 4164808</text>
   </threadedComment>
-  <threadedComment ref="O281" dT="2021-10-27T15:56:51.26" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{C21DF866-3B02-8D43-BDB4-19473A2B92EE}">
+  <threadedComment ref="O280" dT="2021-10-27T15:56:51.26" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{C21DF866-3B02-8D43-BDB4-19473A2B92EE}">
     <text>Observation (SNOMED): 4136437</text>
   </threadedComment>
-  <threadedComment ref="O282" dT="2021-10-27T15:57:10.76" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{6D0CD4A8-48D1-4246-9DC1-32FEBE702D51}">
+  <threadedComment ref="O281" dT="2021-10-27T15:57:10.76" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{6D0CD4A8-48D1-4246-9DC1-32FEBE702D51}">
     <text>Observation (SNOMED) 45768724</text>
   </threadedComment>
-  <threadedComment ref="O283" dT="2021-10-27T15:59:18.03" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{B59C5FEF-8EFD-C648-A78A-AFBCA7EF7266}">
+  <threadedComment ref="O282" dT="2021-10-27T15:59:18.03" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{B59C5FEF-8EFD-C648-A78A-AFBCA7EF7266}">
     <text>Observation (SNOMED) 45768723</text>
   </threadedComment>
-  <threadedComment ref="O285" dT="2021-10-27T16:01:02.13" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{BCD976E6-B6D9-D546-9016-DBD9D0F54E91}">
+  <threadedComment ref="O284" dT="2021-10-27T16:01:02.13" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{BCD976E6-B6D9-D546-9016-DBD9D0F54E91}">
     <text>Observation (SNOMED) 4079321</text>
   </threadedComment>
-  <threadedComment ref="O286" dT="2021-07-02T12:24:20.39" personId="{98691CDF-5915-8B45-A1D3-22E1ADD8314B}" id="{DFA827BB-C401-AD42-9C05-074FE05BA8AF}">
+  <threadedComment ref="O285" dT="2021-07-02T12:24:20.39" personId="{98691CDF-5915-8B45-A1D3-22E1ADD8314B}" id="{DFA827BB-C401-AD42-9C05-074FE05BA8AF}">
     <text>Matches to “Neurofilament protein” - no clear match to NFL, maybe a new concept or the link to the ontology can be enough?</text>
   </threadedComment>
-  <threadedComment ref="O286" dT="2021-10-27T16:04:29.90" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{236EE8B4-0B5A-B546-910E-201CC41AB22E}" parentId="{DFA827BB-C401-AD42-9C05-074FE05BA8AF}">
+  <threadedComment ref="O285" dT="2021-10-27T16:04:29.90" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{236EE8B4-0B5A-B546-910E-201CC41AB22E}" parentId="{DFA827BB-C401-AD42-9C05-074FE05BA8AF}">
     <text>4299446</text>
   </threadedComment>
-  <threadedComment ref="O287" dT="2021-10-27T16:05:33.61" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{8B270D9A-52A2-8745-B447-8EF3342DED56}">
+  <threadedComment ref="O286" dT="2021-10-27T16:05:33.61" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{8B270D9A-52A2-8745-B447-8EF3342DED56}">
     <text>Observation (SNOMED) 4012274</text>
   </threadedComment>
-  <threadedComment ref="O288" dT="2021-10-27T16:07:09.40" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{48DC908A-650A-A142-B529-8C8185B7B723}">
+  <threadedComment ref="O287" dT="2021-10-27T16:07:09.40" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{48DC908A-650A-A142-B529-8C8185B7B723}">
     <text>Measurement meaning - Measurement of concentration of amyloid A in serum specimen (procedure)
 Serum amyloid A concentratio</text>
   </threadedComment>
-  <threadedComment ref="O288" dT="2021-10-27T16:07:50.16" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{475E4E61-9156-CF48-A078-B50A8EE3149D}" parentId="{48DC908A-650A-A142-B529-8C8185B7B723}">
+  <threadedComment ref="O287" dT="2021-10-27T16:07:50.16" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{475E4E61-9156-CF48-A078-B50A8EE3149D}" parentId="{48DC908A-650A-A142-B529-8C8185B7B723}">
     <text>Observation (SNOMED) - 4221816 (referes to the component itself)</text>
   </threadedComment>
-  <threadedComment ref="D294" dT="2021-07-02T12:47:45.50" personId="{98691CDF-5915-8B45-A1D3-22E1ADD8314B}" id="{70609BE4-D9A6-3145-A3F3-5832E54D4EE2}">
+  <threadedComment ref="D293" dT="2021-07-02T12:47:45.50" personId="{98691CDF-5915-8B45-A1D3-22E1ADD8314B}" id="{70609BE4-D9A6-3145-A3F3-5832E54D4EE2}">
     <text>All these fields require more information. Probably they represent measurements but more complete information is required to clearly identify what’s being measured/how and the units.</text>
   </threadedComment>
 </ThreadedComments>
@@ -5930,11 +5927,11 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:Y1267"/>
+  <dimension ref="A1:Y1266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="89" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O248" sqref="O248"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="89" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A258" sqref="A258:XFD258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17"/>
@@ -6006,7 +6003,7 @@
         <v>359</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>361</v>
@@ -6021,7 +6018,7 @@
         <v>363</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>364</v>
@@ -6030,7 +6027,7 @@
         <v>365</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="W1" s="5" t="s">
         <v>440</v>
@@ -6039,7 +6036,7 @@
         <v>17</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="54" customFormat="1" ht="15">
@@ -6267,7 +6264,7 @@
       </c>
       <c r="G8" s="49"/>
       <c r="H8" s="31" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I8" s="31" t="s">
         <v>714</v>
@@ -6311,7 +6308,7 @@
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="28" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I9" s="28" t="s">
         <v>715</v>
@@ -6427,7 +6424,7 @@
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="28" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I11" s="28" t="s">
         <v>715</v>
@@ -8297,7 +8294,7 @@
       </c>
       <c r="G49" s="15"/>
       <c r="H49" s="28" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I49" s="28" t="s">
         <v>715</v>
@@ -8348,7 +8345,7 @@
       </c>
       <c r="G50" s="15"/>
       <c r="H50" s="28" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I50" s="28" t="s">
         <v>715</v>
@@ -8653,7 +8650,7 @@
       </c>
       <c r="G58" s="15"/>
       <c r="H58" s="28" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I58" s="28" t="s">
         <v>715</v>
@@ -8714,7 +8711,7 @@
       </c>
       <c r="G59" s="15"/>
       <c r="H59" s="28" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I59" s="28" t="s">
         <v>715</v>
@@ -8775,7 +8772,7 @@
       </c>
       <c r="G60" s="15"/>
       <c r="H60" s="28" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I60" s="28" t="s">
         <v>715</v>
@@ -8836,7 +8833,7 @@
       </c>
       <c r="G61" s="15"/>
       <c r="H61" s="28" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I61" s="28" t="s">
         <v>715</v>
@@ -8897,7 +8894,7 @@
       </c>
       <c r="G62" s="15"/>
       <c r="H62" s="28" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I62" s="28" t="s">
         <v>715</v>
@@ -8945,20 +8942,20 @@
         <v>162</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F63" s="15" t="s">
         <v>197</v>
       </c>
       <c r="G63" s="15"/>
       <c r="H63" s="28" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I63" s="28" t="s">
         <v>715</v>
@@ -9308,10 +9305,10 @@
         <v>29</v>
       </c>
       <c r="D70" s="15" t="s">
+        <v>755</v>
+      </c>
+      <c r="E70" s="16" t="s">
         <v>756</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>757</v>
       </c>
       <c r="F70" s="15" t="s">
         <v>55</v>
@@ -9424,10 +9421,10 @@
       </c>
       <c r="C72" s="15"/>
       <c r="D72" s="15" t="s">
-        <v>949</v>
+        <v>940</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
       <c r="F72" s="15" t="s">
         <v>55</v>
@@ -9446,7 +9443,7 @@
         <v>337</v>
       </c>
       <c r="L72" s="16" t="s">
-        <v>951</v>
+        <v>942</v>
       </c>
       <c r="M72" s="27" t="s">
         <v>367</v>
@@ -9721,10 +9718,10 @@
         <v>29</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F77" s="15" t="s">
         <v>55</v>
@@ -10209,7 +10206,7 @@
       </c>
       <c r="G86" s="16"/>
       <c r="H86" s="16" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I86" s="16" t="s">
         <v>715</v>
@@ -10262,7 +10259,7 @@
       </c>
       <c r="G87" s="16"/>
       <c r="H87" s="16" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I87" s="16" t="s">
         <v>715</v>
@@ -10476,7 +10473,7 @@
       </c>
       <c r="G91" s="15"/>
       <c r="H91" s="28" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I91" s="16" t="s">
         <v>715</v>
@@ -10537,7 +10534,7 @@
       </c>
       <c r="G92" s="15"/>
       <c r="H92" s="28" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I92" s="16" t="s">
         <v>715</v>
@@ -10586,17 +10583,17 @@
       </c>
       <c r="C93" s="15"/>
       <c r="D93" s="15" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="F93" s="15" t="s">
         <v>197</v>
       </c>
       <c r="G93" s="15"/>
       <c r="H93" s="28" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I93" s="16" t="s">
         <v>715</v>
@@ -10649,13 +10646,13 @@
       </c>
       <c r="G94" s="15"/>
       <c r="H94" s="28" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I94" s="16" t="s">
         <v>715</v>
       </c>
       <c r="J94" s="15" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="K94" s="27" t="s">
         <v>337</v>
@@ -10675,7 +10672,7 @@
         <v>Athena-4208414</v>
       </c>
       <c r="Q94" s="27" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="R94" s="27">
         <v>8751</v>
@@ -10825,7 +10822,7 @@
         <v>724</v>
       </c>
       <c r="E98" s="84" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F98" s="15" t="s">
         <v>55</v>
@@ -10928,29 +10925,29 @@
     <row r="100" spans="1:25" s="54" customFormat="1" ht="16">
       <c r="A100" s="59"/>
       <c r="B100" s="49" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C100" s="83" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D100" s="83" t="s">
+        <v>800</v>
+      </c>
+      <c r="E100" s="84" t="s">
         <v>801</v>
-      </c>
-      <c r="E100" s="84" t="s">
-        <v>802</v>
       </c>
       <c r="F100" s="15" t="s">
         <v>197</v>
       </c>
       <c r="G100" s="15"/>
       <c r="H100" s="28" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I100" s="28" t="s">
         <v>715</v>
       </c>
       <c r="J100" s="15" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="K100" s="15" t="s">
         <v>337</v>
@@ -10965,7 +10962,7 @@
       </c>
       <c r="P100" s="28"/>
       <c r="Q100" s="28" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R100" s="28">
         <v>4047141</v>
@@ -10981,7 +10978,7 @@
         <v>268</v>
       </c>
       <c r="Y100" s="54" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="101" spans="1:25" s="54" customFormat="1" ht="15">
@@ -11311,7 +11308,7 @@
       </c>
       <c r="G108" s="15"/>
       <c r="H108" s="28" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I108" s="28"/>
       <c r="J108" s="15" t="s">
@@ -11360,7 +11357,7 @@
       </c>
       <c r="G109" s="15"/>
       <c r="H109" s="28" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I109" s="28" t="s">
         <v>715</v>
@@ -11419,7 +11416,7 @@
       </c>
       <c r="G110" s="15"/>
       <c r="H110" s="28" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I110" s="28" t="s">
         <v>715</v>
@@ -11478,7 +11475,7 @@
       </c>
       <c r="G111" s="15"/>
       <c r="H111" s="28" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I111" s="28" t="s">
         <v>715</v>
@@ -11745,7 +11742,7 @@
       </c>
       <c r="G116" s="15"/>
       <c r="H116" s="28" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I116" s="28" t="s">
         <v>715</v>
@@ -11967,7 +11964,7 @@
       </c>
       <c r="G120" s="15"/>
       <c r="H120" s="28" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I120" s="28" t="s">
         <v>715</v>
@@ -12383,7 +12380,7 @@
       </c>
       <c r="G128" s="15"/>
       <c r="H128" s="28" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I128" s="28"/>
       <c r="J128" s="15"/>
@@ -12423,7 +12420,7 @@
       </c>
       <c r="G129" s="15"/>
       <c r="H129" s="28" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I129" s="28" t="s">
         <v>715</v>
@@ -12467,7 +12464,7 @@
       </c>
       <c r="G130" s="15"/>
       <c r="H130" s="28" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I130" s="28" t="s">
         <v>715</v>
@@ -12743,7 +12740,7 @@
       </c>
       <c r="G136" s="65"/>
       <c r="H136" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I136" s="73" t="s">
         <v>715</v>
@@ -12792,7 +12789,7 @@
       </c>
       <c r="G137" s="65"/>
       <c r="H137" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I137" s="73" t="s">
         <v>715</v>
@@ -12843,7 +12840,7 @@
       </c>
       <c r="G138" s="65"/>
       <c r="H138" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I138" s="73" t="s">
         <v>715</v>
@@ -12894,7 +12891,7 @@
       </c>
       <c r="G139" s="65"/>
       <c r="H139" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I139" s="73" t="s">
         <v>715</v>
@@ -12930,20 +12927,20 @@
       <c r="A140" s="59"/>
       <c r="B140" s="72"/>
       <c r="C140" s="27" t="s">
+        <v>776</v>
+      </c>
+      <c r="D140" s="83" t="s">
         <v>777</v>
       </c>
-      <c r="D140" s="83" t="s">
+      <c r="E140" s="87" t="s">
         <v>778</v>
-      </c>
-      <c r="E140" s="87" t="s">
-        <v>779</v>
       </c>
       <c r="F140" s="27" t="s">
         <v>309</v>
       </c>
       <c r="G140" s="65"/>
       <c r="H140" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I140" s="73" t="s">
         <v>715</v>
@@ -12981,20 +12978,20 @@
       <c r="A141" s="59"/>
       <c r="B141" s="72"/>
       <c r="C141" s="27" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
       <c r="D141" s="83" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="E141" s="87" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
       <c r="F141" s="27" t="s">
         <v>309</v>
       </c>
       <c r="G141" s="65"/>
       <c r="H141" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I141" s="73" t="s">
         <v>715</v>
@@ -13032,20 +13029,20 @@
       <c r="A142" s="59"/>
       <c r="B142" s="72"/>
       <c r="C142" s="27" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
       <c r="D142" s="83" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="E142" s="87" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
       <c r="F142" s="27" t="s">
         <v>309</v>
       </c>
       <c r="G142" s="65"/>
       <c r="H142" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I142" s="73" t="s">
         <v>715</v>
@@ -13094,7 +13091,7 @@
       </c>
       <c r="G143" s="65"/>
       <c r="H143" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I143" s="73" t="s">
         <v>715</v>
@@ -13139,7 +13136,7 @@
       </c>
       <c r="G144" s="65"/>
       <c r="H144" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I144" s="73" t="s">
         <v>715</v>
@@ -13465,7 +13462,7 @@
       </c>
       <c r="G151" s="15"/>
       <c r="H151" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I151" s="28" t="s">
         <v>715</v>
@@ -13514,7 +13511,7 @@
       </c>
       <c r="G152" s="15"/>
       <c r="H152" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I152" s="28" t="s">
         <v>715</v>
@@ -13565,7 +13562,7 @@
       </c>
       <c r="G153" s="15"/>
       <c r="H153" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I153" s="28" t="s">
         <v>715</v>
@@ -13614,7 +13611,7 @@
       </c>
       <c r="G154" s="15"/>
       <c r="H154" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I154" s="28" t="s">
         <v>715</v>
@@ -13663,7 +13660,7 @@
       </c>
       <c r="G155" s="15"/>
       <c r="H155" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I155" s="28"/>
       <c r="J155" s="15"/>
@@ -13706,7 +13703,7 @@
       </c>
       <c r="G156" s="27"/>
       <c r="H156" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I156" s="69"/>
       <c r="J156" s="27"/>
@@ -13937,7 +13934,7 @@
       </c>
       <c r="G161" s="15"/>
       <c r="H161" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I161" s="28" t="s">
         <v>715</v>
@@ -13974,17 +13971,17 @@
       <c r="B162" s="51"/>
       <c r="C162" s="15"/>
       <c r="D162" s="83" t="s">
+        <v>744</v>
+      </c>
+      <c r="E162" s="84" t="s">
         <v>745</v>
-      </c>
-      <c r="E162" s="84" t="s">
-        <v>746</v>
       </c>
       <c r="F162" s="27" t="s">
         <v>309</v>
       </c>
       <c r="G162" s="15"/>
       <c r="H162" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I162" s="28" t="s">
         <v>715</v>
@@ -14018,17 +14015,17 @@
       <c r="B163" s="51"/>
       <c r="C163" s="15"/>
       <c r="D163" s="83" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E163" s="84" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F163" s="27" t="s">
         <v>309</v>
       </c>
       <c r="G163" s="15"/>
       <c r="H163" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I163" s="28" t="s">
         <v>715</v>
@@ -14062,17 +14059,17 @@
       <c r="B164" s="51"/>
       <c r="C164" s="15"/>
       <c r="D164" s="83" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E164" s="84" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F164" s="27" t="s">
         <v>309</v>
       </c>
       <c r="G164" s="15"/>
       <c r="H164" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I164" s="28" t="s">
         <v>715</v>
@@ -14316,7 +14313,7 @@
       <c r="V169" s="27"/>
       <c r="W169" s="27"/>
       <c r="X169" s="15" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="170" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -14336,7 +14333,7 @@
       </c>
       <c r="G170" s="16"/>
       <c r="H170" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I170" s="28" t="s">
         <v>715</v>
@@ -14361,7 +14358,7 @@
       <c r="V170" s="27"/>
       <c r="W170" s="27"/>
       <c r="X170" s="15" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="171" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -14379,7 +14376,7 @@
       </c>
       <c r="G171" s="16"/>
       <c r="H171" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I171" s="28" t="s">
         <v>715</v>
@@ -14405,7 +14402,7 @@
       <c r="V171" s="27"/>
       <c r="W171" s="27"/>
       <c r="X171" s="15" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="172" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -14423,7 +14420,7 @@
       </c>
       <c r="G172" s="16"/>
       <c r="H172" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I172" s="28" t="s">
         <v>715</v>
@@ -14449,7 +14446,7 @@
       <c r="V172" s="27"/>
       <c r="W172" s="27"/>
       <c r="X172" s="15" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="173" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -14459,17 +14456,17 @@
         <v>553</v>
       </c>
       <c r="D173" s="84" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E173" s="84" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F173" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G173" s="16"/>
       <c r="H173" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I173" s="28" t="s">
         <v>715</v>
@@ -14491,7 +14488,7 @@
         <v/>
       </c>
       <c r="Q173" s="27" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="R173" s="27">
         <v>8555</v>
@@ -14504,7 +14501,7 @@
       <c r="V173" s="27"/>
       <c r="W173" s="27"/>
       <c r="X173" s="15" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="174" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -14512,17 +14509,17 @@
       <c r="B174" s="67"/>
       <c r="C174" s="45"/>
       <c r="D174" s="84" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E174" s="84" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F174" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G174" s="16"/>
       <c r="H174" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I174" s="28" t="s">
         <v>715</v>
@@ -14548,7 +14545,7 @@
       <c r="V174" s="27"/>
       <c r="W174" s="27"/>
       <c r="X174" s="15" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="175" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -14558,17 +14555,17 @@
         <v>554</v>
       </c>
       <c r="D175" s="84" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E175" s="84" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F175" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G175" s="16"/>
       <c r="H175" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I175" s="28" t="s">
         <v>715</v>
@@ -14590,7 +14587,7 @@
         <v/>
       </c>
       <c r="Q175" s="27" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="R175" s="27">
         <v>8555</v>
@@ -14603,7 +14600,7 @@
       <c r="V175" s="27"/>
       <c r="W175" s="27"/>
       <c r="X175" s="15" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="176" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -14611,17 +14608,17 @@
       <c r="B176" s="67"/>
       <c r="C176" s="45"/>
       <c r="D176" s="84" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E176" s="84" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F176" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G176" s="16"/>
       <c r="H176" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I176" s="28" t="s">
         <v>715</v>
@@ -14647,7 +14644,7 @@
       <c r="V176" s="27"/>
       <c r="W176" s="27"/>
       <c r="X176" s="15" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="177" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -14655,17 +14652,17 @@
       <c r="B177" s="67"/>
       <c r="C177" s="45"/>
       <c r="D177" s="84" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E177" s="83" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F177" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G177" s="16"/>
       <c r="H177" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I177" s="28" t="s">
         <v>715</v>
@@ -14694,7 +14691,7 @@
       <c r="V177" s="27"/>
       <c r="W177" s="27"/>
       <c r="X177" s="15" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="178" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -14702,17 +14699,17 @@
       <c r="B178" s="67"/>
       <c r="C178" s="45"/>
       <c r="D178" s="84" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E178" s="83" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F178" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G178" s="16"/>
       <c r="H178" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I178" s="28" t="s">
         <v>715</v>
@@ -14741,7 +14738,7 @@
       <c r="V178" s="27"/>
       <c r="W178" s="27"/>
       <c r="X178" s="15" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="179" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -14751,17 +14748,17 @@
         <v>555</v>
       </c>
       <c r="D179" s="84" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E179" s="83" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F179" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G179" s="16"/>
       <c r="H179" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I179" s="28" t="s">
         <v>715</v>
@@ -14790,7 +14787,7 @@
       <c r="V179" s="27"/>
       <c r="W179" s="27"/>
       <c r="X179" s="15" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="180" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -14798,17 +14795,17 @@
       <c r="B180" s="67"/>
       <c r="C180" s="45"/>
       <c r="D180" s="84" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E180" s="83" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F180" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G180" s="16"/>
       <c r="H180" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I180" s="28" t="s">
         <v>715</v>
@@ -14837,7 +14834,7 @@
       <c r="V180" s="27"/>
       <c r="W180" s="27"/>
       <c r="X180" s="15" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="181" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -14845,17 +14842,17 @@
       <c r="B181" s="67"/>
       <c r="C181" s="45"/>
       <c r="D181" s="84" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E181" s="103" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F181" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G181" s="16"/>
       <c r="H181" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I181" s="28" t="s">
         <v>715</v>
@@ -14884,7 +14881,7 @@
       <c r="V181" s="27"/>
       <c r="W181" s="27"/>
       <c r="X181" s="15" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="182" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -14892,17 +14889,17 @@
       <c r="B182" s="67"/>
       <c r="C182" s="45"/>
       <c r="D182" s="84" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E182" s="103" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F182" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G182" s="16"/>
       <c r="H182" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I182" s="28" t="s">
         <v>715</v>
@@ -14931,7 +14928,7 @@
       <c r="V182" s="27"/>
       <c r="W182" s="27"/>
       <c r="X182" s="15" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="183" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -14939,17 +14936,17 @@
       <c r="B183" s="67"/>
       <c r="C183" s="45"/>
       <c r="D183" s="84" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="E183" s="103" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F183" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G183" s="16"/>
       <c r="H183" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I183" s="28" t="s">
         <v>715</v>
@@ -14975,7 +14972,7 @@
       <c r="V183" s="27"/>
       <c r="W183" s="27"/>
       <c r="X183" s="15" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="184" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -14993,7 +14990,7 @@
       </c>
       <c r="G184" s="16"/>
       <c r="H184" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I184" s="28"/>
       <c r="J184" s="15"/>
@@ -15036,7 +15033,7 @@
       </c>
       <c r="G185" s="15"/>
       <c r="H185" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I185" s="28"/>
       <c r="J185" s="15"/>
@@ -15059,7 +15056,7 @@
       <c r="V185" s="27"/>
       <c r="W185" s="27"/>
       <c r="X185" s="15" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="186" spans="1:24" s="54" customFormat="1" ht="16">
@@ -15081,7 +15078,7 @@
       </c>
       <c r="G186" s="15"/>
       <c r="H186" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I186" s="28"/>
       <c r="J186" s="15"/>
@@ -15104,7 +15101,7 @@
       <c r="V186" s="27"/>
       <c r="W186" s="27"/>
       <c r="X186" s="15" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="187" spans="1:24" s="54" customFormat="1" ht="218" customHeight="1">
@@ -15153,7 +15150,7 @@
       <c r="V187" s="27"/>
       <c r="W187" s="27"/>
       <c r="X187" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="188" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -15173,7 +15170,7 @@
       </c>
       <c r="G188" s="16"/>
       <c r="H188" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I188" s="28" t="s">
         <v>715</v>
@@ -15202,7 +15199,7 @@
       <c r="V188" s="27"/>
       <c r="W188" s="27"/>
       <c r="X188" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="189" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -15222,7 +15219,7 @@
       </c>
       <c r="G189" s="16"/>
       <c r="H189" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I189" s="28" t="s">
         <v>715</v>
@@ -15251,7 +15248,7 @@
       <c r="V189" s="27"/>
       <c r="W189" s="27"/>
       <c r="X189" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="190" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -15269,7 +15266,7 @@
       </c>
       <c r="G190" s="16"/>
       <c r="H190" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I190" s="28" t="s">
         <v>715</v>
@@ -15298,7 +15295,7 @@
       <c r="V190" s="27"/>
       <c r="W190" s="27"/>
       <c r="X190" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="191" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -15318,7 +15315,7 @@
       </c>
       <c r="G191" s="16"/>
       <c r="H191" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I191" s="28" t="s">
         <v>715</v>
@@ -15347,7 +15344,7 @@
       <c r="V191" s="27"/>
       <c r="W191" s="27"/>
       <c r="X191" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="192" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -15367,7 +15364,7 @@
       </c>
       <c r="G192" s="16"/>
       <c r="H192" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I192" s="28" t="s">
         <v>715</v>
@@ -15396,7 +15393,7 @@
       <c r="V192" s="27"/>
       <c r="W192" s="27"/>
       <c r="X192" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="193" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -15416,7 +15413,7 @@
       </c>
       <c r="G193" s="16"/>
       <c r="H193" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I193" s="28" t="s">
         <v>715</v>
@@ -15445,7 +15442,7 @@
       <c r="V193" s="27"/>
       <c r="W193" s="27"/>
       <c r="X193" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="194" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -15463,7 +15460,7 @@
       </c>
       <c r="G194" s="16"/>
       <c r="H194" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I194" s="28" t="s">
         <v>715</v>
@@ -15492,7 +15489,7 @@
       <c r="V194" s="27"/>
       <c r="W194" s="27"/>
       <c r="X194" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="195" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -15510,7 +15507,7 @@
       </c>
       <c r="G195" s="16"/>
       <c r="H195" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I195" s="28" t="s">
         <v>715</v>
@@ -15536,7 +15533,7 @@
       <c r="V195" s="27"/>
       <c r="W195" s="27"/>
       <c r="X195" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="196" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -15554,7 +15551,7 @@
       </c>
       <c r="G196" s="16"/>
       <c r="H196" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I196" s="28" t="s">
         <v>715</v>
@@ -15583,7 +15580,7 @@
       <c r="V196" s="27"/>
       <c r="W196" s="27"/>
       <c r="X196" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="197" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -15601,7 +15598,7 @@
       </c>
       <c r="G197" s="16"/>
       <c r="H197" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I197" s="28" t="s">
         <v>715</v>
@@ -15630,7 +15627,7 @@
       <c r="V197" s="27"/>
       <c r="W197" s="27"/>
       <c r="X197" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="198" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -15648,7 +15645,7 @@
       </c>
       <c r="G198" s="16"/>
       <c r="H198" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I198" s="28" t="s">
         <v>715</v>
@@ -15677,7 +15674,7 @@
       <c r="V198" s="27"/>
       <c r="W198" s="27"/>
       <c r="X198" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="199" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -15695,7 +15692,7 @@
       </c>
       <c r="G199" s="16"/>
       <c r="H199" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I199" s="28" t="s">
         <v>715</v>
@@ -15724,7 +15721,7 @@
       <c r="V199" s="27"/>
       <c r="W199" s="27"/>
       <c r="X199" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="200" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -15732,17 +15729,17 @@
       <c r="B200" s="67"/>
       <c r="C200" s="45"/>
       <c r="D200" s="84" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E200" s="84" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F200" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G200" s="16"/>
       <c r="H200" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I200" s="28" t="s">
         <v>715</v>
@@ -15771,7 +15768,7 @@
       <c r="V200" s="27"/>
       <c r="W200" s="27"/>
       <c r="X200" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="201" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -15779,17 +15776,17 @@
       <c r="B201" s="67"/>
       <c r="C201" s="45"/>
       <c r="D201" s="84" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E201" s="84" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F201" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G201" s="16"/>
       <c r="H201" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I201" s="28" t="s">
         <v>715</v>
@@ -15818,7 +15815,7 @@
       <c r="V201" s="27"/>
       <c r="W201" s="27"/>
       <c r="X201" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="202" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -15836,7 +15833,7 @@
       </c>
       <c r="G202" s="16"/>
       <c r="H202" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I202" s="28" t="s">
         <v>715</v>
@@ -15865,7 +15862,7 @@
       <c r="V202" s="27"/>
       <c r="W202" s="27"/>
       <c r="X202" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="203" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -15873,7 +15870,7 @@
       <c r="B203" s="67"/>
       <c r="C203" s="45"/>
       <c r="D203" s="103" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E203" s="83" t="s">
         <v>731</v>
@@ -15883,7 +15880,7 @@
       </c>
       <c r="G203" s="16"/>
       <c r="H203" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I203" s="28" t="s">
         <v>715</v>
@@ -15912,7 +15909,7 @@
       <c r="V203" s="27"/>
       <c r="W203" s="27"/>
       <c r="X203" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="204" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -15920,17 +15917,17 @@
       <c r="B204" s="67"/>
       <c r="C204" s="45"/>
       <c r="D204" s="103" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="E204" s="83" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="F204" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G204" s="16"/>
       <c r="H204" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I204" s="28" t="s">
         <v>715</v>
@@ -15956,7 +15953,7 @@
       <c r="V204" s="27"/>
       <c r="W204" s="27"/>
       <c r="X204" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="205" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -15974,7 +15971,7 @@
       </c>
       <c r="G205" s="16"/>
       <c r="H205" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I205" s="28"/>
       <c r="J205" s="15"/>
@@ -15997,7 +15994,7 @@
       <c r="V205" s="27"/>
       <c r="W205" s="27"/>
       <c r="X205" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="206" spans="1:24" s="54" customFormat="1" ht="28" customHeight="1">
@@ -16019,7 +16016,7 @@
       </c>
       <c r="G206" s="15"/>
       <c r="H206" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I206" s="28"/>
       <c r="J206" s="15"/>
@@ -16041,7 +16038,7 @@
       <c r="V206" s="27"/>
       <c r="W206" s="27"/>
       <c r="X206" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="207" spans="1:24" s="54" customFormat="1" ht="16">
@@ -16086,7 +16083,7 @@
       <c r="V207" s="27"/>
       <c r="W207" s="27"/>
       <c r="X207" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="208" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -16106,7 +16103,7 @@
       </c>
       <c r="G208" s="16"/>
       <c r="H208" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I208" s="28" t="s">
         <v>715</v>
@@ -16135,7 +16132,7 @@
       <c r="V208" s="27"/>
       <c r="W208" s="27"/>
       <c r="X208" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="209" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -16155,7 +16152,7 @@
       </c>
       <c r="G209" s="16"/>
       <c r="H209" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I209" s="28" t="s">
         <v>715</v>
@@ -16184,7 +16181,7 @@
       <c r="V209" s="27"/>
       <c r="W209" s="27"/>
       <c r="X209" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="210" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -16202,7 +16199,7 @@
       </c>
       <c r="G210" s="16"/>
       <c r="H210" s="28" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I210" s="28" t="s">
         <v>715</v>
@@ -16231,7 +16228,7 @@
       <c r="V210" s="27"/>
       <c r="W210" s="27"/>
       <c r="X210" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="211" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -16251,7 +16248,7 @@
       </c>
       <c r="G211" s="16"/>
       <c r="H211" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I211" s="28" t="s">
         <v>715</v>
@@ -16280,7 +16277,7 @@
       <c r="V211" s="27"/>
       <c r="W211" s="27"/>
       <c r="X211" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="212" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -16300,7 +16297,7 @@
       </c>
       <c r="G212" s="16"/>
       <c r="H212" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I212" s="28" t="s">
         <v>715</v>
@@ -16329,7 +16326,7 @@
       <c r="V212" s="27"/>
       <c r="W212" s="27"/>
       <c r="X212" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="213" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -16349,7 +16346,7 @@
       </c>
       <c r="G213" s="16"/>
       <c r="H213" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I213" s="28" t="s">
         <v>715</v>
@@ -16378,7 +16375,7 @@
       <c r="V213" s="27"/>
       <c r="W213" s="27"/>
       <c r="X213" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="214" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -16396,7 +16393,7 @@
       </c>
       <c r="G214" s="16"/>
       <c r="H214" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I214" s="28" t="s">
         <v>715</v>
@@ -16425,7 +16422,7 @@
       <c r="V214" s="27"/>
       <c r="W214" s="27"/>
       <c r="X214" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="215" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -16443,7 +16440,7 @@
       </c>
       <c r="G215" s="16"/>
       <c r="H215" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I215" s="28" t="s">
         <v>715</v>
@@ -16469,7 +16466,7 @@
       <c r="V215" s="27"/>
       <c r="W215" s="27"/>
       <c r="X215" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="216" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -16487,7 +16484,7 @@
       </c>
       <c r="G216" s="16"/>
       <c r="H216" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I216" s="28" t="s">
         <v>715</v>
@@ -16516,7 +16513,7 @@
       <c r="V216" s="27"/>
       <c r="W216" s="27"/>
       <c r="X216" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="217" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -16534,7 +16531,7 @@
       </c>
       <c r="G217" s="16"/>
       <c r="H217" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I217" s="28" t="s">
         <v>715</v>
@@ -16563,7 +16560,7 @@
       <c r="V217" s="27"/>
       <c r="W217" s="27"/>
       <c r="X217" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="218" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -16581,7 +16578,7 @@
       </c>
       <c r="G218" s="16"/>
       <c r="H218" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I218" s="28" t="s">
         <v>715</v>
@@ -16610,7 +16607,7 @@
       <c r="V218" s="27"/>
       <c r="W218" s="27"/>
       <c r="X218" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="219" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -16628,7 +16625,7 @@
       </c>
       <c r="G219" s="16"/>
       <c r="H219" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I219" s="28" t="s">
         <v>715</v>
@@ -16657,7 +16654,7 @@
       <c r="V219" s="27"/>
       <c r="W219" s="27"/>
       <c r="X219" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="220" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -16675,7 +16672,7 @@
       </c>
       <c r="G220" s="16"/>
       <c r="H220" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I220" s="28" t="s">
         <v>715</v>
@@ -16704,7 +16701,7 @@
       <c r="V220" s="27"/>
       <c r="W220" s="27"/>
       <c r="X220" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="221" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -16712,17 +16709,17 @@
       <c r="B221" s="67"/>
       <c r="C221" s="45"/>
       <c r="D221" s="84" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E221" s="83" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F221" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G221" s="16"/>
       <c r="H221" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I221" s="28" t="s">
         <v>715</v>
@@ -16751,7 +16748,7 @@
       <c r="V221" s="27"/>
       <c r="W221" s="27"/>
       <c r="X221" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="222" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -16759,17 +16756,17 @@
       <c r="B222" s="67"/>
       <c r="C222" s="45"/>
       <c r="D222" s="84" t="s">
+        <v>897</v>
+      </c>
+      <c r="E222" s="83" t="s">
         <v>898</v>
-      </c>
-      <c r="E222" s="83" t="s">
-        <v>899</v>
       </c>
       <c r="F222" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G222" s="16"/>
       <c r="H222" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I222" s="28" t="s">
         <v>715</v>
@@ -16798,7 +16795,7 @@
       <c r="V222" s="27"/>
       <c r="W222" s="27"/>
       <c r="X222" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="223" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -16816,7 +16813,7 @@
       </c>
       <c r="G223" s="16"/>
       <c r="H223" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I223" s="28" t="s">
         <v>715</v>
@@ -16845,7 +16842,7 @@
       <c r="V223" s="27"/>
       <c r="W223" s="27"/>
       <c r="X223" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="224" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -16853,7 +16850,7 @@
       <c r="B224" s="67"/>
       <c r="C224" s="45"/>
       <c r="D224" s="103" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E224" s="83" t="s">
         <v>734</v>
@@ -16863,7 +16860,7 @@
       </c>
       <c r="G224" s="16"/>
       <c r="H224" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I224" s="28" t="s">
         <v>715</v>
@@ -16892,7 +16889,7 @@
       <c r="V224" s="27"/>
       <c r="W224" s="27"/>
       <c r="X224" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="225" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -16900,17 +16897,17 @@
       <c r="B225" s="67"/>
       <c r="C225" s="45"/>
       <c r="D225" s="103" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="E225" s="83" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="F225" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G225" s="16"/>
       <c r="H225" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I225" s="28" t="s">
         <v>715</v>
@@ -16936,7 +16933,7 @@
       <c r="V225" s="27"/>
       <c r="W225" s="27"/>
       <c r="X225" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="226" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -16954,7 +16951,7 @@
       </c>
       <c r="G226" s="16"/>
       <c r="H226" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I226" s="28"/>
       <c r="J226" s="15"/>
@@ -16977,7 +16974,7 @@
       <c r="V226" s="27"/>
       <c r="W226" s="27"/>
       <c r="X226" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="227" spans="1:24" s="54" customFormat="1" ht="16">
@@ -16999,7 +16996,7 @@
       </c>
       <c r="G227" s="15"/>
       <c r="H227" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I227" s="28"/>
       <c r="J227" s="15"/>
@@ -17022,7 +17019,7 @@
       <c r="V227" s="27"/>
       <c r="W227" s="27"/>
       <c r="X227" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="228" spans="1:24" s="54" customFormat="1" ht="16">
@@ -17067,7 +17064,7 @@
       <c r="V228" s="27"/>
       <c r="W228" s="27"/>
       <c r="X228" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="229" spans="1:24" s="54" customFormat="1" ht="52" customHeight="1">
@@ -17116,7 +17113,7 @@
       <c r="V229" s="27"/>
       <c r="W229" s="27"/>
       <c r="X229" s="15" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="230" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -17136,7 +17133,7 @@
       </c>
       <c r="G230" s="16"/>
       <c r="H230" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I230" s="38" t="s">
         <v>715</v>
@@ -17161,7 +17158,7 @@
       <c r="V230" s="27"/>
       <c r="W230" s="27"/>
       <c r="X230" s="15" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="231" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -17179,7 +17176,7 @@
       </c>
       <c r="G231" s="16"/>
       <c r="H231" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I231" s="38" t="s">
         <v>715</v>
@@ -17208,7 +17205,7 @@
       <c r="V231" s="27"/>
       <c r="W231" s="27"/>
       <c r="X231" s="15" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="232" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -17226,7 +17223,7 @@
       </c>
       <c r="G232" s="16"/>
       <c r="H232" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I232" s="38" t="s">
         <v>715</v>
@@ -17255,7 +17252,7 @@
       <c r="V232" s="27"/>
       <c r="W232" s="27"/>
       <c r="X232" s="15" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="233" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -17265,17 +17262,17 @@
         <v>572</v>
       </c>
       <c r="D233" s="84" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E233" s="84" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F233" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G233" s="16"/>
       <c r="H233" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I233" s="38" t="s">
         <v>715</v>
@@ -17297,7 +17294,7 @@
         <v/>
       </c>
       <c r="Q233" s="27" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="R233" s="27">
         <v>8555</v>
@@ -17310,7 +17307,7 @@
       <c r="V233" s="27"/>
       <c r="W233" s="27"/>
       <c r="X233" s="15" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="234" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -17318,17 +17315,17 @@
       <c r="B234" s="67"/>
       <c r="C234" s="45"/>
       <c r="D234" s="84" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E234" s="84" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F234" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G234" s="16"/>
       <c r="H234" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I234" s="38" t="s">
         <v>715</v>
@@ -17357,7 +17354,7 @@
       <c r="V234" s="27"/>
       <c r="W234" s="27"/>
       <c r="X234" s="15" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="235" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -17365,17 +17362,17 @@
       <c r="B235" s="67"/>
       <c r="C235" s="45"/>
       <c r="D235" s="84" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E235" s="84" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F235" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G235" s="16"/>
       <c r="H235" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I235" s="38" t="s">
         <v>715</v>
@@ -17401,7 +17398,7 @@
       <c r="V235" s="27"/>
       <c r="W235" s="27"/>
       <c r="X235" s="15" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="236" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -17411,17 +17408,17 @@
         <v>641</v>
       </c>
       <c r="D236" s="84" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E236" s="84" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F236" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G236" s="16"/>
       <c r="H236" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I236" s="38" t="s">
         <v>715</v>
@@ -17440,7 +17437,7 @@
       </c>
       <c r="P236" s="28"/>
       <c r="Q236" s="27" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="R236" s="27">
         <v>8555</v>
@@ -17453,7 +17450,7 @@
       <c r="V236" s="27"/>
       <c r="W236" s="27"/>
       <c r="X236" s="15" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="237" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -17461,17 +17458,17 @@
       <c r="B237" s="67"/>
       <c r="C237" s="45"/>
       <c r="D237" s="84" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E237" s="84" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F237" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G237" s="16"/>
       <c r="H237" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I237" s="38" t="s">
         <v>715</v>
@@ -17497,7 +17494,7 @@
       <c r="V237" s="27"/>
       <c r="W237" s="27"/>
       <c r="X237" s="15" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="238" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -17507,17 +17504,17 @@
         <v>642</v>
       </c>
       <c r="D238" s="84" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E238" s="84" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F238" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G238" s="16"/>
       <c r="H238" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I238" s="38" t="s">
         <v>715</v>
@@ -17536,7 +17533,7 @@
       </c>
       <c r="P238" s="28"/>
       <c r="Q238" s="27" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="R238" s="27">
         <v>8555</v>
@@ -17549,7 +17546,7 @@
       <c r="V238" s="27"/>
       <c r="W238" s="27"/>
       <c r="X238" s="15" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="239" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -17557,17 +17554,17 @@
       <c r="B239" s="67"/>
       <c r="C239" s="45"/>
       <c r="D239" s="84" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E239" s="84" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F239" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G239" s="16"/>
       <c r="H239" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I239" s="38" t="s">
         <v>715</v>
@@ -17593,7 +17590,7 @@
       <c r="V239" s="27"/>
       <c r="W239" s="27"/>
       <c r="X239" s="15" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="240" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -17603,17 +17600,17 @@
         <v>643</v>
       </c>
       <c r="D240" s="84" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E240" s="84" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F240" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G240" s="16"/>
       <c r="H240" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I240" s="38" t="s">
         <v>715</v>
@@ -17632,7 +17629,7 @@
       </c>
       <c r="P240" s="28"/>
       <c r="Q240" s="27" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="R240" s="27">
         <v>8555</v>
@@ -17645,7 +17642,7 @@
       <c r="V240" s="27"/>
       <c r="W240" s="27"/>
       <c r="X240" s="15" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="241" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -17653,17 +17650,17 @@
       <c r="B241" s="67"/>
       <c r="C241" s="45"/>
       <c r="D241" s="84" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E241" s="84" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F241" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G241" s="16"/>
       <c r="H241" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I241" s="38" t="s">
         <v>715</v>
@@ -17689,7 +17686,7 @@
       <c r="V241" s="27"/>
       <c r="W241" s="27"/>
       <c r="X241" s="15" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="242" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -17707,7 +17704,7 @@
       </c>
       <c r="G242" s="16"/>
       <c r="H242" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I242" s="38" t="s">
         <v>715</v>
@@ -17733,7 +17730,7 @@
       <c r="V242" s="27"/>
       <c r="W242" s="27"/>
       <c r="X242" s="15" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="243" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -17751,7 +17748,7 @@
       </c>
       <c r="G243" s="16"/>
       <c r="H243" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I243" s="38" t="s">
         <v>715</v>
@@ -17777,7 +17774,7 @@
       <c r="V243" s="27"/>
       <c r="W243" s="27"/>
       <c r="X243" s="15" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="244" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -17785,17 +17782,17 @@
       <c r="B244" s="67"/>
       <c r="C244" s="45"/>
       <c r="D244" s="84" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="E244" s="84" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="F244" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G244" s="16"/>
       <c r="H244" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I244" s="38" t="s">
         <v>715</v>
@@ -17821,7 +17818,7 @@
       <c r="V244" s="27"/>
       <c r="W244" s="27"/>
       <c r="X244" s="15" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="245" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -17829,17 +17826,17 @@
       <c r="B245" s="67"/>
       <c r="C245" s="45"/>
       <c r="D245" s="84" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="E245" s="84" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="F245" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G245" s="16"/>
       <c r="H245" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I245" s="38" t="s">
         <v>715</v>
@@ -17865,7 +17862,7 @@
       <c r="V245" s="27"/>
       <c r="W245" s="27"/>
       <c r="X245" s="15" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="246" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -17873,17 +17870,17 @@
       <c r="B246" s="67"/>
       <c r="C246" s="45"/>
       <c r="D246" s="84" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
       <c r="E246" s="84" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="F246" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G246" s="16"/>
       <c r="H246" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I246" s="38" t="s">
         <v>715</v>
@@ -17909,7 +17906,7 @@
       <c r="V246" s="27"/>
       <c r="W246" s="27"/>
       <c r="X246" s="15" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="247" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -17917,17 +17914,17 @@
       <c r="B247" s="67"/>
       <c r="C247" s="45"/>
       <c r="D247" s="84" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="E247" s="84" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="F247" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G247" s="16"/>
       <c r="H247" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I247" s="38" t="s">
         <v>715</v>
@@ -17953,7 +17950,7 @@
       <c r="V247" s="27"/>
       <c r="W247" s="27"/>
       <c r="X247" s="15" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="248" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -17979,7 +17976,7 @@
       <c r="N248" s="27"/>
       <c r="O248" s="89"/>
       <c r="P248" s="28" t="str">
-        <f t="shared" ref="P248:P265" si="18">IF(N248&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O248), CONCATENATE("Athena-",O248)),"")</f>
+        <f t="shared" ref="P248:P264" si="18">IF(N248&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O248), CONCATENATE("Athena-",O248)),"")</f>
         <v/>
       </c>
       <c r="Q248" s="27"/>
@@ -17990,7 +17987,7 @@
       <c r="V248" s="27"/>
       <c r="W248" s="27"/>
       <c r="X248" s="15" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="249" spans="1:24" s="54" customFormat="1" ht="47" customHeight="1">
@@ -18035,7 +18032,7 @@
       <c r="V249" s="27"/>
       <c r="W249" s="27"/>
       <c r="X249" s="15" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="250" spans="1:24" s="54" customFormat="1" ht="16">
@@ -18080,7 +18077,7 @@
       <c r="V250" s="27"/>
       <c r="W250" s="27"/>
       <c r="X250" s="15" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="251" spans="1:24" s="54" customFormat="1" ht="110" customHeight="1">
@@ -18129,7 +18126,7 @@
       <c r="V251" s="27"/>
       <c r="W251" s="27"/>
       <c r="X251" s="15" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="252" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -18139,17 +18136,17 @@
         <v>573</v>
       </c>
       <c r="D252" s="84" t="s">
-        <v>914</v>
+        <v>949</v>
       </c>
       <c r="E252" s="83" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F252" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G252" s="16"/>
       <c r="H252" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I252" s="28" t="s">
         <v>715</v>
@@ -18178,7 +18175,7 @@
       <c r="V252" s="27"/>
       <c r="W252" s="27"/>
       <c r="X252" s="15" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="253" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -18186,17 +18183,17 @@
       <c r="B253" s="67"/>
       <c r="C253" s="106"/>
       <c r="D253" s="84" t="s">
-        <v>915</v>
+        <v>950</v>
       </c>
       <c r="E253" s="83" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F253" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G253" s="16"/>
       <c r="H253" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I253" s="28" t="s">
         <v>715</v>
@@ -18214,7 +18211,7 @@
         <v>2000000123</v>
       </c>
       <c r="P253" s="28" t="str">
-        <f t="shared" ref="P253" si="19">IF(N253&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O253), CONCATENATE("Athena-",O253)),"")</f>
+        <f t="shared" ref="P253:P254" si="19">IF(N253&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O253), CONCATENATE("Athena-",O253)),"")</f>
         <v/>
       </c>
       <c r="Q253" s="27"/>
@@ -18225,24 +18222,27 @@
       <c r="V253" s="27"/>
       <c r="W253" s="27"/>
       <c r="X253" s="15" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="254" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A254" s="59"/>
       <c r="B254" s="67"/>
+      <c r="C254" s="45" t="s">
+        <v>954</v>
+      </c>
       <c r="D254" s="84" t="s">
-        <v>919</v>
-      </c>
-      <c r="E254" s="84" t="s">
-        <v>530</v>
+        <v>952</v>
+      </c>
+      <c r="E254" s="83" t="s">
+        <v>955</v>
       </c>
       <c r="F254" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G254" s="16"/>
       <c r="H254" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I254" s="28" t="s">
         <v>715</v>
@@ -18257,10 +18257,10 @@
       </c>
       <c r="N254" s="27"/>
       <c r="O254" s="89">
-        <v>2000000069</v>
+        <v>2000000135</v>
       </c>
       <c r="P254" s="28" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="Q254" s="27"/>
@@ -18271,27 +18271,25 @@
       <c r="V254" s="27"/>
       <c r="W254" s="27"/>
       <c r="X254" s="15" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="255" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A255" s="59"/>
       <c r="B255" s="67"/>
-      <c r="C255" s="45" t="s">
-        <v>574</v>
-      </c>
+      <c r="C255" s="106"/>
       <c r="D255" s="84" t="s">
-        <v>917</v>
-      </c>
-      <c r="E255" s="84" t="s">
-        <v>531</v>
+        <v>953</v>
+      </c>
+      <c r="E255" s="83" t="s">
+        <v>956</v>
       </c>
       <c r="F255" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G255" s="16"/>
       <c r="H255" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I255" s="28" t="s">
         <v>715</v>
@@ -18306,10 +18304,10 @@
       </c>
       <c r="N255" s="27"/>
       <c r="O255" s="89">
-        <v>2000000070</v>
+        <v>2000000136</v>
       </c>
       <c r="P255" s="28" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="P255" si="20">IF(N255&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O255), CONCATENATE("Athena-",O255)),"")</f>
         <v/>
       </c>
       <c r="Q255" s="27"/>
@@ -18320,25 +18318,24 @@
       <c r="V255" s="27"/>
       <c r="W255" s="27"/>
       <c r="X255" s="15" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="256" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A256" s="59"/>
       <c r="B256" s="67"/>
-      <c r="C256" s="45"/>
       <c r="D256" s="84" t="s">
-        <v>918</v>
+        <v>523</v>
       </c>
       <c r="E256" s="84" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F256" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G256" s="16"/>
       <c r="H256" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I256" s="28" t="s">
         <v>715</v>
@@ -18353,7 +18350,7 @@
       </c>
       <c r="N256" s="27"/>
       <c r="O256" s="89">
-        <v>2000000071</v>
+        <v>2000000069</v>
       </c>
       <c r="P256" s="28" t="str">
         <f t="shared" si="18"/>
@@ -18367,27 +18364,27 @@
       <c r="V256" s="27"/>
       <c r="W256" s="27"/>
       <c r="X256" s="15" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="257" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A257" s="59"/>
       <c r="B257" s="67"/>
       <c r="C257" s="45" t="s">
-        <v>581</v>
-      </c>
-      <c r="D257" s="83" t="s">
-        <v>575</v>
-      </c>
-      <c r="E257" s="83" t="s">
-        <v>578</v>
+        <v>574</v>
+      </c>
+      <c r="D257" s="84" t="s">
+        <v>524</v>
+      </c>
+      <c r="E257" s="84" t="s">
+        <v>531</v>
       </c>
       <c r="F257" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G257" s="16"/>
       <c r="H257" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I257" s="28" t="s">
         <v>715</v>
@@ -18402,7 +18399,7 @@
       </c>
       <c r="N257" s="27"/>
       <c r="O257" s="89">
-        <v>2000000072</v>
+        <v>2000000070</v>
       </c>
       <c r="P257" s="28" t="str">
         <f t="shared" si="18"/>
@@ -18416,27 +18413,27 @@
       <c r="V257" s="27"/>
       <c r="W257" s="27"/>
       <c r="X257" s="15" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="258" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A258" s="59"/>
       <c r="B258" s="67"/>
       <c r="C258" s="45" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D258" s="83" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E258" s="83" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F258" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G258" s="16"/>
       <c r="H258" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I258" s="28" t="s">
         <v>715</v>
@@ -18451,7 +18448,7 @@
       </c>
       <c r="N258" s="27"/>
       <c r="O258" s="89">
-        <v>2000000073</v>
+        <v>2000000072</v>
       </c>
       <c r="P258" s="28" t="str">
         <f t="shared" si="18"/>
@@ -18465,27 +18462,27 @@
       <c r="V258" s="27"/>
       <c r="W258" s="27"/>
       <c r="X258" s="15" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="259" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A259" s="59"/>
       <c r="B259" s="67"/>
       <c r="C259" s="45" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D259" s="83" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E259" s="83" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F259" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G259" s="16"/>
       <c r="H259" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I259" s="28" t="s">
         <v>715</v>
@@ -18500,7 +18497,7 @@
       </c>
       <c r="N259" s="27"/>
       <c r="O259" s="89">
-        <v>2000000074</v>
+        <v>2000000073</v>
       </c>
       <c r="P259" s="28" t="str">
         <f t="shared" si="18"/>
@@ -18514,25 +18511,27 @@
       <c r="V259" s="27"/>
       <c r="W259" s="27"/>
       <c r="X259" s="15" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="260" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A260" s="59"/>
       <c r="B260" s="67"/>
-      <c r="C260" s="45"/>
+      <c r="C260" s="45" t="s">
+        <v>583</v>
+      </c>
       <c r="D260" s="83" t="s">
-        <v>526</v>
-      </c>
-      <c r="E260" s="84" t="s">
-        <v>739</v>
+        <v>577</v>
+      </c>
+      <c r="E260" s="83" t="s">
+        <v>580</v>
       </c>
       <c r="F260" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G260" s="16"/>
       <c r="H260" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I260" s="28" t="s">
         <v>715</v>
@@ -18547,10 +18546,10 @@
       </c>
       <c r="N260" s="27"/>
       <c r="O260" s="89">
-        <v>2000000075</v>
+        <v>2000000074</v>
       </c>
       <c r="P260" s="28" t="str">
-        <f t="shared" ref="P260" si="20">IF(N260&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O260), CONCATENATE("Athena-",O260)),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Q260" s="27"/>
@@ -18561,7 +18560,7 @@
       <c r="V260" s="27"/>
       <c r="W260" s="27"/>
       <c r="X260" s="15" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="261" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
@@ -18569,17 +18568,17 @@
       <c r="B261" s="67"/>
       <c r="C261" s="45"/>
       <c r="D261" s="83" t="s">
-        <v>916</v>
+        <v>951</v>
       </c>
       <c r="E261" s="84" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F261" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G261" s="16"/>
       <c r="H261" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I261" s="28" t="s">
         <v>715</v>
@@ -18608,42 +18607,39 @@
       <c r="V261" s="27"/>
       <c r="W261" s="27"/>
       <c r="X261" s="15" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="262" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A262" s="59"/>
       <c r="B262" s="67"/>
       <c r="C262" s="45"/>
-      <c r="D262" s="83" t="s">
-        <v>929</v>
-      </c>
-      <c r="E262" s="84" t="s">
-        <v>930</v>
+      <c r="D262" s="76" t="s">
+        <v>527</v>
+      </c>
+      <c r="E262" s="77" t="s">
+        <v>529</v>
       </c>
       <c r="F262" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G262" s="16"/>
       <c r="H262" s="104" t="s">
-        <v>762</v>
-      </c>
-      <c r="I262" s="28" t="s">
-        <v>715</v>
-      </c>
+        <v>761</v>
+      </c>
+      <c r="I262" s="28"/>
       <c r="J262" s="15"/>
       <c r="K262" s="27" t="s">
         <v>337</v>
       </c>
       <c r="L262" s="27"/>
-      <c r="M262" s="47" t="s">
-        <v>374</v>
-      </c>
+      <c r="M262" s="47"/>
       <c r="N262" s="27"/>
-      <c r="O262" s="89">
-        <v>2000000129</v>
-      </c>
-      <c r="P262" s="28"/>
+      <c r="O262" s="89"/>
+      <c r="P262" s="28" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
       <c r="Q262" s="27"/>
       <c r="R262" s="27"/>
       <c r="S262" s="27"/>
@@ -18652,35 +18648,39 @@
       <c r="V262" s="27"/>
       <c r="W262" s="27"/>
       <c r="X262" s="15" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="263" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="263" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
       <c r="A263" s="59"/>
-      <c r="B263" s="67"/>
-      <c r="C263" s="45"/>
-      <c r="D263" s="76" t="s">
-        <v>527</v>
-      </c>
-      <c r="E263" s="77" t="s">
-        <v>529</v>
+      <c r="B263" s="67" t="s">
+        <v>151</v>
+      </c>
+      <c r="C263" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="D263" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="E263" s="45" t="s">
+        <v>130</v>
       </c>
       <c r="F263" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G263" s="16"/>
+      <c r="G263" s="15"/>
       <c r="H263" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I263" s="28"/>
       <c r="J263" s="15"/>
       <c r="K263" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L263" s="27"/>
-      <c r="M263" s="47"/>
+      <c r="L263" s="16"/>
+      <c r="M263" s="27"/>
       <c r="N263" s="27"/>
-      <c r="O263" s="89"/>
+      <c r="O263" s="27"/>
       <c r="P263" s="28" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -18693,36 +18693,36 @@
       <c r="V263" s="27"/>
       <c r="W263" s="27"/>
       <c r="X263" s="15" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="264" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="264" spans="1:24" s="54" customFormat="1" ht="15">
       <c r="A264" s="59"/>
-      <c r="B264" s="67" t="s">
+      <c r="B264" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="C264" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="D264" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="E264" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="F264" s="27" t="s">
+      <c r="C264" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="D264" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="E264" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F264" s="15" t="s">
         <v>197</v>
       </c>
       <c r="G264" s="15"/>
-      <c r="H264" s="104" t="s">
-        <v>762</v>
-      </c>
-      <c r="I264" s="28"/>
+      <c r="H264" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="I264" s="15"/>
       <c r="J264" s="15"/>
       <c r="K264" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L264" s="16"/>
+      <c r="L264" s="15"/>
       <c r="M264" s="27"/>
       <c r="N264" s="27"/>
       <c r="O264" s="27"/>
@@ -18738,43 +18738,44 @@
       <c r="V264" s="27"/>
       <c r="W264" s="27"/>
       <c r="X264" s="15" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="265" spans="1:24" s="54" customFormat="1" ht="15">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="265" spans="1:24" s="54" customFormat="1" ht="16">
       <c r="A265" s="59"/>
-      <c r="B265" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="C265" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="D265" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="E265" s="15" t="s">
-        <v>133</v>
+      <c r="B265" s="110" t="s">
+        <v>926</v>
+      </c>
+      <c r="C265" s="15"/>
+      <c r="D265" s="83" t="s">
+        <v>928</v>
+      </c>
+      <c r="E265" s="83" t="s">
+        <v>922</v>
       </c>
       <c r="F265" s="15" t="s">
         <v>197</v>
       </c>
       <c r="G265" s="15"/>
-      <c r="H265" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="I265" s="15"/>
+      <c r="H265" s="104" t="s">
+        <v>761</v>
+      </c>
+      <c r="I265" s="28" t="s">
+        <v>715</v>
+      </c>
       <c r="J265" s="15"/>
       <c r="K265" s="27" t="s">
         <v>337</v>
       </c>
       <c r="L265" s="15"/>
-      <c r="M265" s="27"/>
+      <c r="M265" s="47" t="s">
+        <v>374</v>
+      </c>
       <c r="N265" s="27"/>
-      <c r="O265" s="27"/>
-      <c r="P265" s="28" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
+      <c r="O265" s="89">
+        <v>2000000130</v>
+      </c>
+      <c r="P265" s="28"/>
       <c r="Q265" s="27"/>
       <c r="R265" s="27"/>
       <c r="S265" s="27"/>
@@ -18783,27 +18784,27 @@
       <c r="V265" s="27"/>
       <c r="W265" s="27"/>
       <c r="X265" s="15" t="s">
-        <v>776</v>
+        <v>932</v>
       </c>
     </row>
     <row r="266" spans="1:24" s="54" customFormat="1" ht="16">
       <c r="A266" s="59"/>
       <c r="B266" s="110" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="C266" s="15"/>
       <c r="D266" s="83" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="E266" s="83" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="F266" s="15" t="s">
         <v>197</v>
       </c>
       <c r="G266" s="15"/>
       <c r="H266" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I266" s="28" t="s">
         <v>715</v>
@@ -18818,7 +18819,7 @@
       </c>
       <c r="N266" s="27"/>
       <c r="O266" s="89">
-        <v>2000000130</v>
+        <v>2000000131</v>
       </c>
       <c r="P266" s="28"/>
       <c r="Q266" s="27"/>
@@ -18829,27 +18830,25 @@
       <c r="V266" s="27"/>
       <c r="W266" s="27"/>
       <c r="X266" s="15" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
     </row>
     <row r="267" spans="1:24" s="54" customFormat="1" ht="16">
       <c r="A267" s="59"/>
-      <c r="B267" s="110" t="s">
-        <v>936</v>
-      </c>
+      <c r="B267" s="49"/>
       <c r="C267" s="15"/>
       <c r="D267" s="83" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="E267" s="83" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="F267" s="15" t="s">
         <v>197</v>
       </c>
       <c r="G267" s="15"/>
       <c r="H267" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I267" s="28" t="s">
         <v>715</v>
@@ -18864,7 +18863,7 @@
       </c>
       <c r="N267" s="27"/>
       <c r="O267" s="89">
-        <v>2000000131</v>
+        <v>2000000132</v>
       </c>
       <c r="P267" s="28"/>
       <c r="Q267" s="27"/>
@@ -18875,7 +18874,7 @@
       <c r="V267" s="27"/>
       <c r="W267" s="27"/>
       <c r="X267" s="15" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
     </row>
     <row r="268" spans="1:24" s="54" customFormat="1" ht="16">
@@ -18883,17 +18882,17 @@
       <c r="B268" s="49"/>
       <c r="C268" s="15"/>
       <c r="D268" s="83" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="E268" s="83" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="F268" s="15" t="s">
         <v>197</v>
       </c>
       <c r="G268" s="15"/>
       <c r="H268" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I268" s="28" t="s">
         <v>715</v>
@@ -18908,7 +18907,7 @@
       </c>
       <c r="N268" s="27"/>
       <c r="O268" s="89">
-        <v>2000000132</v>
+        <v>2000000133</v>
       </c>
       <c r="P268" s="28"/>
       <c r="Q268" s="27"/>
@@ -18919,70 +18918,76 @@
       <c r="V268" s="27"/>
       <c r="W268" s="27"/>
       <c r="X268" s="15" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="269" spans="1:24" s="54" customFormat="1" ht="16">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="269" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
       <c r="A269" s="59"/>
-      <c r="B269" s="49"/>
-      <c r="C269" s="15"/>
-      <c r="D269" s="83" t="s">
-        <v>940</v>
-      </c>
-      <c r="E269" s="83" t="s">
-        <v>934</v>
-      </c>
-      <c r="F269" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="G269" s="15"/>
+      <c r="B269" s="110" t="s">
+        <v>789</v>
+      </c>
+      <c r="C269" s="27"/>
+      <c r="D269" s="27" t="s">
+        <v>809</v>
+      </c>
+      <c r="E269" s="45" t="s">
+        <v>790</v>
+      </c>
+      <c r="F269" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G269" s="15" t="s">
+        <v>791</v>
+      </c>
       <c r="H269" s="104" t="s">
-        <v>762</v>
+        <v>666</v>
       </c>
       <c r="I269" s="28" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="J269" s="15"/>
       <c r="K269" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L269" s="15"/>
-      <c r="M269" s="47" t="s">
-        <v>374</v>
+      <c r="L269" s="16"/>
+      <c r="M269" s="27" t="s">
+        <v>367</v>
       </c>
       <c r="N269" s="27"/>
-      <c r="O269" s="89">
-        <v>2000000133</v>
+      <c r="O269" s="27">
+        <v>2000000107</v>
       </c>
       <c r="P269" s="28"/>
       <c r="Q269" s="27"/>
       <c r="R269" s="27"/>
       <c r="S269" s="27"/>
-      <c r="T269" s="27"/>
-      <c r="U269" s="27"/>
+      <c r="T269" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="U269" s="15" t="s">
+        <v>673</v>
+      </c>
       <c r="V269" s="27"/>
       <c r="W269" s="27"/>
       <c r="X269" s="15" t="s">
-        <v>942</v>
+        <v>773</v>
       </c>
     </row>
     <row r="270" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
       <c r="A270" s="59"/>
-      <c r="B270" s="110" t="s">
-        <v>790</v>
-      </c>
+      <c r="B270" s="49"/>
       <c r="C270" s="27"/>
       <c r="D270" s="27" t="s">
-        <v>810</v>
+        <v>794</v>
       </c>
       <c r="E270" s="45" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="F270" s="27" t="s">
         <v>55</v>
       </c>
       <c r="G270" s="15" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H270" s="104" t="s">
         <v>666</v>
@@ -19000,7 +19005,7 @@
       </c>
       <c r="N270" s="27"/>
       <c r="O270" s="27">
-        <v>2000000107</v>
+        <v>2000000108</v>
       </c>
       <c r="P270" s="28"/>
       <c r="Q270" s="27"/>
@@ -19015,7 +19020,7 @@
       <c r="V270" s="27"/>
       <c r="W270" s="27"/>
       <c r="X270" s="15" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="271" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
@@ -19023,16 +19028,16 @@
       <c r="B271" s="49"/>
       <c r="C271" s="27"/>
       <c r="D271" s="27" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E271" s="45" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="F271" s="27" t="s">
         <v>55</v>
       </c>
       <c r="G271" s="15" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H271" s="104" t="s">
         <v>666</v>
@@ -19050,7 +19055,7 @@
       </c>
       <c r="N271" s="27"/>
       <c r="O271" s="27">
-        <v>2000000108</v>
+        <v>2000000109</v>
       </c>
       <c r="P271" s="28"/>
       <c r="Q271" s="27"/>
@@ -19065,7 +19070,7 @@
       <c r="V271" s="27"/>
       <c r="W271" s="27"/>
       <c r="X271" s="15" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
     </row>
     <row r="272" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
@@ -19073,16 +19078,16 @@
       <c r="B272" s="49"/>
       <c r="C272" s="27"/>
       <c r="D272" s="27" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E272" s="45" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="F272" s="27" t="s">
         <v>55</v>
       </c>
       <c r="G272" s="15" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H272" s="104" t="s">
         <v>666</v>
@@ -19100,7 +19105,7 @@
       </c>
       <c r="N272" s="27"/>
       <c r="O272" s="27">
-        <v>2000000109</v>
+        <v>2000000110</v>
       </c>
       <c r="P272" s="28"/>
       <c r="Q272" s="27"/>
@@ -19115,7 +19120,7 @@
       <c r="V272" s="27"/>
       <c r="W272" s="27"/>
       <c r="X272" s="15" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
     </row>
     <row r="273" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
@@ -19123,16 +19128,16 @@
       <c r="B273" s="49"/>
       <c r="C273" s="27"/>
       <c r="D273" s="27" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="E273" s="45" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="F273" s="27" t="s">
         <v>55</v>
       </c>
       <c r="G273" s="15" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H273" s="104" t="s">
         <v>666</v>
@@ -19150,7 +19155,7 @@
       </c>
       <c r="N273" s="27"/>
       <c r="O273" s="27">
-        <v>2000000110</v>
+        <v>2000000111</v>
       </c>
       <c r="P273" s="28"/>
       <c r="Q273" s="27"/>
@@ -19170,25 +19175,25 @@
     </row>
     <row r="274" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
       <c r="A274" s="59"/>
-      <c r="B274" s="49"/>
+      <c r="B274" s="110" t="s">
+        <v>802</v>
+      </c>
       <c r="C274" s="27"/>
-      <c r="D274" s="27" t="s">
-        <v>796</v>
+      <c r="D274" s="54" t="s">
+        <v>808</v>
       </c>
       <c r="E274" s="45" t="s">
-        <v>797</v>
+        <v>807</v>
       </c>
       <c r="F274" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="G274" s="15" t="s">
-        <v>792</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G274" s="15"/>
       <c r="H274" s="104" t="s">
-        <v>666</v>
+        <v>759</v>
       </c>
       <c r="I274" s="28" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J274" s="15"/>
       <c r="K274" s="27" t="s">
@@ -19196,46 +19201,40 @@
       </c>
       <c r="L274" s="16"/>
       <c r="M274" s="27" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="N274" s="27"/>
       <c r="O274" s="27">
-        <v>2000000111</v>
+        <v>2000000112</v>
       </c>
       <c r="P274" s="28"/>
       <c r="Q274" s="27"/>
       <c r="R274" s="27"/>
       <c r="S274" s="27"/>
-      <c r="T274" s="15" t="s">
-        <v>667</v>
-      </c>
-      <c r="U274" s="15" t="s">
-        <v>673</v>
-      </c>
+      <c r="T274" s="15"/>
+      <c r="U274" s="15"/>
       <c r="V274" s="27"/>
       <c r="W274" s="27"/>
       <c r="X274" s="15" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="275" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
       <c r="A275" s="59"/>
-      <c r="B275" s="110" t="s">
+      <c r="B275" s="49"/>
+      <c r="C275" s="27"/>
+      <c r="D275" s="27" t="s">
         <v>803</v>
       </c>
-      <c r="C275" s="27"/>
-      <c r="D275" s="54" t="s">
-        <v>809</v>
-      </c>
       <c r="E275" s="45" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="F275" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G275" s="15"/>
       <c r="H275" s="104" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I275" s="28" t="s">
         <v>715</v>
@@ -19250,7 +19249,7 @@
       </c>
       <c r="N275" s="27"/>
       <c r="O275" s="27">
-        <v>2000000112</v>
+        <v>2000000113</v>
       </c>
       <c r="P275" s="28"/>
       <c r="Q275" s="27"/>
@@ -19279,7 +19278,7 @@
       </c>
       <c r="G276" s="15"/>
       <c r="H276" s="104" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I276" s="28" t="s">
         <v>715</v>
@@ -19294,7 +19293,7 @@
       </c>
       <c r="N276" s="27"/>
       <c r="O276" s="27">
-        <v>2000000113</v>
+        <v>2000000114</v>
       </c>
       <c r="P276" s="28"/>
       <c r="Q276" s="27"/>
@@ -19323,7 +19322,7 @@
       </c>
       <c r="G277" s="15"/>
       <c r="H277" s="104" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I277" s="28" t="s">
         <v>715</v>
@@ -19338,7 +19337,7 @@
       </c>
       <c r="N277" s="27"/>
       <c r="O277" s="27">
-        <v>2000000114</v>
+        <v>2000000115</v>
       </c>
       <c r="P277" s="28"/>
       <c r="Q277" s="27"/>
@@ -19349,7 +19348,7 @@
       <c r="V277" s="27"/>
       <c r="W277" s="27"/>
       <c r="X277" s="15" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="278" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
@@ -19367,7 +19366,7 @@
       </c>
       <c r="G278" s="15"/>
       <c r="H278" s="104" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I278" s="28" t="s">
         <v>715</v>
@@ -19382,7 +19381,7 @@
       </c>
       <c r="N278" s="27"/>
       <c r="O278" s="27">
-        <v>2000000115</v>
+        <v>2000000116</v>
       </c>
       <c r="P278" s="28"/>
       <c r="Q278" s="27"/>
@@ -19393,97 +19392,102 @@
       <c r="V278" s="27"/>
       <c r="W278" s="27"/>
       <c r="X278" s="15" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="279" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
-      <c r="A279" s="59"/>
-      <c r="B279" s="49"/>
-      <c r="C279" s="27"/>
-      <c r="D279" s="27" t="s">
-        <v>807</v>
-      </c>
-      <c r="E279" s="45" t="s">
-        <v>814</v>
-      </c>
-      <c r="F279" s="27" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="279" spans="1:24" s="54" customFormat="1" ht="15">
+      <c r="A279" s="75" t="s">
+        <v>271</v>
+      </c>
+      <c r="B279" s="48"/>
+      <c r="C279" s="6"/>
+      <c r="D279" s="6"/>
+      <c r="E279" s="7"/>
+      <c r="F279" s="6"/>
+      <c r="G279" s="6"/>
+      <c r="H279" s="30"/>
+      <c r="I279" s="30"/>
+      <c r="J279" s="6"/>
+      <c r="K279" s="53"/>
+      <c r="L279" s="7"/>
+      <c r="M279" s="53"/>
+      <c r="N279" s="53"/>
+      <c r="O279" s="53"/>
+      <c r="P279" s="53"/>
+      <c r="Q279" s="53"/>
+      <c r="R279" s="53"/>
+      <c r="S279" s="53"/>
+      <c r="T279" s="53"/>
+      <c r="U279" s="53"/>
+      <c r="V279" s="53"/>
+      <c r="W279" s="53"/>
+      <c r="X279" s="53"/>
+    </row>
+    <row r="280" spans="1:24" s="54" customFormat="1" ht="15">
+      <c r="A280" s="59"/>
+      <c r="B280" s="49"/>
+      <c r="C280" s="15"/>
+      <c r="D280" s="79" t="s">
+        <v>698</v>
+      </c>
+      <c r="E280" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="F280" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="G279" s="15"/>
-      <c r="H279" s="104" t="s">
-        <v>760</v>
-      </c>
-      <c r="I279" s="28" t="s">
+      <c r="G280" s="15"/>
+      <c r="H280" s="104" t="s">
+        <v>761</v>
+      </c>
+      <c r="I280" s="28" t="s">
         <v>715</v>
       </c>
-      <c r="J279" s="15"/>
-      <c r="K279" s="27" t="s">
+      <c r="J280" s="15"/>
+      <c r="K280" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L279" s="16"/>
-      <c r="M279" s="27" t="s">
+      <c r="L280" s="24"/>
+      <c r="M280" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="N279" s="27"/>
-      <c r="O279" s="27">
-        <v>2000000116</v>
-      </c>
-      <c r="P279" s="28"/>
-      <c r="Q279" s="27"/>
-      <c r="R279" s="27"/>
-      <c r="S279" s="27"/>
-      <c r="T279" s="15"/>
-      <c r="U279" s="15"/>
-      <c r="V279" s="27"/>
-      <c r="W279" s="27"/>
-      <c r="X279" s="15" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="280" spans="1:24" s="54" customFormat="1" ht="15">
-      <c r="A280" s="75" t="s">
-        <v>271</v>
-      </c>
-      <c r="B280" s="48"/>
-      <c r="C280" s="6"/>
-      <c r="D280" s="6"/>
-      <c r="E280" s="7"/>
-      <c r="F280" s="6"/>
-      <c r="G280" s="6"/>
-      <c r="H280" s="30"/>
-      <c r="I280" s="30"/>
-      <c r="J280" s="6"/>
-      <c r="K280" s="53"/>
-      <c r="L280" s="7"/>
-      <c r="M280" s="53"/>
-      <c r="N280" s="53"/>
-      <c r="O280" s="53"/>
-      <c r="P280" s="53"/>
-      <c r="Q280" s="53"/>
-      <c r="R280" s="53"/>
-      <c r="S280" s="53"/>
-      <c r="T280" s="53"/>
-      <c r="U280" s="53"/>
-      <c r="V280" s="53"/>
-      <c r="W280" s="53"/>
-      <c r="X280" s="53"/>
-    </row>
-    <row r="281" spans="1:24" s="54" customFormat="1" ht="15">
+      <c r="N280" s="27" t="s">
+        <v>368</v>
+      </c>
+      <c r="O280" s="27">
+        <v>44807681</v>
+      </c>
+      <c r="P280" s="28" t="str">
+        <f t="shared" ref="P280:P293" si="22">IF(N280&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O280), CONCATENATE("Athena-",O280)),"")</f>
+        <v>Athena-44807681</v>
+      </c>
+      <c r="Q280" s="27"/>
+      <c r="R280" s="27"/>
+      <c r="S280" s="27"/>
+      <c r="T280" s="27"/>
+      <c r="U280" s="27"/>
+      <c r="V280" s="27"/>
+      <c r="W280" s="27"/>
+      <c r="X280" s="27" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="281" spans="1:24" s="54" customFormat="1" ht="16">
       <c r="A281" s="59"/>
       <c r="B281" s="49"/>
-      <c r="C281" s="15"/>
-      <c r="D281" s="79" t="s">
-        <v>698</v>
-      </c>
-      <c r="E281" s="15" t="s">
-        <v>283</v>
+      <c r="C281" s="16"/>
+      <c r="D281" s="80" t="s">
+        <v>699</v>
+      </c>
+      <c r="E281" s="16" t="s">
+        <v>284</v>
       </c>
       <c r="F281" s="15" t="s">
         <v>197</v>
       </c>
       <c r="G281" s="15"/>
       <c r="H281" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I281" s="28" t="s">
         <v>715</v>
@@ -19492,29 +19496,33 @@
       <c r="K281" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L281" s="24"/>
+      <c r="L281" s="16"/>
       <c r="M281" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="N281" s="27" t="s">
-        <v>368</v>
-      </c>
+      <c r="N281" s="27"/>
       <c r="O281" s="27">
-        <v>44807681</v>
+        <v>2000000093</v>
       </c>
       <c r="P281" s="28" t="str">
-        <f t="shared" ref="P281:P294" si="22">IF(N281&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O281), CONCATENATE("Athena-",O281)),"")</f>
-        <v>Athena-44807681</v>
-      </c>
-      <c r="Q281" s="27"/>
-      <c r="R281" s="27"/>
-      <c r="S281" s="27"/>
+        <f>IF(N281&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O281), CONCATENATE("Athena-",O281)),"")</f>
+        <v/>
+      </c>
+      <c r="Q281" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="R281" s="27">
+        <v>8845</v>
+      </c>
+      <c r="S281" s="27" t="s">
+        <v>376</v>
+      </c>
       <c r="T281" s="27"/>
       <c r="U281" s="27"/>
       <c r="V281" s="27"/>
       <c r="W281" s="27"/>
       <c r="X281" s="27" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="282" spans="1:24" s="54" customFormat="1" ht="16">
@@ -19522,17 +19530,17 @@
       <c r="B282" s="49"/>
       <c r="C282" s="16"/>
       <c r="D282" s="80" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>284</v>
+        <v>585</v>
       </c>
       <c r="F282" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="G282" s="15"/>
+      <c r="G282" s="16"/>
       <c r="H282" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I282" s="28" t="s">
         <v>715</v>
@@ -19547,7 +19555,7 @@
       </c>
       <c r="N282" s="27"/>
       <c r="O282" s="27">
-        <v>2000000093</v>
+        <v>2000000094</v>
       </c>
       <c r="P282" s="28" t="str">
         <f>IF(N282&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O282), CONCATENATE("Athena-",O282)),"")</f>
@@ -19567,7 +19575,7 @@
       <c r="V282" s="27"/>
       <c r="W282" s="27"/>
       <c r="X282" s="27" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="283" spans="1:24" s="54" customFormat="1" ht="16">
@@ -19575,17 +19583,17 @@
       <c r="B283" s="49"/>
       <c r="C283" s="16"/>
       <c r="D283" s="80" t="s">
-        <v>700</v>
+        <v>771</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>585</v>
+        <v>772</v>
       </c>
       <c r="F283" s="15" t="s">
         <v>197</v>
       </c>
       <c r="G283" s="16"/>
       <c r="H283" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I283" s="28" t="s">
         <v>715</v>
@@ -19600,27 +19608,21 @@
       </c>
       <c r="N283" s="27"/>
       <c r="O283" s="27">
-        <v>2000000094</v>
+        <v>2000000105</v>
       </c>
       <c r="P283" s="28" t="str">
         <f>IF(N283&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O283), CONCATENATE("Athena-",O283)),"")</f>
         <v/>
       </c>
-      <c r="Q283" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="R283" s="27">
-        <v>8845</v>
-      </c>
-      <c r="S283" s="27" t="s">
-        <v>376</v>
-      </c>
+      <c r="Q283" s="27"/>
+      <c r="R283" s="27"/>
+      <c r="S283" s="27"/>
       <c r="T283" s="27"/>
       <c r="U283" s="27"/>
       <c r="V283" s="27"/>
       <c r="W283" s="27"/>
       <c r="X283" s="27" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="284" spans="1:24" s="54" customFormat="1" ht="16">
@@ -19628,17 +19630,17 @@
       <c r="B284" s="49"/>
       <c r="C284" s="16"/>
       <c r="D284" s="80" t="s">
-        <v>772</v>
+        <v>274</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>773</v>
+        <v>285</v>
       </c>
       <c r="F284" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="G284" s="16"/>
+      <c r="G284" s="15"/>
       <c r="H284" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I284" s="28" t="s">
         <v>715</v>
@@ -19653,10 +19655,10 @@
       </c>
       <c r="N284" s="27"/>
       <c r="O284" s="27">
-        <v>2000000105</v>
+        <v>2000000095</v>
       </c>
       <c r="P284" s="28" t="str">
-        <f>IF(N284&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O284), CONCATENATE("Athena-",O284)),"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="Q284" s="27"/>
@@ -19667,25 +19669,25 @@
       <c r="V284" s="27"/>
       <c r="W284" s="27"/>
       <c r="X284" s="27" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="285" spans="1:24" s="54" customFormat="1" ht="16">
       <c r="A285" s="59"/>
       <c r="B285" s="49"/>
-      <c r="C285" s="16"/>
-      <c r="D285" s="80" t="s">
-        <v>274</v>
-      </c>
-      <c r="E285" s="16" t="s">
-        <v>285</v>
+      <c r="C285" s="15"/>
+      <c r="D285" s="79" t="s">
+        <v>275</v>
+      </c>
+      <c r="E285" s="45" t="s">
+        <v>286</v>
       </c>
       <c r="F285" s="15" t="s">
         <v>197</v>
       </c>
       <c r="G285" s="15"/>
       <c r="H285" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I285" s="28" t="s">
         <v>715</v>
@@ -19699,8 +19701,8 @@
         <v>374</v>
       </c>
       <c r="N285" s="27"/>
-      <c r="O285" s="27">
-        <v>2000000095</v>
+      <c r="O285" s="79">
+        <v>2000000096</v>
       </c>
       <c r="P285" s="28" t="str">
         <f t="shared" si="22"/>
@@ -19714,7 +19716,7 @@
       <c r="V285" s="27"/>
       <c r="W285" s="27"/>
       <c r="X285" s="27" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="286" spans="1:24" s="54" customFormat="1" ht="16">
@@ -19722,17 +19724,17 @@
       <c r="B286" s="49"/>
       <c r="C286" s="15"/>
       <c r="D286" s="79" t="s">
-        <v>275</v>
-      </c>
-      <c r="E286" s="45" t="s">
-        <v>286</v>
+        <v>701</v>
+      </c>
+      <c r="E286" s="11" t="s">
+        <v>288</v>
       </c>
       <c r="F286" s="15" t="s">
         <v>197</v>
       </c>
       <c r="G286" s="15"/>
       <c r="H286" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I286" s="28" t="s">
         <v>715</v>
@@ -19746,8 +19748,8 @@
         <v>374</v>
       </c>
       <c r="N286" s="27"/>
-      <c r="O286" s="79">
-        <v>2000000096</v>
+      <c r="O286" s="27">
+        <v>2000000097</v>
       </c>
       <c r="P286" s="28" t="str">
         <f t="shared" si="22"/>
@@ -19761,25 +19763,25 @@
       <c r="V286" s="27"/>
       <c r="W286" s="27"/>
       <c r="X286" s="27" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="287" spans="1:24" s="54" customFormat="1" ht="16">
       <c r="A287" s="59"/>
       <c r="B287" s="49"/>
-      <c r="C287" s="15"/>
-      <c r="D287" s="79" t="s">
-        <v>701</v>
-      </c>
-      <c r="E287" s="11" t="s">
-        <v>288</v>
+      <c r="C287" s="16"/>
+      <c r="D287" s="80" t="s">
+        <v>276</v>
+      </c>
+      <c r="E287" s="16" t="s">
+        <v>289</v>
       </c>
       <c r="F287" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="G287" s="15"/>
+      <c r="G287" s="16"/>
       <c r="H287" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I287" s="28" t="s">
         <v>715</v>
@@ -19792,13 +19794,15 @@
       <c r="M287" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="N287" s="27"/>
+      <c r="N287" s="27" t="s">
+        <v>368</v>
+      </c>
       <c r="O287" s="27">
-        <v>2000000097</v>
+        <v>46284972</v>
       </c>
       <c r="P287" s="28" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>Athena-46284972</v>
       </c>
       <c r="Q287" s="27"/>
       <c r="R287" s="27"/>
@@ -19808,7 +19812,7 @@
       <c r="V287" s="27"/>
       <c r="W287" s="27"/>
       <c r="X287" s="27" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="288" spans="1:24" s="54" customFormat="1" ht="16">
@@ -19816,17 +19820,17 @@
       <c r="B288" s="49"/>
       <c r="C288" s="16"/>
       <c r="D288" s="80" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E288" s="16" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="F288" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="G288" s="16"/>
+      <c r="G288" s="15"/>
       <c r="H288" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I288" s="28" t="s">
         <v>715</v>
@@ -19839,15 +19843,13 @@
       <c r="M288" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="N288" s="27" t="s">
-        <v>368</v>
-      </c>
+      <c r="N288" s="27"/>
       <c r="O288" s="27">
-        <v>46284972</v>
+        <v>2000000098</v>
       </c>
       <c r="P288" s="28" t="str">
         <f t="shared" si="22"/>
-        <v>Athena-46284972</v>
+        <v/>
       </c>
       <c r="Q288" s="27"/>
       <c r="R288" s="27"/>
@@ -19857,25 +19859,25 @@
       <c r="V288" s="27"/>
       <c r="W288" s="27"/>
       <c r="X288" s="27" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="289" spans="1:25" s="54" customFormat="1" ht="16">
       <c r="A289" s="59"/>
       <c r="B289" s="49"/>
-      <c r="C289" s="16"/>
-      <c r="D289" s="80" t="s">
-        <v>277</v>
-      </c>
-      <c r="E289" s="16" t="s">
-        <v>378</v>
+      <c r="C289" s="15"/>
+      <c r="D289" s="79" t="s">
+        <v>278</v>
+      </c>
+      <c r="E289" s="45" t="s">
+        <v>377</v>
       </c>
       <c r="F289" s="15" t="s">
         <v>197</v>
       </c>
       <c r="G289" s="15"/>
       <c r="H289" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I289" s="28" t="s">
         <v>715</v>
@@ -19890,7 +19892,7 @@
       </c>
       <c r="N289" s="27"/>
       <c r="O289" s="27">
-        <v>2000000098</v>
+        <v>2000000099</v>
       </c>
       <c r="P289" s="28" t="str">
         <f t="shared" si="22"/>
@@ -19904,30 +19906,30 @@
       <c r="V289" s="27"/>
       <c r="W289" s="27"/>
       <c r="X289" s="27" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="290" spans="1:25" s="54" customFormat="1" ht="16">
       <c r="A290" s="59"/>
-      <c r="B290" s="49"/>
-      <c r="C290" s="15"/>
-      <c r="D290" s="79" t="s">
-        <v>278</v>
-      </c>
-      <c r="E290" s="45" t="s">
-        <v>377</v>
+      <c r="B290" s="16"/>
+      <c r="C290" s="16"/>
+      <c r="D290" s="80" t="s">
+        <v>279</v>
+      </c>
+      <c r="E290" s="16" t="s">
+        <v>290</v>
       </c>
       <c r="F290" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="G290" s="15"/>
+      <c r="G290" s="16"/>
       <c r="H290" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I290" s="28" t="s">
         <v>715</v>
       </c>
-      <c r="J290" s="15"/>
+      <c r="J290" s="16"/>
       <c r="K290" s="27" t="s">
         <v>337</v>
       </c>
@@ -19935,13 +19937,15 @@
       <c r="M290" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="N290" s="27"/>
+      <c r="N290" s="27" t="s">
+        <v>368</v>
+      </c>
       <c r="O290" s="27">
-        <v>2000000099</v>
+        <v>4332015</v>
       </c>
       <c r="P290" s="28" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>Athena-4332015</v>
       </c>
       <c r="Q290" s="27"/>
       <c r="R290" s="27"/>
@@ -19951,7 +19955,7 @@
       <c r="V290" s="27"/>
       <c r="W290" s="27"/>
       <c r="X290" s="27" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="291" spans="1:25" s="54" customFormat="1" ht="16">
@@ -19959,17 +19963,17 @@
       <c r="B291" s="16"/>
       <c r="C291" s="16"/>
       <c r="D291" s="80" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F291" s="15" t="s">
         <v>197</v>
       </c>
       <c r="G291" s="16"/>
       <c r="H291" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I291" s="28" t="s">
         <v>715</v>
@@ -19986,11 +19990,11 @@
         <v>368</v>
       </c>
       <c r="O291" s="27">
-        <v>4332015</v>
+        <v>4166200</v>
       </c>
       <c r="P291" s="28" t="str">
         <f t="shared" si="22"/>
-        <v>Athena-4332015</v>
+        <v>Athena-4166200</v>
       </c>
       <c r="Q291" s="27"/>
       <c r="R291" s="27"/>
@@ -20000,7 +20004,7 @@
       <c r="V291" s="27"/>
       <c r="W291" s="27"/>
       <c r="X291" s="27" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="292" spans="1:25" s="54" customFormat="1" ht="16">
@@ -20008,17 +20012,17 @@
       <c r="B292" s="16"/>
       <c r="C292" s="16"/>
       <c r="D292" s="80" t="s">
-        <v>280</v>
+        <v>702</v>
       </c>
       <c r="E292" s="16" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F292" s="15" t="s">
         <v>197</v>
       </c>
       <c r="G292" s="16"/>
       <c r="H292" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I292" s="28" t="s">
         <v>715</v>
@@ -20035,11 +20039,11 @@
         <v>368</v>
       </c>
       <c r="O292" s="27">
-        <v>4166200</v>
+        <v>4282774</v>
       </c>
       <c r="P292" s="28" t="str">
         <f t="shared" si="22"/>
-        <v>Athena-4166200</v>
+        <v>Athena-4282774</v>
       </c>
       <c r="Q292" s="27"/>
       <c r="R292" s="27"/>
@@ -20049,7 +20053,7 @@
       <c r="V292" s="27"/>
       <c r="W292" s="27"/>
       <c r="X292" s="27" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="293" spans="1:25" s="54" customFormat="1" ht="16">
@@ -20057,17 +20061,17 @@
       <c r="B293" s="16"/>
       <c r="C293" s="16"/>
       <c r="D293" s="80" t="s">
-        <v>702</v>
+        <v>282</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F293" s="15" t="s">
         <v>197</v>
       </c>
       <c r="G293" s="16"/>
       <c r="H293" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I293" s="28" t="s">
         <v>715</v>
@@ -20080,15 +20084,13 @@
       <c r="M293" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="N293" s="27" t="s">
-        <v>368</v>
-      </c>
+      <c r="N293" s="27"/>
       <c r="O293" s="27">
-        <v>4282774</v>
+        <v>2000000076</v>
       </c>
       <c r="P293" s="28" t="str">
         <f t="shared" si="22"/>
-        <v>Athena-4282774</v>
+        <v/>
       </c>
       <c r="Q293" s="27"/>
       <c r="R293" s="27"/>
@@ -20098,7 +20100,7 @@
       <c r="V293" s="27"/>
       <c r="W293" s="27"/>
       <c r="X293" s="27" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="294" spans="1:25" s="54" customFormat="1" ht="16">
@@ -20106,17 +20108,17 @@
       <c r="B294" s="16"/>
       <c r="C294" s="16"/>
       <c r="D294" s="80" t="s">
-        <v>282</v>
+        <v>780</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>293</v>
+        <v>781</v>
       </c>
       <c r="F294" s="15" t="s">
         <v>197</v>
       </c>
       <c r="G294" s="16"/>
       <c r="H294" s="104" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I294" s="28" t="s">
         <v>715</v>
@@ -20129,15 +20131,19 @@
       <c r="M294" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="N294" s="27"/>
+      <c r="N294" s="27" t="s">
+        <v>368</v>
+      </c>
       <c r="O294" s="27">
-        <v>2000000076</v>
+        <v>4056962</v>
       </c>
       <c r="P294" s="28" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="Q294" s="27"/>
+        <f t="shared" ref="P294" si="23">IF(N294&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O294), CONCATENATE("Athena-",O294)),"")</f>
+        <v>Athena-4056962</v>
+      </c>
+      <c r="Q294" s="27" t="s">
+        <v>782</v>
+      </c>
       <c r="R294" s="27"/>
       <c r="S294" s="27"/>
       <c r="T294" s="27"/>
@@ -20145,62 +20151,31 @@
       <c r="V294" s="27"/>
       <c r="W294" s="27"/>
       <c r="X294" s="27" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="295" spans="1:25" s="54" customFormat="1" ht="16">
-      <c r="A295" s="59"/>
-      <c r="B295" s="16"/>
-      <c r="C295" s="16"/>
-      <c r="D295" s="80" t="s">
-        <v>781</v>
-      </c>
-      <c r="E295" s="16" t="s">
-        <v>782</v>
-      </c>
-      <c r="F295" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="G295" s="16"/>
-      <c r="H295" s="104" t="s">
-        <v>762</v>
-      </c>
-      <c r="I295" s="28" t="s">
-        <v>715</v>
-      </c>
-      <c r="J295" s="16"/>
-      <c r="K295" s="27" t="s">
-        <v>337</v>
-      </c>
-      <c r="L295" s="16"/>
-      <c r="M295" s="27" t="s">
-        <v>374</v>
-      </c>
-      <c r="N295" s="27" t="s">
-        <v>368</v>
-      </c>
-      <c r="O295" s="27">
-        <v>4056962</v>
-      </c>
-      <c r="P295" s="28" t="str">
-        <f t="shared" ref="P295" si="23">IF(N295&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O295), CONCATENATE("Athena-",O295)),"")</f>
-        <v>Athena-4056962</v>
-      </c>
-      <c r="Q295" s="27" t="s">
-        <v>783</v>
-      </c>
-      <c r="R295" s="27"/>
-      <c r="S295" s="27"/>
-      <c r="T295" s="27"/>
-      <c r="U295" s="27"/>
-      <c r="V295" s="27"/>
-      <c r="W295" s="27"/>
-      <c r="X295" s="27" t="s">
-        <v>771</v>
-      </c>
-      <c r="Y295" s="54" t="s">
-        <v>785</v>
-      </c>
+        <v>770</v>
+      </c>
+      <c r="Y294" s="54" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="295" spans="1:25">
+      <c r="G295" s="23"/>
+      <c r="H295" s="34"/>
+      <c r="I295" s="34"/>
+      <c r="J295" s="23"/>
+      <c r="K295" s="40"/>
+      <c r="L295" s="23"/>
+      <c r="M295" s="40"/>
+      <c r="N295" s="40"/>
+      <c r="O295" s="40"/>
+      <c r="P295" s="40"/>
+      <c r="Q295" s="40"/>
+      <c r="R295" s="40"/>
+      <c r="S295" s="40"/>
+      <c r="T295" s="40"/>
+      <c r="U295" s="40"/>
+      <c r="V295" s="40"/>
+      <c r="W295" s="40"/>
+      <c r="X295" s="40"/>
     </row>
     <row r="296" spans="1:25">
       <c r="G296" s="23"/>
@@ -20564,23 +20539,23 @@
     </row>
     <row r="314" spans="7:24">
       <c r="G314" s="23"/>
-      <c r="H314" s="34"/>
-      <c r="I314" s="34"/>
+      <c r="H314" s="23"/>
+      <c r="I314" s="23"/>
       <c r="J314" s="23"/>
-      <c r="K314" s="40"/>
+      <c r="K314" s="23"/>
       <c r="L314" s="23"/>
-      <c r="M314" s="40"/>
-      <c r="N314" s="40"/>
-      <c r="O314" s="40"/>
-      <c r="P314" s="40"/>
-      <c r="Q314" s="40"/>
-      <c r="R314" s="40"/>
-      <c r="S314" s="40"/>
-      <c r="T314" s="40"/>
-      <c r="U314" s="40"/>
-      <c r="V314" s="40"/>
-      <c r="W314" s="40"/>
-      <c r="X314" s="40"/>
+      <c r="M314" s="23"/>
+      <c r="N314" s="23"/>
+      <c r="O314" s="23"/>
+      <c r="P314" s="23"/>
+      <c r="Q314" s="23"/>
+      <c r="R314" s="23"/>
+      <c r="S314" s="23"/>
+      <c r="T314" s="23"/>
+      <c r="U314" s="23"/>
+      <c r="V314" s="23"/>
+      <c r="W314" s="23"/>
+      <c r="X314" s="23"/>
     </row>
     <row r="315" spans="7:24">
       <c r="G315" s="23"/>
@@ -39621,26 +39596,6 @@
       <c r="V1266" s="23"/>
       <c r="W1266" s="23"/>
       <c r="X1266" s="23"/>
-    </row>
-    <row r="1267" spans="7:24">
-      <c r="G1267" s="23"/>
-      <c r="H1267" s="23"/>
-      <c r="I1267" s="23"/>
-      <c r="J1267" s="23"/>
-      <c r="K1267" s="23"/>
-      <c r="L1267" s="23"/>
-      <c r="M1267" s="23"/>
-      <c r="N1267" s="23"/>
-      <c r="O1267" s="23"/>
-      <c r="P1267" s="23"/>
-      <c r="Q1267" s="23"/>
-      <c r="R1267" s="23"/>
-      <c r="S1267" s="23"/>
-      <c r="T1267" s="23"/>
-      <c r="U1267" s="23"/>
-      <c r="V1267" s="23"/>
-      <c r="W1267" s="23"/>
-      <c r="X1267" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
@@ -39713,7 +39668,7 @@
         <v>359</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>361</v>
@@ -39728,7 +39683,7 @@
         <v>363</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>364</v>
@@ -39737,7 +39692,7 @@
         <v>365</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="W1" s="5" t="s">
         <v>440</v>
@@ -39746,12 +39701,12 @@
         <v>17</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="54" customFormat="1" ht="15">
       <c r="A2" s="75" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="6"/>
@@ -39783,17 +39738,17 @@
       <c r="B3" s="97"/>
       <c r="C3" s="97"/>
       <c r="D3" s="97" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E3" s="97" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F3" s="97" t="s">
         <v>197</v>
       </c>
       <c r="G3" s="97"/>
       <c r="H3" s="97" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I3" s="97" t="s">
         <v>715</v>
@@ -39819,7 +39774,7 @@
       <c r="V3" s="97"/>
       <c r="W3" s="97"/>
       <c r="X3" s="97" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="Y3" s="97"/>
     </row>
@@ -39828,17 +39783,17 @@
       <c r="B4" s="97"/>
       <c r="C4" s="97"/>
       <c r="D4" s="97" t="s">
+        <v>817</v>
+      </c>
+      <c r="E4" s="97" t="s">
         <v>818</v>
-      </c>
-      <c r="E4" s="97" t="s">
-        <v>819</v>
       </c>
       <c r="F4" s="97" t="s">
         <v>55</v>
       </c>
       <c r="G4" s="97"/>
       <c r="H4" s="97" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I4" s="97" t="s">
         <v>714</v>
@@ -39848,7 +39803,7 @@
         <v>337</v>
       </c>
       <c r="L4" s="109" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="M4" s="97" t="s">
         <v>374</v>
@@ -39862,13 +39817,13 @@
       <c r="R4" s="97"/>
       <c r="S4" s="97"/>
       <c r="T4" s="97" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="U4" s="97"/>
       <c r="V4" s="97"/>
       <c r="W4" s="97"/>
       <c r="X4" s="97" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="Y4" s="97"/>
     </row>
@@ -39877,17 +39832,17 @@
       <c r="B5" s="97"/>
       <c r="C5" s="97"/>
       <c r="D5" s="107" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E5" s="97" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F5" s="97" t="s">
         <v>197</v>
       </c>
       <c r="G5" s="97"/>
       <c r="H5" s="97" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I5" s="97" t="s">
         <v>715</v>
@@ -39913,7 +39868,7 @@
       <c r="V5" s="97"/>
       <c r="W5" s="97"/>
       <c r="X5" s="97" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="Y5" s="97"/>
     </row>
@@ -39922,17 +39877,17 @@
       <c r="B6" s="97"/>
       <c r="C6" s="97"/>
       <c r="D6" s="107" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E6" s="97" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F6" s="97" t="s">
         <v>197</v>
       </c>
       <c r="G6" s="97"/>
       <c r="H6" s="97" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I6" s="97" t="s">
         <v>715</v>
@@ -39958,7 +39913,7 @@
       <c r="V6" s="97"/>
       <c r="W6" s="97"/>
       <c r="X6" s="97" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="Y6" s="97"/>
     </row>
@@ -39967,17 +39922,17 @@
       <c r="B7" s="97"/>
       <c r="C7" s="97"/>
       <c r="D7" s="107" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E7" s="97" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F7" s="97" t="s">
         <v>197</v>
       </c>
       <c r="G7" s="97"/>
       <c r="H7" s="97" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I7" s="97" t="s">
         <v>715</v>
@@ -40003,7 +39958,7 @@
       <c r="V7" s="97"/>
       <c r="W7" s="97"/>
       <c r="X7" s="97" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="Y7" s="97"/>
     </row>
@@ -40012,17 +39967,17 @@
       <c r="B8" s="97"/>
       <c r="C8" s="97"/>
       <c r="D8" s="107" t="s">
+        <v>825</v>
+      </c>
+      <c r="E8" s="97" t="s">
         <v>826</v>
-      </c>
-      <c r="E8" s="97" t="s">
-        <v>827</v>
       </c>
       <c r="F8" s="97" t="s">
         <v>55</v>
       </c>
       <c r="G8" s="97"/>
       <c r="H8" s="97" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I8" s="97" t="s">
         <v>714</v>
@@ -40044,13 +39999,13 @@
       <c r="R8" s="97"/>
       <c r="S8" s="97"/>
       <c r="T8" s="97" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="U8" s="97"/>
       <c r="V8" s="97"/>
       <c r="W8" s="97"/>
       <c r="X8" s="97" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="Y8" s="97"/>
     </row>
@@ -40059,23 +40014,23 @@
       <c r="B9" s="97"/>
       <c r="C9" s="97"/>
       <c r="D9" s="107" t="s">
+        <v>827</v>
+      </c>
+      <c r="E9" s="97" t="s">
         <v>828</v>
-      </c>
-      <c r="E9" s="97" t="s">
-        <v>829</v>
       </c>
       <c r="F9" s="97" t="s">
         <v>197</v>
       </c>
       <c r="G9" s="97"/>
       <c r="H9" s="97" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I9" s="97" t="s">
         <v>715</v>
       </c>
       <c r="J9" s="97" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K9" s="97" t="s">
         <v>337</v>
@@ -40090,7 +40045,7 @@
       </c>
       <c r="P9" s="97"/>
       <c r="Q9" s="27" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="R9" s="27">
         <v>8555</v>
@@ -40103,7 +40058,7 @@
       <c r="V9" s="97"/>
       <c r="W9" s="97"/>
       <c r="X9" s="97" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="Y9" s="97"/>
     </row>
@@ -40112,17 +40067,17 @@
       <c r="B10" s="97"/>
       <c r="C10" s="97"/>
       <c r="D10" s="107" t="s">
+        <v>829</v>
+      </c>
+      <c r="E10" s="97" t="s">
         <v>830</v>
-      </c>
-      <c r="E10" s="97" t="s">
-        <v>831</v>
       </c>
       <c r="F10" s="97" t="s">
         <v>197</v>
       </c>
       <c r="G10" s="97"/>
       <c r="H10" s="97" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I10" s="97" t="s">
         <v>715</v>
@@ -40148,7 +40103,7 @@
       <c r="V10" s="97"/>
       <c r="W10" s="97"/>
       <c r="X10" s="97" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="Y10" s="97"/>
     </row>
@@ -40157,17 +40112,17 @@
       <c r="B11" s="97"/>
       <c r="C11" s="97"/>
       <c r="D11" s="107" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E11" s="97" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F11" s="97" t="s">
         <v>197</v>
       </c>
       <c r="G11" s="97"/>
       <c r="H11" s="97" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I11" s="97" t="s">
         <v>715</v>
@@ -40193,7 +40148,7 @@
       <c r="V11" s="97"/>
       <c r="W11" s="97"/>
       <c r="X11" s="97" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="Y11" s="97"/>
     </row>
@@ -40202,17 +40157,17 @@
       <c r="B12" s="97"/>
       <c r="C12" s="97"/>
       <c r="D12" s="107" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E12" s="97" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F12" s="97" t="s">
         <v>197</v>
       </c>
       <c r="G12" s="97"/>
       <c r="H12" s="97" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I12" s="97" t="s">
         <v>715</v>
@@ -40238,7 +40193,7 @@
       <c r="V12" s="97"/>
       <c r="W12" s="97"/>
       <c r="X12" s="97" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="Y12" s="97"/>
     </row>
@@ -40247,17 +40202,17 @@
       <c r="B13" s="97"/>
       <c r="C13" s="97"/>
       <c r="D13" s="107" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E13" s="97" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F13" s="97" t="s">
         <v>197</v>
       </c>
       <c r="G13" s="97"/>
       <c r="H13" s="97" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I13" s="97" t="s">
         <v>715</v>
@@ -40283,7 +40238,7 @@
       <c r="V13" s="97"/>
       <c r="W13" s="97"/>
       <c r="X13" s="97" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="Y13" s="97"/>
     </row>
@@ -40292,17 +40247,17 @@
       <c r="B14" s="97"/>
       <c r="C14" s="97"/>
       <c r="D14" s="107" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E14" s="97" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F14" s="97" t="s">
         <v>197</v>
       </c>
       <c r="G14" s="97"/>
       <c r="H14" s="97" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I14" s="97" t="s">
         <v>715</v>
@@ -40328,7 +40283,7 @@
       <c r="V14" s="97"/>
       <c r="W14" s="97"/>
       <c r="X14" s="97" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="Y14" s="97"/>
     </row>
@@ -40337,17 +40292,17 @@
       <c r="B15" s="97"/>
       <c r="C15" s="97"/>
       <c r="D15" s="107" t="s">
+        <v>839</v>
+      </c>
+      <c r="E15" s="97" t="s">
         <v>840</v>
-      </c>
-      <c r="E15" s="97" t="s">
-        <v>841</v>
       </c>
       <c r="F15" s="97" t="s">
         <v>197</v>
       </c>
       <c r="G15" s="97"/>
       <c r="H15" s="97" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I15" s="97" t="s">
         <v>714</v>
@@ -40373,7 +40328,7 @@
       <c r="V15" s="97"/>
       <c r="W15" s="97"/>
       <c r="X15" s="97" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="Y15" s="97"/>
     </row>
@@ -40382,17 +40337,17 @@
       <c r="B16" s="97"/>
       <c r="C16" s="97"/>
       <c r="D16" s="107" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E16" s="97" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F16" s="99" t="s">
         <v>55</v>
       </c>
       <c r="G16" s="99"/>
       <c r="H16" s="97" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I16" s="99" t="s">
         <v>714</v>
@@ -40414,13 +40369,13 @@
       <c r="R16" s="97"/>
       <c r="S16" s="97"/>
       <c r="T16" s="97" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="U16" s="97"/>
       <c r="V16" s="97"/>
       <c r="W16" s="97"/>
       <c r="X16" s="97" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="Y16" s="97"/>
     </row>
@@ -40429,17 +40384,17 @@
       <c r="B17" s="97"/>
       <c r="C17" s="97"/>
       <c r="D17" s="107" t="s">
+        <v>842</v>
+      </c>
+      <c r="E17" s="97" t="s">
         <v>843</v>
-      </c>
-      <c r="E17" s="97" t="s">
-        <v>844</v>
       </c>
       <c r="F17" s="97" t="s">
         <v>197</v>
       </c>
       <c r="G17" s="97"/>
       <c r="H17" s="97" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I17" s="97" t="s">
         <v>714</v>
@@ -40465,7 +40420,7 @@
       <c r="V17" s="97"/>
       <c r="W17" s="97"/>
       <c r="X17" s="97" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="Y17" s="97"/>
     </row>
@@ -40474,17 +40429,17 @@
       <c r="B18" s="97"/>
       <c r="C18" s="97"/>
       <c r="D18" s="107" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E18" s="97" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F18" s="97" t="s">
         <v>197</v>
       </c>
       <c r="G18" s="97"/>
       <c r="H18" s="97" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I18" s="97" t="s">
         <v>714</v>
@@ -40510,7 +40465,7 @@
       <c r="V18" s="97"/>
       <c r="W18" s="97"/>
       <c r="X18" s="97" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="Y18" s="97"/>
     </row>
@@ -40519,17 +40474,17 @@
       <c r="B19" s="97"/>
       <c r="C19" s="97"/>
       <c r="D19" s="107" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E19" s="97" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F19" s="97" t="s">
         <v>197</v>
       </c>
       <c r="G19" s="97"/>
       <c r="H19" s="97" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I19" s="97" t="s">
         <v>714</v>
@@ -40555,7 +40510,7 @@
       <c r="V19" s="97"/>
       <c r="W19" s="97"/>
       <c r="X19" s="97" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="Y19" s="97"/>
     </row>
@@ -40564,23 +40519,23 @@
       <c r="B20" s="97"/>
       <c r="C20" s="97"/>
       <c r="D20" s="107" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E20" s="97" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F20" s="97" t="s">
         <v>197</v>
       </c>
       <c r="G20" s="97"/>
       <c r="H20" s="97" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I20" s="97" t="s">
         <v>714</v>
       </c>
       <c r="J20" s="97" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K20" s="97" t="s">
         <v>337</v>
@@ -40595,7 +40550,7 @@
       </c>
       <c r="P20" s="97"/>
       <c r="Q20" s="27" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="R20" s="27">
         <v>8555</v>
@@ -40608,7 +40563,7 @@
       <c r="V20" s="97"/>
       <c r="W20" s="97"/>
       <c r="X20" s="97" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="Y20" s="97"/>
     </row>
@@ -40617,23 +40572,23 @@
       <c r="B21" s="97"/>
       <c r="C21" s="97"/>
       <c r="D21" s="107" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E21" s="97" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F21" s="97" t="s">
         <v>197</v>
       </c>
       <c r="G21" s="97"/>
       <c r="H21" s="97" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I21" s="97" t="s">
         <v>714</v>
       </c>
       <c r="J21" s="97" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K21" s="97" t="s">
         <v>337</v>
@@ -40648,7 +40603,7 @@
       </c>
       <c r="P21" s="97"/>
       <c r="Q21" s="27" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="R21" s="27">
         <v>8555</v>
@@ -40661,7 +40616,7 @@
       <c r="V21" s="97"/>
       <c r="W21" s="97"/>
       <c r="X21" s="97" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="Y21" s="97"/>
     </row>
@@ -40670,17 +40625,17 @@
       <c r="B22" s="97"/>
       <c r="C22" s="97"/>
       <c r="D22" s="107" t="s">
+        <v>859</v>
+      </c>
+      <c r="E22" s="97" t="s">
         <v>860</v>
-      </c>
-      <c r="E22" s="97" t="s">
-        <v>861</v>
       </c>
       <c r="F22" s="99" t="s">
         <v>55</v>
       </c>
       <c r="G22" s="99"/>
       <c r="H22" s="97" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I22" s="99" t="s">
         <v>714</v>
@@ -40702,13 +40657,13 @@
       <c r="R22" s="97"/>
       <c r="S22" s="97"/>
       <c r="T22" s="97" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="U22" s="97"/>
       <c r="V22" s="97"/>
       <c r="W22" s="97"/>
       <c r="X22" s="97" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="Y22" s="97"/>
     </row>
@@ -40717,23 +40672,23 @@
       <c r="B23" s="97"/>
       <c r="C23" s="97"/>
       <c r="D23" s="107" t="s">
+        <v>861</v>
+      </c>
+      <c r="E23" s="108" t="s">
         <v>862</v>
-      </c>
-      <c r="E23" s="108" t="s">
-        <v>863</v>
       </c>
       <c r="F23" s="97" t="s">
         <v>197</v>
       </c>
       <c r="G23" s="97"/>
       <c r="H23" s="97" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I23" s="97" t="s">
         <v>714</v>
       </c>
       <c r="J23" s="97" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K23" s="97" t="s">
         <v>337</v>
@@ -40748,7 +40703,7 @@
       </c>
       <c r="P23" s="97"/>
       <c r="Q23" s="27" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="R23" s="27">
         <v>8555</v>
@@ -40761,7 +40716,7 @@
       <c r="V23" s="97"/>
       <c r="W23" s="97"/>
       <c r="X23" s="97" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="Y23" s="97"/>
     </row>
@@ -40770,17 +40725,17 @@
       <c r="B24" s="97"/>
       <c r="C24" s="97"/>
       <c r="D24" s="107" t="s">
+        <v>863</v>
+      </c>
+      <c r="E24" s="97" t="s">
         <v>864</v>
-      </c>
-      <c r="E24" s="97" t="s">
-        <v>865</v>
       </c>
       <c r="F24" s="99" t="s">
         <v>55</v>
       </c>
       <c r="G24" s="99"/>
       <c r="H24" s="97" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I24" s="99" t="s">
         <v>714</v>
@@ -40802,13 +40757,13 @@
       <c r="R24" s="97"/>
       <c r="S24" s="97"/>
       <c r="T24" s="97" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="U24" s="97"/>
       <c r="V24" s="97"/>
       <c r="W24" s="97"/>
       <c r="X24" s="97" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="Y24" s="97"/>
     </row>
@@ -40817,23 +40772,23 @@
       <c r="B25" s="97"/>
       <c r="C25" s="97"/>
       <c r="D25" s="107" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E25" s="97" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F25" s="97" t="s">
         <v>197</v>
       </c>
       <c r="G25" s="97"/>
       <c r="H25" s="97" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I25" s="97" t="s">
         <v>714</v>
       </c>
       <c r="J25" s="97" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K25" s="97" t="s">
         <v>337</v>
@@ -40848,7 +40803,7 @@
       </c>
       <c r="P25" s="97"/>
       <c r="Q25" s="27" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="R25" s="27">
         <v>8555</v>
@@ -40861,7 +40816,7 @@
       <c r="V25" s="97"/>
       <c r="W25" s="97"/>
       <c r="X25" s="97" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="Y25" s="97"/>
     </row>
@@ -40870,23 +40825,23 @@
       <c r="B26" s="97"/>
       <c r="C26" s="97"/>
       <c r="D26" s="107" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E26" s="97" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F26" s="97" t="s">
         <v>197</v>
       </c>
       <c r="G26" s="97"/>
       <c r="H26" s="97" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I26" s="97" t="s">
         <v>714</v>
       </c>
       <c r="J26" s="97" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K26" s="97" t="s">
         <v>337</v>
@@ -40901,7 +40856,7 @@
       </c>
       <c r="P26" s="97"/>
       <c r="Q26" s="27" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="R26" s="27">
         <v>8555</v>
@@ -40914,7 +40869,7 @@
       <c r="V26" s="97"/>
       <c r="W26" s="97"/>
       <c r="X26" s="97" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="Y26" s="97"/>
     </row>
@@ -40923,23 +40878,23 @@
       <c r="B27" s="97"/>
       <c r="C27" s="97"/>
       <c r="D27" s="107" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E27" s="97" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F27" s="97" t="s">
         <v>197</v>
       </c>
       <c r="G27" s="97"/>
       <c r="H27" s="97" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I27" s="97" t="s">
         <v>714</v>
       </c>
       <c r="J27" s="97" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K27" s="97" t="s">
         <v>337</v>
@@ -40954,7 +40909,7 @@
       </c>
       <c r="P27" s="97"/>
       <c r="Q27" s="27" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="R27" s="27">
         <v>8555</v>
@@ -40967,7 +40922,7 @@
       <c r="V27" s="97"/>
       <c r="W27" s="97"/>
       <c r="X27" s="97" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="Y27" s="97"/>
     </row>
@@ -40976,23 +40931,23 @@
       <c r="B28" s="97"/>
       <c r="C28" s="97"/>
       <c r="D28" s="107" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E28" s="97" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F28" s="97" t="s">
         <v>197</v>
       </c>
       <c r="G28" s="97"/>
       <c r="H28" s="97" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I28" s="97" t="s">
         <v>714</v>
       </c>
       <c r="J28" s="97" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K28" s="97" t="s">
         <v>337</v>
@@ -41007,7 +40962,7 @@
       </c>
       <c r="P28" s="97"/>
       <c r="Q28" s="27" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="R28" s="27">
         <v>8555</v>
@@ -41020,7 +40975,7 @@
       <c r="V28" s="97"/>
       <c r="W28" s="97"/>
       <c r="X28" s="97" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="Y28" s="97"/>
     </row>
@@ -41029,23 +40984,23 @@
       <c r="B29" s="97"/>
       <c r="C29" s="97"/>
       <c r="D29" s="107" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E29" s="97" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F29" s="97" t="s">
         <v>197</v>
       </c>
       <c r="G29" s="97"/>
       <c r="H29" s="97" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I29" s="97" t="s">
         <v>714</v>
       </c>
       <c r="J29" s="97" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K29" s="97" t="s">
         <v>337</v>
@@ -41060,7 +41015,7 @@
       </c>
       <c r="P29" s="97"/>
       <c r="Q29" s="27" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="R29" s="27">
         <v>8555</v>
@@ -41073,7 +41028,7 @@
       <c r="V29" s="97"/>
       <c r="W29" s="97"/>
       <c r="X29" s="97" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="Y29" s="97"/>
     </row>
@@ -41082,23 +41037,23 @@
       <c r="B30" s="97"/>
       <c r="C30" s="97"/>
       <c r="D30" s="107" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E30" s="97" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F30" s="97" t="s">
         <v>197</v>
       </c>
       <c r="G30" s="97"/>
       <c r="H30" s="97" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I30" s="97" t="s">
         <v>714</v>
       </c>
       <c r="J30" s="97" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K30" s="97" t="s">
         <v>337</v>
@@ -41113,7 +41068,7 @@
       </c>
       <c r="P30" s="97"/>
       <c r="Q30" s="27" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="R30" s="27">
         <v>8555</v>
@@ -41126,7 +41081,7 @@
       <c r="V30" s="97"/>
       <c r="W30" s="97"/>
       <c r="X30" s="97" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="Y30" s="97"/>
     </row>

--- a/ncdc_mappings/ncdc_minimal_dataset.xlsx
+++ b/ncdc_mappings/ncdc_minimal_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://maastro-my.sharepoint.com/personal/pedro_mateus_maastro_nl/Documents/Pedro Files/Data Harmonization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{CFD7E28C-48FE-9D4B-9FBD-FF4601B5D85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19DF61AA-A392-A042-929C-AD5531E42E2C}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{CFD7E28C-48FE-9D4B-9FBD-FF4601B5D85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BACBD9F7-2791-224F-9B2F-4236BA550120}"/>
   <bookViews>
     <workbookView xWindow="2960" yWindow="500" windowWidth="33600" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -302,7 +302,7 @@
     Stroop test - 4136943</t>
       </text>
     </comment>
-    <comment ref="D189" authorId="25" shapeId="0" xr:uid="{914F52AC-FC72-B54D-B9E0-C97695244E94}">
+    <comment ref="D195" authorId="25" shapeId="0" xr:uid="{914F52AC-FC72-B54D-B9E0-C97695244E94}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -310,7 +310,7 @@
     Nebraska Voc.: 3168054</t>
       </text>
     </comment>
-    <comment ref="D194" authorId="26" shapeId="0" xr:uid="{6A389820-1552-134D-B136-21EA4EDF8457}">
+    <comment ref="D200" authorId="26" shapeId="0" xr:uid="{6A389820-1552-134D-B136-21EA4EDF8457}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -318,7 +318,7 @@
     The VAT contains six variants: Short Forms A, B, C, and D (6 items each), and two Long Forms (12 items each: combinations of Short Forms A amp; B and Forms C amp; D)</t>
       </text>
     </comment>
-    <comment ref="D197" authorId="27" shapeId="0" xr:uid="{C933C363-9553-E942-ACD3-527A51429678}">
+    <comment ref="D203" authorId="27" shapeId="0" xr:uid="{C933C363-9553-E942-ACD3-527A51429678}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -326,7 +326,7 @@
     From SNOMED: 4145250</t>
       </text>
     </comment>
-    <comment ref="D198" authorId="28" shapeId="0" xr:uid="{685BE208-102B-4745-B64F-E2C8E1A2AEC5}">
+    <comment ref="D204" authorId="28" shapeId="0" xr:uid="{685BE208-102B-4745-B64F-E2C8E1A2AEC5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -334,7 +334,7 @@
     From SNOMED: 4169175</t>
       </text>
     </comment>
-    <comment ref="D209" authorId="29" shapeId="0" xr:uid="{E6E8D11F-AB9E-5B48-AF0E-DDDA97FEC325}">
+    <comment ref="D215" authorId="29" shapeId="0" xr:uid="{E6E8D11F-AB9E-5B48-AF0E-DDDA97FEC325}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -342,7 +342,7 @@
     Nebraska Voc.: 3168054</t>
       </text>
     </comment>
-    <comment ref="D217" authorId="30" shapeId="0" xr:uid="{643216D6-EB4C-7A45-84AD-FA20AF72AF5A}">
+    <comment ref="D223" authorId="30" shapeId="0" xr:uid="{643216D6-EB4C-7A45-84AD-FA20AF72AF5A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -354,7 +354,7 @@
     However, storing the information for 2 different times may be confusing. Probably the one that falls in the interval 20-30 minutes will be more suitable</t>
       </text>
     </comment>
-    <comment ref="D218" authorId="31" shapeId="0" xr:uid="{7B408D37-7963-244B-BBC8-4A2BD19C9A8C}">
+    <comment ref="D224" authorId="31" shapeId="0" xr:uid="{7B408D37-7963-244B-BBC8-4A2BD19C9A8C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -366,7 +366,7 @@
     However, storing the information for 2 different times may be confusing. Probably the one that falls in the interval 20-30 minutes will be more suitable</t>
       </text>
     </comment>
-    <comment ref="D258" authorId="32" shapeId="0" xr:uid="{6A958D43-89AC-C443-90B2-E839939ED9BB}">
+    <comment ref="D264" authorId="32" shapeId="0" xr:uid="{6A958D43-89AC-C443-90B2-E839939ED9BB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -374,7 +374,7 @@
     Generic concept only from SNOMED for the Boston Naming Test: 4164808</t>
       </text>
     </comment>
-    <comment ref="O280" authorId="33" shapeId="0" xr:uid="{C21DF866-3B02-8D43-BDB4-19473A2B92EE}">
+    <comment ref="O286" authorId="33" shapeId="0" xr:uid="{C21DF866-3B02-8D43-BDB4-19473A2B92EE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -382,7 +382,7 @@
     Observation (SNOMED): 4136437</t>
       </text>
     </comment>
-    <comment ref="O281" authorId="34" shapeId="0" xr:uid="{6D0CD4A8-48D1-4246-9DC1-32FEBE702D51}">
+    <comment ref="O287" authorId="34" shapeId="0" xr:uid="{6D0CD4A8-48D1-4246-9DC1-32FEBE702D51}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -390,7 +390,7 @@
     Observation (SNOMED) 45768724</t>
       </text>
     </comment>
-    <comment ref="O282" authorId="35" shapeId="0" xr:uid="{B59C5FEF-8EFD-C648-A78A-AFBCA7EF7266}">
+    <comment ref="O288" authorId="35" shapeId="0" xr:uid="{B59C5FEF-8EFD-C648-A78A-AFBCA7EF7266}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -398,7 +398,7 @@
     Observation (SNOMED) 45768723</t>
       </text>
     </comment>
-    <comment ref="O284" authorId="36" shapeId="0" xr:uid="{BCD976E6-B6D9-D546-9016-DBD9D0F54E91}">
+    <comment ref="O290" authorId="36" shapeId="0" xr:uid="{BCD976E6-B6D9-D546-9016-DBD9D0F54E91}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -406,7 +406,7 @@
     Observation (SNOMED) 4079321</t>
       </text>
     </comment>
-    <comment ref="O285" authorId="37" shapeId="0" xr:uid="{DFA827BB-C401-AD42-9C05-074FE05BA8AF}">
+    <comment ref="O291" authorId="37" shapeId="0" xr:uid="{DFA827BB-C401-AD42-9C05-074FE05BA8AF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -416,7 +416,7 @@
     4299446</t>
       </text>
     </comment>
-    <comment ref="O286" authorId="38" shapeId="0" xr:uid="{8B270D9A-52A2-8745-B447-8EF3342DED56}">
+    <comment ref="O292" authorId="38" shapeId="0" xr:uid="{8B270D9A-52A2-8745-B447-8EF3342DED56}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -424,7 +424,7 @@
     Observation (SNOMED) 4012274</t>
       </text>
     </comment>
-    <comment ref="O287" authorId="39" shapeId="0" xr:uid="{48DC908A-650A-A142-B529-8C8185B7B723}">
+    <comment ref="O293" authorId="39" shapeId="0" xr:uid="{48DC908A-650A-A142-B529-8C8185B7B723}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -435,7 +435,7 @@
     Observation (SNOMED) - 4221816 (referes to the component itself)</t>
       </text>
     </comment>
-    <comment ref="D293" authorId="40" shapeId="0" xr:uid="{70609BE4-D9A6-3145-A3F3-5832E54D4EE2}">
+    <comment ref="D299" authorId="40" shapeId="0" xr:uid="{70609BE4-D9A6-3145-A3F3-5832E54D4EE2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -700,7 +700,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4573" uniqueCount="957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4622" uniqueCount="965">
   <si>
     <t>Main category</t>
   </si>
@@ -3402,31 +3402,7 @@
     <t>0;1;2;3;4;5;6;7</t>
   </si>
   <si>
-    <t>Attention_test_stroop_1_errors</t>
-  </si>
-  <si>
-    <t>Attention_test_stroop_2_errors</t>
-  </si>
-  <si>
-    <t>Attention_test_stroop_1_time</t>
-  </si>
-  <si>
-    <t>Attention_test_stroop_2_time</t>
-  </si>
-  <si>
-    <t>Attention_test_sdst_errors</t>
-  </si>
-  <si>
-    <t>Attention_test_ldst_errors</t>
-  </si>
-  <si>
     <t>Priority_memory_im_15_word_list_errors</t>
-  </si>
-  <si>
-    <t>Attention_test_sdst_correct</t>
-  </si>
-  <si>
-    <t>Attention_test_ldst_correct</t>
   </si>
   <si>
     <t>Priority_memory_dr_15_word_list_errors</t>
@@ -3595,21 +3571,6 @@
     <t>WAIS-III digit span forward</t>
   </si>
   <si>
-    <t>Priority_language_animal_fluency_1_correct</t>
-  </si>
-  <si>
-    <t>Priority_language_animal_fluency_1_errors</t>
-  </si>
-  <si>
-    <t>Priority_language_verbal_fluency_1</t>
-  </si>
-  <si>
-    <t>Priority_language_animal_fluency_2_correct</t>
-  </si>
-  <si>
-    <t>Priority_language_animal_fluency_2_errors</t>
-  </si>
-  <si>
     <t>Animals Fluency 2 min</t>
   </si>
   <si>
@@ -3617,6 +3578,69 @@
   </si>
   <si>
     <t>Priority test for language from Animal Fluency 2 min - incorrect</t>
+  </si>
+  <si>
+    <t>Attention_test_sdst_60_correct</t>
+  </si>
+  <si>
+    <t>Attention_test_sdst_60_errors</t>
+  </si>
+  <si>
+    <t>Attention_test_sdst_120_correct</t>
+  </si>
+  <si>
+    <t>Attention_test_sdst_120_errors</t>
+  </si>
+  <si>
+    <t>Attention_test_ldst_60_correct</t>
+  </si>
+  <si>
+    <t>Attention_test_ldst_60_errors</t>
+  </si>
+  <si>
+    <t>Attention_test_ldst_30_correct</t>
+  </si>
+  <si>
+    <t>Attention_test_ldst_30_errors</t>
+  </si>
+  <si>
+    <t>Attention_test_ldst_90_correct</t>
+  </si>
+  <si>
+    <t>Attention_test_ldst_90_errors</t>
+  </si>
+  <si>
+    <t>Priority_language_animal_fluency_60_correct</t>
+  </si>
+  <si>
+    <t>Priority_language_animal_fluency_60_errors</t>
+  </si>
+  <si>
+    <t>Priority_language_animal_fluency_120_correct</t>
+  </si>
+  <si>
+    <t>Priority_language_animal_fluency_120_errors</t>
+  </si>
+  <si>
+    <t>Priority_language_category_fluency_60</t>
+  </si>
+  <si>
+    <t>Priority_language_letter_fluency_60</t>
+  </si>
+  <si>
+    <t>Priority_language_verbal_fluency_60</t>
+  </si>
+  <si>
+    <t>Attention_test_stroop_1_time</t>
+  </si>
+  <si>
+    <t>Attention_test_stroop_1_errors</t>
+  </si>
+  <si>
+    <t>Attention_test_stroop_2_time</t>
+  </si>
+  <si>
+    <t>Attention_test_stroop_2_errors</t>
   </si>
 </sst>
 </file>
@@ -5755,71 +5779,71 @@
   <threadedComment ref="E173" dT="2021-07-05T15:34:33.85" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{B7328D09-6363-8249-B2CF-C73EFDCB0D08}">
     <text>Stroop test - 4136943</text>
   </threadedComment>
-  <threadedComment ref="D189" dT="2021-07-05T16:01:17.53" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{914F52AC-FC72-B54D-B9E0-C97695244E94}">
+  <threadedComment ref="D195" dT="2021-07-05T16:01:17.53" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{914F52AC-FC72-B54D-B9E0-C97695244E94}">
     <text>Nebraska Voc.: 3168054</text>
   </threadedComment>
-  <threadedComment ref="D194" dT="2021-07-19T16:39:47.06" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{6A389820-1552-134D-B136-21EA4EDF8457}">
+  <threadedComment ref="D200" dT="2021-07-19T16:39:47.06" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{6A389820-1552-134D-B136-21EA4EDF8457}">
     <text>The VAT contains six variants: Short Forms A, B, C, and D (6 items each), and two Long Forms (12 items each: combinations of Short Forms A amp; B and Forms C amp; D)</text>
   </threadedComment>
-  <threadedComment ref="D197" dT="2021-07-05T16:23:05.54" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{C933C363-9553-E942-ACD3-527A51429678}">
+  <threadedComment ref="D203" dT="2021-07-05T16:23:05.54" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{C933C363-9553-E942-ACD3-527A51429678}">
     <text>From SNOMED: 4145250</text>
   </threadedComment>
-  <threadedComment ref="D198" dT="2021-07-05T16:23:19.00" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{685BE208-102B-4745-B64F-E2C8E1A2AEC5}">
+  <threadedComment ref="D204" dT="2021-07-05T16:23:19.00" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{685BE208-102B-4745-B64F-E2C8E1A2AEC5}">
     <text>From SNOMED: 4169175</text>
   </threadedComment>
-  <threadedComment ref="D209" dT="2021-07-05T16:01:17.53" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{E6E8D11F-AB9E-5B48-AF0E-DDDA97FEC325}">
+  <threadedComment ref="D215" dT="2021-07-05T16:01:17.53" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{E6E8D11F-AB9E-5B48-AF0E-DDDA97FEC325}">
     <text>Nebraska Voc.: 3168054</text>
   </threadedComment>
-  <threadedComment ref="D217" dT="2021-07-19T16:00:31.63" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{643216D6-EB4C-7A45-84AD-FA20AF72AF5A}">
+  <threadedComment ref="D223" dT="2021-07-19T16:00:31.63" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{643216D6-EB4C-7A45-84AD-FA20AF72AF5A}">
     <text>Where to include the time taken until evaluation? E.g. for the EMIF twins there are two times available</text>
   </threadedComment>
-  <threadedComment ref="D217" dT="2021-07-19T16:04:08.94" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{D25A48A7-9F2B-2A49-AEC8-146EED0955E5}" parentId="{643216D6-EB4C-7A45-84AD-FA20AF72AF5A}">
+  <threadedComment ref="D223" dT="2021-07-19T16:04:08.94" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{D25A48A7-9F2B-2A49-AEC8-146EED0955E5}" parentId="{643216D6-EB4C-7A45-84AD-FA20AF72AF5A}">
     <text>Can be included as additional information</text>
   </threadedComment>
-  <threadedComment ref="D217" dT="2021-07-19T16:04:57.29" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{34F2BCE9-CC7C-4D44-9715-454A2E9CFE24}" parentId="{643216D6-EB4C-7A45-84AD-FA20AF72AF5A}">
+  <threadedComment ref="D223" dT="2021-07-19T16:04:57.29" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{34F2BCE9-CC7C-4D44-9715-454A2E9CFE24}" parentId="{643216D6-EB4C-7A45-84AD-FA20AF72AF5A}">
     <text>However, storing the information for 2 different times may be confusing. Probably the one that falls in the interval 20-30 minutes will be more suitable</text>
   </threadedComment>
-  <threadedComment ref="D218" dT="2021-07-19T16:00:31.63" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{7B408D37-7963-244B-BBC8-4A2BD19C9A8C}">
+  <threadedComment ref="D224" dT="2021-07-19T16:00:31.63" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{7B408D37-7963-244B-BBC8-4A2BD19C9A8C}">
     <text>Where to include the time taken until evaluation? E.g. for the EMIF twins there are two times available</text>
   </threadedComment>
-  <threadedComment ref="D218" dT="2021-07-19T16:04:08.94" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{6C7AA819-3788-8E42-860E-28922E8F4385}" parentId="{7B408D37-7963-244B-BBC8-4A2BD19C9A8C}">
+  <threadedComment ref="D224" dT="2021-07-19T16:04:08.94" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{6C7AA819-3788-8E42-860E-28922E8F4385}" parentId="{7B408D37-7963-244B-BBC8-4A2BD19C9A8C}">
     <text>Can be included as additional information</text>
   </threadedComment>
-  <threadedComment ref="D218" dT="2021-07-19T16:04:57.29" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{75CAA762-6AD4-934F-A0AD-B9AFDD6D31E9}" parentId="{7B408D37-7963-244B-BBC8-4A2BD19C9A8C}">
+  <threadedComment ref="D224" dT="2021-07-19T16:04:57.29" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{75CAA762-6AD4-934F-A0AD-B9AFDD6D31E9}" parentId="{7B408D37-7963-244B-BBC8-4A2BD19C9A8C}">
     <text>However, storing the information for 2 different times may be confusing. Probably the one that falls in the interval 20-30 minutes will be more suitable</text>
   </threadedComment>
-  <threadedComment ref="D258" dT="2021-07-08T14:57:23.15" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{6A958D43-89AC-C443-90B2-E839939ED9BB}">
+  <threadedComment ref="D264" dT="2021-07-08T14:57:23.15" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{6A958D43-89AC-C443-90B2-E839939ED9BB}">
     <text>Generic concept only from SNOMED for the Boston Naming Test: 4164808</text>
   </threadedComment>
-  <threadedComment ref="O280" dT="2021-10-27T15:56:51.26" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{C21DF866-3B02-8D43-BDB4-19473A2B92EE}">
+  <threadedComment ref="O286" dT="2021-10-27T15:56:51.26" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{C21DF866-3B02-8D43-BDB4-19473A2B92EE}">
     <text>Observation (SNOMED): 4136437</text>
   </threadedComment>
-  <threadedComment ref="O281" dT="2021-10-27T15:57:10.76" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{6D0CD4A8-48D1-4246-9DC1-32FEBE702D51}">
+  <threadedComment ref="O287" dT="2021-10-27T15:57:10.76" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{6D0CD4A8-48D1-4246-9DC1-32FEBE702D51}">
     <text>Observation (SNOMED) 45768724</text>
   </threadedComment>
-  <threadedComment ref="O282" dT="2021-10-27T15:59:18.03" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{B59C5FEF-8EFD-C648-A78A-AFBCA7EF7266}">
+  <threadedComment ref="O288" dT="2021-10-27T15:59:18.03" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{B59C5FEF-8EFD-C648-A78A-AFBCA7EF7266}">
     <text>Observation (SNOMED) 45768723</text>
   </threadedComment>
-  <threadedComment ref="O284" dT="2021-10-27T16:01:02.13" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{BCD976E6-B6D9-D546-9016-DBD9D0F54E91}">
+  <threadedComment ref="O290" dT="2021-10-27T16:01:02.13" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{BCD976E6-B6D9-D546-9016-DBD9D0F54E91}">
     <text>Observation (SNOMED) 4079321</text>
   </threadedComment>
-  <threadedComment ref="O285" dT="2021-07-02T12:24:20.39" personId="{98691CDF-5915-8B45-A1D3-22E1ADD8314B}" id="{DFA827BB-C401-AD42-9C05-074FE05BA8AF}">
+  <threadedComment ref="O291" dT="2021-07-02T12:24:20.39" personId="{98691CDF-5915-8B45-A1D3-22E1ADD8314B}" id="{DFA827BB-C401-AD42-9C05-074FE05BA8AF}">
     <text>Matches to “Neurofilament protein” - no clear match to NFL, maybe a new concept or the link to the ontology can be enough?</text>
   </threadedComment>
-  <threadedComment ref="O285" dT="2021-10-27T16:04:29.90" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{236EE8B4-0B5A-B546-910E-201CC41AB22E}" parentId="{DFA827BB-C401-AD42-9C05-074FE05BA8AF}">
+  <threadedComment ref="O291" dT="2021-10-27T16:04:29.90" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{236EE8B4-0B5A-B546-910E-201CC41AB22E}" parentId="{DFA827BB-C401-AD42-9C05-074FE05BA8AF}">
     <text>4299446</text>
   </threadedComment>
-  <threadedComment ref="O286" dT="2021-10-27T16:05:33.61" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{8B270D9A-52A2-8745-B447-8EF3342DED56}">
+  <threadedComment ref="O292" dT="2021-10-27T16:05:33.61" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{8B270D9A-52A2-8745-B447-8EF3342DED56}">
     <text>Observation (SNOMED) 4012274</text>
   </threadedComment>
-  <threadedComment ref="O287" dT="2021-10-27T16:07:09.40" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{48DC908A-650A-A142-B529-8C8185B7B723}">
+  <threadedComment ref="O293" dT="2021-10-27T16:07:09.40" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{48DC908A-650A-A142-B529-8C8185B7B723}">
     <text>Measurement meaning - Measurement of concentration of amyloid A in serum specimen (procedure)
 Serum amyloid A concentratio</text>
   </threadedComment>
-  <threadedComment ref="O287" dT="2021-10-27T16:07:50.16" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{475E4E61-9156-CF48-A078-B50A8EE3149D}" parentId="{48DC908A-650A-A142-B529-8C8185B7B723}">
+  <threadedComment ref="O293" dT="2021-10-27T16:07:50.16" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{475E4E61-9156-CF48-A078-B50A8EE3149D}" parentId="{48DC908A-650A-A142-B529-8C8185B7B723}">
     <text>Observation (SNOMED) - 4221816 (referes to the component itself)</text>
   </threadedComment>
-  <threadedComment ref="D293" dT="2021-07-02T12:47:45.50" personId="{98691CDF-5915-8B45-A1D3-22E1ADD8314B}" id="{70609BE4-D9A6-3145-A3F3-5832E54D4EE2}">
+  <threadedComment ref="D299" dT="2021-07-02T12:47:45.50" personId="{98691CDF-5915-8B45-A1D3-22E1ADD8314B}" id="{70609BE4-D9A6-3145-A3F3-5832E54D4EE2}">
     <text>All these fields require more information. Probably they represent measurements but more complete information is required to clearly identify what’s being measured/how and the units.</text>
   </threadedComment>
 </ThreadedComments>
@@ -5927,11 +5951,11 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:Y1266"/>
+  <dimension ref="A1:Y1272"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="89" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A258" sqref="A258:XFD258"/>
+      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D177" sqref="D177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17"/>
@@ -9421,10 +9445,10 @@
       </c>
       <c r="C72" s="15"/>
       <c r="D72" s="15" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="F72" s="15" t="s">
         <v>55</v>
@@ -9443,7 +9467,7 @@
         <v>337</v>
       </c>
       <c r="L72" s="16" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="M72" s="27" t="s">
         <v>367</v>
@@ -10583,10 +10607,10 @@
       </c>
       <c r="C93" s="15"/>
       <c r="D93" s="15" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="F93" s="15" t="s">
         <v>197</v>
@@ -12978,13 +13002,13 @@
       <c r="A141" s="59"/>
       <c r="B141" s="72"/>
       <c r="C141" s="27" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="D141" s="83" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="E141" s="87" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="F141" s="27" t="s">
         <v>309</v>
@@ -13029,13 +13053,13 @@
       <c r="A142" s="59"/>
       <c r="B142" s="72"/>
       <c r="C142" s="27" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="D142" s="83" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="E142" s="87" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="F142" s="27" t="s">
         <v>309</v>
@@ -14456,7 +14480,7 @@
         <v>553</v>
       </c>
       <c r="D173" s="84" t="s">
-        <v>888</v>
+        <v>961</v>
       </c>
       <c r="E173" s="84" t="s">
         <v>765</v>
@@ -14484,7 +14508,7 @@
         <v>2000000030</v>
       </c>
       <c r="P173" s="28" t="str">
-        <f t="shared" ref="P173:P194" si="9">IF(N173&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O173), CONCATENATE("Athena-",O173)),"")</f>
+        <f t="shared" ref="P173:P200" si="9">IF(N173&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O173), CONCATENATE("Athena-",O173)),"")</f>
         <v/>
       </c>
       <c r="Q173" s="27" t="s">
@@ -14509,7 +14533,7 @@
       <c r="B174" s="67"/>
       <c r="C174" s="45"/>
       <c r="D174" s="84" t="s">
-        <v>886</v>
+        <v>962</v>
       </c>
       <c r="E174" s="84" t="s">
         <v>766</v>
@@ -14555,7 +14579,7 @@
         <v>554</v>
       </c>
       <c r="D175" s="84" t="s">
-        <v>889</v>
+        <v>963</v>
       </c>
       <c r="E175" s="84" t="s">
         <v>767</v>
@@ -14608,7 +14632,7 @@
       <c r="B176" s="67"/>
       <c r="C176" s="45"/>
       <c r="D176" s="84" t="s">
-        <v>887</v>
+        <v>964</v>
       </c>
       <c r="E176" s="84" t="s">
         <v>768</v>
@@ -14748,7 +14772,7 @@
         <v>555</v>
       </c>
       <c r="D179" s="84" t="s">
-        <v>893</v>
+        <v>944</v>
       </c>
       <c r="E179" s="83" t="s">
         <v>869</v>
@@ -14795,7 +14819,7 @@
       <c r="B180" s="67"/>
       <c r="C180" s="45"/>
       <c r="D180" s="84" t="s">
-        <v>890</v>
+        <v>945</v>
       </c>
       <c r="E180" s="83" t="s">
         <v>880</v>
@@ -14823,7 +14847,7 @@
         <v>2000000120</v>
       </c>
       <c r="P180" s="28" t="str">
-        <f t="shared" ref="P180" si="11">IF(N180&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O180), CONCATENATE("Athena-",O180)),"")</f>
+        <f t="shared" ref="P180:P181" si="11">IF(N180&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O180), CONCATENATE("Athena-",O180)),"")</f>
         <v/>
       </c>
       <c r="Q180" s="27"/>
@@ -14840,12 +14864,14 @@
     <row r="181" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A181" s="59"/>
       <c r="B181" s="67"/>
-      <c r="C181" s="45"/>
+      <c r="C181" s="45" t="s">
+        <v>555</v>
+      </c>
       <c r="D181" s="84" t="s">
-        <v>894</v>
-      </c>
-      <c r="E181" s="103" t="s">
-        <v>870</v>
+        <v>946</v>
+      </c>
+      <c r="E181" s="83" t="s">
+        <v>869</v>
       </c>
       <c r="F181" s="27" t="s">
         <v>197</v>
@@ -14867,10 +14893,10 @@
       </c>
       <c r="N181" s="27"/>
       <c r="O181" s="92">
-        <v>2000000090</v>
+        <v>2000000137</v>
       </c>
       <c r="P181" s="28" t="str">
-        <f t="shared" ref="P181" si="12">IF(N181&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O181), CONCATENATE("Athena-",O181)),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q181" s="27"/>
@@ -14889,10 +14915,10 @@
       <c r="B182" s="67"/>
       <c r="C182" s="45"/>
       <c r="D182" s="84" t="s">
-        <v>891</v>
-      </c>
-      <c r="E182" s="103" t="s">
-        <v>879</v>
+        <v>947</v>
+      </c>
+      <c r="E182" s="83" t="s">
+        <v>880</v>
       </c>
       <c r="F182" s="27" t="s">
         <v>197</v>
@@ -14914,10 +14940,10 @@
       </c>
       <c r="N182" s="27"/>
       <c r="O182" s="92">
-        <v>2000000121</v>
+        <v>2000000138</v>
       </c>
       <c r="P182" s="28" t="str">
-        <f t="shared" ref="P182" si="13">IF(N182&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O182), CONCATENATE("Athena-",O182)),"")</f>
+        <f t="shared" ref="P182:P184" si="12">IF(N182&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O182), CONCATENATE("Athena-",O182)),"")</f>
         <v/>
       </c>
       <c r="Q182" s="27"/>
@@ -14936,10 +14962,10 @@
       <c r="B183" s="67"/>
       <c r="C183" s="45"/>
       <c r="D183" s="84" t="s">
-        <v>913</v>
+        <v>950</v>
       </c>
       <c r="E183" s="103" t="s">
-        <v>914</v>
+        <v>870</v>
       </c>
       <c r="F183" s="27" t="s">
         <v>197</v>
@@ -14961,9 +14987,12 @@
       </c>
       <c r="N183" s="27"/>
       <c r="O183" s="92">
-        <v>2000000122</v>
-      </c>
-      <c r="P183" s="28"/>
+        <v>2000000139</v>
+      </c>
+      <c r="P183" s="28" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
       <c r="Q183" s="27"/>
       <c r="R183" s="27"/>
       <c r="S183" s="27"/>
@@ -14979,11 +15008,11 @@
       <c r="A184" s="59"/>
       <c r="B184" s="67"/>
       <c r="C184" s="45"/>
-      <c r="D184" s="77" t="s">
-        <v>448</v>
-      </c>
-      <c r="E184" s="77" t="s">
-        <v>453</v>
+      <c r="D184" s="84" t="s">
+        <v>951</v>
+      </c>
+      <c r="E184" s="103" t="s">
+        <v>879</v>
       </c>
       <c r="F184" s="27" t="s">
         <v>197</v>
@@ -14992,17 +15021,23 @@
       <c r="H184" s="69" t="s">
         <v>761</v>
       </c>
-      <c r="I184" s="28"/>
+      <c r="I184" s="28" t="s">
+        <v>715</v>
+      </c>
       <c r="J184" s="15"/>
       <c r="K184" s="27" t="s">
         <v>337</v>
       </c>
       <c r="L184" s="27"/>
-      <c r="M184" s="97"/>
+      <c r="M184" s="97" t="s">
+        <v>374</v>
+      </c>
       <c r="N184" s="27"/>
-      <c r="O184" s="92"/>
+      <c r="O184" s="92">
+        <v>2000000140</v>
+      </c>
       <c r="P184" s="28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Q184" s="27"/>
@@ -15012,40 +15047,44 @@
       <c r="U184" s="27"/>
       <c r="V184" s="27"/>
       <c r="W184" s="27"/>
-      <c r="X184" s="15"/>
-    </row>
-    <row r="185" spans="1:24" s="54" customFormat="1" ht="34" customHeight="1">
+      <c r="X184" s="15" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="185" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A185" s="59"/>
-      <c r="B185" s="67" t="s">
-        <v>148</v>
-      </c>
-      <c r="C185" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="D185" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="E185" s="45" t="s">
-        <v>130</v>
+      <c r="B185" s="67"/>
+      <c r="C185" s="45"/>
+      <c r="D185" s="84" t="s">
+        <v>948</v>
+      </c>
+      <c r="E185" s="103" t="s">
+        <v>870</v>
       </c>
       <c r="F185" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G185" s="15"/>
+      <c r="G185" s="16"/>
       <c r="H185" s="69" t="s">
         <v>761</v>
       </c>
-      <c r="I185" s="28"/>
+      <c r="I185" s="28" t="s">
+        <v>715</v>
+      </c>
       <c r="J185" s="15"/>
       <c r="K185" s="27" t="s">
         <v>337</v>
       </c>
       <c r="L185" s="27"/>
-      <c r="M185" s="27"/>
+      <c r="M185" s="97" t="s">
+        <v>374</v>
+      </c>
       <c r="N185" s="27"/>
-      <c r="O185" s="27"/>
+      <c r="O185" s="92">
+        <v>2000000090</v>
+      </c>
       <c r="P185" s="28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="P185" si="13">IF(N185&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O185), CONCATENATE("Athena-",O185)),"")</f>
         <v/>
       </c>
       <c r="Q185" s="27"/>
@@ -15059,38 +15098,40 @@
         <v>773</v>
       </c>
     </row>
-    <row r="186" spans="1:24" s="54" customFormat="1" ht="16">
+    <row r="186" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A186" s="59"/>
-      <c r="B186" s="67" t="s">
-        <v>148</v>
-      </c>
-      <c r="C186" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="D186" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="E186" s="45" t="s">
-        <v>133</v>
+      <c r="B186" s="67"/>
+      <c r="C186" s="45"/>
+      <c r="D186" s="84" t="s">
+        <v>949</v>
+      </c>
+      <c r="E186" s="103" t="s">
+        <v>879</v>
       </c>
       <c r="F186" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G186" s="15"/>
+      <c r="G186" s="16"/>
       <c r="H186" s="69" t="s">
         <v>761</v>
       </c>
-      <c r="I186" s="28"/>
+      <c r="I186" s="28" t="s">
+        <v>715</v>
+      </c>
       <c r="J186" s="15"/>
       <c r="K186" s="27" t="s">
         <v>337</v>
       </c>
       <c r="L186" s="27"/>
-      <c r="M186" s="27"/>
+      <c r="M186" s="97" t="s">
+        <v>374</v>
+      </c>
       <c r="N186" s="27"/>
-      <c r="O186" s="27"/>
+      <c r="O186" s="92">
+        <v>2000000121</v>
+      </c>
       <c r="P186" s="28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="P186:P187" si="14">IF(N186&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O186), CONCATENATE("Athena-",O186)),"")</f>
         <v/>
       </c>
       <c r="Q186" s="27"/>
@@ -15104,42 +15145,40 @@
         <v>773</v>
       </c>
     </row>
-    <row r="187" spans="1:24" s="54" customFormat="1" ht="218" customHeight="1">
+    <row r="187" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A187" s="59"/>
-      <c r="B187" s="67" t="s">
-        <v>149</v>
-      </c>
-      <c r="C187" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="D187" s="76" t="s">
-        <v>208</v>
-      </c>
-      <c r="E187" s="77" t="s">
-        <v>250</v>
+      <c r="B187" s="67"/>
+      <c r="C187" s="45"/>
+      <c r="D187" s="84" t="s">
+        <v>952</v>
+      </c>
+      <c r="E187" s="103" t="s">
+        <v>870</v>
       </c>
       <c r="F187" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="G187" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="H187" s="39" t="s">
-        <v>322</v>
-      </c>
-      <c r="I187" s="39"/>
+        <v>197</v>
+      </c>
+      <c r="G187" s="16"/>
+      <c r="H187" s="69" t="s">
+        <v>761</v>
+      </c>
+      <c r="I187" s="28" t="s">
+        <v>715</v>
+      </c>
       <c r="J187" s="15"/>
       <c r="K187" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L187" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="M187" s="27"/>
+      <c r="L187" s="27"/>
+      <c r="M187" s="97" t="s">
+        <v>374</v>
+      </c>
       <c r="N187" s="27"/>
-      <c r="O187" s="27"/>
+      <c r="O187" s="92">
+        <v>2000000141</v>
+      </c>
       <c r="P187" s="28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="Q187" s="27"/>
@@ -15150,20 +15189,18 @@
       <c r="V187" s="27"/>
       <c r="W187" s="27"/>
       <c r="X187" s="15" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="188" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A188" s="59"/>
       <c r="B188" s="67"/>
-      <c r="C188" s="45" t="s">
-        <v>561</v>
-      </c>
+      <c r="C188" s="45"/>
       <c r="D188" s="84" t="s">
-        <v>460</v>
-      </c>
-      <c r="E188" s="84" t="s">
-        <v>488</v>
+        <v>953</v>
+      </c>
+      <c r="E188" s="103" t="s">
+        <v>879</v>
       </c>
       <c r="F188" s="27" t="s">
         <v>197</v>
@@ -15180,15 +15217,15 @@
         <v>337</v>
       </c>
       <c r="L188" s="27"/>
-      <c r="M188" s="47" t="s">
+      <c r="M188" s="97" t="s">
         <v>374</v>
       </c>
       <c r="N188" s="27"/>
       <c r="O188" s="92">
-        <v>2000000033</v>
+        <v>2000000142</v>
       </c>
       <c r="P188" s="28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="P188" si="15">IF(N188&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O188), CONCATENATE("Athena-",O188)),"")</f>
         <v/>
       </c>
       <c r="Q188" s="27"/>
@@ -15199,20 +15236,18 @@
       <c r="V188" s="27"/>
       <c r="W188" s="27"/>
       <c r="X188" s="15" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="189" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A189" s="59"/>
       <c r="B189" s="67"/>
-      <c r="C189" s="45" t="s">
-        <v>563</v>
-      </c>
+      <c r="C189" s="45"/>
       <c r="D189" s="84" t="s">
-        <v>461</v>
-      </c>
-      <c r="E189" s="84" t="s">
-        <v>489</v>
+        <v>905</v>
+      </c>
+      <c r="E189" s="103" t="s">
+        <v>906</v>
       </c>
       <c r="F189" s="27" t="s">
         <v>197</v>
@@ -15229,17 +15264,14 @@
         <v>337</v>
       </c>
       <c r="L189" s="27"/>
-      <c r="M189" s="47" t="s">
+      <c r="M189" s="97" t="s">
         <v>374</v>
       </c>
       <c r="N189" s="27"/>
-      <c r="O189" s="89">
-        <v>2000000034</v>
-      </c>
-      <c r="P189" s="28" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
+      <c r="O189" s="92">
+        <v>2000000122</v>
+      </c>
+      <c r="P189" s="28"/>
       <c r="Q189" s="27"/>
       <c r="R189" s="27"/>
       <c r="S189" s="27"/>
@@ -15248,18 +15280,18 @@
       <c r="V189" s="27"/>
       <c r="W189" s="27"/>
       <c r="X189" s="15" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="190" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A190" s="59"/>
       <c r="B190" s="67"/>
       <c r="C190" s="45"/>
-      <c r="D190" s="84" t="s">
-        <v>462</v>
-      </c>
-      <c r="E190" s="84" t="s">
-        <v>490</v>
+      <c r="D190" s="77" t="s">
+        <v>448</v>
+      </c>
+      <c r="E190" s="77" t="s">
+        <v>453</v>
       </c>
       <c r="F190" s="27" t="s">
         <v>197</v>
@@ -15268,21 +15300,15 @@
       <c r="H190" s="69" t="s">
         <v>761</v>
       </c>
-      <c r="I190" s="28" t="s">
-        <v>715</v>
-      </c>
+      <c r="I190" s="28"/>
       <c r="J190" s="15"/>
       <c r="K190" s="27" t="s">
         <v>337</v>
       </c>
       <c r="L190" s="27"/>
-      <c r="M190" s="47" t="s">
-        <v>374</v>
-      </c>
+      <c r="M190" s="97"/>
       <c r="N190" s="27"/>
-      <c r="O190" s="92">
-        <v>2000000035</v>
-      </c>
+      <c r="O190" s="92"/>
       <c r="P190" s="28" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -15294,44 +15320,38 @@
       <c r="U190" s="27"/>
       <c r="V190" s="27"/>
       <c r="W190" s="27"/>
-      <c r="X190" s="15" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="191" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
+      <c r="X190" s="15"/>
+    </row>
+    <row r="191" spans="1:24" s="54" customFormat="1" ht="34" customHeight="1">
       <c r="A191" s="59"/>
-      <c r="B191" s="67"/>
+      <c r="B191" s="67" t="s">
+        <v>148</v>
+      </c>
       <c r="C191" s="45" t="s">
-        <v>565</v>
-      </c>
-      <c r="D191" s="84" t="s">
-        <v>463</v>
-      </c>
-      <c r="E191" s="84" t="s">
-        <v>491</v>
+        <v>189</v>
+      </c>
+      <c r="D191" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="E191" s="45" t="s">
+        <v>130</v>
       </c>
       <c r="F191" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G191" s="16"/>
+      <c r="G191" s="15"/>
       <c r="H191" s="69" t="s">
         <v>761</v>
       </c>
-      <c r="I191" s="28" t="s">
-        <v>715</v>
-      </c>
+      <c r="I191" s="28"/>
       <c r="J191" s="15"/>
       <c r="K191" s="27" t="s">
         <v>337</v>
       </c>
       <c r="L191" s="27"/>
-      <c r="M191" s="47" t="s">
-        <v>374</v>
-      </c>
+      <c r="M191" s="27"/>
       <c r="N191" s="27"/>
-      <c r="O191" s="89">
-        <v>2000000036</v>
-      </c>
+      <c r="O191" s="27"/>
       <c r="P191" s="28" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -15344,43 +15364,39 @@
       <c r="V191" s="27"/>
       <c r="W191" s="27"/>
       <c r="X191" s="15" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="192" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="192" spans="1:24" s="54" customFormat="1" ht="16">
       <c r="A192" s="59"/>
-      <c r="B192" s="67"/>
+      <c r="B192" s="67" t="s">
+        <v>148</v>
+      </c>
       <c r="C192" s="45" t="s">
-        <v>567</v>
-      </c>
-      <c r="D192" s="84" t="s">
-        <v>464</v>
-      </c>
-      <c r="E192" s="84" t="s">
-        <v>492</v>
+        <v>191</v>
+      </c>
+      <c r="D192" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="E192" s="45" t="s">
+        <v>133</v>
       </c>
       <c r="F192" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G192" s="16"/>
+      <c r="G192" s="15"/>
       <c r="H192" s="69" t="s">
         <v>761</v>
       </c>
-      <c r="I192" s="28" t="s">
-        <v>715</v>
-      </c>
+      <c r="I192" s="28"/>
       <c r="J192" s="15"/>
       <c r="K192" s="27" t="s">
         <v>337</v>
       </c>
       <c r="L192" s="27"/>
-      <c r="M192" s="47" t="s">
-        <v>374</v>
-      </c>
+      <c r="M192" s="27"/>
       <c r="N192" s="27"/>
-      <c r="O192" s="92">
-        <v>2000000037</v>
-      </c>
+      <c r="O192" s="27"/>
       <c r="P192" s="28" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -15393,43 +15409,43 @@
       <c r="V192" s="27"/>
       <c r="W192" s="27"/>
       <c r="X192" s="15" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="193" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="193" spans="1:24" s="54" customFormat="1" ht="218" customHeight="1">
       <c r="A193" s="59"/>
-      <c r="B193" s="67"/>
-      <c r="C193" s="45" t="s">
-        <v>569</v>
-      </c>
-      <c r="D193" s="84" t="s">
-        <v>465</v>
-      </c>
-      <c r="E193" s="84" t="s">
-        <v>493</v>
+      <c r="B193" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="C193" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D193" s="76" t="s">
+        <v>208</v>
+      </c>
+      <c r="E193" s="77" t="s">
+        <v>250</v>
       </c>
       <c r="F193" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="G193" s="16"/>
-      <c r="H193" s="69" t="s">
-        <v>761</v>
-      </c>
-      <c r="I193" s="28" t="s">
-        <v>715</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G193" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="H193" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="I193" s="39"/>
       <c r="J193" s="15"/>
       <c r="K193" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L193" s="27"/>
-      <c r="M193" s="47" t="s">
-        <v>374</v>
-      </c>
+      <c r="L193" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="M193" s="27"/>
       <c r="N193" s="27"/>
-      <c r="O193" s="89">
-        <v>2000000038</v>
-      </c>
+      <c r="O193" s="27"/>
       <c r="P193" s="28" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -15448,12 +15464,14 @@
     <row r="194" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A194" s="59"/>
       <c r="B194" s="67"/>
-      <c r="C194" s="45"/>
+      <c r="C194" s="45" t="s">
+        <v>561</v>
+      </c>
       <c r="D194" s="84" t="s">
-        <v>633</v>
+        <v>460</v>
       </c>
       <c r="E194" s="84" t="s">
-        <v>634</v>
+        <v>488</v>
       </c>
       <c r="F194" s="27" t="s">
         <v>197</v>
@@ -15475,7 +15493,7 @@
       </c>
       <c r="N194" s="27"/>
       <c r="O194" s="92">
-        <v>2000000039</v>
+        <v>2000000033</v>
       </c>
       <c r="P194" s="28" t="str">
         <f t="shared" si="9"/>
@@ -15495,12 +15513,14 @@
     <row r="195" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A195" s="59"/>
       <c r="B195" s="67"/>
-      <c r="C195" s="45"/>
+      <c r="C195" s="45" t="s">
+        <v>563</v>
+      </c>
       <c r="D195" s="84" t="s">
-        <v>635</v>
+        <v>461</v>
       </c>
       <c r="E195" s="84" t="s">
-        <v>636</v>
+        <v>489</v>
       </c>
       <c r="F195" s="27" t="s">
         <v>197</v>
@@ -15522,9 +15542,12 @@
       </c>
       <c r="N195" s="27"/>
       <c r="O195" s="89">
-        <v>2000000040</v>
-      </c>
-      <c r="P195" s="28"/>
+        <v>2000000034</v>
+      </c>
+      <c r="P195" s="28" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="Q195" s="27"/>
       <c r="R195" s="27"/>
       <c r="S195" s="27"/>
@@ -15541,10 +15564,10 @@
       <c r="B196" s="67"/>
       <c r="C196" s="45"/>
       <c r="D196" s="84" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="E196" s="84" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F196" s="27" t="s">
         <v>197</v>
@@ -15566,10 +15589,10 @@
       </c>
       <c r="N196" s="27"/>
       <c r="O196" s="92">
-        <v>2000000041</v>
+        <v>2000000035</v>
       </c>
       <c r="P196" s="28" t="str">
-        <f t="shared" ref="P196:P213" si="14">IF(N196&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O196), CONCATENATE("Athena-",O196)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q196" s="27"/>
@@ -15586,12 +15609,14 @@
     <row r="197" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A197" s="59"/>
       <c r="B197" s="67"/>
-      <c r="C197" s="45"/>
+      <c r="C197" s="45" t="s">
+        <v>565</v>
+      </c>
       <c r="D197" s="84" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="E197" s="84" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="F197" s="27" t="s">
         <v>197</v>
@@ -15613,10 +15638,10 @@
       </c>
       <c r="N197" s="27"/>
       <c r="O197" s="89">
-        <v>2000000042</v>
+        <v>2000000036</v>
       </c>
       <c r="P197" s="28" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q197" s="27"/>
@@ -15633,12 +15658,14 @@
     <row r="198" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A198" s="59"/>
       <c r="B198" s="67"/>
-      <c r="C198" s="45"/>
+      <c r="C198" s="45" t="s">
+        <v>567</v>
+      </c>
       <c r="D198" s="84" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E198" s="84" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F198" s="27" t="s">
         <v>197</v>
@@ -15660,10 +15687,10 @@
       </c>
       <c r="N198" s="27"/>
       <c r="O198" s="92">
-        <v>2000000043</v>
+        <v>2000000037</v>
       </c>
       <c r="P198" s="28" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q198" s="27"/>
@@ -15680,12 +15707,14 @@
     <row r="199" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A199" s="59"/>
       <c r="B199" s="67"/>
-      <c r="C199" s="45"/>
+      <c r="C199" s="45" t="s">
+        <v>569</v>
+      </c>
       <c r="D199" s="84" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="E199" s="84" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="F199" s="27" t="s">
         <v>197</v>
@@ -15707,10 +15736,10 @@
       </c>
       <c r="N199" s="27"/>
       <c r="O199" s="89">
-        <v>2000000044</v>
+        <v>2000000038</v>
       </c>
       <c r="P199" s="28" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q199" s="27"/>
@@ -15729,10 +15758,10 @@
       <c r="B200" s="67"/>
       <c r="C200" s="45"/>
       <c r="D200" s="84" t="s">
-        <v>900</v>
+        <v>633</v>
       </c>
       <c r="E200" s="84" t="s">
-        <v>902</v>
+        <v>634</v>
       </c>
       <c r="F200" s="27" t="s">
         <v>197</v>
@@ -15754,10 +15783,10 @@
       </c>
       <c r="N200" s="27"/>
       <c r="O200" s="92">
-        <v>2000000045</v>
+        <v>2000000039</v>
       </c>
       <c r="P200" s="28" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q200" s="27"/>
@@ -15776,10 +15805,10 @@
       <c r="B201" s="67"/>
       <c r="C201" s="45"/>
       <c r="D201" s="84" t="s">
-        <v>901</v>
+        <v>635</v>
       </c>
       <c r="E201" s="84" t="s">
-        <v>903</v>
+        <v>636</v>
       </c>
       <c r="F201" s="27" t="s">
         <v>197</v>
@@ -15800,13 +15829,10 @@
         <v>374</v>
       </c>
       <c r="N201" s="27"/>
-      <c r="O201" s="92">
-        <v>2000000046</v>
-      </c>
-      <c r="P201" s="28" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
+      <c r="O201" s="89">
+        <v>2000000040</v>
+      </c>
+      <c r="P201" s="28"/>
       <c r="Q201" s="27"/>
       <c r="R201" s="27"/>
       <c r="S201" s="27"/>
@@ -15822,11 +15848,11 @@
       <c r="A202" s="59"/>
       <c r="B202" s="67"/>
       <c r="C202" s="45"/>
-      <c r="D202" s="83" t="s">
-        <v>729</v>
-      </c>
-      <c r="E202" s="83" t="s">
-        <v>730</v>
+      <c r="D202" s="84" t="s">
+        <v>467</v>
+      </c>
+      <c r="E202" s="84" t="s">
+        <v>495</v>
       </c>
       <c r="F202" s="27" t="s">
         <v>197</v>
@@ -15848,10 +15874,10 @@
       </c>
       <c r="N202" s="27"/>
       <c r="O202" s="92">
-        <v>2000000080</v>
+        <v>2000000041</v>
       </c>
       <c r="P202" s="28" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="P202:P219" si="16">IF(N202&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O202), CONCATENATE("Athena-",O202)),"")</f>
         <v/>
       </c>
       <c r="Q202" s="27"/>
@@ -15869,11 +15895,11 @@
       <c r="A203" s="59"/>
       <c r="B203" s="67"/>
       <c r="C203" s="45"/>
-      <c r="D203" s="103" t="s">
-        <v>892</v>
-      </c>
-      <c r="E203" s="83" t="s">
-        <v>731</v>
+      <c r="D203" s="84" t="s">
+        <v>468</v>
+      </c>
+      <c r="E203" s="84" t="s">
+        <v>496</v>
       </c>
       <c r="F203" s="27" t="s">
         <v>197</v>
@@ -15894,11 +15920,11 @@
         <v>374</v>
       </c>
       <c r="N203" s="27"/>
-      <c r="O203" s="92">
-        <v>2000000081</v>
+      <c r="O203" s="89">
+        <v>2000000042</v>
       </c>
       <c r="P203" s="28" t="str">
-        <f t="shared" ref="P203" si="15">IF(N203&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O203), CONCATENATE("Athena-",O203)),"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q203" s="27"/>
@@ -15916,11 +15942,11 @@
       <c r="A204" s="59"/>
       <c r="B204" s="67"/>
       <c r="C204" s="45"/>
-      <c r="D204" s="103" t="s">
-        <v>915</v>
-      </c>
-      <c r="E204" s="83" t="s">
-        <v>916</v>
+      <c r="D204" s="84" t="s">
+        <v>469</v>
+      </c>
+      <c r="E204" s="84" t="s">
+        <v>497</v>
       </c>
       <c r="F204" s="27" t="s">
         <v>197</v>
@@ -15942,9 +15968,12 @@
       </c>
       <c r="N204" s="27"/>
       <c r="O204" s="92">
-        <v>2000000124</v>
-      </c>
-      <c r="P204" s="28"/>
+        <v>2000000043</v>
+      </c>
+      <c r="P204" s="28" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
       <c r="Q204" s="27"/>
       <c r="R204" s="27"/>
       <c r="S204" s="27"/>
@@ -15960,11 +15989,11 @@
       <c r="A205" s="59"/>
       <c r="B205" s="67"/>
       <c r="C205" s="45"/>
-      <c r="D205" s="77" t="s">
-        <v>473</v>
-      </c>
-      <c r="E205" s="77" t="s">
-        <v>501</v>
+      <c r="D205" s="84" t="s">
+        <v>470</v>
+      </c>
+      <c r="E205" s="84" t="s">
+        <v>498</v>
       </c>
       <c r="F205" s="27" t="s">
         <v>197</v>
@@ -15973,17 +16002,23 @@
       <c r="H205" s="69" t="s">
         <v>761</v>
       </c>
-      <c r="I205" s="28"/>
+      <c r="I205" s="28" t="s">
+        <v>715</v>
+      </c>
       <c r="J205" s="15"/>
       <c r="K205" s="27" t="s">
         <v>337</v>
       </c>
       <c r="L205" s="27"/>
-      <c r="M205" s="47"/>
+      <c r="M205" s="47" t="s">
+        <v>374</v>
+      </c>
       <c r="N205" s="27"/>
-      <c r="O205" s="89"/>
+      <c r="O205" s="89">
+        <v>2000000044</v>
+      </c>
       <c r="P205" s="28" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q205" s="27"/>
@@ -15997,37 +16032,40 @@
         <v>774</v>
       </c>
     </row>
-    <row r="206" spans="1:24" s="54" customFormat="1" ht="28" customHeight="1">
+    <row r="206" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A206" s="59"/>
-      <c r="B206" s="67" t="s">
-        <v>149</v>
-      </c>
-      <c r="C206" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D206" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="E206" s="45" t="s">
-        <v>130</v>
+      <c r="B206" s="67"/>
+      <c r="C206" s="45"/>
+      <c r="D206" s="84" t="s">
+        <v>892</v>
+      </c>
+      <c r="E206" s="84" t="s">
+        <v>894</v>
       </c>
       <c r="F206" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G206" s="15"/>
+      <c r="G206" s="16"/>
       <c r="H206" s="69" t="s">
         <v>761</v>
       </c>
-      <c r="I206" s="28"/>
+      <c r="I206" s="28" t="s">
+        <v>715</v>
+      </c>
       <c r="J206" s="15"/>
       <c r="K206" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="M206" s="27"/>
+      <c r="L206" s="27"/>
+      <c r="M206" s="47" t="s">
+        <v>374</v>
+      </c>
       <c r="N206" s="27"/>
-      <c r="O206" s="27"/>
+      <c r="O206" s="92">
+        <v>2000000045</v>
+      </c>
       <c r="P206" s="28" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q206" s="27"/>
@@ -16041,38 +16079,40 @@
         <v>774</v>
       </c>
     </row>
-    <row r="207" spans="1:24" s="54" customFormat="1" ht="16">
+    <row r="207" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A207" s="59"/>
-      <c r="B207" s="67" t="s">
-        <v>149</v>
-      </c>
-      <c r="C207" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="D207" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="E207" s="45" t="s">
-        <v>133</v>
+      <c r="B207" s="67"/>
+      <c r="C207" s="45"/>
+      <c r="D207" s="84" t="s">
+        <v>893</v>
+      </c>
+      <c r="E207" s="84" t="s">
+        <v>895</v>
       </c>
       <c r="F207" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G207" s="15"/>
-      <c r="H207" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="I207" s="36"/>
+      <c r="G207" s="16"/>
+      <c r="H207" s="69" t="s">
+        <v>761</v>
+      </c>
+      <c r="I207" s="28" t="s">
+        <v>715</v>
+      </c>
       <c r="J207" s="15"/>
       <c r="K207" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L207" s="16"/>
-      <c r="M207" s="27"/>
+      <c r="L207" s="27"/>
+      <c r="M207" s="47" t="s">
+        <v>374</v>
+      </c>
       <c r="N207" s="27"/>
-      <c r="O207" s="27"/>
+      <c r="O207" s="92">
+        <v>2000000046</v>
+      </c>
       <c r="P207" s="28" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q207" s="27"/>
@@ -16089,14 +16129,12 @@
     <row r="208" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A208" s="59"/>
       <c r="B208" s="67"/>
-      <c r="C208" s="45" t="s">
-        <v>562</v>
-      </c>
-      <c r="D208" s="84" t="s">
-        <v>474</v>
-      </c>
-      <c r="E208" s="84" t="s">
-        <v>502</v>
+      <c r="C208" s="45"/>
+      <c r="D208" s="83" t="s">
+        <v>729</v>
+      </c>
+      <c r="E208" s="83" t="s">
+        <v>730</v>
       </c>
       <c r="F208" s="27" t="s">
         <v>197</v>
@@ -16118,10 +16156,10 @@
       </c>
       <c r="N208" s="27"/>
       <c r="O208" s="92">
-        <v>2000000047</v>
+        <v>2000000080</v>
       </c>
       <c r="P208" s="28" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q208" s="27"/>
@@ -16138,14 +16176,12 @@
     <row r="209" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A209" s="59"/>
       <c r="B209" s="67"/>
-      <c r="C209" s="45" t="s">
-        <v>564</v>
-      </c>
-      <c r="D209" s="84" t="s">
-        <v>475</v>
-      </c>
-      <c r="E209" s="84" t="s">
-        <v>503</v>
+      <c r="C209" s="45"/>
+      <c r="D209" s="103" t="s">
+        <v>886</v>
+      </c>
+      <c r="E209" s="83" t="s">
+        <v>731</v>
       </c>
       <c r="F209" s="27" t="s">
         <v>197</v>
@@ -16166,11 +16202,11 @@
         <v>374</v>
       </c>
       <c r="N209" s="27"/>
-      <c r="O209" s="89">
-        <v>2000000048</v>
+      <c r="O209" s="92">
+        <v>2000000081</v>
       </c>
       <c r="P209" s="28" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="P209" si="17">IF(N209&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O209), CONCATENATE("Athena-",O209)),"")</f>
         <v/>
       </c>
       <c r="Q209" s="27"/>
@@ -16188,17 +16224,17 @@
       <c r="A210" s="59"/>
       <c r="B210" s="67"/>
       <c r="C210" s="45"/>
-      <c r="D210" s="84" t="s">
-        <v>476</v>
-      </c>
-      <c r="E210" s="84" t="s">
-        <v>504</v>
+      <c r="D210" s="103" t="s">
+        <v>907</v>
+      </c>
+      <c r="E210" s="83" t="s">
+        <v>908</v>
       </c>
       <c r="F210" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G210" s="16"/>
-      <c r="H210" s="28" t="s">
+      <c r="H210" s="69" t="s">
         <v>761</v>
       </c>
       <c r="I210" s="28" t="s">
@@ -16214,12 +16250,9 @@
       </c>
       <c r="N210" s="27"/>
       <c r="O210" s="92">
-        <v>2000000049</v>
-      </c>
-      <c r="P210" s="28" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
+        <v>2000000124</v>
+      </c>
+      <c r="P210" s="28"/>
       <c r="Q210" s="27"/>
       <c r="R210" s="27"/>
       <c r="S210" s="27"/>
@@ -16234,39 +16267,31 @@
     <row r="211" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A211" s="59"/>
       <c r="B211" s="67"/>
-      <c r="C211" s="45" t="s">
-        <v>566</v>
-      </c>
-      <c r="D211" s="84" t="s">
-        <v>477</v>
-      </c>
-      <c r="E211" s="84" t="s">
-        <v>505</v>
+      <c r="C211" s="45"/>
+      <c r="D211" s="77" t="s">
+        <v>473</v>
+      </c>
+      <c r="E211" s="77" t="s">
+        <v>501</v>
       </c>
       <c r="F211" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G211" s="16"/>
-      <c r="H211" s="104" t="s">
+      <c r="H211" s="69" t="s">
         <v>761</v>
       </c>
-      <c r="I211" s="28" t="s">
-        <v>715</v>
-      </c>
+      <c r="I211" s="28"/>
       <c r="J211" s="15"/>
       <c r="K211" s="27" t="s">
         <v>337</v>
       </c>
       <c r="L211" s="27"/>
-      <c r="M211" s="47" t="s">
-        <v>374</v>
-      </c>
+      <c r="M211" s="47"/>
       <c r="N211" s="27"/>
-      <c r="O211" s="89">
-        <v>2000000050</v>
-      </c>
+      <c r="O211" s="89"/>
       <c r="P211" s="28" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q211" s="27"/>
@@ -16280,42 +16305,37 @@
         <v>774</v>
       </c>
     </row>
-    <row r="212" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
+    <row r="212" spans="1:24" s="54" customFormat="1" ht="28" customHeight="1">
       <c r="A212" s="59"/>
-      <c r="B212" s="67"/>
-      <c r="C212" s="45" t="s">
-        <v>568</v>
-      </c>
-      <c r="D212" s="84" t="s">
-        <v>478</v>
-      </c>
-      <c r="E212" s="84" t="s">
-        <v>506</v>
+      <c r="B212" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="C212" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D212" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E212" s="45" t="s">
+        <v>130</v>
       </c>
       <c r="F212" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G212" s="16"/>
-      <c r="H212" s="104" t="s">
+      <c r="G212" s="15"/>
+      <c r="H212" s="69" t="s">
         <v>761</v>
       </c>
-      <c r="I212" s="28" t="s">
-        <v>715</v>
-      </c>
+      <c r="I212" s="28"/>
       <c r="J212" s="15"/>
       <c r="K212" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L212" s="27"/>
-      <c r="M212" s="47" t="s">
-        <v>374</v>
-      </c>
+      <c r="M212" s="27"/>
       <c r="N212" s="27"/>
-      <c r="O212" s="92">
-        <v>2000000051</v>
-      </c>
+      <c r="O212" s="27"/>
       <c r="P212" s="28" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q212" s="27"/>
@@ -16329,42 +16349,38 @@
         <v>774</v>
       </c>
     </row>
-    <row r="213" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
+    <row r="213" spans="1:24" s="54" customFormat="1" ht="16">
       <c r="A213" s="59"/>
-      <c r="B213" s="67"/>
-      <c r="C213" s="45" t="s">
-        <v>570</v>
-      </c>
-      <c r="D213" s="84" t="s">
-        <v>479</v>
-      </c>
-      <c r="E213" s="84" t="s">
-        <v>507</v>
+      <c r="B213" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="C213" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D213" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="E213" s="45" t="s">
+        <v>133</v>
       </c>
       <c r="F213" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G213" s="16"/>
-      <c r="H213" s="104" t="s">
-        <v>761</v>
-      </c>
-      <c r="I213" s="28" t="s">
-        <v>715</v>
-      </c>
+      <c r="G213" s="15"/>
+      <c r="H213" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="I213" s="36"/>
       <c r="J213" s="15"/>
       <c r="K213" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L213" s="27"/>
-      <c r="M213" s="47" t="s">
-        <v>374</v>
-      </c>
+      <c r="L213" s="16"/>
+      <c r="M213" s="27"/>
       <c r="N213" s="27"/>
-      <c r="O213" s="89">
-        <v>2000000052</v>
-      </c>
+      <c r="O213" s="27"/>
       <c r="P213" s="28" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q213" s="27"/>
@@ -16381,18 +16397,20 @@
     <row r="214" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A214" s="59"/>
       <c r="B214" s="67"/>
-      <c r="C214" s="45"/>
+      <c r="C214" s="45" t="s">
+        <v>562</v>
+      </c>
       <c r="D214" s="84" t="s">
-        <v>637</v>
+        <v>474</v>
       </c>
       <c r="E214" s="84" t="s">
-        <v>638</v>
+        <v>502</v>
       </c>
       <c r="F214" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G214" s="16"/>
-      <c r="H214" s="104" t="s">
+      <c r="H214" s="69" t="s">
         <v>761</v>
       </c>
       <c r="I214" s="28" t="s">
@@ -16408,10 +16426,10 @@
       </c>
       <c r="N214" s="27"/>
       <c r="O214" s="92">
-        <v>2000000053</v>
+        <v>2000000047</v>
       </c>
       <c r="P214" s="28" t="str">
-        <f>IF(N215&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O215), CONCATENATE("Athena-",O215)),"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q214" s="27"/>
@@ -16428,18 +16446,20 @@
     <row r="215" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A215" s="59"/>
       <c r="B215" s="67"/>
-      <c r="C215" s="45"/>
+      <c r="C215" s="45" t="s">
+        <v>564</v>
+      </c>
       <c r="D215" s="84" t="s">
-        <v>639</v>
+        <v>475</v>
       </c>
       <c r="E215" s="84" t="s">
-        <v>640</v>
+        <v>503</v>
       </c>
       <c r="F215" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G215" s="16"/>
-      <c r="H215" s="104" t="s">
+      <c r="H215" s="69" t="s">
         <v>761</v>
       </c>
       <c r="I215" s="28" t="s">
@@ -16455,9 +16475,12 @@
       </c>
       <c r="N215" s="27"/>
       <c r="O215" s="89">
-        <v>2000000054</v>
-      </c>
-      <c r="P215" s="28"/>
+        <v>2000000048</v>
+      </c>
+      <c r="P215" s="28" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
       <c r="Q215" s="27"/>
       <c r="R215" s="27"/>
       <c r="S215" s="27"/>
@@ -16474,16 +16497,16 @@
       <c r="B216" s="67"/>
       <c r="C216" s="45"/>
       <c r="D216" s="84" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E216" s="84" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F216" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G216" s="16"/>
-      <c r="H216" s="104" t="s">
+      <c r="H216" s="28" t="s">
         <v>761</v>
       </c>
       <c r="I216" s="28" t="s">
@@ -16499,10 +16522,10 @@
       </c>
       <c r="N216" s="27"/>
       <c r="O216" s="92">
-        <v>2000000055</v>
+        <v>2000000049</v>
       </c>
       <c r="P216" s="28" t="str">
-        <f t="shared" ref="P216:P234" si="16">IF(N216&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O216), CONCATENATE("Athena-",O216)),"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q216" s="27"/>
@@ -16519,12 +16542,14 @@
     <row r="217" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A217" s="59"/>
       <c r="B217" s="67"/>
-      <c r="C217" s="45"/>
+      <c r="C217" s="45" t="s">
+        <v>566</v>
+      </c>
       <c r="D217" s="84" t="s">
-        <v>710</v>
+        <v>477</v>
       </c>
       <c r="E217" s="84" t="s">
-        <v>713</v>
+        <v>505</v>
       </c>
       <c r="F217" s="27" t="s">
         <v>197</v>
@@ -16546,7 +16571,7 @@
       </c>
       <c r="N217" s="27"/>
       <c r="O217" s="89">
-        <v>2000000056</v>
+        <v>2000000050</v>
       </c>
       <c r="P217" s="28" t="str">
         <f t="shared" si="16"/>
@@ -16566,12 +16591,14 @@
     <row r="218" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A218" s="59"/>
       <c r="B218" s="67"/>
-      <c r="C218" s="45"/>
+      <c r="C218" s="45" t="s">
+        <v>568</v>
+      </c>
       <c r="D218" s="84" t="s">
-        <v>711</v>
+        <v>478</v>
       </c>
       <c r="E218" s="84" t="s">
-        <v>712</v>
+        <v>506</v>
       </c>
       <c r="F218" s="27" t="s">
         <v>197</v>
@@ -16593,10 +16620,10 @@
       </c>
       <c r="N218" s="27"/>
       <c r="O218" s="92">
-        <v>2000000057</v>
+        <v>2000000051</v>
       </c>
       <c r="P218" s="28" t="str">
-        <f>IF(N218&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",#REF!), CONCATENATE("Athena-",#REF!)),"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q218" s="27"/>
@@ -16613,12 +16640,14 @@
     <row r="219" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A219" s="59"/>
       <c r="B219" s="67"/>
-      <c r="C219" s="45"/>
+      <c r="C219" s="45" t="s">
+        <v>570</v>
+      </c>
       <c r="D219" s="84" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E219" s="84" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F219" s="27" t="s">
         <v>197</v>
@@ -16640,10 +16669,10 @@
       </c>
       <c r="N219" s="27"/>
       <c r="O219" s="89">
-        <v>2000000058</v>
+        <v>2000000052</v>
       </c>
       <c r="P219" s="28" t="str">
-        <f>IF(N219&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O218), CONCATENATE("Athena-",O218)),"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q219" s="27"/>
@@ -16662,10 +16691,10 @@
       <c r="B220" s="67"/>
       <c r="C220" s="45"/>
       <c r="D220" s="84" t="s">
-        <v>484</v>
+        <v>637</v>
       </c>
       <c r="E220" s="84" t="s">
-        <v>512</v>
+        <v>638</v>
       </c>
       <c r="F220" s="27" t="s">
         <v>197</v>
@@ -16687,10 +16716,10 @@
       </c>
       <c r="N220" s="27"/>
       <c r="O220" s="92">
-        <v>2000000059</v>
+        <v>2000000053</v>
       </c>
       <c r="P220" s="28" t="str">
-        <f>IF(N220&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O219), CONCATENATE("Athena-",O219)),"")</f>
+        <f>IF(N221&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O221), CONCATENATE("Athena-",O221)),"")</f>
         <v/>
       </c>
       <c r="Q220" s="27"/>
@@ -16709,10 +16738,10 @@
       <c r="B221" s="67"/>
       <c r="C221" s="45"/>
       <c r="D221" s="84" t="s">
-        <v>896</v>
-      </c>
-      <c r="E221" s="83" t="s">
-        <v>899</v>
+        <v>639</v>
+      </c>
+      <c r="E221" s="84" t="s">
+        <v>640</v>
       </c>
       <c r="F221" s="27" t="s">
         <v>197</v>
@@ -16734,12 +16763,9 @@
       </c>
       <c r="N221" s="27"/>
       <c r="O221" s="89">
-        <v>2000000060</v>
-      </c>
-      <c r="P221" s="28" t="str">
-        <f>IF(N221&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O220), CONCATENATE("Athena-",O220)),"")</f>
-        <v/>
-      </c>
+        <v>2000000054</v>
+      </c>
+      <c r="P221" s="28"/>
       <c r="Q221" s="27"/>
       <c r="R221" s="27"/>
       <c r="S221" s="27"/>
@@ -16756,10 +16782,10 @@
       <c r="B222" s="67"/>
       <c r="C222" s="45"/>
       <c r="D222" s="84" t="s">
-        <v>897</v>
-      </c>
-      <c r="E222" s="83" t="s">
-        <v>898</v>
+        <v>481</v>
+      </c>
+      <c r="E222" s="84" t="s">
+        <v>509</v>
       </c>
       <c r="F222" s="27" t="s">
         <v>197</v>
@@ -16780,11 +16806,11 @@
         <v>374</v>
       </c>
       <c r="N222" s="27"/>
-      <c r="O222" s="89">
-        <v>2000000061</v>
+      <c r="O222" s="92">
+        <v>2000000055</v>
       </c>
       <c r="P222" s="28" t="str">
-        <f>IF(N222&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O221), CONCATENATE("Athena-",O221)),"")</f>
+        <f t="shared" ref="P222:P240" si="18">IF(N222&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O222), CONCATENATE("Athena-",O222)),"")</f>
         <v/>
       </c>
       <c r="Q222" s="27"/>
@@ -16802,11 +16828,11 @@
       <c r="A223" s="59"/>
       <c r="B223" s="67"/>
       <c r="C223" s="45"/>
-      <c r="D223" s="83" t="s">
-        <v>732</v>
-      </c>
-      <c r="E223" s="83" t="s">
-        <v>733</v>
+      <c r="D223" s="84" t="s">
+        <v>710</v>
+      </c>
+      <c r="E223" s="84" t="s">
+        <v>713</v>
       </c>
       <c r="F223" s="27" t="s">
         <v>197</v>
@@ -16827,11 +16853,11 @@
         <v>374</v>
       </c>
       <c r="N223" s="27"/>
-      <c r="O223" s="92">
-        <v>2000000082</v>
+      <c r="O223" s="89">
+        <v>2000000056</v>
       </c>
       <c r="P223" s="28" t="str">
-        <f t="shared" ref="P223:P224" si="17">IF(N223&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O223), CONCATENATE("Athena-",O223)),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Q223" s="27"/>
@@ -16849,11 +16875,11 @@
       <c r="A224" s="59"/>
       <c r="B224" s="67"/>
       <c r="C224" s="45"/>
-      <c r="D224" s="103" t="s">
-        <v>895</v>
-      </c>
-      <c r="E224" s="83" t="s">
-        <v>734</v>
+      <c r="D224" s="84" t="s">
+        <v>711</v>
+      </c>
+      <c r="E224" s="84" t="s">
+        <v>712</v>
       </c>
       <c r="F224" s="27" t="s">
         <v>197</v>
@@ -16875,10 +16901,10 @@
       </c>
       <c r="N224" s="27"/>
       <c r="O224" s="92">
-        <v>2000000083</v>
+        <v>2000000057</v>
       </c>
       <c r="P224" s="28" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(N224&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",#REF!), CONCATENATE("Athena-",#REF!)),"")</f>
         <v/>
       </c>
       <c r="Q224" s="27"/>
@@ -16896,17 +16922,17 @@
       <c r="A225" s="59"/>
       <c r="B225" s="67"/>
       <c r="C225" s="45"/>
-      <c r="D225" s="103" t="s">
-        <v>917</v>
-      </c>
-      <c r="E225" s="83" t="s">
-        <v>916</v>
+      <c r="D225" s="84" t="s">
+        <v>483</v>
+      </c>
+      <c r="E225" s="84" t="s">
+        <v>511</v>
       </c>
       <c r="F225" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G225" s="16"/>
-      <c r="H225" s="69" t="s">
+      <c r="H225" s="104" t="s">
         <v>761</v>
       </c>
       <c r="I225" s="28" t="s">
@@ -16921,10 +16947,13 @@
         <v>374</v>
       </c>
       <c r="N225" s="27"/>
-      <c r="O225" s="92">
-        <v>2000000125</v>
-      </c>
-      <c r="P225" s="28"/>
+      <c r="O225" s="89">
+        <v>2000000058</v>
+      </c>
+      <c r="P225" s="28" t="str">
+        <f>IF(N225&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O224), CONCATENATE("Athena-",O224)),"")</f>
+        <v/>
+      </c>
       <c r="Q225" s="27"/>
       <c r="R225" s="27"/>
       <c r="S225" s="27"/>
@@ -16940,11 +16969,11 @@
       <c r="A226" s="59"/>
       <c r="B226" s="67"/>
       <c r="C226" s="45"/>
-      <c r="D226" s="77" t="s">
-        <v>487</v>
-      </c>
-      <c r="E226" s="77" t="s">
-        <v>515</v>
+      <c r="D226" s="84" t="s">
+        <v>484</v>
+      </c>
+      <c r="E226" s="84" t="s">
+        <v>512</v>
       </c>
       <c r="F226" s="27" t="s">
         <v>197</v>
@@ -16953,17 +16982,23 @@
       <c r="H226" s="104" t="s">
         <v>761</v>
       </c>
-      <c r="I226" s="28"/>
+      <c r="I226" s="28" t="s">
+        <v>715</v>
+      </c>
       <c r="J226" s="15"/>
       <c r="K226" s="27" t="s">
         <v>337</v>
       </c>
       <c r="L226" s="27"/>
-      <c r="M226" s="47"/>
+      <c r="M226" s="47" t="s">
+        <v>374</v>
+      </c>
       <c r="N226" s="27"/>
-      <c r="O226" s="89"/>
+      <c r="O226" s="92">
+        <v>2000000059</v>
+      </c>
       <c r="P226" s="28" t="str">
-        <f t="shared" si="16"/>
+        <f>IF(N226&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O225), CONCATENATE("Athena-",O225)),"")</f>
         <v/>
       </c>
       <c r="Q226" s="27"/>
@@ -16977,38 +17012,40 @@
         <v>774</v>
       </c>
     </row>
-    <row r="227" spans="1:24" s="54" customFormat="1" ht="16">
+    <row r="227" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A227" s="59"/>
-      <c r="B227" s="67" t="s">
-        <v>149</v>
-      </c>
-      <c r="C227" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="D227" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="E227" s="45" t="s">
-        <v>131</v>
+      <c r="B227" s="67"/>
+      <c r="C227" s="45"/>
+      <c r="D227" s="84" t="s">
+        <v>888</v>
+      </c>
+      <c r="E227" s="83" t="s">
+        <v>891</v>
       </c>
       <c r="F227" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G227" s="15"/>
+      <c r="G227" s="16"/>
       <c r="H227" s="104" t="s">
         <v>761</v>
       </c>
-      <c r="I227" s="28"/>
+      <c r="I227" s="28" t="s">
+        <v>715</v>
+      </c>
       <c r="J227" s="15"/>
       <c r="K227" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L227" s="16"/>
-      <c r="M227" s="27"/>
+      <c r="L227" s="27"/>
+      <c r="M227" s="47" t="s">
+        <v>374</v>
+      </c>
       <c r="N227" s="27"/>
-      <c r="O227" s="27"/>
+      <c r="O227" s="89">
+        <v>2000000060</v>
+      </c>
       <c r="P227" s="28" t="str">
-        <f t="shared" si="16"/>
+        <f>IF(N227&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O226), CONCATENATE("Athena-",O226)),"")</f>
         <v/>
       </c>
       <c r="Q227" s="27"/>
@@ -17022,38 +17059,40 @@
         <v>774</v>
       </c>
     </row>
-    <row r="228" spans="1:24" s="54" customFormat="1" ht="16">
+    <row r="228" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A228" s="59"/>
-      <c r="B228" s="67" t="s">
-        <v>149</v>
-      </c>
-      <c r="C228" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="D228" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="E228" s="45" t="s">
-        <v>133</v>
+      <c r="B228" s="67"/>
+      <c r="C228" s="45"/>
+      <c r="D228" s="84" t="s">
+        <v>889</v>
+      </c>
+      <c r="E228" s="83" t="s">
+        <v>890</v>
       </c>
       <c r="F228" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G228" s="15"/>
-      <c r="H228" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="I228" s="36"/>
+      <c r="G228" s="16"/>
+      <c r="H228" s="104" t="s">
+        <v>761</v>
+      </c>
+      <c r="I228" s="28" t="s">
+        <v>715</v>
+      </c>
       <c r="J228" s="15"/>
       <c r="K228" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L228" s="16"/>
-      <c r="M228" s="27"/>
+      <c r="L228" s="27"/>
+      <c r="M228" s="47" t="s">
+        <v>374</v>
+      </c>
       <c r="N228" s="27"/>
-      <c r="O228" s="27"/>
+      <c r="O228" s="89">
+        <v>2000000061</v>
+      </c>
       <c r="P228" s="28" t="str">
-        <f t="shared" si="16"/>
+        <f>IF(N228&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O227), CONCATENATE("Athena-",O227)),"")</f>
         <v/>
       </c>
       <c r="Q228" s="27"/>
@@ -17067,42 +17106,40 @@
         <v>774</v>
       </c>
     </row>
-    <row r="229" spans="1:24" s="54" customFormat="1" ht="52" customHeight="1">
+    <row r="229" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A229" s="59"/>
-      <c r="B229" s="67" t="s">
-        <v>150</v>
-      </c>
-      <c r="C229" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D229" s="76" t="s">
-        <v>211</v>
-      </c>
-      <c r="E229" s="77" t="s">
-        <v>134</v>
+      <c r="B229" s="67"/>
+      <c r="C229" s="45"/>
+      <c r="D229" s="83" t="s">
+        <v>732</v>
+      </c>
+      <c r="E229" s="83" t="s">
+        <v>733</v>
       </c>
       <c r="F229" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="G229" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="H229" s="39" t="s">
-        <v>325</v>
-      </c>
-      <c r="I229" s="39"/>
+        <v>197</v>
+      </c>
+      <c r="G229" s="16"/>
+      <c r="H229" s="104" t="s">
+        <v>761</v>
+      </c>
+      <c r="I229" s="28" t="s">
+        <v>715</v>
+      </c>
       <c r="J229" s="15"/>
       <c r="K229" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L229" s="16" t="s">
-        <v>645</v>
-      </c>
-      <c r="M229" s="27"/>
+      <c r="L229" s="27"/>
+      <c r="M229" s="47" t="s">
+        <v>374</v>
+      </c>
       <c r="N229" s="27"/>
-      <c r="O229" s="27"/>
+      <c r="O229" s="92">
+        <v>2000000082</v>
+      </c>
       <c r="P229" s="28" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="P229:P230" si="19">IF(N229&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O229), CONCATENATE("Athena-",O229)),"")</f>
         <v/>
       </c>
       <c r="Q229" s="27"/>
@@ -17113,20 +17150,18 @@
       <c r="V229" s="27"/>
       <c r="W229" s="27"/>
       <c r="X229" s="15" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
     </row>
     <row r="230" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A230" s="59"/>
       <c r="B230" s="67"/>
-      <c r="C230" s="45" t="s">
-        <v>571</v>
-      </c>
-      <c r="D230" s="45" t="s">
-        <v>516</v>
-      </c>
-      <c r="E230" s="45" t="s">
-        <v>517</v>
+      <c r="C230" s="45"/>
+      <c r="D230" s="103" t="s">
+        <v>887</v>
+      </c>
+      <c r="E230" s="83" t="s">
+        <v>734</v>
       </c>
       <c r="F230" s="27" t="s">
         <v>197</v>
@@ -17135,7 +17170,7 @@
       <c r="H230" s="104" t="s">
         <v>761</v>
       </c>
-      <c r="I230" s="38" t="s">
+      <c r="I230" s="28" t="s">
         <v>715</v>
       </c>
       <c r="J230" s="15"/>
@@ -17143,11 +17178,15 @@
         <v>337</v>
       </c>
       <c r="L230" s="27"/>
-      <c r="M230" s="27"/>
+      <c r="M230" s="47" t="s">
+        <v>374</v>
+      </c>
       <c r="N230" s="27"/>
-      <c r="O230" s="27"/>
+      <c r="O230" s="92">
+        <v>2000000083</v>
+      </c>
       <c r="P230" s="28" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="Q230" s="27"/>
@@ -17158,27 +17197,27 @@
       <c r="V230" s="27"/>
       <c r="W230" s="27"/>
       <c r="X230" s="15" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
     </row>
     <row r="231" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A231" s="59"/>
       <c r="B231" s="67"/>
       <c r="C231" s="45"/>
-      <c r="D231" s="84" t="s">
-        <v>628</v>
+      <c r="D231" s="103" t="s">
+        <v>909</v>
       </c>
       <c r="E231" s="83" t="s">
-        <v>630</v>
+        <v>908</v>
       </c>
       <c r="F231" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G231" s="16"/>
-      <c r="H231" s="104" t="s">
+      <c r="H231" s="69" t="s">
         <v>761</v>
       </c>
-      <c r="I231" s="38" t="s">
+      <c r="I231" s="28" t="s">
         <v>715</v>
       </c>
       <c r="J231" s="15"/>
@@ -17186,17 +17225,14 @@
         <v>337</v>
       </c>
       <c r="L231" s="27"/>
-      <c r="M231" s="27" t="s">
+      <c r="M231" s="47" t="s">
         <v>374</v>
       </c>
       <c r="N231" s="27"/>
-      <c r="O231" s="99">
-        <v>2000000062</v>
-      </c>
-      <c r="P231" s="28" t="str">
-        <f>IF(N231&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",#REF!), CONCATENATE("Athena-",#REF!)),"")</f>
-        <v/>
-      </c>
+      <c r="O231" s="92">
+        <v>2000000125</v>
+      </c>
+      <c r="P231" s="28"/>
       <c r="Q231" s="27"/>
       <c r="R231" s="27"/>
       <c r="S231" s="27"/>
@@ -17205,18 +17241,18 @@
       <c r="V231" s="27"/>
       <c r="W231" s="27"/>
       <c r="X231" s="15" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
     </row>
     <row r="232" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A232" s="59"/>
       <c r="B232" s="67"/>
       <c r="C232" s="45"/>
-      <c r="D232" s="84" t="s">
-        <v>629</v>
-      </c>
-      <c r="E232" s="83" t="s">
-        <v>631</v>
+      <c r="D232" s="77" t="s">
+        <v>487</v>
+      </c>
+      <c r="E232" s="77" t="s">
+        <v>515</v>
       </c>
       <c r="F232" s="27" t="s">
         <v>197</v>
@@ -17225,23 +17261,17 @@
       <c r="H232" s="104" t="s">
         <v>761</v>
       </c>
-      <c r="I232" s="38" t="s">
-        <v>715</v>
-      </c>
+      <c r="I232" s="28"/>
       <c r="J232" s="15"/>
       <c r="K232" s="27" t="s">
         <v>337</v>
       </c>
       <c r="L232" s="27"/>
-      <c r="M232" s="27" t="s">
-        <v>374</v>
-      </c>
+      <c r="M232" s="47"/>
       <c r="N232" s="27"/>
-      <c r="O232" s="99">
-        <v>2000000063</v>
-      </c>
+      <c r="O232" s="89"/>
       <c r="P232" s="28" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Q232" s="27"/>
@@ -17252,98 +17282,86 @@
       <c r="V232" s="27"/>
       <c r="W232" s="27"/>
       <c r="X232" s="15" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="233" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="233" spans="1:24" s="54" customFormat="1" ht="16">
       <c r="A233" s="59"/>
-      <c r="B233" s="67"/>
-      <c r="C233" s="45" t="s">
-        <v>572</v>
-      </c>
-      <c r="D233" s="84" t="s">
-        <v>905</v>
-      </c>
-      <c r="E233" s="84" t="s">
-        <v>763</v>
+      <c r="B233" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="C233" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D233" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="E233" s="45" t="s">
+        <v>131</v>
       </c>
       <c r="F233" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G233" s="16"/>
+      <c r="G233" s="15"/>
       <c r="H233" s="104" t="s">
         <v>761</v>
       </c>
-      <c r="I233" s="38" t="s">
-        <v>715</v>
-      </c>
+      <c r="I233" s="28"/>
       <c r="J233" s="15"/>
       <c r="K233" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L233" s="27"/>
-      <c r="M233" s="27" t="s">
-        <v>374</v>
-      </c>
+      <c r="L233" s="16"/>
+      <c r="M233" s="27"/>
       <c r="N233" s="27"/>
-      <c r="O233" s="99">
-        <v>2000000064</v>
-      </c>
+      <c r="O233" s="27"/>
       <c r="P233" s="28" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="Q233" s="27" t="s">
-        <v>751</v>
-      </c>
-      <c r="R233" s="27">
-        <v>8555</v>
-      </c>
-      <c r="S233" s="27" t="s">
-        <v>376</v>
-      </c>
+      <c r="Q233" s="27"/>
+      <c r="R233" s="27"/>
+      <c r="S233" s="27"/>
       <c r="T233" s="27"/>
       <c r="U233" s="27"/>
       <c r="V233" s="27"/>
       <c r="W233" s="27"/>
       <c r="X233" s="15" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="234" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="234" spans="1:24" s="54" customFormat="1" ht="16">
       <c r="A234" s="59"/>
-      <c r="B234" s="67"/>
-      <c r="C234" s="45"/>
-      <c r="D234" s="84" t="s">
-        <v>904</v>
-      </c>
-      <c r="E234" s="84" t="s">
-        <v>769</v>
+      <c r="B234" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="C234" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D234" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="E234" s="45" t="s">
+        <v>133</v>
       </c>
       <c r="F234" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G234" s="16"/>
-      <c r="H234" s="104" t="s">
-        <v>761</v>
-      </c>
-      <c r="I234" s="38" t="s">
-        <v>715</v>
-      </c>
+      <c r="G234" s="15"/>
+      <c r="H234" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="I234" s="36"/>
       <c r="J234" s="15"/>
       <c r="K234" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L234" s="27"/>
-      <c r="M234" s="27" t="s">
-        <v>374</v>
-      </c>
+      <c r="L234" s="16"/>
+      <c r="M234" s="27"/>
       <c r="N234" s="27"/>
-      <c r="O234" s="99">
-        <v>2000000104</v>
-      </c>
+      <c r="O234" s="27"/>
       <c r="P234" s="28" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Q234" s="27"/>
@@ -17354,42 +17372,47 @@
       <c r="V234" s="27"/>
       <c r="W234" s="27"/>
       <c r="X234" s="15" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="235" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="235" spans="1:24" s="54" customFormat="1" ht="52" customHeight="1">
       <c r="A235" s="59"/>
-      <c r="B235" s="67"/>
-      <c r="C235" s="45"/>
-      <c r="D235" s="84" t="s">
-        <v>906</v>
-      </c>
-      <c r="E235" s="84" t="s">
-        <v>764</v>
+      <c r="B235" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="C235" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D235" s="76" t="s">
+        <v>211</v>
+      </c>
+      <c r="E235" s="77" t="s">
+        <v>134</v>
       </c>
       <c r="F235" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="G235" s="16"/>
-      <c r="H235" s="104" t="s">
-        <v>761</v>
-      </c>
-      <c r="I235" s="38" t="s">
-        <v>715</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G235" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="H235" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="I235" s="39"/>
       <c r="J235" s="15"/>
       <c r="K235" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L235" s="27"/>
-      <c r="M235" s="27" t="s">
-        <v>374</v>
-      </c>
+      <c r="L235" s="16" t="s">
+        <v>645</v>
+      </c>
+      <c r="M235" s="27"/>
       <c r="N235" s="27"/>
-      <c r="O235" s="99">
-        <v>2000000101</v>
-      </c>
-      <c r="P235" s="28"/>
+      <c r="O235" s="27"/>
+      <c r="P235" s="28" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
       <c r="Q235" s="27"/>
       <c r="R235" s="27"/>
       <c r="S235" s="27"/>
@@ -17405,13 +17428,13 @@
       <c r="A236" s="59"/>
       <c r="B236" s="67"/>
       <c r="C236" s="45" t="s">
-        <v>641</v>
-      </c>
-      <c r="D236" s="84" t="s">
-        <v>907</v>
-      </c>
-      <c r="E236" s="84" t="s">
-        <v>852</v>
+        <v>571</v>
+      </c>
+      <c r="D236" s="45" t="s">
+        <v>516</v>
+      </c>
+      <c r="E236" s="45" t="s">
+        <v>517</v>
       </c>
       <c r="F236" s="27" t="s">
         <v>197</v>
@@ -17428,23 +17451,16 @@
         <v>337</v>
       </c>
       <c r="L236" s="27"/>
-      <c r="M236" s="27" t="s">
-        <v>374</v>
-      </c>
+      <c r="M236" s="27"/>
       <c r="N236" s="27"/>
-      <c r="O236" s="99">
-        <v>2000000065</v>
-      </c>
-      <c r="P236" s="28"/>
-      <c r="Q236" s="27" t="s">
-        <v>751</v>
-      </c>
-      <c r="R236" s="27">
-        <v>8555</v>
-      </c>
-      <c r="S236" s="27" t="s">
-        <v>376</v>
-      </c>
+      <c r="O236" s="27"/>
+      <c r="P236" s="28" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q236" s="27"/>
+      <c r="R236" s="27"/>
+      <c r="S236" s="27"/>
       <c r="T236" s="27"/>
       <c r="U236" s="27"/>
       <c r="V236" s="27"/>
@@ -17458,10 +17474,10 @@
       <c r="B237" s="67"/>
       <c r="C237" s="45"/>
       <c r="D237" s="84" t="s">
-        <v>908</v>
-      </c>
-      <c r="E237" s="84" t="s">
-        <v>849</v>
+        <v>628</v>
+      </c>
+      <c r="E237" s="83" t="s">
+        <v>630</v>
       </c>
       <c r="F237" s="27" t="s">
         <v>197</v>
@@ -17483,9 +17499,12 @@
       </c>
       <c r="N237" s="27"/>
       <c r="O237" s="99">
-        <v>2000000117</v>
-      </c>
-      <c r="P237" s="28"/>
+        <v>2000000062</v>
+      </c>
+      <c r="P237" s="28" t="str">
+        <f>IF(N237&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",#REF!), CONCATENATE("Athena-",#REF!)),"")</f>
+        <v/>
+      </c>
       <c r="Q237" s="27"/>
       <c r="R237" s="27"/>
       <c r="S237" s="27"/>
@@ -17500,14 +17519,12 @@
     <row r="238" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A238" s="59"/>
       <c r="B238" s="67"/>
-      <c r="C238" s="45" t="s">
-        <v>642</v>
-      </c>
+      <c r="C238" s="45"/>
       <c r="D238" s="84" t="s">
-        <v>909</v>
-      </c>
-      <c r="E238" s="84" t="s">
-        <v>853</v>
+        <v>629</v>
+      </c>
+      <c r="E238" s="83" t="s">
+        <v>631</v>
       </c>
       <c r="F238" s="27" t="s">
         <v>197</v>
@@ -17529,18 +17546,15 @@
       </c>
       <c r="N238" s="27"/>
       <c r="O238" s="99">
-        <v>2000000066</v>
-      </c>
-      <c r="P238" s="28"/>
-      <c r="Q238" s="27" t="s">
-        <v>751</v>
-      </c>
-      <c r="R238" s="27">
-        <v>8555</v>
-      </c>
-      <c r="S238" s="27" t="s">
-        <v>376</v>
-      </c>
+        <v>2000000063</v>
+      </c>
+      <c r="P238" s="28" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q238" s="27"/>
+      <c r="R238" s="27"/>
+      <c r="S238" s="27"/>
       <c r="T238" s="27"/>
       <c r="U238" s="27"/>
       <c r="V238" s="27"/>
@@ -17552,12 +17566,14 @@
     <row r="239" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A239" s="59"/>
       <c r="B239" s="67"/>
-      <c r="C239" s="45"/>
+      <c r="C239" s="45" t="s">
+        <v>572</v>
+      </c>
       <c r="D239" s="84" t="s">
-        <v>910</v>
+        <v>897</v>
       </c>
       <c r="E239" s="84" t="s">
-        <v>850</v>
+        <v>763</v>
       </c>
       <c r="F239" s="27" t="s">
         <v>197</v>
@@ -17578,13 +17594,22 @@
         <v>374</v>
       </c>
       <c r="N239" s="27"/>
-      <c r="O239" s="105">
-        <v>2000000118</v>
-      </c>
-      <c r="P239" s="28"/>
-      <c r="Q239" s="27"/>
-      <c r="R239" s="27"/>
-      <c r="S239" s="27"/>
+      <c r="O239" s="99">
+        <v>2000000064</v>
+      </c>
+      <c r="P239" s="28" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q239" s="27" t="s">
+        <v>751</v>
+      </c>
+      <c r="R239" s="27">
+        <v>8555</v>
+      </c>
+      <c r="S239" s="27" t="s">
+        <v>376</v>
+      </c>
       <c r="T239" s="27"/>
       <c r="U239" s="27"/>
       <c r="V239" s="27"/>
@@ -17596,14 +17621,12 @@
     <row r="240" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A240" s="59"/>
       <c r="B240" s="67"/>
-      <c r="C240" s="45" t="s">
-        <v>643</v>
-      </c>
+      <c r="C240" s="45"/>
       <c r="D240" s="84" t="s">
-        <v>911</v>
+        <v>896</v>
       </c>
       <c r="E240" s="84" t="s">
-        <v>854</v>
+        <v>769</v>
       </c>
       <c r="F240" s="27" t="s">
         <v>197</v>
@@ -17624,19 +17647,16 @@
         <v>374</v>
       </c>
       <c r="N240" s="27"/>
-      <c r="O240" s="89">
-        <v>2000000067</v>
-      </c>
-      <c r="P240" s="28"/>
-      <c r="Q240" s="27" t="s">
-        <v>751</v>
-      </c>
-      <c r="R240" s="27">
-        <v>8555</v>
-      </c>
-      <c r="S240" s="27" t="s">
-        <v>376</v>
-      </c>
+      <c r="O240" s="99">
+        <v>2000000104</v>
+      </c>
+      <c r="P240" s="28" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q240" s="27"/>
+      <c r="R240" s="27"/>
+      <c r="S240" s="27"/>
       <c r="T240" s="27"/>
       <c r="U240" s="27"/>
       <c r="V240" s="27"/>
@@ -17650,10 +17670,10 @@
       <c r="B241" s="67"/>
       <c r="C241" s="45"/>
       <c r="D241" s="84" t="s">
-        <v>912</v>
+        <v>898</v>
       </c>
       <c r="E241" s="84" t="s">
-        <v>851</v>
+        <v>764</v>
       </c>
       <c r="F241" s="27" t="s">
         <v>197</v>
@@ -17674,8 +17694,8 @@
         <v>374</v>
       </c>
       <c r="N241" s="27"/>
-      <c r="O241" s="89">
-        <v>2000000119</v>
+      <c r="O241" s="99">
+        <v>2000000101</v>
       </c>
       <c r="P241" s="28"/>
       <c r="Q241" s="27"/>
@@ -17692,12 +17712,14 @@
     <row r="242" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A242" s="59"/>
       <c r="B242" s="67"/>
-      <c r="C242" s="45"/>
+      <c r="C242" s="45" t="s">
+        <v>641</v>
+      </c>
       <c r="D242" s="84" t="s">
-        <v>735</v>
+        <v>899</v>
       </c>
       <c r="E242" s="84" t="s">
-        <v>736</v>
+        <v>852</v>
       </c>
       <c r="F242" s="27" t="s">
         <v>197</v>
@@ -17718,13 +17740,19 @@
         <v>374</v>
       </c>
       <c r="N242" s="27"/>
-      <c r="O242" s="89">
-        <v>2000000084</v>
+      <c r="O242" s="99">
+        <v>2000000065</v>
       </c>
       <c r="P242" s="28"/>
-      <c r="Q242" s="27"/>
-      <c r="R242" s="27"/>
-      <c r="S242" s="27"/>
+      <c r="Q242" s="27" t="s">
+        <v>751</v>
+      </c>
+      <c r="R242" s="27">
+        <v>8555</v>
+      </c>
+      <c r="S242" s="27" t="s">
+        <v>376</v>
+      </c>
       <c r="T242" s="27"/>
       <c r="U242" s="27"/>
       <c r="V242" s="27"/>
@@ -17738,10 +17766,10 @@
       <c r="B243" s="67"/>
       <c r="C243" s="45"/>
       <c r="D243" s="84" t="s">
-        <v>738</v>
+        <v>900</v>
       </c>
       <c r="E243" s="84" t="s">
-        <v>737</v>
+        <v>849</v>
       </c>
       <c r="F243" s="27" t="s">
         <v>197</v>
@@ -17762,8 +17790,8 @@
         <v>374</v>
       </c>
       <c r="N243" s="27"/>
-      <c r="O243" s="89">
-        <v>2000000085</v>
+      <c r="O243" s="99">
+        <v>2000000117</v>
       </c>
       <c r="P243" s="28"/>
       <c r="Q243" s="27"/>
@@ -17780,12 +17808,14 @@
     <row r="244" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A244" s="59"/>
       <c r="B244" s="67"/>
-      <c r="C244" s="45"/>
+      <c r="C244" s="45" t="s">
+        <v>642</v>
+      </c>
       <c r="D244" s="84" t="s">
-        <v>918</v>
+        <v>901</v>
       </c>
       <c r="E244" s="84" t="s">
-        <v>919</v>
+        <v>853</v>
       </c>
       <c r="F244" s="27" t="s">
         <v>197</v>
@@ -17806,13 +17836,19 @@
         <v>374</v>
       </c>
       <c r="N244" s="27"/>
-      <c r="O244" s="89">
-        <v>2000000126</v>
+      <c r="O244" s="99">
+        <v>2000000066</v>
       </c>
       <c r="P244" s="28"/>
-      <c r="Q244" s="27"/>
-      <c r="R244" s="27"/>
-      <c r="S244" s="27"/>
+      <c r="Q244" s="27" t="s">
+        <v>751</v>
+      </c>
+      <c r="R244" s="27">
+        <v>8555</v>
+      </c>
+      <c r="S244" s="27" t="s">
+        <v>376</v>
+      </c>
       <c r="T244" s="27"/>
       <c r="U244" s="27"/>
       <c r="V244" s="27"/>
@@ -17826,10 +17862,10 @@
       <c r="B245" s="67"/>
       <c r="C245" s="45"/>
       <c r="D245" s="84" t="s">
-        <v>920</v>
+        <v>902</v>
       </c>
       <c r="E245" s="84" t="s">
-        <v>921</v>
+        <v>850</v>
       </c>
       <c r="F245" s="27" t="s">
         <v>197</v>
@@ -17850,8 +17886,8 @@
         <v>374</v>
       </c>
       <c r="N245" s="27"/>
-      <c r="O245" s="89">
-        <v>2000000127</v>
+      <c r="O245" s="105">
+        <v>2000000118</v>
       </c>
       <c r="P245" s="28"/>
       <c r="Q245" s="27"/>
@@ -17868,12 +17904,14 @@
     <row r="246" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A246" s="59"/>
       <c r="B246" s="67"/>
-      <c r="C246" s="45"/>
+      <c r="C246" s="45" t="s">
+        <v>643</v>
+      </c>
       <c r="D246" s="84" t="s">
-        <v>945</v>
+        <v>903</v>
       </c>
       <c r="E246" s="84" t="s">
-        <v>947</v>
+        <v>854</v>
       </c>
       <c r="F246" s="27" t="s">
         <v>197</v>
@@ -17895,12 +17933,18 @@
       </c>
       <c r="N246" s="27"/>
       <c r="O246" s="89">
-        <v>2000000128</v>
+        <v>2000000067</v>
       </c>
       <c r="P246" s="28"/>
-      <c r="Q246" s="27"/>
-      <c r="R246" s="27"/>
-      <c r="S246" s="27"/>
+      <c r="Q246" s="27" t="s">
+        <v>751</v>
+      </c>
+      <c r="R246" s="27">
+        <v>8555</v>
+      </c>
+      <c r="S246" s="27" t="s">
+        <v>376</v>
+      </c>
       <c r="T246" s="27"/>
       <c r="U246" s="27"/>
       <c r="V246" s="27"/>
@@ -17914,10 +17958,10 @@
       <c r="B247" s="67"/>
       <c r="C247" s="45"/>
       <c r="D247" s="84" t="s">
-        <v>946</v>
+        <v>904</v>
       </c>
       <c r="E247" s="84" t="s">
-        <v>948</v>
+        <v>851</v>
       </c>
       <c r="F247" s="27" t="s">
         <v>197</v>
@@ -17939,7 +17983,7 @@
       </c>
       <c r="N247" s="27"/>
       <c r="O247" s="89">
-        <v>2000000134</v>
+        <v>2000000119</v>
       </c>
       <c r="P247" s="28"/>
       <c r="Q247" s="27"/>
@@ -17957,28 +18001,35 @@
       <c r="A248" s="59"/>
       <c r="B248" s="67"/>
       <c r="C248" s="45"/>
-      <c r="D248" s="77"/>
-      <c r="E248" s="76" t="s">
-        <v>519</v>
+      <c r="D248" s="84" t="s">
+        <v>735</v>
+      </c>
+      <c r="E248" s="84" t="s">
+        <v>736</v>
       </c>
       <c r="F248" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G248" s="16"/>
-      <c r="H248" s="38"/>
-      <c r="I248" s="38"/>
+      <c r="H248" s="104" t="s">
+        <v>761</v>
+      </c>
+      <c r="I248" s="38" t="s">
+        <v>715</v>
+      </c>
       <c r="J248" s="15"/>
       <c r="K248" s="27" t="s">
         <v>337</v>
       </c>
       <c r="L248" s="27"/>
-      <c r="M248" s="27"/>
+      <c r="M248" s="27" t="s">
+        <v>374</v>
+      </c>
       <c r="N248" s="27"/>
-      <c r="O248" s="89"/>
-      <c r="P248" s="28" t="str">
-        <f t="shared" ref="P248:P264" si="18">IF(N248&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O248), CONCATENATE("Athena-",O248)),"")</f>
-        <v/>
-      </c>
+      <c r="O248" s="89">
+        <v>2000000084</v>
+      </c>
+      <c r="P248" s="28"/>
       <c r="Q248" s="27"/>
       <c r="R248" s="27"/>
       <c r="S248" s="27"/>
@@ -17990,40 +18041,39 @@
         <v>779</v>
       </c>
     </row>
-    <row r="249" spans="1:24" s="54" customFormat="1" ht="47" customHeight="1">
+    <row r="249" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A249" s="59"/>
-      <c r="B249" s="67" t="s">
-        <v>150</v>
-      </c>
-      <c r="C249" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="D249" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="E249" s="45" t="s">
-        <v>251</v>
+      <c r="B249" s="67"/>
+      <c r="C249" s="45"/>
+      <c r="D249" s="84" t="s">
+        <v>738</v>
+      </c>
+      <c r="E249" s="84" t="s">
+        <v>737</v>
       </c>
       <c r="F249" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G249" s="15"/>
-      <c r="H249" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="I249" s="28"/>
+      <c r="G249" s="16"/>
+      <c r="H249" s="104" t="s">
+        <v>761</v>
+      </c>
+      <c r="I249" s="38" t="s">
+        <v>715</v>
+      </c>
       <c r="J249" s="15"/>
       <c r="K249" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L249" s="16"/>
-      <c r="M249" s="27"/>
+      <c r="L249" s="27"/>
+      <c r="M249" s="27" t="s">
+        <v>374</v>
+      </c>
       <c r="N249" s="27"/>
-      <c r="O249" s="27"/>
-      <c r="P249" s="28" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
+      <c r="O249" s="89">
+        <v>2000000085</v>
+      </c>
+      <c r="P249" s="28"/>
       <c r="Q249" s="27"/>
       <c r="R249" s="27"/>
       <c r="S249" s="27"/>
@@ -18035,40 +18085,39 @@
         <v>779</v>
       </c>
     </row>
-    <row r="250" spans="1:24" s="54" customFormat="1" ht="16">
+    <row r="250" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A250" s="59"/>
-      <c r="B250" s="67" t="s">
-        <v>150</v>
-      </c>
-      <c r="C250" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="D250" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="E250" s="45" t="s">
-        <v>133</v>
+      <c r="B250" s="67"/>
+      <c r="C250" s="45"/>
+      <c r="D250" s="84" t="s">
+        <v>910</v>
+      </c>
+      <c r="E250" s="84" t="s">
+        <v>911</v>
       </c>
       <c r="F250" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G250" s="15"/>
-      <c r="H250" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="I250" s="36"/>
+      <c r="G250" s="16"/>
+      <c r="H250" s="104" t="s">
+        <v>761</v>
+      </c>
+      <c r="I250" s="38" t="s">
+        <v>715</v>
+      </c>
       <c r="J250" s="15"/>
       <c r="K250" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L250" s="16"/>
-      <c r="M250" s="27"/>
+      <c r="L250" s="27"/>
+      <c r="M250" s="27" t="s">
+        <v>374</v>
+      </c>
       <c r="N250" s="27"/>
-      <c r="O250" s="27"/>
-      <c r="P250" s="28" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
+      <c r="O250" s="89">
+        <v>2000000126</v>
+      </c>
+      <c r="P250" s="28"/>
       <c r="Q250" s="27"/>
       <c r="R250" s="27"/>
       <c r="S250" s="27"/>
@@ -18080,44 +18129,39 @@
         <v>779</v>
       </c>
     </row>
-    <row r="251" spans="1:24" s="54" customFormat="1" ht="110" customHeight="1">
+    <row r="251" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A251" s="59"/>
-      <c r="B251" s="67" t="s">
-        <v>151</v>
-      </c>
-      <c r="C251" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="D251" s="76" t="s">
-        <v>214</v>
-      </c>
-      <c r="E251" s="76" t="s">
-        <v>528</v>
+      <c r="B251" s="67"/>
+      <c r="C251" s="45"/>
+      <c r="D251" s="84" t="s">
+        <v>912</v>
+      </c>
+      <c r="E251" s="84" t="s">
+        <v>913</v>
       </c>
       <c r="F251" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="G251" s="15" t="s">
-        <v>693</v>
-      </c>
-      <c r="H251" s="43" t="s">
-        <v>327</v>
-      </c>
-      <c r="I251" s="43"/>
+        <v>197</v>
+      </c>
+      <c r="G251" s="16"/>
+      <c r="H251" s="104" t="s">
+        <v>761</v>
+      </c>
+      <c r="I251" s="38" t="s">
+        <v>715</v>
+      </c>
       <c r="J251" s="15"/>
       <c r="K251" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L251" s="16" t="s">
-        <v>694</v>
-      </c>
-      <c r="M251" s="27"/>
+      <c r="L251" s="27"/>
+      <c r="M251" s="27" t="s">
+        <v>374</v>
+      </c>
       <c r="N251" s="27"/>
-      <c r="O251" s="27"/>
-      <c r="P251" s="28" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
+      <c r="O251" s="89">
+        <v>2000000127</v>
+      </c>
+      <c r="P251" s="28"/>
       <c r="Q251" s="27"/>
       <c r="R251" s="27"/>
       <c r="S251" s="27"/>
@@ -18126,20 +18170,18 @@
       <c r="V251" s="27"/>
       <c r="W251" s="27"/>
       <c r="X251" s="15" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
     </row>
     <row r="252" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A252" s="59"/>
       <c r="B252" s="67"/>
-      <c r="C252" s="45" t="s">
-        <v>573</v>
-      </c>
+      <c r="C252" s="45"/>
       <c r="D252" s="84" t="s">
-        <v>949</v>
-      </c>
-      <c r="E252" s="83" t="s">
-        <v>882</v>
+        <v>937</v>
+      </c>
+      <c r="E252" s="84" t="s">
+        <v>939</v>
       </c>
       <c r="F252" s="27" t="s">
         <v>197</v>
@@ -18148,7 +18190,7 @@
       <c r="H252" s="104" t="s">
         <v>761</v>
       </c>
-      <c r="I252" s="28" t="s">
+      <c r="I252" s="38" t="s">
         <v>715</v>
       </c>
       <c r="J252" s="15"/>
@@ -18156,17 +18198,14 @@
         <v>337</v>
       </c>
       <c r="L252" s="27"/>
-      <c r="M252" s="47" t="s">
+      <c r="M252" s="27" t="s">
         <v>374</v>
       </c>
       <c r="N252" s="27"/>
       <c r="O252" s="89">
-        <v>2000000068</v>
-      </c>
-      <c r="P252" s="28" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
+        <v>2000000128</v>
+      </c>
+      <c r="P252" s="28"/>
       <c r="Q252" s="27"/>
       <c r="R252" s="27"/>
       <c r="S252" s="27"/>
@@ -18175,18 +18214,18 @@
       <c r="V252" s="27"/>
       <c r="W252" s="27"/>
       <c r="X252" s="15" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
     </row>
     <row r="253" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A253" s="59"/>
       <c r="B253" s="67"/>
-      <c r="C253" s="106"/>
+      <c r="C253" s="45"/>
       <c r="D253" s="84" t="s">
-        <v>950</v>
-      </c>
-      <c r="E253" s="83" t="s">
-        <v>881</v>
+        <v>938</v>
+      </c>
+      <c r="E253" s="84" t="s">
+        <v>940</v>
       </c>
       <c r="F253" s="27" t="s">
         <v>197</v>
@@ -18195,7 +18234,7 @@
       <c r="H253" s="104" t="s">
         <v>761</v>
       </c>
-      <c r="I253" s="28" t="s">
+      <c r="I253" s="38" t="s">
         <v>715</v>
       </c>
       <c r="J253" s="15"/>
@@ -18203,17 +18242,14 @@
         <v>337</v>
       </c>
       <c r="L253" s="27"/>
-      <c r="M253" s="47" t="s">
+      <c r="M253" s="27" t="s">
         <v>374</v>
       </c>
       <c r="N253" s="27"/>
       <c r="O253" s="89">
-        <v>2000000123</v>
-      </c>
-      <c r="P253" s="28" t="str">
-        <f t="shared" ref="P253:P254" si="19">IF(N253&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O253), CONCATENATE("Athena-",O253)),"")</f>
-        <v/>
-      </c>
+        <v>2000000134</v>
+      </c>
+      <c r="P253" s="28"/>
       <c r="Q253" s="27"/>
       <c r="R253" s="27"/>
       <c r="S253" s="27"/>
@@ -18222,45 +18258,33 @@
       <c r="V253" s="27"/>
       <c r="W253" s="27"/>
       <c r="X253" s="15" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
     </row>
     <row r="254" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A254" s="59"/>
       <c r="B254" s="67"/>
-      <c r="C254" s="45" t="s">
-        <v>954</v>
-      </c>
-      <c r="D254" s="84" t="s">
-        <v>952</v>
-      </c>
-      <c r="E254" s="83" t="s">
-        <v>955</v>
+      <c r="C254" s="45"/>
+      <c r="D254" s="77"/>
+      <c r="E254" s="76" t="s">
+        <v>519</v>
       </c>
       <c r="F254" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G254" s="16"/>
-      <c r="H254" s="104" t="s">
-        <v>761</v>
-      </c>
-      <c r="I254" s="28" t="s">
-        <v>715</v>
-      </c>
+      <c r="H254" s="38"/>
+      <c r="I254" s="38"/>
       <c r="J254" s="15"/>
       <c r="K254" s="27" t="s">
         <v>337</v>
       </c>
       <c r="L254" s="27"/>
-      <c r="M254" s="47" t="s">
-        <v>374</v>
-      </c>
+      <c r="M254" s="27"/>
       <c r="N254" s="27"/>
-      <c r="O254" s="89">
-        <v>2000000135</v>
-      </c>
+      <c r="O254" s="89"/>
       <c r="P254" s="28" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="P254:P270" si="20">IF(N254&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O254), CONCATENATE("Athena-",O254)),"")</f>
         <v/>
       </c>
       <c r="Q254" s="27"/>
@@ -18271,43 +18295,41 @@
       <c r="V254" s="27"/>
       <c r="W254" s="27"/>
       <c r="X254" s="15" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="255" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="255" spans="1:24" s="54" customFormat="1" ht="47" customHeight="1">
       <c r="A255" s="59"/>
-      <c r="B255" s="67"/>
-      <c r="C255" s="106"/>
-      <c r="D255" s="84" t="s">
-        <v>953</v>
-      </c>
-      <c r="E255" s="83" t="s">
-        <v>956</v>
+      <c r="B255" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="C255" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D255" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="E255" s="45" t="s">
+        <v>251</v>
       </c>
       <c r="F255" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G255" s="16"/>
-      <c r="H255" s="104" t="s">
-        <v>761</v>
-      </c>
-      <c r="I255" s="28" t="s">
-        <v>715</v>
-      </c>
+      <c r="G255" s="15"/>
+      <c r="H255" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="I255" s="28"/>
       <c r="J255" s="15"/>
       <c r="K255" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L255" s="27"/>
-      <c r="M255" s="47" t="s">
-        <v>374</v>
-      </c>
+      <c r="L255" s="16"/>
+      <c r="M255" s="27"/>
       <c r="N255" s="27"/>
-      <c r="O255" s="89">
-        <v>2000000136</v>
-      </c>
+      <c r="O255" s="27"/>
       <c r="P255" s="28" t="str">
-        <f t="shared" ref="P255" si="20">IF(N255&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O255), CONCATENATE("Athena-",O255)),"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Q255" s="27"/>
@@ -18318,42 +18340,41 @@
       <c r="V255" s="27"/>
       <c r="W255" s="27"/>
       <c r="X255" s="15" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="256" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="256" spans="1:24" s="54" customFormat="1" ht="16">
       <c r="A256" s="59"/>
-      <c r="B256" s="67"/>
-      <c r="D256" s="84" t="s">
-        <v>523</v>
-      </c>
-      <c r="E256" s="84" t="s">
-        <v>530</v>
+      <c r="B256" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="C256" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="D256" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="E256" s="45" t="s">
+        <v>133</v>
       </c>
       <c r="F256" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G256" s="16"/>
-      <c r="H256" s="104" t="s">
-        <v>761</v>
-      </c>
-      <c r="I256" s="28" t="s">
-        <v>715</v>
-      </c>
+      <c r="G256" s="15"/>
+      <c r="H256" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="I256" s="36"/>
       <c r="J256" s="15"/>
       <c r="K256" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L256" s="27"/>
-      <c r="M256" s="47" t="s">
-        <v>374</v>
-      </c>
+      <c r="L256" s="16"/>
+      <c r="M256" s="27"/>
       <c r="N256" s="27"/>
-      <c r="O256" s="89">
-        <v>2000000069</v>
-      </c>
+      <c r="O256" s="27"/>
       <c r="P256" s="28" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Q256" s="27"/>
@@ -18364,45 +18385,45 @@
       <c r="V256" s="27"/>
       <c r="W256" s="27"/>
       <c r="X256" s="15" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="257" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="257" spans="1:24" s="54" customFormat="1" ht="110" customHeight="1">
       <c r="A257" s="59"/>
-      <c r="B257" s="67"/>
-      <c r="C257" s="45" t="s">
-        <v>574</v>
-      </c>
-      <c r="D257" s="84" t="s">
-        <v>524</v>
-      </c>
-      <c r="E257" s="84" t="s">
-        <v>531</v>
+      <c r="B257" s="67" t="s">
+        <v>151</v>
+      </c>
+      <c r="C257" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D257" s="76" t="s">
+        <v>214</v>
+      </c>
+      <c r="E257" s="76" t="s">
+        <v>528</v>
       </c>
       <c r="F257" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="G257" s="16"/>
-      <c r="H257" s="104" t="s">
-        <v>761</v>
-      </c>
-      <c r="I257" s="28" t="s">
-        <v>715</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G257" s="15" t="s">
+        <v>693</v>
+      </c>
+      <c r="H257" s="43" t="s">
+        <v>327</v>
+      </c>
+      <c r="I257" s="43"/>
       <c r="J257" s="15"/>
       <c r="K257" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L257" s="27"/>
-      <c r="M257" s="47" t="s">
-        <v>374</v>
-      </c>
+      <c r="L257" s="16" t="s">
+        <v>694</v>
+      </c>
+      <c r="M257" s="27"/>
       <c r="N257" s="27"/>
-      <c r="O257" s="89">
-        <v>2000000070</v>
-      </c>
+      <c r="O257" s="27"/>
       <c r="P257" s="28" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Q257" s="27"/>
@@ -18420,13 +18441,13 @@
       <c r="A258" s="59"/>
       <c r="B258" s="67"/>
       <c r="C258" s="45" t="s">
-        <v>581</v>
-      </c>
-      <c r="D258" s="83" t="s">
-        <v>575</v>
+        <v>573</v>
+      </c>
+      <c r="D258" s="84" t="s">
+        <v>954</v>
       </c>
       <c r="E258" s="83" t="s">
-        <v>578</v>
+        <v>882</v>
       </c>
       <c r="F258" s="27" t="s">
         <v>197</v>
@@ -18448,10 +18469,10 @@
       </c>
       <c r="N258" s="27"/>
       <c r="O258" s="89">
-        <v>2000000072</v>
+        <v>2000000068</v>
       </c>
       <c r="P258" s="28" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Q258" s="27"/>
@@ -18468,14 +18489,12 @@
     <row r="259" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A259" s="59"/>
       <c r="B259" s="67"/>
-      <c r="C259" s="45" t="s">
-        <v>582</v>
-      </c>
-      <c r="D259" s="83" t="s">
-        <v>576</v>
+      <c r="C259" s="106"/>
+      <c r="D259" s="84" t="s">
+        <v>955</v>
       </c>
       <c r="E259" s="83" t="s">
-        <v>579</v>
+        <v>881</v>
       </c>
       <c r="F259" s="27" t="s">
         <v>197</v>
@@ -18497,10 +18516,10 @@
       </c>
       <c r="N259" s="27"/>
       <c r="O259" s="89">
-        <v>2000000073</v>
+        <v>2000000123</v>
       </c>
       <c r="P259" s="28" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="P259:P260" si="21">IF(N259&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O259), CONCATENATE("Athena-",O259)),"")</f>
         <v/>
       </c>
       <c r="Q259" s="27"/>
@@ -18518,13 +18537,13 @@
       <c r="A260" s="59"/>
       <c r="B260" s="67"/>
       <c r="C260" s="45" t="s">
-        <v>583</v>
-      </c>
-      <c r="D260" s="83" t="s">
-        <v>577</v>
+        <v>941</v>
+      </c>
+      <c r="D260" s="84" t="s">
+        <v>956</v>
       </c>
       <c r="E260" s="83" t="s">
-        <v>580</v>
+        <v>942</v>
       </c>
       <c r="F260" s="27" t="s">
         <v>197</v>
@@ -18546,10 +18565,10 @@
       </c>
       <c r="N260" s="27"/>
       <c r="O260" s="89">
-        <v>2000000074</v>
+        <v>2000000135</v>
       </c>
       <c r="P260" s="28" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Q260" s="27"/>
@@ -18566,12 +18585,12 @@
     <row r="261" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A261" s="59"/>
       <c r="B261" s="67"/>
-      <c r="C261" s="45"/>
-      <c r="D261" s="83" t="s">
-        <v>951</v>
-      </c>
-      <c r="E261" s="84" t="s">
-        <v>739</v>
+      <c r="C261" s="106"/>
+      <c r="D261" s="84" t="s">
+        <v>957</v>
+      </c>
+      <c r="E261" s="83" t="s">
+        <v>943</v>
       </c>
       <c r="F261" s="27" t="s">
         <v>197</v>
@@ -18593,10 +18612,10 @@
       </c>
       <c r="N261" s="27"/>
       <c r="O261" s="89">
-        <v>2000000086</v>
+        <v>2000000136</v>
       </c>
       <c r="P261" s="28" t="str">
-        <f t="shared" ref="P261" si="21">IF(N261&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O261), CONCATENATE("Athena-",O261)),"")</f>
+        <f t="shared" ref="P261" si="22">IF(N261&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O261), CONCATENATE("Athena-",O261)),"")</f>
         <v/>
       </c>
       <c r="Q261" s="27"/>
@@ -18613,12 +18632,11 @@
     <row r="262" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A262" s="59"/>
       <c r="B262" s="67"/>
-      <c r="C262" s="45"/>
-      <c r="D262" s="76" t="s">
-        <v>527</v>
-      </c>
-      <c r="E262" s="77" t="s">
-        <v>529</v>
+      <c r="D262" s="84" t="s">
+        <v>958</v>
+      </c>
+      <c r="E262" s="84" t="s">
+        <v>530</v>
       </c>
       <c r="F262" s="27" t="s">
         <v>197</v>
@@ -18627,17 +18645,23 @@
       <c r="H262" s="104" t="s">
         <v>761</v>
       </c>
-      <c r="I262" s="28"/>
+      <c r="I262" s="28" t="s">
+        <v>715</v>
+      </c>
       <c r="J262" s="15"/>
       <c r="K262" s="27" t="s">
         <v>337</v>
       </c>
       <c r="L262" s="27"/>
-      <c r="M262" s="47"/>
+      <c r="M262" s="47" t="s">
+        <v>374</v>
+      </c>
       <c r="N262" s="27"/>
-      <c r="O262" s="89"/>
+      <c r="O262" s="89">
+        <v>2000000069</v>
+      </c>
       <c r="P262" s="28" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Q262" s="27"/>
@@ -18651,38 +18675,42 @@
         <v>775</v>
       </c>
     </row>
-    <row r="263" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
+    <row r="263" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A263" s="59"/>
-      <c r="B263" s="67" t="s">
-        <v>151</v>
-      </c>
-      <c r="C263" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="D263" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="E263" s="45" t="s">
-        <v>130</v>
+      <c r="B263" s="67"/>
+      <c r="C263" s="45" t="s">
+        <v>574</v>
+      </c>
+      <c r="D263" s="84" t="s">
+        <v>959</v>
+      </c>
+      <c r="E263" s="84" t="s">
+        <v>531</v>
       </c>
       <c r="F263" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G263" s="15"/>
+      <c r="G263" s="16"/>
       <c r="H263" s="104" t="s">
         <v>761</v>
       </c>
-      <c r="I263" s="28"/>
+      <c r="I263" s="28" t="s">
+        <v>715</v>
+      </c>
       <c r="J263" s="15"/>
       <c r="K263" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L263" s="16"/>
-      <c r="M263" s="27"/>
+      <c r="L263" s="27"/>
+      <c r="M263" s="47" t="s">
+        <v>374</v>
+      </c>
       <c r="N263" s="27"/>
-      <c r="O263" s="27"/>
+      <c r="O263" s="89">
+        <v>2000000070</v>
+      </c>
       <c r="P263" s="28" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Q263" s="27"/>
@@ -18696,38 +18724,42 @@
         <v>775</v>
       </c>
     </row>
-    <row r="264" spans="1:24" s="54" customFormat="1" ht="15">
+    <row r="264" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A264" s="59"/>
-      <c r="B264" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="C264" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="D264" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="E264" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="F264" s="15" t="s">
+      <c r="B264" s="67"/>
+      <c r="C264" s="45" t="s">
+        <v>581</v>
+      </c>
+      <c r="D264" s="83" t="s">
+        <v>575</v>
+      </c>
+      <c r="E264" s="83" t="s">
+        <v>578</v>
+      </c>
+      <c r="F264" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G264" s="15"/>
-      <c r="H264" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="I264" s="15"/>
+      <c r="G264" s="16"/>
+      <c r="H264" s="104" t="s">
+        <v>761</v>
+      </c>
+      <c r="I264" s="28" t="s">
+        <v>715</v>
+      </c>
       <c r="J264" s="15"/>
       <c r="K264" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L264" s="15"/>
-      <c r="M264" s="27"/>
+      <c r="L264" s="27"/>
+      <c r="M264" s="47" t="s">
+        <v>374</v>
+      </c>
       <c r="N264" s="27"/>
-      <c r="O264" s="27"/>
+      <c r="O264" s="89">
+        <v>2000000072</v>
+      </c>
       <c r="P264" s="28" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Q264" s="27"/>
@@ -18741,22 +18773,22 @@
         <v>775</v>
       </c>
     </row>
-    <row r="265" spans="1:24" s="54" customFormat="1" ht="16">
+    <row r="265" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A265" s="59"/>
-      <c r="B265" s="110" t="s">
-        <v>926</v>
-      </c>
-      <c r="C265" s="15"/>
+      <c r="B265" s="67"/>
+      <c r="C265" s="45" t="s">
+        <v>582</v>
+      </c>
       <c r="D265" s="83" t="s">
-        <v>928</v>
+        <v>576</v>
       </c>
       <c r="E265" s="83" t="s">
-        <v>922</v>
-      </c>
-      <c r="F265" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="F265" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G265" s="15"/>
+      <c r="G265" s="16"/>
       <c r="H265" s="104" t="s">
         <v>761</v>
       </c>
@@ -18767,15 +18799,18 @@
       <c r="K265" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L265" s="15"/>
+      <c r="L265" s="27"/>
       <c r="M265" s="47" t="s">
         <v>374</v>
       </c>
       <c r="N265" s="27"/>
       <c r="O265" s="89">
-        <v>2000000130</v>
-      </c>
-      <c r="P265" s="28"/>
+        <v>2000000073</v>
+      </c>
+      <c r="P265" s="28" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
       <c r="Q265" s="27"/>
       <c r="R265" s="27"/>
       <c r="S265" s="27"/>
@@ -18784,25 +18819,25 @@
       <c r="V265" s="27"/>
       <c r="W265" s="27"/>
       <c r="X265" s="15" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="266" spans="1:24" s="54" customFormat="1" ht="16">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="266" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A266" s="59"/>
-      <c r="B266" s="110" t="s">
-        <v>927</v>
-      </c>
-      <c r="C266" s="15"/>
+      <c r="B266" s="67"/>
+      <c r="C266" s="45" t="s">
+        <v>583</v>
+      </c>
       <c r="D266" s="83" t="s">
-        <v>929</v>
+        <v>577</v>
       </c>
       <c r="E266" s="83" t="s">
-        <v>923</v>
-      </c>
-      <c r="F266" s="15" t="s">
+        <v>580</v>
+      </c>
+      <c r="F266" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G266" s="15"/>
+      <c r="G266" s="16"/>
       <c r="H266" s="104" t="s">
         <v>761</v>
       </c>
@@ -18813,15 +18848,18 @@
       <c r="K266" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L266" s="15"/>
+      <c r="L266" s="27"/>
       <c r="M266" s="47" t="s">
         <v>374</v>
       </c>
       <c r="N266" s="27"/>
       <c r="O266" s="89">
-        <v>2000000131</v>
-      </c>
-      <c r="P266" s="28"/>
+        <v>2000000074</v>
+      </c>
+      <c r="P266" s="28" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
       <c r="Q266" s="27"/>
       <c r="R266" s="27"/>
       <c r="S266" s="27"/>
@@ -18830,23 +18868,23 @@
       <c r="V266" s="27"/>
       <c r="W266" s="27"/>
       <c r="X266" s="15" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="267" spans="1:24" s="54" customFormat="1" ht="16">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="267" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A267" s="59"/>
-      <c r="B267" s="49"/>
-      <c r="C267" s="15"/>
+      <c r="B267" s="67"/>
+      <c r="C267" s="45"/>
       <c r="D267" s="83" t="s">
-        <v>930</v>
-      </c>
-      <c r="E267" s="83" t="s">
-        <v>924</v>
-      </c>
-      <c r="F267" s="15" t="s">
+        <v>960</v>
+      </c>
+      <c r="E267" s="84" t="s">
+        <v>739</v>
+      </c>
+      <c r="F267" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G267" s="15"/>
+      <c r="G267" s="16"/>
       <c r="H267" s="104" t="s">
         <v>761</v>
       </c>
@@ -18857,15 +18895,18 @@
       <c r="K267" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L267" s="15"/>
+      <c r="L267" s="27"/>
       <c r="M267" s="47" t="s">
         <v>374</v>
       </c>
       <c r="N267" s="27"/>
       <c r="O267" s="89">
-        <v>2000000132</v>
-      </c>
-      <c r="P267" s="28"/>
+        <v>2000000086</v>
+      </c>
+      <c r="P267" s="28" t="str">
+        <f t="shared" ref="P267" si="23">IF(N267&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O267), CONCATENATE("Athena-",O267)),"")</f>
+        <v/>
+      </c>
       <c r="Q267" s="27"/>
       <c r="R267" s="27"/>
       <c r="S267" s="27"/>
@@ -18874,42 +18915,39 @@
       <c r="V267" s="27"/>
       <c r="W267" s="27"/>
       <c r="X267" s="15" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="268" spans="1:24" s="54" customFormat="1" ht="16">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="268" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A268" s="59"/>
-      <c r="B268" s="49"/>
-      <c r="C268" s="15"/>
-      <c r="D268" s="83" t="s">
-        <v>931</v>
-      </c>
-      <c r="E268" s="83" t="s">
-        <v>925</v>
-      </c>
-      <c r="F268" s="15" t="s">
+      <c r="B268" s="67"/>
+      <c r="C268" s="45"/>
+      <c r="D268" s="76" t="s">
+        <v>527</v>
+      </c>
+      <c r="E268" s="77" t="s">
+        <v>529</v>
+      </c>
+      <c r="F268" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G268" s="15"/>
+      <c r="G268" s="16"/>
       <c r="H268" s="104" t="s">
         <v>761</v>
       </c>
-      <c r="I268" s="28" t="s">
-        <v>715</v>
-      </c>
+      <c r="I268" s="28"/>
       <c r="J268" s="15"/>
       <c r="K268" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L268" s="15"/>
-      <c r="M268" s="47" t="s">
-        <v>374</v>
-      </c>
+      <c r="L268" s="27"/>
+      <c r="M268" s="47"/>
       <c r="N268" s="27"/>
-      <c r="O268" s="89">
-        <v>2000000133</v>
-      </c>
-      <c r="P268" s="28"/>
+      <c r="O268" s="89"/>
+      <c r="P268" s="28" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
       <c r="Q268" s="27"/>
       <c r="R268" s="27"/>
       <c r="S268" s="27"/>
@@ -18918,279 +18956,251 @@
       <c r="V268" s="27"/>
       <c r="W268" s="27"/>
       <c r="X268" s="15" t="s">
-        <v>933</v>
+        <v>775</v>
       </c>
     </row>
     <row r="269" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
       <c r="A269" s="59"/>
-      <c r="B269" s="110" t="s">
-        <v>789</v>
-      </c>
-      <c r="C269" s="27"/>
+      <c r="B269" s="67" t="s">
+        <v>151</v>
+      </c>
+      <c r="C269" s="27" t="s">
+        <v>139</v>
+      </c>
       <c r="D269" s="27" t="s">
-        <v>809</v>
+        <v>212</v>
       </c>
       <c r="E269" s="45" t="s">
-        <v>790</v>
+        <v>130</v>
       </c>
       <c r="F269" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="G269" s="15" t="s">
-        <v>791</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G269" s="15"/>
       <c r="H269" s="104" t="s">
-        <v>666</v>
-      </c>
-      <c r="I269" s="28" t="s">
-        <v>716</v>
-      </c>
+        <v>761</v>
+      </c>
+      <c r="I269" s="28"/>
       <c r="J269" s="15"/>
       <c r="K269" s="27" t="s">
         <v>337</v>
       </c>
       <c r="L269" s="16"/>
-      <c r="M269" s="27" t="s">
-        <v>367</v>
-      </c>
+      <c r="M269" s="27"/>
       <c r="N269" s="27"/>
-      <c r="O269" s="27">
-        <v>2000000107</v>
-      </c>
-      <c r="P269" s="28"/>
+      <c r="O269" s="27"/>
+      <c r="P269" s="28" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
       <c r="Q269" s="27"/>
       <c r="R269" s="27"/>
       <c r="S269" s="27"/>
-      <c r="T269" s="15" t="s">
-        <v>667</v>
-      </c>
-      <c r="U269" s="15" t="s">
-        <v>673</v>
-      </c>
+      <c r="T269" s="27"/>
+      <c r="U269" s="27"/>
       <c r="V269" s="27"/>
       <c r="W269" s="27"/>
       <c r="X269" s="15" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="270" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="270" spans="1:24" s="54" customFormat="1" ht="15">
       <c r="A270" s="59"/>
-      <c r="B270" s="49"/>
-      <c r="C270" s="27"/>
-      <c r="D270" s="27" t="s">
-        <v>794</v>
-      </c>
-      <c r="E270" s="45" t="s">
-        <v>799</v>
-      </c>
-      <c r="F270" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="G270" s="15" t="s">
-        <v>791</v>
-      </c>
-      <c r="H270" s="104" t="s">
-        <v>666</v>
-      </c>
-      <c r="I270" s="28" t="s">
-        <v>716</v>
-      </c>
+      <c r="B270" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="C270" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="D270" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="E270" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F270" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G270" s="15"/>
+      <c r="H270" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="I270" s="15"/>
       <c r="J270" s="15"/>
       <c r="K270" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L270" s="16"/>
-      <c r="M270" s="27" t="s">
-        <v>367</v>
-      </c>
+      <c r="L270" s="15"/>
+      <c r="M270" s="27"/>
       <c r="N270" s="27"/>
-      <c r="O270" s="27">
-        <v>2000000108</v>
-      </c>
-      <c r="P270" s="28"/>
+      <c r="O270" s="27"/>
+      <c r="P270" s="28" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
       <c r="Q270" s="27"/>
       <c r="R270" s="27"/>
       <c r="S270" s="27"/>
-      <c r="T270" s="15" t="s">
-        <v>667</v>
-      </c>
-      <c r="U270" s="15" t="s">
-        <v>673</v>
-      </c>
+      <c r="T270" s="27"/>
+      <c r="U270" s="27"/>
       <c r="V270" s="27"/>
       <c r="W270" s="27"/>
       <c r="X270" s="15" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="271" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="271" spans="1:24" s="54" customFormat="1" ht="16">
       <c r="A271" s="59"/>
-      <c r="B271" s="49"/>
-      <c r="C271" s="27"/>
-      <c r="D271" s="27" t="s">
-        <v>793</v>
-      </c>
-      <c r="E271" s="45" t="s">
-        <v>798</v>
-      </c>
-      <c r="F271" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="G271" s="15" t="s">
-        <v>791</v>
-      </c>
+      <c r="B271" s="110" t="s">
+        <v>918</v>
+      </c>
+      <c r="C271" s="15"/>
+      <c r="D271" s="83" t="s">
+        <v>920</v>
+      </c>
+      <c r="E271" s="83" t="s">
+        <v>914</v>
+      </c>
+      <c r="F271" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G271" s="15"/>
       <c r="H271" s="104" t="s">
-        <v>666</v>
+        <v>761</v>
       </c>
       <c r="I271" s="28" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J271" s="15"/>
       <c r="K271" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L271" s="16"/>
-      <c r="M271" s="27" t="s">
-        <v>367</v>
+      <c r="L271" s="15"/>
+      <c r="M271" s="47" t="s">
+        <v>374</v>
       </c>
       <c r="N271" s="27"/>
-      <c r="O271" s="27">
-        <v>2000000109</v>
+      <c r="O271" s="89">
+        <v>2000000130</v>
       </c>
       <c r="P271" s="28"/>
       <c r="Q271" s="27"/>
       <c r="R271" s="27"/>
       <c r="S271" s="27"/>
-      <c r="T271" s="15" t="s">
-        <v>667</v>
-      </c>
-      <c r="U271" s="15" t="s">
-        <v>673</v>
-      </c>
+      <c r="T271" s="27"/>
+      <c r="U271" s="27"/>
       <c r="V271" s="27"/>
       <c r="W271" s="27"/>
       <c r="X271" s="15" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="272" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="272" spans="1:24" s="54" customFormat="1" ht="16">
       <c r="A272" s="59"/>
-      <c r="B272" s="49"/>
-      <c r="C272" s="27"/>
-      <c r="D272" s="27" t="s">
-        <v>792</v>
-      </c>
-      <c r="E272" s="45" t="s">
-        <v>797</v>
-      </c>
-      <c r="F272" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="G272" s="15" t="s">
-        <v>791</v>
-      </c>
+      <c r="B272" s="110" t="s">
+        <v>919</v>
+      </c>
+      <c r="C272" s="15"/>
+      <c r="D272" s="83" t="s">
+        <v>921</v>
+      </c>
+      <c r="E272" s="83" t="s">
+        <v>915</v>
+      </c>
+      <c r="F272" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G272" s="15"/>
       <c r="H272" s="104" t="s">
-        <v>666</v>
+        <v>761</v>
       </c>
       <c r="I272" s="28" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J272" s="15"/>
       <c r="K272" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L272" s="16"/>
-      <c r="M272" s="27" t="s">
-        <v>367</v>
+      <c r="L272" s="15"/>
+      <c r="M272" s="47" t="s">
+        <v>374</v>
       </c>
       <c r="N272" s="27"/>
-      <c r="O272" s="27">
-        <v>2000000110</v>
+      <c r="O272" s="89">
+        <v>2000000131</v>
       </c>
       <c r="P272" s="28"/>
       <c r="Q272" s="27"/>
       <c r="R272" s="27"/>
       <c r="S272" s="27"/>
-      <c r="T272" s="15" t="s">
-        <v>667</v>
-      </c>
-      <c r="U272" s="15" t="s">
-        <v>673</v>
-      </c>
+      <c r="T272" s="27"/>
+      <c r="U272" s="27"/>
       <c r="V272" s="27"/>
       <c r="W272" s="27"/>
       <c r="X272" s="15" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="273" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="273" spans="1:24" s="54" customFormat="1" ht="16">
       <c r="A273" s="59"/>
       <c r="B273" s="49"/>
-      <c r="C273" s="27"/>
-      <c r="D273" s="27" t="s">
-        <v>795</v>
-      </c>
-      <c r="E273" s="45" t="s">
-        <v>796</v>
-      </c>
-      <c r="F273" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="G273" s="15" t="s">
-        <v>791</v>
-      </c>
+      <c r="C273" s="15"/>
+      <c r="D273" s="83" t="s">
+        <v>922</v>
+      </c>
+      <c r="E273" s="83" t="s">
+        <v>916</v>
+      </c>
+      <c r="F273" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G273" s="15"/>
       <c r="H273" s="104" t="s">
-        <v>666</v>
+        <v>761</v>
       </c>
       <c r="I273" s="28" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J273" s="15"/>
       <c r="K273" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L273" s="16"/>
-      <c r="M273" s="27" t="s">
-        <v>367</v>
+      <c r="L273" s="15"/>
+      <c r="M273" s="47" t="s">
+        <v>374</v>
       </c>
       <c r="N273" s="27"/>
-      <c r="O273" s="27">
-        <v>2000000111</v>
+      <c r="O273" s="89">
+        <v>2000000132</v>
       </c>
       <c r="P273" s="28"/>
       <c r="Q273" s="27"/>
       <c r="R273" s="27"/>
       <c r="S273" s="27"/>
-      <c r="T273" s="15" t="s">
-        <v>667</v>
-      </c>
-      <c r="U273" s="15" t="s">
-        <v>673</v>
-      </c>
+      <c r="T273" s="27"/>
+      <c r="U273" s="27"/>
       <c r="V273" s="27"/>
       <c r="W273" s="27"/>
       <c r="X273" s="15" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="274" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="274" spans="1:24" s="54" customFormat="1" ht="16">
       <c r="A274" s="59"/>
-      <c r="B274" s="110" t="s">
-        <v>802</v>
-      </c>
-      <c r="C274" s="27"/>
-      <c r="D274" s="54" t="s">
-        <v>808</v>
-      </c>
-      <c r="E274" s="45" t="s">
-        <v>807</v>
-      </c>
-      <c r="F274" s="27" t="s">
+      <c r="B274" s="49"/>
+      <c r="C274" s="15"/>
+      <c r="D274" s="83" t="s">
+        <v>923</v>
+      </c>
+      <c r="E274" s="83" t="s">
+        <v>917</v>
+      </c>
+      <c r="F274" s="15" t="s">
         <v>197</v>
       </c>
       <c r="G274" s="15"/>
       <c r="H274" s="104" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="I274" s="28" t="s">
         <v>715</v>
@@ -19199,45 +19209,49 @@
       <c r="K274" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L274" s="16"/>
-      <c r="M274" s="27" t="s">
+      <c r="L274" s="15"/>
+      <c r="M274" s="47" t="s">
         <v>374</v>
       </c>
       <c r="N274" s="27"/>
-      <c r="O274" s="27">
-        <v>2000000112</v>
+      <c r="O274" s="89">
+        <v>2000000133</v>
       </c>
       <c r="P274" s="28"/>
       <c r="Q274" s="27"/>
       <c r="R274" s="27"/>
       <c r="S274" s="27"/>
-      <c r="T274" s="15"/>
-      <c r="U274" s="15"/>
+      <c r="T274" s="27"/>
+      <c r="U274" s="27"/>
       <c r="V274" s="27"/>
       <c r="W274" s="27"/>
       <c r="X274" s="15" t="s">
-        <v>773</v>
+        <v>925</v>
       </c>
     </row>
     <row r="275" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
       <c r="A275" s="59"/>
-      <c r="B275" s="49"/>
+      <c r="B275" s="110" t="s">
+        <v>789</v>
+      </c>
       <c r="C275" s="27"/>
       <c r="D275" s="27" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="E275" s="45" t="s">
-        <v>810</v>
+        <v>790</v>
       </c>
       <c r="F275" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="G275" s="15"/>
+        <v>55</v>
+      </c>
+      <c r="G275" s="15" t="s">
+        <v>791</v>
+      </c>
       <c r="H275" s="104" t="s">
-        <v>759</v>
+        <v>666</v>
       </c>
       <c r="I275" s="28" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="J275" s="15"/>
       <c r="K275" s="27" t="s">
@@ -19245,22 +19259,26 @@
       </c>
       <c r="L275" s="16"/>
       <c r="M275" s="27" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="N275" s="27"/>
       <c r="O275" s="27">
-        <v>2000000113</v>
+        <v>2000000107</v>
       </c>
       <c r="P275" s="28"/>
       <c r="Q275" s="27"/>
       <c r="R275" s="27"/>
       <c r="S275" s="27"/>
-      <c r="T275" s="15"/>
-      <c r="U275" s="15"/>
+      <c r="T275" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="U275" s="15" t="s">
+        <v>673</v>
+      </c>
       <c r="V275" s="27"/>
       <c r="W275" s="27"/>
       <c r="X275" s="15" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="276" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
@@ -19268,20 +19286,22 @@
       <c r="B276" s="49"/>
       <c r="C276" s="27"/>
       <c r="D276" s="27" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="E276" s="45" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
       <c r="F276" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="G276" s="15"/>
+        <v>55</v>
+      </c>
+      <c r="G276" s="15" t="s">
+        <v>791</v>
+      </c>
       <c r="H276" s="104" t="s">
-        <v>759</v>
+        <v>666</v>
       </c>
       <c r="I276" s="28" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="J276" s="15"/>
       <c r="K276" s="27" t="s">
@@ -19289,22 +19309,26 @@
       </c>
       <c r="L276" s="16"/>
       <c r="M276" s="27" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="N276" s="27"/>
       <c r="O276" s="27">
-        <v>2000000114</v>
+        <v>2000000108</v>
       </c>
       <c r="P276" s="28"/>
       <c r="Q276" s="27"/>
       <c r="R276" s="27"/>
       <c r="S276" s="27"/>
-      <c r="T276" s="15"/>
-      <c r="U276" s="15"/>
+      <c r="T276" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="U276" s="15" t="s">
+        <v>673</v>
+      </c>
       <c r="V276" s="27"/>
       <c r="W276" s="27"/>
       <c r="X276" s="15" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="277" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
@@ -19312,20 +19336,22 @@
       <c r="B277" s="49"/>
       <c r="C277" s="27"/>
       <c r="D277" s="27" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
       <c r="E277" s="45" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="F277" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="G277" s="15"/>
+        <v>55</v>
+      </c>
+      <c r="G277" s="15" t="s">
+        <v>791</v>
+      </c>
       <c r="H277" s="104" t="s">
-        <v>759</v>
+        <v>666</v>
       </c>
       <c r="I277" s="28" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="J277" s="15"/>
       <c r="K277" s="27" t="s">
@@ -19333,22 +19359,26 @@
       </c>
       <c r="L277" s="16"/>
       <c r="M277" s="27" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="N277" s="27"/>
       <c r="O277" s="27">
-        <v>2000000115</v>
+        <v>2000000109</v>
       </c>
       <c r="P277" s="28"/>
       <c r="Q277" s="27"/>
       <c r="R277" s="27"/>
       <c r="S277" s="27"/>
-      <c r="T277" s="15"/>
-      <c r="U277" s="15"/>
+      <c r="T277" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="U277" s="15" t="s">
+        <v>673</v>
+      </c>
       <c r="V277" s="27"/>
       <c r="W277" s="27"/>
       <c r="X277" s="15" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
     </row>
     <row r="278" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
@@ -19356,20 +19386,22 @@
       <c r="B278" s="49"/>
       <c r="C278" s="27"/>
       <c r="D278" s="27" t="s">
-        <v>806</v>
+        <v>792</v>
       </c>
       <c r="E278" s="45" t="s">
-        <v>813</v>
+        <v>797</v>
       </c>
       <c r="F278" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="G278" s="15"/>
+        <v>55</v>
+      </c>
+      <c r="G278" s="15" t="s">
+        <v>791</v>
+      </c>
       <c r="H278" s="104" t="s">
-        <v>759</v>
+        <v>666</v>
       </c>
       <c r="I278" s="28" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="J278" s="15"/>
       <c r="K278" s="27" t="s">
@@ -19377,68 +19409,96 @@
       </c>
       <c r="L278" s="16"/>
       <c r="M278" s="27" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="N278" s="27"/>
       <c r="O278" s="27">
-        <v>2000000116</v>
+        <v>2000000110</v>
       </c>
       <c r="P278" s="28"/>
       <c r="Q278" s="27"/>
       <c r="R278" s="27"/>
       <c r="S278" s="27"/>
-      <c r="T278" s="15"/>
-      <c r="U278" s="15"/>
+      <c r="T278" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="U278" s="15" t="s">
+        <v>673</v>
+      </c>
       <c r="V278" s="27"/>
       <c r="W278" s="27"/>
       <c r="X278" s="15" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="279" spans="1:24" s="54" customFormat="1" ht="15">
-      <c r="A279" s="75" t="s">
-        <v>271</v>
-      </c>
-      <c r="B279" s="48"/>
-      <c r="C279" s="6"/>
-      <c r="D279" s="6"/>
-      <c r="E279" s="7"/>
-      <c r="F279" s="6"/>
-      <c r="G279" s="6"/>
-      <c r="H279" s="30"/>
-      <c r="I279" s="30"/>
-      <c r="J279" s="6"/>
-      <c r="K279" s="53"/>
-      <c r="L279" s="7"/>
-      <c r="M279" s="53"/>
-      <c r="N279" s="53"/>
-      <c r="O279" s="53"/>
-      <c r="P279" s="53"/>
-      <c r="Q279" s="53"/>
-      <c r="R279" s="53"/>
-      <c r="S279" s="53"/>
-      <c r="T279" s="53"/>
-      <c r="U279" s="53"/>
-      <c r="V279" s="53"/>
-      <c r="W279" s="53"/>
-      <c r="X279" s="53"/>
-    </row>
-    <row r="280" spans="1:24" s="54" customFormat="1" ht="15">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="279" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
+      <c r="A279" s="59"/>
+      <c r="B279" s="49"/>
+      <c r="C279" s="27"/>
+      <c r="D279" s="27" t="s">
+        <v>795</v>
+      </c>
+      <c r="E279" s="45" t="s">
+        <v>796</v>
+      </c>
+      <c r="F279" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G279" s="15" t="s">
+        <v>791</v>
+      </c>
+      <c r="H279" s="104" t="s">
+        <v>666</v>
+      </c>
+      <c r="I279" s="28" t="s">
+        <v>716</v>
+      </c>
+      <c r="J279" s="15"/>
+      <c r="K279" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="L279" s="16"/>
+      <c r="M279" s="27" t="s">
+        <v>367</v>
+      </c>
+      <c r="N279" s="27"/>
+      <c r="O279" s="27">
+        <v>2000000111</v>
+      </c>
+      <c r="P279" s="28"/>
+      <c r="Q279" s="27"/>
+      <c r="R279" s="27"/>
+      <c r="S279" s="27"/>
+      <c r="T279" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="U279" s="15" t="s">
+        <v>673</v>
+      </c>
+      <c r="V279" s="27"/>
+      <c r="W279" s="27"/>
+      <c r="X279" s="15" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="280" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
       <c r="A280" s="59"/>
-      <c r="B280" s="49"/>
-      <c r="C280" s="15"/>
-      <c r="D280" s="79" t="s">
-        <v>698</v>
-      </c>
-      <c r="E280" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="F280" s="15" t="s">
+      <c r="B280" s="110" t="s">
+        <v>802</v>
+      </c>
+      <c r="C280" s="27"/>
+      <c r="D280" s="54" t="s">
+        <v>808</v>
+      </c>
+      <c r="E280" s="45" t="s">
+        <v>807</v>
+      </c>
+      <c r="F280" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G280" s="15"/>
       <c r="H280" s="104" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="I280" s="28" t="s">
         <v>715</v>
@@ -19447,47 +19507,42 @@
       <c r="K280" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L280" s="24"/>
+      <c r="L280" s="16"/>
       <c r="M280" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="N280" s="27" t="s">
-        <v>368</v>
-      </c>
+      <c r="N280" s="27"/>
       <c r="O280" s="27">
-        <v>44807681</v>
-      </c>
-      <c r="P280" s="28" t="str">
-        <f t="shared" ref="P280:P293" si="22">IF(N280&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O280), CONCATENATE("Athena-",O280)),"")</f>
-        <v>Athena-44807681</v>
-      </c>
+        <v>2000000112</v>
+      </c>
+      <c r="P280" s="28"/>
       <c r="Q280" s="27"/>
       <c r="R280" s="27"/>
       <c r="S280" s="27"/>
-      <c r="T280" s="27"/>
-      <c r="U280" s="27"/>
+      <c r="T280" s="15"/>
+      <c r="U280" s="15"/>
       <c r="V280" s="27"/>
       <c r="W280" s="27"/>
-      <c r="X280" s="27" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="281" spans="1:24" s="54" customFormat="1" ht="16">
+      <c r="X280" s="15" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="281" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
       <c r="A281" s="59"/>
       <c r="B281" s="49"/>
-      <c r="C281" s="16"/>
-      <c r="D281" s="80" t="s">
-        <v>699</v>
-      </c>
-      <c r="E281" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="F281" s="15" t="s">
+      <c r="C281" s="27"/>
+      <c r="D281" s="27" t="s">
+        <v>803</v>
+      </c>
+      <c r="E281" s="45" t="s">
+        <v>810</v>
+      </c>
+      <c r="F281" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G281" s="15"/>
       <c r="H281" s="104" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="I281" s="28" t="s">
         <v>715</v>
@@ -19502,45 +19557,36 @@
       </c>
       <c r="N281" s="27"/>
       <c r="O281" s="27">
-        <v>2000000093</v>
-      </c>
-      <c r="P281" s="28" t="str">
-        <f>IF(N281&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O281), CONCATENATE("Athena-",O281)),"")</f>
-        <v/>
-      </c>
-      <c r="Q281" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="R281" s="27">
-        <v>8845</v>
-      </c>
-      <c r="S281" s="27" t="s">
-        <v>376</v>
-      </c>
-      <c r="T281" s="27"/>
-      <c r="U281" s="27"/>
+        <v>2000000113</v>
+      </c>
+      <c r="P281" s="28"/>
+      <c r="Q281" s="27"/>
+      <c r="R281" s="27"/>
+      <c r="S281" s="27"/>
+      <c r="T281" s="15"/>
+      <c r="U281" s="15"/>
       <c r="V281" s="27"/>
       <c r="W281" s="27"/>
-      <c r="X281" s="27" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="282" spans="1:24" s="54" customFormat="1" ht="16">
+      <c r="X281" s="15" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="282" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
       <c r="A282" s="59"/>
       <c r="B282" s="49"/>
-      <c r="C282" s="16"/>
-      <c r="D282" s="80" t="s">
-        <v>700</v>
-      </c>
-      <c r="E282" s="16" t="s">
-        <v>585</v>
-      </c>
-      <c r="F282" s="15" t="s">
+      <c r="C282" s="27"/>
+      <c r="D282" s="27" t="s">
+        <v>804</v>
+      </c>
+      <c r="E282" s="45" t="s">
+        <v>811</v>
+      </c>
+      <c r="F282" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G282" s="16"/>
+      <c r="G282" s="15"/>
       <c r="H282" s="104" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="I282" s="28" t="s">
         <v>715</v>
@@ -19555,45 +19601,36 @@
       </c>
       <c r="N282" s="27"/>
       <c r="O282" s="27">
-        <v>2000000094</v>
-      </c>
-      <c r="P282" s="28" t="str">
-        <f>IF(N282&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O282), CONCATENATE("Athena-",O282)),"")</f>
-        <v/>
-      </c>
-      <c r="Q282" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="R282" s="27">
-        <v>8845</v>
-      </c>
-      <c r="S282" s="27" t="s">
-        <v>376</v>
-      </c>
-      <c r="T282" s="27"/>
-      <c r="U282" s="27"/>
+        <v>2000000114</v>
+      </c>
+      <c r="P282" s="28"/>
+      <c r="Q282" s="27"/>
+      <c r="R282" s="27"/>
+      <c r="S282" s="27"/>
+      <c r="T282" s="15"/>
+      <c r="U282" s="15"/>
       <c r="V282" s="27"/>
       <c r="W282" s="27"/>
-      <c r="X282" s="27" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="283" spans="1:24" s="54" customFormat="1" ht="16">
+      <c r="X282" s="15" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="283" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
       <c r="A283" s="59"/>
       <c r="B283" s="49"/>
-      <c r="C283" s="16"/>
-      <c r="D283" s="80" t="s">
-        <v>771</v>
-      </c>
-      <c r="E283" s="16" t="s">
-        <v>772</v>
-      </c>
-      <c r="F283" s="15" t="s">
+      <c r="C283" s="27"/>
+      <c r="D283" s="27" t="s">
+        <v>805</v>
+      </c>
+      <c r="E283" s="45" t="s">
+        <v>812</v>
+      </c>
+      <c r="F283" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G283" s="16"/>
+      <c r="G283" s="15"/>
       <c r="H283" s="104" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="I283" s="28" t="s">
         <v>715</v>
@@ -19608,39 +19645,36 @@
       </c>
       <c r="N283" s="27"/>
       <c r="O283" s="27">
-        <v>2000000105</v>
-      </c>
-      <c r="P283" s="28" t="str">
-        <f>IF(N283&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O283), CONCATENATE("Athena-",O283)),"")</f>
-        <v/>
-      </c>
+        <v>2000000115</v>
+      </c>
+      <c r="P283" s="28"/>
       <c r="Q283" s="27"/>
       <c r="R283" s="27"/>
       <c r="S283" s="27"/>
-      <c r="T283" s="27"/>
-      <c r="U283" s="27"/>
+      <c r="T283" s="15"/>
+      <c r="U283" s="15"/>
       <c r="V283" s="27"/>
       <c r="W283" s="27"/>
-      <c r="X283" s="27" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="284" spans="1:24" s="54" customFormat="1" ht="16">
+      <c r="X283" s="15" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="284" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
       <c r="A284" s="59"/>
       <c r="B284" s="49"/>
-      <c r="C284" s="16"/>
-      <c r="D284" s="80" t="s">
-        <v>274</v>
-      </c>
-      <c r="E284" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="F284" s="15" t="s">
+      <c r="C284" s="27"/>
+      <c r="D284" s="27" t="s">
+        <v>806</v>
+      </c>
+      <c r="E284" s="45" t="s">
+        <v>813</v>
+      </c>
+      <c r="F284" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G284" s="15"/>
       <c r="H284" s="104" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="I284" s="28" t="s">
         <v>715</v>
@@ -19655,79 +19689,57 @@
       </c>
       <c r="N284" s="27"/>
       <c r="O284" s="27">
-        <v>2000000095</v>
-      </c>
-      <c r="P284" s="28" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
+        <v>2000000116</v>
+      </c>
+      <c r="P284" s="28"/>
       <c r="Q284" s="27"/>
       <c r="R284" s="27"/>
       <c r="S284" s="27"/>
-      <c r="T284" s="27"/>
-      <c r="U284" s="27"/>
+      <c r="T284" s="15"/>
+      <c r="U284" s="15"/>
       <c r="V284" s="27"/>
       <c r="W284" s="27"/>
-      <c r="X284" s="27" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="285" spans="1:24" s="54" customFormat="1" ht="16">
-      <c r="A285" s="59"/>
-      <c r="B285" s="49"/>
-      <c r="C285" s="15"/>
-      <c r="D285" s="79" t="s">
-        <v>275</v>
-      </c>
-      <c r="E285" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="F285" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="G285" s="15"/>
-      <c r="H285" s="104" t="s">
-        <v>761</v>
-      </c>
-      <c r="I285" s="28" t="s">
-        <v>715</v>
-      </c>
-      <c r="J285" s="15"/>
-      <c r="K285" s="27" t="s">
-        <v>337</v>
-      </c>
-      <c r="L285" s="16"/>
-      <c r="M285" s="27" t="s">
-        <v>374</v>
-      </c>
-      <c r="N285" s="27"/>
-      <c r="O285" s="79">
-        <v>2000000096</v>
-      </c>
-      <c r="P285" s="28" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="Q285" s="27"/>
-      <c r="R285" s="27"/>
-      <c r="S285" s="27"/>
-      <c r="T285" s="27"/>
-      <c r="U285" s="27"/>
-      <c r="V285" s="27"/>
-      <c r="W285" s="27"/>
-      <c r="X285" s="27" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="286" spans="1:24" s="54" customFormat="1" ht="16">
+      <c r="X284" s="15" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="285" spans="1:24" s="54" customFormat="1" ht="15">
+      <c r="A285" s="75" t="s">
+        <v>271</v>
+      </c>
+      <c r="B285" s="48"/>
+      <c r="C285" s="6"/>
+      <c r="D285" s="6"/>
+      <c r="E285" s="7"/>
+      <c r="F285" s="6"/>
+      <c r="G285" s="6"/>
+      <c r="H285" s="30"/>
+      <c r="I285" s="30"/>
+      <c r="J285" s="6"/>
+      <c r="K285" s="53"/>
+      <c r="L285" s="7"/>
+      <c r="M285" s="53"/>
+      <c r="N285" s="53"/>
+      <c r="O285" s="53"/>
+      <c r="P285" s="53"/>
+      <c r="Q285" s="53"/>
+      <c r="R285" s="53"/>
+      <c r="S285" s="53"/>
+      <c r="T285" s="53"/>
+      <c r="U285" s="53"/>
+      <c r="V285" s="53"/>
+      <c r="W285" s="53"/>
+      <c r="X285" s="53"/>
+    </row>
+    <row r="286" spans="1:24" s="54" customFormat="1" ht="15">
       <c r="A286" s="59"/>
       <c r="B286" s="49"/>
       <c r="C286" s="15"/>
       <c r="D286" s="79" t="s">
-        <v>701</v>
-      </c>
-      <c r="E286" s="11" t="s">
-        <v>288</v>
+        <v>698</v>
+      </c>
+      <c r="E286" s="15" t="s">
+        <v>283</v>
       </c>
       <c r="F286" s="15" t="s">
         <v>197</v>
@@ -19743,17 +19755,19 @@
       <c r="K286" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L286" s="16"/>
+      <c r="L286" s="24"/>
       <c r="M286" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="N286" s="27"/>
+      <c r="N286" s="27" t="s">
+        <v>368</v>
+      </c>
       <c r="O286" s="27">
-        <v>2000000097</v>
+        <v>44807681</v>
       </c>
       <c r="P286" s="28" t="str">
-        <f t="shared" si="22"/>
-        <v/>
+        <f t="shared" ref="P286:P299" si="24">IF(N286&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O286), CONCATENATE("Athena-",O286)),"")</f>
+        <v>Athena-44807681</v>
       </c>
       <c r="Q286" s="27"/>
       <c r="R286" s="27"/>
@@ -19771,15 +19785,15 @@
       <c r="B287" s="49"/>
       <c r="C287" s="16"/>
       <c r="D287" s="80" t="s">
-        <v>276</v>
+        <v>699</v>
       </c>
       <c r="E287" s="16" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F287" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="G287" s="16"/>
+      <c r="G287" s="15"/>
       <c r="H287" s="104" t="s">
         <v>761</v>
       </c>
@@ -19794,19 +19808,23 @@
       <c r="M287" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="N287" s="27" t="s">
-        <v>368</v>
-      </c>
+      <c r="N287" s="27"/>
       <c r="O287" s="27">
-        <v>46284972</v>
+        <v>2000000093</v>
       </c>
       <c r="P287" s="28" t="str">
-        <f t="shared" si="22"/>
-        <v>Athena-46284972</v>
-      </c>
-      <c r="Q287" s="27"/>
-      <c r="R287" s="27"/>
-      <c r="S287" s="27"/>
+        <f>IF(N287&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O287), CONCATENATE("Athena-",O287)),"")</f>
+        <v/>
+      </c>
+      <c r="Q287" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="R287" s="27">
+        <v>8845</v>
+      </c>
+      <c r="S287" s="27" t="s">
+        <v>376</v>
+      </c>
       <c r="T287" s="27"/>
       <c r="U287" s="27"/>
       <c r="V287" s="27"/>
@@ -19820,15 +19838,15 @@
       <c r="B288" s="49"/>
       <c r="C288" s="16"/>
       <c r="D288" s="80" t="s">
-        <v>277</v>
+        <v>700</v>
       </c>
       <c r="E288" s="16" t="s">
-        <v>378</v>
+        <v>585</v>
       </c>
       <c r="F288" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="G288" s="15"/>
+      <c r="G288" s="16"/>
       <c r="H288" s="104" t="s">
         <v>761</v>
       </c>
@@ -19845,15 +19863,21 @@
       </c>
       <c r="N288" s="27"/>
       <c r="O288" s="27">
-        <v>2000000098</v>
+        <v>2000000094</v>
       </c>
       <c r="P288" s="28" t="str">
-        <f t="shared" si="22"/>
+        <f>IF(N288&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O288), CONCATENATE("Athena-",O288)),"")</f>
         <v/>
       </c>
-      <c r="Q288" s="27"/>
-      <c r="R288" s="27"/>
-      <c r="S288" s="27"/>
+      <c r="Q288" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="R288" s="27">
+        <v>8845</v>
+      </c>
+      <c r="S288" s="27" t="s">
+        <v>376</v>
+      </c>
       <c r="T288" s="27"/>
       <c r="U288" s="27"/>
       <c r="V288" s="27"/>
@@ -19865,17 +19889,17 @@
     <row r="289" spans="1:25" s="54" customFormat="1" ht="16">
       <c r="A289" s="59"/>
       <c r="B289" s="49"/>
-      <c r="C289" s="15"/>
-      <c r="D289" s="79" t="s">
-        <v>278</v>
-      </c>
-      <c r="E289" s="45" t="s">
-        <v>377</v>
+      <c r="C289" s="16"/>
+      <c r="D289" s="80" t="s">
+        <v>771</v>
+      </c>
+      <c r="E289" s="16" t="s">
+        <v>772</v>
       </c>
       <c r="F289" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="G289" s="15"/>
+      <c r="G289" s="16"/>
       <c r="H289" s="104" t="s">
         <v>761</v>
       </c>
@@ -19892,10 +19916,10 @@
       </c>
       <c r="N289" s="27"/>
       <c r="O289" s="27">
-        <v>2000000099</v>
+        <v>2000000105</v>
       </c>
       <c r="P289" s="28" t="str">
-        <f t="shared" si="22"/>
+        <f>IF(N289&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O289), CONCATENATE("Athena-",O289)),"")</f>
         <v/>
       </c>
       <c r="Q289" s="27"/>
@@ -19911,25 +19935,25 @@
     </row>
     <row r="290" spans="1:25" s="54" customFormat="1" ht="16">
       <c r="A290" s="59"/>
-      <c r="B290" s="16"/>
+      <c r="B290" s="49"/>
       <c r="C290" s="16"/>
       <c r="D290" s="80" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E290" s="16" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F290" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="G290" s="16"/>
+      <c r="G290" s="15"/>
       <c r="H290" s="104" t="s">
         <v>761</v>
       </c>
       <c r="I290" s="28" t="s">
         <v>715</v>
       </c>
-      <c r="J290" s="16"/>
+      <c r="J290" s="15"/>
       <c r="K290" s="27" t="s">
         <v>337</v>
       </c>
@@ -19937,15 +19961,13 @@
       <c r="M290" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="N290" s="27" t="s">
-        <v>368</v>
-      </c>
+      <c r="N290" s="27"/>
       <c r="O290" s="27">
-        <v>4332015</v>
+        <v>2000000095</v>
       </c>
       <c r="P290" s="28" t="str">
-        <f t="shared" si="22"/>
-        <v>Athena-4332015</v>
+        <f t="shared" si="24"/>
+        <v/>
       </c>
       <c r="Q290" s="27"/>
       <c r="R290" s="27"/>
@@ -19960,25 +19982,25 @@
     </row>
     <row r="291" spans="1:25" s="54" customFormat="1" ht="16">
       <c r="A291" s="59"/>
-      <c r="B291" s="16"/>
-      <c r="C291" s="16"/>
-      <c r="D291" s="80" t="s">
-        <v>280</v>
-      </c>
-      <c r="E291" s="16" t="s">
-        <v>291</v>
+      <c r="B291" s="49"/>
+      <c r="C291" s="15"/>
+      <c r="D291" s="79" t="s">
+        <v>275</v>
+      </c>
+      <c r="E291" s="45" t="s">
+        <v>286</v>
       </c>
       <c r="F291" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="G291" s="16"/>
+      <c r="G291" s="15"/>
       <c r="H291" s="104" t="s">
         <v>761</v>
       </c>
       <c r="I291" s="28" t="s">
         <v>715</v>
       </c>
-      <c r="J291" s="16"/>
+      <c r="J291" s="15"/>
       <c r="K291" s="27" t="s">
         <v>337</v>
       </c>
@@ -19986,15 +20008,13 @@
       <c r="M291" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="N291" s="27" t="s">
-        <v>368</v>
-      </c>
-      <c r="O291" s="27">
-        <v>4166200</v>
+      <c r="N291" s="27"/>
+      <c r="O291" s="79">
+        <v>2000000096</v>
       </c>
       <c r="P291" s="28" t="str">
-        <f t="shared" si="22"/>
-        <v>Athena-4166200</v>
+        <f t="shared" si="24"/>
+        <v/>
       </c>
       <c r="Q291" s="27"/>
       <c r="R291" s="27"/>
@@ -20009,25 +20029,25 @@
     </row>
     <row r="292" spans="1:25" s="54" customFormat="1" ht="16">
       <c r="A292" s="59"/>
-      <c r="B292" s="16"/>
-      <c r="C292" s="16"/>
-      <c r="D292" s="80" t="s">
-        <v>702</v>
-      </c>
-      <c r="E292" s="16" t="s">
-        <v>292</v>
+      <c r="B292" s="49"/>
+      <c r="C292" s="15"/>
+      <c r="D292" s="79" t="s">
+        <v>701</v>
+      </c>
+      <c r="E292" s="11" t="s">
+        <v>288</v>
       </c>
       <c r="F292" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="G292" s="16"/>
+      <c r="G292" s="15"/>
       <c r="H292" s="104" t="s">
         <v>761</v>
       </c>
       <c r="I292" s="28" t="s">
         <v>715</v>
       </c>
-      <c r="J292" s="16"/>
+      <c r="J292" s="15"/>
       <c r="K292" s="27" t="s">
         <v>337</v>
       </c>
@@ -20035,15 +20055,13 @@
       <c r="M292" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="N292" s="27" t="s">
-        <v>368</v>
-      </c>
+      <c r="N292" s="27"/>
       <c r="O292" s="27">
-        <v>4282774</v>
+        <v>2000000097</v>
       </c>
       <c r="P292" s="28" t="str">
-        <f t="shared" si="22"/>
-        <v>Athena-4282774</v>
+        <f t="shared" si="24"/>
+        <v/>
       </c>
       <c r="Q292" s="27"/>
       <c r="R292" s="27"/>
@@ -20058,13 +20076,13 @@
     </row>
     <row r="293" spans="1:25" s="54" customFormat="1" ht="16">
       <c r="A293" s="59"/>
-      <c r="B293" s="16"/>
+      <c r="B293" s="49"/>
       <c r="C293" s="16"/>
       <c r="D293" s="80" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F293" s="15" t="s">
         <v>197</v>
@@ -20076,7 +20094,7 @@
       <c r="I293" s="28" t="s">
         <v>715</v>
       </c>
-      <c r="J293" s="16"/>
+      <c r="J293" s="15"/>
       <c r="K293" s="27" t="s">
         <v>337</v>
       </c>
@@ -20084,13 +20102,15 @@
       <c r="M293" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="N293" s="27"/>
+      <c r="N293" s="27" t="s">
+        <v>368</v>
+      </c>
       <c r="O293" s="27">
-        <v>2000000076</v>
+        <v>46284972</v>
       </c>
       <c r="P293" s="28" t="str">
-        <f t="shared" si="22"/>
-        <v/>
+        <f t="shared" si="24"/>
+        <v>Athena-46284972</v>
       </c>
       <c r="Q293" s="27"/>
       <c r="R293" s="27"/>
@@ -20105,25 +20125,25 @@
     </row>
     <row r="294" spans="1:25" s="54" customFormat="1" ht="16">
       <c r="A294" s="59"/>
-      <c r="B294" s="16"/>
+      <c r="B294" s="49"/>
       <c r="C294" s="16"/>
       <c r="D294" s="80" t="s">
-        <v>780</v>
+        <v>277</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>781</v>
+        <v>378</v>
       </c>
       <c r="F294" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="G294" s="16"/>
+      <c r="G294" s="15"/>
       <c r="H294" s="104" t="s">
         <v>761</v>
       </c>
       <c r="I294" s="28" t="s">
         <v>715</v>
       </c>
-      <c r="J294" s="16"/>
+      <c r="J294" s="15"/>
       <c r="K294" s="27" t="s">
         <v>337</v>
       </c>
@@ -20131,19 +20151,15 @@
       <c r="M294" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="N294" s="27" t="s">
-        <v>368</v>
-      </c>
+      <c r="N294" s="27"/>
       <c r="O294" s="27">
-        <v>4056962</v>
+        <v>2000000098</v>
       </c>
       <c r="P294" s="28" t="str">
-        <f t="shared" ref="P294" si="23">IF(N294&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O294), CONCATENATE("Athena-",O294)),"")</f>
-        <v>Athena-4056962</v>
-      </c>
-      <c r="Q294" s="27" t="s">
-        <v>782</v>
-      </c>
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="Q294" s="27"/>
       <c r="R294" s="27"/>
       <c r="S294" s="27"/>
       <c r="T294" s="27"/>
@@ -20153,129 +20169,301 @@
       <c r="X294" s="27" t="s">
         <v>770</v>
       </c>
-      <c r="Y294" s="54" t="s">
+    </row>
+    <row r="295" spans="1:25" s="54" customFormat="1" ht="16">
+      <c r="A295" s="59"/>
+      <c r="B295" s="49"/>
+      <c r="C295" s="15"/>
+      <c r="D295" s="79" t="s">
+        <v>278</v>
+      </c>
+      <c r="E295" s="45" t="s">
+        <v>377</v>
+      </c>
+      <c r="F295" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G295" s="15"/>
+      <c r="H295" s="104" t="s">
+        <v>761</v>
+      </c>
+      <c r="I295" s="28" t="s">
+        <v>715</v>
+      </c>
+      <c r="J295" s="15"/>
+      <c r="K295" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="L295" s="16"/>
+      <c r="M295" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="N295" s="27"/>
+      <c r="O295" s="27">
+        <v>2000000099</v>
+      </c>
+      <c r="P295" s="28" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="Q295" s="27"/>
+      <c r="R295" s="27"/>
+      <c r="S295" s="27"/>
+      <c r="T295" s="27"/>
+      <c r="U295" s="27"/>
+      <c r="V295" s="27"/>
+      <c r="W295" s="27"/>
+      <c r="X295" s="27" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="296" spans="1:25" s="54" customFormat="1" ht="16">
+      <c r="A296" s="59"/>
+      <c r="B296" s="16"/>
+      <c r="C296" s="16"/>
+      <c r="D296" s="80" t="s">
+        <v>279</v>
+      </c>
+      <c r="E296" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="F296" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G296" s="16"/>
+      <c r="H296" s="104" t="s">
+        <v>761</v>
+      </c>
+      <c r="I296" s="28" t="s">
+        <v>715</v>
+      </c>
+      <c r="J296" s="16"/>
+      <c r="K296" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="L296" s="16"/>
+      <c r="M296" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="N296" s="27" t="s">
+        <v>368</v>
+      </c>
+      <c r="O296" s="27">
+        <v>4332015</v>
+      </c>
+      <c r="P296" s="28" t="str">
+        <f t="shared" si="24"/>
+        <v>Athena-4332015</v>
+      </c>
+      <c r="Q296" s="27"/>
+      <c r="R296" s="27"/>
+      <c r="S296" s="27"/>
+      <c r="T296" s="27"/>
+      <c r="U296" s="27"/>
+      <c r="V296" s="27"/>
+      <c r="W296" s="27"/>
+      <c r="X296" s="27" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="297" spans="1:25" s="54" customFormat="1" ht="16">
+      <c r="A297" s="59"/>
+      <c r="B297" s="16"/>
+      <c r="C297" s="16"/>
+      <c r="D297" s="80" t="s">
+        <v>280</v>
+      </c>
+      <c r="E297" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="F297" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G297" s="16"/>
+      <c r="H297" s="104" t="s">
+        <v>761</v>
+      </c>
+      <c r="I297" s="28" t="s">
+        <v>715</v>
+      </c>
+      <c r="J297" s="16"/>
+      <c r="K297" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="L297" s="16"/>
+      <c r="M297" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="N297" s="27" t="s">
+        <v>368</v>
+      </c>
+      <c r="O297" s="27">
+        <v>4166200</v>
+      </c>
+      <c r="P297" s="28" t="str">
+        <f t="shared" si="24"/>
+        <v>Athena-4166200</v>
+      </c>
+      <c r="Q297" s="27"/>
+      <c r="R297" s="27"/>
+      <c r="S297" s="27"/>
+      <c r="T297" s="27"/>
+      <c r="U297" s="27"/>
+      <c r="V297" s="27"/>
+      <c r="W297" s="27"/>
+      <c r="X297" s="27" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="298" spans="1:25" s="54" customFormat="1" ht="16">
+      <c r="A298" s="59"/>
+      <c r="B298" s="16"/>
+      <c r="C298" s="16"/>
+      <c r="D298" s="80" t="s">
+        <v>702</v>
+      </c>
+      <c r="E298" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="F298" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G298" s="16"/>
+      <c r="H298" s="104" t="s">
+        <v>761</v>
+      </c>
+      <c r="I298" s="28" t="s">
+        <v>715</v>
+      </c>
+      <c r="J298" s="16"/>
+      <c r="K298" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="L298" s="16"/>
+      <c r="M298" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="N298" s="27" t="s">
+        <v>368</v>
+      </c>
+      <c r="O298" s="27">
+        <v>4282774</v>
+      </c>
+      <c r="P298" s="28" t="str">
+        <f t="shared" si="24"/>
+        <v>Athena-4282774</v>
+      </c>
+      <c r="Q298" s="27"/>
+      <c r="R298" s="27"/>
+      <c r="S298" s="27"/>
+      <c r="T298" s="27"/>
+      <c r="U298" s="27"/>
+      <c r="V298" s="27"/>
+      <c r="W298" s="27"/>
+      <c r="X298" s="27" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="299" spans="1:25" s="54" customFormat="1" ht="16">
+      <c r="A299" s="59"/>
+      <c r="B299" s="16"/>
+      <c r="C299" s="16"/>
+      <c r="D299" s="80" t="s">
+        <v>282</v>
+      </c>
+      <c r="E299" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="F299" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G299" s="16"/>
+      <c r="H299" s="104" t="s">
+        <v>761</v>
+      </c>
+      <c r="I299" s="28" t="s">
+        <v>715</v>
+      </c>
+      <c r="J299" s="16"/>
+      <c r="K299" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="L299" s="16"/>
+      <c r="M299" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="N299" s="27"/>
+      <c r="O299" s="27">
+        <v>2000000076</v>
+      </c>
+      <c r="P299" s="28" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="Q299" s="27"/>
+      <c r="R299" s="27"/>
+      <c r="S299" s="27"/>
+      <c r="T299" s="27"/>
+      <c r="U299" s="27"/>
+      <c r="V299" s="27"/>
+      <c r="W299" s="27"/>
+      <c r="X299" s="27" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="300" spans="1:25" s="54" customFormat="1" ht="16">
+      <c r="A300" s="59"/>
+      <c r="B300" s="16"/>
+      <c r="C300" s="16"/>
+      <c r="D300" s="80" t="s">
+        <v>780</v>
+      </c>
+      <c r="E300" s="16" t="s">
+        <v>781</v>
+      </c>
+      <c r="F300" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G300" s="16"/>
+      <c r="H300" s="104" t="s">
+        <v>761</v>
+      </c>
+      <c r="I300" s="28" t="s">
+        <v>715</v>
+      </c>
+      <c r="J300" s="16"/>
+      <c r="K300" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="L300" s="16"/>
+      <c r="M300" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="N300" s="27" t="s">
+        <v>368</v>
+      </c>
+      <c r="O300" s="27">
+        <v>4056962</v>
+      </c>
+      <c r="P300" s="28" t="str">
+        <f t="shared" ref="P300" si="25">IF(N300&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O300), CONCATENATE("Athena-",O300)),"")</f>
+        <v>Athena-4056962</v>
+      </c>
+      <c r="Q300" s="27" t="s">
+        <v>782</v>
+      </c>
+      <c r="R300" s="27"/>
+      <c r="S300" s="27"/>
+      <c r="T300" s="27"/>
+      <c r="U300" s="27"/>
+      <c r="V300" s="27"/>
+      <c r="W300" s="27"/>
+      <c r="X300" s="27" t="s">
+        <v>770</v>
+      </c>
+      <c r="Y300" s="54" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="295" spans="1:25">
-      <c r="G295" s="23"/>
-      <c r="H295" s="34"/>
-      <c r="I295" s="34"/>
-      <c r="J295" s="23"/>
-      <c r="K295" s="40"/>
-      <c r="L295" s="23"/>
-      <c r="M295" s="40"/>
-      <c r="N295" s="40"/>
-      <c r="O295" s="40"/>
-      <c r="P295" s="40"/>
-      <c r="Q295" s="40"/>
-      <c r="R295" s="40"/>
-      <c r="S295" s="40"/>
-      <c r="T295" s="40"/>
-      <c r="U295" s="40"/>
-      <c r="V295" s="40"/>
-      <c r="W295" s="40"/>
-      <c r="X295" s="40"/>
-    </row>
-    <row r="296" spans="1:25">
-      <c r="G296" s="23"/>
-      <c r="H296" s="34"/>
-      <c r="I296" s="34"/>
-      <c r="J296" s="23"/>
-      <c r="K296" s="40"/>
-      <c r="L296" s="23"/>
-      <c r="M296" s="40"/>
-      <c r="N296" s="40"/>
-      <c r="O296" s="40"/>
-      <c r="P296" s="40"/>
-      <c r="Q296" s="40"/>
-      <c r="R296" s="40"/>
-      <c r="S296" s="40"/>
-      <c r="T296" s="40"/>
-      <c r="U296" s="40"/>
-      <c r="V296" s="40"/>
-      <c r="W296" s="40"/>
-      <c r="X296" s="40"/>
-    </row>
-    <row r="297" spans="1:25">
-      <c r="G297" s="23"/>
-      <c r="H297" s="34"/>
-      <c r="I297" s="34"/>
-      <c r="J297" s="23"/>
-      <c r="K297" s="40"/>
-      <c r="L297" s="23"/>
-      <c r="M297" s="40"/>
-      <c r="N297" s="40"/>
-      <c r="O297" s="40"/>
-      <c r="P297" s="40"/>
-      <c r="Q297" s="40"/>
-      <c r="R297" s="40"/>
-      <c r="S297" s="40"/>
-      <c r="T297" s="40"/>
-      <c r="U297" s="40"/>
-      <c r="V297" s="40"/>
-      <c r="W297" s="40"/>
-      <c r="X297" s="40"/>
-    </row>
-    <row r="298" spans="1:25">
-      <c r="G298" s="23"/>
-      <c r="H298" s="34"/>
-      <c r="I298" s="34"/>
-      <c r="J298" s="23"/>
-      <c r="K298" s="40"/>
-      <c r="L298" s="23"/>
-      <c r="M298" s="40"/>
-      <c r="N298" s="40"/>
-      <c r="O298" s="40"/>
-      <c r="P298" s="40"/>
-      <c r="Q298" s="40"/>
-      <c r="R298" s="40"/>
-      <c r="S298" s="40"/>
-      <c r="T298" s="40"/>
-      <c r="U298" s="40"/>
-      <c r="V298" s="40"/>
-      <c r="W298" s="40"/>
-      <c r="X298" s="40"/>
-    </row>
-    <row r="299" spans="1:25">
-      <c r="G299" s="23"/>
-      <c r="H299" s="34"/>
-      <c r="I299" s="34"/>
-      <c r="J299" s="23"/>
-      <c r="K299" s="40"/>
-      <c r="L299" s="23"/>
-      <c r="M299" s="40"/>
-      <c r="N299" s="40"/>
-      <c r="O299" s="40"/>
-      <c r="P299" s="40"/>
-      <c r="Q299" s="40"/>
-      <c r="R299" s="40"/>
-      <c r="S299" s="40"/>
-      <c r="T299" s="40"/>
-      <c r="U299" s="40"/>
-      <c r="V299" s="40"/>
-      <c r="W299" s="40"/>
-      <c r="X299" s="40"/>
-    </row>
-    <row r="300" spans="1:25">
-      <c r="G300" s="23"/>
-      <c r="H300" s="34"/>
-      <c r="I300" s="34"/>
-      <c r="J300" s="23"/>
-      <c r="K300" s="40"/>
-      <c r="L300" s="23"/>
-      <c r="M300" s="40"/>
-      <c r="N300" s="40"/>
-      <c r="O300" s="40"/>
-      <c r="P300" s="40"/>
-      <c r="Q300" s="40"/>
-      <c r="R300" s="40"/>
-      <c r="S300" s="40"/>
-      <c r="T300" s="40"/>
-      <c r="U300" s="40"/>
-      <c r="V300" s="40"/>
-      <c r="W300" s="40"/>
-      <c r="X300" s="40"/>
     </row>
     <row r="301" spans="1:25">
       <c r="G301" s="23"/>
@@ -20539,123 +20727,123 @@
     </row>
     <row r="314" spans="7:24">
       <c r="G314" s="23"/>
-      <c r="H314" s="23"/>
-      <c r="I314" s="23"/>
+      <c r="H314" s="34"/>
+      <c r="I314" s="34"/>
       <c r="J314" s="23"/>
-      <c r="K314" s="23"/>
+      <c r="K314" s="40"/>
       <c r="L314" s="23"/>
-      <c r="M314" s="23"/>
-      <c r="N314" s="23"/>
-      <c r="O314" s="23"/>
-      <c r="P314" s="23"/>
-      <c r="Q314" s="23"/>
-      <c r="R314" s="23"/>
-      <c r="S314" s="23"/>
-      <c r="T314" s="23"/>
-      <c r="U314" s="23"/>
-      <c r="V314" s="23"/>
-      <c r="W314" s="23"/>
-      <c r="X314" s="23"/>
+      <c r="M314" s="40"/>
+      <c r="N314" s="40"/>
+      <c r="O314" s="40"/>
+      <c r="P314" s="40"/>
+      <c r="Q314" s="40"/>
+      <c r="R314" s="40"/>
+      <c r="S314" s="40"/>
+      <c r="T314" s="40"/>
+      <c r="U314" s="40"/>
+      <c r="V314" s="40"/>
+      <c r="W314" s="40"/>
+      <c r="X314" s="40"/>
     </row>
     <row r="315" spans="7:24">
       <c r="G315" s="23"/>
-      <c r="H315" s="23"/>
-      <c r="I315" s="23"/>
+      <c r="H315" s="34"/>
+      <c r="I315" s="34"/>
       <c r="J315" s="23"/>
-      <c r="K315" s="23"/>
+      <c r="K315" s="40"/>
       <c r="L315" s="23"/>
-      <c r="M315" s="23"/>
-      <c r="N315" s="23"/>
-      <c r="O315" s="23"/>
-      <c r="P315" s="23"/>
-      <c r="Q315" s="23"/>
-      <c r="R315" s="23"/>
-      <c r="S315" s="23"/>
-      <c r="T315" s="23"/>
-      <c r="U315" s="23"/>
-      <c r="V315" s="23"/>
-      <c r="W315" s="23"/>
-      <c r="X315" s="23"/>
+      <c r="M315" s="40"/>
+      <c r="N315" s="40"/>
+      <c r="O315" s="40"/>
+      <c r="P315" s="40"/>
+      <c r="Q315" s="40"/>
+      <c r="R315" s="40"/>
+      <c r="S315" s="40"/>
+      <c r="T315" s="40"/>
+      <c r="U315" s="40"/>
+      <c r="V315" s="40"/>
+      <c r="W315" s="40"/>
+      <c r="X315" s="40"/>
     </row>
     <row r="316" spans="7:24">
       <c r="G316" s="23"/>
-      <c r="H316" s="23"/>
-      <c r="I316" s="23"/>
+      <c r="H316" s="34"/>
+      <c r="I316" s="34"/>
       <c r="J316" s="23"/>
-      <c r="K316" s="23"/>
+      <c r="K316" s="40"/>
       <c r="L316" s="23"/>
-      <c r="M316" s="23"/>
-      <c r="N316" s="23"/>
-      <c r="O316" s="23"/>
-      <c r="P316" s="23"/>
-      <c r="Q316" s="23"/>
-      <c r="R316" s="23"/>
-      <c r="S316" s="23"/>
-      <c r="T316" s="23"/>
-      <c r="U316" s="23"/>
-      <c r="V316" s="23"/>
-      <c r="W316" s="23"/>
-      <c r="X316" s="23"/>
+      <c r="M316" s="40"/>
+      <c r="N316" s="40"/>
+      <c r="O316" s="40"/>
+      <c r="P316" s="40"/>
+      <c r="Q316" s="40"/>
+      <c r="R316" s="40"/>
+      <c r="S316" s="40"/>
+      <c r="T316" s="40"/>
+      <c r="U316" s="40"/>
+      <c r="V316" s="40"/>
+      <c r="W316" s="40"/>
+      <c r="X316" s="40"/>
     </row>
     <row r="317" spans="7:24">
       <c r="G317" s="23"/>
-      <c r="H317" s="23"/>
-      <c r="I317" s="23"/>
+      <c r="H317" s="34"/>
+      <c r="I317" s="34"/>
       <c r="J317" s="23"/>
-      <c r="K317" s="23"/>
+      <c r="K317" s="40"/>
       <c r="L317" s="23"/>
-      <c r="M317" s="23"/>
-      <c r="N317" s="23"/>
-      <c r="O317" s="23"/>
-      <c r="P317" s="23"/>
-      <c r="Q317" s="23"/>
-      <c r="R317" s="23"/>
-      <c r="S317" s="23"/>
-      <c r="T317" s="23"/>
-      <c r="U317" s="23"/>
-      <c r="V317" s="23"/>
-      <c r="W317" s="23"/>
-      <c r="X317" s="23"/>
+      <c r="M317" s="40"/>
+      <c r="N317" s="40"/>
+      <c r="O317" s="40"/>
+      <c r="P317" s="40"/>
+      <c r="Q317" s="40"/>
+      <c r="R317" s="40"/>
+      <c r="S317" s="40"/>
+      <c r="T317" s="40"/>
+      <c r="U317" s="40"/>
+      <c r="V317" s="40"/>
+      <c r="W317" s="40"/>
+      <c r="X317" s="40"/>
     </row>
     <row r="318" spans="7:24">
       <c r="G318" s="23"/>
-      <c r="H318" s="23"/>
-      <c r="I318" s="23"/>
+      <c r="H318" s="34"/>
+      <c r="I318" s="34"/>
       <c r="J318" s="23"/>
-      <c r="K318" s="23"/>
+      <c r="K318" s="40"/>
       <c r="L318" s="23"/>
-      <c r="M318" s="23"/>
-      <c r="N318" s="23"/>
-      <c r="O318" s="23"/>
-      <c r="P318" s="23"/>
-      <c r="Q318" s="23"/>
-      <c r="R318" s="23"/>
-      <c r="S318" s="23"/>
-      <c r="T318" s="23"/>
-      <c r="U318" s="23"/>
-      <c r="V318" s="23"/>
-      <c r="W318" s="23"/>
-      <c r="X318" s="23"/>
+      <c r="M318" s="40"/>
+      <c r="N318" s="40"/>
+      <c r="O318" s="40"/>
+      <c r="P318" s="40"/>
+      <c r="Q318" s="40"/>
+      <c r="R318" s="40"/>
+      <c r="S318" s="40"/>
+      <c r="T318" s="40"/>
+      <c r="U318" s="40"/>
+      <c r="V318" s="40"/>
+      <c r="W318" s="40"/>
+      <c r="X318" s="40"/>
     </row>
     <row r="319" spans="7:24">
       <c r="G319" s="23"/>
-      <c r="H319" s="23"/>
-      <c r="I319" s="23"/>
+      <c r="H319" s="34"/>
+      <c r="I319" s="34"/>
       <c r="J319" s="23"/>
-      <c r="K319" s="23"/>
+      <c r="K319" s="40"/>
       <c r="L319" s="23"/>
-      <c r="M319" s="23"/>
-      <c r="N319" s="23"/>
-      <c r="O319" s="23"/>
-      <c r="P319" s="23"/>
-      <c r="Q319" s="23"/>
-      <c r="R319" s="23"/>
-      <c r="S319" s="23"/>
-      <c r="T319" s="23"/>
-      <c r="U319" s="23"/>
-      <c r="V319" s="23"/>
-      <c r="W319" s="23"/>
-      <c r="X319" s="23"/>
+      <c r="M319" s="40"/>
+      <c r="N319" s="40"/>
+      <c r="O319" s="40"/>
+      <c r="P319" s="40"/>
+      <c r="Q319" s="40"/>
+      <c r="R319" s="40"/>
+      <c r="S319" s="40"/>
+      <c r="T319" s="40"/>
+      <c r="U319" s="40"/>
+      <c r="V319" s="40"/>
+      <c r="W319" s="40"/>
+      <c r="X319" s="40"/>
     </row>
     <row r="320" spans="7:24">
       <c r="G320" s="23"/>
@@ -39597,6 +39785,126 @@
       <c r="W1266" s="23"/>
       <c r="X1266" s="23"/>
     </row>
+    <row r="1267" spans="7:24">
+      <c r="G1267" s="23"/>
+      <c r="H1267" s="23"/>
+      <c r="I1267" s="23"/>
+      <c r="J1267" s="23"/>
+      <c r="K1267" s="23"/>
+      <c r="L1267" s="23"/>
+      <c r="M1267" s="23"/>
+      <c r="N1267" s="23"/>
+      <c r="O1267" s="23"/>
+      <c r="P1267" s="23"/>
+      <c r="Q1267" s="23"/>
+      <c r="R1267" s="23"/>
+      <c r="S1267" s="23"/>
+      <c r="T1267" s="23"/>
+      <c r="U1267" s="23"/>
+      <c r="V1267" s="23"/>
+      <c r="W1267" s="23"/>
+      <c r="X1267" s="23"/>
+    </row>
+    <row r="1268" spans="7:24">
+      <c r="G1268" s="23"/>
+      <c r="H1268" s="23"/>
+      <c r="I1268" s="23"/>
+      <c r="J1268" s="23"/>
+      <c r="K1268" s="23"/>
+      <c r="L1268" s="23"/>
+      <c r="M1268" s="23"/>
+      <c r="N1268" s="23"/>
+      <c r="O1268" s="23"/>
+      <c r="P1268" s="23"/>
+      <c r="Q1268" s="23"/>
+      <c r="R1268" s="23"/>
+      <c r="S1268" s="23"/>
+      <c r="T1268" s="23"/>
+      <c r="U1268" s="23"/>
+      <c r="V1268" s="23"/>
+      <c r="W1268" s="23"/>
+      <c r="X1268" s="23"/>
+    </row>
+    <row r="1269" spans="7:24">
+      <c r="G1269" s="23"/>
+      <c r="H1269" s="23"/>
+      <c r="I1269" s="23"/>
+      <c r="J1269" s="23"/>
+      <c r="K1269" s="23"/>
+      <c r="L1269" s="23"/>
+      <c r="M1269" s="23"/>
+      <c r="N1269" s="23"/>
+      <c r="O1269" s="23"/>
+      <c r="P1269" s="23"/>
+      <c r="Q1269" s="23"/>
+      <c r="R1269" s="23"/>
+      <c r="S1269" s="23"/>
+      <c r="T1269" s="23"/>
+      <c r="U1269" s="23"/>
+      <c r="V1269" s="23"/>
+      <c r="W1269" s="23"/>
+      <c r="X1269" s="23"/>
+    </row>
+    <row r="1270" spans="7:24">
+      <c r="G1270" s="23"/>
+      <c r="H1270" s="23"/>
+      <c r="I1270" s="23"/>
+      <c r="J1270" s="23"/>
+      <c r="K1270" s="23"/>
+      <c r="L1270" s="23"/>
+      <c r="M1270" s="23"/>
+      <c r="N1270" s="23"/>
+      <c r="O1270" s="23"/>
+      <c r="P1270" s="23"/>
+      <c r="Q1270" s="23"/>
+      <c r="R1270" s="23"/>
+      <c r="S1270" s="23"/>
+      <c r="T1270" s="23"/>
+      <c r="U1270" s="23"/>
+      <c r="V1270" s="23"/>
+      <c r="W1270" s="23"/>
+      <c r="X1270" s="23"/>
+    </row>
+    <row r="1271" spans="7:24">
+      <c r="G1271" s="23"/>
+      <c r="H1271" s="23"/>
+      <c r="I1271" s="23"/>
+      <c r="J1271" s="23"/>
+      <c r="K1271" s="23"/>
+      <c r="L1271" s="23"/>
+      <c r="M1271" s="23"/>
+      <c r="N1271" s="23"/>
+      <c r="O1271" s="23"/>
+      <c r="P1271" s="23"/>
+      <c r="Q1271" s="23"/>
+      <c r="R1271" s="23"/>
+      <c r="S1271" s="23"/>
+      <c r="T1271" s="23"/>
+      <c r="U1271" s="23"/>
+      <c r="V1271" s="23"/>
+      <c r="W1271" s="23"/>
+      <c r="X1271" s="23"/>
+    </row>
+    <row r="1272" spans="7:24">
+      <c r="G1272" s="23"/>
+      <c r="H1272" s="23"/>
+      <c r="I1272" s="23"/>
+      <c r="J1272" s="23"/>
+      <c r="K1272" s="23"/>
+      <c r="L1272" s="23"/>
+      <c r="M1272" s="23"/>
+      <c r="N1272" s="23"/>
+      <c r="O1272" s="23"/>
+      <c r="P1272" s="23"/>
+      <c r="Q1272" s="23"/>
+      <c r="R1272" s="23"/>
+      <c r="S1272" s="23"/>
+      <c r="T1272" s="23"/>
+      <c r="U1272" s="23"/>
+      <c r="V1272" s="23"/>
+      <c r="W1272" s="23"/>
+      <c r="X1272" s="23"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39613,7 +39921,7 @@
   <dimension ref="A1:Y30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D26" sqref="D26:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/ncdc_mappings/ncdc_minimal_dataset.xlsx
+++ b/ncdc_mappings/ncdc_minimal_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://maastro-my.sharepoint.com/personal/pedro_mateus_maastro_nl/Documents/Pedro Files/Data Harmonization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{CFD7E28C-48FE-9D4B-9FBD-FF4601B5D85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BACBD9F7-2791-224F-9B2F-4236BA550120}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="13_ncr:1_{CFD7E28C-48FE-9D4B-9FBD-FF4601B5D85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4A56392-EDF4-FC4B-8CD7-A7246C80C7C3}"/>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="500" windowWidth="33600" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="500" windowWidth="33600" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="2" r:id="rId1"/>
@@ -700,7 +700,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4622" uniqueCount="965">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4644" uniqueCount="973">
   <si>
     <t>Main category</t>
   </si>
@@ -3641,6 +3641,30 @@
   </si>
   <si>
     <t>Attention_test_stroop_2_errors</t>
+  </si>
+  <si>
+    <t>Metabolomics</t>
+  </si>
+  <si>
+    <t>Date_metabolomics</t>
+  </si>
+  <si>
+    <t>metabo_age</t>
+  </si>
+  <si>
+    <t>Predicted age based on the metabolomic data</t>
+  </si>
+  <si>
+    <t>MRI</t>
+  </si>
+  <si>
+    <t>brain_age</t>
+  </si>
+  <si>
+    <t>Predicted age based on the MRI data</t>
+  </si>
+  <si>
+    <t>Date_mri</t>
   </si>
 </sst>
 </file>
@@ -3935,7 +3959,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4163,6 +4187,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
@@ -5954,8 +5985,8 @@
   <dimension ref="A1:Y1272"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="89" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D177" sqref="D177"/>
+      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E313" sqref="E313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17"/>
@@ -20465,85 +20496,161 @@
         <v>784</v>
       </c>
     </row>
-    <row r="301" spans="1:25">
-      <c r="G301" s="23"/>
-      <c r="H301" s="34"/>
-      <c r="I301" s="34"/>
-      <c r="J301" s="23"/>
-      <c r="K301" s="40"/>
-      <c r="L301" s="23"/>
-      <c r="M301" s="40"/>
-      <c r="N301" s="40"/>
-      <c r="O301" s="40"/>
-      <c r="P301" s="40"/>
-      <c r="Q301" s="40"/>
-      <c r="R301" s="40"/>
-      <c r="S301" s="40"/>
-      <c r="T301" s="40"/>
-      <c r="U301" s="40"/>
-      <c r="V301" s="40"/>
-      <c r="W301" s="40"/>
-      <c r="X301" s="40"/>
+    <row r="301" spans="1:25" s="54" customFormat="1" ht="15">
+      <c r="A301" s="75" t="s">
+        <v>965</v>
+      </c>
+      <c r="B301" s="48"/>
+      <c r="C301" s="6"/>
+      <c r="D301" s="6"/>
+      <c r="E301" s="7"/>
+      <c r="F301" s="6"/>
+      <c r="G301" s="6"/>
+      <c r="H301" s="30"/>
+      <c r="I301" s="30"/>
+      <c r="J301" s="6"/>
+      <c r="K301" s="53"/>
+      <c r="L301" s="7"/>
+      <c r="M301" s="53"/>
+      <c r="N301" s="53"/>
+      <c r="O301" s="53"/>
+      <c r="P301" s="53"/>
+      <c r="Q301" s="53"/>
+      <c r="R301" s="53"/>
+      <c r="S301" s="53"/>
+      <c r="T301" s="53"/>
+      <c r="U301" s="53"/>
+      <c r="V301" s="53"/>
+      <c r="W301" s="53"/>
+      <c r="X301" s="53"/>
     </row>
     <row r="302" spans="1:25">
-      <c r="G302" s="23"/>
-      <c r="H302" s="34"/>
-      <c r="I302" s="34"/>
-      <c r="J302" s="23"/>
-      <c r="K302" s="40"/>
-      <c r="L302" s="23"/>
-      <c r="M302" s="40"/>
-      <c r="N302" s="40"/>
-      <c r="O302" s="40"/>
-      <c r="P302" s="40"/>
-      <c r="Q302" s="40"/>
-      <c r="R302" s="40"/>
-      <c r="S302" s="40"/>
-      <c r="T302" s="40"/>
-      <c r="U302" s="40"/>
-      <c r="V302" s="40"/>
-      <c r="W302" s="40"/>
-      <c r="X302" s="40"/>
-    </row>
-    <row r="303" spans="1:25">
-      <c r="G303" s="23"/>
-      <c r="H303" s="34"/>
-      <c r="I303" s="34"/>
-      <c r="J303" s="23"/>
-      <c r="K303" s="40"/>
-      <c r="L303" s="23"/>
-      <c r="M303" s="40"/>
-      <c r="N303" s="40"/>
-      <c r="O303" s="40"/>
-      <c r="P303" s="40"/>
-      <c r="Q303" s="40"/>
-      <c r="R303" s="40"/>
-      <c r="S303" s="40"/>
-      <c r="T303" s="40"/>
-      <c r="U303" s="40"/>
-      <c r="V303" s="40"/>
-      <c r="W303" s="40"/>
-      <c r="X303" s="40"/>
+      <c r="A302" s="111"/>
+      <c r="B302" s="111"/>
+      <c r="C302" s="112"/>
+      <c r="D302" s="112" t="s">
+        <v>967</v>
+      </c>
+      <c r="E302" s="113" t="s">
+        <v>968</v>
+      </c>
+      <c r="F302" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G302" s="112"/>
+      <c r="H302" s="104" t="s">
+        <v>761</v>
+      </c>
+      <c r="I302" s="28" t="s">
+        <v>715</v>
+      </c>
+      <c r="J302" s="112"/>
+      <c r="K302" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="L302" s="112"/>
+      <c r="M302" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="N302" s="114"/>
+      <c r="O302" s="114">
+        <v>2000000143</v>
+      </c>
+      <c r="P302" s="114"/>
+      <c r="Q302" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="R302" s="28">
+        <v>9448</v>
+      </c>
+      <c r="S302" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="T302" s="114"/>
+      <c r="U302" s="114"/>
+      <c r="V302" s="114"/>
+      <c r="W302" s="114"/>
+      <c r="X302" s="115" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="303" spans="1:25" s="54" customFormat="1" ht="15">
+      <c r="A303" s="75" t="s">
+        <v>969</v>
+      </c>
+      <c r="B303" s="48"/>
+      <c r="C303" s="6"/>
+      <c r="D303" s="6"/>
+      <c r="E303" s="7"/>
+      <c r="F303" s="6"/>
+      <c r="G303" s="6"/>
+      <c r="H303" s="30"/>
+      <c r="I303" s="30"/>
+      <c r="J303" s="6"/>
+      <c r="K303" s="53"/>
+      <c r="L303" s="7"/>
+      <c r="M303" s="53"/>
+      <c r="N303" s="53"/>
+      <c r="O303" s="53"/>
+      <c r="P303" s="53"/>
+      <c r="Q303" s="53"/>
+      <c r="R303" s="53"/>
+      <c r="S303" s="53"/>
+      <c r="T303" s="53"/>
+      <c r="U303" s="53"/>
+      <c r="V303" s="53"/>
+      <c r="W303" s="53"/>
+      <c r="X303" s="53"/>
     </row>
     <row r="304" spans="1:25">
-      <c r="G304" s="23"/>
-      <c r="H304" s="34"/>
-      <c r="I304" s="34"/>
-      <c r="J304" s="23"/>
-      <c r="K304" s="40"/>
-      <c r="L304" s="23"/>
-      <c r="M304" s="40"/>
-      <c r="N304" s="40"/>
-      <c r="O304" s="40"/>
-      <c r="P304" s="40"/>
-      <c r="Q304" s="40"/>
-      <c r="R304" s="40"/>
-      <c r="S304" s="40"/>
-      <c r="T304" s="40"/>
-      <c r="U304" s="40"/>
-      <c r="V304" s="40"/>
-      <c r="W304" s="40"/>
-      <c r="X304" s="40"/>
+      <c r="A304" s="111"/>
+      <c r="B304" s="111"/>
+      <c r="C304" s="112"/>
+      <c r="D304" s="112" t="s">
+        <v>970</v>
+      </c>
+      <c r="E304" s="113" t="s">
+        <v>971</v>
+      </c>
+      <c r="F304" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G304" s="112"/>
+      <c r="H304" s="104" t="s">
+        <v>761</v>
+      </c>
+      <c r="I304" s="28" t="s">
+        <v>715</v>
+      </c>
+      <c r="J304" s="112"/>
+      <c r="K304" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="L304" s="112"/>
+      <c r="M304" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="N304" s="114"/>
+      <c r="O304" s="114">
+        <v>2000000144</v>
+      </c>
+      <c r="P304" s="114"/>
+      <c r="Q304" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="R304" s="28">
+        <v>9448</v>
+      </c>
+      <c r="S304" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="T304" s="114"/>
+      <c r="U304" s="114"/>
+      <c r="V304" s="114"/>
+      <c r="W304" s="114"/>
+      <c r="X304" s="115" t="s">
+        <v>972</v>
+      </c>
     </row>
     <row r="305" spans="7:24">
       <c r="G305" s="23"/>

--- a/ncdc_mappings/ncdc_minimal_dataset.xlsx
+++ b/ncdc_mappings/ncdc_minimal_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://maastro-my.sharepoint.com/personal/pedro_mateus_maastro_nl/Documents/Pedro Files/Data Harmonization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="13_ncr:1_{CFD7E28C-48FE-9D4B-9FBD-FF4601B5D85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4A56392-EDF4-FC4B-8CD7-A7246C80C7C3}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="13_ncr:1_{CFD7E28C-48FE-9D4B-9FBD-FF4601B5D85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{879A0D6C-CFFE-2342-B781-434C6E9C5912}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="500" windowWidth="33600" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -374,7 +374,7 @@
     Generic concept only from SNOMED for the Boston Naming Test: 4164808</t>
       </text>
     </comment>
-    <comment ref="O286" authorId="33" shapeId="0" xr:uid="{C21DF866-3B02-8D43-BDB4-19473A2B92EE}">
+    <comment ref="O287" authorId="33" shapeId="0" xr:uid="{C21DF866-3B02-8D43-BDB4-19473A2B92EE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -382,7 +382,7 @@
     Observation (SNOMED): 4136437</t>
       </text>
     </comment>
-    <comment ref="O287" authorId="34" shapeId="0" xr:uid="{6D0CD4A8-48D1-4246-9DC1-32FEBE702D51}">
+    <comment ref="O288" authorId="34" shapeId="0" xr:uid="{6D0CD4A8-48D1-4246-9DC1-32FEBE702D51}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -390,7 +390,7 @@
     Observation (SNOMED) 45768724</t>
       </text>
     </comment>
-    <comment ref="O288" authorId="35" shapeId="0" xr:uid="{B59C5FEF-8EFD-C648-A78A-AFBCA7EF7266}">
+    <comment ref="O289" authorId="35" shapeId="0" xr:uid="{B59C5FEF-8EFD-C648-A78A-AFBCA7EF7266}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -398,7 +398,7 @@
     Observation (SNOMED) 45768723</t>
       </text>
     </comment>
-    <comment ref="O290" authorId="36" shapeId="0" xr:uid="{BCD976E6-B6D9-D546-9016-DBD9D0F54E91}">
+    <comment ref="O291" authorId="36" shapeId="0" xr:uid="{BCD976E6-B6D9-D546-9016-DBD9D0F54E91}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -406,7 +406,7 @@
     Observation (SNOMED) 4079321</t>
       </text>
     </comment>
-    <comment ref="O291" authorId="37" shapeId="0" xr:uid="{DFA827BB-C401-AD42-9C05-074FE05BA8AF}">
+    <comment ref="O292" authorId="37" shapeId="0" xr:uid="{DFA827BB-C401-AD42-9C05-074FE05BA8AF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -416,7 +416,7 @@
     4299446</t>
       </text>
     </comment>
-    <comment ref="O292" authorId="38" shapeId="0" xr:uid="{8B270D9A-52A2-8745-B447-8EF3342DED56}">
+    <comment ref="O293" authorId="38" shapeId="0" xr:uid="{8B270D9A-52A2-8745-B447-8EF3342DED56}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -424,7 +424,7 @@
     Observation (SNOMED) 4012274</t>
       </text>
     </comment>
-    <comment ref="O293" authorId="39" shapeId="0" xr:uid="{48DC908A-650A-A142-B529-8C8185B7B723}">
+    <comment ref="O294" authorId="39" shapeId="0" xr:uid="{48DC908A-650A-A142-B529-8C8185B7B723}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -435,7 +435,7 @@
     Observation (SNOMED) - 4221816 (referes to the component itself)</t>
       </text>
     </comment>
-    <comment ref="D299" authorId="40" shapeId="0" xr:uid="{70609BE4-D9A6-3145-A3F3-5832E54D4EE2}">
+    <comment ref="D300" authorId="40" shapeId="0" xr:uid="{70609BE4-D9A6-3145-A3F3-5832E54D4EE2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -700,7 +700,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4644" uniqueCount="973">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4652" uniqueCount="975">
   <si>
     <t>Main category</t>
   </si>
@@ -3665,6 +3665,12 @@
   </si>
   <si>
     <t>Date_mri</t>
+  </si>
+  <si>
+    <t>Priority_language_verbal_fluency_60_errors</t>
+  </si>
+  <si>
+    <t>Priority test for verbal fluency 1 min - Errors</t>
   </si>
 </sst>
 </file>
@@ -5846,35 +5852,35 @@
   <threadedComment ref="D264" dT="2021-07-08T14:57:23.15" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{6A958D43-89AC-C443-90B2-E839939ED9BB}">
     <text>Generic concept only from SNOMED for the Boston Naming Test: 4164808</text>
   </threadedComment>
-  <threadedComment ref="O286" dT="2021-10-27T15:56:51.26" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{C21DF866-3B02-8D43-BDB4-19473A2B92EE}">
+  <threadedComment ref="O287" dT="2021-10-27T15:56:51.26" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{C21DF866-3B02-8D43-BDB4-19473A2B92EE}">
     <text>Observation (SNOMED): 4136437</text>
   </threadedComment>
-  <threadedComment ref="O287" dT="2021-10-27T15:57:10.76" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{6D0CD4A8-48D1-4246-9DC1-32FEBE702D51}">
+  <threadedComment ref="O288" dT="2021-10-27T15:57:10.76" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{6D0CD4A8-48D1-4246-9DC1-32FEBE702D51}">
     <text>Observation (SNOMED) 45768724</text>
   </threadedComment>
-  <threadedComment ref="O288" dT="2021-10-27T15:59:18.03" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{B59C5FEF-8EFD-C648-A78A-AFBCA7EF7266}">
+  <threadedComment ref="O289" dT="2021-10-27T15:59:18.03" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{B59C5FEF-8EFD-C648-A78A-AFBCA7EF7266}">
     <text>Observation (SNOMED) 45768723</text>
   </threadedComment>
-  <threadedComment ref="O290" dT="2021-10-27T16:01:02.13" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{BCD976E6-B6D9-D546-9016-DBD9D0F54E91}">
+  <threadedComment ref="O291" dT="2021-10-27T16:01:02.13" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{BCD976E6-B6D9-D546-9016-DBD9D0F54E91}">
     <text>Observation (SNOMED) 4079321</text>
   </threadedComment>
-  <threadedComment ref="O291" dT="2021-07-02T12:24:20.39" personId="{98691CDF-5915-8B45-A1D3-22E1ADD8314B}" id="{DFA827BB-C401-AD42-9C05-074FE05BA8AF}">
+  <threadedComment ref="O292" dT="2021-07-02T12:24:20.39" personId="{98691CDF-5915-8B45-A1D3-22E1ADD8314B}" id="{DFA827BB-C401-AD42-9C05-074FE05BA8AF}">
     <text>Matches to “Neurofilament protein” - no clear match to NFL, maybe a new concept or the link to the ontology can be enough?</text>
   </threadedComment>
-  <threadedComment ref="O291" dT="2021-10-27T16:04:29.90" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{236EE8B4-0B5A-B546-910E-201CC41AB22E}" parentId="{DFA827BB-C401-AD42-9C05-074FE05BA8AF}">
+  <threadedComment ref="O292" dT="2021-10-27T16:04:29.90" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{236EE8B4-0B5A-B546-910E-201CC41AB22E}" parentId="{DFA827BB-C401-AD42-9C05-074FE05BA8AF}">
     <text>4299446</text>
   </threadedComment>
-  <threadedComment ref="O292" dT="2021-10-27T16:05:33.61" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{8B270D9A-52A2-8745-B447-8EF3342DED56}">
+  <threadedComment ref="O293" dT="2021-10-27T16:05:33.61" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{8B270D9A-52A2-8745-B447-8EF3342DED56}">
     <text>Observation (SNOMED) 4012274</text>
   </threadedComment>
-  <threadedComment ref="O293" dT="2021-10-27T16:07:09.40" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{48DC908A-650A-A142-B529-8C8185B7B723}">
+  <threadedComment ref="O294" dT="2021-10-27T16:07:09.40" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{48DC908A-650A-A142-B529-8C8185B7B723}">
     <text>Measurement meaning - Measurement of concentration of amyloid A in serum specimen (procedure)
 Serum amyloid A concentratio</text>
   </threadedComment>
-  <threadedComment ref="O293" dT="2021-10-27T16:07:50.16" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{475E4E61-9156-CF48-A078-B50A8EE3149D}" parentId="{48DC908A-650A-A142-B529-8C8185B7B723}">
+  <threadedComment ref="O294" dT="2021-10-27T16:07:50.16" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{475E4E61-9156-CF48-A078-B50A8EE3149D}" parentId="{48DC908A-650A-A142-B529-8C8185B7B723}">
     <text>Observation (SNOMED) - 4221816 (referes to the component itself)</text>
   </threadedComment>
-  <threadedComment ref="D299" dT="2021-07-02T12:47:45.50" personId="{98691CDF-5915-8B45-A1D3-22E1ADD8314B}" id="{70609BE4-D9A6-3145-A3F3-5832E54D4EE2}">
+  <threadedComment ref="D300" dT="2021-07-02T12:47:45.50" personId="{98691CDF-5915-8B45-A1D3-22E1ADD8314B}" id="{70609BE4-D9A6-3145-A3F3-5832E54D4EE2}">
     <text>All these fields require more information. Probably they represent measurements but more complete information is required to clearly identify what’s being measured/how and the units.</text>
   </threadedComment>
 </ThreadedComments>
@@ -5982,11 +5988,11 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:Y1272"/>
+  <dimension ref="A1:Y1273"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="89" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E313" sqref="E313"/>
+      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E273" sqref="E273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17"/>
@@ -18315,7 +18321,7 @@
       <c r="N254" s="27"/>
       <c r="O254" s="89"/>
       <c r="P254" s="28" t="str">
-        <f t="shared" ref="P254:P270" si="20">IF(N254&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O254), CONCATENATE("Athena-",O254)),"")</f>
+        <f t="shared" ref="P254:P271" si="20">IF(N254&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O254), CONCATENATE("Athena-",O254)),"")</f>
         <v/>
       </c>
       <c r="Q254" s="27"/>
@@ -18935,7 +18941,7 @@
         <v>2000000086</v>
       </c>
       <c r="P267" s="28" t="str">
-        <f t="shared" ref="P267" si="23">IF(N267&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O267), CONCATENATE("Athena-",O267)),"")</f>
+        <f t="shared" ref="P267:P268" si="23">IF(N267&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O267), CONCATENATE("Athena-",O267)),"")</f>
         <v/>
       </c>
       <c r="Q267" s="27"/>
@@ -18953,11 +18959,11 @@
       <c r="A268" s="59"/>
       <c r="B268" s="67"/>
       <c r="C268" s="45"/>
-      <c r="D268" s="76" t="s">
-        <v>527</v>
-      </c>
-      <c r="E268" s="77" t="s">
-        <v>529</v>
+      <c r="D268" s="83" t="s">
+        <v>973</v>
+      </c>
+      <c r="E268" s="84" t="s">
+        <v>974</v>
       </c>
       <c r="F268" s="27" t="s">
         <v>197</v>
@@ -18966,17 +18972,23 @@
       <c r="H268" s="104" t="s">
         <v>761</v>
       </c>
-      <c r="I268" s="28"/>
+      <c r="I268" s="28" t="s">
+        <v>715</v>
+      </c>
       <c r="J268" s="15"/>
       <c r="K268" s="27" t="s">
         <v>337</v>
       </c>
       <c r="L268" s="27"/>
-      <c r="M268" s="47"/>
+      <c r="M268" s="47" t="s">
+        <v>374</v>
+      </c>
       <c r="N268" s="27"/>
-      <c r="O268" s="89"/>
+      <c r="O268" s="89">
+        <v>2000000145</v>
+      </c>
       <c r="P268" s="28" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="Q268" s="27"/>
@@ -18990,24 +19002,20 @@
         <v>775</v>
       </c>
     </row>
-    <row r="269" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
+    <row r="269" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A269" s="59"/>
-      <c r="B269" s="67" t="s">
-        <v>151</v>
-      </c>
-      <c r="C269" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="D269" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="E269" s="45" t="s">
-        <v>130</v>
+      <c r="B269" s="67"/>
+      <c r="C269" s="45"/>
+      <c r="D269" s="76" t="s">
+        <v>527</v>
+      </c>
+      <c r="E269" s="77" t="s">
+        <v>529</v>
       </c>
       <c r="F269" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G269" s="15"/>
+      <c r="G269" s="16"/>
       <c r="H269" s="104" t="s">
         <v>761</v>
       </c>
@@ -19016,10 +19024,10 @@
       <c r="K269" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L269" s="16"/>
-      <c r="M269" s="27"/>
+      <c r="L269" s="27"/>
+      <c r="M269" s="47"/>
       <c r="N269" s="27"/>
-      <c r="O269" s="27"/>
+      <c r="O269" s="89"/>
       <c r="P269" s="28" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -19035,33 +19043,33 @@
         <v>775</v>
       </c>
     </row>
-    <row r="270" spans="1:24" s="54" customFormat="1" ht="15">
+    <row r="270" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
       <c r="A270" s="59"/>
-      <c r="B270" s="49" t="s">
+      <c r="B270" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="C270" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="D270" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="E270" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="F270" s="15" t="s">
+      <c r="C270" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="D270" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="E270" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="F270" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G270" s="15"/>
-      <c r="H270" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="I270" s="15"/>
+      <c r="H270" s="104" t="s">
+        <v>761</v>
+      </c>
+      <c r="I270" s="28"/>
       <c r="J270" s="15"/>
       <c r="K270" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L270" s="15"/>
+      <c r="L270" s="16"/>
       <c r="M270" s="27"/>
       <c r="N270" s="27"/>
       <c r="O270" s="27"/>
@@ -19080,41 +19088,40 @@
         <v>775</v>
       </c>
     </row>
-    <row r="271" spans="1:24" s="54" customFormat="1" ht="16">
+    <row r="271" spans="1:24" s="54" customFormat="1" ht="15">
       <c r="A271" s="59"/>
-      <c r="B271" s="110" t="s">
-        <v>918</v>
-      </c>
-      <c r="C271" s="15"/>
-      <c r="D271" s="83" t="s">
-        <v>920</v>
-      </c>
-      <c r="E271" s="83" t="s">
-        <v>914</v>
+      <c r="B271" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="C271" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="D271" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="E271" s="15" t="s">
+        <v>133</v>
       </c>
       <c r="F271" s="15" t="s">
         <v>197</v>
       </c>
       <c r="G271" s="15"/>
-      <c r="H271" s="104" t="s">
-        <v>761</v>
-      </c>
-      <c r="I271" s="28" t="s">
-        <v>715</v>
-      </c>
+      <c r="H271" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="I271" s="15"/>
       <c r="J271" s="15"/>
       <c r="K271" s="27" t="s">
         <v>337</v>
       </c>
       <c r="L271" s="15"/>
-      <c r="M271" s="47" t="s">
-        <v>374</v>
-      </c>
+      <c r="M271" s="27"/>
       <c r="N271" s="27"/>
-      <c r="O271" s="89">
-        <v>2000000130</v>
-      </c>
-      <c r="P271" s="28"/>
+      <c r="O271" s="27"/>
+      <c r="P271" s="28" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
       <c r="Q271" s="27"/>
       <c r="R271" s="27"/>
       <c r="S271" s="27"/>
@@ -19123,20 +19130,20 @@
       <c r="V271" s="27"/>
       <c r="W271" s="27"/>
       <c r="X271" s="15" t="s">
-        <v>924</v>
+        <v>775</v>
       </c>
     </row>
     <row r="272" spans="1:24" s="54" customFormat="1" ht="16">
       <c r="A272" s="59"/>
       <c r="B272" s="110" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C272" s="15"/>
       <c r="D272" s="83" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E272" s="83" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F272" s="15" t="s">
         <v>197</v>
@@ -19158,7 +19165,7 @@
       </c>
       <c r="N272" s="27"/>
       <c r="O272" s="89">
-        <v>2000000131</v>
+        <v>2000000130</v>
       </c>
       <c r="P272" s="28"/>
       <c r="Q272" s="27"/>
@@ -19169,18 +19176,20 @@
       <c r="V272" s="27"/>
       <c r="W272" s="27"/>
       <c r="X272" s="15" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="273" spans="1:24" s="54" customFormat="1" ht="16">
       <c r="A273" s="59"/>
-      <c r="B273" s="49"/>
+      <c r="B273" s="110" t="s">
+        <v>919</v>
+      </c>
       <c r="C273" s="15"/>
       <c r="D273" s="83" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E273" s="83" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F273" s="15" t="s">
         <v>197</v>
@@ -19202,7 +19211,7 @@
       </c>
       <c r="N273" s="27"/>
       <c r="O273" s="89">
-        <v>2000000132</v>
+        <v>2000000131</v>
       </c>
       <c r="P273" s="28"/>
       <c r="Q273" s="27"/>
@@ -19221,10 +19230,10 @@
       <c r="B274" s="49"/>
       <c r="C274" s="15"/>
       <c r="D274" s="83" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E274" s="83" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F274" s="15" t="s">
         <v>197</v>
@@ -19246,7 +19255,7 @@
       </c>
       <c r="N274" s="27"/>
       <c r="O274" s="89">
-        <v>2000000133</v>
+        <v>2000000132</v>
       </c>
       <c r="P274" s="28"/>
       <c r="Q274" s="27"/>
@@ -19260,67 +19269,61 @@
         <v>925</v>
       </c>
     </row>
-    <row r="275" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
+    <row r="275" spans="1:24" s="54" customFormat="1" ht="16">
       <c r="A275" s="59"/>
-      <c r="B275" s="110" t="s">
-        <v>789</v>
-      </c>
-      <c r="C275" s="27"/>
-      <c r="D275" s="27" t="s">
-        <v>809</v>
-      </c>
-      <c r="E275" s="45" t="s">
-        <v>790</v>
-      </c>
-      <c r="F275" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="G275" s="15" t="s">
-        <v>791</v>
-      </c>
+      <c r="B275" s="49"/>
+      <c r="C275" s="15"/>
+      <c r="D275" s="83" t="s">
+        <v>923</v>
+      </c>
+      <c r="E275" s="83" t="s">
+        <v>917</v>
+      </c>
+      <c r="F275" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G275" s="15"/>
       <c r="H275" s="104" t="s">
-        <v>666</v>
+        <v>761</v>
       </c>
       <c r="I275" s="28" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J275" s="15"/>
       <c r="K275" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L275" s="16"/>
-      <c r="M275" s="27" t="s">
-        <v>367</v>
+      <c r="L275" s="15"/>
+      <c r="M275" s="47" t="s">
+        <v>374</v>
       </c>
       <c r="N275" s="27"/>
-      <c r="O275" s="27">
-        <v>2000000107</v>
+      <c r="O275" s="89">
+        <v>2000000133</v>
       </c>
       <c r="P275" s="28"/>
       <c r="Q275" s="27"/>
       <c r="R275" s="27"/>
       <c r="S275" s="27"/>
-      <c r="T275" s="15" t="s">
-        <v>667</v>
-      </c>
-      <c r="U275" s="15" t="s">
-        <v>673</v>
-      </c>
+      <c r="T275" s="27"/>
+      <c r="U275" s="27"/>
       <c r="V275" s="27"/>
       <c r="W275" s="27"/>
       <c r="X275" s="15" t="s">
-        <v>773</v>
+        <v>925</v>
       </c>
     </row>
     <row r="276" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
       <c r="A276" s="59"/>
-      <c r="B276" s="49"/>
+      <c r="B276" s="110" t="s">
+        <v>789</v>
+      </c>
       <c r="C276" s="27"/>
       <c r="D276" s="27" t="s">
-        <v>794</v>
+        <v>809</v>
       </c>
       <c r="E276" s="45" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="F276" s="27" t="s">
         <v>55</v>
@@ -19344,7 +19347,7 @@
       </c>
       <c r="N276" s="27"/>
       <c r="O276" s="27">
-        <v>2000000108</v>
+        <v>2000000107</v>
       </c>
       <c r="P276" s="28"/>
       <c r="Q276" s="27"/>
@@ -19367,10 +19370,10 @@
       <c r="B277" s="49"/>
       <c r="C277" s="27"/>
       <c r="D277" s="27" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="E277" s="45" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="F277" s="27" t="s">
         <v>55</v>
@@ -19394,7 +19397,7 @@
       </c>
       <c r="N277" s="27"/>
       <c r="O277" s="27">
-        <v>2000000109</v>
+        <v>2000000108</v>
       </c>
       <c r="P277" s="28"/>
       <c r="Q277" s="27"/>
@@ -19409,7 +19412,7 @@
       <c r="V277" s="27"/>
       <c r="W277" s="27"/>
       <c r="X277" s="15" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
     </row>
     <row r="278" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
@@ -19417,10 +19420,10 @@
       <c r="B278" s="49"/>
       <c r="C278" s="27"/>
       <c r="D278" s="27" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="E278" s="45" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F278" s="27" t="s">
         <v>55</v>
@@ -19444,7 +19447,7 @@
       </c>
       <c r="N278" s="27"/>
       <c r="O278" s="27">
-        <v>2000000110</v>
+        <v>2000000109</v>
       </c>
       <c r="P278" s="28"/>
       <c r="Q278" s="27"/>
@@ -19459,7 +19462,7 @@
       <c r="V278" s="27"/>
       <c r="W278" s="27"/>
       <c r="X278" s="15" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
     </row>
     <row r="279" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
@@ -19467,10 +19470,10 @@
       <c r="B279" s="49"/>
       <c r="C279" s="27"/>
       <c r="D279" s="27" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="E279" s="45" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F279" s="27" t="s">
         <v>55</v>
@@ -19494,7 +19497,7 @@
       </c>
       <c r="N279" s="27"/>
       <c r="O279" s="27">
-        <v>2000000111</v>
+        <v>2000000110</v>
       </c>
       <c r="P279" s="28"/>
       <c r="Q279" s="27"/>
@@ -19509,30 +19512,30 @@
       <c r="V279" s="27"/>
       <c r="W279" s="27"/>
       <c r="X279" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="280" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
       <c r="A280" s="59"/>
-      <c r="B280" s="110" t="s">
-        <v>802</v>
-      </c>
+      <c r="B280" s="49"/>
       <c r="C280" s="27"/>
-      <c r="D280" s="54" t="s">
-        <v>808</v>
+      <c r="D280" s="27" t="s">
+        <v>795</v>
       </c>
       <c r="E280" s="45" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="F280" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="G280" s="15"/>
+        <v>55</v>
+      </c>
+      <c r="G280" s="15" t="s">
+        <v>791</v>
+      </c>
       <c r="H280" s="104" t="s">
-        <v>759</v>
+        <v>666</v>
       </c>
       <c r="I280" s="28" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="J280" s="15"/>
       <c r="K280" s="27" t="s">
@@ -19540,33 +19543,39 @@
       </c>
       <c r="L280" s="16"/>
       <c r="M280" s="27" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="N280" s="27"/>
       <c r="O280" s="27">
-        <v>2000000112</v>
+        <v>2000000111</v>
       </c>
       <c r="P280" s="28"/>
       <c r="Q280" s="27"/>
       <c r="R280" s="27"/>
       <c r="S280" s="27"/>
-      <c r="T280" s="15"/>
-      <c r="U280" s="15"/>
+      <c r="T280" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="U280" s="15" t="s">
+        <v>673</v>
+      </c>
       <c r="V280" s="27"/>
       <c r="W280" s="27"/>
       <c r="X280" s="15" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="281" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
       <c r="A281" s="59"/>
-      <c r="B281" s="49"/>
+      <c r="B281" s="110" t="s">
+        <v>802</v>
+      </c>
       <c r="C281" s="27"/>
-      <c r="D281" s="27" t="s">
-        <v>803</v>
+      <c r="D281" s="54" t="s">
+        <v>808</v>
       </c>
       <c r="E281" s="45" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="F281" s="27" t="s">
         <v>197</v>
@@ -19588,7 +19597,7 @@
       </c>
       <c r="N281" s="27"/>
       <c r="O281" s="27">
-        <v>2000000113</v>
+        <v>2000000112</v>
       </c>
       <c r="P281" s="28"/>
       <c r="Q281" s="27"/>
@@ -19599,7 +19608,7 @@
       <c r="V281" s="27"/>
       <c r="W281" s="27"/>
       <c r="X281" s="15" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="282" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
@@ -19607,10 +19616,10 @@
       <c r="B282" s="49"/>
       <c r="C282" s="27"/>
       <c r="D282" s="27" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E282" s="45" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F282" s="27" t="s">
         <v>197</v>
@@ -19632,7 +19641,7 @@
       </c>
       <c r="N282" s="27"/>
       <c r="O282" s="27">
-        <v>2000000114</v>
+        <v>2000000113</v>
       </c>
       <c r="P282" s="28"/>
       <c r="Q282" s="27"/>
@@ -19643,7 +19652,7 @@
       <c r="V282" s="27"/>
       <c r="W282" s="27"/>
       <c r="X282" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="283" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
@@ -19651,10 +19660,10 @@
       <c r="B283" s="49"/>
       <c r="C283" s="27"/>
       <c r="D283" s="27" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E283" s="45" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F283" s="27" t="s">
         <v>197</v>
@@ -19676,7 +19685,7 @@
       </c>
       <c r="N283" s="27"/>
       <c r="O283" s="27">
-        <v>2000000115</v>
+        <v>2000000114</v>
       </c>
       <c r="P283" s="28"/>
       <c r="Q283" s="27"/>
@@ -19687,7 +19696,7 @@
       <c r="V283" s="27"/>
       <c r="W283" s="27"/>
       <c r="X283" s="15" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="284" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
@@ -19695,10 +19704,10 @@
       <c r="B284" s="49"/>
       <c r="C284" s="27"/>
       <c r="D284" s="27" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E284" s="45" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F284" s="27" t="s">
         <v>197</v>
@@ -19720,7 +19729,7 @@
       </c>
       <c r="N284" s="27"/>
       <c r="O284" s="27">
-        <v>2000000116</v>
+        <v>2000000115</v>
       </c>
       <c r="P284" s="28"/>
       <c r="Q284" s="27"/>
@@ -19731,95 +19740,90 @@
       <c r="V284" s="27"/>
       <c r="W284" s="27"/>
       <c r="X284" s="15" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="285" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
+      <c r="A285" s="59"/>
+      <c r="B285" s="49"/>
+      <c r="C285" s="27"/>
+      <c r="D285" s="27" t="s">
+        <v>806</v>
+      </c>
+      <c r="E285" s="45" t="s">
+        <v>813</v>
+      </c>
+      <c r="F285" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="G285" s="15"/>
+      <c r="H285" s="104" t="s">
+        <v>759</v>
+      </c>
+      <c r="I285" s="28" t="s">
+        <v>715</v>
+      </c>
+      <c r="J285" s="15"/>
+      <c r="K285" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="L285" s="16"/>
+      <c r="M285" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="N285" s="27"/>
+      <c r="O285" s="27">
+        <v>2000000116</v>
+      </c>
+      <c r="P285" s="28"/>
+      <c r="Q285" s="27"/>
+      <c r="R285" s="27"/>
+      <c r="S285" s="27"/>
+      <c r="T285" s="15"/>
+      <c r="U285" s="15"/>
+      <c r="V285" s="27"/>
+      <c r="W285" s="27"/>
+      <c r="X285" s="15" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="285" spans="1:24" s="54" customFormat="1" ht="15">
-      <c r="A285" s="75" t="s">
+    <row r="286" spans="1:24" s="54" customFormat="1" ht="15">
+      <c r="A286" s="75" t="s">
         <v>271</v>
       </c>
-      <c r="B285" s="48"/>
-      <c r="C285" s="6"/>
-      <c r="D285" s="6"/>
-      <c r="E285" s="7"/>
-      <c r="F285" s="6"/>
-      <c r="G285" s="6"/>
-      <c r="H285" s="30"/>
-      <c r="I285" s="30"/>
-      <c r="J285" s="6"/>
-      <c r="K285" s="53"/>
-      <c r="L285" s="7"/>
-      <c r="M285" s="53"/>
-      <c r="N285" s="53"/>
-      <c r="O285" s="53"/>
-      <c r="P285" s="53"/>
-      <c r="Q285" s="53"/>
-      <c r="R285" s="53"/>
-      <c r="S285" s="53"/>
-      <c r="T285" s="53"/>
-      <c r="U285" s="53"/>
-      <c r="V285" s="53"/>
-      <c r="W285" s="53"/>
-      <c r="X285" s="53"/>
-    </row>
-    <row r="286" spans="1:24" s="54" customFormat="1" ht="15">
-      <c r="A286" s="59"/>
-      <c r="B286" s="49"/>
-      <c r="C286" s="15"/>
-      <c r="D286" s="79" t="s">
-        <v>698</v>
-      </c>
-      <c r="E286" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="F286" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="G286" s="15"/>
-      <c r="H286" s="104" t="s">
-        <v>761</v>
-      </c>
-      <c r="I286" s="28" t="s">
-        <v>715</v>
-      </c>
-      <c r="J286" s="15"/>
-      <c r="K286" s="27" t="s">
-        <v>337</v>
-      </c>
-      <c r="L286" s="24"/>
-      <c r="M286" s="27" t="s">
-        <v>374</v>
-      </c>
-      <c r="N286" s="27" t="s">
-        <v>368</v>
-      </c>
-      <c r="O286" s="27">
-        <v>44807681</v>
-      </c>
-      <c r="P286" s="28" t="str">
-        <f t="shared" ref="P286:P299" si="24">IF(N286&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O286), CONCATENATE("Athena-",O286)),"")</f>
-        <v>Athena-44807681</v>
-      </c>
-      <c r="Q286" s="27"/>
-      <c r="R286" s="27"/>
-      <c r="S286" s="27"/>
-      <c r="T286" s="27"/>
-      <c r="U286" s="27"/>
-      <c r="V286" s="27"/>
-      <c r="W286" s="27"/>
-      <c r="X286" s="27" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="287" spans="1:24" s="54" customFormat="1" ht="16">
+      <c r="B286" s="48"/>
+      <c r="C286" s="6"/>
+      <c r="D286" s="6"/>
+      <c r="E286" s="7"/>
+      <c r="F286" s="6"/>
+      <c r="G286" s="6"/>
+      <c r="H286" s="30"/>
+      <c r="I286" s="30"/>
+      <c r="J286" s="6"/>
+      <c r="K286" s="53"/>
+      <c r="L286" s="7"/>
+      <c r="M286" s="53"/>
+      <c r="N286" s="53"/>
+      <c r="O286" s="53"/>
+      <c r="P286" s="53"/>
+      <c r="Q286" s="53"/>
+      <c r="R286" s="53"/>
+      <c r="S286" s="53"/>
+      <c r="T286" s="53"/>
+      <c r="U286" s="53"/>
+      <c r="V286" s="53"/>
+      <c r="W286" s="53"/>
+      <c r="X286" s="53"/>
+    </row>
+    <row r="287" spans="1:24" s="54" customFormat="1" ht="15">
       <c r="A287" s="59"/>
       <c r="B287" s="49"/>
-      <c r="C287" s="16"/>
-      <c r="D287" s="80" t="s">
-        <v>699</v>
-      </c>
-      <c r="E287" s="16" t="s">
-        <v>284</v>
+      <c r="C287" s="15"/>
+      <c r="D287" s="79" t="s">
+        <v>698</v>
+      </c>
+      <c r="E287" s="15" t="s">
+        <v>283</v>
       </c>
       <c r="F287" s="15" t="s">
         <v>197</v>
@@ -19835,27 +19839,23 @@
       <c r="K287" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L287" s="16"/>
+      <c r="L287" s="24"/>
       <c r="M287" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="N287" s="27"/>
+      <c r="N287" s="27" t="s">
+        <v>368</v>
+      </c>
       <c r="O287" s="27">
-        <v>2000000093</v>
+        <v>44807681</v>
       </c>
       <c r="P287" s="28" t="str">
-        <f>IF(N287&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O287), CONCATENATE("Athena-",O287)),"")</f>
-        <v/>
-      </c>
-      <c r="Q287" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="R287" s="27">
-        <v>8845</v>
-      </c>
-      <c r="S287" s="27" t="s">
-        <v>376</v>
-      </c>
+        <f t="shared" ref="P287:P300" si="24">IF(N287&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O287), CONCATENATE("Athena-",O287)),"")</f>
+        <v>Athena-44807681</v>
+      </c>
+      <c r="Q287" s="27"/>
+      <c r="R287" s="27"/>
+      <c r="S287" s="27"/>
       <c r="T287" s="27"/>
       <c r="U287" s="27"/>
       <c r="V287" s="27"/>
@@ -19869,15 +19869,15 @@
       <c r="B288" s="49"/>
       <c r="C288" s="16"/>
       <c r="D288" s="80" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E288" s="16" t="s">
-        <v>585</v>
+        <v>284</v>
       </c>
       <c r="F288" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="G288" s="16"/>
+      <c r="G288" s="15"/>
       <c r="H288" s="104" t="s">
         <v>761</v>
       </c>
@@ -19894,7 +19894,7 @@
       </c>
       <c r="N288" s="27"/>
       <c r="O288" s="27">
-        <v>2000000094</v>
+        <v>2000000093</v>
       </c>
       <c r="P288" s="28" t="str">
         <f>IF(N288&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O288), CONCATENATE("Athena-",O288)),"")</f>
@@ -19922,10 +19922,10 @@
       <c r="B289" s="49"/>
       <c r="C289" s="16"/>
       <c r="D289" s="80" t="s">
-        <v>771</v>
+        <v>700</v>
       </c>
       <c r="E289" s="16" t="s">
-        <v>772</v>
+        <v>585</v>
       </c>
       <c r="F289" s="15" t="s">
         <v>197</v>
@@ -19947,15 +19947,21 @@
       </c>
       <c r="N289" s="27"/>
       <c r="O289" s="27">
-        <v>2000000105</v>
+        <v>2000000094</v>
       </c>
       <c r="P289" s="28" t="str">
         <f>IF(N289&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O289), CONCATENATE("Athena-",O289)),"")</f>
         <v/>
       </c>
-      <c r="Q289" s="27"/>
-      <c r="R289" s="27"/>
-      <c r="S289" s="27"/>
+      <c r="Q289" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="R289" s="27">
+        <v>8845</v>
+      </c>
+      <c r="S289" s="27" t="s">
+        <v>376</v>
+      </c>
       <c r="T289" s="27"/>
       <c r="U289" s="27"/>
       <c r="V289" s="27"/>
@@ -19969,15 +19975,15 @@
       <c r="B290" s="49"/>
       <c r="C290" s="16"/>
       <c r="D290" s="80" t="s">
-        <v>274</v>
+        <v>771</v>
       </c>
       <c r="E290" s="16" t="s">
-        <v>285</v>
+        <v>772</v>
       </c>
       <c r="F290" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="G290" s="15"/>
+      <c r="G290" s="16"/>
       <c r="H290" s="104" t="s">
         <v>761</v>
       </c>
@@ -19994,10 +20000,10 @@
       </c>
       <c r="N290" s="27"/>
       <c r="O290" s="27">
-        <v>2000000095</v>
+        <v>2000000105</v>
       </c>
       <c r="P290" s="28" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(N290&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O290), CONCATENATE("Athena-",O290)),"")</f>
         <v/>
       </c>
       <c r="Q290" s="27"/>
@@ -20014,12 +20020,12 @@
     <row r="291" spans="1:25" s="54" customFormat="1" ht="16">
       <c r="A291" s="59"/>
       <c r="B291" s="49"/>
-      <c r="C291" s="15"/>
-      <c r="D291" s="79" t="s">
-        <v>275</v>
-      </c>
-      <c r="E291" s="45" t="s">
-        <v>286</v>
+      <c r="C291" s="16"/>
+      <c r="D291" s="80" t="s">
+        <v>274</v>
+      </c>
+      <c r="E291" s="16" t="s">
+        <v>285</v>
       </c>
       <c r="F291" s="15" t="s">
         <v>197</v>
@@ -20040,8 +20046,8 @@
         <v>374</v>
       </c>
       <c r="N291" s="27"/>
-      <c r="O291" s="79">
-        <v>2000000096</v>
+      <c r="O291" s="27">
+        <v>2000000095</v>
       </c>
       <c r="P291" s="28" t="str">
         <f t="shared" si="24"/>
@@ -20063,10 +20069,10 @@
       <c r="B292" s="49"/>
       <c r="C292" s="15"/>
       <c r="D292" s="79" t="s">
-        <v>701</v>
-      </c>
-      <c r="E292" s="11" t="s">
-        <v>288</v>
+        <v>275</v>
+      </c>
+      <c r="E292" s="45" t="s">
+        <v>286</v>
       </c>
       <c r="F292" s="15" t="s">
         <v>197</v>
@@ -20087,8 +20093,8 @@
         <v>374</v>
       </c>
       <c r="N292" s="27"/>
-      <c r="O292" s="27">
-        <v>2000000097</v>
+      <c r="O292" s="79">
+        <v>2000000096</v>
       </c>
       <c r="P292" s="28" t="str">
         <f t="shared" si="24"/>
@@ -20108,17 +20114,17 @@
     <row r="293" spans="1:25" s="54" customFormat="1" ht="16">
       <c r="A293" s="59"/>
       <c r="B293" s="49"/>
-      <c r="C293" s="16"/>
-      <c r="D293" s="80" t="s">
-        <v>276</v>
-      </c>
-      <c r="E293" s="16" t="s">
-        <v>289</v>
+      <c r="C293" s="15"/>
+      <c r="D293" s="79" t="s">
+        <v>701</v>
+      </c>
+      <c r="E293" s="11" t="s">
+        <v>288</v>
       </c>
       <c r="F293" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="G293" s="16"/>
+      <c r="G293" s="15"/>
       <c r="H293" s="104" t="s">
         <v>761</v>
       </c>
@@ -20133,15 +20139,13 @@
       <c r="M293" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="N293" s="27" t="s">
-        <v>368</v>
-      </c>
+      <c r="N293" s="27"/>
       <c r="O293" s="27">
-        <v>46284972</v>
+        <v>2000000097</v>
       </c>
       <c r="P293" s="28" t="str">
         <f t="shared" si="24"/>
-        <v>Athena-46284972</v>
+        <v/>
       </c>
       <c r="Q293" s="27"/>
       <c r="R293" s="27"/>
@@ -20159,15 +20163,15 @@
       <c r="B294" s="49"/>
       <c r="C294" s="16"/>
       <c r="D294" s="80" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>378</v>
+        <v>289</v>
       </c>
       <c r="F294" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="G294" s="15"/>
+      <c r="G294" s="16"/>
       <c r="H294" s="104" t="s">
         <v>761</v>
       </c>
@@ -20182,13 +20186,15 @@
       <c r="M294" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="N294" s="27"/>
+      <c r="N294" s="27" t="s">
+        <v>368</v>
+      </c>
       <c r="O294" s="27">
-        <v>2000000098</v>
+        <v>46284972</v>
       </c>
       <c r="P294" s="28" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>Athena-46284972</v>
       </c>
       <c r="Q294" s="27"/>
       <c r="R294" s="27"/>
@@ -20204,12 +20210,12 @@
     <row r="295" spans="1:25" s="54" customFormat="1" ht="16">
       <c r="A295" s="59"/>
       <c r="B295" s="49"/>
-      <c r="C295" s="15"/>
-      <c r="D295" s="79" t="s">
-        <v>278</v>
-      </c>
-      <c r="E295" s="45" t="s">
-        <v>377</v>
+      <c r="C295" s="16"/>
+      <c r="D295" s="80" t="s">
+        <v>277</v>
+      </c>
+      <c r="E295" s="16" t="s">
+        <v>378</v>
       </c>
       <c r="F295" s="15" t="s">
         <v>197</v>
@@ -20231,7 +20237,7 @@
       </c>
       <c r="N295" s="27"/>
       <c r="O295" s="27">
-        <v>2000000099</v>
+        <v>2000000098</v>
       </c>
       <c r="P295" s="28" t="str">
         <f t="shared" si="24"/>
@@ -20250,25 +20256,25 @@
     </row>
     <row r="296" spans="1:25" s="54" customFormat="1" ht="16">
       <c r="A296" s="59"/>
-      <c r="B296" s="16"/>
-      <c r="C296" s="16"/>
-      <c r="D296" s="80" t="s">
-        <v>279</v>
-      </c>
-      <c r="E296" s="16" t="s">
-        <v>290</v>
+      <c r="B296" s="49"/>
+      <c r="C296" s="15"/>
+      <c r="D296" s="79" t="s">
+        <v>278</v>
+      </c>
+      <c r="E296" s="45" t="s">
+        <v>377</v>
       </c>
       <c r="F296" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="G296" s="16"/>
+      <c r="G296" s="15"/>
       <c r="H296" s="104" t="s">
         <v>761</v>
       </c>
       <c r="I296" s="28" t="s">
         <v>715</v>
       </c>
-      <c r="J296" s="16"/>
+      <c r="J296" s="15"/>
       <c r="K296" s="27" t="s">
         <v>337</v>
       </c>
@@ -20276,15 +20282,13 @@
       <c r="M296" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="N296" s="27" t="s">
-        <v>368</v>
-      </c>
+      <c r="N296" s="27"/>
       <c r="O296" s="27">
-        <v>4332015</v>
+        <v>2000000099</v>
       </c>
       <c r="P296" s="28" t="str">
         <f t="shared" si="24"/>
-        <v>Athena-4332015</v>
+        <v/>
       </c>
       <c r="Q296" s="27"/>
       <c r="R296" s="27"/>
@@ -20302,10 +20306,10 @@
       <c r="B297" s="16"/>
       <c r="C297" s="16"/>
       <c r="D297" s="80" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F297" s="15" t="s">
         <v>197</v>
@@ -20329,11 +20333,11 @@
         <v>368</v>
       </c>
       <c r="O297" s="27">
-        <v>4166200</v>
+        <v>4332015</v>
       </c>
       <c r="P297" s="28" t="str">
         <f t="shared" si="24"/>
-        <v>Athena-4166200</v>
+        <v>Athena-4332015</v>
       </c>
       <c r="Q297" s="27"/>
       <c r="R297" s="27"/>
@@ -20351,10 +20355,10 @@
       <c r="B298" s="16"/>
       <c r="C298" s="16"/>
       <c r="D298" s="80" t="s">
-        <v>702</v>
+        <v>280</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F298" s="15" t="s">
         <v>197</v>
@@ -20378,11 +20382,11 @@
         <v>368</v>
       </c>
       <c r="O298" s="27">
-        <v>4282774</v>
+        <v>4166200</v>
       </c>
       <c r="P298" s="28" t="str">
         <f t="shared" si="24"/>
-        <v>Athena-4282774</v>
+        <v>Athena-4166200</v>
       </c>
       <c r="Q298" s="27"/>
       <c r="R298" s="27"/>
@@ -20400,10 +20404,10 @@
       <c r="B299" s="16"/>
       <c r="C299" s="16"/>
       <c r="D299" s="80" t="s">
-        <v>282</v>
+        <v>702</v>
       </c>
       <c r="E299" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F299" s="15" t="s">
         <v>197</v>
@@ -20423,13 +20427,15 @@
       <c r="M299" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="N299" s="27"/>
+      <c r="N299" s="27" t="s">
+        <v>368</v>
+      </c>
       <c r="O299" s="27">
-        <v>2000000076</v>
+        <v>4282774</v>
       </c>
       <c r="P299" s="28" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>Athena-4282774</v>
       </c>
       <c r="Q299" s="27"/>
       <c r="R299" s="27"/>
@@ -20447,10 +20453,10 @@
       <c r="B300" s="16"/>
       <c r="C300" s="16"/>
       <c r="D300" s="80" t="s">
-        <v>780</v>
+        <v>282</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>781</v>
+        <v>293</v>
       </c>
       <c r="F300" s="15" t="s">
         <v>197</v>
@@ -20470,19 +20476,15 @@
       <c r="M300" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="N300" s="27" t="s">
-        <v>368</v>
-      </c>
+      <c r="N300" s="27"/>
       <c r="O300" s="27">
-        <v>4056962</v>
+        <v>2000000076</v>
       </c>
       <c r="P300" s="28" t="str">
-        <f t="shared" ref="P300" si="25">IF(N300&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O300), CONCATENATE("Athena-",O300)),"")</f>
-        <v>Athena-4056962</v>
-      </c>
-      <c r="Q300" s="27" t="s">
-        <v>782</v>
-      </c>
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="Q300" s="27"/>
       <c r="R300" s="27"/>
       <c r="S300" s="27"/>
       <c r="T300" s="27"/>
@@ -20492,187 +20494,218 @@
       <c r="X300" s="27" t="s">
         <v>770</v>
       </c>
-      <c r="Y300" s="54" t="s">
+    </row>
+    <row r="301" spans="1:25" s="54" customFormat="1" ht="16">
+      <c r="A301" s="59"/>
+      <c r="B301" s="16"/>
+      <c r="C301" s="16"/>
+      <c r="D301" s="80" t="s">
+        <v>780</v>
+      </c>
+      <c r="E301" s="16" t="s">
+        <v>781</v>
+      </c>
+      <c r="F301" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G301" s="16"/>
+      <c r="H301" s="104" t="s">
+        <v>761</v>
+      </c>
+      <c r="I301" s="28" t="s">
+        <v>715</v>
+      </c>
+      <c r="J301" s="16"/>
+      <c r="K301" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="L301" s="16"/>
+      <c r="M301" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="N301" s="27" t="s">
+        <v>368</v>
+      </c>
+      <c r="O301" s="27">
+        <v>4056962</v>
+      </c>
+      <c r="P301" s="28" t="str">
+        <f t="shared" ref="P301" si="25">IF(N301&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O301), CONCATENATE("Athena-",O301)),"")</f>
+        <v>Athena-4056962</v>
+      </c>
+      <c r="Q301" s="27" t="s">
+        <v>782</v>
+      </c>
+      <c r="R301" s="27"/>
+      <c r="S301" s="27"/>
+      <c r="T301" s="27"/>
+      <c r="U301" s="27"/>
+      <c r="V301" s="27"/>
+      <c r="W301" s="27"/>
+      <c r="X301" s="27" t="s">
+        <v>770</v>
+      </c>
+      <c r="Y301" s="54" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="301" spans="1:25" s="54" customFormat="1" ht="15">
-      <c r="A301" s="75" t="s">
+    <row r="302" spans="1:25" s="54" customFormat="1" ht="15">
+      <c r="A302" s="75" t="s">
         <v>965</v>
       </c>
-      <c r="B301" s="48"/>
-      <c r="C301" s="6"/>
-      <c r="D301" s="6"/>
-      <c r="E301" s="7"/>
-      <c r="F301" s="6"/>
-      <c r="G301" s="6"/>
-      <c r="H301" s="30"/>
-      <c r="I301" s="30"/>
-      <c r="J301" s="6"/>
-      <c r="K301" s="53"/>
-      <c r="L301" s="7"/>
-      <c r="M301" s="53"/>
-      <c r="N301" s="53"/>
-      <c r="O301" s="53"/>
-      <c r="P301" s="53"/>
-      <c r="Q301" s="53"/>
-      <c r="R301" s="53"/>
-      <c r="S301" s="53"/>
-      <c r="T301" s="53"/>
-      <c r="U301" s="53"/>
-      <c r="V301" s="53"/>
-      <c r="W301" s="53"/>
-      <c r="X301" s="53"/>
-    </row>
-    <row r="302" spans="1:25">
-      <c r="A302" s="111"/>
-      <c r="B302" s="111"/>
-      <c r="C302" s="112"/>
-      <c r="D302" s="112" t="s">
+      <c r="B302" s="48"/>
+      <c r="C302" s="6"/>
+      <c r="D302" s="6"/>
+      <c r="E302" s="7"/>
+      <c r="F302" s="6"/>
+      <c r="G302" s="6"/>
+      <c r="H302" s="30"/>
+      <c r="I302" s="30"/>
+      <c r="J302" s="6"/>
+      <c r="K302" s="53"/>
+      <c r="L302" s="7"/>
+      <c r="M302" s="53"/>
+      <c r="N302" s="53"/>
+      <c r="O302" s="53"/>
+      <c r="P302" s="53"/>
+      <c r="Q302" s="53"/>
+      <c r="R302" s="53"/>
+      <c r="S302" s="53"/>
+      <c r="T302" s="53"/>
+      <c r="U302" s="53"/>
+      <c r="V302" s="53"/>
+      <c r="W302" s="53"/>
+      <c r="X302" s="53"/>
+    </row>
+    <row r="303" spans="1:25">
+      <c r="A303" s="111"/>
+      <c r="B303" s="111"/>
+      <c r="C303" s="112"/>
+      <c r="D303" s="112" t="s">
         <v>967</v>
       </c>
-      <c r="E302" s="113" t="s">
+      <c r="E303" s="113" t="s">
         <v>968</v>
       </c>
-      <c r="F302" s="15" t="s">
+      <c r="F303" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="G302" s="112"/>
-      <c r="H302" s="104" t="s">
+      <c r="G303" s="112"/>
+      <c r="H303" s="104" t="s">
         <v>761</v>
       </c>
-      <c r="I302" s="28" t="s">
+      <c r="I303" s="28" t="s">
         <v>715</v>
       </c>
-      <c r="J302" s="112"/>
-      <c r="K302" s="27" t="s">
+      <c r="J303" s="112"/>
+      <c r="K303" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L302" s="112"/>
-      <c r="M302" s="27" t="s">
+      <c r="L303" s="112"/>
+      <c r="M303" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="N302" s="114"/>
-      <c r="O302" s="114">
+      <c r="N303" s="114"/>
+      <c r="O303" s="114">
         <v>2000000143</v>
       </c>
-      <c r="P302" s="114"/>
-      <c r="Q302" s="28" t="s">
+      <c r="P303" s="114"/>
+      <c r="Q303" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="R302" s="28">
+      <c r="R303" s="28">
         <v>9448</v>
       </c>
-      <c r="S302" s="27" t="s">
+      <c r="S303" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="T302" s="114"/>
-      <c r="U302" s="114"/>
-      <c r="V302" s="114"/>
-      <c r="W302" s="114"/>
-      <c r="X302" s="115" t="s">
+      <c r="T303" s="114"/>
+      <c r="U303" s="114"/>
+      <c r="V303" s="114"/>
+      <c r="W303" s="114"/>
+      <c r="X303" s="115" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="303" spans="1:25" s="54" customFormat="1" ht="15">
-      <c r="A303" s="75" t="s">
+    <row r="304" spans="1:25" s="54" customFormat="1" ht="15">
+      <c r="A304" s="75" t="s">
         <v>969</v>
       </c>
-      <c r="B303" s="48"/>
-      <c r="C303" s="6"/>
-      <c r="D303" s="6"/>
-      <c r="E303" s="7"/>
-      <c r="F303" s="6"/>
-      <c r="G303" s="6"/>
-      <c r="H303" s="30"/>
-      <c r="I303" s="30"/>
-      <c r="J303" s="6"/>
-      <c r="K303" s="53"/>
-      <c r="L303" s="7"/>
-      <c r="M303" s="53"/>
-      <c r="N303" s="53"/>
-      <c r="O303" s="53"/>
-      <c r="P303" s="53"/>
-      <c r="Q303" s="53"/>
-      <c r="R303" s="53"/>
-      <c r="S303" s="53"/>
-      <c r="T303" s="53"/>
-      <c r="U303" s="53"/>
-      <c r="V303" s="53"/>
-      <c r="W303" s="53"/>
-      <c r="X303" s="53"/>
-    </row>
-    <row r="304" spans="1:25">
-      <c r="A304" s="111"/>
-      <c r="B304" s="111"/>
-      <c r="C304" s="112"/>
-      <c r="D304" s="112" t="s">
+      <c r="B304" s="48"/>
+      <c r="C304" s="6"/>
+      <c r="D304" s="6"/>
+      <c r="E304" s="7"/>
+      <c r="F304" s="6"/>
+      <c r="G304" s="6"/>
+      <c r="H304" s="30"/>
+      <c r="I304" s="30"/>
+      <c r="J304" s="6"/>
+      <c r="K304" s="53"/>
+      <c r="L304" s="7"/>
+      <c r="M304" s="53"/>
+      <c r="N304" s="53"/>
+      <c r="O304" s="53"/>
+      <c r="P304" s="53"/>
+      <c r="Q304" s="53"/>
+      <c r="R304" s="53"/>
+      <c r="S304" s="53"/>
+      <c r="T304" s="53"/>
+      <c r="U304" s="53"/>
+      <c r="V304" s="53"/>
+      <c r="W304" s="53"/>
+      <c r="X304" s="53"/>
+    </row>
+    <row r="305" spans="1:24">
+      <c r="A305" s="111"/>
+      <c r="B305" s="111"/>
+      <c r="C305" s="112"/>
+      <c r="D305" s="112" t="s">
         <v>970</v>
       </c>
-      <c r="E304" s="113" t="s">
+      <c r="E305" s="113" t="s">
         <v>971</v>
       </c>
-      <c r="F304" s="15" t="s">
+      <c r="F305" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="G304" s="112"/>
-      <c r="H304" s="104" t="s">
+      <c r="G305" s="112"/>
+      <c r="H305" s="104" t="s">
         <v>761</v>
       </c>
-      <c r="I304" s="28" t="s">
+      <c r="I305" s="28" t="s">
         <v>715</v>
       </c>
-      <c r="J304" s="112"/>
-      <c r="K304" s="27" t="s">
+      <c r="J305" s="112"/>
+      <c r="K305" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L304" s="112"/>
-      <c r="M304" s="27" t="s">
+      <c r="L305" s="112"/>
+      <c r="M305" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="N304" s="114"/>
-      <c r="O304" s="114">
+      <c r="N305" s="114"/>
+      <c r="O305" s="114">
         <v>2000000144</v>
       </c>
-      <c r="P304" s="114"/>
-      <c r="Q304" s="28" t="s">
+      <c r="P305" s="114"/>
+      <c r="Q305" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="R304" s="28">
+      <c r="R305" s="28">
         <v>9448</v>
       </c>
-      <c r="S304" s="27" t="s">
+      <c r="S305" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="T304" s="114"/>
-      <c r="U304" s="114"/>
-      <c r="V304" s="114"/>
-      <c r="W304" s="114"/>
-      <c r="X304" s="115" t="s">
+      <c r="T305" s="114"/>
+      <c r="U305" s="114"/>
+      <c r="V305" s="114"/>
+      <c r="W305" s="114"/>
+      <c r="X305" s="115" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="305" spans="7:24">
-      <c r="G305" s="23"/>
-      <c r="H305" s="34"/>
-      <c r="I305" s="34"/>
-      <c r="J305" s="23"/>
-      <c r="K305" s="40"/>
-      <c r="L305" s="23"/>
-      <c r="M305" s="40"/>
-      <c r="N305" s="40"/>
-      <c r="O305" s="40"/>
-      <c r="P305" s="40"/>
-      <c r="Q305" s="40"/>
-      <c r="R305" s="40"/>
-      <c r="S305" s="40"/>
-      <c r="T305" s="40"/>
-      <c r="U305" s="40"/>
-      <c r="V305" s="40"/>
-      <c r="W305" s="40"/>
-      <c r="X305" s="40"/>
-    </row>
-    <row r="306" spans="7:24">
+    <row r="306" spans="1:24">
       <c r="G306" s="23"/>
       <c r="H306" s="34"/>
       <c r="I306" s="34"/>
@@ -20692,7 +20725,7 @@
       <c r="W306" s="40"/>
       <c r="X306" s="40"/>
     </row>
-    <row r="307" spans="7:24">
+    <row r="307" spans="1:24">
       <c r="G307" s="23"/>
       <c r="H307" s="34"/>
       <c r="I307" s="34"/>
@@ -20712,7 +20745,7 @@
       <c r="W307" s="40"/>
       <c r="X307" s="40"/>
     </row>
-    <row r="308" spans="7:24">
+    <row r="308" spans="1:24">
       <c r="G308" s="23"/>
       <c r="H308" s="34"/>
       <c r="I308" s="34"/>
@@ -20732,7 +20765,7 @@
       <c r="W308" s="40"/>
       <c r="X308" s="40"/>
     </row>
-    <row r="309" spans="7:24">
+    <row r="309" spans="1:24">
       <c r="G309" s="23"/>
       <c r="H309" s="34"/>
       <c r="I309" s="34"/>
@@ -20752,7 +20785,7 @@
       <c r="W309" s="40"/>
       <c r="X309" s="40"/>
     </row>
-    <row r="310" spans="7:24">
+    <row r="310" spans="1:24">
       <c r="G310" s="23"/>
       <c r="H310" s="34"/>
       <c r="I310" s="34"/>
@@ -20772,7 +20805,7 @@
       <c r="W310" s="40"/>
       <c r="X310" s="40"/>
     </row>
-    <row r="311" spans="7:24">
+    <row r="311" spans="1:24">
       <c r="G311" s="23"/>
       <c r="H311" s="34"/>
       <c r="I311" s="34"/>
@@ -20792,7 +20825,7 @@
       <c r="W311" s="40"/>
       <c r="X311" s="40"/>
     </row>
-    <row r="312" spans="7:24">
+    <row r="312" spans="1:24">
       <c r="G312" s="23"/>
       <c r="H312" s="34"/>
       <c r="I312" s="34"/>
@@ -20812,7 +20845,7 @@
       <c r="W312" s="40"/>
       <c r="X312" s="40"/>
     </row>
-    <row r="313" spans="7:24">
+    <row r="313" spans="1:24">
       <c r="G313" s="23"/>
       <c r="H313" s="34"/>
       <c r="I313" s="34"/>
@@ -20832,7 +20865,7 @@
       <c r="W313" s="40"/>
       <c r="X313" s="40"/>
     </row>
-    <row r="314" spans="7:24">
+    <row r="314" spans="1:24">
       <c r="G314" s="23"/>
       <c r="H314" s="34"/>
       <c r="I314" s="34"/>
@@ -20852,7 +20885,7 @@
       <c r="W314" s="40"/>
       <c r="X314" s="40"/>
     </row>
-    <row r="315" spans="7:24">
+    <row r="315" spans="1:24">
       <c r="G315" s="23"/>
       <c r="H315" s="34"/>
       <c r="I315" s="34"/>
@@ -20872,7 +20905,7 @@
       <c r="W315" s="40"/>
       <c r="X315" s="40"/>
     </row>
-    <row r="316" spans="7:24">
+    <row r="316" spans="1:24">
       <c r="G316" s="23"/>
       <c r="H316" s="34"/>
       <c r="I316" s="34"/>
@@ -20892,7 +20925,7 @@
       <c r="W316" s="40"/>
       <c r="X316" s="40"/>
     </row>
-    <row r="317" spans="7:24">
+    <row r="317" spans="1:24">
       <c r="G317" s="23"/>
       <c r="H317" s="34"/>
       <c r="I317" s="34"/>
@@ -20912,7 +20945,7 @@
       <c r="W317" s="40"/>
       <c r="X317" s="40"/>
     </row>
-    <row r="318" spans="7:24">
+    <row r="318" spans="1:24">
       <c r="G318" s="23"/>
       <c r="H318" s="34"/>
       <c r="I318" s="34"/>
@@ -20932,7 +20965,7 @@
       <c r="W318" s="40"/>
       <c r="X318" s="40"/>
     </row>
-    <row r="319" spans="7:24">
+    <row r="319" spans="1:24">
       <c r="G319" s="23"/>
       <c r="H319" s="34"/>
       <c r="I319" s="34"/>
@@ -20952,25 +20985,25 @@
       <c r="W319" s="40"/>
       <c r="X319" s="40"/>
     </row>
-    <row r="320" spans="7:24">
+    <row r="320" spans="1:24">
       <c r="G320" s="23"/>
-      <c r="H320" s="23"/>
-      <c r="I320" s="23"/>
+      <c r="H320" s="34"/>
+      <c r="I320" s="34"/>
       <c r="J320" s="23"/>
-      <c r="K320" s="23"/>
+      <c r="K320" s="40"/>
       <c r="L320" s="23"/>
-      <c r="M320" s="23"/>
-      <c r="N320" s="23"/>
-      <c r="O320" s="23"/>
-      <c r="P320" s="23"/>
-      <c r="Q320" s="23"/>
-      <c r="R320" s="23"/>
-      <c r="S320" s="23"/>
-      <c r="T320" s="23"/>
-      <c r="U320" s="23"/>
-      <c r="V320" s="23"/>
-      <c r="W320" s="23"/>
-      <c r="X320" s="23"/>
+      <c r="M320" s="40"/>
+      <c r="N320" s="40"/>
+      <c r="O320" s="40"/>
+      <c r="P320" s="40"/>
+      <c r="Q320" s="40"/>
+      <c r="R320" s="40"/>
+      <c r="S320" s="40"/>
+      <c r="T320" s="40"/>
+      <c r="U320" s="40"/>
+      <c r="V320" s="40"/>
+      <c r="W320" s="40"/>
+      <c r="X320" s="40"/>
     </row>
     <row r="321" spans="7:24">
       <c r="G321" s="23"/>
@@ -40011,6 +40044,26 @@
       <c r="V1272" s="23"/>
       <c r="W1272" s="23"/>
       <c r="X1272" s="23"/>
+    </row>
+    <row r="1273" spans="7:24">
+      <c r="G1273" s="23"/>
+      <c r="H1273" s="23"/>
+      <c r="I1273" s="23"/>
+      <c r="J1273" s="23"/>
+      <c r="K1273" s="23"/>
+      <c r="L1273" s="23"/>
+      <c r="M1273" s="23"/>
+      <c r="N1273" s="23"/>
+      <c r="O1273" s="23"/>
+      <c r="P1273" s="23"/>
+      <c r="Q1273" s="23"/>
+      <c r="R1273" s="23"/>
+      <c r="S1273" s="23"/>
+      <c r="T1273" s="23"/>
+      <c r="U1273" s="23"/>
+      <c r="V1273" s="23"/>
+      <c r="W1273" s="23"/>
+      <c r="X1273" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>

--- a/ncdc_mappings/ncdc_minimal_dataset.xlsx
+++ b/ncdc_mappings/ncdc_minimal_dataset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Projects/omop-converter/ncdc_mappings/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://maastro-my.sharepoint.com/personal/pedro_mateus_maastro_nl/Documents/Pedro Files/Data Harmonization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C042D6-41ED-9B4D-B90D-B6CFE9EF3AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="398" documentId="13_ncr:1_{CFD7E28C-48FE-9D4B-9FBD-FF4601B5D85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81FFBE1F-04C0-AA4F-92FB-93F9DD5F5A58}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="2" r:id="rId1"/>
@@ -270,7 +270,7 @@
     Already included in the depression scales</t>
       </text>
     </comment>
-    <comment ref="C181" authorId="22" shapeId="0" xr:uid="{CAC6BB5D-CA12-8443-B406-18164B929324}">
+    <comment ref="C182" authorId="22" shapeId="0" xr:uid="{CAC6BB5D-CA12-8443-B406-18164B929324}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -282,7 +282,7 @@
     SNOMED TMT - 4165596 (but not relative to A neither specific enough to separate time and errors)</t>
       </text>
     </comment>
-    <comment ref="C182" authorId="23" shapeId="0" xr:uid="{1382763E-E589-9F4B-85FE-23A7CFEE18DD}">
+    <comment ref="C183" authorId="23" shapeId="0" xr:uid="{1382763E-E589-9F4B-85FE-23A7CFEE18DD}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -294,7 +294,7 @@
     SNOMED TMT - 4165596 (but not relative to A neither specific enough to separate time and errors)</t>
       </text>
     </comment>
-    <comment ref="E184" authorId="24" shapeId="0" xr:uid="{B7328D09-6363-8249-B2CF-C73EFDCB0D08}">
+    <comment ref="E185" authorId="24" shapeId="0" xr:uid="{B7328D09-6363-8249-B2CF-C73EFDCB0D08}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -302,7 +302,7 @@
     Stroop test - 4136943</t>
       </text>
     </comment>
-    <comment ref="D206" authorId="25" shapeId="0" xr:uid="{914F52AC-FC72-B54D-B9E0-C97695244E94}">
+    <comment ref="D212" authorId="25" shapeId="0" xr:uid="{914F52AC-FC72-B54D-B9E0-C97695244E94}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -310,7 +310,7 @@
     Nebraska Voc.: 3168054</t>
       </text>
     </comment>
-    <comment ref="D211" authorId="26" shapeId="0" xr:uid="{6A389820-1552-134D-B136-21EA4EDF8457}">
+    <comment ref="D217" authorId="26" shapeId="0" xr:uid="{6A389820-1552-134D-B136-21EA4EDF8457}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -318,7 +318,7 @@
     The VAT contains six variants: Short Forms A, B, C, and D (6 items each), and two Long Forms (12 items each: combinations of Short Forms A amp; B and Forms C amp; D)</t>
       </text>
     </comment>
-    <comment ref="D214" authorId="27" shapeId="0" xr:uid="{C933C363-9553-E942-ACD3-527A51429678}">
+    <comment ref="D220" authorId="27" shapeId="0" xr:uid="{C933C363-9553-E942-ACD3-527A51429678}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -326,7 +326,7 @@
     From SNOMED: 4145250</t>
       </text>
     </comment>
-    <comment ref="D215" authorId="28" shapeId="0" xr:uid="{685BE208-102B-4745-B64F-E2C8E1A2AEC5}">
+    <comment ref="D221" authorId="28" shapeId="0" xr:uid="{685BE208-102B-4745-B64F-E2C8E1A2AEC5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -334,7 +334,7 @@
     From SNOMED: 4169175</t>
       </text>
     </comment>
-    <comment ref="D226" authorId="29" shapeId="0" xr:uid="{E6E8D11F-AB9E-5B48-AF0E-DDDA97FEC325}">
+    <comment ref="D232" authorId="29" shapeId="0" xr:uid="{E6E8D11F-AB9E-5B48-AF0E-DDDA97FEC325}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -342,7 +342,7 @@
     Nebraska Voc.: 3168054</t>
       </text>
     </comment>
-    <comment ref="D234" authorId="30" shapeId="0" xr:uid="{643216D6-EB4C-7A45-84AD-FA20AF72AF5A}">
+    <comment ref="D240" authorId="30" shapeId="0" xr:uid="{643216D6-EB4C-7A45-84AD-FA20AF72AF5A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -354,7 +354,7 @@
     However, storing the information for 2 different times may be confusing. Probably the one that falls in the interval 20-30 minutes will be more suitable</t>
       </text>
     </comment>
-    <comment ref="D235" authorId="31" shapeId="0" xr:uid="{7B408D37-7963-244B-BBC8-4A2BD19C9A8C}">
+    <comment ref="D241" authorId="31" shapeId="0" xr:uid="{7B408D37-7963-244B-BBC8-4A2BD19C9A8C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -366,7 +366,7 @@
     However, storing the information for 2 different times may be confusing. Probably the one that falls in the interval 20-30 minutes will be more suitable</t>
       </text>
     </comment>
-    <comment ref="D275" authorId="32" shapeId="0" xr:uid="{6A958D43-89AC-C443-90B2-E839939ED9BB}">
+    <comment ref="D285" authorId="32" shapeId="0" xr:uid="{6A958D43-89AC-C443-90B2-E839939ED9BB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -374,7 +374,7 @@
     Generic concept only from SNOMED for the Boston Naming Test: 4164808</t>
       </text>
     </comment>
-    <comment ref="O300" authorId="33" shapeId="0" xr:uid="{C21DF866-3B02-8D43-BDB4-19473A2B92EE}">
+    <comment ref="O310" authorId="33" shapeId="0" xr:uid="{C21DF866-3B02-8D43-BDB4-19473A2B92EE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -382,7 +382,7 @@
     Observation (SNOMED): 4136437</t>
       </text>
     </comment>
-    <comment ref="O301" authorId="34" shapeId="0" xr:uid="{6D0CD4A8-48D1-4246-9DC1-32FEBE702D51}">
+    <comment ref="O311" authorId="34" shapeId="0" xr:uid="{6D0CD4A8-48D1-4246-9DC1-32FEBE702D51}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -390,7 +390,7 @@
     Observation (SNOMED) 45768724</t>
       </text>
     </comment>
-    <comment ref="O302" authorId="35" shapeId="0" xr:uid="{B59C5FEF-8EFD-C648-A78A-AFBCA7EF7266}">
+    <comment ref="O312" authorId="35" shapeId="0" xr:uid="{B59C5FEF-8EFD-C648-A78A-AFBCA7EF7266}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -398,7 +398,7 @@
     Observation (SNOMED) 45768723</t>
       </text>
     </comment>
-    <comment ref="O304" authorId="36" shapeId="0" xr:uid="{BCD976E6-B6D9-D546-9016-DBD9D0F54E91}">
+    <comment ref="O314" authorId="36" shapeId="0" xr:uid="{BCD976E6-B6D9-D546-9016-DBD9D0F54E91}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -406,7 +406,7 @@
     Observation (SNOMED) 4079321</t>
       </text>
     </comment>
-    <comment ref="O305" authorId="37" shapeId="0" xr:uid="{DFA827BB-C401-AD42-9C05-074FE05BA8AF}">
+    <comment ref="O315" authorId="37" shapeId="0" xr:uid="{DFA827BB-C401-AD42-9C05-074FE05BA8AF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -416,7 +416,7 @@
     4299446</t>
       </text>
     </comment>
-    <comment ref="O306" authorId="38" shapeId="0" xr:uid="{8B270D9A-52A2-8745-B447-8EF3342DED56}">
+    <comment ref="O316" authorId="38" shapeId="0" xr:uid="{8B270D9A-52A2-8745-B447-8EF3342DED56}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -424,7 +424,7 @@
     Observation (SNOMED) 4012274</t>
       </text>
     </comment>
-    <comment ref="O307" authorId="39" shapeId="0" xr:uid="{48DC908A-650A-A142-B529-8C8185B7B723}">
+    <comment ref="O317" authorId="39" shapeId="0" xr:uid="{48DC908A-650A-A142-B529-8C8185B7B723}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -435,7 +435,7 @@
     Observation (SNOMED) - 4221816 (referes to the component itself)</t>
       </text>
     </comment>
-    <comment ref="D313" authorId="40" shapeId="0" xr:uid="{70609BE4-D9A6-3145-A3F3-5832E54D4EE2}">
+    <comment ref="D323" authorId="40" shapeId="0" xr:uid="{70609BE4-D9A6-3145-A3F3-5832E54D4EE2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -700,7 +700,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4776" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4858" uniqueCount="1026">
   <si>
     <t>Main category</t>
   </si>
@@ -3565,9 +3565,6 @@
     <t>Priority_executive_wais_3_f</t>
   </si>
   <si>
-    <t>WAIS-III digit span backward</t>
-  </si>
-  <si>
     <t>WAIS-III digit span forward</t>
   </si>
   <si>
@@ -3691,9 +3688,6 @@
     <t>Other clinical information</t>
   </si>
   <si>
-    <t>mild_cognitive_impairment_petersen</t>
-  </si>
-  <si>
     <t>Mild Cognitive Impairment according to Petersen criteria</t>
   </si>
   <si>
@@ -3703,9 +3697,6 @@
     <t>Memory complaints or subjective decline - Jessen et al 2014</t>
   </si>
   <si>
-    <t>mild_cognitive_impairment_jessen</t>
-  </si>
-  <si>
     <t>Mild Cognitive Impairment according to Jessen criteria</t>
   </si>
   <si>
@@ -3715,21 +3706,6 @@
     <t>Impaired on 2 or more cognitive domains and at least 3 (I)ADL activities</t>
   </si>
   <si>
-    <t>mild_cognitive_impairment_no_adl_scd</t>
-  </si>
-  <si>
-    <t>mild_cognitive_impairment_no_adl_memory</t>
-  </si>
-  <si>
-    <t>amnestic_mild_cognitive_impairment_no_adl_scd</t>
-  </si>
-  <si>
-    <t>amnestic_mild_cognitive_impairment_no_adl_memory</t>
-  </si>
-  <si>
-    <t>non_amnestic_mild_cognitive_impairment_no_adl_memory</t>
-  </si>
-  <si>
     <t>Mild Cognitive Impairment without (I)ADL criterion - SCD compared to others same age OR to 5-10 yrs ag</t>
   </si>
   <si>
@@ -3743,6 +3719,125 @@
   </si>
   <si>
     <t>Nonamnestic Mild Cognitive Impairment without (I)ADL criterion - memory complaints compared to others same age OR to 5-10 yrs ag</t>
+  </si>
+  <si>
+    <t>0-5</t>
+  </si>
+  <si>
+    <t>0-3</t>
+  </si>
+  <si>
+    <t>mci_petersen</t>
+  </si>
+  <si>
+    <t>mci_jessen</t>
+  </si>
+  <si>
+    <t>mci_no_adl_scd</t>
+  </si>
+  <si>
+    <t>mci_no_adl_memory</t>
+  </si>
+  <si>
+    <t>amnestic_mci_no_adl_scd</t>
+  </si>
+  <si>
+    <t>amnestic_mci_no_adl_memory</t>
+  </si>
+  <si>
+    <t>non_amnestic_mci_no_adl_memory</t>
+  </si>
+  <si>
+    <t>0;1;2;3;4;5</t>
+  </si>
+  <si>
+    <t>0;1;2;3</t>
+  </si>
+  <si>
+    <t>[Yesterday 16:04] Beran, M. (Magdalena)
+0 = OK
+1 = MCI
+2 = MCI without memory complaints
+3 = subjective memory complaints
+4 = pre-dementia
+5 = pure (I)ALD impairment</t>
+  </si>
+  <si>
+    <t>Attention_test_sdst_60_ts</t>
+  </si>
+  <si>
+    <t>Attention_test_sdst_90_correct</t>
+  </si>
+  <si>
+    <t>Attention_test_sdst_90_errors</t>
+  </si>
+  <si>
+    <t>Attention_test_sdst_90_ts</t>
+  </si>
+  <si>
+    <t>Attention_test_sdst_120_ts</t>
+  </si>
+  <si>
+    <t>Attention score from Symbol Digit Substitution Task - total score</t>
+  </si>
+  <si>
+    <t>Total score - takes into account both correct and incorrect answers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		priority_executive_wais_3_b_span</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		priority_executive_wais_3_f_span</t>
+  </si>
+  <si>
+    <t>WAIS-III digit span backward - score</t>
+  </si>
+  <si>
+    <t>WAIS-III digit span backward - span/level</t>
+  </si>
+  <si>
+    <t>WAIS-III digit span forward - span/level</t>
+  </si>
+  <si>
+    <t>Priority_language_animal_fluency_60_ts</t>
+  </si>
+  <si>
+    <t>Priority_language_animal_fluency_120_ts</t>
+  </si>
+  <si>
+    <t>Priority test for language from Animal Fluency 2 min - total score</t>
+  </si>
+  <si>
+    <t>Priority test for language from Animal Fluency 1 min - total score</t>
+  </si>
+  <si>
+    <t>npi_questionnaire_dis</t>
+  </si>
+  <si>
+    <t>NPI questionnairet (Anxiety) - Distress</t>
+  </si>
+  <si>
+    <t>0 = Not distressing at all
+1 = Minimal (slightly distressing, not a problem to cope with)
+2 = Mild (not very distressing, generally easy to cope with)
+3 = Moderate (fairly distressing, not always easy to cope with)
+4 = Severe (very distressing, difficult to cope with)
+5 = Extreme or Very Severe (extremely distressing, unable to
+ cope with)</t>
+  </si>
+  <si>
+    <t>1 = Mild (noticeable, but not a significant change)
+2 = Moderate (significant, but not a dramatic change)
+3 = Severe (very marked or prominent, a dramatic change)</t>
+  </si>
+  <si>
+    <t>1=rarely, less than once per week;2=sometimes, about once per week; 3=often, several times per week; and 4=very often, once or more per day</t>
+  </si>
+  <si>
+    <t>1;2;3;4</t>
+  </si>
+  <si>
+    <t>]</t>
   </si>
 </sst>
 </file>
@@ -5867,92 +5962,92 @@
   <threadedComment ref="D172" dT="2021-07-05T14:54:24.00" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{D6FAB68C-EC72-6743-8A2B-D62C93D6954D}">
     <text>Already included in the depression scales</text>
   </threadedComment>
-  <threadedComment ref="C181" dT="2021-07-19T08:52:44.23" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{CAC6BB5D-CA12-8443-B406-18164B929324}">
+  <threadedComment ref="C182" dT="2021-07-19T08:52:44.23" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{CAC6BB5D-CA12-8443-B406-18164B929324}">
     <text>Both the time and errors can be quite important to really understand the score</text>
   </threadedComment>
-  <threadedComment ref="C181" dT="2021-07-19T08:53:17.30" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{625527A4-B0DF-7544-AD6F-AD6B594818DD}" parentId="{CAC6BB5D-CA12-8443-B406-18164B929324}">
+  <threadedComment ref="C182" dT="2021-07-19T08:53:17.30" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{625527A4-B0DF-7544-AD6F-AD6B594818DD}" parentId="{CAC6BB5D-CA12-8443-B406-18164B929324}">
     <text>Change made after analysing the data from the EMIF Twins</text>
   </threadedComment>
-  <threadedComment ref="C181" dT="2021-07-19T08:55:37.86" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{4CBA2223-988A-D948-A991-542B1156B86B}" parentId="{CAC6BB5D-CA12-8443-B406-18164B929324}">
+  <threadedComment ref="C182" dT="2021-07-19T08:55:37.86" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{4CBA2223-988A-D948-A991-542B1156B86B}" parentId="{CAC6BB5D-CA12-8443-B406-18164B929324}">
     <text>SNOMED TMT - 4165596 (but not relative to A neither specific enough to separate time and errors)</text>
   </threadedComment>
-  <threadedComment ref="C182" dT="2021-07-19T08:52:44.23" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{1382763E-E589-9F4B-85FE-23A7CFEE18DD}">
+  <threadedComment ref="C183" dT="2021-07-19T08:52:44.23" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{1382763E-E589-9F4B-85FE-23A7CFEE18DD}">
     <text>Both the time and errors can be quite important to really understand the score</text>
   </threadedComment>
-  <threadedComment ref="C182" dT="2021-07-19T08:53:17.30" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{CF008FD1-096B-8C41-9085-8ABEF3BC55FD}" parentId="{1382763E-E589-9F4B-85FE-23A7CFEE18DD}">
+  <threadedComment ref="C183" dT="2021-07-19T08:53:17.30" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{CF008FD1-096B-8C41-9085-8ABEF3BC55FD}" parentId="{1382763E-E589-9F4B-85FE-23A7CFEE18DD}">
     <text>Change made after analysing the data from the EMIF Twins</text>
   </threadedComment>
-  <threadedComment ref="C182" dT="2021-07-19T08:55:37.86" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{42785439-4C44-2342-A084-143B11C7854B}" parentId="{1382763E-E589-9F4B-85FE-23A7CFEE18DD}">
+  <threadedComment ref="C183" dT="2021-07-19T08:55:37.86" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{42785439-4C44-2342-A084-143B11C7854B}" parentId="{1382763E-E589-9F4B-85FE-23A7CFEE18DD}">
     <text>SNOMED TMT - 4165596 (but not relative to A neither specific enough to separate time and errors)</text>
   </threadedComment>
-  <threadedComment ref="E184" dT="2021-07-05T15:34:33.85" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{B7328D09-6363-8249-B2CF-C73EFDCB0D08}">
+  <threadedComment ref="E185" dT="2021-07-05T15:34:33.85" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{B7328D09-6363-8249-B2CF-C73EFDCB0D08}">
     <text>Stroop test - 4136943</text>
   </threadedComment>
-  <threadedComment ref="D206" dT="2021-07-05T16:01:17.53" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{914F52AC-FC72-B54D-B9E0-C97695244E94}">
+  <threadedComment ref="D212" dT="2021-07-05T16:01:17.53" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{914F52AC-FC72-B54D-B9E0-C97695244E94}">
     <text>Nebraska Voc.: 3168054</text>
   </threadedComment>
-  <threadedComment ref="D211" dT="2021-07-19T16:39:47.06" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{6A389820-1552-134D-B136-21EA4EDF8457}">
+  <threadedComment ref="D217" dT="2021-07-19T16:39:47.06" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{6A389820-1552-134D-B136-21EA4EDF8457}">
     <text>The VAT contains six variants: Short Forms A, B, C, and D (6 items each), and two Long Forms (12 items each: combinations of Short Forms A amp; B and Forms C amp; D)</text>
   </threadedComment>
-  <threadedComment ref="D214" dT="2021-07-05T16:23:05.54" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{C933C363-9553-E942-ACD3-527A51429678}">
+  <threadedComment ref="D220" dT="2021-07-05T16:23:05.54" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{C933C363-9553-E942-ACD3-527A51429678}">
     <text>From SNOMED: 4145250</text>
   </threadedComment>
-  <threadedComment ref="D215" dT="2021-07-05T16:23:19.00" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{685BE208-102B-4745-B64F-E2C8E1A2AEC5}">
+  <threadedComment ref="D221" dT="2021-07-05T16:23:19.00" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{685BE208-102B-4745-B64F-E2C8E1A2AEC5}">
     <text>From SNOMED: 4169175</text>
   </threadedComment>
-  <threadedComment ref="D226" dT="2021-07-05T16:01:17.53" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{E6E8D11F-AB9E-5B48-AF0E-DDDA97FEC325}">
+  <threadedComment ref="D232" dT="2021-07-05T16:01:17.53" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{E6E8D11F-AB9E-5B48-AF0E-DDDA97FEC325}">
     <text>Nebraska Voc.: 3168054</text>
   </threadedComment>
-  <threadedComment ref="D234" dT="2021-07-19T16:00:31.63" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{643216D6-EB4C-7A45-84AD-FA20AF72AF5A}">
+  <threadedComment ref="D240" dT="2021-07-19T16:00:31.63" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{643216D6-EB4C-7A45-84AD-FA20AF72AF5A}">
     <text>Where to include the time taken until evaluation? E.g. for the EMIF twins there are two times available</text>
   </threadedComment>
-  <threadedComment ref="D234" dT="2021-07-19T16:04:08.94" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{D25A48A7-9F2B-2A49-AEC8-146EED0955E5}" parentId="{643216D6-EB4C-7A45-84AD-FA20AF72AF5A}">
+  <threadedComment ref="D240" dT="2021-07-19T16:04:08.94" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{D25A48A7-9F2B-2A49-AEC8-146EED0955E5}" parentId="{643216D6-EB4C-7A45-84AD-FA20AF72AF5A}">
     <text>Can be included as additional information</text>
   </threadedComment>
-  <threadedComment ref="D234" dT="2021-07-19T16:04:57.29" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{34F2BCE9-CC7C-4D44-9715-454A2E9CFE24}" parentId="{643216D6-EB4C-7A45-84AD-FA20AF72AF5A}">
+  <threadedComment ref="D240" dT="2021-07-19T16:04:57.29" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{34F2BCE9-CC7C-4D44-9715-454A2E9CFE24}" parentId="{643216D6-EB4C-7A45-84AD-FA20AF72AF5A}">
     <text>However, storing the information for 2 different times may be confusing. Probably the one that falls in the interval 20-30 minutes will be more suitable</text>
   </threadedComment>
-  <threadedComment ref="D235" dT="2021-07-19T16:00:31.63" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{7B408D37-7963-244B-BBC8-4A2BD19C9A8C}">
+  <threadedComment ref="D241" dT="2021-07-19T16:00:31.63" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{7B408D37-7963-244B-BBC8-4A2BD19C9A8C}">
     <text>Where to include the time taken until evaluation? E.g. for the EMIF twins there are two times available</text>
   </threadedComment>
-  <threadedComment ref="D235" dT="2021-07-19T16:04:08.94" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{6C7AA819-3788-8E42-860E-28922E8F4385}" parentId="{7B408D37-7963-244B-BBC8-4A2BD19C9A8C}">
+  <threadedComment ref="D241" dT="2021-07-19T16:04:08.94" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{6C7AA819-3788-8E42-860E-28922E8F4385}" parentId="{7B408D37-7963-244B-BBC8-4A2BD19C9A8C}">
     <text>Can be included as additional information</text>
   </threadedComment>
-  <threadedComment ref="D235" dT="2021-07-19T16:04:57.29" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{75CAA762-6AD4-934F-A0AD-B9AFDD6D31E9}" parentId="{7B408D37-7963-244B-BBC8-4A2BD19C9A8C}">
+  <threadedComment ref="D241" dT="2021-07-19T16:04:57.29" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{75CAA762-6AD4-934F-A0AD-B9AFDD6D31E9}" parentId="{7B408D37-7963-244B-BBC8-4A2BD19C9A8C}">
     <text>However, storing the information for 2 different times may be confusing. Probably the one that falls in the interval 20-30 minutes will be more suitable</text>
   </threadedComment>
-  <threadedComment ref="D275" dT="2021-07-08T14:57:23.15" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{6A958D43-89AC-C443-90B2-E839939ED9BB}">
+  <threadedComment ref="D285" dT="2021-07-08T14:57:23.15" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{6A958D43-89AC-C443-90B2-E839939ED9BB}">
     <text>Generic concept only from SNOMED for the Boston Naming Test: 4164808</text>
   </threadedComment>
-  <threadedComment ref="O300" dT="2021-10-27T15:56:51.26" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{C21DF866-3B02-8D43-BDB4-19473A2B92EE}">
+  <threadedComment ref="O310" dT="2021-10-27T15:56:51.26" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{C21DF866-3B02-8D43-BDB4-19473A2B92EE}">
     <text>Observation (SNOMED): 4136437</text>
   </threadedComment>
-  <threadedComment ref="O301" dT="2021-10-27T15:57:10.76" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{6D0CD4A8-48D1-4246-9DC1-32FEBE702D51}">
+  <threadedComment ref="O311" dT="2021-10-27T15:57:10.76" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{6D0CD4A8-48D1-4246-9DC1-32FEBE702D51}">
     <text>Observation (SNOMED) 45768724</text>
   </threadedComment>
-  <threadedComment ref="O302" dT="2021-10-27T15:59:18.03" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{B59C5FEF-8EFD-C648-A78A-AFBCA7EF7266}">
+  <threadedComment ref="O312" dT="2021-10-27T15:59:18.03" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{B59C5FEF-8EFD-C648-A78A-AFBCA7EF7266}">
     <text>Observation (SNOMED) 45768723</text>
   </threadedComment>
-  <threadedComment ref="O304" dT="2021-10-27T16:01:02.13" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{BCD976E6-B6D9-D546-9016-DBD9D0F54E91}">
+  <threadedComment ref="O314" dT="2021-10-27T16:01:02.13" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{BCD976E6-B6D9-D546-9016-DBD9D0F54E91}">
     <text>Observation (SNOMED) 4079321</text>
   </threadedComment>
-  <threadedComment ref="O305" dT="2021-07-02T12:24:20.39" personId="{98691CDF-5915-8B45-A1D3-22E1ADD8314B}" id="{DFA827BB-C401-AD42-9C05-074FE05BA8AF}">
+  <threadedComment ref="O315" dT="2021-07-02T12:24:20.39" personId="{98691CDF-5915-8B45-A1D3-22E1ADD8314B}" id="{DFA827BB-C401-AD42-9C05-074FE05BA8AF}">
     <text>Matches to “Neurofilament protein” - no clear match to NFL, maybe a new concept or the link to the ontology can be enough?</text>
   </threadedComment>
-  <threadedComment ref="O305" dT="2021-10-27T16:04:29.90" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{236EE8B4-0B5A-B546-910E-201CC41AB22E}" parentId="{DFA827BB-C401-AD42-9C05-074FE05BA8AF}">
+  <threadedComment ref="O315" dT="2021-10-27T16:04:29.90" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{236EE8B4-0B5A-B546-910E-201CC41AB22E}" parentId="{DFA827BB-C401-AD42-9C05-074FE05BA8AF}">
     <text>4299446</text>
   </threadedComment>
-  <threadedComment ref="O306" dT="2021-10-27T16:05:33.61" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{8B270D9A-52A2-8745-B447-8EF3342DED56}">
+  <threadedComment ref="O316" dT="2021-10-27T16:05:33.61" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{8B270D9A-52A2-8745-B447-8EF3342DED56}">
     <text>Observation (SNOMED) 4012274</text>
   </threadedComment>
-  <threadedComment ref="O307" dT="2021-10-27T16:07:09.40" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{48DC908A-650A-A142-B529-8C8185B7B723}">
+  <threadedComment ref="O317" dT="2021-10-27T16:07:09.40" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{48DC908A-650A-A142-B529-8C8185B7B723}">
     <text>Measurement meaning - Measurement of concentration of amyloid A in serum specimen (procedure)
 Serum amyloid A concentratio</text>
   </threadedComment>
-  <threadedComment ref="O307" dT="2021-10-27T16:07:50.16" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{475E4E61-9156-CF48-A078-B50A8EE3149D}" parentId="{48DC908A-650A-A142-B529-8C8185B7B723}">
+  <threadedComment ref="O317" dT="2021-10-27T16:07:50.16" personId="{D0C6A6B3-9E49-B948-BD43-8E6E77C05370}" id="{475E4E61-9156-CF48-A078-B50A8EE3149D}" parentId="{48DC908A-650A-A142-B529-8C8185B7B723}">
     <text>Observation (SNOMED) - 4221816 (referes to the component itself)</text>
   </threadedComment>
-  <threadedComment ref="D313" dT="2021-07-02T12:47:45.50" personId="{98691CDF-5915-8B45-A1D3-22E1ADD8314B}" id="{70609BE4-D9A6-3145-A3F3-5832E54D4EE2}">
+  <threadedComment ref="D323" dT="2021-07-02T12:47:45.50" personId="{98691CDF-5915-8B45-A1D3-22E1ADD8314B}" id="{70609BE4-D9A6-3145-A3F3-5832E54D4EE2}">
     <text>All these fields require more information. Probably they represent measurements but more complete information is required to clearly identify what’s being measured/how and the units.</text>
   </threadedComment>
 </ThreadedComments>
@@ -6060,11 +6155,11 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:Y1286"/>
+  <dimension ref="A1:Y1296"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="89" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="89" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M176" sqref="F176:M176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17"/>
@@ -8513,7 +8608,7 @@
     <row r="51" spans="1:24" s="54" customFormat="1" ht="15">
       <c r="A51" s="59"/>
       <c r="B51" s="49" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="27"/>
@@ -8543,10 +8638,10 @@
       <c r="B52" s="49"/>
       <c r="C52" s="15"/>
       <c r="D52" s="27" t="s">
+        <v>977</v>
+      </c>
+      <c r="E52" s="45" t="s">
         <v>978</v>
-      </c>
-      <c r="E52" s="45" t="s">
-        <v>979</v>
       </c>
       <c r="F52" s="27" t="s">
         <v>55</v>
@@ -8588,33 +8683,35 @@
         <v>168</v>
       </c>
     </row>
-    <row r="53" spans="1:24" s="54" customFormat="1" ht="32">
+    <row r="53" spans="1:24" s="54" customFormat="1" ht="112">
       <c r="A53" s="59"/>
       <c r="B53" s="49"/>
       <c r="C53" s="15"/>
       <c r="D53" s="27" t="s">
-        <v>981</v>
+        <v>993</v>
       </c>
       <c r="E53" s="45" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="F53" s="27" t="s">
         <v>55</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>791</v>
+        <v>991</v>
       </c>
       <c r="H53" s="104" t="s">
-        <v>666</v>
+        <v>1000</v>
       </c>
       <c r="I53" s="28" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J53" s="15"/>
       <c r="K53" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L53" s="16"/>
+      <c r="L53" s="16" t="s">
+        <v>1002</v>
+      </c>
       <c r="M53" s="27" t="s">
         <v>367</v>
       </c>
@@ -8626,12 +8723,10 @@
       <c r="Q53" s="27"/>
       <c r="R53" s="27"/>
       <c r="S53" s="27"/>
-      <c r="T53" s="15" t="s">
-        <v>667</v>
-      </c>
-      <c r="U53" s="15" t="s">
-        <v>673</v>
-      </c>
+      <c r="T53" s="104" t="s">
+        <v>1000</v>
+      </c>
+      <c r="U53" s="15"/>
       <c r="V53" s="27"/>
       <c r="W53" s="27"/>
       <c r="X53" s="27" t="s">
@@ -8643,22 +8738,22 @@
       <c r="B54" s="49"/>
       <c r="C54" s="15"/>
       <c r="D54" s="27" t="s">
-        <v>985</v>
+        <v>994</v>
       </c>
       <c r="E54" s="45" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="F54" s="27" t="s">
         <v>55</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>791</v>
+        <v>991</v>
       </c>
       <c r="H54" s="104" t="s">
-        <v>666</v>
+        <v>1000</v>
       </c>
       <c r="I54" s="28" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J54" s="15"/>
       <c r="K54" s="27" t="s">
@@ -8676,12 +8771,10 @@
       <c r="Q54" s="27"/>
       <c r="R54" s="27"/>
       <c r="S54" s="27"/>
-      <c r="T54" s="15" t="s">
-        <v>667</v>
-      </c>
-      <c r="U54" s="15" t="s">
-        <v>673</v>
-      </c>
+      <c r="T54" s="104" t="s">
+        <v>1000</v>
+      </c>
+      <c r="U54" s="15"/>
       <c r="V54" s="27"/>
       <c r="W54" s="27"/>
       <c r="X54" s="27" t="s">
@@ -8693,22 +8786,22 @@
       <c r="B55" s="49"/>
       <c r="C55" s="15"/>
       <c r="D55" s="27" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="E55" s="45" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="F55" s="27" t="s">
         <v>55</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>791</v>
+        <v>992</v>
       </c>
       <c r="H55" s="104" t="s">
-        <v>666</v>
+        <v>1001</v>
       </c>
       <c r="I55" s="28" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J55" s="15"/>
       <c r="K55" s="27" t="s">
@@ -8726,12 +8819,10 @@
       <c r="Q55" s="27"/>
       <c r="R55" s="27"/>
       <c r="S55" s="27"/>
-      <c r="T55" s="15" t="s">
-        <v>667</v>
-      </c>
-      <c r="U55" s="15" t="s">
-        <v>673</v>
-      </c>
+      <c r="T55" s="104" t="s">
+        <v>1001</v>
+      </c>
+      <c r="U55" s="15"/>
       <c r="V55" s="27"/>
       <c r="W55" s="27"/>
       <c r="X55" s="27" t="s">
@@ -8743,22 +8834,22 @@
       <c r="B56" s="49"/>
       <c r="C56" s="15"/>
       <c r="D56" s="27" t="s">
-        <v>990</v>
+        <v>996</v>
       </c>
       <c r="E56" s="45" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="F56" s="27" t="s">
         <v>55</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>791</v>
+        <v>992</v>
       </c>
       <c r="H56" s="104" t="s">
-        <v>666</v>
+        <v>1001</v>
       </c>
       <c r="I56" s="28" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J56" s="15"/>
       <c r="K56" s="27" t="s">
@@ -8776,12 +8867,10 @@
       <c r="Q56" s="27"/>
       <c r="R56" s="27"/>
       <c r="S56" s="27"/>
-      <c r="T56" s="15" t="s">
-        <v>667</v>
-      </c>
-      <c r="U56" s="15" t="s">
-        <v>673</v>
-      </c>
+      <c r="T56" s="104" t="s">
+        <v>1001</v>
+      </c>
+      <c r="U56" s="15"/>
       <c r="V56" s="27"/>
       <c r="W56" s="27"/>
       <c r="X56" s="27" t="s">
@@ -8793,22 +8882,22 @@
       <c r="B57" s="49"/>
       <c r="C57" s="15"/>
       <c r="D57" s="27" t="s">
-        <v>991</v>
+        <v>997</v>
       </c>
       <c r="E57" s="45" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="F57" s="27" t="s">
         <v>55</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>791</v>
+        <v>992</v>
       </c>
       <c r="H57" s="104" t="s">
-        <v>666</v>
+        <v>1001</v>
       </c>
       <c r="I57" s="28" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J57" s="15"/>
       <c r="K57" s="27" t="s">
@@ -8826,12 +8915,10 @@
       <c r="Q57" s="27"/>
       <c r="R57" s="27"/>
       <c r="S57" s="27"/>
-      <c r="T57" s="15" t="s">
-        <v>667</v>
-      </c>
-      <c r="U57" s="15" t="s">
-        <v>673</v>
-      </c>
+      <c r="T57" s="104" t="s">
+        <v>1001</v>
+      </c>
+      <c r="U57" s="15"/>
       <c r="V57" s="27"/>
       <c r="W57" s="27"/>
       <c r="X57" s="27" t="s">
@@ -8843,22 +8930,22 @@
       <c r="B58" s="49"/>
       <c r="C58" s="15"/>
       <c r="D58" s="27" t="s">
-        <v>992</v>
+        <v>998</v>
       </c>
       <c r="E58" s="45" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="F58" s="27" t="s">
         <v>55</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>791</v>
+        <v>992</v>
       </c>
       <c r="H58" s="104" t="s">
-        <v>666</v>
+        <v>1001</v>
       </c>
       <c r="I58" s="28" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J58" s="15"/>
       <c r="K58" s="27" t="s">
@@ -8876,12 +8963,10 @@
       <c r="Q58" s="27"/>
       <c r="R58" s="27"/>
       <c r="S58" s="27"/>
-      <c r="T58" s="15" t="s">
-        <v>667</v>
-      </c>
-      <c r="U58" s="15" t="s">
-        <v>673</v>
-      </c>
+      <c r="T58" s="104" t="s">
+        <v>1001</v>
+      </c>
+      <c r="U58" s="15"/>
       <c r="V58" s="27"/>
       <c r="W58" s="27"/>
       <c r="X58" s="27" t="s">
@@ -8893,22 +8978,22 @@
       <c r="B59" s="49"/>
       <c r="C59" s="15"/>
       <c r="D59" s="27" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="E59" s="45" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="F59" s="27" t="s">
         <v>55</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>791</v>
+        <v>992</v>
       </c>
       <c r="H59" s="104" t="s">
-        <v>666</v>
+        <v>1001</v>
       </c>
       <c r="I59" s="28" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J59" s="15"/>
       <c r="K59" s="27" t="s">
@@ -8926,12 +9011,10 @@
       <c r="Q59" s="27"/>
       <c r="R59" s="27"/>
       <c r="S59" s="27"/>
-      <c r="T59" s="15" t="s">
-        <v>667</v>
-      </c>
-      <c r="U59" s="15" t="s">
-        <v>673</v>
-      </c>
+      <c r="T59" s="104" t="s">
+        <v>1001</v>
+      </c>
+      <c r="U59" s="15"/>
       <c r="V59" s="27"/>
       <c r="W59" s="27"/>
       <c r="X59" s="27" t="s">
@@ -8943,10 +9026,10 @@
       <c r="B60" s="49"/>
       <c r="C60" s="15"/>
       <c r="D60" s="27" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="E60" s="45" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="F60" s="27" t="s">
         <v>55</v>
@@ -8993,10 +9076,10 @@
       <c r="B61" s="49"/>
       <c r="C61" s="15"/>
       <c r="D61" s="27" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="E61" s="45" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="F61" s="27" t="s">
         <v>55</v>
@@ -14671,7 +14754,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="174" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
+    <row r="174" spans="1:24" s="54" customFormat="1" ht="59" customHeight="1">
       <c r="A174" s="59"/>
       <c r="B174" s="51"/>
       <c r="C174" s="15"/>
@@ -14686,7 +14769,7 @@
       </c>
       <c r="G174" s="15"/>
       <c r="H174" s="69" t="s">
-        <v>761</v>
+        <v>1024</v>
       </c>
       <c r="I174" s="28" t="s">
         <v>715</v>
@@ -14695,7 +14778,9 @@
       <c r="K174" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L174" s="16"/>
+      <c r="L174" s="16" t="s">
+        <v>1023</v>
+      </c>
       <c r="M174" s="47" t="s">
         <v>374</v>
       </c>
@@ -14707,7 +14792,9 @@
       <c r="Q174" s="27"/>
       <c r="R174" s="27"/>
       <c r="S174" s="27"/>
-      <c r="T174" s="27"/>
+      <c r="T174" s="69" t="s">
+        <v>1024</v>
+      </c>
       <c r="U174" s="27"/>
       <c r="V174" s="27"/>
       <c r="W174" s="27"/>
@@ -14715,7 +14802,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="175" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
+    <row r="175" spans="1:24" s="54" customFormat="1" ht="74" customHeight="1">
       <c r="A175" s="59"/>
       <c r="B175" s="51"/>
       <c r="C175" s="15"/>
@@ -14730,7 +14817,7 @@
       </c>
       <c r="G175" s="15"/>
       <c r="H175" s="69" t="s">
-        <v>761</v>
+        <v>718</v>
       </c>
       <c r="I175" s="28" t="s">
         <v>715</v>
@@ -14739,7 +14826,9 @@
       <c r="K175" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L175" s="16"/>
+      <c r="L175" s="16" t="s">
+        <v>1022</v>
+      </c>
       <c r="M175" s="47" t="s">
         <v>374</v>
       </c>
@@ -14751,7 +14840,9 @@
       <c r="Q175" s="27"/>
       <c r="R175" s="27"/>
       <c r="S175" s="27"/>
-      <c r="T175" s="27"/>
+      <c r="T175" s="69" t="s">
+        <v>718</v>
+      </c>
       <c r="U175" s="27"/>
       <c r="V175" s="27"/>
       <c r="W175" s="27"/>
@@ -14759,78 +14850,85 @@
         <v>260</v>
       </c>
     </row>
-    <row r="176" spans="1:24" s="54" customFormat="1" ht="15">
-      <c r="A176" s="75" t="s">
+    <row r="176" spans="1:24" s="54" customFormat="1" ht="130" customHeight="1">
+      <c r="A176" s="59"/>
+      <c r="B176" s="51"/>
+      <c r="C176" s="15"/>
+      <c r="D176" s="83" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E176" s="84" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F176" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="G176" s="15"/>
+      <c r="H176" s="69" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I176" s="28" t="s">
+        <v>715</v>
+      </c>
+      <c r="J176" s="15"/>
+      <c r="K176" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="L176" s="16" t="s">
+        <v>1021</v>
+      </c>
+      <c r="M176" s="47" t="s">
+        <v>374</v>
+      </c>
+      <c r="N176" s="65"/>
+      <c r="O176" s="89">
+        <v>2000000166</v>
+      </c>
+      <c r="P176" s="28"/>
+      <c r="Q176" s="27"/>
+      <c r="R176" s="27"/>
+      <c r="S176" s="27"/>
+      <c r="T176" s="69" t="s">
+        <v>1000</v>
+      </c>
+      <c r="U176" s="27"/>
+      <c r="V176" s="27"/>
+      <c r="W176" s="27"/>
+      <c r="X176" s="27" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="177" spans="1:24" s="54" customFormat="1" ht="16">
+      <c r="A177" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="B176" s="48" t="s">
+      <c r="B177" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="C176" s="6"/>
-      <c r="D176" s="6"/>
-      <c r="E176" s="7"/>
-      <c r="F176" s="6"/>
-      <c r="G176" s="6"/>
-      <c r="H176" s="30"/>
-      <c r="I176" s="30"/>
-      <c r="J176" s="6"/>
-      <c r="K176" s="53"/>
-      <c r="L176" s="7"/>
-      <c r="M176" s="53"/>
-      <c r="N176" s="53"/>
-      <c r="O176" s="53"/>
-      <c r="P176" s="53"/>
-      <c r="Q176" s="53"/>
-      <c r="R176" s="53"/>
-      <c r="S176" s="53"/>
-      <c r="T176" s="53"/>
-      <c r="U176" s="53"/>
-      <c r="V176" s="53"/>
-      <c r="W176" s="53"/>
-      <c r="X176" s="53"/>
-    </row>
-    <row r="177" spans="1:24" s="54" customFormat="1" ht="16">
-      <c r="A177" s="59"/>
-      <c r="B177" s="72" t="s">
-        <v>155</v>
-      </c>
-      <c r="C177" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="D177" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="E177" s="68" t="s">
-        <v>353</v>
-      </c>
-      <c r="F177" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="G177" s="27"/>
-      <c r="H177" s="69"/>
-      <c r="I177" s="69" t="s">
-        <v>120</v>
-      </c>
-      <c r="J177" s="27"/>
-      <c r="K177" s="27" t="s">
-        <v>337</v>
-      </c>
-      <c r="L177" s="45"/>
-      <c r="M177" s="27"/>
-      <c r="N177" s="27"/>
-      <c r="O177" s="27"/>
-      <c r="P177" s="28" t="str">
-        <f>IF(N177&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O177), CONCATENATE("Athena-",O177)),"")</f>
-        <v/>
-      </c>
-      <c r="Q177" s="27"/>
-      <c r="R177" s="27"/>
-      <c r="S177" s="27"/>
-      <c r="T177" s="27"/>
-      <c r="U177" s="27"/>
-      <c r="V177" s="27"/>
-      <c r="W177" s="27"/>
-      <c r="X177" s="27"/>
+      <c r="C177" s="6"/>
+      <c r="D177" s="6"/>
+      <c r="E177" s="7" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F177" s="6"/>
+      <c r="G177" s="6"/>
+      <c r="H177" s="30"/>
+      <c r="I177" s="30"/>
+      <c r="J177" s="6"/>
+      <c r="K177" s="53"/>
+      <c r="L177" s="7"/>
+      <c r="M177" s="53"/>
+      <c r="N177" s="53"/>
+      <c r="O177" s="53"/>
+      <c r="P177" s="53"/>
+      <c r="Q177" s="53"/>
+      <c r="R177" s="53"/>
+      <c r="S177" s="53"/>
+      <c r="T177" s="53"/>
+      <c r="U177" s="53"/>
+      <c r="V177" s="53"/>
+      <c r="W177" s="53"/>
+      <c r="X177" s="53"/>
     </row>
     <row r="178" spans="1:24" s="54" customFormat="1" ht="16">
       <c r="A178" s="59"/>
@@ -14838,41 +14936,33 @@
         <v>155</v>
       </c>
       <c r="C178" s="27" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="D178" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="E178" s="45" t="s">
-        <v>18</v>
+        <v>270</v>
+      </c>
+      <c r="E178" s="68" t="s">
+        <v>353</v>
       </c>
       <c r="F178" s="27" t="s">
-        <v>197</v>
+        <v>120</v>
       </c>
       <c r="G178" s="27"/>
-      <c r="H178" s="69" t="s">
-        <v>195</v>
-      </c>
+      <c r="H178" s="69"/>
       <c r="I178" s="69" t="s">
-        <v>715</v>
+        <v>120</v>
       </c>
       <c r="J178" s="27"/>
       <c r="K178" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L178" s="70"/>
-      <c r="M178" s="47" t="s">
-        <v>374</v>
-      </c>
-      <c r="N178" s="27" t="s">
-        <v>368</v>
-      </c>
-      <c r="O178" s="27">
-        <v>4169175</v>
-      </c>
+      <c r="L178" s="45"/>
+      <c r="M178" s="27"/>
+      <c r="N178" s="27"/>
+      <c r="O178" s="27"/>
       <c r="P178" s="28" t="str">
         <f>IF(N178&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O178), CONCATENATE("Athena-",O178)),"")</f>
-        <v>Athena-4169175</v>
+        <v/>
       </c>
       <c r="Q178" s="27"/>
       <c r="R178" s="27"/>
@@ -14881,43 +14971,49 @@
       <c r="U178" s="27"/>
       <c r="V178" s="27"/>
       <c r="W178" s="27"/>
-      <c r="X178" s="27" t="s">
-        <v>270</v>
-      </c>
+      <c r="X178" s="27"/>
     </row>
     <row r="179" spans="1:24" s="54" customFormat="1" ht="16">
       <c r="A179" s="59"/>
-      <c r="B179" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="C179" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="D179" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="E179" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="F179" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G179" s="15"/>
-      <c r="H179" s="28"/>
-      <c r="I179" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="J179" s="15"/>
+      <c r="B179" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="C179" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D179" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E179" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F179" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="G179" s="27"/>
+      <c r="H179" s="69" t="s">
+        <v>195</v>
+      </c>
+      <c r="I179" s="69" t="s">
+        <v>715</v>
+      </c>
+      <c r="J179" s="27"/>
       <c r="K179" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L179" s="28"/>
-      <c r="M179" s="27"/>
-      <c r="N179" s="27"/>
-      <c r="O179" s="27"/>
+      <c r="L179" s="70"/>
+      <c r="M179" s="47" t="s">
+        <v>374</v>
+      </c>
+      <c r="N179" s="27" t="s">
+        <v>368</v>
+      </c>
+      <c r="O179" s="27">
+        <v>4169175</v>
+      </c>
       <c r="P179" s="28" t="str">
         <f>IF(N179&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O179), CONCATENATE("Athena-",O179)),"")</f>
-        <v/>
+        <v>Athena-4169175</v>
       </c>
       <c r="Q179" s="27"/>
       <c r="R179" s="27"/>
@@ -14926,39 +15022,37 @@
       <c r="U179" s="27"/>
       <c r="V179" s="27"/>
       <c r="W179" s="27"/>
-      <c r="X179" s="27"/>
-    </row>
-    <row r="180" spans="1:24" s="54" customFormat="1" ht="81" customHeight="1">
+      <c r="X179" s="27" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="180" spans="1:24" s="54" customFormat="1" ht="16">
       <c r="A180" s="59"/>
-      <c r="B180" s="67" t="s">
-        <v>148</v>
-      </c>
-      <c r="C180" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="D180" s="77" t="s">
-        <v>202</v>
-      </c>
-      <c r="E180" s="77" t="s">
-        <v>127</v>
-      </c>
-      <c r="F180" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="G180" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="H180" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="I180" s="38"/>
+      <c r="B180" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="C180" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D180" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E180" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="F180" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G180" s="15"/>
+      <c r="H180" s="28"/>
+      <c r="I180" s="28" t="s">
+        <v>120</v>
+      </c>
       <c r="J180" s="15"/>
       <c r="K180" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L180" s="100" t="s">
-        <v>644</v>
-      </c>
+      <c r="L180" s="28"/>
       <c r="M180" s="27"/>
       <c r="N180" s="27"/>
       <c r="O180" s="27"/>
@@ -14973,40 +15067,42 @@
       <c r="U180" s="27"/>
       <c r="V180" s="27"/>
       <c r="W180" s="27"/>
-      <c r="X180" s="15" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="181" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
+      <c r="X180" s="27"/>
+    </row>
+    <row r="181" spans="1:24" s="54" customFormat="1" ht="81" customHeight="1">
       <c r="A181" s="59"/>
-      <c r="B181" s="67"/>
+      <c r="B181" s="67" t="s">
+        <v>148</v>
+      </c>
       <c r="C181" s="45" t="s">
-        <v>557</v>
-      </c>
-      <c r="D181" s="84" t="s">
-        <v>455</v>
-      </c>
-      <c r="E181" s="84" t="s">
-        <v>632</v>
+        <v>190</v>
+      </c>
+      <c r="D181" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="E181" s="77" t="s">
+        <v>127</v>
       </c>
       <c r="F181" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="G181" s="16"/>
-      <c r="H181" s="69" t="s">
-        <v>761</v>
-      </c>
-      <c r="I181" s="28" t="s">
-        <v>715</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G181" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="H181" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="I181" s="38"/>
       <c r="J181" s="15"/>
       <c r="K181" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L181" s="27"/>
-      <c r="M181" s="47"/>
-      <c r="N181" s="65"/>
-      <c r="O181" s="92"/>
+      <c r="L181" s="100" t="s">
+        <v>644</v>
+      </c>
+      <c r="M181" s="27"/>
+      <c r="N181" s="27"/>
+      <c r="O181" s="27"/>
       <c r="P181" s="28" t="str">
         <f>IF(N181&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O181), CONCATENATE("Athena-",O181)),"")</f>
         <v/>
@@ -15025,12 +15121,14 @@
     <row r="182" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A182" s="59"/>
       <c r="B182" s="67"/>
-      <c r="C182" s="45"/>
+      <c r="C182" s="45" t="s">
+        <v>557</v>
+      </c>
       <c r="D182" s="84" t="s">
-        <v>624</v>
+        <v>455</v>
       </c>
       <c r="E182" s="84" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="F182" s="27" t="s">
         <v>197</v>
@@ -15047,14 +15145,13 @@
         <v>337</v>
       </c>
       <c r="L182" s="27"/>
-      <c r="M182" s="97" t="s">
-        <v>374</v>
-      </c>
+      <c r="M182" s="47"/>
       <c r="N182" s="65"/>
-      <c r="O182" s="92">
-        <v>2000000028</v>
-      </c>
-      <c r="P182" s="28"/>
+      <c r="O182" s="92"/>
+      <c r="P182" s="28" t="str">
+        <f>IF(N182&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O182), CONCATENATE("Athena-",O182)),"")</f>
+        <v/>
+      </c>
       <c r="Q182" s="27"/>
       <c r="R182" s="27"/>
       <c r="S182" s="27"/>
@@ -15071,10 +15168,10 @@
       <c r="B183" s="67"/>
       <c r="C183" s="45"/>
       <c r="D183" s="84" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E183" s="84" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F183" s="27" t="s">
         <v>197</v>
@@ -15096,7 +15193,7 @@
       </c>
       <c r="N183" s="65"/>
       <c r="O183" s="92">
-        <v>2000000029</v>
+        <v>2000000028</v>
       </c>
       <c r="P183" s="28"/>
       <c r="Q183" s="27"/>
@@ -15113,14 +15210,12 @@
     <row r="184" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A184" s="59"/>
       <c r="B184" s="67"/>
-      <c r="C184" s="45" t="s">
-        <v>553</v>
-      </c>
+      <c r="C184" s="45"/>
       <c r="D184" s="84" t="s">
-        <v>961</v>
+        <v>625</v>
       </c>
       <c r="E184" s="84" t="s">
-        <v>765</v>
+        <v>627</v>
       </c>
       <c r="F184" s="27" t="s">
         <v>197</v>
@@ -15140,23 +15235,14 @@
       <c r="M184" s="97" t="s">
         <v>374</v>
       </c>
-      <c r="N184" s="27"/>
+      <c r="N184" s="65"/>
       <c r="O184" s="92">
-        <v>2000000030</v>
-      </c>
-      <c r="P184" s="28" t="str">
-        <f t="shared" ref="P184:P211" si="9">IF(N184&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O184), CONCATENATE("Athena-",O184)),"")</f>
-        <v/>
-      </c>
-      <c r="Q184" s="27" t="s">
-        <v>751</v>
-      </c>
-      <c r="R184" s="27">
-        <v>8555</v>
-      </c>
-      <c r="S184" s="27" t="s">
-        <v>376</v>
-      </c>
+        <v>2000000029</v>
+      </c>
+      <c r="P184" s="28"/>
+      <c r="Q184" s="27"/>
+      <c r="R184" s="27"/>
+      <c r="S184" s="27"/>
       <c r="T184" s="27"/>
       <c r="U184" s="27"/>
       <c r="V184" s="27"/>
@@ -15168,12 +15254,14 @@
     <row r="185" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A185" s="59"/>
       <c r="B185" s="67"/>
-      <c r="C185" s="45"/>
+      <c r="C185" s="45" t="s">
+        <v>553</v>
+      </c>
       <c r="D185" s="84" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E185" s="84" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F185" s="27" t="s">
         <v>197</v>
@@ -15195,12 +15283,21 @@
       </c>
       <c r="N185" s="27"/>
       <c r="O185" s="92">
-        <v>2000000102</v>
-      </c>
-      <c r="P185" s="28"/>
-      <c r="Q185" s="27"/>
-      <c r="R185" s="27"/>
-      <c r="S185" s="27"/>
+        <v>2000000030</v>
+      </c>
+      <c r="P185" s="28" t="str">
+        <f t="shared" ref="P185:P217" si="9">IF(N185&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O185), CONCATENATE("Athena-",O185)),"")</f>
+        <v/>
+      </c>
+      <c r="Q185" s="27" t="s">
+        <v>751</v>
+      </c>
+      <c r="R185" s="27">
+        <v>8555</v>
+      </c>
+      <c r="S185" s="27" t="s">
+        <v>376</v>
+      </c>
       <c r="T185" s="27"/>
       <c r="U185" s="27"/>
       <c r="V185" s="27"/>
@@ -15212,14 +15309,12 @@
     <row r="186" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A186" s="59"/>
       <c r="B186" s="67"/>
-      <c r="C186" s="45" t="s">
-        <v>554</v>
-      </c>
+      <c r="C186" s="45"/>
       <c r="D186" s="84" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E186" s="84" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F186" s="27" t="s">
         <v>197</v>
@@ -15241,21 +15336,12 @@
       </c>
       <c r="N186" s="27"/>
       <c r="O186" s="92">
-        <v>2000000031</v>
-      </c>
-      <c r="P186" s="28" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="Q186" s="27" t="s">
-        <v>751</v>
-      </c>
-      <c r="R186" s="27">
-        <v>8555</v>
-      </c>
-      <c r="S186" s="27" t="s">
-        <v>376</v>
-      </c>
+        <v>2000000102</v>
+      </c>
+      <c r="P186" s="28"/>
+      <c r="Q186" s="27"/>
+      <c r="R186" s="27"/>
+      <c r="S186" s="27"/>
       <c r="T186" s="27"/>
       <c r="U186" s="27"/>
       <c r="V186" s="27"/>
@@ -15267,12 +15353,14 @@
     <row r="187" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A187" s="59"/>
       <c r="B187" s="67"/>
-      <c r="C187" s="45"/>
+      <c r="C187" s="45" t="s">
+        <v>554</v>
+      </c>
       <c r="D187" s="84" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="E187" s="84" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F187" s="27" t="s">
         <v>197</v>
@@ -15294,12 +15382,21 @@
       </c>
       <c r="N187" s="27"/>
       <c r="O187" s="92">
-        <v>2000000103</v>
-      </c>
-      <c r="P187" s="28"/>
-      <c r="Q187" s="27"/>
-      <c r="R187" s="27"/>
-      <c r="S187" s="27"/>
+        <v>2000000031</v>
+      </c>
+      <c r="P187" s="28" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Q187" s="27" t="s">
+        <v>751</v>
+      </c>
+      <c r="R187" s="27">
+        <v>8555</v>
+      </c>
+      <c r="S187" s="27" t="s">
+        <v>376</v>
+      </c>
       <c r="T187" s="27"/>
       <c r="U187" s="27"/>
       <c r="V187" s="27"/>
@@ -15313,10 +15410,10 @@
       <c r="B188" s="67"/>
       <c r="C188" s="45"/>
       <c r="D188" s="84" t="s">
-        <v>740</v>
-      </c>
-      <c r="E188" s="83" t="s">
-        <v>742</v>
+        <v>963</v>
+      </c>
+      <c r="E188" s="84" t="s">
+        <v>768</v>
       </c>
       <c r="F188" s="27" t="s">
         <v>197</v>
@@ -15338,12 +15435,9 @@
       </c>
       <c r="N188" s="27"/>
       <c r="O188" s="92">
-        <v>2000000088</v>
-      </c>
-      <c r="P188" s="28" t="str">
-        <f t="shared" ref="P188:P189" si="10">IF(N188&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O188), CONCATENATE("Athena-",O188)),"")</f>
-        <v/>
-      </c>
+        <v>2000000103</v>
+      </c>
+      <c r="P188" s="28"/>
       <c r="Q188" s="27"/>
       <c r="R188" s="27"/>
       <c r="S188" s="27"/>
@@ -15360,10 +15454,10 @@
       <c r="B189" s="67"/>
       <c r="C189" s="45"/>
       <c r="D189" s="84" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E189" s="83" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F189" s="27" t="s">
         <v>197</v>
@@ -15385,10 +15479,10 @@
       </c>
       <c r="N189" s="27"/>
       <c r="O189" s="92">
-        <v>2000000089</v>
+        <v>2000000088</v>
       </c>
       <c r="P189" s="28" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="P189:P190" si="10">IF(N189&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O189), CONCATENATE("Athena-",O189)),"")</f>
         <v/>
       </c>
       <c r="Q189" s="27"/>
@@ -15405,14 +15499,12 @@
     <row r="190" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A190" s="59"/>
       <c r="B190" s="67"/>
-      <c r="C190" s="45" t="s">
-        <v>555</v>
-      </c>
+      <c r="C190" s="45"/>
       <c r="D190" s="84" t="s">
-        <v>944</v>
+        <v>741</v>
       </c>
       <c r="E190" s="83" t="s">
-        <v>869</v>
+        <v>743</v>
       </c>
       <c r="F190" s="27" t="s">
         <v>197</v>
@@ -15434,10 +15526,10 @@
       </c>
       <c r="N190" s="27"/>
       <c r="O190" s="92">
-        <v>2000000032</v>
+        <v>2000000089</v>
       </c>
       <c r="P190" s="28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="Q190" s="27"/>
@@ -15454,12 +15546,14 @@
     <row r="191" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A191" s="59"/>
       <c r="B191" s="67"/>
-      <c r="C191" s="45"/>
+      <c r="C191" s="45" t="s">
+        <v>555</v>
+      </c>
       <c r="D191" s="84" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="E191" s="83" t="s">
-        <v>880</v>
+        <v>869</v>
       </c>
       <c r="F191" s="27" t="s">
         <v>197</v>
@@ -15481,10 +15575,10 @@
       </c>
       <c r="N191" s="27"/>
       <c r="O191" s="92">
-        <v>2000000120</v>
+        <v>2000000032</v>
       </c>
       <c r="P191" s="28" t="str">
-        <f t="shared" ref="P191:P192" si="11">IF(N191&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O191), CONCATENATE("Athena-",O191)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q191" s="27"/>
@@ -15501,14 +15595,12 @@
     <row r="192" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A192" s="59"/>
       <c r="B192" s="67"/>
-      <c r="C192" s="45" t="s">
-        <v>555</v>
-      </c>
+      <c r="C192" s="45"/>
       <c r="D192" s="84" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="E192" s="83" t="s">
-        <v>869</v>
+        <v>880</v>
       </c>
       <c r="F192" s="27" t="s">
         <v>197</v>
@@ -15530,10 +15622,10 @@
       </c>
       <c r="N192" s="27"/>
       <c r="O192" s="92">
-        <v>2000000137</v>
+        <v>2000000120</v>
       </c>
       <c r="P192" s="28" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="P192:P197" si="11">IF(N192&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O192), CONCATENATE("Athena-",O192)),"")</f>
         <v/>
       </c>
       <c r="Q192" s="27"/>
@@ -15552,10 +15644,10 @@
       <c r="B193" s="67"/>
       <c r="C193" s="45"/>
       <c r="D193" s="84" t="s">
-        <v>947</v>
+        <v>1003</v>
       </c>
       <c r="E193" s="83" t="s">
-        <v>880</v>
+        <v>1008</v>
       </c>
       <c r="F193" s="27" t="s">
         <v>197</v>
@@ -15571,16 +15663,18 @@
       <c r="K193" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L193" s="27"/>
+      <c r="L193" s="27" t="s">
+        <v>1009</v>
+      </c>
       <c r="M193" s="97" t="s">
         <v>374</v>
       </c>
       <c r="N193" s="27"/>
       <c r="O193" s="92">
-        <v>2000000138</v>
+        <v>2000000157</v>
       </c>
       <c r="P193" s="28" t="str">
-        <f t="shared" ref="P193:P195" si="12">IF(N193&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O193), CONCATENATE("Athena-",O193)),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q193" s="27"/>
@@ -15599,10 +15693,10 @@
       <c r="B194" s="67"/>
       <c r="C194" s="45"/>
       <c r="D194" s="84" t="s">
-        <v>950</v>
-      </c>
-      <c r="E194" s="103" t="s">
-        <v>870</v>
+        <v>1004</v>
+      </c>
+      <c r="E194" s="83" t="s">
+        <v>869</v>
       </c>
       <c r="F194" s="27" t="s">
         <v>197</v>
@@ -15624,12 +15718,9 @@
       </c>
       <c r="N194" s="27"/>
       <c r="O194" s="92">
-        <v>2000000139</v>
-      </c>
-      <c r="P194" s="28" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
+        <v>2000000158</v>
+      </c>
+      <c r="P194" s="28"/>
       <c r="Q194" s="27"/>
       <c r="R194" s="27"/>
       <c r="S194" s="27"/>
@@ -15646,10 +15737,10 @@
       <c r="B195" s="67"/>
       <c r="C195" s="45"/>
       <c r="D195" s="84" t="s">
-        <v>951</v>
-      </c>
-      <c r="E195" s="103" t="s">
-        <v>879</v>
+        <v>1005</v>
+      </c>
+      <c r="E195" s="83" t="s">
+        <v>880</v>
       </c>
       <c r="F195" s="27" t="s">
         <v>197</v>
@@ -15671,12 +15762,9 @@
       </c>
       <c r="N195" s="27"/>
       <c r="O195" s="92">
-        <v>2000000140</v>
-      </c>
-      <c r="P195" s="28" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
+        <v>2000000159</v>
+      </c>
+      <c r="P195" s="28"/>
       <c r="Q195" s="27"/>
       <c r="R195" s="27"/>
       <c r="S195" s="27"/>
@@ -15693,10 +15781,10 @@
       <c r="B196" s="67"/>
       <c r="C196" s="45"/>
       <c r="D196" s="84" t="s">
-        <v>948</v>
-      </c>
-      <c r="E196" s="103" t="s">
-        <v>870</v>
+        <v>1006</v>
+      </c>
+      <c r="E196" s="83" t="s">
+        <v>1008</v>
       </c>
       <c r="F196" s="27" t="s">
         <v>197</v>
@@ -15718,12 +15806,9 @@
       </c>
       <c r="N196" s="27"/>
       <c r="O196" s="92">
-        <v>2000000090</v>
-      </c>
-      <c r="P196" s="28" t="str">
-        <f t="shared" ref="P196" si="13">IF(N196&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O196), CONCATENATE("Athena-",O196)),"")</f>
-        <v/>
-      </c>
+        <v>2000000160</v>
+      </c>
+      <c r="P196" s="28"/>
       <c r="Q196" s="27"/>
       <c r="R196" s="27"/>
       <c r="S196" s="27"/>
@@ -15738,12 +15823,14 @@
     <row r="197" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A197" s="59"/>
       <c r="B197" s="67"/>
-      <c r="C197" s="45"/>
+      <c r="C197" s="45" t="s">
+        <v>555</v>
+      </c>
       <c r="D197" s="84" t="s">
-        <v>949</v>
-      </c>
-      <c r="E197" s="103" t="s">
-        <v>879</v>
+        <v>945</v>
+      </c>
+      <c r="E197" s="83" t="s">
+        <v>869</v>
       </c>
       <c r="F197" s="27" t="s">
         <v>197</v>
@@ -15765,10 +15852,10 @@
       </c>
       <c r="N197" s="27"/>
       <c r="O197" s="92">
-        <v>2000000121</v>
+        <v>2000000137</v>
       </c>
       <c r="P197" s="28" t="str">
-        <f t="shared" ref="P197:P198" si="14">IF(N197&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O197), CONCATENATE("Athena-",O197)),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q197" s="27"/>
@@ -15787,10 +15874,10 @@
       <c r="B198" s="67"/>
       <c r="C198" s="45"/>
       <c r="D198" s="84" t="s">
-        <v>952</v>
-      </c>
-      <c r="E198" s="103" t="s">
-        <v>870</v>
+        <v>946</v>
+      </c>
+      <c r="E198" s="83" t="s">
+        <v>880</v>
       </c>
       <c r="F198" s="27" t="s">
         <v>197</v>
@@ -15812,10 +15899,10 @@
       </c>
       <c r="N198" s="27"/>
       <c r="O198" s="92">
-        <v>2000000141</v>
+        <v>2000000138</v>
       </c>
       <c r="P198" s="28" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="P198:P201" si="12">IF(N198&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O198), CONCATENATE("Athena-",O198)),"")</f>
         <v/>
       </c>
       <c r="Q198" s="27"/>
@@ -15834,10 +15921,10 @@
       <c r="B199" s="67"/>
       <c r="C199" s="45"/>
       <c r="D199" s="84" t="s">
-        <v>953</v>
-      </c>
-      <c r="E199" s="103" t="s">
-        <v>879</v>
+        <v>1007</v>
+      </c>
+      <c r="E199" s="83" t="s">
+        <v>1008</v>
       </c>
       <c r="F199" s="27" t="s">
         <v>197</v>
@@ -15859,12 +15946,9 @@
       </c>
       <c r="N199" s="27"/>
       <c r="O199" s="92">
-        <v>2000000142</v>
-      </c>
-      <c r="P199" s="28" t="str">
-        <f t="shared" ref="P199" si="15">IF(N199&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O199), CONCATENATE("Athena-",O199)),"")</f>
-        <v/>
-      </c>
+        <v>2000000161</v>
+      </c>
+      <c r="P199" s="28"/>
       <c r="Q199" s="27"/>
       <c r="R199" s="27"/>
       <c r="S199" s="27"/>
@@ -15876,15 +15960,15 @@
         <v>773</v>
       </c>
     </row>
-    <row r="200" spans="1:24" s="54" customFormat="1" ht="34" customHeight="1">
+    <row r="200" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A200" s="59"/>
       <c r="B200" s="67"/>
       <c r="C200" s="45"/>
       <c r="D200" s="84" t="s">
-        <v>905</v>
+        <v>949</v>
       </c>
       <c r="E200" s="103" t="s">
-        <v>906</v>
+        <v>870</v>
       </c>
       <c r="F200" s="27" t="s">
         <v>197</v>
@@ -15900,17 +15984,18 @@
       <c r="K200" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L200" s="45" t="s">
-        <v>975</v>
-      </c>
+      <c r="L200" s="27"/>
       <c r="M200" s="97" t="s">
         <v>374</v>
       </c>
       <c r="N200" s="27"/>
       <c r="O200" s="92">
-        <v>2000000122</v>
-      </c>
-      <c r="P200" s="28"/>
+        <v>2000000139</v>
+      </c>
+      <c r="P200" s="28" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
       <c r="Q200" s="27"/>
       <c r="R200" s="27"/>
       <c r="S200" s="27"/>
@@ -15926,11 +16011,11 @@
       <c r="A201" s="59"/>
       <c r="B201" s="67"/>
       <c r="C201" s="45"/>
-      <c r="D201" s="77" t="s">
-        <v>448</v>
-      </c>
-      <c r="E201" s="77" t="s">
-        <v>453</v>
+      <c r="D201" s="84" t="s">
+        <v>950</v>
+      </c>
+      <c r="E201" s="103" t="s">
+        <v>879</v>
       </c>
       <c r="F201" s="27" t="s">
         <v>197</v>
@@ -15939,17 +16024,23 @@
       <c r="H201" s="69" t="s">
         <v>761</v>
       </c>
-      <c r="I201" s="28"/>
+      <c r="I201" s="28" t="s">
+        <v>715</v>
+      </c>
       <c r="J201" s="15"/>
       <c r="K201" s="27" t="s">
         <v>337</v>
       </c>
       <c r="L201" s="27"/>
-      <c r="M201" s="97"/>
+      <c r="M201" s="97" t="s">
+        <v>374</v>
+      </c>
       <c r="N201" s="27"/>
-      <c r="O201" s="92"/>
+      <c r="O201" s="92">
+        <v>2000000140</v>
+      </c>
       <c r="P201" s="28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Q201" s="27"/>
@@ -15959,40 +16050,44 @@
       <c r="U201" s="27"/>
       <c r="V201" s="27"/>
       <c r="W201" s="27"/>
-      <c r="X201" s="15"/>
-    </row>
-    <row r="202" spans="1:24" s="54" customFormat="1" ht="34" customHeight="1">
+      <c r="X201" s="15" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="202" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A202" s="59"/>
-      <c r="B202" s="67" t="s">
-        <v>148</v>
-      </c>
-      <c r="C202" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="D202" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="E202" s="45" t="s">
-        <v>130</v>
+      <c r="B202" s="67"/>
+      <c r="C202" s="45"/>
+      <c r="D202" s="84" t="s">
+        <v>947</v>
+      </c>
+      <c r="E202" s="103" t="s">
+        <v>870</v>
       </c>
       <c r="F202" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G202" s="15"/>
+      <c r="G202" s="16"/>
       <c r="H202" s="69" t="s">
         <v>761</v>
       </c>
-      <c r="I202" s="28"/>
+      <c r="I202" s="28" t="s">
+        <v>715</v>
+      </c>
       <c r="J202" s="15"/>
       <c r="K202" s="27" t="s">
         <v>337</v>
       </c>
       <c r="L202" s="27"/>
-      <c r="M202" s="27"/>
+      <c r="M202" s="97" t="s">
+        <v>374</v>
+      </c>
       <c r="N202" s="27"/>
-      <c r="O202" s="27"/>
+      <c r="O202" s="92">
+        <v>2000000090</v>
+      </c>
       <c r="P202" s="28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="P202" si="13">IF(N202&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O202), CONCATENATE("Athena-",O202)),"")</f>
         <v/>
       </c>
       <c r="Q202" s="27"/>
@@ -16006,38 +16101,40 @@
         <v>773</v>
       </c>
     </row>
-    <row r="203" spans="1:24" s="54" customFormat="1" ht="16">
+    <row r="203" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A203" s="59"/>
-      <c r="B203" s="67" t="s">
-        <v>148</v>
-      </c>
-      <c r="C203" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="D203" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="E203" s="45" t="s">
-        <v>133</v>
+      <c r="B203" s="67"/>
+      <c r="C203" s="45"/>
+      <c r="D203" s="84" t="s">
+        <v>948</v>
+      </c>
+      <c r="E203" s="103" t="s">
+        <v>879</v>
       </c>
       <c r="F203" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G203" s="15"/>
+      <c r="G203" s="16"/>
       <c r="H203" s="69" t="s">
         <v>761</v>
       </c>
-      <c r="I203" s="28"/>
+      <c r="I203" s="28" t="s">
+        <v>715</v>
+      </c>
       <c r="J203" s="15"/>
       <c r="K203" s="27" t="s">
         <v>337</v>
       </c>
       <c r="L203" s="27"/>
-      <c r="M203" s="27"/>
+      <c r="M203" s="97" t="s">
+        <v>374</v>
+      </c>
       <c r="N203" s="27"/>
-      <c r="O203" s="27"/>
+      <c r="O203" s="92">
+        <v>2000000121</v>
+      </c>
       <c r="P203" s="28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="P203:P204" si="14">IF(N203&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O203), CONCATENATE("Athena-",O203)),"")</f>
         <v/>
       </c>
       <c r="Q203" s="27"/>
@@ -16051,42 +16148,40 @@
         <v>773</v>
       </c>
     </row>
-    <row r="204" spans="1:24" s="54" customFormat="1" ht="218" customHeight="1">
+    <row r="204" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A204" s="59"/>
-      <c r="B204" s="67" t="s">
-        <v>149</v>
-      </c>
-      <c r="C204" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="D204" s="76" t="s">
-        <v>208</v>
-      </c>
-      <c r="E204" s="77" t="s">
-        <v>250</v>
+      <c r="B204" s="67"/>
+      <c r="C204" s="45"/>
+      <c r="D204" s="84" t="s">
+        <v>951</v>
+      </c>
+      <c r="E204" s="103" t="s">
+        <v>870</v>
       </c>
       <c r="F204" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="G204" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="H204" s="39" t="s">
-        <v>322</v>
-      </c>
-      <c r="I204" s="39"/>
+        <v>197</v>
+      </c>
+      <c r="G204" s="16"/>
+      <c r="H204" s="69" t="s">
+        <v>761</v>
+      </c>
+      <c r="I204" s="28" t="s">
+        <v>715</v>
+      </c>
       <c r="J204" s="15"/>
       <c r="K204" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L204" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="M204" s="27"/>
+      <c r="L204" s="27"/>
+      <c r="M204" s="97" t="s">
+        <v>374</v>
+      </c>
       <c r="N204" s="27"/>
-      <c r="O204" s="27"/>
+      <c r="O204" s="92">
+        <v>2000000141</v>
+      </c>
       <c r="P204" s="28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="Q204" s="27"/>
@@ -16097,20 +16192,18 @@
       <c r="V204" s="27"/>
       <c r="W204" s="27"/>
       <c r="X204" s="15" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="205" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A205" s="59"/>
       <c r="B205" s="67"/>
-      <c r="C205" s="45" t="s">
-        <v>561</v>
-      </c>
+      <c r="C205" s="45"/>
       <c r="D205" s="84" t="s">
-        <v>460</v>
-      </c>
-      <c r="E205" s="84" t="s">
-        <v>488</v>
+        <v>952</v>
+      </c>
+      <c r="E205" s="103" t="s">
+        <v>879</v>
       </c>
       <c r="F205" s="27" t="s">
         <v>197</v>
@@ -16127,15 +16220,15 @@
         <v>337</v>
       </c>
       <c r="L205" s="27"/>
-      <c r="M205" s="47" t="s">
+      <c r="M205" s="97" t="s">
         <v>374</v>
       </c>
       <c r="N205" s="27"/>
       <c r="O205" s="92">
-        <v>2000000033</v>
+        <v>2000000142</v>
       </c>
       <c r="P205" s="28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="P205" si="15">IF(N205&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O205), CONCATENATE("Athena-",O205)),"")</f>
         <v/>
       </c>
       <c r="Q205" s="27"/>
@@ -16146,20 +16239,18 @@
       <c r="V205" s="27"/>
       <c r="W205" s="27"/>
       <c r="X205" s="15" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="206" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="206" spans="1:24" s="54" customFormat="1" ht="34" customHeight="1">
       <c r="A206" s="59"/>
       <c r="B206" s="67"/>
-      <c r="C206" s="45" t="s">
-        <v>563</v>
-      </c>
+      <c r="C206" s="45"/>
       <c r="D206" s="84" t="s">
-        <v>461</v>
-      </c>
-      <c r="E206" s="84" t="s">
-        <v>489</v>
+        <v>905</v>
+      </c>
+      <c r="E206" s="103" t="s">
+        <v>906</v>
       </c>
       <c r="F206" s="27" t="s">
         <v>197</v>
@@ -16175,18 +16266,17 @@
       <c r="K206" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L206" s="27"/>
-      <c r="M206" s="47" t="s">
+      <c r="L206" s="45" t="s">
+        <v>974</v>
+      </c>
+      <c r="M206" s="97" t="s">
         <v>374</v>
       </c>
       <c r="N206" s="27"/>
-      <c r="O206" s="89">
-        <v>2000000034</v>
-      </c>
-      <c r="P206" s="28" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
+      <c r="O206" s="92">
+        <v>2000000122</v>
+      </c>
+      <c r="P206" s="28"/>
       <c r="Q206" s="27"/>
       <c r="R206" s="27"/>
       <c r="S206" s="27"/>
@@ -16195,18 +16285,18 @@
       <c r="V206" s="27"/>
       <c r="W206" s="27"/>
       <c r="X206" s="15" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="207" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A207" s="59"/>
       <c r="B207" s="67"/>
       <c r="C207" s="45"/>
-      <c r="D207" s="84" t="s">
-        <v>462</v>
-      </c>
-      <c r="E207" s="84" t="s">
-        <v>490</v>
+      <c r="D207" s="77" t="s">
+        <v>448</v>
+      </c>
+      <c r="E207" s="77" t="s">
+        <v>453</v>
       </c>
       <c r="F207" s="27" t="s">
         <v>197</v>
@@ -16215,21 +16305,15 @@
       <c r="H207" s="69" t="s">
         <v>761</v>
       </c>
-      <c r="I207" s="28" t="s">
-        <v>715</v>
-      </c>
+      <c r="I207" s="28"/>
       <c r="J207" s="15"/>
       <c r="K207" s="27" t="s">
         <v>337</v>
       </c>
       <c r="L207" s="27"/>
-      <c r="M207" s="47" t="s">
-        <v>374</v>
-      </c>
+      <c r="M207" s="97"/>
       <c r="N207" s="27"/>
-      <c r="O207" s="92">
-        <v>2000000035</v>
-      </c>
+      <c r="O207" s="92"/>
       <c r="P207" s="28" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -16241,44 +16325,38 @@
       <c r="U207" s="27"/>
       <c r="V207" s="27"/>
       <c r="W207" s="27"/>
-      <c r="X207" s="15" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="208" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
+      <c r="X207" s="15"/>
+    </row>
+    <row r="208" spans="1:24" s="54" customFormat="1" ht="34" customHeight="1">
       <c r="A208" s="59"/>
-      <c r="B208" s="67"/>
+      <c r="B208" s="67" t="s">
+        <v>148</v>
+      </c>
       <c r="C208" s="45" t="s">
-        <v>565</v>
-      </c>
-      <c r="D208" s="84" t="s">
-        <v>463</v>
-      </c>
-      <c r="E208" s="84" t="s">
-        <v>491</v>
+        <v>189</v>
+      </c>
+      <c r="D208" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="E208" s="45" t="s">
+        <v>130</v>
       </c>
       <c r="F208" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G208" s="16"/>
+      <c r="G208" s="15"/>
       <c r="H208" s="69" t="s">
         <v>761</v>
       </c>
-      <c r="I208" s="28" t="s">
-        <v>715</v>
-      </c>
+      <c r="I208" s="28"/>
       <c r="J208" s="15"/>
       <c r="K208" s="27" t="s">
         <v>337</v>
       </c>
       <c r="L208" s="27"/>
-      <c r="M208" s="47" t="s">
-        <v>374</v>
-      </c>
+      <c r="M208" s="27"/>
       <c r="N208" s="27"/>
-      <c r="O208" s="89">
-        <v>2000000036</v>
-      </c>
+      <c r="O208" s="27"/>
       <c r="P208" s="28" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -16291,43 +16369,39 @@
       <c r="V208" s="27"/>
       <c r="W208" s="27"/>
       <c r="X208" s="15" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="209" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="209" spans="1:24" s="54" customFormat="1" ht="16">
       <c r="A209" s="59"/>
-      <c r="B209" s="67"/>
+      <c r="B209" s="67" t="s">
+        <v>148</v>
+      </c>
       <c r="C209" s="45" t="s">
-        <v>567</v>
-      </c>
-      <c r="D209" s="84" t="s">
-        <v>464</v>
-      </c>
-      <c r="E209" s="84" t="s">
-        <v>492</v>
+        <v>191</v>
+      </c>
+      <c r="D209" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="E209" s="45" t="s">
+        <v>133</v>
       </c>
       <c r="F209" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G209" s="16"/>
+      <c r="G209" s="15"/>
       <c r="H209" s="69" t="s">
         <v>761</v>
       </c>
-      <c r="I209" s="28" t="s">
-        <v>715</v>
-      </c>
+      <c r="I209" s="28"/>
       <c r="J209" s="15"/>
       <c r="K209" s="27" t="s">
         <v>337</v>
       </c>
       <c r="L209" s="27"/>
-      <c r="M209" s="47" t="s">
-        <v>374</v>
-      </c>
+      <c r="M209" s="27"/>
       <c r="N209" s="27"/>
-      <c r="O209" s="92">
-        <v>2000000037</v>
-      </c>
+      <c r="O209" s="27"/>
       <c r="P209" s="28" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -16340,43 +16414,43 @@
       <c r="V209" s="27"/>
       <c r="W209" s="27"/>
       <c r="X209" s="15" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="210" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="210" spans="1:24" s="54" customFormat="1" ht="218" customHeight="1">
       <c r="A210" s="59"/>
-      <c r="B210" s="67"/>
-      <c r="C210" s="45" t="s">
-        <v>569</v>
-      </c>
-      <c r="D210" s="84" t="s">
-        <v>465</v>
-      </c>
-      <c r="E210" s="84" t="s">
-        <v>493</v>
+      <c r="B210" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="C210" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D210" s="76" t="s">
+        <v>208</v>
+      </c>
+      <c r="E210" s="77" t="s">
+        <v>250</v>
       </c>
       <c r="F210" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="G210" s="16"/>
-      <c r="H210" s="69" t="s">
-        <v>761</v>
-      </c>
-      <c r="I210" s="28" t="s">
-        <v>715</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G210" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="H210" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="I210" s="39"/>
       <c r="J210" s="15"/>
       <c r="K210" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L210" s="27"/>
-      <c r="M210" s="47" t="s">
-        <v>374</v>
-      </c>
+      <c r="L210" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="M210" s="27"/>
       <c r="N210" s="27"/>
-      <c r="O210" s="89">
-        <v>2000000038</v>
-      </c>
+      <c r="O210" s="27"/>
       <c r="P210" s="28" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -16395,12 +16469,14 @@
     <row r="211" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A211" s="59"/>
       <c r="B211" s="67"/>
-      <c r="C211" s="45"/>
+      <c r="C211" s="45" t="s">
+        <v>561</v>
+      </c>
       <c r="D211" s="84" t="s">
-        <v>633</v>
+        <v>460</v>
       </c>
       <c r="E211" s="84" t="s">
-        <v>634</v>
+        <v>488</v>
       </c>
       <c r="F211" s="27" t="s">
         <v>197</v>
@@ -16422,7 +16498,7 @@
       </c>
       <c r="N211" s="27"/>
       <c r="O211" s="92">
-        <v>2000000039</v>
+        <v>2000000033</v>
       </c>
       <c r="P211" s="28" t="str">
         <f t="shared" si="9"/>
@@ -16442,12 +16518,14 @@
     <row r="212" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A212" s="59"/>
       <c r="B212" s="67"/>
-      <c r="C212" s="45"/>
+      <c r="C212" s="45" t="s">
+        <v>563</v>
+      </c>
       <c r="D212" s="84" t="s">
-        <v>635</v>
+        <v>461</v>
       </c>
       <c r="E212" s="84" t="s">
-        <v>636</v>
+        <v>489</v>
       </c>
       <c r="F212" s="27" t="s">
         <v>197</v>
@@ -16469,9 +16547,12 @@
       </c>
       <c r="N212" s="27"/>
       <c r="O212" s="89">
-        <v>2000000040</v>
-      </c>
-      <c r="P212" s="28"/>
+        <v>2000000034</v>
+      </c>
+      <c r="P212" s="28" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="Q212" s="27"/>
       <c r="R212" s="27"/>
       <c r="S212" s="27"/>
@@ -16488,10 +16569,10 @@
       <c r="B213" s="67"/>
       <c r="C213" s="45"/>
       <c r="D213" s="84" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="E213" s="84" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F213" s="27" t="s">
         <v>197</v>
@@ -16513,10 +16594,10 @@
       </c>
       <c r="N213" s="27"/>
       <c r="O213" s="92">
-        <v>2000000041</v>
+        <v>2000000035</v>
       </c>
       <c r="P213" s="28" t="str">
-        <f t="shared" ref="P213:P230" si="16">IF(N213&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O213), CONCATENATE("Athena-",O213)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q213" s="27"/>
@@ -16533,12 +16614,14 @@
     <row r="214" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A214" s="59"/>
       <c r="B214" s="67"/>
-      <c r="C214" s="45"/>
+      <c r="C214" s="45" t="s">
+        <v>565</v>
+      </c>
       <c r="D214" s="84" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="E214" s="84" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="F214" s="27" t="s">
         <v>197</v>
@@ -16560,10 +16643,10 @@
       </c>
       <c r="N214" s="27"/>
       <c r="O214" s="89">
-        <v>2000000042</v>
+        <v>2000000036</v>
       </c>
       <c r="P214" s="28" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q214" s="27"/>
@@ -16580,12 +16663,14 @@
     <row r="215" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A215" s="59"/>
       <c r="B215" s="67"/>
-      <c r="C215" s="45"/>
+      <c r="C215" s="45" t="s">
+        <v>567</v>
+      </c>
       <c r="D215" s="84" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E215" s="84" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F215" s="27" t="s">
         <v>197</v>
@@ -16607,10 +16692,10 @@
       </c>
       <c r="N215" s="27"/>
       <c r="O215" s="92">
-        <v>2000000043</v>
+        <v>2000000037</v>
       </c>
       <c r="P215" s="28" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q215" s="27"/>
@@ -16627,12 +16712,14 @@
     <row r="216" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A216" s="59"/>
       <c r="B216" s="67"/>
-      <c r="C216" s="45"/>
+      <c r="C216" s="45" t="s">
+        <v>569</v>
+      </c>
       <c r="D216" s="84" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="E216" s="84" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="F216" s="27" t="s">
         <v>197</v>
@@ -16654,10 +16741,10 @@
       </c>
       <c r="N216" s="27"/>
       <c r="O216" s="89">
-        <v>2000000044</v>
+        <v>2000000038</v>
       </c>
       <c r="P216" s="28" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q216" s="27"/>
@@ -16676,10 +16763,10 @@
       <c r="B217" s="67"/>
       <c r="C217" s="45"/>
       <c r="D217" s="84" t="s">
-        <v>892</v>
+        <v>633</v>
       </c>
       <c r="E217" s="84" t="s">
-        <v>894</v>
+        <v>634</v>
       </c>
       <c r="F217" s="27" t="s">
         <v>197</v>
@@ -16701,10 +16788,10 @@
       </c>
       <c r="N217" s="27"/>
       <c r="O217" s="92">
-        <v>2000000045</v>
+        <v>2000000039</v>
       </c>
       <c r="P217" s="28" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q217" s="27"/>
@@ -16723,10 +16810,10 @@
       <c r="B218" s="67"/>
       <c r="C218" s="45"/>
       <c r="D218" s="84" t="s">
-        <v>893</v>
+        <v>635</v>
       </c>
       <c r="E218" s="84" t="s">
-        <v>895</v>
+        <v>636</v>
       </c>
       <c r="F218" s="27" t="s">
         <v>197</v>
@@ -16747,13 +16834,10 @@
         <v>374</v>
       </c>
       <c r="N218" s="27"/>
-      <c r="O218" s="92">
-        <v>2000000046</v>
-      </c>
-      <c r="P218" s="28" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
+      <c r="O218" s="89">
+        <v>2000000040</v>
+      </c>
+      <c r="P218" s="28"/>
       <c r="Q218" s="27"/>
       <c r="R218" s="27"/>
       <c r="S218" s="27"/>
@@ -16769,11 +16853,11 @@
       <c r="A219" s="59"/>
       <c r="B219" s="67"/>
       <c r="C219" s="45"/>
-      <c r="D219" s="83" t="s">
-        <v>729</v>
-      </c>
-      <c r="E219" s="83" t="s">
-        <v>730</v>
+      <c r="D219" s="84" t="s">
+        <v>467</v>
+      </c>
+      <c r="E219" s="84" t="s">
+        <v>495</v>
       </c>
       <c r="F219" s="27" t="s">
         <v>197</v>
@@ -16795,10 +16879,10 @@
       </c>
       <c r="N219" s="27"/>
       <c r="O219" s="92">
-        <v>2000000080</v>
+        <v>2000000041</v>
       </c>
       <c r="P219" s="28" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="P219:P236" si="16">IF(N219&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O219), CONCATENATE("Athena-",O219)),"")</f>
         <v/>
       </c>
       <c r="Q219" s="27"/>
@@ -16816,11 +16900,11 @@
       <c r="A220" s="59"/>
       <c r="B220" s="67"/>
       <c r="C220" s="45"/>
-      <c r="D220" s="103" t="s">
-        <v>886</v>
-      </c>
-      <c r="E220" s="83" t="s">
-        <v>731</v>
+      <c r="D220" s="84" t="s">
+        <v>468</v>
+      </c>
+      <c r="E220" s="84" t="s">
+        <v>496</v>
       </c>
       <c r="F220" s="27" t="s">
         <v>197</v>
@@ -16841,11 +16925,11 @@
         <v>374</v>
       </c>
       <c r="N220" s="27"/>
-      <c r="O220" s="92">
-        <v>2000000081</v>
+      <c r="O220" s="89">
+        <v>2000000042</v>
       </c>
       <c r="P220" s="28" t="str">
-        <f t="shared" ref="P220" si="17">IF(N220&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O220), CONCATENATE("Athena-",O220)),"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q220" s="27"/>
@@ -16863,11 +16947,11 @@
       <c r="A221" s="59"/>
       <c r="B221" s="67"/>
       <c r="C221" s="45"/>
-      <c r="D221" s="103" t="s">
-        <v>907</v>
-      </c>
-      <c r="E221" s="83" t="s">
-        <v>908</v>
+      <c r="D221" s="84" t="s">
+        <v>469</v>
+      </c>
+      <c r="E221" s="84" t="s">
+        <v>497</v>
       </c>
       <c r="F221" s="27" t="s">
         <v>197</v>
@@ -16889,9 +16973,12 @@
       </c>
       <c r="N221" s="27"/>
       <c r="O221" s="92">
-        <v>2000000124</v>
-      </c>
-      <c r="P221" s="28"/>
+        <v>2000000043</v>
+      </c>
+      <c r="P221" s="28" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
       <c r="Q221" s="27"/>
       <c r="R221" s="27"/>
       <c r="S221" s="27"/>
@@ -16907,11 +16994,11 @@
       <c r="A222" s="59"/>
       <c r="B222" s="67"/>
       <c r="C222" s="45"/>
-      <c r="D222" s="77" t="s">
-        <v>473</v>
-      </c>
-      <c r="E222" s="77" t="s">
-        <v>501</v>
+      <c r="D222" s="84" t="s">
+        <v>470</v>
+      </c>
+      <c r="E222" s="84" t="s">
+        <v>498</v>
       </c>
       <c r="F222" s="27" t="s">
         <v>197</v>
@@ -16920,15 +17007,21 @@
       <c r="H222" s="69" t="s">
         <v>761</v>
       </c>
-      <c r="I222" s="28"/>
+      <c r="I222" s="28" t="s">
+        <v>715</v>
+      </c>
       <c r="J222" s="15"/>
       <c r="K222" s="27" t="s">
         <v>337</v>
       </c>
       <c r="L222" s="27"/>
-      <c r="M222" s="47"/>
+      <c r="M222" s="47" t="s">
+        <v>374</v>
+      </c>
       <c r="N222" s="27"/>
-      <c r="O222" s="89"/>
+      <c r="O222" s="89">
+        <v>2000000044</v>
+      </c>
       <c r="P222" s="28" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -16944,35 +17037,38 @@
         <v>774</v>
       </c>
     </row>
-    <row r="223" spans="1:24" s="54" customFormat="1" ht="28" customHeight="1">
+    <row r="223" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A223" s="59"/>
-      <c r="B223" s="67" t="s">
-        <v>149</v>
-      </c>
-      <c r="C223" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D223" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="E223" s="45" t="s">
-        <v>130</v>
+      <c r="B223" s="67"/>
+      <c r="C223" s="45"/>
+      <c r="D223" s="84" t="s">
+        <v>892</v>
+      </c>
+      <c r="E223" s="84" t="s">
+        <v>894</v>
       </c>
       <c r="F223" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G223" s="15"/>
+      <c r="G223" s="16"/>
       <c r="H223" s="69" t="s">
         <v>761</v>
       </c>
-      <c r="I223" s="28"/>
+      <c r="I223" s="28" t="s">
+        <v>715</v>
+      </c>
       <c r="J223" s="15"/>
       <c r="K223" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="M223" s="27"/>
+      <c r="L223" s="27"/>
+      <c r="M223" s="47" t="s">
+        <v>374</v>
+      </c>
       <c r="N223" s="27"/>
-      <c r="O223" s="27"/>
+      <c r="O223" s="92">
+        <v>2000000045</v>
+      </c>
       <c r="P223" s="28" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -16988,36 +17084,38 @@
         <v>774</v>
       </c>
     </row>
-    <row r="224" spans="1:24" s="54" customFormat="1" ht="16">
+    <row r="224" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A224" s="59"/>
-      <c r="B224" s="67" t="s">
-        <v>149</v>
-      </c>
-      <c r="C224" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="D224" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="E224" s="45" t="s">
-        <v>133</v>
+      <c r="B224" s="67"/>
+      <c r="C224" s="45"/>
+      <c r="D224" s="84" t="s">
+        <v>893</v>
+      </c>
+      <c r="E224" s="84" t="s">
+        <v>895</v>
       </c>
       <c r="F224" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G224" s="15"/>
-      <c r="H224" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="I224" s="36"/>
+      <c r="G224" s="16"/>
+      <c r="H224" s="69" t="s">
+        <v>761</v>
+      </c>
+      <c r="I224" s="28" t="s">
+        <v>715</v>
+      </c>
       <c r="J224" s="15"/>
       <c r="K224" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L224" s="16"/>
-      <c r="M224" s="27"/>
+      <c r="L224" s="27"/>
+      <c r="M224" s="47" t="s">
+        <v>374</v>
+      </c>
       <c r="N224" s="27"/>
-      <c r="O224" s="27"/>
+      <c r="O224" s="92">
+        <v>2000000046</v>
+      </c>
       <c r="P224" s="28" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -17036,14 +17134,12 @@
     <row r="225" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A225" s="59"/>
       <c r="B225" s="67"/>
-      <c r="C225" s="45" t="s">
-        <v>562</v>
-      </c>
-      <c r="D225" s="84" t="s">
-        <v>474</v>
-      </c>
-      <c r="E225" s="84" t="s">
-        <v>502</v>
+      <c r="C225" s="45"/>
+      <c r="D225" s="83" t="s">
+        <v>729</v>
+      </c>
+      <c r="E225" s="83" t="s">
+        <v>730</v>
       </c>
       <c r="F225" s="27" t="s">
         <v>197</v>
@@ -17065,7 +17161,7 @@
       </c>
       <c r="N225" s="27"/>
       <c r="O225" s="92">
-        <v>2000000047</v>
+        <v>2000000080</v>
       </c>
       <c r="P225" s="28" t="str">
         <f t="shared" si="16"/>
@@ -17085,14 +17181,12 @@
     <row r="226" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A226" s="59"/>
       <c r="B226" s="67"/>
-      <c r="C226" s="45" t="s">
-        <v>564</v>
-      </c>
-      <c r="D226" s="84" t="s">
-        <v>475</v>
-      </c>
-      <c r="E226" s="84" t="s">
-        <v>503</v>
+      <c r="C226" s="45"/>
+      <c r="D226" s="103" t="s">
+        <v>886</v>
+      </c>
+      <c r="E226" s="83" t="s">
+        <v>731</v>
       </c>
       <c r="F226" s="27" t="s">
         <v>197</v>
@@ -17113,11 +17207,11 @@
         <v>374</v>
       </c>
       <c r="N226" s="27"/>
-      <c r="O226" s="89">
-        <v>2000000048</v>
+      <c r="O226" s="92">
+        <v>2000000081</v>
       </c>
       <c r="P226" s="28" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="P226" si="17">IF(N226&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O226), CONCATENATE("Athena-",O226)),"")</f>
         <v/>
       </c>
       <c r="Q226" s="27"/>
@@ -17135,17 +17229,17 @@
       <c r="A227" s="59"/>
       <c r="B227" s="67"/>
       <c r="C227" s="45"/>
-      <c r="D227" s="84" t="s">
-        <v>476</v>
-      </c>
-      <c r="E227" s="84" t="s">
-        <v>504</v>
+      <c r="D227" s="103" t="s">
+        <v>907</v>
+      </c>
+      <c r="E227" s="83" t="s">
+        <v>908</v>
       </c>
       <c r="F227" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G227" s="16"/>
-      <c r="H227" s="28" t="s">
+      <c r="H227" s="69" t="s">
         <v>761</v>
       </c>
       <c r="I227" s="28" t="s">
@@ -17161,12 +17255,9 @@
       </c>
       <c r="N227" s="27"/>
       <c r="O227" s="92">
-        <v>2000000049</v>
-      </c>
-      <c r="P227" s="28" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
+        <v>2000000124</v>
+      </c>
+      <c r="P227" s="28"/>
       <c r="Q227" s="27"/>
       <c r="R227" s="27"/>
       <c r="S227" s="27"/>
@@ -17181,37 +17272,29 @@
     <row r="228" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A228" s="59"/>
       <c r="B228" s="67"/>
-      <c r="C228" s="45" t="s">
-        <v>566</v>
-      </c>
-      <c r="D228" s="84" t="s">
-        <v>477</v>
-      </c>
-      <c r="E228" s="84" t="s">
-        <v>505</v>
+      <c r="C228" s="45"/>
+      <c r="D228" s="77" t="s">
+        <v>473</v>
+      </c>
+      <c r="E228" s="77" t="s">
+        <v>501</v>
       </c>
       <c r="F228" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G228" s="16"/>
-      <c r="H228" s="104" t="s">
+      <c r="H228" s="69" t="s">
         <v>761</v>
       </c>
-      <c r="I228" s="28" t="s">
-        <v>715</v>
-      </c>
+      <c r="I228" s="28"/>
       <c r="J228" s="15"/>
       <c r="K228" s="27" t="s">
         <v>337</v>
       </c>
       <c r="L228" s="27"/>
-      <c r="M228" s="47" t="s">
-        <v>374</v>
-      </c>
+      <c r="M228" s="47"/>
       <c r="N228" s="27"/>
-      <c r="O228" s="89">
-        <v>2000000050</v>
-      </c>
+      <c r="O228" s="89"/>
       <c r="P228" s="28" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -17227,40 +17310,35 @@
         <v>774</v>
       </c>
     </row>
-    <row r="229" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
+    <row r="229" spans="1:24" s="54" customFormat="1" ht="28" customHeight="1">
       <c r="A229" s="59"/>
-      <c r="B229" s="67"/>
-      <c r="C229" s="45" t="s">
-        <v>568</v>
-      </c>
-      <c r="D229" s="84" t="s">
-        <v>478</v>
-      </c>
-      <c r="E229" s="84" t="s">
-        <v>506</v>
+      <c r="B229" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="C229" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D229" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E229" s="45" t="s">
+        <v>130</v>
       </c>
       <c r="F229" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G229" s="16"/>
-      <c r="H229" s="104" t="s">
+      <c r="G229" s="15"/>
+      <c r="H229" s="69" t="s">
         <v>761</v>
       </c>
-      <c r="I229" s="28" t="s">
-        <v>715</v>
-      </c>
+      <c r="I229" s="28"/>
       <c r="J229" s="15"/>
       <c r="K229" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L229" s="27"/>
-      <c r="M229" s="47" t="s">
-        <v>374</v>
-      </c>
+      <c r="M229" s="27"/>
       <c r="N229" s="27"/>
-      <c r="O229" s="92">
-        <v>2000000051</v>
-      </c>
+      <c r="O229" s="27"/>
       <c r="P229" s="28" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -17276,40 +17354,36 @@
         <v>774</v>
       </c>
     </row>
-    <row r="230" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
+    <row r="230" spans="1:24" s="54" customFormat="1" ht="16">
       <c r="A230" s="59"/>
-      <c r="B230" s="67"/>
-      <c r="C230" s="45" t="s">
-        <v>570</v>
-      </c>
-      <c r="D230" s="84" t="s">
-        <v>479</v>
-      </c>
-      <c r="E230" s="84" t="s">
-        <v>507</v>
+      <c r="B230" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="C230" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D230" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="E230" s="45" t="s">
+        <v>133</v>
       </c>
       <c r="F230" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G230" s="16"/>
-      <c r="H230" s="104" t="s">
-        <v>761</v>
-      </c>
-      <c r="I230" s="28" t="s">
-        <v>715</v>
-      </c>
+      <c r="G230" s="15"/>
+      <c r="H230" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="I230" s="36"/>
       <c r="J230" s="15"/>
       <c r="K230" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L230" s="27"/>
-      <c r="M230" s="47" t="s">
-        <v>374</v>
-      </c>
+      <c r="L230" s="16"/>
+      <c r="M230" s="27"/>
       <c r="N230" s="27"/>
-      <c r="O230" s="89">
-        <v>2000000052</v>
-      </c>
+      <c r="O230" s="27"/>
       <c r="P230" s="28" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -17328,18 +17402,20 @@
     <row r="231" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A231" s="59"/>
       <c r="B231" s="67"/>
-      <c r="C231" s="45"/>
+      <c r="C231" s="45" t="s">
+        <v>562</v>
+      </c>
       <c r="D231" s="84" t="s">
-        <v>637</v>
+        <v>474</v>
       </c>
       <c r="E231" s="84" t="s">
-        <v>638</v>
+        <v>502</v>
       </c>
       <c r="F231" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G231" s="16"/>
-      <c r="H231" s="104" t="s">
+      <c r="H231" s="69" t="s">
         <v>761</v>
       </c>
       <c r="I231" s="28" t="s">
@@ -17355,10 +17431,10 @@
       </c>
       <c r="N231" s="27"/>
       <c r="O231" s="92">
-        <v>2000000053</v>
+        <v>2000000047</v>
       </c>
       <c r="P231" s="28" t="str">
-        <f>IF(N232&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O232), CONCATENATE("Athena-",O232)),"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q231" s="27"/>
@@ -17375,18 +17451,20 @@
     <row r="232" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A232" s="59"/>
       <c r="B232" s="67"/>
-      <c r="C232" s="45"/>
+      <c r="C232" s="45" t="s">
+        <v>564</v>
+      </c>
       <c r="D232" s="84" t="s">
-        <v>639</v>
+        <v>475</v>
       </c>
       <c r="E232" s="84" t="s">
-        <v>640</v>
+        <v>503</v>
       </c>
       <c r="F232" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G232" s="16"/>
-      <c r="H232" s="104" t="s">
+      <c r="H232" s="69" t="s">
         <v>761</v>
       </c>
       <c r="I232" s="28" t="s">
@@ -17402,9 +17480,12 @@
       </c>
       <c r="N232" s="27"/>
       <c r="O232" s="89">
-        <v>2000000054</v>
-      </c>
-      <c r="P232" s="28"/>
+        <v>2000000048</v>
+      </c>
+      <c r="P232" s="28" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
       <c r="Q232" s="27"/>
       <c r="R232" s="27"/>
       <c r="S232" s="27"/>
@@ -17421,16 +17502,16 @@
       <c r="B233" s="67"/>
       <c r="C233" s="45"/>
       <c r="D233" s="84" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E233" s="84" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F233" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G233" s="16"/>
-      <c r="H233" s="104" t="s">
+      <c r="H233" s="28" t="s">
         <v>761</v>
       </c>
       <c r="I233" s="28" t="s">
@@ -17446,10 +17527,10 @@
       </c>
       <c r="N233" s="27"/>
       <c r="O233" s="92">
-        <v>2000000055</v>
+        <v>2000000049</v>
       </c>
       <c r="P233" s="28" t="str">
-        <f t="shared" ref="P233:P251" si="18">IF(N233&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O233), CONCATENATE("Athena-",O233)),"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q233" s="27"/>
@@ -17466,12 +17547,14 @@
     <row r="234" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A234" s="59"/>
       <c r="B234" s="67"/>
-      <c r="C234" s="45"/>
+      <c r="C234" s="45" t="s">
+        <v>566</v>
+      </c>
       <c r="D234" s="84" t="s">
-        <v>710</v>
+        <v>477</v>
       </c>
       <c r="E234" s="84" t="s">
-        <v>713</v>
+        <v>505</v>
       </c>
       <c r="F234" s="27" t="s">
         <v>197</v>
@@ -17493,10 +17576,10 @@
       </c>
       <c r="N234" s="27"/>
       <c r="O234" s="89">
-        <v>2000000056</v>
+        <v>2000000050</v>
       </c>
       <c r="P234" s="28" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q234" s="27"/>
@@ -17513,12 +17596,14 @@
     <row r="235" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A235" s="59"/>
       <c r="B235" s="67"/>
-      <c r="C235" s="45"/>
+      <c r="C235" s="45" t="s">
+        <v>568</v>
+      </c>
       <c r="D235" s="84" t="s">
-        <v>711</v>
+        <v>478</v>
       </c>
       <c r="E235" s="84" t="s">
-        <v>712</v>
+        <v>506</v>
       </c>
       <c r="F235" s="27" t="s">
         <v>197</v>
@@ -17540,10 +17625,10 @@
       </c>
       <c r="N235" s="27"/>
       <c r="O235" s="92">
-        <v>2000000057</v>
+        <v>2000000051</v>
       </c>
       <c r="P235" s="28" t="str">
-        <f>IF(N235&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",#REF!), CONCATENATE("Athena-",#REF!)),"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q235" s="27"/>
@@ -17560,12 +17645,14 @@
     <row r="236" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A236" s="59"/>
       <c r="B236" s="67"/>
-      <c r="C236" s="45"/>
+      <c r="C236" s="45" t="s">
+        <v>570</v>
+      </c>
       <c r="D236" s="84" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E236" s="84" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F236" s="27" t="s">
         <v>197</v>
@@ -17587,10 +17674,10 @@
       </c>
       <c r="N236" s="27"/>
       <c r="O236" s="89">
-        <v>2000000058</v>
+        <v>2000000052</v>
       </c>
       <c r="P236" s="28" t="str">
-        <f>IF(N236&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O235), CONCATENATE("Athena-",O235)),"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q236" s="27"/>
@@ -17609,10 +17696,10 @@
       <c r="B237" s="67"/>
       <c r="C237" s="45"/>
       <c r="D237" s="84" t="s">
-        <v>484</v>
+        <v>637</v>
       </c>
       <c r="E237" s="84" t="s">
-        <v>512</v>
+        <v>638</v>
       </c>
       <c r="F237" s="27" t="s">
         <v>197</v>
@@ -17634,10 +17721,10 @@
       </c>
       <c r="N237" s="27"/>
       <c r="O237" s="92">
-        <v>2000000059</v>
+        <v>2000000053</v>
       </c>
       <c r="P237" s="28" t="str">
-        <f>IF(N237&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O236), CONCATENATE("Athena-",O236)),"")</f>
+        <f>IF(N238&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O238), CONCATENATE("Athena-",O238)),"")</f>
         <v/>
       </c>
       <c r="Q237" s="27"/>
@@ -17656,10 +17743,10 @@
       <c r="B238" s="67"/>
       <c r="C238" s="45"/>
       <c r="D238" s="84" t="s">
-        <v>888</v>
-      </c>
-      <c r="E238" s="83" t="s">
-        <v>891</v>
+        <v>639</v>
+      </c>
+      <c r="E238" s="84" t="s">
+        <v>640</v>
       </c>
       <c r="F238" s="27" t="s">
         <v>197</v>
@@ -17681,12 +17768,9 @@
       </c>
       <c r="N238" s="27"/>
       <c r="O238" s="89">
-        <v>2000000060</v>
-      </c>
-      <c r="P238" s="28" t="str">
-        <f>IF(N238&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O237), CONCATENATE("Athena-",O237)),"")</f>
-        <v/>
-      </c>
+        <v>2000000054</v>
+      </c>
+      <c r="P238" s="28"/>
       <c r="Q238" s="27"/>
       <c r="R238" s="27"/>
       <c r="S238" s="27"/>
@@ -17703,10 +17787,10 @@
       <c r="B239" s="67"/>
       <c r="C239" s="45"/>
       <c r="D239" s="84" t="s">
-        <v>889</v>
-      </c>
-      <c r="E239" s="83" t="s">
-        <v>890</v>
+        <v>481</v>
+      </c>
+      <c r="E239" s="84" t="s">
+        <v>509</v>
       </c>
       <c r="F239" s="27" t="s">
         <v>197</v>
@@ -17727,11 +17811,11 @@
         <v>374</v>
       </c>
       <c r="N239" s="27"/>
-      <c r="O239" s="89">
-        <v>2000000061</v>
+      <c r="O239" s="92">
+        <v>2000000055</v>
       </c>
       <c r="P239" s="28" t="str">
-        <f>IF(N239&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O238), CONCATENATE("Athena-",O238)),"")</f>
+        <f t="shared" ref="P239:P257" si="18">IF(N239&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O239), CONCATENATE("Athena-",O239)),"")</f>
         <v/>
       </c>
       <c r="Q239" s="27"/>
@@ -17749,11 +17833,11 @@
       <c r="A240" s="59"/>
       <c r="B240" s="67"/>
       <c r="C240" s="45"/>
-      <c r="D240" s="83" t="s">
-        <v>732</v>
-      </c>
-      <c r="E240" s="83" t="s">
-        <v>733</v>
+      <c r="D240" s="84" t="s">
+        <v>710</v>
+      </c>
+      <c r="E240" s="84" t="s">
+        <v>713</v>
       </c>
       <c r="F240" s="27" t="s">
         <v>197</v>
@@ -17774,11 +17858,11 @@
         <v>374</v>
       </c>
       <c r="N240" s="27"/>
-      <c r="O240" s="92">
-        <v>2000000082</v>
+      <c r="O240" s="89">
+        <v>2000000056</v>
       </c>
       <c r="P240" s="28" t="str">
-        <f t="shared" ref="P240:P241" si="19">IF(N240&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O240), CONCATENATE("Athena-",O240)),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Q240" s="27"/>
@@ -17796,11 +17880,11 @@
       <c r="A241" s="59"/>
       <c r="B241" s="67"/>
       <c r="C241" s="45"/>
-      <c r="D241" s="103" t="s">
-        <v>887</v>
-      </c>
-      <c r="E241" s="83" t="s">
-        <v>734</v>
+      <c r="D241" s="84" t="s">
+        <v>711</v>
+      </c>
+      <c r="E241" s="84" t="s">
+        <v>712</v>
       </c>
       <c r="F241" s="27" t="s">
         <v>197</v>
@@ -17822,10 +17906,10 @@
       </c>
       <c r="N241" s="27"/>
       <c r="O241" s="92">
-        <v>2000000083</v>
+        <v>2000000057</v>
       </c>
       <c r="P241" s="28" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(N241&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",#REF!), CONCATENATE("Athena-",#REF!)),"")</f>
         <v/>
       </c>
       <c r="Q241" s="27"/>
@@ -17843,17 +17927,17 @@
       <c r="A242" s="59"/>
       <c r="B242" s="67"/>
       <c r="C242" s="45"/>
-      <c r="D242" s="103" t="s">
-        <v>909</v>
-      </c>
-      <c r="E242" s="83" t="s">
-        <v>908</v>
+      <c r="D242" s="84" t="s">
+        <v>483</v>
+      </c>
+      <c r="E242" s="84" t="s">
+        <v>511</v>
       </c>
       <c r="F242" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G242" s="16"/>
-      <c r="H242" s="69" t="s">
+      <c r="H242" s="104" t="s">
         <v>761</v>
       </c>
       <c r="I242" s="28" t="s">
@@ -17868,10 +17952,13 @@
         <v>374</v>
       </c>
       <c r="N242" s="27"/>
-      <c r="O242" s="92">
-        <v>2000000125</v>
-      </c>
-      <c r="P242" s="28"/>
+      <c r="O242" s="89">
+        <v>2000000058</v>
+      </c>
+      <c r="P242" s="28" t="str">
+        <f>IF(N242&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O241), CONCATENATE("Athena-",O241)),"")</f>
+        <v/>
+      </c>
       <c r="Q242" s="27"/>
       <c r="R242" s="27"/>
       <c r="S242" s="27"/>
@@ -17887,11 +17974,11 @@
       <c r="A243" s="59"/>
       <c r="B243" s="67"/>
       <c r="C243" s="45"/>
-      <c r="D243" s="77" t="s">
-        <v>487</v>
-      </c>
-      <c r="E243" s="77" t="s">
-        <v>515</v>
+      <c r="D243" s="84" t="s">
+        <v>484</v>
+      </c>
+      <c r="E243" s="84" t="s">
+        <v>512</v>
       </c>
       <c r="F243" s="27" t="s">
         <v>197</v>
@@ -17900,17 +17987,23 @@
       <c r="H243" s="104" t="s">
         <v>761</v>
       </c>
-      <c r="I243" s="28"/>
+      <c r="I243" s="28" t="s">
+        <v>715</v>
+      </c>
       <c r="J243" s="15"/>
       <c r="K243" s="27" t="s">
         <v>337</v>
       </c>
       <c r="L243" s="27"/>
-      <c r="M243" s="47"/>
+      <c r="M243" s="47" t="s">
+        <v>374</v>
+      </c>
       <c r="N243" s="27"/>
-      <c r="O243" s="89"/>
+      <c r="O243" s="92">
+        <v>2000000059</v>
+      </c>
       <c r="P243" s="28" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(N243&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O242), CONCATENATE("Athena-",O242)),"")</f>
         <v/>
       </c>
       <c r="Q243" s="27"/>
@@ -17924,38 +18017,40 @@
         <v>774</v>
       </c>
     </row>
-    <row r="244" spans="1:24" s="54" customFormat="1" ht="16">
+    <row r="244" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A244" s="59"/>
-      <c r="B244" s="67" t="s">
-        <v>149</v>
-      </c>
-      <c r="C244" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="D244" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="E244" s="45" t="s">
-        <v>131</v>
+      <c r="B244" s="67"/>
+      <c r="C244" s="45"/>
+      <c r="D244" s="84" t="s">
+        <v>888</v>
+      </c>
+      <c r="E244" s="83" t="s">
+        <v>891</v>
       </c>
       <c r="F244" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G244" s="15"/>
+      <c r="G244" s="16"/>
       <c r="H244" s="104" t="s">
         <v>761</v>
       </c>
-      <c r="I244" s="28"/>
+      <c r="I244" s="28" t="s">
+        <v>715</v>
+      </c>
       <c r="J244" s="15"/>
       <c r="K244" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L244" s="16"/>
-      <c r="M244" s="27"/>
+      <c r="L244" s="27"/>
+      <c r="M244" s="47" t="s">
+        <v>374</v>
+      </c>
       <c r="N244" s="27"/>
-      <c r="O244" s="27"/>
+      <c r="O244" s="89">
+        <v>2000000060</v>
+      </c>
       <c r="P244" s="28" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(N244&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O243), CONCATENATE("Athena-",O243)),"")</f>
         <v/>
       </c>
       <c r="Q244" s="27"/>
@@ -17969,38 +18064,40 @@
         <v>774</v>
       </c>
     </row>
-    <row r="245" spans="1:24" s="54" customFormat="1" ht="16">
+    <row r="245" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A245" s="59"/>
-      <c r="B245" s="67" t="s">
-        <v>149</v>
-      </c>
-      <c r="C245" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="D245" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="E245" s="45" t="s">
-        <v>133</v>
+      <c r="B245" s="67"/>
+      <c r="C245" s="45"/>
+      <c r="D245" s="84" t="s">
+        <v>889</v>
+      </c>
+      <c r="E245" s="83" t="s">
+        <v>890</v>
       </c>
       <c r="F245" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G245" s="15"/>
-      <c r="H245" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="I245" s="36"/>
+      <c r="G245" s="16"/>
+      <c r="H245" s="104" t="s">
+        <v>761</v>
+      </c>
+      <c r="I245" s="28" t="s">
+        <v>715</v>
+      </c>
       <c r="J245" s="15"/>
       <c r="K245" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L245" s="16"/>
-      <c r="M245" s="27"/>
+      <c r="L245" s="27"/>
+      <c r="M245" s="47" t="s">
+        <v>374</v>
+      </c>
       <c r="N245" s="27"/>
-      <c r="O245" s="27"/>
+      <c r="O245" s="89">
+        <v>2000000061</v>
+      </c>
       <c r="P245" s="28" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(N245&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O244), CONCATENATE("Athena-",O244)),"")</f>
         <v/>
       </c>
       <c r="Q245" s="27"/>
@@ -18014,42 +18111,40 @@
         <v>774</v>
       </c>
     </row>
-    <row r="246" spans="1:24" s="54" customFormat="1" ht="52" customHeight="1">
+    <row r="246" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A246" s="59"/>
-      <c r="B246" s="67" t="s">
-        <v>150</v>
-      </c>
-      <c r="C246" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D246" s="76" t="s">
-        <v>211</v>
-      </c>
-      <c r="E246" s="77" t="s">
-        <v>134</v>
+      <c r="B246" s="67"/>
+      <c r="C246" s="45"/>
+      <c r="D246" s="83" t="s">
+        <v>732</v>
+      </c>
+      <c r="E246" s="83" t="s">
+        <v>733</v>
       </c>
       <c r="F246" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="G246" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="H246" s="39" t="s">
-        <v>325</v>
-      </c>
-      <c r="I246" s="39"/>
+        <v>197</v>
+      </c>
+      <c r="G246" s="16"/>
+      <c r="H246" s="104" t="s">
+        <v>761</v>
+      </c>
+      <c r="I246" s="28" t="s">
+        <v>715</v>
+      </c>
       <c r="J246" s="15"/>
       <c r="K246" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L246" s="16" t="s">
-        <v>645</v>
-      </c>
-      <c r="M246" s="27"/>
+      <c r="L246" s="27"/>
+      <c r="M246" s="47" t="s">
+        <v>374</v>
+      </c>
       <c r="N246" s="27"/>
-      <c r="O246" s="27"/>
+      <c r="O246" s="92">
+        <v>2000000082</v>
+      </c>
       <c r="P246" s="28" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="P246:P247" si="19">IF(N246&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O246), CONCATENATE("Athena-",O246)),"")</f>
         <v/>
       </c>
       <c r="Q246" s="27"/>
@@ -18060,20 +18155,18 @@
       <c r="V246" s="27"/>
       <c r="W246" s="27"/>
       <c r="X246" s="15" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
     </row>
     <row r="247" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A247" s="59"/>
       <c r="B247" s="67"/>
-      <c r="C247" s="45" t="s">
-        <v>571</v>
-      </c>
-      <c r="D247" s="45" t="s">
-        <v>516</v>
-      </c>
-      <c r="E247" s="45" t="s">
-        <v>517</v>
+      <c r="C247" s="45"/>
+      <c r="D247" s="103" t="s">
+        <v>887</v>
+      </c>
+      <c r="E247" s="83" t="s">
+        <v>734</v>
       </c>
       <c r="F247" s="27" t="s">
         <v>197</v>
@@ -18082,7 +18175,7 @@
       <c r="H247" s="104" t="s">
         <v>761</v>
       </c>
-      <c r="I247" s="38" t="s">
+      <c r="I247" s="28" t="s">
         <v>715</v>
       </c>
       <c r="J247" s="15"/>
@@ -18090,11 +18183,15 @@
         <v>337</v>
       </c>
       <c r="L247" s="27"/>
-      <c r="M247" s="27"/>
+      <c r="M247" s="47" t="s">
+        <v>374</v>
+      </c>
       <c r="N247" s="27"/>
-      <c r="O247" s="27"/>
+      <c r="O247" s="92">
+        <v>2000000083</v>
+      </c>
       <c r="P247" s="28" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="Q247" s="27"/>
@@ -18105,27 +18202,27 @@
       <c r="V247" s="27"/>
       <c r="W247" s="27"/>
       <c r="X247" s="15" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
     </row>
     <row r="248" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A248" s="59"/>
       <c r="B248" s="67"/>
       <c r="C248" s="45"/>
-      <c r="D248" s="84" t="s">
-        <v>628</v>
+      <c r="D248" s="103" t="s">
+        <v>909</v>
       </c>
       <c r="E248" s="83" t="s">
-        <v>630</v>
+        <v>908</v>
       </c>
       <c r="F248" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G248" s="16"/>
-      <c r="H248" s="104" t="s">
+      <c r="H248" s="69" t="s">
         <v>761</v>
       </c>
-      <c r="I248" s="38" t="s">
+      <c r="I248" s="28" t="s">
         <v>715</v>
       </c>
       <c r="J248" s="15"/>
@@ -18133,17 +18230,14 @@
         <v>337</v>
       </c>
       <c r="L248" s="27"/>
-      <c r="M248" s="27" t="s">
+      <c r="M248" s="47" t="s">
         <v>374</v>
       </c>
       <c r="N248" s="27"/>
-      <c r="O248" s="99">
-        <v>2000000062</v>
-      </c>
-      <c r="P248" s="28" t="str">
-        <f>IF(N248&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",#REF!), CONCATENATE("Athena-",#REF!)),"")</f>
-        <v/>
-      </c>
+      <c r="O248" s="92">
+        <v>2000000125</v>
+      </c>
+      <c r="P248" s="28"/>
       <c r="Q248" s="27"/>
       <c r="R248" s="27"/>
       <c r="S248" s="27"/>
@@ -18152,18 +18246,18 @@
       <c r="V248" s="27"/>
       <c r="W248" s="27"/>
       <c r="X248" s="15" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
     </row>
     <row r="249" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A249" s="59"/>
       <c r="B249" s="67"/>
       <c r="C249" s="45"/>
-      <c r="D249" s="84" t="s">
-        <v>629</v>
-      </c>
-      <c r="E249" s="83" t="s">
-        <v>631</v>
+      <c r="D249" s="77" t="s">
+        <v>487</v>
+      </c>
+      <c r="E249" s="77" t="s">
+        <v>515</v>
       </c>
       <c r="F249" s="27" t="s">
         <v>197</v>
@@ -18172,21 +18266,15 @@
       <c r="H249" s="104" t="s">
         <v>761</v>
       </c>
-      <c r="I249" s="38" t="s">
-        <v>715</v>
-      </c>
+      <c r="I249" s="28"/>
       <c r="J249" s="15"/>
       <c r="K249" s="27" t="s">
         <v>337</v>
       </c>
       <c r="L249" s="27"/>
-      <c r="M249" s="27" t="s">
-        <v>374</v>
-      </c>
+      <c r="M249" s="47"/>
       <c r="N249" s="27"/>
-      <c r="O249" s="99">
-        <v>2000000063</v>
-      </c>
+      <c r="O249" s="89"/>
       <c r="P249" s="28" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -18199,96 +18287,84 @@
       <c r="V249" s="27"/>
       <c r="W249" s="27"/>
       <c r="X249" s="15" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="250" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="250" spans="1:24" s="54" customFormat="1" ht="16">
       <c r="A250" s="59"/>
-      <c r="B250" s="67"/>
-      <c r="C250" s="45" t="s">
-        <v>572</v>
-      </c>
-      <c r="D250" s="84" t="s">
-        <v>897</v>
-      </c>
-      <c r="E250" s="84" t="s">
-        <v>763</v>
+      <c r="B250" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="C250" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D250" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="E250" s="45" t="s">
+        <v>131</v>
       </c>
       <c r="F250" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G250" s="16"/>
+      <c r="G250" s="15"/>
       <c r="H250" s="104" t="s">
         <v>761</v>
       </c>
-      <c r="I250" s="38" t="s">
-        <v>715</v>
-      </c>
+      <c r="I250" s="28"/>
       <c r="J250" s="15"/>
       <c r="K250" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L250" s="27"/>
-      <c r="M250" s="27" t="s">
-        <v>374</v>
-      </c>
+      <c r="L250" s="16"/>
+      <c r="M250" s="27"/>
       <c r="N250" s="27"/>
-      <c r="O250" s="99">
-        <v>2000000064</v>
-      </c>
+      <c r="O250" s="27"/>
       <c r="P250" s="28" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="Q250" s="27" t="s">
-        <v>751</v>
-      </c>
-      <c r="R250" s="27">
-        <v>8555</v>
-      </c>
-      <c r="S250" s="27" t="s">
-        <v>376</v>
-      </c>
+      <c r="Q250" s="27"/>
+      <c r="R250" s="27"/>
+      <c r="S250" s="27"/>
       <c r="T250" s="27"/>
       <c r="U250" s="27"/>
       <c r="V250" s="27"/>
       <c r="W250" s="27"/>
       <c r="X250" s="15" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="251" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="251" spans="1:24" s="54" customFormat="1" ht="16">
       <c r="A251" s="59"/>
-      <c r="B251" s="67"/>
-      <c r="C251" s="45"/>
-      <c r="D251" s="84" t="s">
-        <v>896</v>
-      </c>
-      <c r="E251" s="84" t="s">
-        <v>769</v>
+      <c r="B251" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="C251" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D251" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="E251" s="45" t="s">
+        <v>133</v>
       </c>
       <c r="F251" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G251" s="16"/>
-      <c r="H251" s="104" t="s">
-        <v>761</v>
-      </c>
-      <c r="I251" s="38" t="s">
-        <v>715</v>
-      </c>
+      <c r="G251" s="15"/>
+      <c r="H251" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="I251" s="36"/>
       <c r="J251" s="15"/>
       <c r="K251" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L251" s="27"/>
-      <c r="M251" s="27" t="s">
-        <v>374</v>
-      </c>
+      <c r="L251" s="16"/>
+      <c r="M251" s="27"/>
       <c r="N251" s="27"/>
-      <c r="O251" s="99">
-        <v>2000000104</v>
-      </c>
+      <c r="O251" s="27"/>
       <c r="P251" s="28" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -18301,42 +18377,47 @@
       <c r="V251" s="27"/>
       <c r="W251" s="27"/>
       <c r="X251" s="15" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="252" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="252" spans="1:24" s="54" customFormat="1" ht="52" customHeight="1">
       <c r="A252" s="59"/>
-      <c r="B252" s="67"/>
-      <c r="C252" s="45"/>
-      <c r="D252" s="84" t="s">
-        <v>898</v>
-      </c>
-      <c r="E252" s="84" t="s">
-        <v>764</v>
+      <c r="B252" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="C252" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D252" s="76" t="s">
+        <v>211</v>
+      </c>
+      <c r="E252" s="77" t="s">
+        <v>134</v>
       </c>
       <c r="F252" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="G252" s="16"/>
-      <c r="H252" s="104" t="s">
-        <v>761</v>
-      </c>
-      <c r="I252" s="38" t="s">
-        <v>715</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G252" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="H252" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="I252" s="39"/>
       <c r="J252" s="15"/>
       <c r="K252" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L252" s="27"/>
-      <c r="M252" s="27" t="s">
-        <v>374</v>
-      </c>
+      <c r="L252" s="16" t="s">
+        <v>645</v>
+      </c>
+      <c r="M252" s="27"/>
       <c r="N252" s="27"/>
-      <c r="O252" s="99">
-        <v>2000000101</v>
-      </c>
-      <c r="P252" s="28"/>
+      <c r="O252" s="27"/>
+      <c r="P252" s="28" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
       <c r="Q252" s="27"/>
       <c r="R252" s="27"/>
       <c r="S252" s="27"/>
@@ -18352,13 +18433,13 @@
       <c r="A253" s="59"/>
       <c r="B253" s="67"/>
       <c r="C253" s="45" t="s">
-        <v>641</v>
-      </c>
-      <c r="D253" s="84" t="s">
-        <v>899</v>
-      </c>
-      <c r="E253" s="84" t="s">
-        <v>852</v>
+        <v>571</v>
+      </c>
+      <c r="D253" s="45" t="s">
+        <v>516</v>
+      </c>
+      <c r="E253" s="45" t="s">
+        <v>517</v>
       </c>
       <c r="F253" s="27" t="s">
         <v>197</v>
@@ -18375,23 +18456,16 @@
         <v>337</v>
       </c>
       <c r="L253" s="27"/>
-      <c r="M253" s="27" t="s">
-        <v>374</v>
-      </c>
+      <c r="M253" s="27"/>
       <c r="N253" s="27"/>
-      <c r="O253" s="99">
-        <v>2000000065</v>
-      </c>
-      <c r="P253" s="28"/>
-      <c r="Q253" s="27" t="s">
-        <v>751</v>
-      </c>
-      <c r="R253" s="27">
-        <v>8555</v>
-      </c>
-      <c r="S253" s="27" t="s">
-        <v>376</v>
-      </c>
+      <c r="O253" s="27"/>
+      <c r="P253" s="28" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q253" s="27"/>
+      <c r="R253" s="27"/>
+      <c r="S253" s="27"/>
       <c r="T253" s="27"/>
       <c r="U253" s="27"/>
       <c r="V253" s="27"/>
@@ -18405,10 +18479,10 @@
       <c r="B254" s="67"/>
       <c r="C254" s="45"/>
       <c r="D254" s="84" t="s">
-        <v>900</v>
-      </c>
-      <c r="E254" s="84" t="s">
-        <v>849</v>
+        <v>628</v>
+      </c>
+      <c r="E254" s="83" t="s">
+        <v>630</v>
       </c>
       <c r="F254" s="27" t="s">
         <v>197</v>
@@ -18430,9 +18504,12 @@
       </c>
       <c r="N254" s="27"/>
       <c r="O254" s="99">
-        <v>2000000117</v>
-      </c>
-      <c r="P254" s="28"/>
+        <v>2000000062</v>
+      </c>
+      <c r="P254" s="28" t="str">
+        <f>IF(N254&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",#REF!), CONCATENATE("Athena-",#REF!)),"")</f>
+        <v/>
+      </c>
       <c r="Q254" s="27"/>
       <c r="R254" s="27"/>
       <c r="S254" s="27"/>
@@ -18447,14 +18524,12 @@
     <row r="255" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A255" s="59"/>
       <c r="B255" s="67"/>
-      <c r="C255" s="45" t="s">
-        <v>642</v>
-      </c>
+      <c r="C255" s="45"/>
       <c r="D255" s="84" t="s">
-        <v>901</v>
-      </c>
-      <c r="E255" s="84" t="s">
-        <v>853</v>
+        <v>629</v>
+      </c>
+      <c r="E255" s="83" t="s">
+        <v>631</v>
       </c>
       <c r="F255" s="27" t="s">
         <v>197</v>
@@ -18476,18 +18551,15 @@
       </c>
       <c r="N255" s="27"/>
       <c r="O255" s="99">
-        <v>2000000066</v>
-      </c>
-      <c r="P255" s="28"/>
-      <c r="Q255" s="27" t="s">
-        <v>751</v>
-      </c>
-      <c r="R255" s="27">
-        <v>8555</v>
-      </c>
-      <c r="S255" s="27" t="s">
-        <v>376</v>
-      </c>
+        <v>2000000063</v>
+      </c>
+      <c r="P255" s="28" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q255" s="27"/>
+      <c r="R255" s="27"/>
+      <c r="S255" s="27"/>
       <c r="T255" s="27"/>
       <c r="U255" s="27"/>
       <c r="V255" s="27"/>
@@ -18499,12 +18571,14 @@
     <row r="256" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A256" s="59"/>
       <c r="B256" s="67"/>
-      <c r="C256" s="45"/>
+      <c r="C256" s="45" t="s">
+        <v>572</v>
+      </c>
       <c r="D256" s="84" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="E256" s="84" t="s">
-        <v>850</v>
+        <v>763</v>
       </c>
       <c r="F256" s="27" t="s">
         <v>197</v>
@@ -18525,13 +18599,22 @@
         <v>374</v>
       </c>
       <c r="N256" s="27"/>
-      <c r="O256" s="105">
-        <v>2000000118</v>
-      </c>
-      <c r="P256" s="28"/>
-      <c r="Q256" s="27"/>
-      <c r="R256" s="27"/>
-      <c r="S256" s="27"/>
+      <c r="O256" s="99">
+        <v>2000000064</v>
+      </c>
+      <c r="P256" s="28" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q256" s="27" t="s">
+        <v>751</v>
+      </c>
+      <c r="R256" s="27">
+        <v>8555</v>
+      </c>
+      <c r="S256" s="27" t="s">
+        <v>376</v>
+      </c>
       <c r="T256" s="27"/>
       <c r="U256" s="27"/>
       <c r="V256" s="27"/>
@@ -18543,14 +18626,12 @@
     <row r="257" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A257" s="59"/>
       <c r="B257" s="67"/>
-      <c r="C257" s="45" t="s">
-        <v>643</v>
-      </c>
+      <c r="C257" s="45"/>
       <c r="D257" s="84" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="E257" s="84" t="s">
-        <v>854</v>
+        <v>769</v>
       </c>
       <c r="F257" s="27" t="s">
         <v>197</v>
@@ -18571,19 +18652,16 @@
         <v>374</v>
       </c>
       <c r="N257" s="27"/>
-      <c r="O257" s="89">
-        <v>2000000067</v>
-      </c>
-      <c r="P257" s="28"/>
-      <c r="Q257" s="27" t="s">
-        <v>751</v>
-      </c>
-      <c r="R257" s="27">
-        <v>8555</v>
-      </c>
-      <c r="S257" s="27" t="s">
-        <v>376</v>
-      </c>
+      <c r="O257" s="99">
+        <v>2000000104</v>
+      </c>
+      <c r="P257" s="28" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q257" s="27"/>
+      <c r="R257" s="27"/>
+      <c r="S257" s="27"/>
       <c r="T257" s="27"/>
       <c r="U257" s="27"/>
       <c r="V257" s="27"/>
@@ -18597,10 +18675,10 @@
       <c r="B258" s="67"/>
       <c r="C258" s="45"/>
       <c r="D258" s="84" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="E258" s="84" t="s">
-        <v>851</v>
+        <v>764</v>
       </c>
       <c r="F258" s="27" t="s">
         <v>197</v>
@@ -18621,8 +18699,8 @@
         <v>374</v>
       </c>
       <c r="N258" s="27"/>
-      <c r="O258" s="89">
-        <v>2000000119</v>
+      <c r="O258" s="99">
+        <v>2000000101</v>
       </c>
       <c r="P258" s="28"/>
       <c r="Q258" s="27"/>
@@ -18639,12 +18717,14 @@
     <row r="259" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A259" s="59"/>
       <c r="B259" s="67"/>
-      <c r="C259" s="45"/>
+      <c r="C259" s="45" t="s">
+        <v>641</v>
+      </c>
       <c r="D259" s="84" t="s">
-        <v>735</v>
+        <v>899</v>
       </c>
       <c r="E259" s="84" t="s">
-        <v>736</v>
+        <v>852</v>
       </c>
       <c r="F259" s="27" t="s">
         <v>197</v>
@@ -18665,13 +18745,19 @@
         <v>374</v>
       </c>
       <c r="N259" s="27"/>
-      <c r="O259" s="89">
-        <v>2000000084</v>
+      <c r="O259" s="99">
+        <v>2000000065</v>
       </c>
       <c r="P259" s="28"/>
-      <c r="Q259" s="27"/>
-      <c r="R259" s="27"/>
-      <c r="S259" s="27"/>
+      <c r="Q259" s="27" t="s">
+        <v>751</v>
+      </c>
+      <c r="R259" s="27">
+        <v>8555</v>
+      </c>
+      <c r="S259" s="27" t="s">
+        <v>376</v>
+      </c>
       <c r="T259" s="27"/>
       <c r="U259" s="27"/>
       <c r="V259" s="27"/>
@@ -18685,10 +18771,10 @@
       <c r="B260" s="67"/>
       <c r="C260" s="45"/>
       <c r="D260" s="84" t="s">
-        <v>738</v>
+        <v>900</v>
       </c>
       <c r="E260" s="84" t="s">
-        <v>737</v>
+        <v>849</v>
       </c>
       <c r="F260" s="27" t="s">
         <v>197</v>
@@ -18709,8 +18795,8 @@
         <v>374</v>
       </c>
       <c r="N260" s="27"/>
-      <c r="O260" s="89">
-        <v>2000000085</v>
+      <c r="O260" s="99">
+        <v>2000000117</v>
       </c>
       <c r="P260" s="28"/>
       <c r="Q260" s="27"/>
@@ -18727,12 +18813,14 @@
     <row r="261" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A261" s="59"/>
       <c r="B261" s="67"/>
-      <c r="C261" s="45"/>
+      <c r="C261" s="45" t="s">
+        <v>642</v>
+      </c>
       <c r="D261" s="84" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="E261" s="84" t="s">
-        <v>911</v>
+        <v>853</v>
       </c>
       <c r="F261" s="27" t="s">
         <v>197</v>
@@ -18753,13 +18841,19 @@
         <v>374</v>
       </c>
       <c r="N261" s="27"/>
-      <c r="O261" s="89">
-        <v>2000000126</v>
+      <c r="O261" s="99">
+        <v>2000000066</v>
       </c>
       <c r="P261" s="28"/>
-      <c r="Q261" s="27"/>
-      <c r="R261" s="27"/>
-      <c r="S261" s="27"/>
+      <c r="Q261" s="27" t="s">
+        <v>751</v>
+      </c>
+      <c r="R261" s="27">
+        <v>8555</v>
+      </c>
+      <c r="S261" s="27" t="s">
+        <v>376</v>
+      </c>
       <c r="T261" s="27"/>
       <c r="U261" s="27"/>
       <c r="V261" s="27"/>
@@ -18773,10 +18867,10 @@
       <c r="B262" s="67"/>
       <c r="C262" s="45"/>
       <c r="D262" s="84" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="E262" s="84" t="s">
-        <v>913</v>
+        <v>850</v>
       </c>
       <c r="F262" s="27" t="s">
         <v>197</v>
@@ -18797,8 +18891,8 @@
         <v>374</v>
       </c>
       <c r="N262" s="27"/>
-      <c r="O262" s="89">
-        <v>2000000127</v>
+      <c r="O262" s="105">
+        <v>2000000118</v>
       </c>
       <c r="P262" s="28"/>
       <c r="Q262" s="27"/>
@@ -18815,12 +18909,14 @@
     <row r="263" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A263" s="59"/>
       <c r="B263" s="67"/>
-      <c r="C263" s="45"/>
+      <c r="C263" s="45" t="s">
+        <v>643</v>
+      </c>
       <c r="D263" s="84" t="s">
-        <v>937</v>
+        <v>903</v>
       </c>
       <c r="E263" s="84" t="s">
-        <v>939</v>
+        <v>854</v>
       </c>
       <c r="F263" s="27" t="s">
         <v>197</v>
@@ -18842,12 +18938,18 @@
       </c>
       <c r="N263" s="27"/>
       <c r="O263" s="89">
-        <v>2000000128</v>
+        <v>2000000067</v>
       </c>
       <c r="P263" s="28"/>
-      <c r="Q263" s="27"/>
-      <c r="R263" s="27"/>
-      <c r="S263" s="27"/>
+      <c r="Q263" s="27" t="s">
+        <v>751</v>
+      </c>
+      <c r="R263" s="27">
+        <v>8555</v>
+      </c>
+      <c r="S263" s="27" t="s">
+        <v>376</v>
+      </c>
       <c r="T263" s="27"/>
       <c r="U263" s="27"/>
       <c r="V263" s="27"/>
@@ -18861,10 +18963,10 @@
       <c r="B264" s="67"/>
       <c r="C264" s="45"/>
       <c r="D264" s="84" t="s">
-        <v>938</v>
+        <v>904</v>
       </c>
       <c r="E264" s="84" t="s">
-        <v>940</v>
+        <v>851</v>
       </c>
       <c r="F264" s="27" t="s">
         <v>197</v>
@@ -18886,7 +18988,7 @@
       </c>
       <c r="N264" s="27"/>
       <c r="O264" s="89">
-        <v>2000000134</v>
+        <v>2000000119</v>
       </c>
       <c r="P264" s="28"/>
       <c r="Q264" s="27"/>
@@ -18904,28 +19006,35 @@
       <c r="A265" s="59"/>
       <c r="B265" s="67"/>
       <c r="C265" s="45"/>
-      <c r="D265" s="77"/>
-      <c r="E265" s="76" t="s">
-        <v>519</v>
+      <c r="D265" s="84" t="s">
+        <v>735</v>
+      </c>
+      <c r="E265" s="84" t="s">
+        <v>736</v>
       </c>
       <c r="F265" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G265" s="16"/>
-      <c r="H265" s="38"/>
-      <c r="I265" s="38"/>
+      <c r="H265" s="104" t="s">
+        <v>761</v>
+      </c>
+      <c r="I265" s="38" t="s">
+        <v>715</v>
+      </c>
       <c r="J265" s="15"/>
       <c r="K265" s="27" t="s">
         <v>337</v>
       </c>
       <c r="L265" s="27"/>
-      <c r="M265" s="27"/>
+      <c r="M265" s="27" t="s">
+        <v>374</v>
+      </c>
       <c r="N265" s="27"/>
-      <c r="O265" s="89"/>
-      <c r="P265" s="28" t="str">
-        <f t="shared" ref="P265:P282" si="20">IF(N265&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O265), CONCATENATE("Athena-",O265)),"")</f>
-        <v/>
-      </c>
+      <c r="O265" s="89">
+        <v>2000000084</v>
+      </c>
+      <c r="P265" s="28"/>
       <c r="Q265" s="27"/>
       <c r="R265" s="27"/>
       <c r="S265" s="27"/>
@@ -18937,40 +19046,39 @@
         <v>779</v>
       </c>
     </row>
-    <row r="266" spans="1:24" s="54" customFormat="1" ht="47" customHeight="1">
+    <row r="266" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A266" s="59"/>
-      <c r="B266" s="67" t="s">
-        <v>150</v>
-      </c>
-      <c r="C266" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="D266" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="E266" s="45" t="s">
-        <v>251</v>
+      <c r="B266" s="67"/>
+      <c r="C266" s="45"/>
+      <c r="D266" s="84" t="s">
+        <v>738</v>
+      </c>
+      <c r="E266" s="84" t="s">
+        <v>737</v>
       </c>
       <c r="F266" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G266" s="15"/>
-      <c r="H266" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="I266" s="28"/>
+      <c r="G266" s="16"/>
+      <c r="H266" s="104" t="s">
+        <v>761</v>
+      </c>
+      <c r="I266" s="38" t="s">
+        <v>715</v>
+      </c>
       <c r="J266" s="15"/>
       <c r="K266" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L266" s="16"/>
-      <c r="M266" s="27"/>
+      <c r="L266" s="27"/>
+      <c r="M266" s="27" t="s">
+        <v>374</v>
+      </c>
       <c r="N266" s="27"/>
-      <c r="O266" s="27"/>
-      <c r="P266" s="28" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
+      <c r="O266" s="89">
+        <v>2000000085</v>
+      </c>
+      <c r="P266" s="28"/>
       <c r="Q266" s="27"/>
       <c r="R266" s="27"/>
       <c r="S266" s="27"/>
@@ -18982,40 +19090,39 @@
         <v>779</v>
       </c>
     </row>
-    <row r="267" spans="1:24" s="54" customFormat="1" ht="16">
+    <row r="267" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A267" s="59"/>
-      <c r="B267" s="67" t="s">
-        <v>150</v>
-      </c>
-      <c r="C267" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="D267" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="E267" s="45" t="s">
-        <v>133</v>
+      <c r="B267" s="67"/>
+      <c r="C267" s="45"/>
+      <c r="D267" s="84" t="s">
+        <v>910</v>
+      </c>
+      <c r="E267" s="84" t="s">
+        <v>911</v>
       </c>
       <c r="F267" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G267" s="15"/>
-      <c r="H267" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="I267" s="36"/>
+      <c r="G267" s="16"/>
+      <c r="H267" s="104" t="s">
+        <v>761</v>
+      </c>
+      <c r="I267" s="38" t="s">
+        <v>715</v>
+      </c>
       <c r="J267" s="15"/>
       <c r="K267" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L267" s="16"/>
-      <c r="M267" s="27"/>
+      <c r="L267" s="27"/>
+      <c r="M267" s="27" t="s">
+        <v>374</v>
+      </c>
       <c r="N267" s="27"/>
-      <c r="O267" s="27"/>
-      <c r="P267" s="28" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
+      <c r="O267" s="89">
+        <v>2000000126</v>
+      </c>
+      <c r="P267" s="28"/>
       <c r="Q267" s="27"/>
       <c r="R267" s="27"/>
       <c r="S267" s="27"/>
@@ -19027,44 +19134,39 @@
         <v>779</v>
       </c>
     </row>
-    <row r="268" spans="1:24" s="54" customFormat="1" ht="110" customHeight="1">
+    <row r="268" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A268" s="59"/>
-      <c r="B268" s="67" t="s">
-        <v>151</v>
-      </c>
-      <c r="C268" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="D268" s="76" t="s">
-        <v>214</v>
-      </c>
-      <c r="E268" s="76" t="s">
-        <v>528</v>
+      <c r="B268" s="67"/>
+      <c r="C268" s="45"/>
+      <c r="D268" s="84" t="s">
+        <v>912</v>
+      </c>
+      <c r="E268" s="84" t="s">
+        <v>913</v>
       </c>
       <c r="F268" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="G268" s="15" t="s">
-        <v>693</v>
-      </c>
-      <c r="H268" s="43" t="s">
-        <v>327</v>
-      </c>
-      <c r="I268" s="43"/>
+        <v>197</v>
+      </c>
+      <c r="G268" s="16"/>
+      <c r="H268" s="104" t="s">
+        <v>761</v>
+      </c>
+      <c r="I268" s="38" t="s">
+        <v>715</v>
+      </c>
       <c r="J268" s="15"/>
       <c r="K268" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L268" s="16" t="s">
-        <v>694</v>
-      </c>
-      <c r="M268" s="27"/>
+      <c r="L268" s="27"/>
+      <c r="M268" s="27" t="s">
+        <v>374</v>
+      </c>
       <c r="N268" s="27"/>
-      <c r="O268" s="27"/>
-      <c r="P268" s="28" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
+      <c r="O268" s="89">
+        <v>2000000127</v>
+      </c>
+      <c r="P268" s="28"/>
       <c r="Q268" s="27"/>
       <c r="R268" s="27"/>
       <c r="S268" s="27"/>
@@ -19073,20 +19175,18 @@
       <c r="V268" s="27"/>
       <c r="W268" s="27"/>
       <c r="X268" s="15" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
     </row>
     <row r="269" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A269" s="59"/>
       <c r="B269" s="67"/>
-      <c r="C269" s="45" t="s">
-        <v>573</v>
-      </c>
+      <c r="C269" s="45"/>
       <c r="D269" s="84" t="s">
-        <v>954</v>
-      </c>
-      <c r="E269" s="83" t="s">
-        <v>882</v>
+        <v>937</v>
+      </c>
+      <c r="E269" s="84" t="s">
+        <v>1012</v>
       </c>
       <c r="F269" s="27" t="s">
         <v>197</v>
@@ -19095,7 +19195,7 @@
       <c r="H269" s="104" t="s">
         <v>761</v>
       </c>
-      <c r="I269" s="28" t="s">
+      <c r="I269" s="38" t="s">
         <v>715</v>
       </c>
       <c r="J269" s="15"/>
@@ -19103,17 +19203,14 @@
         <v>337</v>
       </c>
       <c r="L269" s="27"/>
-      <c r="M269" s="47" t="s">
+      <c r="M269" s="27" t="s">
         <v>374</v>
       </c>
       <c r="N269" s="27"/>
       <c r="O269" s="89">
-        <v>2000000068</v>
-      </c>
-      <c r="P269" s="28" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
+        <v>2000000128</v>
+      </c>
+      <c r="P269" s="28"/>
       <c r="Q269" s="27"/>
       <c r="R269" s="27"/>
       <c r="S269" s="27"/>
@@ -19122,18 +19219,18 @@
       <c r="V269" s="27"/>
       <c r="W269" s="27"/>
       <c r="X269" s="15" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
     </row>
     <row r="270" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A270" s="59"/>
       <c r="B270" s="67"/>
-      <c r="C270" s="106"/>
+      <c r="C270" s="45"/>
       <c r="D270" s="84" t="s">
-        <v>955</v>
-      </c>
-      <c r="E270" s="83" t="s">
-        <v>881</v>
+        <v>1010</v>
+      </c>
+      <c r="E270" s="84" t="s">
+        <v>1013</v>
       </c>
       <c r="F270" s="27" t="s">
         <v>197</v>
@@ -19142,7 +19239,7 @@
       <c r="H270" s="104" t="s">
         <v>761</v>
       </c>
-      <c r="I270" s="28" t="s">
+      <c r="I270" s="38" t="s">
         <v>715</v>
       </c>
       <c r="J270" s="15"/>
@@ -19150,17 +19247,14 @@
         <v>337</v>
       </c>
       <c r="L270" s="27"/>
-      <c r="M270" s="47" t="s">
+      <c r="M270" s="27" t="s">
         <v>374</v>
       </c>
       <c r="N270" s="27"/>
       <c r="O270" s="89">
-        <v>2000000123</v>
-      </c>
-      <c r="P270" s="28" t="str">
-        <f t="shared" ref="P270:P271" si="21">IF(N270&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O270), CONCATENATE("Athena-",O270)),"")</f>
-        <v/>
-      </c>
+        <v>2000000162</v>
+      </c>
+      <c r="P270" s="28"/>
       <c r="Q270" s="27"/>
       <c r="R270" s="27"/>
       <c r="S270" s="27"/>
@@ -19169,20 +19263,18 @@
       <c r="V270" s="27"/>
       <c r="W270" s="27"/>
       <c r="X270" s="15" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
     </row>
     <row r="271" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A271" s="59"/>
       <c r="B271" s="67"/>
-      <c r="C271" s="45" t="s">
-        <v>941</v>
-      </c>
+      <c r="C271" s="45"/>
       <c r="D271" s="84" t="s">
-        <v>956</v>
-      </c>
-      <c r="E271" s="83" t="s">
-        <v>942</v>
+        <v>938</v>
+      </c>
+      <c r="E271" s="84" t="s">
+        <v>939</v>
       </c>
       <c r="F271" s="27" t="s">
         <v>197</v>
@@ -19191,7 +19283,7 @@
       <c r="H271" s="104" t="s">
         <v>761</v>
       </c>
-      <c r="I271" s="28" t="s">
+      <c r="I271" s="38" t="s">
         <v>715</v>
       </c>
       <c r="J271" s="15"/>
@@ -19199,17 +19291,14 @@
         <v>337</v>
       </c>
       <c r="L271" s="27"/>
-      <c r="M271" s="47" t="s">
+      <c r="M271" s="27" t="s">
         <v>374</v>
       </c>
       <c r="N271" s="27"/>
       <c r="O271" s="89">
-        <v>2000000135</v>
-      </c>
-      <c r="P271" s="28" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
+        <v>2000000134</v>
+      </c>
+      <c r="P271" s="28"/>
       <c r="Q271" s="27"/>
       <c r="R271" s="27"/>
       <c r="S271" s="27"/>
@@ -19218,18 +19307,18 @@
       <c r="V271" s="27"/>
       <c r="W271" s="27"/>
       <c r="X271" s="15" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
     </row>
     <row r="272" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A272" s="59"/>
       <c r="B272" s="67"/>
-      <c r="C272" s="106"/>
+      <c r="C272" s="45"/>
       <c r="D272" s="84" t="s">
-        <v>957</v>
-      </c>
-      <c r="E272" s="83" t="s">
-        <v>943</v>
+        <v>1011</v>
+      </c>
+      <c r="E272" s="84" t="s">
+        <v>1014</v>
       </c>
       <c r="F272" s="27" t="s">
         <v>197</v>
@@ -19238,7 +19327,7 @@
       <c r="H272" s="104" t="s">
         <v>761</v>
       </c>
-      <c r="I272" s="28" t="s">
+      <c r="I272" s="38" t="s">
         <v>715</v>
       </c>
       <c r="J272" s="15"/>
@@ -19246,17 +19335,14 @@
         <v>337</v>
       </c>
       <c r="L272" s="27"/>
-      <c r="M272" s="47" t="s">
+      <c r="M272" s="27" t="s">
         <v>374</v>
       </c>
       <c r="N272" s="27"/>
       <c r="O272" s="89">
-        <v>2000000136</v>
-      </c>
-      <c r="P272" s="28" t="str">
-        <f t="shared" ref="P272" si="22">IF(N272&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O272), CONCATENATE("Athena-",O272)),"")</f>
-        <v/>
-      </c>
+        <v>2000000163</v>
+      </c>
+      <c r="P272" s="28"/>
       <c r="Q272" s="27"/>
       <c r="R272" s="27"/>
       <c r="S272" s="27"/>
@@ -19265,42 +19351,33 @@
       <c r="V272" s="27"/>
       <c r="W272" s="27"/>
       <c r="X272" s="15" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
     </row>
     <row r="273" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A273" s="59"/>
       <c r="B273" s="67"/>
-      <c r="D273" s="84" t="s">
-        <v>958</v>
-      </c>
-      <c r="E273" s="84" t="s">
-        <v>530</v>
+      <c r="C273" s="45"/>
+      <c r="D273" s="77"/>
+      <c r="E273" s="76" t="s">
+        <v>519</v>
       </c>
       <c r="F273" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G273" s="16"/>
-      <c r="H273" s="104" t="s">
-        <v>761</v>
-      </c>
-      <c r="I273" s="28" t="s">
-        <v>715</v>
-      </c>
+      <c r="H273" s="38"/>
+      <c r="I273" s="38"/>
       <c r="J273" s="15"/>
       <c r="K273" s="27" t="s">
         <v>337</v>
       </c>
       <c r="L273" s="27"/>
-      <c r="M273" s="47" t="s">
-        <v>374</v>
-      </c>
+      <c r="M273" s="27"/>
       <c r="N273" s="27"/>
-      <c r="O273" s="89">
-        <v>2000000069</v>
-      </c>
+      <c r="O273" s="89"/>
       <c r="P273" s="28" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="P273:P292" si="20">IF(N273&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O273), CONCATENATE("Athena-",O273)),"")</f>
         <v/>
       </c>
       <c r="Q273" s="27"/>
@@ -19311,43 +19388,39 @@
       <c r="V273" s="27"/>
       <c r="W273" s="27"/>
       <c r="X273" s="15" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="274" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="274" spans="1:24" s="54" customFormat="1" ht="47" customHeight="1">
       <c r="A274" s="59"/>
-      <c r="B274" s="67"/>
-      <c r="C274" s="45" t="s">
-        <v>574</v>
-      </c>
-      <c r="D274" s="84" t="s">
-        <v>959</v>
-      </c>
-      <c r="E274" s="84" t="s">
-        <v>531</v>
+      <c r="B274" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="C274" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D274" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="E274" s="45" t="s">
+        <v>251</v>
       </c>
       <c r="F274" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G274" s="16"/>
-      <c r="H274" s="104" t="s">
-        <v>761</v>
-      </c>
-      <c r="I274" s="28" t="s">
-        <v>715</v>
-      </c>
+      <c r="G274" s="15"/>
+      <c r="H274" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="I274" s="28"/>
       <c r="J274" s="15"/>
       <c r="K274" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L274" s="27"/>
-      <c r="M274" s="47" t="s">
-        <v>374</v>
-      </c>
+      <c r="L274" s="16"/>
+      <c r="M274" s="27"/>
       <c r="N274" s="27"/>
-      <c r="O274" s="89">
-        <v>2000000070</v>
-      </c>
+      <c r="O274" s="27"/>
       <c r="P274" s="28" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -19360,43 +19433,39 @@
       <c r="V274" s="27"/>
       <c r="W274" s="27"/>
       <c r="X274" s="15" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="275" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="275" spans="1:24" s="54" customFormat="1" ht="16">
       <c r="A275" s="59"/>
-      <c r="B275" s="67"/>
-      <c r="C275" s="45" t="s">
-        <v>581</v>
-      </c>
-      <c r="D275" s="83" t="s">
-        <v>575</v>
-      </c>
-      <c r="E275" s="83" t="s">
-        <v>578</v>
+      <c r="B275" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="C275" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="D275" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="E275" s="45" t="s">
+        <v>133</v>
       </c>
       <c r="F275" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G275" s="16"/>
-      <c r="H275" s="104" t="s">
-        <v>761</v>
-      </c>
-      <c r="I275" s="28" t="s">
-        <v>715</v>
-      </c>
+      <c r="G275" s="15"/>
+      <c r="H275" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="I275" s="36"/>
       <c r="J275" s="15"/>
       <c r="K275" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L275" s="27"/>
-      <c r="M275" s="47" t="s">
-        <v>374</v>
-      </c>
+      <c r="L275" s="16"/>
+      <c r="M275" s="27"/>
       <c r="N275" s="27"/>
-      <c r="O275" s="89">
-        <v>2000000072</v>
-      </c>
+      <c r="O275" s="27"/>
       <c r="P275" s="28" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -19409,43 +19478,43 @@
       <c r="V275" s="27"/>
       <c r="W275" s="27"/>
       <c r="X275" s="15" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="276" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="276" spans="1:24" s="54" customFormat="1" ht="110" customHeight="1">
       <c r="A276" s="59"/>
-      <c r="B276" s="67"/>
-      <c r="C276" s="45" t="s">
-        <v>582</v>
-      </c>
-      <c r="D276" s="83" t="s">
-        <v>576</v>
-      </c>
-      <c r="E276" s="83" t="s">
-        <v>579</v>
+      <c r="B276" s="67" t="s">
+        <v>151</v>
+      </c>
+      <c r="C276" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D276" s="76" t="s">
+        <v>214</v>
+      </c>
+      <c r="E276" s="76" t="s">
+        <v>528</v>
       </c>
       <c r="F276" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="G276" s="16"/>
-      <c r="H276" s="104" t="s">
-        <v>761</v>
-      </c>
-      <c r="I276" s="28" t="s">
-        <v>715</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G276" s="15" t="s">
+        <v>693</v>
+      </c>
+      <c r="H276" s="43" t="s">
+        <v>327</v>
+      </c>
+      <c r="I276" s="43"/>
       <c r="J276" s="15"/>
       <c r="K276" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L276" s="27"/>
-      <c r="M276" s="47" t="s">
-        <v>374</v>
-      </c>
+      <c r="L276" s="16" t="s">
+        <v>694</v>
+      </c>
+      <c r="M276" s="27"/>
       <c r="N276" s="27"/>
-      <c r="O276" s="89">
-        <v>2000000073</v>
-      </c>
+      <c r="O276" s="27"/>
       <c r="P276" s="28" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -19465,13 +19534,13 @@
       <c r="A277" s="59"/>
       <c r="B277" s="67"/>
       <c r="C277" s="45" t="s">
-        <v>583</v>
-      </c>
-      <c r="D277" s="83" t="s">
-        <v>577</v>
+        <v>573</v>
+      </c>
+      <c r="D277" s="84" t="s">
+        <v>953</v>
       </c>
       <c r="E277" s="83" t="s">
-        <v>580</v>
+        <v>882</v>
       </c>
       <c r="F277" s="27" t="s">
         <v>197</v>
@@ -19493,7 +19562,7 @@
       </c>
       <c r="N277" s="27"/>
       <c r="O277" s="89">
-        <v>2000000074</v>
+        <v>2000000068</v>
       </c>
       <c r="P277" s="28" t="str">
         <f t="shared" si="20"/>
@@ -19513,12 +19582,12 @@
     <row r="278" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A278" s="59"/>
       <c r="B278" s="67"/>
-      <c r="C278" s="45"/>
-      <c r="D278" s="83" t="s">
-        <v>960</v>
-      </c>
-      <c r="E278" s="84" t="s">
-        <v>739</v>
+      <c r="C278" s="106"/>
+      <c r="D278" s="84" t="s">
+        <v>954</v>
+      </c>
+      <c r="E278" s="83" t="s">
+        <v>881</v>
       </c>
       <c r="F278" s="27" t="s">
         <v>197</v>
@@ -19540,10 +19609,10 @@
       </c>
       <c r="N278" s="27"/>
       <c r="O278" s="89">
-        <v>2000000086</v>
+        <v>2000000123</v>
       </c>
       <c r="P278" s="28" t="str">
-        <f t="shared" ref="P278:P279" si="23">IF(N278&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O278), CONCATENATE("Athena-",O278)),"")</f>
+        <f t="shared" ref="P278:P280" si="21">IF(N278&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O278), CONCATENATE("Athena-",O278)),"")</f>
         <v/>
       </c>
       <c r="Q278" s="27"/>
@@ -19560,12 +19629,12 @@
     <row r="279" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A279" s="59"/>
       <c r="B279" s="67"/>
-      <c r="C279" s="45"/>
-      <c r="D279" s="83" t="s">
-        <v>973</v>
-      </c>
-      <c r="E279" s="84" t="s">
-        <v>974</v>
+      <c r="C279" s="106"/>
+      <c r="D279" s="84" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E279" s="83" t="s">
+        <v>1018</v>
       </c>
       <c r="F279" s="27" t="s">
         <v>197</v>
@@ -19587,12 +19656,9 @@
       </c>
       <c r="N279" s="27"/>
       <c r="O279" s="89">
-        <v>2000000145</v>
-      </c>
-      <c r="P279" s="28" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
+        <v>2000000164</v>
+      </c>
+      <c r="P279" s="28"/>
       <c r="Q279" s="27"/>
       <c r="R279" s="27"/>
       <c r="S279" s="27"/>
@@ -19607,12 +19673,14 @@
     <row r="280" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A280" s="59"/>
       <c r="B280" s="67"/>
-      <c r="C280" s="45"/>
-      <c r="D280" s="76" t="s">
-        <v>527</v>
-      </c>
-      <c r="E280" s="77" t="s">
-        <v>529</v>
+      <c r="C280" s="45" t="s">
+        <v>940</v>
+      </c>
+      <c r="D280" s="84" t="s">
+        <v>955</v>
+      </c>
+      <c r="E280" s="83" t="s">
+        <v>941</v>
       </c>
       <c r="F280" s="27" t="s">
         <v>197</v>
@@ -19621,17 +19689,23 @@
       <c r="H280" s="104" t="s">
         <v>761</v>
       </c>
-      <c r="I280" s="28"/>
+      <c r="I280" s="28" t="s">
+        <v>715</v>
+      </c>
       <c r="J280" s="15"/>
       <c r="K280" s="27" t="s">
         <v>337</v>
       </c>
       <c r="L280" s="27"/>
-      <c r="M280" s="47"/>
+      <c r="M280" s="47" t="s">
+        <v>374</v>
+      </c>
       <c r="N280" s="27"/>
-      <c r="O280" s="89"/>
+      <c r="O280" s="89">
+        <v>2000000135</v>
+      </c>
       <c r="P280" s="28" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Q280" s="27"/>
@@ -19645,38 +19719,40 @@
         <v>775</v>
       </c>
     </row>
-    <row r="281" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
+    <row r="281" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A281" s="59"/>
-      <c r="B281" s="67" t="s">
-        <v>151</v>
-      </c>
-      <c r="C281" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="D281" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="E281" s="45" t="s">
-        <v>130</v>
+      <c r="B281" s="67"/>
+      <c r="C281" s="106"/>
+      <c r="D281" s="84" t="s">
+        <v>956</v>
+      </c>
+      <c r="E281" s="83" t="s">
+        <v>942</v>
       </c>
       <c r="F281" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G281" s="15"/>
+      <c r="G281" s="16"/>
       <c r="H281" s="104" t="s">
         <v>761</v>
       </c>
-      <c r="I281" s="28"/>
+      <c r="I281" s="28" t="s">
+        <v>715</v>
+      </c>
       <c r="J281" s="15"/>
       <c r="K281" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L281" s="16"/>
-      <c r="M281" s="27"/>
+      <c r="L281" s="27"/>
+      <c r="M281" s="47" t="s">
+        <v>374</v>
+      </c>
       <c r="N281" s="27"/>
-      <c r="O281" s="27"/>
+      <c r="O281" s="89">
+        <v>2000000136</v>
+      </c>
       <c r="P281" s="28" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="P281:P282" si="22">IF(N281&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O281), CONCATENATE("Athena-",O281)),"")</f>
         <v/>
       </c>
       <c r="Q281" s="27"/>
@@ -19690,38 +19766,40 @@
         <v>775</v>
       </c>
     </row>
-    <row r="282" spans="1:24" s="54" customFormat="1" ht="15">
+    <row r="282" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A282" s="59"/>
-      <c r="B282" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="C282" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="D282" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="E282" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="F282" s="15" t="s">
+      <c r="B282" s="67"/>
+      <c r="C282" s="106"/>
+      <c r="D282" s="84" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E282" s="83" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F282" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G282" s="15"/>
-      <c r="H282" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="I282" s="15"/>
+      <c r="G282" s="16"/>
+      <c r="H282" s="104" t="s">
+        <v>761</v>
+      </c>
+      <c r="I282" s="28" t="s">
+        <v>715</v>
+      </c>
       <c r="J282" s="15"/>
       <c r="K282" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L282" s="15"/>
-      <c r="M282" s="27"/>
+      <c r="L282" s="27"/>
+      <c r="M282" s="47" t="s">
+        <v>374</v>
+      </c>
       <c r="N282" s="27"/>
-      <c r="O282" s="27"/>
+      <c r="O282" s="89">
+        <v>2000000165</v>
+      </c>
       <c r="P282" s="28" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="Q282" s="27"/>
@@ -19735,22 +19813,19 @@
         <v>775</v>
       </c>
     </row>
-    <row r="283" spans="1:24" s="54" customFormat="1" ht="16">
+    <row r="283" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A283" s="59"/>
-      <c r="B283" s="110" t="s">
-        <v>918</v>
-      </c>
-      <c r="C283" s="15"/>
-      <c r="D283" s="83" t="s">
-        <v>920</v>
-      </c>
-      <c r="E283" s="83" t="s">
-        <v>914</v>
-      </c>
-      <c r="F283" s="15" t="s">
+      <c r="B283" s="67"/>
+      <c r="D283" s="84" t="s">
+        <v>957</v>
+      </c>
+      <c r="E283" s="84" t="s">
+        <v>530</v>
+      </c>
+      <c r="F283" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G283" s="15"/>
+      <c r="G283" s="16"/>
       <c r="H283" s="104" t="s">
         <v>761</v>
       </c>
@@ -19761,15 +19836,18 @@
       <c r="K283" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L283" s="15"/>
+      <c r="L283" s="27"/>
       <c r="M283" s="47" t="s">
         <v>374</v>
       </c>
       <c r="N283" s="27"/>
       <c r="O283" s="89">
-        <v>2000000130</v>
-      </c>
-      <c r="P283" s="28"/>
+        <v>2000000069</v>
+      </c>
+      <c r="P283" s="28" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
       <c r="Q283" s="27"/>
       <c r="R283" s="27"/>
       <c r="S283" s="27"/>
@@ -19778,25 +19856,25 @@
       <c r="V283" s="27"/>
       <c r="W283" s="27"/>
       <c r="X283" s="15" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="284" spans="1:24" s="54" customFormat="1" ht="16">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="284" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A284" s="59"/>
-      <c r="B284" s="110" t="s">
-        <v>919</v>
-      </c>
-      <c r="C284" s="15"/>
-      <c r="D284" s="83" t="s">
-        <v>921</v>
-      </c>
-      <c r="E284" s="83" t="s">
-        <v>915</v>
-      </c>
-      <c r="F284" s="15" t="s">
+      <c r="B284" s="67"/>
+      <c r="C284" s="45" t="s">
+        <v>574</v>
+      </c>
+      <c r="D284" s="84" t="s">
+        <v>958</v>
+      </c>
+      <c r="E284" s="84" t="s">
+        <v>531</v>
+      </c>
+      <c r="F284" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G284" s="15"/>
+      <c r="G284" s="16"/>
       <c r="H284" s="104" t="s">
         <v>761</v>
       </c>
@@ -19807,15 +19885,18 @@
       <c r="K284" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L284" s="15"/>
+      <c r="L284" s="27"/>
       <c r="M284" s="47" t="s">
         <v>374</v>
       </c>
       <c r="N284" s="27"/>
       <c r="O284" s="89">
-        <v>2000000131</v>
-      </c>
-      <c r="P284" s="28"/>
+        <v>2000000070</v>
+      </c>
+      <c r="P284" s="28" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
       <c r="Q284" s="27"/>
       <c r="R284" s="27"/>
       <c r="S284" s="27"/>
@@ -19824,23 +19905,25 @@
       <c r="V284" s="27"/>
       <c r="W284" s="27"/>
       <c r="X284" s="15" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="285" spans="1:24" s="54" customFormat="1" ht="16">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="285" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A285" s="59"/>
-      <c r="B285" s="49"/>
-      <c r="C285" s="15"/>
+      <c r="B285" s="67"/>
+      <c r="C285" s="45" t="s">
+        <v>581</v>
+      </c>
       <c r="D285" s="83" t="s">
-        <v>922</v>
+        <v>575</v>
       </c>
       <c r="E285" s="83" t="s">
-        <v>916</v>
-      </c>
-      <c r="F285" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="F285" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G285" s="15"/>
+      <c r="G285" s="16"/>
       <c r="H285" s="104" t="s">
         <v>761</v>
       </c>
@@ -19851,15 +19934,18 @@
       <c r="K285" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L285" s="15"/>
+      <c r="L285" s="27"/>
       <c r="M285" s="47" t="s">
         <v>374</v>
       </c>
       <c r="N285" s="27"/>
       <c r="O285" s="89">
-        <v>2000000132</v>
-      </c>
-      <c r="P285" s="28"/>
+        <v>2000000072</v>
+      </c>
+      <c r="P285" s="28" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
       <c r="Q285" s="27"/>
       <c r="R285" s="27"/>
       <c r="S285" s="27"/>
@@ -19868,23 +19954,25 @@
       <c r="V285" s="27"/>
       <c r="W285" s="27"/>
       <c r="X285" s="15" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="286" spans="1:24" s="54" customFormat="1" ht="16">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="286" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A286" s="59"/>
-      <c r="B286" s="49"/>
-      <c r="C286" s="15"/>
+      <c r="B286" s="67"/>
+      <c r="C286" s="45" t="s">
+        <v>582</v>
+      </c>
       <c r="D286" s="83" t="s">
-        <v>923</v>
+        <v>576</v>
       </c>
       <c r="E286" s="83" t="s">
-        <v>917</v>
-      </c>
-      <c r="F286" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="F286" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G286" s="15"/>
+      <c r="G286" s="16"/>
       <c r="H286" s="104" t="s">
         <v>761</v>
       </c>
@@ -19895,15 +19983,18 @@
       <c r="K286" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L286" s="15"/>
+      <c r="L286" s="27"/>
       <c r="M286" s="47" t="s">
         <v>374</v>
       </c>
       <c r="N286" s="27"/>
       <c r="O286" s="89">
-        <v>2000000133</v>
-      </c>
-      <c r="P286" s="28"/>
+        <v>2000000073</v>
+      </c>
+      <c r="P286" s="28" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
       <c r="Q286" s="27"/>
       <c r="R286" s="27"/>
       <c r="S286" s="27"/>
@@ -19912,336 +20003,347 @@
       <c r="V286" s="27"/>
       <c r="W286" s="27"/>
       <c r="X286" s="15" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="287" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="287" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A287" s="59"/>
-      <c r="B287" s="110" t="s">
-        <v>789</v>
-      </c>
-      <c r="C287" s="27"/>
-      <c r="D287" s="27" t="s">
-        <v>809</v>
-      </c>
-      <c r="E287" s="45" t="s">
-        <v>790</v>
+      <c r="B287" s="67"/>
+      <c r="C287" s="45" t="s">
+        <v>583</v>
+      </c>
+      <c r="D287" s="83" t="s">
+        <v>577</v>
+      </c>
+      <c r="E287" s="83" t="s">
+        <v>580</v>
       </c>
       <c r="F287" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="G287" s="15" t="s">
-        <v>791</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G287" s="16"/>
       <c r="H287" s="104" t="s">
-        <v>666</v>
+        <v>761</v>
       </c>
       <c r="I287" s="28" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J287" s="15"/>
       <c r="K287" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L287" s="16"/>
-      <c r="M287" s="27" t="s">
-        <v>367</v>
+      <c r="L287" s="27"/>
+      <c r="M287" s="47" t="s">
+        <v>374</v>
       </c>
       <c r="N287" s="27"/>
-      <c r="O287" s="27">
-        <v>2000000107</v>
-      </c>
-      <c r="P287" s="28"/>
+      <c r="O287" s="89">
+        <v>2000000074</v>
+      </c>
+      <c r="P287" s="28" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
       <c r="Q287" s="27"/>
       <c r="R287" s="27"/>
       <c r="S287" s="27"/>
-      <c r="T287" s="15" t="s">
-        <v>667</v>
-      </c>
-      <c r="U287" s="15" t="s">
-        <v>673</v>
-      </c>
+      <c r="T287" s="27"/>
+      <c r="U287" s="27"/>
       <c r="V287" s="27"/>
       <c r="W287" s="27"/>
       <c r="X287" s="15" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="288" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="288" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A288" s="59"/>
-      <c r="B288" s="49"/>
-      <c r="C288" s="27"/>
-      <c r="D288" s="27" t="s">
-        <v>794</v>
-      </c>
-      <c r="E288" s="45" t="s">
-        <v>799</v>
+      <c r="B288" s="67"/>
+      <c r="C288" s="45"/>
+      <c r="D288" s="83" t="s">
+        <v>959</v>
+      </c>
+      <c r="E288" s="84" t="s">
+        <v>739</v>
       </c>
       <c r="F288" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="G288" s="15" t="s">
-        <v>791</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G288" s="16"/>
       <c r="H288" s="104" t="s">
-        <v>666</v>
+        <v>761</v>
       </c>
       <c r="I288" s="28" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J288" s="15"/>
       <c r="K288" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L288" s="16"/>
-      <c r="M288" s="27" t="s">
-        <v>367</v>
+      <c r="L288" s="27"/>
+      <c r="M288" s="47" t="s">
+        <v>374</v>
       </c>
       <c r="N288" s="27"/>
-      <c r="O288" s="27">
-        <v>2000000108</v>
-      </c>
-      <c r="P288" s="28"/>
+      <c r="O288" s="89">
+        <v>2000000086</v>
+      </c>
+      <c r="P288" s="28" t="str">
+        <f t="shared" ref="P288:P289" si="23">IF(N288&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O288), CONCATENATE("Athena-",O288)),"")</f>
+        <v/>
+      </c>
       <c r="Q288" s="27"/>
       <c r="R288" s="27"/>
       <c r="S288" s="27"/>
-      <c r="T288" s="15" t="s">
-        <v>667</v>
-      </c>
-      <c r="U288" s="15" t="s">
-        <v>673</v>
-      </c>
+      <c r="T288" s="27"/>
+      <c r="U288" s="27"/>
       <c r="V288" s="27"/>
       <c r="W288" s="27"/>
       <c r="X288" s="15" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="289" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="289" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A289" s="59"/>
-      <c r="B289" s="49"/>
-      <c r="C289" s="27"/>
-      <c r="D289" s="27" t="s">
-        <v>793</v>
-      </c>
-      <c r="E289" s="45" t="s">
-        <v>798</v>
+      <c r="B289" s="67"/>
+      <c r="C289" s="45"/>
+      <c r="D289" s="83" t="s">
+        <v>972</v>
+      </c>
+      <c r="E289" s="84" t="s">
+        <v>973</v>
       </c>
       <c r="F289" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="G289" s="15" t="s">
-        <v>791</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G289" s="16"/>
       <c r="H289" s="104" t="s">
-        <v>666</v>
+        <v>761</v>
       </c>
       <c r="I289" s="28" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J289" s="15"/>
       <c r="K289" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L289" s="16"/>
-      <c r="M289" s="27" t="s">
-        <v>367</v>
+      <c r="L289" s="27"/>
+      <c r="M289" s="47" t="s">
+        <v>374</v>
       </c>
       <c r="N289" s="27"/>
-      <c r="O289" s="27">
-        <v>2000000109</v>
-      </c>
-      <c r="P289" s="28"/>
+      <c r="O289" s="89">
+        <v>2000000145</v>
+      </c>
+      <c r="P289" s="28" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
       <c r="Q289" s="27"/>
       <c r="R289" s="27"/>
       <c r="S289" s="27"/>
-      <c r="T289" s="15" t="s">
-        <v>667</v>
-      </c>
-      <c r="U289" s="15" t="s">
-        <v>673</v>
-      </c>
+      <c r="T289" s="27"/>
+      <c r="U289" s="27"/>
       <c r="V289" s="27"/>
       <c r="W289" s="27"/>
       <c r="X289" s="15" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="290" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="290" spans="1:24" s="54" customFormat="1" ht="16" customHeight="1">
       <c r="A290" s="59"/>
-      <c r="B290" s="49"/>
-      <c r="C290" s="27"/>
-      <c r="D290" s="27" t="s">
-        <v>792</v>
-      </c>
-      <c r="E290" s="45" t="s">
-        <v>797</v>
+      <c r="B290" s="67"/>
+      <c r="C290" s="45"/>
+      <c r="D290" s="76" t="s">
+        <v>527</v>
+      </c>
+      <c r="E290" s="77" t="s">
+        <v>529</v>
       </c>
       <c r="F290" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="G290" s="15" t="s">
-        <v>791</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G290" s="16"/>
       <c r="H290" s="104" t="s">
-        <v>666</v>
-      </c>
-      <c r="I290" s="28" t="s">
-        <v>716</v>
-      </c>
+        <v>761</v>
+      </c>
+      <c r="I290" s="28"/>
       <c r="J290" s="15"/>
       <c r="K290" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L290" s="16"/>
-      <c r="M290" s="27" t="s">
-        <v>367</v>
-      </c>
+      <c r="L290" s="27"/>
+      <c r="M290" s="47"/>
       <c r="N290" s="27"/>
-      <c r="O290" s="27">
-        <v>2000000110</v>
-      </c>
-      <c r="P290" s="28"/>
+      <c r="O290" s="89"/>
+      <c r="P290" s="28" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
       <c r="Q290" s="27"/>
       <c r="R290" s="27"/>
       <c r="S290" s="27"/>
-      <c r="T290" s="15" t="s">
-        <v>667</v>
-      </c>
-      <c r="U290" s="15" t="s">
-        <v>673</v>
-      </c>
+      <c r="T290" s="27"/>
+      <c r="U290" s="27"/>
       <c r="V290" s="27"/>
       <c r="W290" s="27"/>
       <c r="X290" s="15" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="291" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
       <c r="A291" s="59"/>
-      <c r="B291" s="49"/>
-      <c r="C291" s="27"/>
+      <c r="B291" s="67" t="s">
+        <v>151</v>
+      </c>
+      <c r="C291" s="27" t="s">
+        <v>139</v>
+      </c>
       <c r="D291" s="27" t="s">
-        <v>795</v>
+        <v>212</v>
       </c>
       <c r="E291" s="45" t="s">
-        <v>796</v>
+        <v>130</v>
       </c>
       <c r="F291" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="G291" s="15" t="s">
-        <v>791</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G291" s="15"/>
       <c r="H291" s="104" t="s">
-        <v>666</v>
-      </c>
-      <c r="I291" s="28" t="s">
-        <v>716</v>
-      </c>
+        <v>761</v>
+      </c>
+      <c r="I291" s="28"/>
       <c r="J291" s="15"/>
       <c r="K291" s="27" t="s">
         <v>337</v>
       </c>
       <c r="L291" s="16"/>
-      <c r="M291" s="27" t="s">
-        <v>367</v>
-      </c>
+      <c r="M291" s="27"/>
       <c r="N291" s="27"/>
-      <c r="O291" s="27">
-        <v>2000000111</v>
-      </c>
-      <c r="P291" s="28"/>
+      <c r="O291" s="27"/>
+      <c r="P291" s="28" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
       <c r="Q291" s="27"/>
       <c r="R291" s="27"/>
       <c r="S291" s="27"/>
-      <c r="T291" s="15" t="s">
-        <v>667</v>
-      </c>
-      <c r="U291" s="15" t="s">
-        <v>673</v>
-      </c>
+      <c r="T291" s="27"/>
+      <c r="U291" s="27"/>
       <c r="V291" s="27"/>
       <c r="W291" s="27"/>
       <c r="X291" s="15" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="292" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
+    <row r="292" spans="1:24" s="54" customFormat="1" ht="15">
       <c r="A292" s="59"/>
-      <c r="B292" s="49"/>
-      <c r="C292" s="27"/>
-      <c r="D292" s="85" t="s">
-        <v>976</v>
-      </c>
-      <c r="E292" s="45" t="s">
-        <v>977</v>
-      </c>
-      <c r="F292" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="G292" s="15" t="s">
-        <v>791</v>
-      </c>
-      <c r="H292" s="104" t="s">
-        <v>666</v>
-      </c>
-      <c r="I292" s="28" t="s">
-        <v>716</v>
-      </c>
+      <c r="B292" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="C292" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="D292" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="E292" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F292" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G292" s="15"/>
+      <c r="H292" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="I292" s="15"/>
       <c r="J292" s="15"/>
       <c r="K292" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L292" s="16"/>
-      <c r="M292" s="27" t="s">
-        <v>367</v>
-      </c>
+      <c r="L292" s="15"/>
+      <c r="M292" s="27"/>
       <c r="N292" s="27"/>
-      <c r="O292" s="27">
-        <v>2000000146</v>
-      </c>
-      <c r="P292" s="28"/>
+      <c r="O292" s="27"/>
+      <c r="P292" s="28" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
       <c r="Q292" s="27"/>
       <c r="R292" s="27"/>
       <c r="S292" s="27"/>
-      <c r="T292" s="15" t="s">
-        <v>667</v>
-      </c>
-      <c r="U292" s="15" t="s">
-        <v>673</v>
-      </c>
+      <c r="T292" s="27"/>
+      <c r="U292" s="27"/>
       <c r="V292" s="27"/>
       <c r="W292" s="27"/>
       <c r="X292" s="15" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="293" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="293" spans="1:24" s="54" customFormat="1" ht="16">
       <c r="A293" s="59"/>
       <c r="B293" s="110" t="s">
-        <v>789</v>
-      </c>
-      <c r="C293" s="27"/>
-    </row>
-    <row r="294" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
+        <v>918</v>
+      </c>
+      <c r="C293" s="15"/>
+      <c r="D293" s="83" t="s">
+        <v>920</v>
+      </c>
+      <c r="E293" s="83" t="s">
+        <v>914</v>
+      </c>
+      <c r="F293" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G293" s="15"/>
+      <c r="H293" s="104" t="s">
+        <v>761</v>
+      </c>
+      <c r="I293" s="28" t="s">
+        <v>715</v>
+      </c>
+      <c r="J293" s="15"/>
+      <c r="K293" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="L293" s="15"/>
+      <c r="M293" s="47" t="s">
+        <v>374</v>
+      </c>
+      <c r="N293" s="27"/>
+      <c r="O293" s="89">
+        <v>2000000130</v>
+      </c>
+      <c r="P293" s="28"/>
+      <c r="Q293" s="27"/>
+      <c r="R293" s="27"/>
+      <c r="S293" s="27"/>
+      <c r="T293" s="27"/>
+      <c r="U293" s="27"/>
+      <c r="V293" s="27"/>
+      <c r="W293" s="27"/>
+      <c r="X293" s="15" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="294" spans="1:24" s="54" customFormat="1" ht="16">
       <c r="A294" s="59"/>
       <c r="B294" s="110" t="s">
-        <v>802</v>
-      </c>
-      <c r="C294" s="27"/>
-      <c r="D294" s="54" t="s">
-        <v>808</v>
-      </c>
-      <c r="E294" s="45" t="s">
-        <v>807</v>
-      </c>
-      <c r="F294" s="27" t="s">
+        <v>919</v>
+      </c>
+      <c r="C294" s="15"/>
+      <c r="D294" s="83" t="s">
+        <v>921</v>
+      </c>
+      <c r="E294" s="83" t="s">
+        <v>915</v>
+      </c>
+      <c r="F294" s="15" t="s">
         <v>197</v>
       </c>
       <c r="G294" s="15"/>
       <c r="H294" s="104" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="I294" s="28" t="s">
         <v>715</v>
@@ -20250,42 +20352,42 @@
       <c r="K294" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L294" s="16"/>
-      <c r="M294" s="27" t="s">
+      <c r="L294" s="15"/>
+      <c r="M294" s="47" t="s">
         <v>374</v>
       </c>
       <c r="N294" s="27"/>
-      <c r="O294" s="27">
-        <v>2000000112</v>
+      <c r="O294" s="89">
+        <v>2000000131</v>
       </c>
       <c r="P294" s="28"/>
       <c r="Q294" s="27"/>
       <c r="R294" s="27"/>
       <c r="S294" s="27"/>
-      <c r="T294" s="15"/>
-      <c r="U294" s="15"/>
+      <c r="T294" s="27"/>
+      <c r="U294" s="27"/>
       <c r="V294" s="27"/>
       <c r="W294" s="27"/>
       <c r="X294" s="15" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="295" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="295" spans="1:24" s="54" customFormat="1" ht="16">
       <c r="A295" s="59"/>
       <c r="B295" s="49"/>
-      <c r="C295" s="27"/>
-      <c r="D295" s="27" t="s">
-        <v>803</v>
-      </c>
-      <c r="E295" s="45" t="s">
-        <v>810</v>
-      </c>
-      <c r="F295" s="27" t="s">
+      <c r="C295" s="15"/>
+      <c r="D295" s="83" t="s">
+        <v>922</v>
+      </c>
+      <c r="E295" s="83" t="s">
+        <v>916</v>
+      </c>
+      <c r="F295" s="15" t="s">
         <v>197</v>
       </c>
       <c r="G295" s="15"/>
       <c r="H295" s="104" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="I295" s="28" t="s">
         <v>715</v>
@@ -20294,42 +20396,42 @@
       <c r="K295" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L295" s="16"/>
-      <c r="M295" s="27" t="s">
+      <c r="L295" s="15"/>
+      <c r="M295" s="47" t="s">
         <v>374</v>
       </c>
       <c r="N295" s="27"/>
-      <c r="O295" s="27">
-        <v>2000000113</v>
+      <c r="O295" s="89">
+        <v>2000000132</v>
       </c>
       <c r="P295" s="28"/>
       <c r="Q295" s="27"/>
       <c r="R295" s="27"/>
       <c r="S295" s="27"/>
-      <c r="T295" s="15"/>
-      <c r="U295" s="15"/>
+      <c r="T295" s="27"/>
+      <c r="U295" s="27"/>
       <c r="V295" s="27"/>
       <c r="W295" s="27"/>
       <c r="X295" s="15" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="296" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="296" spans="1:24" s="54" customFormat="1" ht="16">
       <c r="A296" s="59"/>
       <c r="B296" s="49"/>
-      <c r="C296" s="27"/>
-      <c r="D296" s="27" t="s">
-        <v>804</v>
-      </c>
-      <c r="E296" s="45" t="s">
-        <v>811</v>
-      </c>
-      <c r="F296" s="27" t="s">
+      <c r="C296" s="15"/>
+      <c r="D296" s="83" t="s">
+        <v>923</v>
+      </c>
+      <c r="E296" s="83" t="s">
+        <v>917</v>
+      </c>
+      <c r="F296" s="15" t="s">
         <v>197</v>
       </c>
       <c r="G296" s="15"/>
       <c r="H296" s="104" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="I296" s="28" t="s">
         <v>715</v>
@@ -20338,45 +20440,49 @@
       <c r="K296" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L296" s="16"/>
-      <c r="M296" s="27" t="s">
+      <c r="L296" s="15"/>
+      <c r="M296" s="47" t="s">
         <v>374</v>
       </c>
       <c r="N296" s="27"/>
-      <c r="O296" s="27">
-        <v>2000000114</v>
+      <c r="O296" s="89">
+        <v>2000000133</v>
       </c>
       <c r="P296" s="28"/>
       <c r="Q296" s="27"/>
       <c r="R296" s="27"/>
       <c r="S296" s="27"/>
-      <c r="T296" s="15"/>
-      <c r="U296" s="15"/>
+      <c r="T296" s="27"/>
+      <c r="U296" s="27"/>
       <c r="V296" s="27"/>
       <c r="W296" s="27"/>
       <c r="X296" s="15" t="s">
-        <v>775</v>
+        <v>925</v>
       </c>
     </row>
     <row r="297" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
       <c r="A297" s="59"/>
-      <c r="B297" s="49"/>
+      <c r="B297" s="110" t="s">
+        <v>789</v>
+      </c>
       <c r="C297" s="27"/>
       <c r="D297" s="27" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="E297" s="45" t="s">
-        <v>812</v>
+        <v>790</v>
       </c>
       <c r="F297" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="G297" s="15"/>
+        <v>55</v>
+      </c>
+      <c r="G297" s="15" t="s">
+        <v>791</v>
+      </c>
       <c r="H297" s="104" t="s">
-        <v>759</v>
+        <v>666</v>
       </c>
       <c r="I297" s="28" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="J297" s="15"/>
       <c r="K297" s="27" t="s">
@@ -20384,18 +20490,22 @@
       </c>
       <c r="L297" s="16"/>
       <c r="M297" s="27" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="N297" s="27"/>
       <c r="O297" s="27">
-        <v>2000000115</v>
+        <v>2000000107</v>
       </c>
       <c r="P297" s="28"/>
       <c r="Q297" s="27"/>
       <c r="R297" s="27"/>
       <c r="S297" s="27"/>
-      <c r="T297" s="15"/>
-      <c r="U297" s="15"/>
+      <c r="T297" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="U297" s="15" t="s">
+        <v>673</v>
+      </c>
       <c r="V297" s="27"/>
       <c r="W297" s="27"/>
       <c r="X297" s="15" t="s">
@@ -20407,20 +20517,22 @@
       <c r="B298" s="49"/>
       <c r="C298" s="27"/>
       <c r="D298" s="27" t="s">
-        <v>806</v>
+        <v>794</v>
       </c>
       <c r="E298" s="45" t="s">
-        <v>813</v>
+        <v>799</v>
       </c>
       <c r="F298" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="G298" s="15"/>
+        <v>55</v>
+      </c>
+      <c r="G298" s="15" t="s">
+        <v>791</v>
+      </c>
       <c r="H298" s="104" t="s">
-        <v>759</v>
+        <v>666</v>
       </c>
       <c r="I298" s="28" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="J298" s="15"/>
       <c r="K298" s="27" t="s">
@@ -20428,120 +20540,149 @@
       </c>
       <c r="L298" s="16"/>
       <c r="M298" s="27" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="N298" s="27"/>
       <c r="O298" s="27">
-        <v>2000000116</v>
+        <v>2000000108</v>
       </c>
       <c r="P298" s="28"/>
       <c r="Q298" s="27"/>
       <c r="R298" s="27"/>
       <c r="S298" s="27"/>
-      <c r="T298" s="15"/>
-      <c r="U298" s="15"/>
+      <c r="T298" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="U298" s="15" t="s">
+        <v>673</v>
+      </c>
       <c r="V298" s="27"/>
       <c r="W298" s="27"/>
       <c r="X298" s="15" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="299" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
+      <c r="A299" s="59"/>
+      <c r="B299" s="49"/>
+      <c r="C299" s="27"/>
+      <c r="D299" s="27" t="s">
+        <v>793</v>
+      </c>
+      <c r="E299" s="45" t="s">
+        <v>798</v>
+      </c>
+      <c r="F299" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G299" s="15" t="s">
+        <v>791</v>
+      </c>
+      <c r="H299" s="104" t="s">
+        <v>666</v>
+      </c>
+      <c r="I299" s="28" t="s">
+        <v>716</v>
+      </c>
+      <c r="J299" s="15"/>
+      <c r="K299" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="L299" s="16"/>
+      <c r="M299" s="27" t="s">
+        <v>367</v>
+      </c>
+      <c r="N299" s="27"/>
+      <c r="O299" s="27">
+        <v>2000000109</v>
+      </c>
+      <c r="P299" s="28"/>
+      <c r="Q299" s="27"/>
+      <c r="R299" s="27"/>
+      <c r="S299" s="27"/>
+      <c r="T299" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="U299" s="15" t="s">
+        <v>673</v>
+      </c>
+      <c r="V299" s="27"/>
+      <c r="W299" s="27"/>
+      <c r="X299" s="15" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="299" spans="1:24" s="54" customFormat="1" ht="15">
-      <c r="A299" s="75" t="s">
-        <v>271</v>
-      </c>
-      <c r="B299" s="48"/>
-      <c r="C299" s="6"/>
-      <c r="D299" s="6"/>
-      <c r="E299" s="7"/>
-      <c r="F299" s="6"/>
-      <c r="G299" s="6"/>
-      <c r="H299" s="30"/>
-      <c r="I299" s="30"/>
-      <c r="J299" s="6"/>
-      <c r="K299" s="53"/>
-      <c r="L299" s="7"/>
-      <c r="M299" s="53"/>
-      <c r="N299" s="53"/>
-      <c r="O299" s="53"/>
-      <c r="P299" s="53"/>
-      <c r="Q299" s="53"/>
-      <c r="R299" s="53"/>
-      <c r="S299" s="53"/>
-      <c r="T299" s="53"/>
-      <c r="U299" s="53"/>
-      <c r="V299" s="53"/>
-      <c r="W299" s="53"/>
-      <c r="X299" s="53"/>
-    </row>
-    <row r="300" spans="1:24" s="54" customFormat="1" ht="15">
+    <row r="300" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
       <c r="A300" s="59"/>
       <c r="B300" s="49"/>
-      <c r="C300" s="15"/>
-      <c r="D300" s="79" t="s">
-        <v>698</v>
-      </c>
-      <c r="E300" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="F300" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="G300" s="15"/>
+      <c r="C300" s="27"/>
+      <c r="D300" s="27" t="s">
+        <v>792</v>
+      </c>
+      <c r="E300" s="45" t="s">
+        <v>797</v>
+      </c>
+      <c r="F300" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G300" s="15" t="s">
+        <v>791</v>
+      </c>
       <c r="H300" s="104" t="s">
-        <v>761</v>
+        <v>666</v>
       </c>
       <c r="I300" s="28" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="J300" s="15"/>
       <c r="K300" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L300" s="24"/>
+      <c r="L300" s="16"/>
       <c r="M300" s="27" t="s">
-        <v>374</v>
-      </c>
-      <c r="N300" s="27" t="s">
-        <v>368</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="N300" s="27"/>
       <c r="O300" s="27">
-        <v>44807681</v>
-      </c>
-      <c r="P300" s="28" t="str">
-        <f t="shared" ref="P300:P313" si="24">IF(N300&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O300), CONCATENATE("Athena-",O300)),"")</f>
-        <v>Athena-44807681</v>
-      </c>
+        <v>2000000110</v>
+      </c>
+      <c r="P300" s="28"/>
       <c r="Q300" s="27"/>
       <c r="R300" s="27"/>
       <c r="S300" s="27"/>
-      <c r="T300" s="27"/>
-      <c r="U300" s="27"/>
+      <c r="T300" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="U300" s="15" t="s">
+        <v>673</v>
+      </c>
       <c r="V300" s="27"/>
       <c r="W300" s="27"/>
-      <c r="X300" s="27" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="301" spans="1:24" s="54" customFormat="1" ht="16">
+      <c r="X300" s="15" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="301" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
       <c r="A301" s="59"/>
       <c r="B301" s="49"/>
-      <c r="C301" s="16"/>
-      <c r="D301" s="80" t="s">
-        <v>699</v>
-      </c>
-      <c r="E301" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="F301" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="G301" s="15"/>
+      <c r="C301" s="27"/>
+      <c r="D301" s="27" t="s">
+        <v>795</v>
+      </c>
+      <c r="E301" s="45" t="s">
+        <v>796</v>
+      </c>
+      <c r="F301" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G301" s="15" t="s">
+        <v>791</v>
+      </c>
       <c r="H301" s="104" t="s">
-        <v>761</v>
+        <v>666</v>
       </c>
       <c r="I301" s="28" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="J301" s="15"/>
       <c r="K301" s="27" t="s">
@@ -20549,52 +20690,49 @@
       </c>
       <c r="L301" s="16"/>
       <c r="M301" s="27" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="N301" s="27"/>
       <c r="O301" s="27">
-        <v>2000000093</v>
-      </c>
-      <c r="P301" s="28" t="str">
-        <f>IF(N301&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O301), CONCATENATE("Athena-",O301)),"")</f>
-        <v/>
-      </c>
-      <c r="Q301" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="R301" s="27">
-        <v>8845</v>
-      </c>
-      <c r="S301" s="27" t="s">
-        <v>376</v>
-      </c>
-      <c r="T301" s="27"/>
-      <c r="U301" s="27"/>
+        <v>2000000111</v>
+      </c>
+      <c r="P301" s="28"/>
+      <c r="Q301" s="27"/>
+      <c r="R301" s="27"/>
+      <c r="S301" s="27"/>
+      <c r="T301" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="U301" s="15" t="s">
+        <v>673</v>
+      </c>
       <c r="V301" s="27"/>
       <c r="W301" s="27"/>
-      <c r="X301" s="27" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="302" spans="1:24" s="54" customFormat="1" ht="16">
+      <c r="X301" s="15" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="302" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
       <c r="A302" s="59"/>
       <c r="B302" s="49"/>
-      <c r="C302" s="16"/>
-      <c r="D302" s="80" t="s">
-        <v>700</v>
-      </c>
-      <c r="E302" s="16" t="s">
-        <v>585</v>
-      </c>
-      <c r="F302" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="G302" s="16"/>
+      <c r="C302" s="27"/>
+      <c r="D302" s="85" t="s">
+        <v>975</v>
+      </c>
+      <c r="E302" s="45" t="s">
+        <v>976</v>
+      </c>
+      <c r="F302" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G302" s="15" t="s">
+        <v>791</v>
+      </c>
       <c r="H302" s="104" t="s">
-        <v>761</v>
+        <v>666</v>
       </c>
       <c r="I302" s="28" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="J302" s="15"/>
       <c r="K302" s="27" t="s">
@@ -20602,96 +20740,53 @@
       </c>
       <c r="L302" s="16"/>
       <c r="M302" s="27" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="N302" s="27"/>
       <c r="O302" s="27">
-        <v>2000000094</v>
-      </c>
-      <c r="P302" s="28" t="str">
-        <f>IF(N302&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O302), CONCATENATE("Athena-",O302)),"")</f>
-        <v/>
-      </c>
-      <c r="Q302" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="R302" s="27">
-        <v>8845</v>
-      </c>
-      <c r="S302" s="27" t="s">
-        <v>376</v>
-      </c>
-      <c r="T302" s="27"/>
-      <c r="U302" s="27"/>
+        <v>2000000146</v>
+      </c>
+      <c r="P302" s="28"/>
+      <c r="Q302" s="27"/>
+      <c r="R302" s="27"/>
+      <c r="S302" s="27"/>
+      <c r="T302" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="U302" s="15" t="s">
+        <v>673</v>
+      </c>
       <c r="V302" s="27"/>
       <c r="W302" s="27"/>
-      <c r="X302" s="27" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="303" spans="1:24" s="54" customFormat="1" ht="16">
+      <c r="X302" s="15" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="303" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
       <c r="A303" s="59"/>
-      <c r="B303" s="49"/>
-      <c r="C303" s="16"/>
-      <c r="D303" s="80" t="s">
-        <v>771</v>
-      </c>
-      <c r="E303" s="16" t="s">
-        <v>772</v>
-      </c>
-      <c r="F303" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="G303" s="16"/>
-      <c r="H303" s="104" t="s">
-        <v>761</v>
-      </c>
-      <c r="I303" s="28" t="s">
-        <v>715</v>
-      </c>
-      <c r="J303" s="15"/>
-      <c r="K303" s="27" t="s">
-        <v>337</v>
-      </c>
-      <c r="L303" s="16"/>
-      <c r="M303" s="27" t="s">
-        <v>374</v>
-      </c>
-      <c r="N303" s="27"/>
-      <c r="O303" s="27">
-        <v>2000000105</v>
-      </c>
-      <c r="P303" s="28" t="str">
-        <f>IF(N303&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O303), CONCATENATE("Athena-",O303)),"")</f>
-        <v/>
-      </c>
-      <c r="Q303" s="27"/>
-      <c r="R303" s="27"/>
-      <c r="S303" s="27"/>
-      <c r="T303" s="27"/>
-      <c r="U303" s="27"/>
-      <c r="V303" s="27"/>
-      <c r="W303" s="27"/>
-      <c r="X303" s="27" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="304" spans="1:24" s="54" customFormat="1" ht="16">
+      <c r="B303" s="110" t="s">
+        <v>789</v>
+      </c>
+      <c r="C303" s="27"/>
+    </row>
+    <row r="304" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
       <c r="A304" s="59"/>
-      <c r="B304" s="49"/>
-      <c r="C304" s="16"/>
-      <c r="D304" s="80" t="s">
-        <v>274</v>
-      </c>
-      <c r="E304" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="F304" s="15" t="s">
+      <c r="B304" s="110" t="s">
+        <v>802</v>
+      </c>
+      <c r="C304" s="27"/>
+      <c r="D304" s="54" t="s">
+        <v>808</v>
+      </c>
+      <c r="E304" s="45" t="s">
+        <v>807</v>
+      </c>
+      <c r="F304" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G304" s="15"/>
       <c r="H304" s="104" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="I304" s="28" t="s">
         <v>715</v>
@@ -20706,39 +20801,36 @@
       </c>
       <c r="N304" s="27"/>
       <c r="O304" s="27">
-        <v>2000000095</v>
-      </c>
-      <c r="P304" s="28" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
+        <v>2000000112</v>
+      </c>
+      <c r="P304" s="28"/>
       <c r="Q304" s="27"/>
       <c r="R304" s="27"/>
       <c r="S304" s="27"/>
-      <c r="T304" s="27"/>
-      <c r="U304" s="27"/>
+      <c r="T304" s="15"/>
+      <c r="U304" s="15"/>
       <c r="V304" s="27"/>
       <c r="W304" s="27"/>
-      <c r="X304" s="27" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="305" spans="1:25" s="54" customFormat="1" ht="16">
+      <c r="X304" s="15" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="305" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
       <c r="A305" s="59"/>
       <c r="B305" s="49"/>
-      <c r="C305" s="15"/>
-      <c r="D305" s="79" t="s">
-        <v>275</v>
+      <c r="C305" s="27"/>
+      <c r="D305" s="27" t="s">
+        <v>803</v>
       </c>
       <c r="E305" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="F305" s="15" t="s">
+        <v>810</v>
+      </c>
+      <c r="F305" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G305" s="15"/>
       <c r="H305" s="104" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="I305" s="28" t="s">
         <v>715</v>
@@ -20752,40 +20844,37 @@
         <v>374</v>
       </c>
       <c r="N305" s="27"/>
-      <c r="O305" s="79">
-        <v>2000000096</v>
-      </c>
-      <c r="P305" s="28" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
+      <c r="O305" s="27">
+        <v>2000000113</v>
+      </c>
+      <c r="P305" s="28"/>
       <c r="Q305" s="27"/>
       <c r="R305" s="27"/>
       <c r="S305" s="27"/>
-      <c r="T305" s="27"/>
-      <c r="U305" s="27"/>
+      <c r="T305" s="15"/>
+      <c r="U305" s="15"/>
       <c r="V305" s="27"/>
       <c r="W305" s="27"/>
-      <c r="X305" s="27" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="306" spans="1:25" s="54" customFormat="1" ht="16">
+      <c r="X305" s="15" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="306" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
       <c r="A306" s="59"/>
       <c r="B306" s="49"/>
-      <c r="C306" s="15"/>
-      <c r="D306" s="79" t="s">
-        <v>701</v>
-      </c>
-      <c r="E306" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="F306" s="15" t="s">
+      <c r="C306" s="27"/>
+      <c r="D306" s="27" t="s">
+        <v>804</v>
+      </c>
+      <c r="E306" s="45" t="s">
+        <v>811</v>
+      </c>
+      <c r="F306" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G306" s="15"/>
       <c r="H306" s="104" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="I306" s="28" t="s">
         <v>715</v>
@@ -20800,39 +20889,36 @@
       </c>
       <c r="N306" s="27"/>
       <c r="O306" s="27">
-        <v>2000000097</v>
-      </c>
-      <c r="P306" s="28" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
+        <v>2000000114</v>
+      </c>
+      <c r="P306" s="28"/>
       <c r="Q306" s="27"/>
       <c r="R306" s="27"/>
       <c r="S306" s="27"/>
-      <c r="T306" s="27"/>
-      <c r="U306" s="27"/>
+      <c r="T306" s="15"/>
+      <c r="U306" s="15"/>
       <c r="V306" s="27"/>
       <c r="W306" s="27"/>
-      <c r="X306" s="27" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="307" spans="1:25" s="54" customFormat="1" ht="16">
+      <c r="X306" s="15" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="307" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
       <c r="A307" s="59"/>
       <c r="B307" s="49"/>
-      <c r="C307" s="16"/>
-      <c r="D307" s="80" t="s">
-        <v>276</v>
-      </c>
-      <c r="E307" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="F307" s="15" t="s">
+      <c r="C307" s="27"/>
+      <c r="D307" s="27" t="s">
+        <v>805</v>
+      </c>
+      <c r="E307" s="45" t="s">
+        <v>812</v>
+      </c>
+      <c r="F307" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="G307" s="16"/>
+      <c r="G307" s="15"/>
       <c r="H307" s="104" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="I307" s="28" t="s">
         <v>715</v>
@@ -20845,43 +20931,38 @@
       <c r="M307" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="N307" s="27" t="s">
-        <v>368</v>
-      </c>
+      <c r="N307" s="27"/>
       <c r="O307" s="27">
-        <v>46284972</v>
-      </c>
-      <c r="P307" s="28" t="str">
-        <f t="shared" si="24"/>
-        <v>Athena-46284972</v>
-      </c>
+        <v>2000000115</v>
+      </c>
+      <c r="P307" s="28"/>
       <c r="Q307" s="27"/>
       <c r="R307" s="27"/>
       <c r="S307" s="27"/>
-      <c r="T307" s="27"/>
-      <c r="U307" s="27"/>
+      <c r="T307" s="15"/>
+      <c r="U307" s="15"/>
       <c r="V307" s="27"/>
       <c r="W307" s="27"/>
-      <c r="X307" s="27" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="308" spans="1:25" s="54" customFormat="1" ht="16">
+      <c r="X307" s="15" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="308" spans="1:24" s="54" customFormat="1" ht="44" customHeight="1">
       <c r="A308" s="59"/>
       <c r="B308" s="49"/>
-      <c r="C308" s="16"/>
-      <c r="D308" s="80" t="s">
-        <v>277</v>
-      </c>
-      <c r="E308" s="16" t="s">
-        <v>378</v>
-      </c>
-      <c r="F308" s="15" t="s">
+      <c r="C308" s="27"/>
+      <c r="D308" s="27" t="s">
+        <v>806</v>
+      </c>
+      <c r="E308" s="45" t="s">
+        <v>813</v>
+      </c>
+      <c r="F308" s="27" t="s">
         <v>197</v>
       </c>
       <c r="G308" s="15"/>
       <c r="H308" s="104" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="I308" s="28" t="s">
         <v>715</v>
@@ -20896,95 +20977,73 @@
       </c>
       <c r="N308" s="27"/>
       <c r="O308" s="27">
-        <v>2000000098</v>
-      </c>
-      <c r="P308" s="28" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
+        <v>2000000116</v>
+      </c>
+      <c r="P308" s="28"/>
       <c r="Q308" s="27"/>
       <c r="R308" s="27"/>
       <c r="S308" s="27"/>
-      <c r="T308" s="27"/>
-      <c r="U308" s="27"/>
+      <c r="T308" s="15"/>
+      <c r="U308" s="15"/>
       <c r="V308" s="27"/>
       <c r="W308" s="27"/>
-      <c r="X308" s="27" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="309" spans="1:25" s="54" customFormat="1" ht="16">
-      <c r="A309" s="59"/>
-      <c r="B309" s="49"/>
-      <c r="C309" s="15"/>
-      <c r="D309" s="79" t="s">
-        <v>278</v>
-      </c>
-      <c r="E309" s="45" t="s">
-        <v>377</v>
-      </c>
-      <c r="F309" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="G309" s="15"/>
-      <c r="H309" s="104" t="s">
-        <v>761</v>
-      </c>
-      <c r="I309" s="28" t="s">
-        <v>715</v>
-      </c>
-      <c r="J309" s="15"/>
-      <c r="K309" s="27" t="s">
-        <v>337</v>
-      </c>
-      <c r="L309" s="16"/>
-      <c r="M309" s="27" t="s">
-        <v>374</v>
-      </c>
-      <c r="N309" s="27"/>
-      <c r="O309" s="27">
-        <v>2000000099</v>
-      </c>
-      <c r="P309" s="28" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="Q309" s="27"/>
-      <c r="R309" s="27"/>
-      <c r="S309" s="27"/>
-      <c r="T309" s="27"/>
-      <c r="U309" s="27"/>
-      <c r="V309" s="27"/>
-      <c r="W309" s="27"/>
-      <c r="X309" s="27" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="310" spans="1:25" s="54" customFormat="1" ht="16">
+      <c r="X308" s="15" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="309" spans="1:24" s="54" customFormat="1" ht="15">
+      <c r="A309" s="75" t="s">
+        <v>271</v>
+      </c>
+      <c r="B309" s="48"/>
+      <c r="C309" s="6"/>
+      <c r="D309" s="6"/>
+      <c r="E309" s="7"/>
+      <c r="F309" s="6"/>
+      <c r="G309" s="6"/>
+      <c r="H309" s="30"/>
+      <c r="I309" s="30"/>
+      <c r="J309" s="6"/>
+      <c r="K309" s="53"/>
+      <c r="L309" s="7"/>
+      <c r="M309" s="53"/>
+      <c r="N309" s="53"/>
+      <c r="O309" s="53"/>
+      <c r="P309" s="53"/>
+      <c r="Q309" s="53"/>
+      <c r="R309" s="53"/>
+      <c r="S309" s="53"/>
+      <c r="T309" s="53"/>
+      <c r="U309" s="53"/>
+      <c r="V309" s="53"/>
+      <c r="W309" s="53"/>
+      <c r="X309" s="53"/>
+    </row>
+    <row r="310" spans="1:24" s="54" customFormat="1" ht="15">
       <c r="A310" s="59"/>
-      <c r="B310" s="16"/>
-      <c r="C310" s="16"/>
-      <c r="D310" s="80" t="s">
-        <v>279</v>
-      </c>
-      <c r="E310" s="16" t="s">
-        <v>290</v>
+      <c r="B310" s="49"/>
+      <c r="C310" s="15"/>
+      <c r="D310" s="79" t="s">
+        <v>698</v>
+      </c>
+      <c r="E310" s="15" t="s">
+        <v>283</v>
       </c>
       <c r="F310" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="G310" s="16"/>
+      <c r="G310" s="15"/>
       <c r="H310" s="104" t="s">
         <v>761</v>
       </c>
       <c r="I310" s="28" t="s">
         <v>715</v>
       </c>
-      <c r="J310" s="16"/>
+      <c r="J310" s="15"/>
       <c r="K310" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L310" s="16"/>
+      <c r="L310" s="24"/>
       <c r="M310" s="27" t="s">
         <v>374</v>
       </c>
@@ -20992,11 +21051,11 @@
         <v>368</v>
       </c>
       <c r="O310" s="27">
-        <v>4332015</v>
+        <v>44807681</v>
       </c>
       <c r="P310" s="28" t="str">
-        <f t="shared" si="24"/>
-        <v>Athena-4332015</v>
+        <f t="shared" ref="P310:P323" si="24">IF(N310&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O310), CONCATENATE("Athena-",O310)),"")</f>
+        <v>Athena-44807681</v>
       </c>
       <c r="Q310" s="27"/>
       <c r="R310" s="27"/>
@@ -21009,27 +21068,27 @@
         <v>770</v>
       </c>
     </row>
-    <row r="311" spans="1:25" s="54" customFormat="1" ht="16">
+    <row r="311" spans="1:24" s="54" customFormat="1" ht="16">
       <c r="A311" s="59"/>
-      <c r="B311" s="16"/>
+      <c r="B311" s="49"/>
       <c r="C311" s="16"/>
       <c r="D311" s="80" t="s">
-        <v>280</v>
+        <v>699</v>
       </c>
       <c r="E311" s="16" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F311" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="G311" s="16"/>
+      <c r="G311" s="15"/>
       <c r="H311" s="104" t="s">
         <v>761</v>
       </c>
       <c r="I311" s="28" t="s">
         <v>715</v>
       </c>
-      <c r="J311" s="16"/>
+      <c r="J311" s="15"/>
       <c r="K311" s="27" t="s">
         <v>337</v>
       </c>
@@ -21037,19 +21096,23 @@
       <c r="M311" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="N311" s="27" t="s">
-        <v>368</v>
-      </c>
+      <c r="N311" s="27"/>
       <c r="O311" s="27">
-        <v>4166200</v>
+        <v>2000000093</v>
       </c>
       <c r="P311" s="28" t="str">
-        <f t="shared" si="24"/>
-        <v>Athena-4166200</v>
-      </c>
-      <c r="Q311" s="27"/>
-      <c r="R311" s="27"/>
-      <c r="S311" s="27"/>
+        <f>IF(N311&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O311), CONCATENATE("Athena-",O311)),"")</f>
+        <v/>
+      </c>
+      <c r="Q311" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="R311" s="27">
+        <v>8845</v>
+      </c>
+      <c r="S311" s="27" t="s">
+        <v>376</v>
+      </c>
       <c r="T311" s="27"/>
       <c r="U311" s="27"/>
       <c r="V311" s="27"/>
@@ -21058,15 +21121,15 @@
         <v>770</v>
       </c>
     </row>
-    <row r="312" spans="1:25" s="54" customFormat="1" ht="16">
+    <row r="312" spans="1:24" s="54" customFormat="1" ht="16">
       <c r="A312" s="59"/>
-      <c r="B312" s="16"/>
+      <c r="B312" s="49"/>
       <c r="C312" s="16"/>
       <c r="D312" s="80" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E312" s="16" t="s">
-        <v>292</v>
+        <v>585</v>
       </c>
       <c r="F312" s="15" t="s">
         <v>197</v>
@@ -21078,7 +21141,7 @@
       <c r="I312" s="28" t="s">
         <v>715</v>
       </c>
-      <c r="J312" s="16"/>
+      <c r="J312" s="15"/>
       <c r="K312" s="27" t="s">
         <v>337</v>
       </c>
@@ -21086,19 +21149,23 @@
       <c r="M312" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="N312" s="27" t="s">
-        <v>368</v>
-      </c>
+      <c r="N312" s="27"/>
       <c r="O312" s="27">
-        <v>4282774</v>
+        <v>2000000094</v>
       </c>
       <c r="P312" s="28" t="str">
-        <f t="shared" si="24"/>
-        <v>Athena-4282774</v>
-      </c>
-      <c r="Q312" s="27"/>
-      <c r="R312" s="27"/>
-      <c r="S312" s="27"/>
+        <f>IF(N312&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O312), CONCATENATE("Athena-",O312)),"")</f>
+        <v/>
+      </c>
+      <c r="Q312" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="R312" s="27">
+        <v>8845</v>
+      </c>
+      <c r="S312" s="27" t="s">
+        <v>376</v>
+      </c>
       <c r="T312" s="27"/>
       <c r="U312" s="27"/>
       <c r="V312" s="27"/>
@@ -21107,15 +21174,15 @@
         <v>770</v>
       </c>
     </row>
-    <row r="313" spans="1:25" s="54" customFormat="1" ht="16">
+    <row r="313" spans="1:24" s="54" customFormat="1" ht="16">
       <c r="A313" s="59"/>
-      <c r="B313" s="16"/>
+      <c r="B313" s="49"/>
       <c r="C313" s="16"/>
       <c r="D313" s="80" t="s">
-        <v>282</v>
+        <v>771</v>
       </c>
       <c r="E313" s="16" t="s">
-        <v>293</v>
+        <v>772</v>
       </c>
       <c r="F313" s="15" t="s">
         <v>197</v>
@@ -21127,7 +21194,7 @@
       <c r="I313" s="28" t="s">
         <v>715</v>
       </c>
-      <c r="J313" s="16"/>
+      <c r="J313" s="15"/>
       <c r="K313" s="27" t="s">
         <v>337</v>
       </c>
@@ -21137,10 +21204,10 @@
       </c>
       <c r="N313" s="27"/>
       <c r="O313" s="27">
-        <v>2000000076</v>
+        <v>2000000105</v>
       </c>
       <c r="P313" s="28" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(N313&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O313), CONCATENATE("Athena-",O313)),"")</f>
         <v/>
       </c>
       <c r="Q313" s="27"/>
@@ -21154,27 +21221,27 @@
         <v>770</v>
       </c>
     </row>
-    <row r="314" spans="1:25" s="54" customFormat="1" ht="16">
+    <row r="314" spans="1:24" s="54" customFormat="1" ht="16">
       <c r="A314" s="59"/>
-      <c r="B314" s="16"/>
+      <c r="B314" s="49"/>
       <c r="C314" s="16"/>
       <c r="D314" s="80" t="s">
-        <v>780</v>
+        <v>274</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>781</v>
+        <v>285</v>
       </c>
       <c r="F314" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="G314" s="16"/>
+      <c r="G314" s="15"/>
       <c r="H314" s="104" t="s">
         <v>761</v>
       </c>
       <c r="I314" s="28" t="s">
         <v>715</v>
       </c>
-      <c r="J314" s="16"/>
+      <c r="J314" s="15"/>
       <c r="K314" s="27" t="s">
         <v>337</v>
       </c>
@@ -21182,19 +21249,15 @@
       <c r="M314" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="N314" s="27" t="s">
-        <v>368</v>
-      </c>
+      <c r="N314" s="27"/>
       <c r="O314" s="27">
-        <v>4056962</v>
+        <v>2000000095</v>
       </c>
       <c r="P314" s="28" t="str">
-        <f t="shared" ref="P314" si="25">IF(N314&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O314), CONCATENATE("Athena-",O314)),"")</f>
-        <v>Athena-4056962</v>
-      </c>
-      <c r="Q314" s="27" t="s">
-        <v>782</v>
-      </c>
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="Q314" s="27"/>
       <c r="R314" s="27"/>
       <c r="S314" s="27"/>
       <c r="T314" s="27"/>
@@ -21204,367 +21267,649 @@
       <c r="X314" s="27" t="s">
         <v>770</v>
       </c>
-      <c r="Y314" s="54" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="315" spans="1:25" s="54" customFormat="1" ht="15">
-      <c r="A315" s="75" t="s">
-        <v>965</v>
-      </c>
-      <c r="B315" s="48"/>
-      <c r="C315" s="6"/>
-      <c r="D315" s="6"/>
-      <c r="E315" s="7"/>
-      <c r="F315" s="6"/>
-      <c r="G315" s="6"/>
-      <c r="H315" s="30"/>
-      <c r="I315" s="30"/>
-      <c r="J315" s="6"/>
-      <c r="K315" s="53"/>
-      <c r="L315" s="7"/>
-      <c r="M315" s="53"/>
-      <c r="N315" s="53"/>
-      <c r="O315" s="53"/>
-      <c r="P315" s="53"/>
-      <c r="Q315" s="53"/>
-      <c r="R315" s="53"/>
-      <c r="S315" s="53"/>
-      <c r="T315" s="53"/>
-      <c r="U315" s="53"/>
-      <c r="V315" s="53"/>
-      <c r="W315" s="53"/>
-      <c r="X315" s="53"/>
-    </row>
-    <row r="316" spans="1:25">
-      <c r="A316" s="111"/>
-      <c r="B316" s="111"/>
-      <c r="C316" s="112"/>
-      <c r="D316" s="112" t="s">
-        <v>967</v>
-      </c>
-      <c r="E316" s="113" t="s">
-        <v>968</v>
+    </row>
+    <row r="315" spans="1:24" s="54" customFormat="1" ht="16">
+      <c r="A315" s="59"/>
+      <c r="B315" s="49"/>
+      <c r="C315" s="15"/>
+      <c r="D315" s="79" t="s">
+        <v>275</v>
+      </c>
+      <c r="E315" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="F315" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G315" s="15"/>
+      <c r="H315" s="104" t="s">
+        <v>761</v>
+      </c>
+      <c r="I315" s="28" t="s">
+        <v>715</v>
+      </c>
+      <c r="J315" s="15"/>
+      <c r="K315" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="L315" s="16"/>
+      <c r="M315" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="N315" s="27"/>
+      <c r="O315" s="79">
+        <v>2000000096</v>
+      </c>
+      <c r="P315" s="28" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="Q315" s="27"/>
+      <c r="R315" s="27"/>
+      <c r="S315" s="27"/>
+      <c r="T315" s="27"/>
+      <c r="U315" s="27"/>
+      <c r="V315" s="27"/>
+      <c r="W315" s="27"/>
+      <c r="X315" s="27" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="316" spans="1:24" s="54" customFormat="1" ht="16">
+      <c r="A316" s="59"/>
+      <c r="B316" s="49"/>
+      <c r="C316" s="15"/>
+      <c r="D316" s="79" t="s">
+        <v>701</v>
+      </c>
+      <c r="E316" s="11" t="s">
+        <v>288</v>
       </c>
       <c r="F316" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="G316" s="112"/>
+      <c r="G316" s="15"/>
       <c r="H316" s="104" t="s">
         <v>761</v>
       </c>
       <c r="I316" s="28" t="s">
         <v>715</v>
       </c>
-      <c r="J316" s="112"/>
+      <c r="J316" s="15"/>
       <c r="K316" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L316" s="112"/>
+      <c r="L316" s="16"/>
       <c r="M316" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="N316" s="114"/>
-      <c r="O316" s="114">
-        <v>2000000143</v>
-      </c>
-      <c r="P316" s="114"/>
-      <c r="Q316" s="28" t="s">
-        <v>369</v>
-      </c>
-      <c r="R316" s="28">
-        <v>9448</v>
-      </c>
-      <c r="S316" s="27" t="s">
-        <v>376</v>
-      </c>
-      <c r="T316" s="114"/>
-      <c r="U316" s="114"/>
-      <c r="V316" s="114"/>
-      <c r="W316" s="114"/>
-      <c r="X316" s="115" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="317" spans="1:25" s="54" customFormat="1" ht="15">
-      <c r="A317" s="75" t="s">
-        <v>969</v>
-      </c>
-      <c r="B317" s="48"/>
-      <c r="C317" s="6"/>
-      <c r="D317" s="6"/>
-      <c r="E317" s="7"/>
-      <c r="F317" s="6"/>
-      <c r="G317" s="6"/>
-      <c r="H317" s="30"/>
-      <c r="I317" s="30"/>
-      <c r="J317" s="6"/>
-      <c r="K317" s="53"/>
-      <c r="L317" s="7"/>
-      <c r="M317" s="53"/>
-      <c r="N317" s="53"/>
-      <c r="O317" s="53"/>
-      <c r="P317" s="53"/>
-      <c r="Q317" s="53"/>
-      <c r="R317" s="53"/>
-      <c r="S317" s="53"/>
-      <c r="T317" s="53"/>
-      <c r="U317" s="53"/>
-      <c r="V317" s="53"/>
-      <c r="W317" s="53"/>
-      <c r="X317" s="53"/>
-    </row>
-    <row r="318" spans="1:25">
-      <c r="A318" s="111"/>
-      <c r="B318" s="111"/>
-      <c r="C318" s="112"/>
-      <c r="D318" s="112" t="s">
-        <v>970</v>
-      </c>
-      <c r="E318" s="113" t="s">
-        <v>971</v>
+      <c r="N316" s="27"/>
+      <c r="O316" s="27">
+        <v>2000000097</v>
+      </c>
+      <c r="P316" s="28" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="Q316" s="27"/>
+      <c r="R316" s="27"/>
+      <c r="S316" s="27"/>
+      <c r="T316" s="27"/>
+      <c r="U316" s="27"/>
+      <c r="V316" s="27"/>
+      <c r="W316" s="27"/>
+      <c r="X316" s="27" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="317" spans="1:24" s="54" customFormat="1" ht="16">
+      <c r="A317" s="59"/>
+      <c r="B317" s="49"/>
+      <c r="C317" s="16"/>
+      <c r="D317" s="80" t="s">
+        <v>276</v>
+      </c>
+      <c r="E317" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F317" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G317" s="16"/>
+      <c r="H317" s="104" t="s">
+        <v>761</v>
+      </c>
+      <c r="I317" s="28" t="s">
+        <v>715</v>
+      </c>
+      <c r="J317" s="15"/>
+      <c r="K317" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="L317" s="16"/>
+      <c r="M317" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="N317" s="27" t="s">
+        <v>368</v>
+      </c>
+      <c r="O317" s="27">
+        <v>46284972</v>
+      </c>
+      <c r="P317" s="28" t="str">
+        <f t="shared" si="24"/>
+        <v>Athena-46284972</v>
+      </c>
+      <c r="Q317" s="27"/>
+      <c r="R317" s="27"/>
+      <c r="S317" s="27"/>
+      <c r="T317" s="27"/>
+      <c r="U317" s="27"/>
+      <c r="V317" s="27"/>
+      <c r="W317" s="27"/>
+      <c r="X317" s="27" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="318" spans="1:24" s="54" customFormat="1" ht="16">
+      <c r="A318" s="59"/>
+      <c r="B318" s="49"/>
+      <c r="C318" s="16"/>
+      <c r="D318" s="80" t="s">
+        <v>277</v>
+      </c>
+      <c r="E318" s="16" t="s">
+        <v>378</v>
       </c>
       <c r="F318" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="G318" s="112"/>
+      <c r="G318" s="15"/>
       <c r="H318" s="104" t="s">
         <v>761</v>
       </c>
       <c r="I318" s="28" t="s">
         <v>715</v>
       </c>
-      <c r="J318" s="112"/>
+      <c r="J318" s="15"/>
       <c r="K318" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="L318" s="112"/>
+      <c r="L318" s="16"/>
       <c r="M318" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="N318" s="114"/>
-      <c r="O318" s="114">
+      <c r="N318" s="27"/>
+      <c r="O318" s="27">
+        <v>2000000098</v>
+      </c>
+      <c r="P318" s="28" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="Q318" s="27"/>
+      <c r="R318" s="27"/>
+      <c r="S318" s="27"/>
+      <c r="T318" s="27"/>
+      <c r="U318" s="27"/>
+      <c r="V318" s="27"/>
+      <c r="W318" s="27"/>
+      <c r="X318" s="27" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="319" spans="1:24" s="54" customFormat="1" ht="16">
+      <c r="A319" s="59"/>
+      <c r="B319" s="49"/>
+      <c r="C319" s="15"/>
+      <c r="D319" s="79" t="s">
+        <v>278</v>
+      </c>
+      <c r="E319" s="45" t="s">
+        <v>377</v>
+      </c>
+      <c r="F319" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G319" s="15"/>
+      <c r="H319" s="104" t="s">
+        <v>761</v>
+      </c>
+      <c r="I319" s="28" t="s">
+        <v>715</v>
+      </c>
+      <c r="J319" s="15"/>
+      <c r="K319" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="L319" s="16"/>
+      <c r="M319" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="N319" s="27"/>
+      <c r="O319" s="27">
+        <v>2000000099</v>
+      </c>
+      <c r="P319" s="28" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="Q319" s="27"/>
+      <c r="R319" s="27"/>
+      <c r="S319" s="27"/>
+      <c r="T319" s="27"/>
+      <c r="U319" s="27"/>
+      <c r="V319" s="27"/>
+      <c r="W319" s="27"/>
+      <c r="X319" s="27" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="320" spans="1:24" s="54" customFormat="1" ht="16">
+      <c r="A320" s="59"/>
+      <c r="B320" s="16"/>
+      <c r="C320" s="16"/>
+      <c r="D320" s="80" t="s">
+        <v>279</v>
+      </c>
+      <c r="E320" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="F320" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G320" s="16"/>
+      <c r="H320" s="104" t="s">
+        <v>761</v>
+      </c>
+      <c r="I320" s="28" t="s">
+        <v>715</v>
+      </c>
+      <c r="J320" s="16"/>
+      <c r="K320" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="L320" s="16"/>
+      <c r="M320" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="N320" s="27" t="s">
+        <v>368</v>
+      </c>
+      <c r="O320" s="27">
+        <v>4332015</v>
+      </c>
+      <c r="P320" s="28" t="str">
+        <f t="shared" si="24"/>
+        <v>Athena-4332015</v>
+      </c>
+      <c r="Q320" s="27"/>
+      <c r="R320" s="27"/>
+      <c r="S320" s="27"/>
+      <c r="T320" s="27"/>
+      <c r="U320" s="27"/>
+      <c r="V320" s="27"/>
+      <c r="W320" s="27"/>
+      <c r="X320" s="27" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="321" spans="1:25" s="54" customFormat="1" ht="16">
+      <c r="A321" s="59"/>
+      <c r="B321" s="16"/>
+      <c r="C321" s="16"/>
+      <c r="D321" s="80" t="s">
+        <v>280</v>
+      </c>
+      <c r="E321" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="F321" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G321" s="16"/>
+      <c r="H321" s="104" t="s">
+        <v>761</v>
+      </c>
+      <c r="I321" s="28" t="s">
+        <v>715</v>
+      </c>
+      <c r="J321" s="16"/>
+      <c r="K321" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="L321" s="16"/>
+      <c r="M321" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="N321" s="27" t="s">
+        <v>368</v>
+      </c>
+      <c r="O321" s="27">
+        <v>4166200</v>
+      </c>
+      <c r="P321" s="28" t="str">
+        <f t="shared" si="24"/>
+        <v>Athena-4166200</v>
+      </c>
+      <c r="Q321" s="27"/>
+      <c r="R321" s="27"/>
+      <c r="S321" s="27"/>
+      <c r="T321" s="27"/>
+      <c r="U321" s="27"/>
+      <c r="V321" s="27"/>
+      <c r="W321" s="27"/>
+      <c r="X321" s="27" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="322" spans="1:25" s="54" customFormat="1" ht="16">
+      <c r="A322" s="59"/>
+      <c r="B322" s="16"/>
+      <c r="C322" s="16"/>
+      <c r="D322" s="80" t="s">
+        <v>702</v>
+      </c>
+      <c r="E322" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="F322" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G322" s="16"/>
+      <c r="H322" s="104" t="s">
+        <v>761</v>
+      </c>
+      <c r="I322" s="28" t="s">
+        <v>715</v>
+      </c>
+      <c r="J322" s="16"/>
+      <c r="K322" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="L322" s="16"/>
+      <c r="M322" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="N322" s="27" t="s">
+        <v>368</v>
+      </c>
+      <c r="O322" s="27">
+        <v>4282774</v>
+      </c>
+      <c r="P322" s="28" t="str">
+        <f t="shared" si="24"/>
+        <v>Athena-4282774</v>
+      </c>
+      <c r="Q322" s="27"/>
+      <c r="R322" s="27"/>
+      <c r="S322" s="27"/>
+      <c r="T322" s="27"/>
+      <c r="U322" s="27"/>
+      <c r="V322" s="27"/>
+      <c r="W322" s="27"/>
+      <c r="X322" s="27" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="323" spans="1:25" s="54" customFormat="1" ht="16">
+      <c r="A323" s="59"/>
+      <c r="B323" s="16"/>
+      <c r="C323" s="16"/>
+      <c r="D323" s="80" t="s">
+        <v>282</v>
+      </c>
+      <c r="E323" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="F323" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G323" s="16"/>
+      <c r="H323" s="104" t="s">
+        <v>761</v>
+      </c>
+      <c r="I323" s="28" t="s">
+        <v>715</v>
+      </c>
+      <c r="J323" s="16"/>
+      <c r="K323" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="L323" s="16"/>
+      <c r="M323" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="N323" s="27"/>
+      <c r="O323" s="27">
+        <v>2000000076</v>
+      </c>
+      <c r="P323" s="28" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="Q323" s="27"/>
+      <c r="R323" s="27"/>
+      <c r="S323" s="27"/>
+      <c r="T323" s="27"/>
+      <c r="U323" s="27"/>
+      <c r="V323" s="27"/>
+      <c r="W323" s="27"/>
+      <c r="X323" s="27" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="324" spans="1:25" s="54" customFormat="1" ht="16">
+      <c r="A324" s="59"/>
+      <c r="B324" s="16"/>
+      <c r="C324" s="16"/>
+      <c r="D324" s="80" t="s">
+        <v>780</v>
+      </c>
+      <c r="E324" s="16" t="s">
+        <v>781</v>
+      </c>
+      <c r="F324" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G324" s="16"/>
+      <c r="H324" s="104" t="s">
+        <v>761</v>
+      </c>
+      <c r="I324" s="28" t="s">
+        <v>715</v>
+      </c>
+      <c r="J324" s="16"/>
+      <c r="K324" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="L324" s="16"/>
+      <c r="M324" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="N324" s="27" t="s">
+        <v>368</v>
+      </c>
+      <c r="O324" s="27">
+        <v>4056962</v>
+      </c>
+      <c r="P324" s="28" t="str">
+        <f t="shared" ref="P324" si="25">IF(N324&lt;&gt;"",HYPERLINK(CONCATENATE("https:;;athena.ohdsi.org;search-terms;terms;",O324), CONCATENATE("Athena-",O324)),"")</f>
+        <v>Athena-4056962</v>
+      </c>
+      <c r="Q324" s="27" t="s">
+        <v>782</v>
+      </c>
+      <c r="R324" s="27"/>
+      <c r="S324" s="27"/>
+      <c r="T324" s="27"/>
+      <c r="U324" s="27"/>
+      <c r="V324" s="27"/>
+      <c r="W324" s="27"/>
+      <c r="X324" s="27" t="s">
+        <v>770</v>
+      </c>
+      <c r="Y324" s="54" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="325" spans="1:25" s="54" customFormat="1" ht="15">
+      <c r="A325" s="75" t="s">
+        <v>964</v>
+      </c>
+      <c r="B325" s="48"/>
+      <c r="C325" s="6"/>
+      <c r="D325" s="6"/>
+      <c r="E325" s="7"/>
+      <c r="F325" s="6"/>
+      <c r="G325" s="6"/>
+      <c r="H325" s="30"/>
+      <c r="I325" s="30"/>
+      <c r="J325" s="6"/>
+      <c r="K325" s="53"/>
+      <c r="L325" s="7"/>
+      <c r="M325" s="53"/>
+      <c r="N325" s="53"/>
+      <c r="O325" s="53"/>
+      <c r="P325" s="53"/>
+      <c r="Q325" s="53"/>
+      <c r="R325" s="53"/>
+      <c r="S325" s="53"/>
+      <c r="T325" s="53"/>
+      <c r="U325" s="53"/>
+      <c r="V325" s="53"/>
+      <c r="W325" s="53"/>
+      <c r="X325" s="53"/>
+    </row>
+    <row r="326" spans="1:25">
+      <c r="A326" s="111"/>
+      <c r="B326" s="111"/>
+      <c r="C326" s="112"/>
+      <c r="D326" s="112" t="s">
+        <v>966</v>
+      </c>
+      <c r="E326" s="113" t="s">
+        <v>967</v>
+      </c>
+      <c r="F326" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G326" s="112"/>
+      <c r="H326" s="104" t="s">
+        <v>761</v>
+      </c>
+      <c r="I326" s="28" t="s">
+        <v>715</v>
+      </c>
+      <c r="J326" s="112"/>
+      <c r="K326" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="L326" s="112"/>
+      <c r="M326" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="N326" s="114"/>
+      <c r="O326" s="114">
+        <v>2000000143</v>
+      </c>
+      <c r="P326" s="114"/>
+      <c r="Q326" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="R326" s="28">
+        <v>9448</v>
+      </c>
+      <c r="S326" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="T326" s="114"/>
+      <c r="U326" s="114"/>
+      <c r="V326" s="114"/>
+      <c r="W326" s="114"/>
+      <c r="X326" s="115" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="327" spans="1:25" s="54" customFormat="1" ht="15">
+      <c r="A327" s="75" t="s">
+        <v>968</v>
+      </c>
+      <c r="B327" s="48"/>
+      <c r="C327" s="6"/>
+      <c r="D327" s="6"/>
+      <c r="E327" s="7"/>
+      <c r="F327" s="6"/>
+      <c r="G327" s="6"/>
+      <c r="H327" s="30"/>
+      <c r="I327" s="30"/>
+      <c r="J327" s="6"/>
+      <c r="K327" s="53"/>
+      <c r="L327" s="7"/>
+      <c r="M327" s="53"/>
+      <c r="N327" s="53"/>
+      <c r="O327" s="53"/>
+      <c r="P327" s="53"/>
+      <c r="Q327" s="53"/>
+      <c r="R327" s="53"/>
+      <c r="S327" s="53"/>
+      <c r="T327" s="53"/>
+      <c r="U327" s="53"/>
+      <c r="V327" s="53"/>
+      <c r="W327" s="53"/>
+      <c r="X327" s="53"/>
+    </row>
+    <row r="328" spans="1:25">
+      <c r="A328" s="111"/>
+      <c r="B328" s="111"/>
+      <c r="C328" s="112"/>
+      <c r="D328" s="112" t="s">
+        <v>969</v>
+      </c>
+      <c r="E328" s="113" t="s">
+        <v>970</v>
+      </c>
+      <c r="F328" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G328" s="112"/>
+      <c r="H328" s="104" t="s">
+        <v>761</v>
+      </c>
+      <c r="I328" s="28" t="s">
+        <v>715</v>
+      </c>
+      <c r="J328" s="112"/>
+      <c r="K328" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="L328" s="112"/>
+      <c r="M328" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="N328" s="114"/>
+      <c r="O328" s="114">
         <v>2000000144</v>
       </c>
-      <c r="P318" s="114"/>
-      <c r="Q318" s="28" t="s">
+      <c r="P328" s="114"/>
+      <c r="Q328" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="R318" s="28">
+      <c r="R328" s="28">
         <v>9448</v>
       </c>
-      <c r="S318" s="27" t="s">
+      <c r="S328" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="T318" s="114"/>
-      <c r="U318" s="114"/>
-      <c r="V318" s="114"/>
-      <c r="W318" s="114"/>
-      <c r="X318" s="115" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="319" spans="1:25">
-      <c r="G319" s="23"/>
-      <c r="H319" s="34"/>
-      <c r="I319" s="34"/>
-      <c r="J319" s="23"/>
-      <c r="K319" s="40"/>
-      <c r="L319" s="23"/>
-      <c r="M319" s="40"/>
-      <c r="N319" s="40"/>
-      <c r="O319" s="40"/>
-      <c r="P319" s="40"/>
-      <c r="Q319" s="40"/>
-      <c r="R319" s="40"/>
-      <c r="S319" s="40"/>
-      <c r="T319" s="40"/>
-      <c r="U319" s="40"/>
-      <c r="V319" s="40"/>
-      <c r="W319" s="40"/>
-      <c r="X319" s="40"/>
-    </row>
-    <row r="320" spans="1:25">
-      <c r="G320" s="23"/>
-      <c r="H320" s="34"/>
-      <c r="I320" s="34"/>
-      <c r="J320" s="23"/>
-      <c r="K320" s="40"/>
-      <c r="L320" s="23"/>
-      <c r="M320" s="40"/>
-      <c r="N320" s="40"/>
-      <c r="O320" s="40"/>
-      <c r="P320" s="40"/>
-      <c r="Q320" s="40"/>
-      <c r="R320" s="40"/>
-      <c r="S320" s="40"/>
-      <c r="T320" s="40"/>
-      <c r="U320" s="40"/>
-      <c r="V320" s="40"/>
-      <c r="W320" s="40"/>
-      <c r="X320" s="40"/>
-    </row>
-    <row r="321" spans="7:24">
-      <c r="G321" s="23"/>
-      <c r="H321" s="34"/>
-      <c r="I321" s="34"/>
-      <c r="J321" s="23"/>
-      <c r="K321" s="40"/>
-      <c r="L321" s="23"/>
-      <c r="M321" s="40"/>
-      <c r="N321" s="40"/>
-      <c r="O321" s="40"/>
-      <c r="P321" s="40"/>
-      <c r="Q321" s="40"/>
-      <c r="R321" s="40"/>
-      <c r="S321" s="40"/>
-      <c r="T321" s="40"/>
-      <c r="U321" s="40"/>
-      <c r="V321" s="40"/>
-      <c r="W321" s="40"/>
-      <c r="X321" s="40"/>
-    </row>
-    <row r="322" spans="7:24">
-      <c r="G322" s="23"/>
-      <c r="H322" s="34"/>
-      <c r="I322" s="34"/>
-      <c r="J322" s="23"/>
-      <c r="K322" s="40"/>
-      <c r="L322" s="23"/>
-      <c r="M322" s="40"/>
-      <c r="N322" s="40"/>
-      <c r="O322" s="40"/>
-      <c r="P322" s="40"/>
-      <c r="Q322" s="40"/>
-      <c r="R322" s="40"/>
-      <c r="S322" s="40"/>
-      <c r="T322" s="40"/>
-      <c r="U322" s="40"/>
-      <c r="V322" s="40"/>
-      <c r="W322" s="40"/>
-      <c r="X322" s="40"/>
-    </row>
-    <row r="323" spans="7:24">
-      <c r="G323" s="23"/>
-      <c r="H323" s="34"/>
-      <c r="I323" s="34"/>
-      <c r="J323" s="23"/>
-      <c r="K323" s="40"/>
-      <c r="L323" s="23"/>
-      <c r="M323" s="40"/>
-      <c r="N323" s="40"/>
-      <c r="O323" s="40"/>
-      <c r="P323" s="40"/>
-      <c r="Q323" s="40"/>
-      <c r="R323" s="40"/>
-      <c r="S323" s="40"/>
-      <c r="T323" s="40"/>
-      <c r="U323" s="40"/>
-      <c r="V323" s="40"/>
-      <c r="W323" s="40"/>
-      <c r="X323" s="40"/>
-    </row>
-    <row r="324" spans="7:24">
-      <c r="G324" s="23"/>
-      <c r="H324" s="34"/>
-      <c r="I324" s="34"/>
-      <c r="J324" s="23"/>
-      <c r="K324" s="40"/>
-      <c r="L324" s="23"/>
-      <c r="M324" s="40"/>
-      <c r="N324" s="40"/>
-      <c r="O324" s="40"/>
-      <c r="P324" s="40"/>
-      <c r="Q324" s="40"/>
-      <c r="R324" s="40"/>
-      <c r="S324" s="40"/>
-      <c r="T324" s="40"/>
-      <c r="U324" s="40"/>
-      <c r="V324" s="40"/>
-      <c r="W324" s="40"/>
-      <c r="X324" s="40"/>
-    </row>
-    <row r="325" spans="7:24">
-      <c r="G325" s="23"/>
-      <c r="H325" s="34"/>
-      <c r="I325" s="34"/>
-      <c r="J325" s="23"/>
-      <c r="K325" s="40"/>
-      <c r="L325" s="23"/>
-      <c r="M325" s="40"/>
-      <c r="N325" s="40"/>
-      <c r="O325" s="40"/>
-      <c r="P325" s="40"/>
-      <c r="Q325" s="40"/>
-      <c r="R325" s="40"/>
-      <c r="S325" s="40"/>
-      <c r="T325" s="40"/>
-      <c r="U325" s="40"/>
-      <c r="V325" s="40"/>
-      <c r="W325" s="40"/>
-      <c r="X325" s="40"/>
-    </row>
-    <row r="326" spans="7:24">
-      <c r="G326" s="23"/>
-      <c r="H326" s="34"/>
-      <c r="I326" s="34"/>
-      <c r="J326" s="23"/>
-      <c r="K326" s="40"/>
-      <c r="L326" s="23"/>
-      <c r="M326" s="40"/>
-      <c r="N326" s="40"/>
-      <c r="O326" s="40"/>
-      <c r="P326" s="40"/>
-      <c r="Q326" s="40"/>
-      <c r="R326" s="40"/>
-      <c r="S326" s="40"/>
-      <c r="T326" s="40"/>
-      <c r="U326" s="40"/>
-      <c r="V326" s="40"/>
-      <c r="W326" s="40"/>
-      <c r="X326" s="40"/>
-    </row>
-    <row r="327" spans="7:24">
-      <c r="G327" s="23"/>
-      <c r="H327" s="34"/>
-      <c r="I327" s="34"/>
-      <c r="J327" s="23"/>
-      <c r="K327" s="40"/>
-      <c r="L327" s="23"/>
-      <c r="M327" s="40"/>
-      <c r="N327" s="40"/>
-      <c r="O327" s="40"/>
-      <c r="P327" s="40"/>
-      <c r="Q327" s="40"/>
-      <c r="R327" s="40"/>
-      <c r="S327" s="40"/>
-      <c r="T327" s="40"/>
-      <c r="U327" s="40"/>
-      <c r="V327" s="40"/>
-      <c r="W327" s="40"/>
-      <c r="X327" s="40"/>
-    </row>
-    <row r="328" spans="7:24">
-      <c r="G328" s="23"/>
-      <c r="H328" s="34"/>
-      <c r="I328" s="34"/>
-      <c r="J328" s="23"/>
-      <c r="K328" s="40"/>
-      <c r="L328" s="23"/>
-      <c r="M328" s="40"/>
-      <c r="N328" s="40"/>
-      <c r="O328" s="40"/>
-      <c r="P328" s="40"/>
-      <c r="Q328" s="40"/>
-      <c r="R328" s="40"/>
-      <c r="S328" s="40"/>
-      <c r="T328" s="40"/>
-      <c r="U328" s="40"/>
-      <c r="V328" s="40"/>
-      <c r="W328" s="40"/>
-      <c r="X328" s="40"/>
-    </row>
-    <row r="329" spans="7:24">
+      <c r="T328" s="114"/>
+      <c r="U328" s="114"/>
+      <c r="V328" s="114"/>
+      <c r="W328" s="114"/>
+      <c r="X328" s="115" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="329" spans="1:25">
       <c r="G329" s="23"/>
       <c r="H329" s="34"/>
       <c r="I329" s="34"/>
@@ -21584,7 +21929,7 @@
       <c r="W329" s="40"/>
       <c r="X329" s="40"/>
     </row>
-    <row r="330" spans="7:24">
+    <row r="330" spans="1:25">
       <c r="G330" s="23"/>
       <c r="H330" s="34"/>
       <c r="I330" s="34"/>
@@ -21604,7 +21949,7 @@
       <c r="W330" s="40"/>
       <c r="X330" s="40"/>
     </row>
-    <row r="331" spans="7:24">
+    <row r="331" spans="1:25">
       <c r="G331" s="23"/>
       <c r="H331" s="34"/>
       <c r="I331" s="34"/>
@@ -21624,7 +21969,7 @@
       <c r="W331" s="40"/>
       <c r="X331" s="40"/>
     </row>
-    <row r="332" spans="7:24">
+    <row r="332" spans="1:25">
       <c r="G332" s="23"/>
       <c r="H332" s="34"/>
       <c r="I332" s="34"/>
@@ -21644,7 +21989,7 @@
       <c r="W332" s="40"/>
       <c r="X332" s="40"/>
     </row>
-    <row r="333" spans="7:24">
+    <row r="333" spans="1:25">
       <c r="G333" s="23"/>
       <c r="H333" s="34"/>
       <c r="I333" s="34"/>
@@ -21664,205 +22009,205 @@
       <c r="W333" s="40"/>
       <c r="X333" s="40"/>
     </row>
-    <row r="334" spans="7:24">
+    <row r="334" spans="1:25">
       <c r="G334" s="23"/>
-      <c r="H334" s="23"/>
-      <c r="I334" s="23"/>
+      <c r="H334" s="34"/>
+      <c r="I334" s="34"/>
       <c r="J334" s="23"/>
-      <c r="K334" s="23"/>
+      <c r="K334" s="40"/>
       <c r="L334" s="23"/>
-      <c r="M334" s="23"/>
-      <c r="N334" s="23"/>
-      <c r="O334" s="23"/>
-      <c r="P334" s="23"/>
-      <c r="Q334" s="23"/>
-      <c r="R334" s="23"/>
-      <c r="S334" s="23"/>
-      <c r="T334" s="23"/>
-      <c r="U334" s="23"/>
-      <c r="V334" s="23"/>
-      <c r="W334" s="23"/>
-      <c r="X334" s="23"/>
-    </row>
-    <row r="335" spans="7:24">
+      <c r="M334" s="40"/>
+      <c r="N334" s="40"/>
+      <c r="O334" s="40"/>
+      <c r="P334" s="40"/>
+      <c r="Q334" s="40"/>
+      <c r="R334" s="40"/>
+      <c r="S334" s="40"/>
+      <c r="T334" s="40"/>
+      <c r="U334" s="40"/>
+      <c r="V334" s="40"/>
+      <c r="W334" s="40"/>
+      <c r="X334" s="40"/>
+    </row>
+    <row r="335" spans="1:25">
       <c r="G335" s="23"/>
-      <c r="H335" s="23"/>
-      <c r="I335" s="23"/>
+      <c r="H335" s="34"/>
+      <c r="I335" s="34"/>
       <c r="J335" s="23"/>
-      <c r="K335" s="23"/>
+      <c r="K335" s="40"/>
       <c r="L335" s="23"/>
-      <c r="M335" s="23"/>
-      <c r="N335" s="23"/>
-      <c r="O335" s="23"/>
-      <c r="P335" s="23"/>
-      <c r="Q335" s="23"/>
-      <c r="R335" s="23"/>
-      <c r="S335" s="23"/>
-      <c r="T335" s="23"/>
-      <c r="U335" s="23"/>
-      <c r="V335" s="23"/>
-      <c r="W335" s="23"/>
-      <c r="X335" s="23"/>
-    </row>
-    <row r="336" spans="7:24">
+      <c r="M335" s="40"/>
+      <c r="N335" s="40"/>
+      <c r="O335" s="40"/>
+      <c r="P335" s="40"/>
+      <c r="Q335" s="40"/>
+      <c r="R335" s="40"/>
+      <c r="S335" s="40"/>
+      <c r="T335" s="40"/>
+      <c r="U335" s="40"/>
+      <c r="V335" s="40"/>
+      <c r="W335" s="40"/>
+      <c r="X335" s="40"/>
+    </row>
+    <row r="336" spans="1:25">
       <c r="G336" s="23"/>
-      <c r="H336" s="23"/>
-      <c r="I336" s="23"/>
+      <c r="H336" s="34"/>
+      <c r="I336" s="34"/>
       <c r="J336" s="23"/>
-      <c r="K336" s="23"/>
+      <c r="K336" s="40"/>
       <c r="L336" s="23"/>
-      <c r="M336" s="23"/>
-      <c r="N336" s="23"/>
-      <c r="O336" s="23"/>
-      <c r="P336" s="23"/>
-      <c r="Q336" s="23"/>
-      <c r="R336" s="23"/>
-      <c r="S336" s="23"/>
-      <c r="T336" s="23"/>
-      <c r="U336" s="23"/>
-      <c r="V336" s="23"/>
-      <c r="W336" s="23"/>
-      <c r="X336" s="23"/>
+      <c r="M336" s="40"/>
+      <c r="N336" s="40"/>
+      <c r="O336" s="40"/>
+      <c r="P336" s="40"/>
+      <c r="Q336" s="40"/>
+      <c r="R336" s="40"/>
+      <c r="S336" s="40"/>
+      <c r="T336" s="40"/>
+      <c r="U336" s="40"/>
+      <c r="V336" s="40"/>
+      <c r="W336" s="40"/>
+      <c r="X336" s="40"/>
     </row>
     <row r="337" spans="7:24">
       <c r="G337" s="23"/>
-      <c r="H337" s="23"/>
-      <c r="I337" s="23"/>
+      <c r="H337" s="34"/>
+      <c r="I337" s="34"/>
       <c r="J337" s="23"/>
-      <c r="K337" s="23"/>
+      <c r="K337" s="40"/>
       <c r="L337" s="23"/>
-      <c r="M337" s="23"/>
-      <c r="N337" s="23"/>
-      <c r="O337" s="23"/>
-      <c r="P337" s="23"/>
-      <c r="Q337" s="23"/>
-      <c r="R337" s="23"/>
-      <c r="S337" s="23"/>
-      <c r="T337" s="23"/>
-      <c r="U337" s="23"/>
-      <c r="V337" s="23"/>
-      <c r="W337" s="23"/>
-      <c r="X337" s="23"/>
+      <c r="M337" s="40"/>
+      <c r="N337" s="40"/>
+      <c r="O337" s="40"/>
+      <c r="P337" s="40"/>
+      <c r="Q337" s="40"/>
+      <c r="R337" s="40"/>
+      <c r="S337" s="40"/>
+      <c r="T337" s="40"/>
+      <c r="U337" s="40"/>
+      <c r="V337" s="40"/>
+      <c r="W337" s="40"/>
+      <c r="X337" s="40"/>
     </row>
     <row r="338" spans="7:24">
       <c r="G338" s="23"/>
-      <c r="H338" s="23"/>
-      <c r="I338" s="23"/>
+      <c r="H338" s="34"/>
+      <c r="I338" s="34"/>
       <c r="J338" s="23"/>
-      <c r="K338" s="23"/>
+      <c r="K338" s="40"/>
       <c r="L338" s="23"/>
-      <c r="M338" s="23"/>
-      <c r="N338" s="23"/>
-      <c r="O338" s="23"/>
-      <c r="P338" s="23"/>
-      <c r="Q338" s="23"/>
-      <c r="R338" s="23"/>
-      <c r="S338" s="23"/>
-      <c r="T338" s="23"/>
-      <c r="U338" s="23"/>
-      <c r="V338" s="23"/>
-      <c r="W338" s="23"/>
-      <c r="X338" s="23"/>
+      <c r="M338" s="40"/>
+      <c r="N338" s="40"/>
+      <c r="O338" s="40"/>
+      <c r="P338" s="40"/>
+      <c r="Q338" s="40"/>
+      <c r="R338" s="40"/>
+      <c r="S338" s="40"/>
+      <c r="T338" s="40"/>
+      <c r="U338" s="40"/>
+      <c r="V338" s="40"/>
+      <c r="W338" s="40"/>
+      <c r="X338" s="40"/>
     </row>
     <row r="339" spans="7:24">
       <c r="G339" s="23"/>
-      <c r="H339" s="23"/>
-      <c r="I339" s="23"/>
+      <c r="H339" s="34"/>
+      <c r="I339" s="34"/>
       <c r="J339" s="23"/>
-      <c r="K339" s="23"/>
+      <c r="K339" s="40"/>
       <c r="L339" s="23"/>
-      <c r="M339" s="23"/>
-      <c r="N339" s="23"/>
-      <c r="O339" s="23"/>
-      <c r="P339" s="23"/>
-      <c r="Q339" s="23"/>
-      <c r="R339" s="23"/>
-      <c r="S339" s="23"/>
-      <c r="T339" s="23"/>
-      <c r="U339" s="23"/>
-      <c r="V339" s="23"/>
-      <c r="W339" s="23"/>
-      <c r="X339" s="23"/>
+      <c r="M339" s="40"/>
+      <c r="N339" s="40"/>
+      <c r="O339" s="40"/>
+      <c r="P339" s="40"/>
+      <c r="Q339" s="40"/>
+      <c r="R339" s="40"/>
+      <c r="S339" s="40"/>
+      <c r="T339" s="40"/>
+      <c r="U339" s="40"/>
+      <c r="V339" s="40"/>
+      <c r="W339" s="40"/>
+      <c r="X339" s="40"/>
     </row>
     <row r="340" spans="7:24">
       <c r="G340" s="23"/>
-      <c r="H340" s="23"/>
-      <c r="I340" s="23"/>
+      <c r="H340" s="34"/>
+      <c r="I340" s="34"/>
       <c r="J340" s="23"/>
-      <c r="K340" s="23"/>
+      <c r="K340" s="40"/>
       <c r="L340" s="23"/>
-      <c r="M340" s="23"/>
-      <c r="N340" s="23"/>
-      <c r="O340" s="23"/>
-      <c r="P340" s="23"/>
-      <c r="Q340" s="23"/>
-      <c r="R340" s="23"/>
-      <c r="S340" s="23"/>
-      <c r="T340" s="23"/>
-      <c r="U340" s="23"/>
-      <c r="V340" s="23"/>
-      <c r="W340" s="23"/>
-      <c r="X340" s="23"/>
+      <c r="M340" s="40"/>
+      <c r="N340" s="40"/>
+      <c r="O340" s="40"/>
+      <c r="P340" s="40"/>
+      <c r="Q340" s="40"/>
+      <c r="R340" s="40"/>
+      <c r="S340" s="40"/>
+      <c r="T340" s="40"/>
+      <c r="U340" s="40"/>
+      <c r="V340" s="40"/>
+      <c r="W340" s="40"/>
+      <c r="X340" s="40"/>
     </row>
     <row r="341" spans="7:24">
       <c r="G341" s="23"/>
-      <c r="H341" s="23"/>
-      <c r="I341" s="23"/>
+      <c r="H341" s="34"/>
+      <c r="I341" s="34"/>
       <c r="J341" s="23"/>
-      <c r="K341" s="23"/>
+      <c r="K341" s="40"/>
       <c r="L341" s="23"/>
-      <c r="M341" s="23"/>
-      <c r="N341" s="23"/>
-      <c r="O341" s="23"/>
-      <c r="P341" s="23"/>
-      <c r="Q341" s="23"/>
-      <c r="R341" s="23"/>
-      <c r="S341" s="23"/>
-      <c r="T341" s="23"/>
-      <c r="U341" s="23"/>
-      <c r="V341" s="23"/>
-      <c r="W341" s="23"/>
-      <c r="X341" s="23"/>
+      <c r="M341" s="40"/>
+      <c r="N341" s="40"/>
+      <c r="O341" s="40"/>
+      <c r="P341" s="40"/>
+      <c r="Q341" s="40"/>
+      <c r="R341" s="40"/>
+      <c r="S341" s="40"/>
+      <c r="T341" s="40"/>
+      <c r="U341" s="40"/>
+      <c r="V341" s="40"/>
+      <c r="W341" s="40"/>
+      <c r="X341" s="40"/>
     </row>
     <row r="342" spans="7:24">
       <c r="G342" s="23"/>
-      <c r="H342" s="23"/>
-      <c r="I342" s="23"/>
+      <c r="H342" s="34"/>
+      <c r="I342" s="34"/>
       <c r="J342" s="23"/>
-      <c r="K342" s="23"/>
+      <c r="K342" s="40"/>
       <c r="L342" s="23"/>
-      <c r="M342" s="23"/>
-      <c r="N342" s="23"/>
-      <c r="O342" s="23"/>
-      <c r="P342" s="23"/>
-      <c r="Q342" s="23"/>
-      <c r="R342" s="23"/>
-      <c r="S342" s="23"/>
-      <c r="T342" s="23"/>
-      <c r="U342" s="23"/>
-      <c r="V342" s="23"/>
-      <c r="W342" s="23"/>
-      <c r="X342" s="23"/>
+      <c r="M342" s="40"/>
+      <c r="N342" s="40"/>
+      <c r="O342" s="40"/>
+      <c r="P342" s="40"/>
+      <c r="Q342" s="40"/>
+      <c r="R342" s="40"/>
+      <c r="S342" s="40"/>
+      <c r="T342" s="40"/>
+      <c r="U342" s="40"/>
+      <c r="V342" s="40"/>
+      <c r="W342" s="40"/>
+      <c r="X342" s="40"/>
     </row>
     <row r="343" spans="7:24">
       <c r="G343" s="23"/>
-      <c r="H343" s="23"/>
-      <c r="I343" s="23"/>
+      <c r="H343" s="34"/>
+      <c r="I343" s="34"/>
       <c r="J343" s="23"/>
-      <c r="K343" s="23"/>
+      <c r="K343" s="40"/>
       <c r="L343" s="23"/>
-      <c r="M343" s="23"/>
-      <c r="N343" s="23"/>
-      <c r="O343" s="23"/>
-      <c r="P343" s="23"/>
-      <c r="Q343" s="23"/>
-      <c r="R343" s="23"/>
-      <c r="S343" s="23"/>
-      <c r="T343" s="23"/>
-      <c r="U343" s="23"/>
-      <c r="V343" s="23"/>
-      <c r="W343" s="23"/>
-      <c r="X343" s="23"/>
+      <c r="M343" s="40"/>
+      <c r="N343" s="40"/>
+      <c r="O343" s="40"/>
+      <c r="P343" s="40"/>
+      <c r="Q343" s="40"/>
+      <c r="R343" s="40"/>
+      <c r="S343" s="40"/>
+      <c r="T343" s="40"/>
+      <c r="U343" s="40"/>
+      <c r="V343" s="40"/>
+      <c r="W343" s="40"/>
+      <c r="X343" s="40"/>
     </row>
     <row r="344" spans="7:24">
       <c r="G344" s="23"/>
@@ -40723,6 +41068,206 @@
       <c r="V1286" s="23"/>
       <c r="W1286" s="23"/>
       <c r="X1286" s="23"/>
+    </row>
+    <row r="1287" spans="7:24">
+      <c r="G1287" s="23"/>
+      <c r="H1287" s="23"/>
+      <c r="I1287" s="23"/>
+      <c r="J1287" s="23"/>
+      <c r="K1287" s="23"/>
+      <c r="L1287" s="23"/>
+      <c r="M1287" s="23"/>
+      <c r="N1287" s="23"/>
+      <c r="O1287" s="23"/>
+      <c r="P1287" s="23"/>
+      <c r="Q1287" s="23"/>
+      <c r="R1287" s="23"/>
+      <c r="S1287" s="23"/>
+      <c r="T1287" s="23"/>
+      <c r="U1287" s="23"/>
+      <c r="V1287" s="23"/>
+      <c r="W1287" s="23"/>
+      <c r="X1287" s="23"/>
+    </row>
+    <row r="1288" spans="7:24">
+      <c r="G1288" s="23"/>
+      <c r="H1288" s="23"/>
+      <c r="I1288" s="23"/>
+      <c r="J1288" s="23"/>
+      <c r="K1288" s="23"/>
+      <c r="L1288" s="23"/>
+      <c r="M1288" s="23"/>
+      <c r="N1288" s="23"/>
+      <c r="O1288" s="23"/>
+      <c r="P1288" s="23"/>
+      <c r="Q1288" s="23"/>
+      <c r="R1288" s="23"/>
+      <c r="S1288" s="23"/>
+      <c r="T1288" s="23"/>
+      <c r="U1288" s="23"/>
+      <c r="V1288" s="23"/>
+      <c r="W1288" s="23"/>
+      <c r="X1288" s="23"/>
+    </row>
+    <row r="1289" spans="7:24">
+      <c r="G1289" s="23"/>
+      <c r="H1289" s="23"/>
+      <c r="I1289" s="23"/>
+      <c r="J1289" s="23"/>
+      <c r="K1289" s="23"/>
+      <c r="L1289" s="23"/>
+      <c r="M1289" s="23"/>
+      <c r="N1289" s="23"/>
+      <c r="O1289" s="23"/>
+      <c r="P1289" s="23"/>
+      <c r="Q1289" s="23"/>
+      <c r="R1289" s="23"/>
+      <c r="S1289" s="23"/>
+      <c r="T1289" s="23"/>
+      <c r="U1289" s="23"/>
+      <c r="V1289" s="23"/>
+      <c r="W1289" s="23"/>
+      <c r="X1289" s="23"/>
+    </row>
+    <row r="1290" spans="7:24">
+      <c r="G1290" s="23"/>
+      <c r="H1290" s="23"/>
+      <c r="I1290" s="23"/>
+      <c r="J1290" s="23"/>
+      <c r="K1290" s="23"/>
+      <c r="L1290" s="23"/>
+      <c r="M1290" s="23"/>
+      <c r="N1290" s="23"/>
+      <c r="O1290" s="23"/>
+      <c r="P1290" s="23"/>
+      <c r="Q1290" s="23"/>
+      <c r="R1290" s="23"/>
+      <c r="S1290" s="23"/>
+      <c r="T1290" s="23"/>
+      <c r="U1290" s="23"/>
+      <c r="V1290" s="23"/>
+      <c r="W1290" s="23"/>
+      <c r="X1290" s="23"/>
+    </row>
+    <row r="1291" spans="7:24">
+      <c r="G1291" s="23"/>
+      <c r="H1291" s="23"/>
+      <c r="I1291" s="23"/>
+      <c r="J1291" s="23"/>
+      <c r="K1291" s="23"/>
+      <c r="L1291" s="23"/>
+      <c r="M1291" s="23"/>
+      <c r="N1291" s="23"/>
+      <c r="O1291" s="23"/>
+      <c r="P1291" s="23"/>
+      <c r="Q1291" s="23"/>
+      <c r="R1291" s="23"/>
+      <c r="S1291" s="23"/>
+      <c r="T1291" s="23"/>
+      <c r="U1291" s="23"/>
+      <c r="V1291" s="23"/>
+      <c r="W1291" s="23"/>
+      <c r="X1291" s="23"/>
+    </row>
+    <row r="1292" spans="7:24">
+      <c r="G1292" s="23"/>
+      <c r="H1292" s="23"/>
+      <c r="I1292" s="23"/>
+      <c r="J1292" s="23"/>
+      <c r="K1292" s="23"/>
+      <c r="L1292" s="23"/>
+      <c r="M1292" s="23"/>
+      <c r="N1292" s="23"/>
+      <c r="O1292" s="23"/>
+      <c r="P1292" s="23"/>
+      <c r="Q1292" s="23"/>
+      <c r="R1292" s="23"/>
+      <c r="S1292" s="23"/>
+      <c r="T1292" s="23"/>
+      <c r="U1292" s="23"/>
+      <c r="V1292" s="23"/>
+      <c r="W1292" s="23"/>
+      <c r="X1292" s="23"/>
+    </row>
+    <row r="1293" spans="7:24">
+      <c r="G1293" s="23"/>
+      <c r="H1293" s="23"/>
+      <c r="I1293" s="23"/>
+      <c r="J1293" s="23"/>
+      <c r="K1293" s="23"/>
+      <c r="L1293" s="23"/>
+      <c r="M1293" s="23"/>
+      <c r="N1293" s="23"/>
+      <c r="O1293" s="23"/>
+      <c r="P1293" s="23"/>
+      <c r="Q1293" s="23"/>
+      <c r="R1293" s="23"/>
+      <c r="S1293" s="23"/>
+      <c r="T1293" s="23"/>
+      <c r="U1293" s="23"/>
+      <c r="V1293" s="23"/>
+      <c r="W1293" s="23"/>
+      <c r="X1293" s="23"/>
+    </row>
+    <row r="1294" spans="7:24">
+      <c r="G1294" s="23"/>
+      <c r="H1294" s="23"/>
+      <c r="I1294" s="23"/>
+      <c r="J1294" s="23"/>
+      <c r="K1294" s="23"/>
+      <c r="L1294" s="23"/>
+      <c r="M1294" s="23"/>
+      <c r="N1294" s="23"/>
+      <c r="O1294" s="23"/>
+      <c r="P1294" s="23"/>
+      <c r="Q1294" s="23"/>
+      <c r="R1294" s="23"/>
+      <c r="S1294" s="23"/>
+      <c r="T1294" s="23"/>
+      <c r="U1294" s="23"/>
+      <c r="V1294" s="23"/>
+      <c r="W1294" s="23"/>
+      <c r="X1294" s="23"/>
+    </row>
+    <row r="1295" spans="7:24">
+      <c r="G1295" s="23"/>
+      <c r="H1295" s="23"/>
+      <c r="I1295" s="23"/>
+      <c r="J1295" s="23"/>
+      <c r="K1295" s="23"/>
+      <c r="L1295" s="23"/>
+      <c r="M1295" s="23"/>
+      <c r="N1295" s="23"/>
+      <c r="O1295" s="23"/>
+      <c r="P1295" s="23"/>
+      <c r="Q1295" s="23"/>
+      <c r="R1295" s="23"/>
+      <c r="S1295" s="23"/>
+      <c r="T1295" s="23"/>
+      <c r="U1295" s="23"/>
+      <c r="V1295" s="23"/>
+      <c r="W1295" s="23"/>
+      <c r="X1295" s="23"/>
+    </row>
+    <row r="1296" spans="7:24">
+      <c r="G1296" s="23"/>
+      <c r="H1296" s="23"/>
+      <c r="I1296" s="23"/>
+      <c r="J1296" s="23"/>
+      <c r="K1296" s="23"/>
+      <c r="L1296" s="23"/>
+      <c r="M1296" s="23"/>
+      <c r="N1296" s="23"/>
+      <c r="O1296" s="23"/>
+      <c r="P1296" s="23"/>
+      <c r="Q1296" s="23"/>
+      <c r="R1296" s="23"/>
+      <c r="S1296" s="23"/>
+      <c r="T1296" s="23"/>
+      <c r="U1296" s="23"/>
+      <c r="V1296" s="23"/>
+      <c r="W1296" s="23"/>
+      <c r="X1296" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>

--- a/ncdc_mappings/ncdc_minimal_dataset.xlsx
+++ b/ncdc_mappings/ncdc_minimal_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Projects/omop-converter/ncdc_mappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0FA51E-FDDB-BC4A-B762-F116541C7699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A9CAC1-6E0A-634C-A0E9-51CC71928258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6139,9 +6139,9 @@
   </sheetPr>
   <dimension ref="A1:Y1296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="89" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U14" sqref="U14"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="89" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M72" sqref="M72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17"/>
@@ -9510,7 +9510,7 @@
       </c>
       <c r="L71" s="16"/>
       <c r="M71" s="27" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="N71" s="27" t="s">
         <v>368</v>
@@ -9693,7 +9693,7 @@
       </c>
       <c r="L74" s="16"/>
       <c r="M74" s="27" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="N74" s="27" t="s">
         <v>368</v>
